--- a/BackTest/2020-01-13 BackTest OCN.xlsx
+++ b/BackTest/2020-01-13 BackTest OCN.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:M257"/>
+  <dimension ref="A1:M258"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -436,19 +436,19 @@
         <v>0.468</v>
       </c>
       <c r="C2" t="n">
-        <v>0.468</v>
+        <v>0.4776</v>
       </c>
       <c r="D2" t="n">
-        <v>0.4769</v>
+        <v>0.4776</v>
       </c>
       <c r="E2" t="n">
         <v>0.468</v>
       </c>
       <c r="F2" t="n">
-        <v>18278.02977131474</v>
+        <v>3485604.3229</v>
       </c>
       <c r="G2" t="n">
-        <v>0.4675849999999997</v>
+        <v>0.4676349999999997</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
@@ -468,7 +468,7 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>0.4769</v>
+        <v>0.468</v>
       </c>
       <c r="C3" t="n">
         <v>0.468</v>
@@ -480,10 +480,10 @@
         <v>0.468</v>
       </c>
       <c r="F3" t="n">
-        <v>1210254.489697589</v>
+        <v>18278.02977131474</v>
       </c>
       <c r="G3" t="n">
-        <v>0.4675916666666664</v>
+        <v>0.4675849999999997</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
@@ -503,22 +503,22 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
+        <v>0.4769</v>
+      </c>
+      <c r="C4" t="n">
         <v>0.468</v>
       </c>
-      <c r="C4" t="n">
-        <v>0.4776</v>
-      </c>
       <c r="D4" t="n">
-        <v>0.4776</v>
+        <v>0.4769</v>
       </c>
       <c r="E4" t="n">
         <v>0.468</v>
       </c>
       <c r="F4" t="n">
-        <v>3634934.339316649</v>
+        <v>1210254.489697589</v>
       </c>
       <c r="G4" t="n">
-        <v>0.4677449999999997</v>
+        <v>0.4675916666666664</v>
       </c>
       <c r="H4" t="n">
         <v>0</v>
@@ -541,19 +541,19 @@
         <v>0.468</v>
       </c>
       <c r="C5" t="n">
-        <v>0.468</v>
+        <v>0.4776</v>
       </c>
       <c r="D5" t="n">
-        <v>0.468</v>
+        <v>0.4776</v>
       </c>
       <c r="E5" t="n">
         <v>0.468</v>
       </c>
       <c r="F5" t="n">
-        <v>28255.8385</v>
+        <v>3634934.339316649</v>
       </c>
       <c r="G5" t="n">
-        <v>0.4676349999999997</v>
+        <v>0.4677449999999997</v>
       </c>
       <c r="H5" t="n">
         <v>0</v>
@@ -573,22 +573,22 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>0.4776</v>
+        <v>0.468</v>
       </c>
       <c r="C6" t="n">
-        <v>0.4776</v>
+        <v>0.468</v>
       </c>
       <c r="D6" t="n">
-        <v>0.4776</v>
+        <v>0.468</v>
       </c>
       <c r="E6" t="n">
         <v>0.468</v>
       </c>
       <c r="F6" t="n">
-        <v>1562242.472</v>
+        <v>28255.8385</v>
       </c>
       <c r="G6" t="n">
-        <v>0.4677899999999997</v>
+        <v>0.4676349999999997</v>
       </c>
       <c r="H6" t="n">
         <v>0</v>
@@ -608,10 +608,10 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>0.468</v>
+        <v>0.4776</v>
       </c>
       <c r="C7" t="n">
-        <v>0.468</v>
+        <v>0.4776</v>
       </c>
       <c r="D7" t="n">
         <v>0.4776</v>
@@ -620,10 +620,10 @@
         <v>0.468</v>
       </c>
       <c r="F7" t="n">
-        <v>11842586.09338974</v>
+        <v>1562242.472</v>
       </c>
       <c r="G7" t="n">
-        <v>0.4677816666666664</v>
+        <v>0.4677899999999997</v>
       </c>
       <c r="H7" t="n">
         <v>0</v>
@@ -643,22 +643,22 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>0.467</v>
+        <v>0.468</v>
       </c>
       <c r="C8" t="n">
-        <v>0.464</v>
+        <v>0.468</v>
       </c>
       <c r="D8" t="n">
-        <v>0.467</v>
+        <v>0.4776</v>
       </c>
       <c r="E8" t="n">
-        <v>0.451</v>
+        <v>0.468</v>
       </c>
       <c r="F8" t="n">
-        <v>1238171.724253747</v>
+        <v>11842586.09338974</v>
       </c>
       <c r="G8" t="n">
-        <v>0.4676449999999997</v>
+        <v>0.4677816666666664</v>
       </c>
       <c r="H8" t="n">
         <v>0</v>
@@ -678,22 +678,22 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>0.464</v>
+        <v>0.467</v>
       </c>
       <c r="C9" t="n">
         <v>0.464</v>
       </c>
       <c r="D9" t="n">
-        <v>0.464</v>
+        <v>0.467</v>
       </c>
       <c r="E9" t="n">
-        <v>0.464</v>
+        <v>0.451</v>
       </c>
       <c r="F9" t="n">
-        <v>2400</v>
+        <v>1238171.724253747</v>
       </c>
       <c r="G9" t="n">
-        <v>0.467298333333333</v>
+        <v>0.4676449999999997</v>
       </c>
       <c r="H9" t="n">
         <v>0</v>
@@ -713,22 +713,22 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>0.4674</v>
+        <v>0.464</v>
       </c>
       <c r="C10" t="n">
-        <v>0.4625</v>
+        <v>0.464</v>
       </c>
       <c r="D10" t="n">
-        <v>0.4674</v>
+        <v>0.464</v>
       </c>
       <c r="E10" t="n">
-        <v>0.4625</v>
+        <v>0.464</v>
       </c>
       <c r="F10" t="n">
-        <v>1209209.7063</v>
+        <v>2400</v>
       </c>
       <c r="G10" t="n">
-        <v>0.467173333333333</v>
+        <v>0.467298333333333</v>
       </c>
       <c r="H10" t="n">
         <v>0</v>
@@ -748,22 +748,22 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>0.4676</v>
+        <v>0.4674</v>
       </c>
       <c r="C11" t="n">
-        <v>0.4676</v>
+        <v>0.4625</v>
       </c>
       <c r="D11" t="n">
-        <v>0.4776</v>
+        <v>0.4674</v>
       </c>
       <c r="E11" t="n">
-        <v>0.4626</v>
+        <v>0.4625</v>
       </c>
       <c r="F11" t="n">
-        <v>1101135.0603</v>
+        <v>1209209.7063</v>
       </c>
       <c r="G11" t="n">
-        <v>0.4669549999999997</v>
+        <v>0.467173333333333</v>
       </c>
       <c r="H11" t="n">
         <v>0</v>
@@ -792,13 +792,13 @@
         <v>0.4776</v>
       </c>
       <c r="E12" t="n">
-        <v>0.4676</v>
+        <v>0.4626</v>
       </c>
       <c r="F12" t="n">
-        <v>499393.1947</v>
+        <v>1101135.0603</v>
       </c>
       <c r="G12" t="n">
-        <v>0.4668866666666664</v>
+        <v>0.4669549999999997</v>
       </c>
       <c r="H12" t="n">
         <v>0</v>
@@ -821,7 +821,7 @@
         <v>0.4676</v>
       </c>
       <c r="C13" t="n">
-        <v>0.4776</v>
+        <v>0.4676</v>
       </c>
       <c r="D13" t="n">
         <v>0.4776</v>
@@ -830,10 +830,10 @@
         <v>0.4676</v>
       </c>
       <c r="F13" t="n">
-        <v>78070</v>
+        <v>499393.1947</v>
       </c>
       <c r="G13" t="n">
-        <v>0.466978333333333</v>
+        <v>0.4668866666666664</v>
       </c>
       <c r="H13" t="n">
         <v>0</v>
@@ -853,7 +853,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>0.4776</v>
+        <v>0.4676</v>
       </c>
       <c r="C14" t="n">
         <v>0.4776</v>
@@ -862,13 +862,13 @@
         <v>0.4776</v>
       </c>
       <c r="E14" t="n">
-        <v>0.4776</v>
+        <v>0.4676</v>
       </c>
       <c r="F14" t="n">
-        <v>652808.8122</v>
+        <v>78070</v>
       </c>
       <c r="G14" t="n">
-        <v>0.466938333333333</v>
+        <v>0.466978333333333</v>
       </c>
       <c r="H14" t="n">
         <v>0</v>
@@ -891,19 +891,19 @@
         <v>0.4776</v>
       </c>
       <c r="C15" t="n">
-        <v>0.4777</v>
+        <v>0.4776</v>
       </c>
       <c r="D15" t="n">
-        <v>0.4777</v>
+        <v>0.4776</v>
       </c>
       <c r="E15" t="n">
-        <v>0.4676</v>
+        <v>0.4776</v>
       </c>
       <c r="F15" t="n">
-        <v>2876646.5391</v>
+        <v>652808.8122</v>
       </c>
       <c r="G15" t="n">
-        <v>0.4669516666666663</v>
+        <v>0.466938333333333</v>
       </c>
       <c r="H15" t="n">
         <v>0</v>
@@ -923,22 +923,22 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
+        <v>0.4776</v>
+      </c>
+      <c r="C16" t="n">
         <v>0.4777</v>
       </c>
-      <c r="C16" t="n">
-        <v>0.4789</v>
-      </c>
       <c r="D16" t="n">
-        <v>0.4789</v>
+        <v>0.4777</v>
       </c>
       <c r="E16" t="n">
-        <v>0.4679</v>
+        <v>0.4676</v>
       </c>
       <c r="F16" t="n">
-        <v>2775753.5356</v>
+        <v>2876646.5391</v>
       </c>
       <c r="G16" t="n">
-        <v>0.4669599999999996</v>
+        <v>0.4669516666666663</v>
       </c>
       <c r="H16" t="n">
         <v>0</v>
@@ -958,22 +958,22 @@
         <v>15</v>
       </c>
       <c r="B17" t="n">
-        <v>0.475</v>
+        <v>0.4777</v>
       </c>
       <c r="C17" t="n">
-        <v>0.475</v>
+        <v>0.4789</v>
       </c>
       <c r="D17" t="n">
-        <v>0.475</v>
+        <v>0.4789</v>
       </c>
       <c r="E17" t="n">
-        <v>0.475</v>
+        <v>0.4679</v>
       </c>
       <c r="F17" t="n">
-        <v>2086.4365</v>
+        <v>2775753.5356</v>
       </c>
       <c r="G17" t="n">
-        <v>0.4669016666666663</v>
+        <v>0.4669599999999996</v>
       </c>
       <c r="H17" t="n">
         <v>0</v>
@@ -993,22 +993,22 @@
         <v>16</v>
       </c>
       <c r="B18" t="n">
-        <v>0.4749</v>
+        <v>0.475</v>
       </c>
       <c r="C18" t="n">
-        <v>0.4749</v>
+        <v>0.475</v>
       </c>
       <c r="D18" t="n">
-        <v>0.4749</v>
+        <v>0.475</v>
       </c>
       <c r="E18" t="n">
-        <v>0.4749</v>
+        <v>0.475</v>
       </c>
       <c r="F18" t="n">
-        <v>450744.511</v>
+        <v>2086.4365</v>
       </c>
       <c r="G18" t="n">
-        <v>0.4668699999999996</v>
+        <v>0.4669016666666663</v>
       </c>
       <c r="H18" t="n">
         <v>0</v>
@@ -1028,22 +1028,22 @@
         <v>17</v>
       </c>
       <c r="B19" t="n">
-        <v>0.4681</v>
+        <v>0.4749</v>
       </c>
       <c r="C19" t="n">
-        <v>0.4681</v>
+        <v>0.4749</v>
       </c>
       <c r="D19" t="n">
-        <v>0.4681</v>
+        <v>0.4749</v>
       </c>
       <c r="E19" t="n">
-        <v>0.4681</v>
+        <v>0.4749</v>
       </c>
       <c r="F19" t="n">
-        <v>130640.2151</v>
+        <v>450744.511</v>
       </c>
       <c r="G19" t="n">
-        <v>0.4668049999999996</v>
+        <v>0.4668699999999996</v>
       </c>
       <c r="H19" t="n">
         <v>0</v>
@@ -1063,22 +1063,22 @@
         <v>18</v>
       </c>
       <c r="B20" t="n">
-        <v>0.474</v>
+        <v>0.4681</v>
       </c>
       <c r="C20" t="n">
-        <v>0.474</v>
+        <v>0.4681</v>
       </c>
       <c r="D20" t="n">
-        <v>0.474</v>
+        <v>0.4681</v>
       </c>
       <c r="E20" t="n">
-        <v>0.474</v>
+        <v>0.4681</v>
       </c>
       <c r="F20" t="n">
-        <v>1200</v>
+        <v>130640.2151</v>
       </c>
       <c r="G20" t="n">
-        <v>0.4666216666666663</v>
+        <v>0.4668049999999996</v>
       </c>
       <c r="H20" t="n">
         <v>0</v>
@@ -1098,22 +1098,22 @@
         <v>19</v>
       </c>
       <c r="B21" t="n">
-        <v>0.4681</v>
+        <v>0.474</v>
       </c>
       <c r="C21" t="n">
-        <v>0.469</v>
+        <v>0.474</v>
       </c>
       <c r="D21" t="n">
-        <v>0.469</v>
+        <v>0.474</v>
       </c>
       <c r="E21" t="n">
-        <v>0.4678</v>
+        <v>0.474</v>
       </c>
       <c r="F21" t="n">
-        <v>710123.8949</v>
+        <v>1200</v>
       </c>
       <c r="G21" t="n">
-        <v>0.466588333333333</v>
+        <v>0.4666216666666663</v>
       </c>
       <c r="H21" t="n">
         <v>0</v>
@@ -1133,22 +1133,22 @@
         <v>20</v>
       </c>
       <c r="B22" t="n">
-        <v>0.474</v>
+        <v>0.4681</v>
       </c>
       <c r="C22" t="n">
-        <v>0.474</v>
+        <v>0.469</v>
       </c>
       <c r="D22" t="n">
-        <v>0.4749</v>
+        <v>0.469</v>
       </c>
       <c r="E22" t="n">
-        <v>0.474</v>
+        <v>0.4678</v>
       </c>
       <c r="F22" t="n">
-        <v>3434647.75209661</v>
+        <v>710123.8949</v>
       </c>
       <c r="G22" t="n">
-        <v>0.4666299999999997</v>
+        <v>0.466588333333333</v>
       </c>
       <c r="H22" t="n">
         <v>0</v>
@@ -1171,19 +1171,19 @@
         <v>0.474</v>
       </c>
       <c r="C23" t="n">
-        <v>0.475</v>
+        <v>0.474</v>
       </c>
       <c r="D23" t="n">
-        <v>0.475</v>
+        <v>0.4749</v>
       </c>
       <c r="E23" t="n">
         <v>0.474</v>
       </c>
       <c r="F23" t="n">
-        <v>302436.3795103797</v>
+        <v>3434647.75209661</v>
       </c>
       <c r="G23" t="n">
-        <v>0.466738333333333</v>
+        <v>0.4666299999999997</v>
       </c>
       <c r="H23" t="n">
         <v>0</v>
@@ -1203,22 +1203,22 @@
         <v>22</v>
       </c>
       <c r="B24" t="n">
+        <v>0.474</v>
+      </c>
+      <c r="C24" t="n">
         <v>0.475</v>
       </c>
-      <c r="C24" t="n">
-        <v>0.4741</v>
-      </c>
       <c r="D24" t="n">
-        <v>0.485</v>
+        <v>0.475</v>
       </c>
       <c r="E24" t="n">
         <v>0.474</v>
       </c>
       <c r="F24" t="n">
-        <v>1085480.831816722</v>
+        <v>302436.3795103797</v>
       </c>
       <c r="G24" t="n">
-        <v>0.466833333333333</v>
+        <v>0.466738333333333</v>
       </c>
       <c r="H24" t="n">
         <v>0</v>
@@ -1238,22 +1238,22 @@
         <v>23</v>
       </c>
       <c r="B25" t="n">
+        <v>0.475</v>
+      </c>
+      <c r="C25" t="n">
         <v>0.4741</v>
       </c>
-      <c r="C25" t="n">
-        <v>0.4849</v>
-      </c>
       <c r="D25" t="n">
-        <v>0.4849</v>
+        <v>0.485</v>
       </c>
       <c r="E25" t="n">
-        <v>0.4741</v>
+        <v>0.474</v>
       </c>
       <c r="F25" t="n">
-        <v>662048.9974</v>
+        <v>1085480.831816722</v>
       </c>
       <c r="G25" t="n">
-        <v>0.4672133333333331</v>
+        <v>0.466833333333333</v>
       </c>
       <c r="H25" t="n">
         <v>0</v>
@@ -1273,22 +1273,22 @@
         <v>24</v>
       </c>
       <c r="B26" t="n">
+        <v>0.4741</v>
+      </c>
+      <c r="C26" t="n">
         <v>0.4849</v>
-      </c>
-      <c r="C26" t="n">
-        <v>0.474</v>
       </c>
       <c r="D26" t="n">
         <v>0.4849</v>
       </c>
       <c r="E26" t="n">
-        <v>0.474</v>
+        <v>0.4741</v>
       </c>
       <c r="F26" t="n">
-        <v>929242.4508</v>
+        <v>662048.9974</v>
       </c>
       <c r="G26" t="n">
-        <v>0.4673066666666664</v>
+        <v>0.4672133333333331</v>
       </c>
       <c r="H26" t="n">
         <v>0</v>
@@ -1308,22 +1308,22 @@
         <v>25</v>
       </c>
       <c r="B27" t="n">
-        <v>0.474</v>
+        <v>0.4849</v>
       </c>
       <c r="C27" t="n">
         <v>0.474</v>
       </c>
       <c r="D27" t="n">
+        <v>0.4849</v>
+      </c>
+      <c r="E27" t="n">
         <v>0.474</v>
       </c>
-      <c r="E27" t="n">
-        <v>0.4676</v>
-      </c>
       <c r="F27" t="n">
-        <v>1934783.2069</v>
+        <v>929242.4508</v>
       </c>
       <c r="G27" t="n">
-        <v>0.4673999999999998</v>
+        <v>0.4673066666666664</v>
       </c>
       <c r="H27" t="n">
         <v>0</v>
@@ -1343,22 +1343,22 @@
         <v>26</v>
       </c>
       <c r="B28" t="n">
-        <v>0.484</v>
+        <v>0.474</v>
       </c>
       <c r="C28" t="n">
         <v>0.474</v>
       </c>
       <c r="D28" t="n">
-        <v>0.484</v>
+        <v>0.474</v>
       </c>
       <c r="E28" t="n">
-        <v>0.474</v>
+        <v>0.4676</v>
       </c>
       <c r="F28" t="n">
-        <v>182253.75</v>
+        <v>1934783.2069</v>
       </c>
       <c r="G28" t="n">
-        <v>0.4674933333333331</v>
+        <v>0.4673999999999998</v>
       </c>
       <c r="H28" t="n">
         <v>0</v>
@@ -1378,22 +1378,22 @@
         <v>27</v>
       </c>
       <c r="B29" t="n">
-        <v>0.4837</v>
+        <v>0.484</v>
       </c>
       <c r="C29" t="n">
         <v>0.474</v>
       </c>
       <c r="D29" t="n">
-        <v>0.4837</v>
+        <v>0.484</v>
       </c>
       <c r="E29" t="n">
         <v>0.474</v>
       </c>
       <c r="F29" t="n">
-        <v>18222.71282536696</v>
+        <v>182253.75</v>
       </c>
       <c r="G29" t="n">
-        <v>0.4675999999999998</v>
+        <v>0.4674933333333331</v>
       </c>
       <c r="H29" t="n">
         <v>0</v>
@@ -1413,22 +1413,22 @@
         <v>28</v>
       </c>
       <c r="B30" t="n">
-        <v>0.4678</v>
+        <v>0.4837</v>
       </c>
       <c r="C30" t="n">
-        <v>0.4678</v>
+        <v>0.474</v>
       </c>
       <c r="D30" t="n">
-        <v>0.4678</v>
+        <v>0.4837</v>
       </c>
       <c r="E30" t="n">
-        <v>0.4678</v>
+        <v>0.474</v>
       </c>
       <c r="F30" t="n">
-        <v>3853.5088</v>
+        <v>18222.71282536696</v>
       </c>
       <c r="G30" t="n">
-        <v>0.4677049999999998</v>
+        <v>0.4675999999999998</v>
       </c>
       <c r="H30" t="n">
         <v>0</v>
@@ -1451,19 +1451,19 @@
         <v>0.4678</v>
       </c>
       <c r="C31" t="n">
-        <v>0.4676</v>
+        <v>0.4678</v>
       </c>
       <c r="D31" t="n">
         <v>0.4678</v>
       </c>
       <c r="E31" t="n">
-        <v>0.4676</v>
+        <v>0.4678</v>
       </c>
       <c r="F31" t="n">
-        <v>6245077.4984</v>
+        <v>3853.5088</v>
       </c>
       <c r="G31" t="n">
-        <v>0.4678066666666664</v>
+        <v>0.4677049999999998</v>
       </c>
       <c r="H31" t="n">
         <v>0</v>
@@ -1483,22 +1483,22 @@
         <v>30</v>
       </c>
       <c r="B32" t="n">
-        <v>0.4677</v>
+        <v>0.4678</v>
       </c>
       <c r="C32" t="n">
-        <v>0.4677</v>
+        <v>0.4676</v>
       </c>
       <c r="D32" t="n">
-        <v>0.4677</v>
+        <v>0.4678</v>
       </c>
       <c r="E32" t="n">
-        <v>0.4677</v>
+        <v>0.4676</v>
       </c>
       <c r="F32" t="n">
-        <v>135558.2447</v>
+        <v>6245077.4984</v>
       </c>
       <c r="G32" t="n">
-        <v>0.4679749999999998</v>
+        <v>0.4678066666666664</v>
       </c>
       <c r="H32" t="n">
         <v>0</v>
@@ -1518,22 +1518,22 @@
         <v>31</v>
       </c>
       <c r="B33" t="n">
-        <v>0.4736</v>
+        <v>0.4677</v>
       </c>
       <c r="C33" t="n">
         <v>0.4677</v>
       </c>
       <c r="D33" t="n">
-        <v>0.4736</v>
+        <v>0.4677</v>
       </c>
       <c r="E33" t="n">
         <v>0.4677</v>
       </c>
       <c r="F33" t="n">
-        <v>313920.3</v>
+        <v>135558.2447</v>
       </c>
       <c r="G33" t="n">
-        <v>0.4681433333333331</v>
+        <v>0.4679749999999998</v>
       </c>
       <c r="H33" t="n">
         <v>0</v>
@@ -1553,22 +1553,22 @@
         <v>32</v>
       </c>
       <c r="B34" t="n">
-        <v>0.4827</v>
+        <v>0.4736</v>
       </c>
       <c r="C34" t="n">
-        <v>0.4827</v>
+        <v>0.4677</v>
       </c>
       <c r="D34" t="n">
-        <v>0.4827</v>
+        <v>0.4736</v>
       </c>
       <c r="E34" t="n">
-        <v>0.4827</v>
+        <v>0.4677</v>
       </c>
       <c r="F34" t="n">
-        <v>3915.475450590429</v>
+        <v>313920.3</v>
       </c>
       <c r="G34" t="n">
-        <v>0.4685599999999999</v>
+        <v>0.4681433333333331</v>
       </c>
       <c r="H34" t="n">
         <v>0</v>
@@ -1588,22 +1588,22 @@
         <v>33</v>
       </c>
       <c r="B35" t="n">
-        <v>0.4677</v>
+        <v>0.4827</v>
       </c>
       <c r="C35" t="n">
-        <v>0.4677</v>
+        <v>0.4827</v>
       </c>
       <c r="D35" t="n">
-        <v>0.4677</v>
+        <v>0.4827</v>
       </c>
       <c r="E35" t="n">
-        <v>0.4677</v>
+        <v>0.4827</v>
       </c>
       <c r="F35" t="n">
-        <v>21675.0096</v>
+        <v>3915.475450590429</v>
       </c>
       <c r="G35" t="n">
-        <v>0.4686083333333332</v>
+        <v>0.4685599999999999</v>
       </c>
       <c r="H35" t="n">
         <v>0</v>
@@ -1623,22 +1623,22 @@
         <v>34</v>
       </c>
       <c r="B36" t="n">
-        <v>0.469</v>
+        <v>0.4677</v>
       </c>
       <c r="C36" t="n">
-        <v>0.4678</v>
+        <v>0.4677</v>
       </c>
       <c r="D36" t="n">
-        <v>0.469</v>
+        <v>0.4677</v>
       </c>
       <c r="E36" t="n">
-        <v>0.4678</v>
+        <v>0.4677</v>
       </c>
       <c r="F36" t="n">
-        <v>1569086.9145</v>
+        <v>21675.0096</v>
       </c>
       <c r="G36" t="n">
-        <v>0.4686183333333332</v>
+        <v>0.4686083333333332</v>
       </c>
       <c r="H36" t="n">
         <v>0</v>
@@ -1658,22 +1658,22 @@
         <v>35</v>
       </c>
       <c r="B37" t="n">
-        <v>0.4678</v>
+        <v>0.469</v>
       </c>
       <c r="C37" t="n">
         <v>0.4678</v>
       </c>
       <c r="D37" t="n">
-        <v>0.4678</v>
+        <v>0.469</v>
       </c>
       <c r="E37" t="n">
         <v>0.4678</v>
       </c>
       <c r="F37" t="n">
-        <v>1135091.0977</v>
+        <v>1569086.9145</v>
       </c>
       <c r="G37" t="n">
-        <v>0.4686283333333333</v>
+        <v>0.4686183333333332</v>
       </c>
       <c r="H37" t="n">
         <v>0</v>
@@ -1696,19 +1696,19 @@
         <v>0.4678</v>
       </c>
       <c r="C38" t="n">
-        <v>0.4515</v>
+        <v>0.4678</v>
       </c>
       <c r="D38" t="n">
         <v>0.4678</v>
       </c>
       <c r="E38" t="n">
-        <v>0.4515</v>
+        <v>0.4678</v>
       </c>
       <c r="F38" t="n">
-        <v>4439501.8827</v>
+        <v>1135091.0977</v>
       </c>
       <c r="G38" t="n">
-        <v>0.4683666666666666</v>
+        <v>0.4686283333333333</v>
       </c>
       <c r="H38" t="n">
         <v>0</v>
@@ -1728,22 +1728,22 @@
         <v>37</v>
       </c>
       <c r="B39" t="n">
-        <v>0.4649</v>
+        <v>0.4678</v>
       </c>
       <c r="C39" t="n">
-        <v>0.4649</v>
+        <v>0.4515</v>
       </c>
       <c r="D39" t="n">
-        <v>0.4649</v>
+        <v>0.4678</v>
       </c>
       <c r="E39" t="n">
-        <v>0.464</v>
+        <v>0.4515</v>
       </c>
       <c r="F39" t="n">
-        <v>2260699.4931</v>
+        <v>4439501.8827</v>
       </c>
       <c r="G39" t="n">
-        <v>0.4683283333333333</v>
+        <v>0.4683666666666666</v>
       </c>
       <c r="H39" t="n">
         <v>0</v>
@@ -1766,19 +1766,19 @@
         <v>0.4649</v>
       </c>
       <c r="C40" t="n">
-        <v>0.479</v>
+        <v>0.4649</v>
       </c>
       <c r="D40" t="n">
-        <v>0.479</v>
+        <v>0.4649</v>
       </c>
       <c r="E40" t="n">
-        <v>0.454</v>
+        <v>0.464</v>
       </c>
       <c r="F40" t="n">
-        <v>5115236.3094</v>
+        <v>2260699.4931</v>
       </c>
       <c r="G40" t="n">
-        <v>0.468525</v>
+        <v>0.4683283333333333</v>
       </c>
       <c r="H40" t="n">
         <v>0</v>
@@ -1798,22 +1798,22 @@
         <v>39</v>
       </c>
       <c r="B41" t="n">
-        <v>0.4747</v>
+        <v>0.4649</v>
       </c>
       <c r="C41" t="n">
-        <v>0.4616</v>
+        <v>0.479</v>
       </c>
       <c r="D41" t="n">
-        <v>0.4747</v>
+        <v>0.479</v>
       </c>
       <c r="E41" t="n">
-        <v>0.4616</v>
+        <v>0.454</v>
       </c>
       <c r="F41" t="n">
-        <v>4255.3194</v>
+        <v>5115236.3094</v>
       </c>
       <c r="G41" t="n">
-        <v>0.468235</v>
+        <v>0.468525</v>
       </c>
       <c r="H41" t="n">
         <v>0</v>
@@ -1833,22 +1833,22 @@
         <v>40</v>
       </c>
       <c r="B42" t="n">
-        <v>0.466</v>
+        <v>0.4747</v>
       </c>
       <c r="C42" t="n">
-        <v>0.465</v>
+        <v>0.4616</v>
       </c>
       <c r="D42" t="n">
-        <v>0.466</v>
+        <v>0.4747</v>
       </c>
       <c r="E42" t="n">
-        <v>0.465</v>
+        <v>0.4616</v>
       </c>
       <c r="F42" t="n">
-        <v>4529.1457</v>
+        <v>4255.3194</v>
       </c>
       <c r="G42" t="n">
-        <v>0.468185</v>
+        <v>0.468235</v>
       </c>
       <c r="H42" t="n">
         <v>0</v>
@@ -1868,22 +1868,22 @@
         <v>41</v>
       </c>
       <c r="B43" t="n">
-        <v>0.465</v>
+        <v>0.466</v>
       </c>
       <c r="C43" t="n">
         <v>0.465</v>
       </c>
       <c r="D43" t="n">
-        <v>0.465</v>
+        <v>0.466</v>
       </c>
       <c r="E43" t="n">
         <v>0.465</v>
       </c>
       <c r="F43" t="n">
-        <v>496703.0381</v>
+        <v>4529.1457</v>
       </c>
       <c r="G43" t="n">
-        <v>0.4681416666666667</v>
+        <v>0.468185</v>
       </c>
       <c r="H43" t="n">
         <v>0</v>
@@ -1903,22 +1903,22 @@
         <v>42</v>
       </c>
       <c r="B44" t="n">
-        <v>0.461</v>
+        <v>0.465</v>
       </c>
       <c r="C44" t="n">
-        <v>0.461</v>
+        <v>0.465</v>
       </c>
       <c r="D44" t="n">
-        <v>0.461</v>
+        <v>0.465</v>
       </c>
       <c r="E44" t="n">
-        <v>0.461</v>
+        <v>0.465</v>
       </c>
       <c r="F44" t="n">
-        <v>63953.9357</v>
+        <v>496703.0381</v>
       </c>
       <c r="G44" t="n">
-        <v>0.468155</v>
+        <v>0.4681416666666667</v>
       </c>
       <c r="H44" t="n">
         <v>0</v>
@@ -1950,10 +1950,10 @@
         <v>0.461</v>
       </c>
       <c r="F45" t="n">
-        <v>55385.4891</v>
+        <v>63953.9357</v>
       </c>
       <c r="G45" t="n">
-        <v>0.4680549999999999</v>
+        <v>0.468155</v>
       </c>
       <c r="H45" t="n">
         <v>0</v>
@@ -1985,10 +1985,10 @@
         <v>0.461</v>
       </c>
       <c r="F46" t="n">
-        <v>18450.5752</v>
+        <v>55385.4891</v>
       </c>
       <c r="G46" t="n">
-        <v>0.4680666666666666</v>
+        <v>0.4680549999999999</v>
       </c>
       <c r="H46" t="n">
         <v>0</v>
@@ -2008,22 +2008,22 @@
         <v>45</v>
       </c>
       <c r="B47" t="n">
-        <v>0.466</v>
+        <v>0.461</v>
       </c>
       <c r="C47" t="n">
-        <v>0.466</v>
+        <v>0.461</v>
       </c>
       <c r="D47" t="n">
-        <v>0.466</v>
+        <v>0.461</v>
       </c>
       <c r="E47" t="n">
-        <v>0.466</v>
+        <v>0.461</v>
       </c>
       <c r="F47" t="n">
-        <v>5000</v>
+        <v>18450.5752</v>
       </c>
       <c r="G47" t="n">
-        <v>0.4681633333333333</v>
+        <v>0.4680666666666666</v>
       </c>
       <c r="H47" t="n">
         <v>0</v>
@@ -2043,22 +2043,22 @@
         <v>46</v>
       </c>
       <c r="B48" t="n">
-        <v>0.465</v>
+        <v>0.466</v>
       </c>
       <c r="C48" t="n">
-        <v>0.461</v>
+        <v>0.466</v>
       </c>
       <c r="D48" t="n">
-        <v>0.465</v>
+        <v>0.466</v>
       </c>
       <c r="E48" t="n">
-        <v>0.461</v>
+        <v>0.466</v>
       </c>
       <c r="F48" t="n">
-        <v>68944.5684</v>
+        <v>5000</v>
       </c>
       <c r="G48" t="n">
-        <v>0.4681766666666666</v>
+        <v>0.4681633333333333</v>
       </c>
       <c r="H48" t="n">
         <v>0</v>
@@ -2078,22 +2078,22 @@
         <v>47</v>
       </c>
       <c r="B49" t="n">
-        <v>0.4609</v>
+        <v>0.465</v>
       </c>
       <c r="C49" t="n">
-        <v>0.4609</v>
+        <v>0.461</v>
       </c>
       <c r="D49" t="n">
-        <v>0.4609</v>
+        <v>0.465</v>
       </c>
       <c r="E49" t="n">
-        <v>0.4609</v>
+        <v>0.461</v>
       </c>
       <c r="F49" t="n">
-        <v>1430</v>
+        <v>68944.5684</v>
       </c>
       <c r="G49" t="n">
-        <v>0.4680749999999999</v>
+        <v>0.4681766666666666</v>
       </c>
       <c r="H49" t="n">
         <v>0</v>
@@ -2113,7 +2113,7 @@
         <v>48</v>
       </c>
       <c r="B50" t="n">
-        <v>0.451</v>
+        <v>0.4609</v>
       </c>
       <c r="C50" t="n">
         <v>0.4609</v>
@@ -2122,13 +2122,13 @@
         <v>0.4609</v>
       </c>
       <c r="E50" t="n">
-        <v>0.451</v>
+        <v>0.4609</v>
       </c>
       <c r="F50" t="n">
-        <v>899879.8374</v>
+        <v>1430</v>
       </c>
       <c r="G50" t="n">
-        <v>0.4680866666666665</v>
+        <v>0.4680749999999999</v>
       </c>
       <c r="H50" t="n">
         <v>0</v>
@@ -2148,7 +2148,7 @@
         <v>49</v>
       </c>
       <c r="B51" t="n">
-        <v>0.4609</v>
+        <v>0.451</v>
       </c>
       <c r="C51" t="n">
         <v>0.4609</v>
@@ -2157,13 +2157,13 @@
         <v>0.4609</v>
       </c>
       <c r="E51" t="n">
-        <v>0.4609</v>
+        <v>0.451</v>
       </c>
       <c r="F51" t="n">
-        <v>70029</v>
+        <v>899879.8374</v>
       </c>
       <c r="G51" t="n">
-        <v>0.4681833333333332</v>
+        <v>0.4680866666666665</v>
       </c>
       <c r="H51" t="n">
         <v>0</v>
@@ -2183,22 +2183,22 @@
         <v>50</v>
       </c>
       <c r="B52" t="n">
-        <v>0.451</v>
+        <v>0.4609</v>
       </c>
       <c r="C52" t="n">
-        <v>0.45</v>
+        <v>0.4609</v>
       </c>
       <c r="D52" t="n">
-        <v>0.451</v>
+        <v>0.4609</v>
       </c>
       <c r="E52" t="n">
-        <v>0.45</v>
+        <v>0.4609</v>
       </c>
       <c r="F52" t="n">
-        <v>1399375.5518</v>
+        <v>70029</v>
       </c>
       <c r="G52" t="n">
-        <v>0.4680966666666665</v>
+        <v>0.4681833333333332</v>
       </c>
       <c r="H52" t="n">
         <v>0</v>
@@ -2218,22 +2218,22 @@
         <v>51</v>
       </c>
       <c r="B53" t="n">
-        <v>0.4609</v>
+        <v>0.451</v>
       </c>
       <c r="C53" t="n">
-        <v>0.4609</v>
+        <v>0.45</v>
       </c>
       <c r="D53" t="n">
-        <v>0.4609</v>
+        <v>0.451</v>
       </c>
       <c r="E53" t="n">
-        <v>0.4609</v>
+        <v>0.45</v>
       </c>
       <c r="F53" t="n">
-        <v>4703.1693</v>
+        <v>1399375.5518</v>
       </c>
       <c r="G53" t="n">
-        <v>0.4680266666666665</v>
+        <v>0.4680966666666665</v>
       </c>
       <c r="H53" t="n">
         <v>0</v>
@@ -2253,22 +2253,22 @@
         <v>52</v>
       </c>
       <c r="B54" t="n">
-        <v>0.451</v>
+        <v>0.4609</v>
       </c>
       <c r="C54" t="n">
-        <v>0.4488</v>
+        <v>0.4609</v>
       </c>
       <c r="D54" t="n">
-        <v>0.451</v>
+        <v>0.4609</v>
       </c>
       <c r="E54" t="n">
-        <v>0.4488</v>
+        <v>0.4609</v>
       </c>
       <c r="F54" t="n">
-        <v>1852399.3605</v>
+        <v>4703.1693</v>
       </c>
       <c r="G54" t="n">
-        <v>0.4677549999999998</v>
+        <v>0.4680266666666665</v>
       </c>
       <c r="H54" t="n">
         <v>0</v>
@@ -2291,19 +2291,19 @@
         <v>0.451</v>
       </c>
       <c r="C55" t="n">
-        <v>0.451</v>
+        <v>0.4488</v>
       </c>
       <c r="D55" t="n">
         <v>0.451</v>
       </c>
       <c r="E55" t="n">
-        <v>0.451</v>
+        <v>0.4488</v>
       </c>
       <c r="F55" t="n">
-        <v>40130.9257</v>
+        <v>1852399.3605</v>
       </c>
       <c r="G55" t="n">
-        <v>0.4677916666666665</v>
+        <v>0.4677549999999998</v>
       </c>
       <c r="H55" t="n">
         <v>0</v>
@@ -2323,22 +2323,22 @@
         <v>54</v>
       </c>
       <c r="B56" t="n">
-        <v>0.452</v>
+        <v>0.451</v>
       </c>
       <c r="C56" t="n">
-        <v>0.452</v>
+        <v>0.451</v>
       </c>
       <c r="D56" t="n">
-        <v>0.452</v>
+        <v>0.451</v>
       </c>
       <c r="E56" t="n">
-        <v>0.452</v>
+        <v>0.451</v>
       </c>
       <c r="F56" t="n">
-        <v>79098.8094</v>
+        <v>40130.9257</v>
       </c>
       <c r="G56" t="n">
-        <v>0.4678249999999998</v>
+        <v>0.4677916666666665</v>
       </c>
       <c r="H56" t="n">
         <v>0</v>
@@ -2358,22 +2358,22 @@
         <v>55</v>
       </c>
       <c r="B57" t="n">
-        <v>0.453</v>
+        <v>0.452</v>
       </c>
       <c r="C57" t="n">
-        <v>0.453</v>
+        <v>0.452</v>
       </c>
       <c r="D57" t="n">
-        <v>0.453</v>
+        <v>0.452</v>
       </c>
       <c r="E57" t="n">
-        <v>0.453</v>
+        <v>0.452</v>
       </c>
       <c r="F57" t="n">
-        <v>4703.1693</v>
+        <v>79098.8094</v>
       </c>
       <c r="G57" t="n">
-        <v>0.4676416666666665</v>
+        <v>0.4678249999999998</v>
       </c>
       <c r="H57" t="n">
         <v>0</v>
@@ -2393,22 +2393,22 @@
         <v>56</v>
       </c>
       <c r="B58" t="n">
-        <v>0.4616</v>
+        <v>0.453</v>
       </c>
       <c r="C58" t="n">
-        <v>0.4616</v>
+        <v>0.453</v>
       </c>
       <c r="D58" t="n">
-        <v>0.4616</v>
+        <v>0.453</v>
       </c>
       <c r="E58" t="n">
-        <v>0.4616</v>
+        <v>0.453</v>
       </c>
       <c r="F58" t="n">
-        <v>1720.8495</v>
+        <v>4703.1693</v>
       </c>
       <c r="G58" t="n">
-        <v>0.4676016666666666</v>
+        <v>0.4676416666666665</v>
       </c>
       <c r="H58" t="n">
         <v>0</v>
@@ -2428,22 +2428,22 @@
         <v>57</v>
       </c>
       <c r="B59" t="n">
-        <v>0.461</v>
+        <v>0.4616</v>
       </c>
       <c r="C59" t="n">
-        <v>0.461</v>
+        <v>0.4616</v>
       </c>
       <c r="D59" t="n">
-        <v>0.461</v>
+        <v>0.4616</v>
       </c>
       <c r="E59" t="n">
-        <v>0.461</v>
+        <v>0.4616</v>
       </c>
       <c r="F59" t="n">
-        <v>1723.0784</v>
+        <v>1720.8495</v>
       </c>
       <c r="G59" t="n">
-        <v>0.4675016666666665</v>
+        <v>0.4676016666666666</v>
       </c>
       <c r="H59" t="n">
         <v>0</v>
@@ -2466,35 +2466,29 @@
         <v>0.461</v>
       </c>
       <c r="C60" t="n">
-        <v>0.467</v>
+        <v>0.461</v>
       </c>
       <c r="D60" t="n">
-        <v>0.467</v>
+        <v>0.461</v>
       </c>
       <c r="E60" t="n">
-        <v>0.4523</v>
+        <v>0.461</v>
       </c>
       <c r="F60" t="n">
-        <v>3463267.8986</v>
+        <v>1723.0784</v>
       </c>
       <c r="G60" t="n">
-        <v>0.4674849999999999</v>
+        <v>0.4675016666666665</v>
       </c>
       <c r="H60" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I60" t="n">
         <v>0</v>
       </c>
-      <c r="J60" t="n">
-        <v>0.461</v>
-      </c>
+      <c r="J60" t="inlineStr"/>
       <c r="K60" t="inlineStr"/>
-      <c r="L60" t="inlineStr">
-        <is>
-          <t>매수 체결</t>
-        </is>
-      </c>
+      <c r="L60" t="inlineStr"/>
       <c r="M60" t="n">
         <v>1</v>
       </c>
@@ -2504,22 +2498,22 @@
         <v>59</v>
       </c>
       <c r="B61" t="n">
-        <v>0.46</v>
+        <v>0.461</v>
       </c>
       <c r="C61" t="n">
-        <v>0.479</v>
+        <v>0.467</v>
       </c>
       <c r="D61" t="n">
-        <v>0.479</v>
+        <v>0.467</v>
       </c>
       <c r="E61" t="n">
-        <v>0.46</v>
+        <v>0.4523</v>
       </c>
       <c r="F61" t="n">
-        <v>100000</v>
+        <v>3463267.8986</v>
       </c>
       <c r="G61" t="n">
-        <v>0.4675083333333332</v>
+        <v>0.4674849999999999</v>
       </c>
       <c r="H61" t="n">
         <v>0</v>
@@ -2529,11 +2523,7 @@
       </c>
       <c r="J61" t="inlineStr"/>
       <c r="K61" t="inlineStr"/>
-      <c r="L61" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L61" t="inlineStr"/>
       <c r="M61" t="n">
         <v>1</v>
       </c>
@@ -2543,38 +2533,32 @@
         <v>60</v>
       </c>
       <c r="B62" t="n">
-        <v>0.4667</v>
+        <v>0.46</v>
       </c>
       <c r="C62" t="n">
-        <v>0.4588</v>
+        <v>0.479</v>
       </c>
       <c r="D62" t="n">
-        <v>0.4667</v>
+        <v>0.479</v>
       </c>
       <c r="E62" t="n">
-        <v>0.4588</v>
+        <v>0.46</v>
       </c>
       <c r="F62" t="n">
-        <v>2400</v>
+        <v>100000</v>
       </c>
       <c r="G62" t="n">
-        <v>0.4673549999999999</v>
+        <v>0.4675083333333332</v>
       </c>
       <c r="H62" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I62" t="n">
         <v>0</v>
       </c>
-      <c r="J62" t="n">
-        <v>0.479</v>
-      </c>
+      <c r="J62" t="inlineStr"/>
       <c r="K62" t="inlineStr"/>
-      <c r="L62" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L62" t="inlineStr"/>
       <c r="M62" t="n">
         <v>1</v>
       </c>
@@ -2584,7 +2568,7 @@
         <v>61</v>
       </c>
       <c r="B63" t="n">
-        <v>0.459</v>
+        <v>0.4667</v>
       </c>
       <c r="C63" t="n">
         <v>0.4588</v>
@@ -2596,26 +2580,20 @@
         <v>0.4588</v>
       </c>
       <c r="F63" t="n">
-        <v>1168701.4655</v>
+        <v>2400</v>
       </c>
       <c r="G63" t="n">
-        <v>0.4672016666666666</v>
+        <v>0.4673549999999999</v>
       </c>
       <c r="H63" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I63" t="n">
         <v>0</v>
       </c>
-      <c r="J63" t="n">
-        <v>0.4588</v>
-      </c>
+      <c r="J63" t="inlineStr"/>
       <c r="K63" t="inlineStr"/>
-      <c r="L63" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L63" t="inlineStr"/>
       <c r="M63" t="n">
         <v>1</v>
       </c>
@@ -2625,38 +2603,32 @@
         <v>62</v>
       </c>
       <c r="B64" t="n">
-        <v>0.4588</v>
+        <v>0.459</v>
       </c>
       <c r="C64" t="n">
         <v>0.4588</v>
       </c>
       <c r="D64" t="n">
-        <v>0.4588</v>
+        <v>0.4667</v>
       </c>
       <c r="E64" t="n">
         <v>0.4588</v>
       </c>
       <c r="F64" t="n">
-        <v>1607624.73</v>
+        <v>1168701.4655</v>
       </c>
       <c r="G64" t="n">
-        <v>0.4668883333333332</v>
+        <v>0.4672016666666666</v>
       </c>
       <c r="H64" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I64" t="n">
         <v>0</v>
       </c>
-      <c r="J64" t="n">
-        <v>0.4588</v>
-      </c>
+      <c r="J64" t="inlineStr"/>
       <c r="K64" t="inlineStr"/>
-      <c r="L64" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L64" t="inlineStr"/>
       <c r="M64" t="n">
         <v>1</v>
       </c>
@@ -2669,19 +2641,19 @@
         <v>0.4588</v>
       </c>
       <c r="C65" t="n">
-        <v>0.4489</v>
+        <v>0.4588</v>
       </c>
       <c r="D65" t="n">
         <v>0.4588</v>
       </c>
       <c r="E65" t="n">
-        <v>0.4489</v>
+        <v>0.4588</v>
       </c>
       <c r="F65" t="n">
-        <v>3000</v>
+        <v>1607624.73</v>
       </c>
       <c r="G65" t="n">
-        <v>0.4665699999999999</v>
+        <v>0.4668883333333332</v>
       </c>
       <c r="H65" t="n">
         <v>0</v>
@@ -2691,11 +2663,7 @@
       </c>
       <c r="J65" t="inlineStr"/>
       <c r="K65" t="inlineStr"/>
-      <c r="L65" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L65" t="inlineStr"/>
       <c r="M65" t="n">
         <v>1</v>
       </c>
@@ -2705,22 +2673,22 @@
         <v>64</v>
       </c>
       <c r="B66" t="n">
-        <v>0.46</v>
+        <v>0.4588</v>
       </c>
       <c r="C66" t="n">
-        <v>0.46</v>
+        <v>0.4489</v>
       </c>
       <c r="D66" t="n">
-        <v>0.46</v>
+        <v>0.4588</v>
       </c>
       <c r="E66" t="n">
-        <v>0.46</v>
+        <v>0.4489</v>
       </c>
       <c r="F66" t="n">
-        <v>1100</v>
+        <v>3000</v>
       </c>
       <c r="G66" t="n">
-        <v>0.4662766666666666</v>
+        <v>0.4665699999999999</v>
       </c>
       <c r="H66" t="n">
         <v>0</v>
@@ -2730,11 +2698,7 @@
       </c>
       <c r="J66" t="inlineStr"/>
       <c r="K66" t="inlineStr"/>
-      <c r="L66" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L66" t="inlineStr"/>
       <c r="M66" t="n">
         <v>1</v>
       </c>
@@ -2744,22 +2708,22 @@
         <v>65</v>
       </c>
       <c r="B67" t="n">
-        <v>0.464</v>
+        <v>0.46</v>
       </c>
       <c r="C67" t="n">
-        <v>0.464</v>
+        <v>0.46</v>
       </c>
       <c r="D67" t="n">
-        <v>0.464</v>
+        <v>0.46</v>
       </c>
       <c r="E67" t="n">
-        <v>0.464</v>
+        <v>0.46</v>
       </c>
       <c r="F67" t="n">
         <v>1100</v>
       </c>
       <c r="G67" t="n">
-        <v>0.4662099999999999</v>
+        <v>0.4662766666666666</v>
       </c>
       <c r="H67" t="n">
         <v>0</v>
@@ -2769,11 +2733,7 @@
       </c>
       <c r="J67" t="inlineStr"/>
       <c r="K67" t="inlineStr"/>
-      <c r="L67" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L67" t="inlineStr"/>
       <c r="M67" t="n">
         <v>1</v>
       </c>
@@ -2808,11 +2768,7 @@
       </c>
       <c r="J68" t="inlineStr"/>
       <c r="K68" t="inlineStr"/>
-      <c r="L68" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L68" t="inlineStr"/>
       <c r="M68" t="n">
         <v>1</v>
       </c>
@@ -2831,10 +2787,10 @@
         <v>0.464</v>
       </c>
       <c r="E69" t="n">
-        <v>0.452</v>
+        <v>0.464</v>
       </c>
       <c r="F69" t="n">
-        <v>185600</v>
+        <v>1100</v>
       </c>
       <c r="G69" t="n">
         <v>0.4662099999999999</v>
@@ -2847,11 +2803,7 @@
       </c>
       <c r="J69" t="inlineStr"/>
       <c r="K69" t="inlineStr"/>
-      <c r="L69" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L69" t="inlineStr"/>
       <c r="M69" t="n">
         <v>1</v>
       </c>
@@ -2861,22 +2813,22 @@
         <v>68</v>
       </c>
       <c r="B70" t="n">
-        <v>0.4589</v>
+        <v>0.464</v>
       </c>
       <c r="C70" t="n">
-        <v>0.4589</v>
+        <v>0.464</v>
       </c>
       <c r="D70" t="n">
-        <v>0.4589</v>
+        <v>0.464</v>
       </c>
       <c r="E70" t="n">
-        <v>0.4502</v>
+        <v>0.452</v>
       </c>
       <c r="F70" t="n">
-        <v>272350</v>
+        <v>185600</v>
       </c>
       <c r="G70" t="n">
-        <v>0.4661499999999999</v>
+        <v>0.4662099999999999</v>
       </c>
       <c r="H70" t="n">
         <v>0</v>
@@ -2886,11 +2838,7 @@
       </c>
       <c r="J70" t="inlineStr"/>
       <c r="K70" t="inlineStr"/>
-      <c r="L70" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L70" t="inlineStr"/>
       <c r="M70" t="n">
         <v>1</v>
       </c>
@@ -2900,22 +2848,22 @@
         <v>69</v>
       </c>
       <c r="B71" t="n">
-        <v>0.463</v>
+        <v>0.4589</v>
       </c>
       <c r="C71" t="n">
-        <v>0.4629</v>
+        <v>0.4589</v>
       </c>
       <c r="D71" t="n">
-        <v>0.463</v>
+        <v>0.4589</v>
       </c>
       <c r="E71" t="n">
-        <v>0.4629</v>
+        <v>0.4502</v>
       </c>
       <c r="F71" t="n">
-        <v>2168211.1987</v>
+        <v>272350</v>
       </c>
       <c r="G71" t="n">
-        <v>0.4660716666666666</v>
+        <v>0.4661499999999999</v>
       </c>
       <c r="H71" t="n">
         <v>0</v>
@@ -2925,11 +2873,7 @@
       </c>
       <c r="J71" t="inlineStr"/>
       <c r="K71" t="inlineStr"/>
-      <c r="L71" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L71" t="inlineStr"/>
       <c r="M71" t="n">
         <v>1</v>
       </c>
@@ -2939,22 +2883,22 @@
         <v>70</v>
       </c>
       <c r="B72" t="n">
+        <v>0.463</v>
+      </c>
+      <c r="C72" t="n">
         <v>0.4629</v>
       </c>
-      <c r="C72" t="n">
-        <v>0.4631</v>
-      </c>
       <c r="D72" t="n">
-        <v>0.4631</v>
+        <v>0.463</v>
       </c>
       <c r="E72" t="n">
-        <v>0.461</v>
+        <v>0.4629</v>
       </c>
       <c r="F72" t="n">
-        <v>3708200.1831</v>
+        <v>2168211.1987</v>
       </c>
       <c r="G72" t="n">
-        <v>0.4659966666666666</v>
+        <v>0.4660716666666666</v>
       </c>
       <c r="H72" t="n">
         <v>0</v>
@@ -2964,11 +2908,7 @@
       </c>
       <c r="J72" t="inlineStr"/>
       <c r="K72" t="inlineStr"/>
-      <c r="L72" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L72" t="inlineStr"/>
       <c r="M72" t="n">
         <v>1</v>
       </c>
@@ -2978,22 +2918,22 @@
         <v>71</v>
       </c>
       <c r="B73" t="n">
-        <v>0.464</v>
+        <v>0.4629</v>
       </c>
       <c r="C73" t="n">
-        <v>0.468</v>
+        <v>0.4631</v>
       </c>
       <c r="D73" t="n">
-        <v>0.468</v>
+        <v>0.4631</v>
       </c>
       <c r="E73" t="n">
-        <v>0.464</v>
+        <v>0.461</v>
       </c>
       <c r="F73" t="n">
-        <v>342533.5615</v>
+        <v>3708200.1831</v>
       </c>
       <c r="G73" t="n">
-        <v>0.4658366666666666</v>
+        <v>0.4659966666666666</v>
       </c>
       <c r="H73" t="n">
         <v>0</v>
@@ -3003,11 +2943,7 @@
       </c>
       <c r="J73" t="inlineStr"/>
       <c r="K73" t="inlineStr"/>
-      <c r="L73" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L73" t="inlineStr"/>
       <c r="M73" t="n">
         <v>1</v>
       </c>
@@ -3017,22 +2953,22 @@
         <v>72</v>
       </c>
       <c r="B74" t="n">
-        <v>0.4631</v>
+        <v>0.464</v>
       </c>
       <c r="C74" t="n">
-        <v>0.466</v>
+        <v>0.468</v>
       </c>
       <c r="D74" t="n">
-        <v>0.466</v>
+        <v>0.468</v>
       </c>
       <c r="E74" t="n">
-        <v>0.4631</v>
+        <v>0.464</v>
       </c>
       <c r="F74" t="n">
-        <v>115915.2786</v>
+        <v>342533.5615</v>
       </c>
       <c r="G74" t="n">
-        <v>0.4656433333333333</v>
+        <v>0.4658366666666666</v>
       </c>
       <c r="H74" t="n">
         <v>0</v>
@@ -3042,11 +2978,7 @@
       </c>
       <c r="J74" t="inlineStr"/>
       <c r="K74" t="inlineStr"/>
-      <c r="L74" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L74" t="inlineStr"/>
       <c r="M74" t="n">
         <v>1</v>
       </c>
@@ -3056,22 +2988,22 @@
         <v>73</v>
       </c>
       <c r="B75" t="n">
+        <v>0.4631</v>
+      </c>
+      <c r="C75" t="n">
         <v>0.466</v>
       </c>
-      <c r="C75" t="n">
-        <v>0.4721</v>
-      </c>
       <c r="D75" t="n">
-        <v>0.4721</v>
+        <v>0.466</v>
       </c>
       <c r="E75" t="n">
-        <v>0.466</v>
+        <v>0.4631</v>
       </c>
       <c r="F75" t="n">
-        <v>1031968.439902033</v>
+        <v>115915.2786</v>
       </c>
       <c r="G75" t="n">
-        <v>0.46555</v>
+        <v>0.4656433333333333</v>
       </c>
       <c r="H75" t="n">
         <v>0</v>
@@ -3081,11 +3013,7 @@
       </c>
       <c r="J75" t="inlineStr"/>
       <c r="K75" t="inlineStr"/>
-      <c r="L75" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L75" t="inlineStr"/>
       <c r="M75" t="n">
         <v>1</v>
       </c>
@@ -3095,22 +3023,22 @@
         <v>74</v>
       </c>
       <c r="B76" t="n">
-        <v>0.4631</v>
+        <v>0.466</v>
       </c>
       <c r="C76" t="n">
-        <v>0.464</v>
+        <v>0.4721</v>
       </c>
       <c r="D76" t="n">
-        <v>0.464</v>
+        <v>0.4721</v>
       </c>
       <c r="E76" t="n">
-        <v>0.4631</v>
+        <v>0.466</v>
       </c>
       <c r="F76" t="n">
-        <v>2848565.6224</v>
+        <v>1031968.439902033</v>
       </c>
       <c r="G76" t="n">
-        <v>0.4653016666666667</v>
+        <v>0.46555</v>
       </c>
       <c r="H76" t="n">
         <v>0</v>
@@ -3120,11 +3048,7 @@
       </c>
       <c r="J76" t="inlineStr"/>
       <c r="K76" t="inlineStr"/>
-      <c r="L76" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L76" t="inlineStr"/>
       <c r="M76" t="n">
         <v>1</v>
       </c>
@@ -3137,19 +3061,19 @@
         <v>0.4631</v>
       </c>
       <c r="C77" t="n">
-        <v>0.4631</v>
+        <v>0.464</v>
       </c>
       <c r="D77" t="n">
-        <v>0.4631</v>
+        <v>0.464</v>
       </c>
       <c r="E77" t="n">
         <v>0.4631</v>
       </c>
       <c r="F77" t="n">
-        <v>267046.8731</v>
+        <v>2848565.6224</v>
       </c>
       <c r="G77" t="n">
-        <v>0.4651033333333333</v>
+        <v>0.4653016666666667</v>
       </c>
       <c r="H77" t="n">
         <v>0</v>
@@ -3159,11 +3083,7 @@
       </c>
       <c r="J77" t="inlineStr"/>
       <c r="K77" t="inlineStr"/>
-      <c r="L77" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L77" t="inlineStr"/>
       <c r="M77" t="n">
         <v>1</v>
       </c>
@@ -3173,22 +3093,22 @@
         <v>76</v>
       </c>
       <c r="B78" t="n">
-        <v>0.4632</v>
+        <v>0.4631</v>
       </c>
       <c r="C78" t="n">
-        <v>0.4632</v>
+        <v>0.4631</v>
       </c>
       <c r="D78" t="n">
-        <v>0.4632</v>
+        <v>0.4631</v>
       </c>
       <c r="E78" t="n">
-        <v>0.4632</v>
+        <v>0.4631</v>
       </c>
       <c r="F78" t="n">
-        <v>861773.3903</v>
+        <v>267046.8731</v>
       </c>
       <c r="G78" t="n">
-        <v>0.4649083333333333</v>
+        <v>0.4651033333333333</v>
       </c>
       <c r="H78" t="n">
         <v>0</v>
@@ -3198,11 +3118,7 @@
       </c>
       <c r="J78" t="inlineStr"/>
       <c r="K78" t="inlineStr"/>
-      <c r="L78" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L78" t="inlineStr"/>
       <c r="M78" t="n">
         <v>1</v>
       </c>
@@ -3224,10 +3140,10 @@
         <v>0.4632</v>
       </c>
       <c r="F79" t="n">
-        <v>175591.8744</v>
+        <v>861773.3903</v>
       </c>
       <c r="G79" t="n">
-        <v>0.4648266666666666</v>
+        <v>0.4649083333333333</v>
       </c>
       <c r="H79" t="n">
         <v>0</v>
@@ -3237,11 +3153,7 @@
       </c>
       <c r="J79" t="inlineStr"/>
       <c r="K79" t="inlineStr"/>
-      <c r="L79" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L79" t="inlineStr"/>
       <c r="M79" t="n">
         <v>1</v>
       </c>
@@ -3254,19 +3166,19 @@
         <v>0.4632</v>
       </c>
       <c r="C80" t="n">
-        <v>0.463</v>
+        <v>0.4632</v>
       </c>
       <c r="D80" t="n">
         <v>0.4632</v>
       </c>
       <c r="E80" t="n">
-        <v>0.463</v>
+        <v>0.4632</v>
       </c>
       <c r="F80" t="n">
-        <v>2356039.2927</v>
+        <v>175591.8744</v>
       </c>
       <c r="G80" t="n">
-        <v>0.4646433333333333</v>
+        <v>0.4648266666666666</v>
       </c>
       <c r="H80" t="n">
         <v>0</v>
@@ -3276,11 +3188,7 @@
       </c>
       <c r="J80" t="inlineStr"/>
       <c r="K80" t="inlineStr"/>
-      <c r="L80" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L80" t="inlineStr"/>
       <c r="M80" t="n">
         <v>1</v>
       </c>
@@ -3290,22 +3198,22 @@
         <v>79</v>
       </c>
       <c r="B81" t="n">
-        <v>0.4502</v>
+        <v>0.4632</v>
       </c>
       <c r="C81" t="n">
-        <v>0.4502</v>
+        <v>0.463</v>
       </c>
       <c r="D81" t="n">
-        <v>0.4502</v>
+        <v>0.4632</v>
       </c>
       <c r="E81" t="n">
-        <v>0.4502</v>
+        <v>0.463</v>
       </c>
       <c r="F81" t="n">
-        <v>514707.8662</v>
+        <v>2356039.2927</v>
       </c>
       <c r="G81" t="n">
-        <v>0.46433</v>
+        <v>0.4646433333333333</v>
       </c>
       <c r="H81" t="n">
         <v>0</v>
@@ -3315,11 +3223,7 @@
       </c>
       <c r="J81" t="inlineStr"/>
       <c r="K81" t="inlineStr"/>
-      <c r="L81" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L81" t="inlineStr"/>
       <c r="M81" t="n">
         <v>1</v>
       </c>
@@ -3329,22 +3233,22 @@
         <v>80</v>
       </c>
       <c r="B82" t="n">
-        <v>0.463</v>
+        <v>0.4502</v>
       </c>
       <c r="C82" t="n">
-        <v>0.463</v>
+        <v>0.4502</v>
       </c>
       <c r="D82" t="n">
-        <v>0.463</v>
+        <v>0.4502</v>
       </c>
       <c r="E82" t="n">
-        <v>0.463</v>
+        <v>0.4502</v>
       </c>
       <c r="F82" t="n">
-        <v>3479.9137</v>
+        <v>514707.8662</v>
       </c>
       <c r="G82" t="n">
-        <v>0.4641466666666666</v>
+        <v>0.46433</v>
       </c>
       <c r="H82" t="n">
         <v>0</v>
@@ -3354,11 +3258,7 @@
       </c>
       <c r="J82" t="inlineStr"/>
       <c r="K82" t="inlineStr"/>
-      <c r="L82" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L82" t="inlineStr"/>
       <c r="M82" t="n">
         <v>1</v>
       </c>
@@ -3368,22 +3268,22 @@
         <v>81</v>
       </c>
       <c r="B83" t="n">
-        <v>0.4687</v>
+        <v>0.463</v>
       </c>
       <c r="C83" t="n">
-        <v>0.4687</v>
+        <v>0.463</v>
       </c>
       <c r="D83" t="n">
-        <v>0.4687</v>
+        <v>0.463</v>
       </c>
       <c r="E83" t="n">
-        <v>0.4687</v>
+        <v>0.463</v>
       </c>
       <c r="F83" t="n">
-        <v>1173.4586</v>
+        <v>3479.9137</v>
       </c>
       <c r="G83" t="n">
-        <v>0.4640416666666666</v>
+        <v>0.4641466666666666</v>
       </c>
       <c r="H83" t="n">
         <v>0</v>
@@ -3393,11 +3293,7 @@
       </c>
       <c r="J83" t="inlineStr"/>
       <c r="K83" t="inlineStr"/>
-      <c r="L83" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L83" t="inlineStr"/>
       <c r="M83" t="n">
         <v>1</v>
       </c>
@@ -3407,22 +3303,22 @@
         <v>82</v>
       </c>
       <c r="B84" t="n">
-        <v>0.4515</v>
+        <v>0.4687</v>
       </c>
       <c r="C84" t="n">
-        <v>0.4515</v>
+        <v>0.4687</v>
       </c>
       <c r="D84" t="n">
-        <v>0.4515</v>
+        <v>0.4687</v>
       </c>
       <c r="E84" t="n">
-        <v>0.4515</v>
+        <v>0.4687</v>
       </c>
       <c r="F84" t="n">
-        <v>27000</v>
+        <v>1173.4586</v>
       </c>
       <c r="G84" t="n">
-        <v>0.4636649999999999</v>
+        <v>0.4640416666666666</v>
       </c>
       <c r="H84" t="n">
         <v>0</v>
@@ -3432,11 +3328,7 @@
       </c>
       <c r="J84" t="inlineStr"/>
       <c r="K84" t="inlineStr"/>
-      <c r="L84" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L84" t="inlineStr"/>
       <c r="M84" t="n">
         <v>1</v>
       </c>
@@ -3446,22 +3338,22 @@
         <v>83</v>
       </c>
       <c r="B85" t="n">
-        <v>0.4686</v>
+        <v>0.4515</v>
       </c>
       <c r="C85" t="n">
-        <v>0.4686</v>
+        <v>0.4515</v>
       </c>
       <c r="D85" t="n">
-        <v>0.4686</v>
+        <v>0.4515</v>
       </c>
       <c r="E85" t="n">
-        <v>0.4686</v>
+        <v>0.4515</v>
       </c>
       <c r="F85" t="n">
-        <v>1050</v>
+        <v>27000</v>
       </c>
       <c r="G85" t="n">
-        <v>0.4633933333333332</v>
+        <v>0.4636649999999999</v>
       </c>
       <c r="H85" t="n">
         <v>0</v>
@@ -3471,11 +3363,7 @@
       </c>
       <c r="J85" t="inlineStr"/>
       <c r="K85" t="inlineStr"/>
-      <c r="L85" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L85" t="inlineStr"/>
       <c r="M85" t="n">
         <v>1</v>
       </c>
@@ -3485,22 +3373,22 @@
         <v>84</v>
       </c>
       <c r="B86" t="n">
-        <v>0.4585</v>
+        <v>0.4686</v>
       </c>
       <c r="C86" t="n">
-        <v>0.4585</v>
+        <v>0.4686</v>
       </c>
       <c r="D86" t="n">
-        <v>0.4585</v>
+        <v>0.4686</v>
       </c>
       <c r="E86" t="n">
-        <v>0.4585</v>
+        <v>0.4686</v>
       </c>
       <c r="F86" t="n">
-        <v>126050</v>
+        <v>1050</v>
       </c>
       <c r="G86" t="n">
-        <v>0.4631349999999999</v>
+        <v>0.4633933333333332</v>
       </c>
       <c r="H86" t="n">
         <v>0</v>
@@ -3510,11 +3398,7 @@
       </c>
       <c r="J86" t="inlineStr"/>
       <c r="K86" t="inlineStr"/>
-      <c r="L86" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L86" t="inlineStr"/>
       <c r="M86" t="n">
         <v>1</v>
       </c>
@@ -3527,19 +3411,19 @@
         <v>0.4585</v>
       </c>
       <c r="C87" t="n">
-        <v>0.4685</v>
+        <v>0.4585</v>
       </c>
       <c r="D87" t="n">
-        <v>0.4685</v>
+        <v>0.4585</v>
       </c>
       <c r="E87" t="n">
         <v>0.4585</v>
       </c>
       <c r="F87" t="n">
-        <v>2476.41408751334</v>
+        <v>126050</v>
       </c>
       <c r="G87" t="n">
-        <v>0.4630433333333332</v>
+        <v>0.4631349999999999</v>
       </c>
       <c r="H87" t="n">
         <v>0</v>
@@ -3549,11 +3433,7 @@
       </c>
       <c r="J87" t="inlineStr"/>
       <c r="K87" t="inlineStr"/>
-      <c r="L87" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L87" t="inlineStr"/>
       <c r="M87" t="n">
         <v>1</v>
       </c>
@@ -3563,22 +3443,22 @@
         <v>86</v>
       </c>
       <c r="B88" t="n">
-        <v>0.4556</v>
+        <v>0.4585</v>
       </c>
       <c r="C88" t="n">
-        <v>0.4515</v>
+        <v>0.4685</v>
       </c>
       <c r="D88" t="n">
-        <v>0.4564</v>
+        <v>0.4685</v>
       </c>
       <c r="E88" t="n">
-        <v>0.4515</v>
+        <v>0.4585</v>
       </c>
       <c r="F88" t="n">
-        <v>1922943.6894</v>
+        <v>2476.41408751334</v>
       </c>
       <c r="G88" t="n">
-        <v>0.4626683333333332</v>
+        <v>0.4630433333333332</v>
       </c>
       <c r="H88" t="n">
         <v>0</v>
@@ -3588,11 +3468,7 @@
       </c>
       <c r="J88" t="inlineStr"/>
       <c r="K88" t="inlineStr"/>
-      <c r="L88" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L88" t="inlineStr"/>
       <c r="M88" t="n">
         <v>1</v>
       </c>
@@ -3602,22 +3478,22 @@
         <v>87</v>
       </c>
       <c r="B89" t="n">
-        <v>0.4585</v>
+        <v>0.4556</v>
       </c>
       <c r="C89" t="n">
-        <v>0.4585</v>
+        <v>0.4515</v>
       </c>
       <c r="D89" t="n">
-        <v>0.4585</v>
+        <v>0.4564</v>
       </c>
       <c r="E89" t="n">
-        <v>0.4585</v>
+        <v>0.4515</v>
       </c>
       <c r="F89" t="n">
-        <v>1351489.3889</v>
+        <v>1922943.6894</v>
       </c>
       <c r="G89" t="n">
-        <v>0.4624099999999999</v>
+        <v>0.4626683333333332</v>
       </c>
       <c r="H89" t="n">
         <v>0</v>
@@ -3627,11 +3503,7 @@
       </c>
       <c r="J89" t="inlineStr"/>
       <c r="K89" t="inlineStr"/>
-      <c r="L89" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L89" t="inlineStr"/>
       <c r="M89" t="n">
         <v>1</v>
       </c>
@@ -3641,22 +3513,22 @@
         <v>88</v>
       </c>
       <c r="B90" t="n">
-        <v>0.4566</v>
+        <v>0.4585</v>
       </c>
       <c r="C90" t="n">
-        <v>0.4566</v>
+        <v>0.4585</v>
       </c>
       <c r="D90" t="n">
-        <v>0.4566</v>
+        <v>0.4585</v>
       </c>
       <c r="E90" t="n">
-        <v>0.4566</v>
+        <v>0.4585</v>
       </c>
       <c r="F90" t="n">
-        <v>125170</v>
+        <v>1351489.3889</v>
       </c>
       <c r="G90" t="n">
-        <v>0.4622233333333332</v>
+        <v>0.4624099999999999</v>
       </c>
       <c r="H90" t="n">
         <v>0</v>
@@ -3666,11 +3538,7 @@
       </c>
       <c r="J90" t="inlineStr"/>
       <c r="K90" t="inlineStr"/>
-      <c r="L90" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L90" t="inlineStr"/>
       <c r="M90" t="n">
         <v>1</v>
       </c>
@@ -3680,22 +3548,22 @@
         <v>89</v>
       </c>
       <c r="B91" t="n">
-        <v>0.4471</v>
+        <v>0.4566</v>
       </c>
       <c r="C91" t="n">
-        <v>0.4451</v>
+        <v>0.4566</v>
       </c>
       <c r="D91" t="n">
-        <v>0.4471</v>
+        <v>0.4566</v>
       </c>
       <c r="E91" t="n">
-        <v>0.4451</v>
+        <v>0.4566</v>
       </c>
       <c r="F91" t="n">
-        <v>7181054.3503</v>
+        <v>125170</v>
       </c>
       <c r="G91" t="n">
-        <v>0.4618483333333332</v>
+        <v>0.4622233333333332</v>
       </c>
       <c r="H91" t="n">
         <v>0</v>
@@ -3705,11 +3573,7 @@
       </c>
       <c r="J91" t="inlineStr"/>
       <c r="K91" t="inlineStr"/>
-      <c r="L91" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L91" t="inlineStr"/>
       <c r="M91" t="n">
         <v>1</v>
       </c>
@@ -3719,22 +3583,22 @@
         <v>90</v>
       </c>
       <c r="B92" t="n">
+        <v>0.4471</v>
+      </c>
+      <c r="C92" t="n">
         <v>0.4451</v>
       </c>
-      <c r="C92" t="n">
-        <v>0.4565</v>
-      </c>
       <c r="D92" t="n">
-        <v>0.4565</v>
+        <v>0.4471</v>
       </c>
       <c r="E92" t="n">
         <v>0.4451</v>
       </c>
       <c r="F92" t="n">
-        <v>1554349.6108</v>
+        <v>7181054.3503</v>
       </c>
       <c r="G92" t="n">
-        <v>0.4616616666666665</v>
+        <v>0.4618483333333332</v>
       </c>
       <c r="H92" t="n">
         <v>0</v>
@@ -3744,11 +3608,7 @@
       </c>
       <c r="J92" t="inlineStr"/>
       <c r="K92" t="inlineStr"/>
-      <c r="L92" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L92" t="inlineStr"/>
       <c r="M92" t="n">
         <v>1</v>
       </c>
@@ -3758,7 +3618,7 @@
         <v>91</v>
       </c>
       <c r="B93" t="n">
-        <v>0.4565</v>
+        <v>0.4451</v>
       </c>
       <c r="C93" t="n">
         <v>0.4565</v>
@@ -3767,13 +3627,13 @@
         <v>0.4565</v>
       </c>
       <c r="E93" t="n">
-        <v>0.445</v>
+        <v>0.4451</v>
       </c>
       <c r="F93" t="n">
-        <v>581050</v>
+        <v>1554349.6108</v>
       </c>
       <c r="G93" t="n">
-        <v>0.4614749999999998</v>
+        <v>0.4616616666666665</v>
       </c>
       <c r="H93" t="n">
         <v>0</v>
@@ -3783,11 +3643,7 @@
       </c>
       <c r="J93" t="inlineStr"/>
       <c r="K93" t="inlineStr"/>
-      <c r="L93" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L93" t="inlineStr"/>
       <c r="M93" t="n">
         <v>1</v>
       </c>
@@ -3800,19 +3656,19 @@
         <v>0.4565</v>
       </c>
       <c r="C94" t="n">
-        <v>0.4562</v>
+        <v>0.4565</v>
       </c>
       <c r="D94" t="n">
         <v>0.4565</v>
       </c>
       <c r="E94" t="n">
-        <v>0.436</v>
+        <v>0.445</v>
       </c>
       <c r="F94" t="n">
-        <v>658006</v>
+        <v>581050</v>
       </c>
       <c r="G94" t="n">
-        <v>0.4610333333333331</v>
+        <v>0.4614749999999998</v>
       </c>
       <c r="H94" t="n">
         <v>0</v>
@@ -3822,11 +3678,7 @@
       </c>
       <c r="J94" t="inlineStr"/>
       <c r="K94" t="inlineStr"/>
-      <c r="L94" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L94" t="inlineStr"/>
       <c r="M94" t="n">
         <v>1</v>
       </c>
@@ -3836,22 +3688,22 @@
         <v>93</v>
       </c>
       <c r="B95" t="n">
-        <v>0.4465</v>
+        <v>0.4565</v>
       </c>
       <c r="C95" t="n">
-        <v>0.456</v>
+        <v>0.4562</v>
       </c>
       <c r="D95" t="n">
-        <v>0.456</v>
+        <v>0.4565</v>
       </c>
       <c r="E95" t="n">
-        <v>0.4465</v>
+        <v>0.436</v>
       </c>
       <c r="F95" t="n">
-        <v>116570</v>
+        <v>658006</v>
       </c>
       <c r="G95" t="n">
-        <v>0.4608383333333331</v>
+        <v>0.4610333333333331</v>
       </c>
       <c r="H95" t="n">
         <v>0</v>
@@ -3861,11 +3713,7 @@
       </c>
       <c r="J95" t="inlineStr"/>
       <c r="K95" t="inlineStr"/>
-      <c r="L95" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L95" t="inlineStr"/>
       <c r="M95" t="n">
         <v>1</v>
       </c>
@@ -3875,22 +3723,22 @@
         <v>94</v>
       </c>
       <c r="B96" t="n">
+        <v>0.4465</v>
+      </c>
+      <c r="C96" t="n">
         <v>0.456</v>
-      </c>
-      <c r="C96" t="n">
-        <v>0.4555</v>
       </c>
       <c r="D96" t="n">
         <v>0.456</v>
       </c>
       <c r="E96" t="n">
-        <v>0.447</v>
+        <v>0.4465</v>
       </c>
       <c r="F96" t="n">
-        <v>509696.9216948408</v>
+        <v>116570</v>
       </c>
       <c r="G96" t="n">
-        <v>0.4606333333333331</v>
+        <v>0.4608383333333331</v>
       </c>
       <c r="H96" t="n">
         <v>0</v>
@@ -3900,11 +3748,7 @@
       </c>
       <c r="J96" t="inlineStr"/>
       <c r="K96" t="inlineStr"/>
-      <c r="L96" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L96" t="inlineStr"/>
       <c r="M96" t="n">
         <v>1</v>
       </c>
@@ -3914,22 +3758,22 @@
         <v>95</v>
       </c>
       <c r="B97" t="n">
-        <v>0.4466</v>
+        <v>0.456</v>
       </c>
       <c r="C97" t="n">
         <v>0.4555</v>
       </c>
       <c r="D97" t="n">
-        <v>0.4555</v>
+        <v>0.456</v>
       </c>
       <c r="E97" t="n">
-        <v>0.4371</v>
+        <v>0.447</v>
       </c>
       <c r="F97" t="n">
-        <v>645661.0977</v>
+        <v>509696.9216948408</v>
       </c>
       <c r="G97" t="n">
-        <v>0.4604283333333331</v>
+        <v>0.4606333333333331</v>
       </c>
       <c r="H97" t="n">
         <v>0</v>
@@ -3939,11 +3783,7 @@
       </c>
       <c r="J97" t="inlineStr"/>
       <c r="K97" t="inlineStr"/>
-      <c r="L97" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L97" t="inlineStr"/>
       <c r="M97" t="n">
         <v>1</v>
       </c>
@@ -3953,22 +3793,22 @@
         <v>96</v>
       </c>
       <c r="B98" t="n">
-        <v>0.4471</v>
+        <v>0.4466</v>
       </c>
       <c r="C98" t="n">
-        <v>0.4466</v>
+        <v>0.4555</v>
       </c>
       <c r="D98" t="n">
-        <v>0.4471</v>
+        <v>0.4555</v>
       </c>
       <c r="E98" t="n">
-        <v>0.4466</v>
+        <v>0.4371</v>
       </c>
       <c r="F98" t="n">
-        <v>70100</v>
+        <v>645661.0977</v>
       </c>
       <c r="G98" t="n">
-        <v>0.4603466666666664</v>
+        <v>0.4604283333333331</v>
       </c>
       <c r="H98" t="n">
         <v>0</v>
@@ -3978,11 +3818,7 @@
       </c>
       <c r="J98" t="inlineStr"/>
       <c r="K98" t="inlineStr"/>
-      <c r="L98" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L98" t="inlineStr"/>
       <c r="M98" t="n">
         <v>1</v>
       </c>
@@ -3992,22 +3828,22 @@
         <v>97</v>
       </c>
       <c r="B99" t="n">
-        <v>0.4466</v>
+        <v>0.4471</v>
       </c>
       <c r="C99" t="n">
         <v>0.4466</v>
       </c>
       <c r="D99" t="n">
-        <v>0.4466</v>
+        <v>0.4471</v>
       </c>
       <c r="E99" t="n">
         <v>0.4466</v>
       </c>
       <c r="F99" t="n">
-        <v>133343.8408</v>
+        <v>70100</v>
       </c>
       <c r="G99" t="n">
-        <v>0.4600416666666664</v>
+        <v>0.4603466666666664</v>
       </c>
       <c r="H99" t="n">
         <v>0</v>
@@ -4017,11 +3853,7 @@
       </c>
       <c r="J99" t="inlineStr"/>
       <c r="K99" t="inlineStr"/>
-      <c r="L99" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L99" t="inlineStr"/>
       <c r="M99" t="n">
         <v>1</v>
       </c>
@@ -4037,16 +3869,16 @@
         <v>0.4466</v>
       </c>
       <c r="D100" t="n">
-        <v>0.4555</v>
+        <v>0.4466</v>
       </c>
       <c r="E100" t="n">
         <v>0.4466</v>
       </c>
       <c r="F100" t="n">
-        <v>255610</v>
+        <v>133343.8408</v>
       </c>
       <c r="G100" t="n">
-        <v>0.4595016666666664</v>
+        <v>0.4600416666666664</v>
       </c>
       <c r="H100" t="n">
         <v>0</v>
@@ -4056,11 +3888,7 @@
       </c>
       <c r="J100" t="inlineStr"/>
       <c r="K100" t="inlineStr"/>
-      <c r="L100" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L100" t="inlineStr"/>
       <c r="M100" t="n">
         <v>1</v>
       </c>
@@ -4070,22 +3898,22 @@
         <v>99</v>
       </c>
       <c r="B101" t="n">
-        <v>0.4465</v>
+        <v>0.4466</v>
       </c>
       <c r="C101" t="n">
         <v>0.4466</v>
       </c>
       <c r="D101" t="n">
+        <v>0.4555</v>
+      </c>
+      <c r="E101" t="n">
         <v>0.4466</v>
       </c>
-      <c r="E101" t="n">
-        <v>0.4465</v>
-      </c>
       <c r="F101" t="n">
-        <v>73068</v>
+        <v>255610</v>
       </c>
       <c r="G101" t="n">
-        <v>0.4592516666666664</v>
+        <v>0.4595016666666664</v>
       </c>
       <c r="H101" t="n">
         <v>0</v>
@@ -4095,11 +3923,7 @@
       </c>
       <c r="J101" t="inlineStr"/>
       <c r="K101" t="inlineStr"/>
-      <c r="L101" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L101" t="inlineStr"/>
       <c r="M101" t="n">
         <v>1</v>
       </c>
@@ -4109,22 +3933,22 @@
         <v>100</v>
       </c>
       <c r="B102" t="n">
+        <v>0.4465</v>
+      </c>
+      <c r="C102" t="n">
         <v>0.4466</v>
-      </c>
-      <c r="C102" t="n">
-        <v>0.4465</v>
       </c>
       <c r="D102" t="n">
         <v>0.4466</v>
       </c>
       <c r="E102" t="n">
-        <v>0.4371</v>
+        <v>0.4465</v>
       </c>
       <c r="F102" t="n">
-        <v>2309458.3084</v>
+        <v>73068</v>
       </c>
       <c r="G102" t="n">
-        <v>0.4589433333333331</v>
+        <v>0.4592516666666664</v>
       </c>
       <c r="H102" t="n">
         <v>0</v>
@@ -4134,11 +3958,7 @@
       </c>
       <c r="J102" t="inlineStr"/>
       <c r="K102" t="inlineStr"/>
-      <c r="L102" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L102" t="inlineStr"/>
       <c r="M102" t="n">
         <v>1</v>
       </c>
@@ -4148,22 +3968,22 @@
         <v>101</v>
       </c>
       <c r="B103" t="n">
-        <v>0.4465</v>
+        <v>0.4466</v>
       </c>
       <c r="C103" t="n">
         <v>0.4465</v>
       </c>
       <c r="D103" t="n">
-        <v>0.4465</v>
+        <v>0.4466</v>
       </c>
       <c r="E103" t="n">
-        <v>0.4465</v>
+        <v>0.4371</v>
       </c>
       <c r="F103" t="n">
-        <v>13690.9904</v>
+        <v>2309458.3084</v>
       </c>
       <c r="G103" t="n">
-        <v>0.4586349999999998</v>
+        <v>0.4589433333333331</v>
       </c>
       <c r="H103" t="n">
         <v>0</v>
@@ -4173,11 +3993,7 @@
       </c>
       <c r="J103" t="inlineStr"/>
       <c r="K103" t="inlineStr"/>
-      <c r="L103" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L103" t="inlineStr"/>
       <c r="M103" t="n">
         <v>1</v>
       </c>
@@ -4187,22 +4003,22 @@
         <v>102</v>
       </c>
       <c r="B104" t="n">
-        <v>0.4454</v>
+        <v>0.4465</v>
       </c>
       <c r="C104" t="n">
-        <v>0.4554</v>
+        <v>0.4465</v>
       </c>
       <c r="D104" t="n">
-        <v>0.4554</v>
+        <v>0.4465</v>
       </c>
       <c r="E104" t="n">
-        <v>0.4454</v>
+        <v>0.4465</v>
       </c>
       <c r="F104" t="n">
-        <v>125580</v>
+        <v>13690.9904</v>
       </c>
       <c r="G104" t="n">
-        <v>0.4585416666666665</v>
+        <v>0.4586349999999998</v>
       </c>
       <c r="H104" t="n">
         <v>0</v>
@@ -4212,11 +4028,7 @@
       </c>
       <c r="J104" t="inlineStr"/>
       <c r="K104" t="inlineStr"/>
-      <c r="L104" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L104" t="inlineStr"/>
       <c r="M104" t="n">
         <v>1</v>
       </c>
@@ -4229,19 +4041,19 @@
         <v>0.4454</v>
       </c>
       <c r="C105" t="n">
-        <v>0.4454</v>
+        <v>0.4554</v>
       </c>
       <c r="D105" t="n">
-        <v>0.4454</v>
+        <v>0.4554</v>
       </c>
       <c r="E105" t="n">
         <v>0.4454</v>
       </c>
       <c r="F105" t="n">
-        <v>93571.9734</v>
+        <v>125580</v>
       </c>
       <c r="G105" t="n">
-        <v>0.4582816666666665</v>
+        <v>0.4585416666666665</v>
       </c>
       <c r="H105" t="n">
         <v>0</v>
@@ -4251,11 +4063,7 @@
       </c>
       <c r="J105" t="inlineStr"/>
       <c r="K105" t="inlineStr"/>
-      <c r="L105" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L105" t="inlineStr"/>
       <c r="M105" t="n">
         <v>1</v>
       </c>
@@ -4268,19 +4076,19 @@
         <v>0.4454</v>
       </c>
       <c r="C106" t="n">
-        <v>0.4392</v>
+        <v>0.4454</v>
       </c>
       <c r="D106" t="n">
-        <v>0.4554</v>
+        <v>0.4454</v>
       </c>
       <c r="E106" t="n">
-        <v>0.4392</v>
+        <v>0.4454</v>
       </c>
       <c r="F106" t="n">
-        <v>5106293.0856</v>
+        <v>93571.9734</v>
       </c>
       <c r="G106" t="n">
-        <v>0.4579183333333331</v>
+        <v>0.4582816666666665</v>
       </c>
       <c r="H106" t="n">
         <v>0</v>
@@ -4290,11 +4098,7 @@
       </c>
       <c r="J106" t="inlineStr"/>
       <c r="K106" t="inlineStr"/>
-      <c r="L106" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L106" t="inlineStr"/>
       <c r="M106" t="n">
         <v>1</v>
       </c>
@@ -4307,19 +4111,19 @@
         <v>0.4454</v>
       </c>
       <c r="C107" t="n">
-        <v>0.4555</v>
+        <v>0.4392</v>
       </c>
       <c r="D107" t="n">
-        <v>0.4555</v>
+        <v>0.4554</v>
       </c>
       <c r="E107" t="n">
-        <v>0.4454</v>
+        <v>0.4392</v>
       </c>
       <c r="F107" t="n">
-        <v>222407</v>
+        <v>5106293.0856</v>
       </c>
       <c r="G107" t="n">
-        <v>0.4577433333333332</v>
+        <v>0.4579183333333331</v>
       </c>
       <c r="H107" t="n">
         <v>0</v>
@@ -4329,11 +4133,7 @@
       </c>
       <c r="J107" t="inlineStr"/>
       <c r="K107" t="inlineStr"/>
-      <c r="L107" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L107" t="inlineStr"/>
       <c r="M107" t="n">
         <v>1</v>
       </c>
@@ -4343,22 +4143,22 @@
         <v>106</v>
       </c>
       <c r="B108" t="n">
-        <v>0.4539</v>
+        <v>0.4454</v>
       </c>
       <c r="C108" t="n">
-        <v>0.4556</v>
+        <v>0.4555</v>
       </c>
       <c r="D108" t="n">
-        <v>0.4557</v>
+        <v>0.4555</v>
       </c>
       <c r="E108" t="n">
-        <v>0.4539</v>
+        <v>0.4454</v>
       </c>
       <c r="F108" t="n">
-        <v>2294080.9541</v>
+        <v>222407</v>
       </c>
       <c r="G108" t="n">
-        <v>0.4576533333333332</v>
+        <v>0.4577433333333332</v>
       </c>
       <c r="H108" t="n">
         <v>0</v>
@@ -4368,11 +4168,7 @@
       </c>
       <c r="J108" t="inlineStr"/>
       <c r="K108" t="inlineStr"/>
-      <c r="L108" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L108" t="inlineStr"/>
       <c r="M108" t="n">
         <v>1</v>
       </c>
@@ -4382,22 +4178,22 @@
         <v>107</v>
       </c>
       <c r="B109" t="n">
-        <v>0.4675</v>
+        <v>0.4539</v>
       </c>
       <c r="C109" t="n">
         <v>0.4556</v>
       </c>
       <c r="D109" t="n">
-        <v>0.4675</v>
+        <v>0.4557</v>
       </c>
       <c r="E109" t="n">
-        <v>0.4556</v>
+        <v>0.4539</v>
       </c>
       <c r="F109" t="n">
-        <v>122427.8261</v>
+        <v>2294080.9541</v>
       </c>
       <c r="G109" t="n">
-        <v>0.4575649999999999</v>
+        <v>0.4576533333333332</v>
       </c>
       <c r="H109" t="n">
         <v>0</v>
@@ -4407,11 +4203,7 @@
       </c>
       <c r="J109" t="inlineStr"/>
       <c r="K109" t="inlineStr"/>
-      <c r="L109" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L109" t="inlineStr"/>
       <c r="M109" t="n">
         <v>1</v>
       </c>
@@ -4421,22 +4213,22 @@
         <v>108</v>
       </c>
       <c r="B110" t="n">
-        <v>0.4556</v>
+        <v>0.4675</v>
       </c>
       <c r="C110" t="n">
         <v>0.4556</v>
       </c>
       <c r="D110" t="n">
-        <v>0.4655</v>
+        <v>0.4675</v>
       </c>
       <c r="E110" t="n">
         <v>0.4556</v>
       </c>
       <c r="F110" t="n">
-        <v>500993.6105</v>
+        <v>122427.8261</v>
       </c>
       <c r="G110" t="n">
-        <v>0.4574766666666666</v>
+        <v>0.4575649999999999</v>
       </c>
       <c r="H110" t="n">
         <v>0</v>
@@ -4446,11 +4238,7 @@
       </c>
       <c r="J110" t="inlineStr"/>
       <c r="K110" t="inlineStr"/>
-      <c r="L110" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L110" t="inlineStr"/>
       <c r="M110" t="n">
         <v>1</v>
       </c>
@@ -4460,10 +4248,10 @@
         <v>109</v>
       </c>
       <c r="B111" t="n">
-        <v>0.4557</v>
+        <v>0.4556</v>
       </c>
       <c r="C111" t="n">
-        <v>0.4655</v>
+        <v>0.4556</v>
       </c>
       <c r="D111" t="n">
         <v>0.4655</v>
@@ -4472,10 +4260,10 @@
         <v>0.4556</v>
       </c>
       <c r="F111" t="n">
-        <v>1653551.5109</v>
+        <v>500993.6105</v>
       </c>
       <c r="G111" t="n">
-        <v>0.4575533333333333</v>
+        <v>0.4574766666666666</v>
       </c>
       <c r="H111" t="n">
         <v>0</v>
@@ -4485,11 +4273,7 @@
       </c>
       <c r="J111" t="inlineStr"/>
       <c r="K111" t="inlineStr"/>
-      <c r="L111" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L111" t="inlineStr"/>
       <c r="M111" t="n">
         <v>1</v>
       </c>
@@ -4499,22 +4283,22 @@
         <v>110</v>
       </c>
       <c r="B112" t="n">
-        <v>0.4556</v>
+        <v>0.4557</v>
       </c>
       <c r="C112" t="n">
-        <v>0.4556</v>
+        <v>0.4655</v>
       </c>
       <c r="D112" t="n">
-        <v>0.4556</v>
+        <v>0.4655</v>
       </c>
       <c r="E112" t="n">
         <v>0.4556</v>
       </c>
       <c r="F112" t="n">
-        <v>1502160</v>
+        <v>1653551.5109</v>
       </c>
       <c r="G112" t="n">
-        <v>0.4576466666666666</v>
+        <v>0.4575533333333333</v>
       </c>
       <c r="H112" t="n">
         <v>0</v>
@@ -4524,11 +4308,7 @@
       </c>
       <c r="J112" t="inlineStr"/>
       <c r="K112" t="inlineStr"/>
-      <c r="L112" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L112" t="inlineStr"/>
       <c r="M112" t="n">
         <v>1</v>
       </c>
@@ -4538,22 +4318,22 @@
         <v>111</v>
       </c>
       <c r="B113" t="n">
-        <v>0.4623</v>
+        <v>0.4556</v>
       </c>
       <c r="C113" t="n">
-        <v>0.4494</v>
+        <v>0.4556</v>
       </c>
       <c r="D113" t="n">
-        <v>0.4623</v>
+        <v>0.4556</v>
       </c>
       <c r="E113" t="n">
-        <v>0.4494</v>
+        <v>0.4556</v>
       </c>
       <c r="F113" t="n">
-        <v>1645139.0449</v>
+        <v>1502160</v>
       </c>
       <c r="G113" t="n">
-        <v>0.457455</v>
+        <v>0.4576466666666666</v>
       </c>
       <c r="H113" t="n">
         <v>0</v>
@@ -4563,11 +4343,7 @@
       </c>
       <c r="J113" t="inlineStr"/>
       <c r="K113" t="inlineStr"/>
-      <c r="L113" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L113" t="inlineStr"/>
       <c r="M113" t="n">
         <v>1</v>
       </c>
@@ -4577,22 +4353,22 @@
         <v>112</v>
       </c>
       <c r="B114" t="n">
-        <v>0.4524</v>
+        <v>0.4623</v>
       </c>
       <c r="C114" t="n">
-        <v>0.4624</v>
+        <v>0.4494</v>
       </c>
       <c r="D114" t="n">
-        <v>0.4624</v>
+        <v>0.4623</v>
       </c>
       <c r="E114" t="n">
-        <v>0.4524</v>
+        <v>0.4494</v>
       </c>
       <c r="F114" t="n">
-        <v>94272</v>
+        <v>1645139.0449</v>
       </c>
       <c r="G114" t="n">
-        <v>0.4576816666666667</v>
+        <v>0.457455</v>
       </c>
       <c r="H114" t="n">
         <v>0</v>
@@ -4602,11 +4378,7 @@
       </c>
       <c r="J114" t="inlineStr"/>
       <c r="K114" t="inlineStr"/>
-      <c r="L114" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L114" t="inlineStr"/>
       <c r="M114" t="n">
         <v>1</v>
       </c>
@@ -4616,22 +4388,22 @@
         <v>113</v>
       </c>
       <c r="B115" t="n">
-        <v>0.4624</v>
+        <v>0.4524</v>
       </c>
       <c r="C115" t="n">
         <v>0.4624</v>
       </c>
       <c r="D115" t="n">
-        <v>0.4655</v>
+        <v>0.4624</v>
       </c>
       <c r="E115" t="n">
-        <v>0.4624</v>
+        <v>0.4524</v>
       </c>
       <c r="F115" t="n">
-        <v>3452094.3854</v>
+        <v>94272</v>
       </c>
       <c r="G115" t="n">
-        <v>0.4578716666666666</v>
+        <v>0.4576816666666667</v>
       </c>
       <c r="H115" t="n">
         <v>0</v>
@@ -4641,11 +4413,7 @@
       </c>
       <c r="J115" t="inlineStr"/>
       <c r="K115" t="inlineStr"/>
-      <c r="L115" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L115" t="inlineStr"/>
       <c r="M115" t="n">
         <v>1</v>
       </c>
@@ -4658,19 +4426,19 @@
         <v>0.4624</v>
       </c>
       <c r="C116" t="n">
-        <v>0.4657</v>
+        <v>0.4624</v>
       </c>
       <c r="D116" t="n">
-        <v>0.4657</v>
+        <v>0.4655</v>
       </c>
       <c r="E116" t="n">
-        <v>0.4594</v>
+        <v>0.4624</v>
       </c>
       <c r="F116" t="n">
-        <v>1930950.5812</v>
+        <v>3452094.3854</v>
       </c>
       <c r="G116" t="n">
-        <v>0.4580999999999999</v>
+        <v>0.4578716666666666</v>
       </c>
       <c r="H116" t="n">
         <v>0</v>
@@ -4680,11 +4448,7 @@
       </c>
       <c r="J116" t="inlineStr"/>
       <c r="K116" t="inlineStr"/>
-      <c r="L116" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L116" t="inlineStr"/>
       <c r="M116" t="n">
         <v>1</v>
       </c>
@@ -4694,22 +4458,22 @@
         <v>115</v>
       </c>
       <c r="B117" t="n">
-        <v>0.4602</v>
+        <v>0.4624</v>
       </c>
       <c r="C117" t="n">
-        <v>0.4602</v>
+        <v>0.4657</v>
       </c>
       <c r="D117" t="n">
         <v>0.4657</v>
       </c>
       <c r="E117" t="n">
-        <v>0.4602</v>
+        <v>0.4594</v>
       </c>
       <c r="F117" t="n">
-        <v>6530</v>
+        <v>1930950.5812</v>
       </c>
       <c r="G117" t="n">
-        <v>0.4582199999999999</v>
+        <v>0.4580999999999999</v>
       </c>
       <c r="H117" t="n">
         <v>0</v>
@@ -4719,11 +4483,7 @@
       </c>
       <c r="J117" t="inlineStr"/>
       <c r="K117" t="inlineStr"/>
-      <c r="L117" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L117" t="inlineStr"/>
       <c r="M117" t="n">
         <v>1</v>
       </c>
@@ -4739,16 +4499,16 @@
         <v>0.4602</v>
       </c>
       <c r="D118" t="n">
-        <v>0.4602</v>
+        <v>0.4657</v>
       </c>
       <c r="E118" t="n">
         <v>0.4602</v>
       </c>
       <c r="F118" t="n">
-        <v>2625</v>
+        <v>6530</v>
       </c>
       <c r="G118" t="n">
-        <v>0.4581966666666666</v>
+        <v>0.4582199999999999</v>
       </c>
       <c r="H118" t="n">
         <v>0</v>
@@ -4758,11 +4518,7 @@
       </c>
       <c r="J118" t="inlineStr"/>
       <c r="K118" t="inlineStr"/>
-      <c r="L118" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L118" t="inlineStr"/>
       <c r="M118" t="n">
         <v>1</v>
       </c>
@@ -4772,22 +4528,22 @@
         <v>117</v>
       </c>
       <c r="B119" t="n">
-        <v>0.4654</v>
+        <v>0.4602</v>
       </c>
       <c r="C119" t="n">
-        <v>0.4654</v>
+        <v>0.4602</v>
       </c>
       <c r="D119" t="n">
-        <v>0.4654</v>
+        <v>0.4602</v>
       </c>
       <c r="E119" t="n">
-        <v>0.4654</v>
+        <v>0.4602</v>
       </c>
       <c r="F119" t="n">
-        <v>1075</v>
+        <v>2625</v>
       </c>
       <c r="G119" t="n">
-        <v>0.4582699999999999</v>
+        <v>0.4581966666666666</v>
       </c>
       <c r="H119" t="n">
         <v>0</v>
@@ -4797,11 +4553,7 @@
       </c>
       <c r="J119" t="inlineStr"/>
       <c r="K119" t="inlineStr"/>
-      <c r="L119" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L119" t="inlineStr"/>
       <c r="M119" t="n">
         <v>1</v>
       </c>
@@ -4823,10 +4575,10 @@
         <v>0.4654</v>
       </c>
       <c r="F120" t="n">
-        <v>225707.1568</v>
+        <v>1075</v>
       </c>
       <c r="G120" t="n">
-        <v>0.4582433333333332</v>
+        <v>0.4582699999999999</v>
       </c>
       <c r="H120" t="n">
         <v>0</v>
@@ -4836,11 +4588,7 @@
       </c>
       <c r="J120" t="inlineStr"/>
       <c r="K120" t="inlineStr"/>
-      <c r="L120" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L120" t="inlineStr"/>
       <c r="M120" t="n">
         <v>1</v>
       </c>
@@ -4853,19 +4601,19 @@
         <v>0.4654</v>
       </c>
       <c r="C121" t="n">
-        <v>0.4607</v>
+        <v>0.4654</v>
       </c>
       <c r="D121" t="n">
         <v>0.4654</v>
       </c>
       <c r="E121" t="n">
-        <v>0.4607</v>
+        <v>0.4654</v>
       </c>
       <c r="F121" t="n">
-        <v>145816.758</v>
+        <v>225707.1568</v>
       </c>
       <c r="G121" t="n">
-        <v>0.4579383333333332</v>
+        <v>0.4582433333333332</v>
       </c>
       <c r="H121" t="n">
         <v>0</v>
@@ -4875,11 +4623,7 @@
       </c>
       <c r="J121" t="inlineStr"/>
       <c r="K121" t="inlineStr"/>
-      <c r="L121" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L121" t="inlineStr"/>
       <c r="M121" t="n">
         <v>1</v>
       </c>
@@ -4889,22 +4633,22 @@
         <v>120</v>
       </c>
       <c r="B122" t="n">
-        <v>0.469</v>
+        <v>0.4654</v>
       </c>
       <c r="C122" t="n">
-        <v>0.469</v>
+        <v>0.4607</v>
       </c>
       <c r="D122" t="n">
-        <v>0.469</v>
+        <v>0.4654</v>
       </c>
       <c r="E122" t="n">
-        <v>0.469</v>
+        <v>0.4607</v>
       </c>
       <c r="F122" t="n">
-        <v>1067</v>
+        <v>145816.758</v>
       </c>
       <c r="G122" t="n">
-        <v>0.4581083333333333</v>
+        <v>0.4579383333333332</v>
       </c>
       <c r="H122" t="n">
         <v>0</v>
@@ -4914,11 +4658,7 @@
       </c>
       <c r="J122" t="inlineStr"/>
       <c r="K122" t="inlineStr"/>
-      <c r="L122" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L122" t="inlineStr"/>
       <c r="M122" t="n">
         <v>1</v>
       </c>
@@ -4931,19 +4671,19 @@
         <v>0.469</v>
       </c>
       <c r="C123" t="n">
-        <v>0.4609</v>
+        <v>0.469</v>
       </c>
       <c r="D123" t="n">
         <v>0.469</v>
       </c>
       <c r="E123" t="n">
-        <v>0.4609</v>
+        <v>0.469</v>
       </c>
       <c r="F123" t="n">
-        <v>3000</v>
+        <v>1067</v>
       </c>
       <c r="G123" t="n">
-        <v>0.4581433333333332</v>
+        <v>0.4581083333333333</v>
       </c>
       <c r="H123" t="n">
         <v>0</v>
@@ -4953,11 +4693,7 @@
       </c>
       <c r="J123" t="inlineStr"/>
       <c r="K123" t="inlineStr"/>
-      <c r="L123" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L123" t="inlineStr"/>
       <c r="M123" t="n">
         <v>1</v>
       </c>
@@ -4970,19 +4706,19 @@
         <v>0.469</v>
       </c>
       <c r="C124" t="n">
-        <v>0.4511</v>
+        <v>0.4609</v>
       </c>
       <c r="D124" t="n">
         <v>0.469</v>
       </c>
       <c r="E124" t="n">
-        <v>0.4511</v>
+        <v>0.4609</v>
       </c>
       <c r="F124" t="n">
-        <v>230494.9342</v>
+        <v>3000</v>
       </c>
       <c r="G124" t="n">
-        <v>0.4580149999999999</v>
+        <v>0.4581433333333332</v>
       </c>
       <c r="H124" t="n">
         <v>0</v>
@@ -4992,11 +4728,7 @@
       </c>
       <c r="J124" t="inlineStr"/>
       <c r="K124" t="inlineStr"/>
-      <c r="L124" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L124" t="inlineStr"/>
       <c r="M124" t="n">
         <v>1</v>
       </c>
@@ -5006,22 +4738,22 @@
         <v>123</v>
       </c>
       <c r="B125" t="n">
-        <v>0.4578</v>
+        <v>0.469</v>
       </c>
       <c r="C125" t="n">
-        <v>0.4677</v>
+        <v>0.4511</v>
       </c>
       <c r="D125" t="n">
-        <v>0.4677</v>
+        <v>0.469</v>
       </c>
       <c r="E125" t="n">
-        <v>0.4577</v>
+        <v>0.4511</v>
       </c>
       <c r="F125" t="n">
-        <v>382977.1735</v>
+        <v>230494.9342</v>
       </c>
       <c r="G125" t="n">
-        <v>0.4583283333333333</v>
+        <v>0.4580149999999999</v>
       </c>
       <c r="H125" t="n">
         <v>0</v>
@@ -5031,11 +4763,7 @@
       </c>
       <c r="J125" t="inlineStr"/>
       <c r="K125" t="inlineStr"/>
-      <c r="L125" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L125" t="inlineStr"/>
       <c r="M125" t="n">
         <v>1</v>
       </c>
@@ -5045,22 +4773,22 @@
         <v>124</v>
       </c>
       <c r="B126" t="n">
-        <v>0.4676</v>
+        <v>0.4578</v>
       </c>
       <c r="C126" t="n">
-        <v>0.4676</v>
+        <v>0.4677</v>
       </c>
       <c r="D126" t="n">
-        <v>0.4676</v>
+        <v>0.4677</v>
       </c>
       <c r="E126" t="n">
-        <v>0.4676</v>
+        <v>0.4577</v>
       </c>
       <c r="F126" t="n">
-        <v>6533.5805</v>
+        <v>382977.1735</v>
       </c>
       <c r="G126" t="n">
-        <v>0.4584549999999999</v>
+        <v>0.4583283333333333</v>
       </c>
       <c r="H126" t="n">
         <v>0</v>
@@ -5070,11 +4798,7 @@
       </c>
       <c r="J126" t="inlineStr"/>
       <c r="K126" t="inlineStr"/>
-      <c r="L126" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L126" t="inlineStr"/>
       <c r="M126" t="n">
         <v>1</v>
       </c>
@@ -5084,22 +4808,22 @@
         <v>125</v>
       </c>
       <c r="B127" t="n">
-        <v>0.4594</v>
+        <v>0.4676</v>
       </c>
       <c r="C127" t="n">
-        <v>0.4531</v>
+        <v>0.4676</v>
       </c>
       <c r="D127" t="n">
-        <v>0.4594</v>
+        <v>0.4676</v>
       </c>
       <c r="E127" t="n">
-        <v>0.4531</v>
+        <v>0.4676</v>
       </c>
       <c r="F127" t="n">
-        <v>438322</v>
+        <v>6533.5805</v>
       </c>
       <c r="G127" t="n">
-        <v>0.4582733333333333</v>
+        <v>0.4584549999999999</v>
       </c>
       <c r="H127" t="n">
         <v>0</v>
@@ -5109,11 +4833,7 @@
       </c>
       <c r="J127" t="inlineStr"/>
       <c r="K127" t="inlineStr"/>
-      <c r="L127" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L127" t="inlineStr"/>
       <c r="M127" t="n">
         <v>1</v>
       </c>
@@ -5123,22 +4843,22 @@
         <v>126</v>
       </c>
       <c r="B128" t="n">
-        <v>0.4559</v>
+        <v>0.4594</v>
       </c>
       <c r="C128" t="n">
-        <v>0.4559</v>
+        <v>0.4531</v>
       </c>
       <c r="D128" t="n">
-        <v>0.4577</v>
+        <v>0.4594</v>
       </c>
       <c r="E128" t="n">
-        <v>0.4558</v>
+        <v>0.4531</v>
       </c>
       <c r="F128" t="n">
-        <v>300000</v>
+        <v>438322</v>
       </c>
       <c r="G128" t="n">
-        <v>0.4581383333333333</v>
+        <v>0.4582733333333333</v>
       </c>
       <c r="H128" t="n">
         <v>0</v>
@@ -5148,11 +4868,7 @@
       </c>
       <c r="J128" t="inlineStr"/>
       <c r="K128" t="inlineStr"/>
-      <c r="L128" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L128" t="inlineStr"/>
       <c r="M128" t="n">
         <v>1</v>
       </c>
@@ -5162,22 +4878,22 @@
         <v>127</v>
       </c>
       <c r="B129" t="n">
-        <v>0.4531</v>
+        <v>0.4559</v>
       </c>
       <c r="C129" t="n">
-        <v>0.443</v>
+        <v>0.4559</v>
       </c>
       <c r="D129" t="n">
-        <v>0.4531</v>
+        <v>0.4577</v>
       </c>
       <c r="E129" t="n">
-        <v>0.443</v>
+        <v>0.4558</v>
       </c>
       <c r="F129" t="n">
-        <v>1282041.1949</v>
+        <v>300000</v>
       </c>
       <c r="G129" t="n">
-        <v>0.4577883333333334</v>
+        <v>0.4581383333333333</v>
       </c>
       <c r="H129" t="n">
         <v>0</v>
@@ -5187,11 +4903,7 @@
       </c>
       <c r="J129" t="inlineStr"/>
       <c r="K129" t="inlineStr"/>
-      <c r="L129" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L129" t="inlineStr"/>
       <c r="M129" t="n">
         <v>1</v>
       </c>
@@ -5201,22 +4913,22 @@
         <v>128</v>
       </c>
       <c r="B130" t="n">
-        <v>0.4559</v>
+        <v>0.4531</v>
       </c>
       <c r="C130" t="n">
-        <v>0.4545</v>
+        <v>0.443</v>
       </c>
       <c r="D130" t="n">
-        <v>0.4577</v>
+        <v>0.4531</v>
       </c>
       <c r="E130" t="n">
-        <v>0.4545</v>
+        <v>0.443</v>
       </c>
       <c r="F130" t="n">
-        <v>59683</v>
+        <v>1282041.1949</v>
       </c>
       <c r="G130" t="n">
-        <v>0.457715</v>
+        <v>0.4577883333333334</v>
       </c>
       <c r="H130" t="n">
         <v>0</v>
@@ -5226,11 +4938,7 @@
       </c>
       <c r="J130" t="inlineStr"/>
       <c r="K130" t="inlineStr"/>
-      <c r="L130" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L130" t="inlineStr"/>
       <c r="M130" t="n">
         <v>1</v>
       </c>
@@ -5240,22 +4948,22 @@
         <v>129</v>
       </c>
       <c r="B131" t="n">
-        <v>0.4545</v>
+        <v>0.4559</v>
       </c>
       <c r="C131" t="n">
         <v>0.4545</v>
       </c>
       <c r="D131" t="n">
-        <v>0.4545</v>
+        <v>0.4577</v>
       </c>
       <c r="E131" t="n">
         <v>0.4545</v>
       </c>
       <c r="F131" t="n">
-        <v>3906</v>
+        <v>59683</v>
       </c>
       <c r="G131" t="n">
-        <v>0.457575</v>
+        <v>0.457715</v>
       </c>
       <c r="H131" t="n">
         <v>0</v>
@@ -5265,11 +4973,7 @@
       </c>
       <c r="J131" t="inlineStr"/>
       <c r="K131" t="inlineStr"/>
-      <c r="L131" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L131" t="inlineStr"/>
       <c r="M131" t="n">
         <v>1</v>
       </c>
@@ -5282,19 +4986,19 @@
         <v>0.4545</v>
       </c>
       <c r="C132" t="n">
-        <v>0.4645</v>
+        <v>0.4545</v>
       </c>
       <c r="D132" t="n">
-        <v>0.4645</v>
+        <v>0.4545</v>
       </c>
       <c r="E132" t="n">
         <v>0.4545</v>
       </c>
       <c r="F132" t="n">
-        <v>718275.4899</v>
+        <v>3906</v>
       </c>
       <c r="G132" t="n">
-        <v>0.4575983333333333</v>
+        <v>0.457575</v>
       </c>
       <c r="H132" t="n">
         <v>0</v>
@@ -5304,11 +5008,7 @@
       </c>
       <c r="J132" t="inlineStr"/>
       <c r="K132" t="inlineStr"/>
-      <c r="L132" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L132" t="inlineStr"/>
       <c r="M132" t="n">
         <v>1</v>
       </c>
@@ -5318,22 +5018,22 @@
         <v>131</v>
       </c>
       <c r="B133" t="n">
-        <v>0.4546</v>
+        <v>0.4545</v>
       </c>
       <c r="C133" t="n">
-        <v>0.4643</v>
+        <v>0.4645</v>
       </c>
       <c r="D133" t="n">
-        <v>0.4643</v>
+        <v>0.4645</v>
       </c>
       <c r="E133" t="n">
-        <v>0.4432</v>
+        <v>0.4545</v>
       </c>
       <c r="F133" t="n">
-        <v>3827900.7459</v>
+        <v>718275.4899</v>
       </c>
       <c r="G133" t="n">
-        <v>0.4575366666666667</v>
+        <v>0.4575983333333333</v>
       </c>
       <c r="H133" t="n">
         <v>0</v>
@@ -5343,11 +5043,7 @@
       </c>
       <c r="J133" t="inlineStr"/>
       <c r="K133" t="inlineStr"/>
-      <c r="L133" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L133" t="inlineStr"/>
       <c r="M133" t="n">
         <v>1</v>
       </c>
@@ -5357,22 +5053,22 @@
         <v>132</v>
       </c>
       <c r="B134" t="n">
-        <v>0.4619</v>
+        <v>0.4546</v>
       </c>
       <c r="C134" t="n">
-        <v>0.48</v>
+        <v>0.4643</v>
       </c>
       <c r="D134" t="n">
-        <v>0.48</v>
+        <v>0.4643</v>
       </c>
       <c r="E134" t="n">
-        <v>0.4533</v>
+        <v>0.4432</v>
       </c>
       <c r="F134" t="n">
-        <v>15539344.15807223</v>
+        <v>3827900.7459</v>
       </c>
       <c r="G134" t="n">
-        <v>0.45777</v>
+        <v>0.4575366666666667</v>
       </c>
       <c r="H134" t="n">
         <v>0</v>
@@ -5382,11 +5078,7 @@
       </c>
       <c r="J134" t="inlineStr"/>
       <c r="K134" t="inlineStr"/>
-      <c r="L134" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L134" t="inlineStr"/>
       <c r="M134" t="n">
         <v>1</v>
       </c>
@@ -5396,22 +5088,22 @@
         <v>133</v>
       </c>
       <c r="B135" t="n">
+        <v>0.4619</v>
+      </c>
+      <c r="C135" t="n">
         <v>0.48</v>
-      </c>
-      <c r="C135" t="n">
-        <v>0.46</v>
       </c>
       <c r="D135" t="n">
         <v>0.48</v>
       </c>
       <c r="E135" t="n">
-        <v>0.46</v>
+        <v>0.4533</v>
       </c>
       <c r="F135" t="n">
-        <v>491401.8882</v>
+        <v>15539344.15807223</v>
       </c>
       <c r="G135" t="n">
-        <v>0.4575683333333334</v>
+        <v>0.45777</v>
       </c>
       <c r="H135" t="n">
         <v>0</v>
@@ -5421,11 +5113,7 @@
       </c>
       <c r="J135" t="inlineStr"/>
       <c r="K135" t="inlineStr"/>
-      <c r="L135" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L135" t="inlineStr"/>
       <c r="M135" t="n">
         <v>1</v>
       </c>
@@ -5435,22 +5123,22 @@
         <v>134</v>
       </c>
       <c r="B136" t="n">
-        <v>0.47</v>
+        <v>0.48</v>
       </c>
       <c r="C136" t="n">
-        <v>0.47</v>
+        <v>0.46</v>
       </c>
       <c r="D136" t="n">
-        <v>0.47</v>
+        <v>0.48</v>
       </c>
       <c r="E136" t="n">
-        <v>0.47</v>
+        <v>0.46</v>
       </c>
       <c r="F136" t="n">
-        <v>1111</v>
+        <v>491401.8882</v>
       </c>
       <c r="G136" t="n">
-        <v>0.4576683333333333</v>
+        <v>0.4575683333333334</v>
       </c>
       <c r="H136" t="n">
         <v>0</v>
@@ -5460,11 +5148,7 @@
       </c>
       <c r="J136" t="inlineStr"/>
       <c r="K136" t="inlineStr"/>
-      <c r="L136" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L136" t="inlineStr"/>
       <c r="M136" t="n">
         <v>1</v>
       </c>
@@ -5477,19 +5161,19 @@
         <v>0.47</v>
       </c>
       <c r="C137" t="n">
-        <v>0.463</v>
+        <v>0.47</v>
       </c>
       <c r="D137" t="n">
         <v>0.47</v>
       </c>
       <c r="E137" t="n">
-        <v>0.463</v>
+        <v>0.47</v>
       </c>
       <c r="F137" t="n">
-        <v>2584245.9874</v>
+        <v>1111</v>
       </c>
       <c r="G137" t="n">
-        <v>0.4576666666666667</v>
+        <v>0.4576683333333333</v>
       </c>
       <c r="H137" t="n">
         <v>0</v>
@@ -5499,11 +5183,7 @@
       </c>
       <c r="J137" t="inlineStr"/>
       <c r="K137" t="inlineStr"/>
-      <c r="L137" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L137" t="inlineStr"/>
       <c r="M137" t="n">
         <v>1</v>
       </c>
@@ -5513,22 +5193,22 @@
         <v>136</v>
       </c>
       <c r="B138" t="n">
-        <v>0.4677</v>
+        <v>0.47</v>
       </c>
       <c r="C138" t="n">
+        <v>0.463</v>
+      </c>
+      <c r="D138" t="n">
         <v>0.47</v>
       </c>
-      <c r="D138" t="n">
-        <v>0.48</v>
-      </c>
       <c r="E138" t="n">
-        <v>0.461</v>
+        <v>0.463</v>
       </c>
       <c r="F138" t="n">
-        <v>729587.175</v>
+        <v>2584245.9874</v>
       </c>
       <c r="G138" t="n">
-        <v>0.45778</v>
+        <v>0.4576666666666667</v>
       </c>
       <c r="H138" t="n">
         <v>0</v>
@@ -5538,11 +5218,7 @@
       </c>
       <c r="J138" t="inlineStr"/>
       <c r="K138" t="inlineStr"/>
-      <c r="L138" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L138" t="inlineStr"/>
       <c r="M138" t="n">
         <v>1</v>
       </c>
@@ -5552,22 +5228,22 @@
         <v>137</v>
       </c>
       <c r="B139" t="n">
+        <v>0.4677</v>
+      </c>
+      <c r="C139" t="n">
         <v>0.47</v>
-      </c>
-      <c r="C139" t="n">
-        <v>0.4631</v>
       </c>
       <c r="D139" t="n">
         <v>0.48</v>
       </c>
       <c r="E139" t="n">
-        <v>0.4621</v>
+        <v>0.461</v>
       </c>
       <c r="F139" t="n">
-        <v>2955328.1786</v>
+        <v>729587.175</v>
       </c>
       <c r="G139" t="n">
-        <v>0.4577783333333333</v>
+        <v>0.45778</v>
       </c>
       <c r="H139" t="n">
         <v>0</v>
@@ -5577,11 +5253,7 @@
       </c>
       <c r="J139" t="inlineStr"/>
       <c r="K139" t="inlineStr"/>
-      <c r="L139" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L139" t="inlineStr"/>
       <c r="M139" t="n">
         <v>1</v>
       </c>
@@ -5591,22 +5263,22 @@
         <v>138</v>
       </c>
       <c r="B140" t="n">
-        <v>0.4731</v>
+        <v>0.47</v>
       </c>
       <c r="C140" t="n">
-        <v>0.4899</v>
+        <v>0.4631</v>
       </c>
       <c r="D140" t="n">
-        <v>0.4999</v>
+        <v>0.48</v>
       </c>
       <c r="E140" t="n">
-        <v>0.473</v>
+        <v>0.4621</v>
       </c>
       <c r="F140" t="n">
-        <v>1559315.8423</v>
+        <v>2955328.1786</v>
       </c>
       <c r="G140" t="n">
-        <v>0.4582266666666666</v>
+        <v>0.4577783333333333</v>
       </c>
       <c r="H140" t="n">
         <v>0</v>
@@ -5616,11 +5288,7 @@
       </c>
       <c r="J140" t="inlineStr"/>
       <c r="K140" t="inlineStr"/>
-      <c r="L140" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L140" t="inlineStr"/>
       <c r="M140" t="n">
         <v>1</v>
       </c>
@@ -5630,22 +5298,22 @@
         <v>139</v>
       </c>
       <c r="B141" t="n">
-        <v>0.4798</v>
+        <v>0.4731</v>
       </c>
       <c r="C141" t="n">
-        <v>0.4641</v>
+        <v>0.4899</v>
       </c>
       <c r="D141" t="n">
-        <v>0.4898</v>
+        <v>0.4999</v>
       </c>
       <c r="E141" t="n">
-        <v>0.4633</v>
+        <v>0.473</v>
       </c>
       <c r="F141" t="n">
-        <v>750685.9310515271</v>
+        <v>1559315.8423</v>
       </c>
       <c r="G141" t="n">
-        <v>0.4584583333333333</v>
+        <v>0.4582266666666666</v>
       </c>
       <c r="H141" t="n">
         <v>0</v>
@@ -5655,11 +5323,7 @@
       </c>
       <c r="J141" t="inlineStr"/>
       <c r="K141" t="inlineStr"/>
-      <c r="L141" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L141" t="inlineStr"/>
       <c r="M141" t="n">
         <v>1</v>
       </c>
@@ -5669,22 +5333,22 @@
         <v>140</v>
       </c>
       <c r="B142" t="n">
-        <v>0.472</v>
+        <v>0.4798</v>
       </c>
       <c r="C142" t="n">
-        <v>0.476</v>
+        <v>0.4641</v>
       </c>
       <c r="D142" t="n">
         <v>0.4898</v>
       </c>
       <c r="E142" t="n">
-        <v>0.472</v>
+        <v>0.4633</v>
       </c>
       <c r="F142" t="n">
-        <v>540022.6403</v>
+        <v>750685.9310515271</v>
       </c>
       <c r="G142" t="n">
-        <v>0.4586749999999999</v>
+        <v>0.4584583333333333</v>
       </c>
       <c r="H142" t="n">
         <v>0</v>
@@ -5694,11 +5358,7 @@
       </c>
       <c r="J142" t="inlineStr"/>
       <c r="K142" t="inlineStr"/>
-      <c r="L142" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L142" t="inlineStr"/>
       <c r="M142" t="n">
         <v>1</v>
       </c>
@@ -5708,22 +5368,22 @@
         <v>141</v>
       </c>
       <c r="B143" t="n">
-        <v>0.4666</v>
+        <v>0.472</v>
       </c>
       <c r="C143" t="n">
         <v>0.476</v>
       </c>
       <c r="D143" t="n">
-        <v>0.476</v>
+        <v>0.4898</v>
       </c>
       <c r="E143" t="n">
-        <v>0.4666</v>
+        <v>0.472</v>
       </c>
       <c r="F143" t="n">
-        <v>3670903.5977</v>
+        <v>540022.6403</v>
       </c>
       <c r="G143" t="n">
-        <v>0.4587966666666666</v>
+        <v>0.4586749999999999</v>
       </c>
       <c r="H143" t="n">
         <v>0</v>
@@ -5733,11 +5393,7 @@
       </c>
       <c r="J143" t="inlineStr"/>
       <c r="K143" t="inlineStr"/>
-      <c r="L143" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L143" t="inlineStr"/>
       <c r="M143" t="n">
         <v>1</v>
       </c>
@@ -5747,22 +5403,22 @@
         <v>142</v>
       </c>
       <c r="B144" t="n">
+        <v>0.4666</v>
+      </c>
+      <c r="C144" t="n">
         <v>0.476</v>
-      </c>
-      <c r="C144" t="n">
-        <v>0.4659</v>
       </c>
       <c r="D144" t="n">
         <v>0.476</v>
       </c>
       <c r="E144" t="n">
-        <v>0.4659</v>
+        <v>0.4666</v>
       </c>
       <c r="F144" t="n">
-        <v>2608675.6274</v>
+        <v>3670903.5977</v>
       </c>
       <c r="G144" t="n">
-        <v>0.4590366666666666</v>
+        <v>0.4587966666666666</v>
       </c>
       <c r="H144" t="n">
         <v>0</v>
@@ -5772,11 +5428,7 @@
       </c>
       <c r="J144" t="inlineStr"/>
       <c r="K144" t="inlineStr"/>
-      <c r="L144" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L144" t="inlineStr"/>
       <c r="M144" t="n">
         <v>1</v>
       </c>
@@ -5786,22 +5438,22 @@
         <v>143</v>
       </c>
       <c r="B145" t="n">
-        <v>0.4759</v>
+        <v>0.476</v>
       </c>
       <c r="C145" t="n">
-        <v>0.4646</v>
+        <v>0.4659</v>
       </c>
       <c r="D145" t="n">
-        <v>0.4759</v>
+        <v>0.476</v>
       </c>
       <c r="E145" t="n">
-        <v>0.4645</v>
+        <v>0.4659</v>
       </c>
       <c r="F145" t="n">
-        <v>1967643.2238</v>
+        <v>2608675.6274</v>
       </c>
       <c r="G145" t="n">
-        <v>0.45897</v>
+        <v>0.4590366666666666</v>
       </c>
       <c r="H145" t="n">
         <v>0</v>
@@ -5811,11 +5463,7 @@
       </c>
       <c r="J145" t="inlineStr"/>
       <c r="K145" t="inlineStr"/>
-      <c r="L145" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L145" t="inlineStr"/>
       <c r="M145" t="n">
         <v>1</v>
       </c>
@@ -5825,22 +5473,22 @@
         <v>144</v>
       </c>
       <c r="B146" t="n">
-        <v>0.4758</v>
+        <v>0.4759</v>
       </c>
       <c r="C146" t="n">
-        <v>0.4746</v>
+        <v>0.4646</v>
       </c>
       <c r="D146" t="n">
-        <v>0.4898</v>
+        <v>0.4759</v>
       </c>
       <c r="E146" t="n">
-        <v>0.4746</v>
+        <v>0.4645</v>
       </c>
       <c r="F146" t="n">
-        <v>253490</v>
+        <v>1967643.2238</v>
       </c>
       <c r="G146" t="n">
-        <v>0.4592383333333333</v>
+        <v>0.45897</v>
       </c>
       <c r="H146" t="n">
         <v>0</v>
@@ -5850,11 +5498,7 @@
       </c>
       <c r="J146" t="inlineStr"/>
       <c r="K146" t="inlineStr"/>
-      <c r="L146" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L146" t="inlineStr"/>
       <c r="M146" t="n">
         <v>1</v>
       </c>
@@ -5864,22 +5508,22 @@
         <v>145</v>
       </c>
       <c r="B147" t="n">
-        <v>0.4798</v>
+        <v>0.4758</v>
       </c>
       <c r="C147" t="n">
-        <v>0.4796</v>
+        <v>0.4746</v>
       </c>
       <c r="D147" t="n">
-        <v>0.4798</v>
+        <v>0.4898</v>
       </c>
       <c r="E147" t="n">
-        <v>0.4661</v>
+        <v>0.4746</v>
       </c>
       <c r="F147" t="n">
-        <v>294659.0949</v>
+        <v>253490</v>
       </c>
       <c r="G147" t="n">
-        <v>0.4594233333333334</v>
+        <v>0.4592383333333333</v>
       </c>
       <c r="H147" t="n">
         <v>0</v>
@@ -5889,11 +5533,7 @@
       </c>
       <c r="J147" t="inlineStr"/>
       <c r="K147" t="inlineStr"/>
-      <c r="L147" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L147" t="inlineStr"/>
       <c r="M147" t="n">
         <v>1</v>
       </c>
@@ -5903,22 +5543,22 @@
         <v>146</v>
       </c>
       <c r="B148" t="n">
-        <v>0.4788</v>
+        <v>0.4798</v>
       </c>
       <c r="C148" t="n">
-        <v>0.479</v>
+        <v>0.4796</v>
       </c>
       <c r="D148" t="n">
-        <v>0.479</v>
+        <v>0.4798</v>
       </c>
       <c r="E148" t="n">
-        <v>0.47</v>
+        <v>0.4661</v>
       </c>
       <c r="F148" t="n">
-        <v>7722483.1636</v>
+        <v>294659.0949</v>
       </c>
       <c r="G148" t="n">
-        <v>0.4598816666666667</v>
+        <v>0.4594233333333334</v>
       </c>
       <c r="H148" t="n">
         <v>0</v>
@@ -5928,11 +5568,7 @@
       </c>
       <c r="J148" t="inlineStr"/>
       <c r="K148" t="inlineStr"/>
-      <c r="L148" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L148" t="inlineStr"/>
       <c r="M148" t="n">
         <v>1</v>
       </c>
@@ -5942,22 +5578,22 @@
         <v>147</v>
       </c>
       <c r="B149" t="n">
+        <v>0.4788</v>
+      </c>
+      <c r="C149" t="n">
         <v>0.479</v>
       </c>
-      <c r="C149" t="n">
-        <v>0.4781</v>
-      </c>
       <c r="D149" t="n">
-        <v>0.4898</v>
+        <v>0.479</v>
       </c>
       <c r="E149" t="n">
         <v>0.47</v>
       </c>
       <c r="F149" t="n">
-        <v>3990815.6136</v>
+        <v>7722483.1636</v>
       </c>
       <c r="G149" t="n">
-        <v>0.4602083333333333</v>
+        <v>0.4598816666666667</v>
       </c>
       <c r="H149" t="n">
         <v>0</v>
@@ -5967,11 +5603,7 @@
       </c>
       <c r="J149" t="inlineStr"/>
       <c r="K149" t="inlineStr"/>
-      <c r="L149" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L149" t="inlineStr"/>
       <c r="M149" t="n">
         <v>1</v>
       </c>
@@ -5981,22 +5613,22 @@
         <v>148</v>
       </c>
       <c r="B150" t="n">
-        <v>0.4869</v>
+        <v>0.479</v>
       </c>
       <c r="C150" t="n">
-        <v>0.478</v>
+        <v>0.4781</v>
       </c>
       <c r="D150" t="n">
         <v>0.4898</v>
       </c>
       <c r="E150" t="n">
-        <v>0.471</v>
+        <v>0.47</v>
       </c>
       <c r="F150" t="n">
-        <v>9188622.394099999</v>
+        <v>3990815.6136</v>
       </c>
       <c r="G150" t="n">
-        <v>0.460565</v>
+        <v>0.4602083333333333</v>
       </c>
       <c r="H150" t="n">
         <v>0</v>
@@ -6006,11 +5638,7 @@
       </c>
       <c r="J150" t="inlineStr"/>
       <c r="K150" t="inlineStr"/>
-      <c r="L150" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L150" t="inlineStr"/>
       <c r="M150" t="n">
         <v>1</v>
       </c>
@@ -6020,22 +5648,22 @@
         <v>149</v>
       </c>
       <c r="B151" t="n">
-        <v>0.4782</v>
+        <v>0.4869</v>
       </c>
       <c r="C151" t="n">
-        <v>0.4868</v>
+        <v>0.478</v>
       </c>
       <c r="D151" t="n">
-        <v>0.4868</v>
+        <v>0.4898</v>
       </c>
       <c r="E151" t="n">
-        <v>0.4781</v>
+        <v>0.471</v>
       </c>
       <c r="F151" t="n">
-        <v>6375765.2301</v>
+        <v>9188622.394099999</v>
       </c>
       <c r="G151" t="n">
-        <v>0.46126</v>
+        <v>0.460565</v>
       </c>
       <c r="H151" t="n">
         <v>0</v>
@@ -6045,11 +5673,7 @@
       </c>
       <c r="J151" t="inlineStr"/>
       <c r="K151" t="inlineStr"/>
-      <c r="L151" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L151" t="inlineStr"/>
       <c r="M151" t="n">
         <v>1</v>
       </c>
@@ -6059,22 +5683,22 @@
         <v>150</v>
       </c>
       <c r="B152" t="n">
+        <v>0.4782</v>
+      </c>
+      <c r="C152" t="n">
         <v>0.4868</v>
       </c>
-      <c r="C152" t="n">
-        <v>0.4798</v>
-      </c>
       <c r="D152" t="n">
-        <v>0.4869</v>
+        <v>0.4868</v>
       </c>
       <c r="E152" t="n">
-        <v>0.4709</v>
+        <v>0.4781</v>
       </c>
       <c r="F152" t="n">
-        <v>4093505.6828</v>
+        <v>6375765.2301</v>
       </c>
       <c r="G152" t="n">
-        <v>0.4616483333333334</v>
+        <v>0.46126</v>
       </c>
       <c r="H152" t="n">
         <v>0</v>
@@ -6084,11 +5708,7 @@
       </c>
       <c r="J152" t="inlineStr"/>
       <c r="K152" t="inlineStr"/>
-      <c r="L152" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L152" t="inlineStr"/>
       <c r="M152" t="n">
         <v>1</v>
       </c>
@@ -6098,22 +5718,22 @@
         <v>151</v>
       </c>
       <c r="B153" t="n">
-        <v>0.4797</v>
+        <v>0.4868</v>
       </c>
       <c r="C153" t="n">
-        <v>0.481</v>
+        <v>0.4798</v>
       </c>
       <c r="D153" t="n">
-        <v>0.481</v>
+        <v>0.4869</v>
       </c>
       <c r="E153" t="n">
-        <v>0.4711</v>
+        <v>0.4709</v>
       </c>
       <c r="F153" t="n">
-        <v>6587668.486</v>
+        <v>4093505.6828</v>
       </c>
       <c r="G153" t="n">
-        <v>0.4620566666666667</v>
+        <v>0.4616483333333334</v>
       </c>
       <c r="H153" t="n">
         <v>0</v>
@@ -6123,11 +5743,7 @@
       </c>
       <c r="J153" t="inlineStr"/>
       <c r="K153" t="inlineStr"/>
-      <c r="L153" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L153" t="inlineStr"/>
       <c r="M153" t="n">
         <v>1</v>
       </c>
@@ -6137,22 +5753,22 @@
         <v>152</v>
       </c>
       <c r="B154" t="n">
+        <v>0.4797</v>
+      </c>
+      <c r="C154" t="n">
         <v>0.481</v>
       </c>
-      <c r="C154" t="n">
-        <v>0.5</v>
-      </c>
       <c r="D154" t="n">
-        <v>0.5</v>
+        <v>0.481</v>
       </c>
       <c r="E154" t="n">
-        <v>0.4767</v>
+        <v>0.4711</v>
       </c>
       <c r="F154" t="n">
-        <v>4048743.231160955</v>
+        <v>6587668.486</v>
       </c>
       <c r="G154" t="n">
-        <v>0.4627866666666668</v>
+        <v>0.4620566666666667</v>
       </c>
       <c r="H154" t="n">
         <v>0</v>
@@ -6162,11 +5778,7 @@
       </c>
       <c r="J154" t="inlineStr"/>
       <c r="K154" t="inlineStr"/>
-      <c r="L154" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L154" t="inlineStr"/>
       <c r="M154" t="n">
         <v>1</v>
       </c>
@@ -6176,22 +5788,22 @@
         <v>153</v>
       </c>
       <c r="B155" t="n">
-        <v>0.4821</v>
+        <v>0.481</v>
       </c>
       <c r="C155" t="n">
-        <v>0.5001</v>
+        <v>0.5</v>
       </c>
       <c r="D155" t="n">
-        <v>0.502</v>
+        <v>0.5</v>
       </c>
       <c r="E155" t="n">
-        <v>0.4821</v>
+        <v>0.4767</v>
       </c>
       <c r="F155" t="n">
-        <v>5502017.264715285</v>
+        <v>4048743.231160955</v>
       </c>
       <c r="G155" t="n">
-        <v>0.4635216666666668</v>
+        <v>0.4627866666666668</v>
       </c>
       <c r="H155" t="n">
         <v>0</v>
@@ -6201,11 +5813,7 @@
       </c>
       <c r="J155" t="inlineStr"/>
       <c r="K155" t="inlineStr"/>
-      <c r="L155" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L155" t="inlineStr"/>
       <c r="M155" t="n">
         <v>1</v>
       </c>
@@ -6215,22 +5823,22 @@
         <v>154</v>
       </c>
       <c r="B156" t="n">
-        <v>0.4902</v>
+        <v>0.4821</v>
       </c>
       <c r="C156" t="n">
-        <v>0.5203</v>
+        <v>0.5001</v>
       </c>
       <c r="D156" t="n">
-        <v>0.5597</v>
+        <v>0.502</v>
       </c>
       <c r="E156" t="n">
-        <v>0.4902</v>
+        <v>0.4821</v>
       </c>
       <c r="F156" t="n">
-        <v>11389999.32795005</v>
+        <v>5502017.264715285</v>
       </c>
       <c r="G156" t="n">
-        <v>0.4646016666666667</v>
+        <v>0.4635216666666668</v>
       </c>
       <c r="H156" t="n">
         <v>0</v>
@@ -6240,11 +5848,7 @@
       </c>
       <c r="J156" t="inlineStr"/>
       <c r="K156" t="inlineStr"/>
-      <c r="L156" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L156" t="inlineStr"/>
       <c r="M156" t="n">
         <v>1</v>
       </c>
@@ -6254,22 +5858,22 @@
         <v>155</v>
       </c>
       <c r="B157" t="n">
-        <v>0.5303</v>
+        <v>0.4902</v>
       </c>
       <c r="C157" t="n">
-        <v>0.5199</v>
+        <v>0.5203</v>
       </c>
       <c r="D157" t="n">
-        <v>0.5303</v>
+        <v>0.5597</v>
       </c>
       <c r="E157" t="n">
-        <v>0.5103</v>
+        <v>0.4902</v>
       </c>
       <c r="F157" t="n">
-        <v>6786465.042290566</v>
+        <v>11389999.32795005</v>
       </c>
       <c r="G157" t="n">
-        <v>0.4656750000000001</v>
+        <v>0.4646016666666667</v>
       </c>
       <c r="H157" t="n">
         <v>0</v>
@@ -6279,11 +5883,7 @@
       </c>
       <c r="J157" t="inlineStr"/>
       <c r="K157" t="inlineStr"/>
-      <c r="L157" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L157" t="inlineStr"/>
       <c r="M157" t="n">
         <v>1</v>
       </c>
@@ -6293,22 +5893,22 @@
         <v>156</v>
       </c>
       <c r="B158" t="n">
-        <v>0.5205</v>
+        <v>0.5303</v>
       </c>
       <c r="C158" t="n">
-        <v>0.5371</v>
+        <v>0.5199</v>
       </c>
       <c r="D158" t="n">
-        <v>0.5371</v>
+        <v>0.5303</v>
       </c>
       <c r="E158" t="n">
-        <v>0.5205</v>
+        <v>0.5103</v>
       </c>
       <c r="F158" t="n">
-        <v>4823332.1931</v>
+        <v>6786465.042290566</v>
       </c>
       <c r="G158" t="n">
-        <v>0.4671833333333334</v>
+        <v>0.4656750000000001</v>
       </c>
       <c r="H158" t="n">
         <v>0</v>
@@ -6318,11 +5918,7 @@
       </c>
       <c r="J158" t="inlineStr"/>
       <c r="K158" t="inlineStr"/>
-      <c r="L158" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L158" t="inlineStr"/>
       <c r="M158" t="n">
         <v>1</v>
       </c>
@@ -6332,65 +5928,63 @@
         <v>157</v>
       </c>
       <c r="B159" t="n">
+        <v>0.5205</v>
+      </c>
+      <c r="C159" t="n">
         <v>0.5371</v>
       </c>
-      <c r="C159" t="n">
-        <v>0.5471</v>
-      </c>
       <c r="D159" t="n">
-        <v>0.5481</v>
+        <v>0.5371</v>
       </c>
       <c r="E159" t="n">
-        <v>0.5371</v>
+        <v>0.5205</v>
       </c>
       <c r="F159" t="n">
-        <v>18324373.16971053</v>
+        <v>4823332.1931</v>
       </c>
       <c r="G159" t="n">
-        <v>0.4688583333333334</v>
+        <v>0.4671833333333334</v>
       </c>
       <c r="H159" t="n">
         <v>0</v>
       </c>
       <c r="I159" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J159" t="inlineStr"/>
       <c r="K159" t="inlineStr"/>
-      <c r="L159" t="inlineStr">
-        <is>
-          <t>매도 체결</t>
-        </is>
-      </c>
-      <c r="M159" t="inlineStr"/>
+      <c r="L159" t="inlineStr"/>
+      <c r="M159" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="160">
       <c r="A160" s="1" t="n">
         <v>158</v>
       </c>
       <c r="B160" t="n">
+        <v>0.5371</v>
+      </c>
+      <c r="C160" t="n">
         <v>0.5471</v>
       </c>
-      <c r="C160" t="n">
-        <v>0.5596</v>
-      </c>
       <c r="D160" t="n">
-        <v>0.5676</v>
+        <v>0.5481</v>
       </c>
       <c r="E160" t="n">
-        <v>0.5471</v>
+        <v>0.5371</v>
       </c>
       <c r="F160" t="n">
-        <v>12026812.6302028</v>
+        <v>18324373.16971053</v>
       </c>
       <c r="G160" t="n">
-        <v>0.4707416666666667</v>
+        <v>0.4688583333333334</v>
       </c>
       <c r="H160" t="n">
         <v>0</v>
       </c>
       <c r="I160" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J160" t="inlineStr"/>
       <c r="K160" t="inlineStr"/>
@@ -6404,28 +5998,28 @@
         <v>159</v>
       </c>
       <c r="B161" t="n">
-        <v>0.5674</v>
+        <v>0.5471</v>
       </c>
       <c r="C161" t="n">
-        <v>0.5558999999999999</v>
+        <v>0.5596</v>
       </c>
       <c r="D161" t="n">
-        <v>0.5674</v>
+        <v>0.5676</v>
       </c>
       <c r="E161" t="n">
-        <v>0.5371</v>
+        <v>0.5471</v>
       </c>
       <c r="F161" t="n">
-        <v>5709674.0159</v>
+        <v>12026812.6302028</v>
       </c>
       <c r="G161" t="n">
-        <v>0.4725633333333334</v>
+        <v>0.4707416666666667</v>
       </c>
       <c r="H161" t="n">
         <v>0</v>
       </c>
       <c r="I161" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J161" t="inlineStr"/>
       <c r="K161" t="inlineStr"/>
@@ -6439,28 +6033,28 @@
         <v>160</v>
       </c>
       <c r="B162" t="n">
+        <v>0.5674</v>
+      </c>
+      <c r="C162" t="n">
         <v>0.5558999999999999</v>
       </c>
-      <c r="C162" t="n">
-        <v>0.5558</v>
-      </c>
       <c r="D162" t="n">
-        <v>0.5558999999999999</v>
+        <v>0.5674</v>
       </c>
       <c r="E162" t="n">
-        <v>0.5373</v>
+        <v>0.5371</v>
       </c>
       <c r="F162" t="n">
-        <v>18974751.9911</v>
+        <v>5709674.0159</v>
       </c>
       <c r="G162" t="n">
-        <v>0.4743850000000001</v>
+        <v>0.4725633333333334</v>
       </c>
       <c r="H162" t="n">
         <v>0</v>
       </c>
       <c r="I162" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J162" t="inlineStr"/>
       <c r="K162" t="inlineStr"/>
@@ -6474,28 +6068,28 @@
         <v>161</v>
       </c>
       <c r="B163" t="n">
-        <v>0.5557</v>
+        <v>0.5558999999999999</v>
       </c>
       <c r="C163" t="n">
-        <v>0.5271</v>
+        <v>0.5558</v>
       </c>
       <c r="D163" t="n">
-        <v>0.5557</v>
+        <v>0.5558999999999999</v>
       </c>
       <c r="E163" t="n">
-        <v>0.5271</v>
+        <v>0.5373</v>
       </c>
       <c r="F163" t="n">
-        <v>6519210.8591</v>
+        <v>18974751.9911</v>
       </c>
       <c r="G163" t="n">
-        <v>0.4757283333333334</v>
+        <v>0.4743850000000001</v>
       </c>
       <c r="H163" t="n">
         <v>0</v>
       </c>
       <c r="I163" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J163" t="inlineStr"/>
       <c r="K163" t="inlineStr"/>
@@ -6509,22 +6103,22 @@
         <v>162</v>
       </c>
       <c r="B164" t="n">
-        <v>0.5459000000000001</v>
+        <v>0.5557</v>
       </c>
       <c r="C164" t="n">
-        <v>0.5356</v>
+        <v>0.5271</v>
       </c>
       <c r="D164" t="n">
-        <v>0.5459000000000001</v>
+        <v>0.5557</v>
       </c>
       <c r="E164" t="n">
-        <v>0.5103</v>
+        <v>0.5271</v>
       </c>
       <c r="F164" t="n">
-        <v>589856.2205000001</v>
+        <v>6519210.8591</v>
       </c>
       <c r="G164" t="n">
-        <v>0.477065</v>
+        <v>0.4757283333333334</v>
       </c>
       <c r="H164" t="n">
         <v>0</v>
@@ -6544,22 +6138,22 @@
         <v>163</v>
       </c>
       <c r="B165" t="n">
-        <v>0.5253</v>
+        <v>0.5459000000000001</v>
       </c>
       <c r="C165" t="n">
-        <v>0.5353</v>
+        <v>0.5356</v>
       </c>
       <c r="D165" t="n">
-        <v>0.5353</v>
+        <v>0.5459000000000001</v>
       </c>
       <c r="E165" t="n">
-        <v>0.5253</v>
+        <v>0.5103</v>
       </c>
       <c r="F165" t="n">
-        <v>1255216.783</v>
+        <v>589856.2205000001</v>
       </c>
       <c r="G165" t="n">
-        <v>0.4785633333333334</v>
+        <v>0.477065</v>
       </c>
       <c r="H165" t="n">
         <v>0</v>
@@ -6579,22 +6173,22 @@
         <v>164</v>
       </c>
       <c r="B166" t="n">
+        <v>0.5253</v>
+      </c>
+      <c r="C166" t="n">
         <v>0.5353</v>
-      </c>
-      <c r="C166" t="n">
-        <v>0.5103</v>
       </c>
       <c r="D166" t="n">
         <v>0.5353</v>
       </c>
       <c r="E166" t="n">
-        <v>0.5002</v>
+        <v>0.5253</v>
       </c>
       <c r="F166" t="n">
-        <v>15849605.6368</v>
+        <v>1255216.783</v>
       </c>
       <c r="G166" t="n">
-        <v>0.4797483333333334</v>
+        <v>0.4785633333333334</v>
       </c>
       <c r="H166" t="n">
         <v>0</v>
@@ -6614,22 +6208,22 @@
         <v>165</v>
       </c>
       <c r="B167" t="n">
+        <v>0.5353</v>
+      </c>
+      <c r="C167" t="n">
         <v>0.5103</v>
       </c>
-      <c r="C167" t="n">
+      <c r="D167" t="n">
+        <v>0.5353</v>
+      </c>
+      <c r="E167" t="n">
         <v>0.5002</v>
       </c>
-      <c r="D167" t="n">
-        <v>0.5104</v>
-      </c>
-      <c r="E167" t="n">
-        <v>0.4907</v>
-      </c>
       <c r="F167" t="n">
-        <v>5149055.173</v>
+        <v>15849605.6368</v>
       </c>
       <c r="G167" t="n">
-        <v>0.4804933333333334</v>
+        <v>0.4797483333333334</v>
       </c>
       <c r="H167" t="n">
         <v>0</v>
@@ -6649,22 +6243,22 @@
         <v>166</v>
       </c>
       <c r="B168" t="n">
-        <v>0.5098</v>
+        <v>0.5103</v>
       </c>
       <c r="C168" t="n">
-        <v>0.5098</v>
+        <v>0.5002</v>
       </c>
       <c r="D168" t="n">
-        <v>0.5098</v>
+        <v>0.5104</v>
       </c>
       <c r="E168" t="n">
-        <v>0.5098</v>
+        <v>0.4907</v>
       </c>
       <c r="F168" t="n">
-        <v>1000</v>
+        <v>5149055.173</v>
       </c>
       <c r="G168" t="n">
-        <v>0.4813966666666667</v>
+        <v>0.4804933333333334</v>
       </c>
       <c r="H168" t="n">
         <v>0</v>
@@ -6684,22 +6278,22 @@
         <v>167</v>
       </c>
       <c r="B169" t="n">
-        <v>0.5018</v>
+        <v>0.5098</v>
       </c>
       <c r="C169" t="n">
-        <v>0.5002</v>
+        <v>0.5098</v>
       </c>
       <c r="D169" t="n">
-        <v>0.5018</v>
+        <v>0.5098</v>
       </c>
       <c r="E169" t="n">
-        <v>0.5002</v>
+        <v>0.5098</v>
       </c>
       <c r="F169" t="n">
-        <v>4006154.7506</v>
+        <v>1000</v>
       </c>
       <c r="G169" t="n">
-        <v>0.48214</v>
+        <v>0.4813966666666667</v>
       </c>
       <c r="H169" t="n">
         <v>0</v>
@@ -6719,22 +6313,22 @@
         <v>168</v>
       </c>
       <c r="B170" t="n">
-        <v>0.4987</v>
+        <v>0.5018</v>
       </c>
       <c r="C170" t="n">
-        <v>0.5001</v>
+        <v>0.5002</v>
       </c>
       <c r="D170" t="n">
-        <v>0.5089</v>
+        <v>0.5018</v>
       </c>
       <c r="E170" t="n">
-        <v>0.4987</v>
+        <v>0.5002</v>
       </c>
       <c r="F170" t="n">
-        <v>6678572.9607</v>
+        <v>4006154.7506</v>
       </c>
       <c r="G170" t="n">
-        <v>0.4828816666666667</v>
+        <v>0.48214</v>
       </c>
       <c r="H170" t="n">
         <v>0</v>
@@ -6754,22 +6348,22 @@
         <v>169</v>
       </c>
       <c r="B171" t="n">
-        <v>0.5003</v>
+        <v>0.4987</v>
       </c>
       <c r="C171" t="n">
-        <v>0.506</v>
+        <v>0.5001</v>
       </c>
       <c r="D171" t="n">
-        <v>0.507</v>
+        <v>0.5089</v>
       </c>
       <c r="E171" t="n">
-        <v>0.5003</v>
+        <v>0.4987</v>
       </c>
       <c r="F171" t="n">
-        <v>2257596.8141</v>
+        <v>6678572.9607</v>
       </c>
       <c r="G171" t="n">
-        <v>0.4835566666666667</v>
+        <v>0.4828816666666667</v>
       </c>
       <c r="H171" t="n">
         <v>0</v>
@@ -6789,22 +6383,22 @@
         <v>170</v>
       </c>
       <c r="B172" t="n">
+        <v>0.5003</v>
+      </c>
+      <c r="C172" t="n">
         <v>0.506</v>
       </c>
-      <c r="C172" t="n">
-        <v>0.4917</v>
-      </c>
       <c r="D172" t="n">
-        <v>0.5079</v>
+        <v>0.507</v>
       </c>
       <c r="E172" t="n">
-        <v>0.4917</v>
+        <v>0.5003</v>
       </c>
       <c r="F172" t="n">
-        <v>8076419.9635</v>
+        <v>2257596.8141</v>
       </c>
       <c r="G172" t="n">
-        <v>0.4841583333333334</v>
+        <v>0.4835566666666667</v>
       </c>
       <c r="H172" t="n">
         <v>0</v>
@@ -6824,22 +6418,22 @@
         <v>171</v>
       </c>
       <c r="B173" t="n">
-        <v>0.499</v>
+        <v>0.506</v>
       </c>
       <c r="C173" t="n">
-        <v>0.5102</v>
+        <v>0.4917</v>
       </c>
       <c r="D173" t="n">
-        <v>0.5102</v>
+        <v>0.5079</v>
       </c>
       <c r="E173" t="n">
-        <v>0.499</v>
+        <v>0.4917</v>
       </c>
       <c r="F173" t="n">
-        <v>456000</v>
+        <v>8076419.9635</v>
       </c>
       <c r="G173" t="n">
-        <v>0.4851716666666667</v>
+        <v>0.4841583333333334</v>
       </c>
       <c r="H173" t="n">
         <v>0</v>
@@ -6859,22 +6453,22 @@
         <v>172</v>
       </c>
       <c r="B174" t="n">
-        <v>0.51</v>
+        <v>0.499</v>
       </c>
       <c r="C174" t="n">
-        <v>0.497</v>
+        <v>0.5102</v>
       </c>
       <c r="D174" t="n">
-        <v>0.51</v>
+        <v>0.5102</v>
       </c>
       <c r="E174" t="n">
-        <v>0.4951</v>
+        <v>0.499</v>
       </c>
       <c r="F174" t="n">
-        <v>84415</v>
+        <v>456000</v>
       </c>
       <c r="G174" t="n">
-        <v>0.4857483333333334</v>
+        <v>0.4851716666666667</v>
       </c>
       <c r="H174" t="n">
         <v>0</v>
@@ -6894,22 +6488,22 @@
         <v>173</v>
       </c>
       <c r="B175" t="n">
-        <v>0.505</v>
+        <v>0.51</v>
       </c>
       <c r="C175" t="n">
         <v>0.497</v>
       </c>
       <c r="D175" t="n">
-        <v>0.505</v>
+        <v>0.51</v>
       </c>
       <c r="E175" t="n">
-        <v>0.497</v>
+        <v>0.4951</v>
       </c>
       <c r="F175" t="n">
-        <v>4816618.5315</v>
+        <v>84415</v>
       </c>
       <c r="G175" t="n">
-        <v>0.4863250000000001</v>
+        <v>0.4857483333333334</v>
       </c>
       <c r="H175" t="n">
         <v>0</v>
@@ -6929,22 +6523,22 @@
         <v>174</v>
       </c>
       <c r="B176" t="n">
+        <v>0.505</v>
+      </c>
+      <c r="C176" t="n">
         <v>0.497</v>
       </c>
-      <c r="C176" t="n">
-        <v>0.4978</v>
-      </c>
       <c r="D176" t="n">
-        <v>0.4978</v>
+        <v>0.505</v>
       </c>
       <c r="E176" t="n">
         <v>0.497</v>
       </c>
       <c r="F176" t="n">
-        <v>1802418.6602</v>
+        <v>4816618.5315</v>
       </c>
       <c r="G176" t="n">
-        <v>0.4868600000000001</v>
+        <v>0.4863250000000001</v>
       </c>
       <c r="H176" t="n">
         <v>0</v>
@@ -6964,22 +6558,22 @@
         <v>175</v>
       </c>
       <c r="B177" t="n">
-        <v>0.503</v>
+        <v>0.497</v>
       </c>
       <c r="C177" t="n">
-        <v>0.503</v>
+        <v>0.4978</v>
       </c>
       <c r="D177" t="n">
-        <v>0.503</v>
+        <v>0.4978</v>
       </c>
       <c r="E177" t="n">
-        <v>0.503</v>
+        <v>0.497</v>
       </c>
       <c r="F177" t="n">
-        <v>1000</v>
+        <v>1802418.6602</v>
       </c>
       <c r="G177" t="n">
-        <v>0.4875733333333334</v>
+        <v>0.4868600000000001</v>
       </c>
       <c r="H177" t="n">
         <v>0</v>
@@ -6999,22 +6593,22 @@
         <v>176</v>
       </c>
       <c r="B178" t="n">
-        <v>0.4989</v>
+        <v>0.503</v>
       </c>
       <c r="C178" t="n">
-        <v>0.499</v>
+        <v>0.503</v>
       </c>
       <c r="D178" t="n">
-        <v>0.499</v>
+        <v>0.503</v>
       </c>
       <c r="E178" t="n">
-        <v>0.4989</v>
+        <v>0.503</v>
       </c>
       <c r="F178" t="n">
-        <v>1218332.2636</v>
+        <v>1000</v>
       </c>
       <c r="G178" t="n">
-        <v>0.48822</v>
+        <v>0.4875733333333334</v>
       </c>
       <c r="H178" t="n">
         <v>0</v>
@@ -7034,22 +6628,22 @@
         <v>177</v>
       </c>
       <c r="B179" t="n">
-        <v>0.503</v>
+        <v>0.4989</v>
       </c>
       <c r="C179" t="n">
-        <v>0.5103</v>
+        <v>0.499</v>
       </c>
       <c r="D179" t="n">
-        <v>0.5103</v>
+        <v>0.499</v>
       </c>
       <c r="E179" t="n">
-        <v>0.503</v>
+        <v>0.4989</v>
       </c>
       <c r="F179" t="n">
-        <v>2863102.1624</v>
+        <v>1218332.2636</v>
       </c>
       <c r="G179" t="n">
-        <v>0.4889683333333334</v>
+        <v>0.48822</v>
       </c>
       <c r="H179" t="n">
         <v>0</v>
@@ -7069,22 +6663,22 @@
         <v>178</v>
       </c>
       <c r="B180" t="n">
+        <v>0.503</v>
+      </c>
+      <c r="C180" t="n">
         <v>0.5103</v>
-      </c>
-      <c r="C180" t="n">
-        <v>0.504</v>
       </c>
       <c r="D180" t="n">
         <v>0.5103</v>
       </c>
       <c r="E180" t="n">
-        <v>0.504</v>
+        <v>0.503</v>
       </c>
       <c r="F180" t="n">
-        <v>1111616.4945</v>
+        <v>2863102.1624</v>
       </c>
       <c r="G180" t="n">
-        <v>0.4896116666666668</v>
+        <v>0.4889683333333334</v>
       </c>
       <c r="H180" t="n">
         <v>0</v>
@@ -7104,22 +6698,22 @@
         <v>179</v>
       </c>
       <c r="B181" t="n">
+        <v>0.5103</v>
+      </c>
+      <c r="C181" t="n">
         <v>0.504</v>
       </c>
-      <c r="C181" t="n">
-        <v>0.5016</v>
-      </c>
       <c r="D181" t="n">
-        <v>0.5041</v>
+        <v>0.5103</v>
       </c>
       <c r="E181" t="n">
-        <v>0.5014999999999999</v>
+        <v>0.504</v>
       </c>
       <c r="F181" t="n">
-        <v>99104.71769999999</v>
+        <v>1111616.4945</v>
       </c>
       <c r="G181" t="n">
-        <v>0.4902933333333335</v>
+        <v>0.4896116666666668</v>
       </c>
       <c r="H181" t="n">
         <v>0</v>
@@ -7139,22 +6733,22 @@
         <v>180</v>
       </c>
       <c r="B182" t="n">
+        <v>0.504</v>
+      </c>
+      <c r="C182" t="n">
+        <v>0.5016</v>
+      </c>
+      <c r="D182" t="n">
         <v>0.5041</v>
       </c>
-      <c r="C182" t="n">
-        <v>0.5103</v>
-      </c>
-      <c r="D182" t="n">
-        <v>0.5103</v>
-      </c>
       <c r="E182" t="n">
-        <v>0.5041</v>
+        <v>0.5014999999999999</v>
       </c>
       <c r="F182" t="n">
-        <v>1540115.053</v>
+        <v>99104.71769999999</v>
       </c>
       <c r="G182" t="n">
-        <v>0.4909816666666668</v>
+        <v>0.4902933333333335</v>
       </c>
       <c r="H182" t="n">
         <v>0</v>
@@ -7174,22 +6768,22 @@
         <v>181</v>
       </c>
       <c r="B183" t="n">
+        <v>0.5041</v>
+      </c>
+      <c r="C183" t="n">
         <v>0.5103</v>
       </c>
-      <c r="C183" t="n">
-        <v>0.5123</v>
-      </c>
       <c r="D183" t="n">
-        <v>0.52</v>
+        <v>0.5103</v>
       </c>
       <c r="E183" t="n">
-        <v>0.505</v>
+        <v>0.5041</v>
       </c>
       <c r="F183" t="n">
-        <v>2113633.1547</v>
+        <v>1540115.053</v>
       </c>
       <c r="G183" t="n">
-        <v>0.4918383333333335</v>
+        <v>0.4909816666666668</v>
       </c>
       <c r="H183" t="n">
         <v>0</v>
@@ -7209,22 +6803,22 @@
         <v>182</v>
       </c>
       <c r="B184" t="n">
+        <v>0.5103</v>
+      </c>
+      <c r="C184" t="n">
         <v>0.5123</v>
       </c>
-      <c r="C184" t="n">
-        <v>0.5014999999999999</v>
-      </c>
       <c r="D184" t="n">
-        <v>0.5123</v>
+        <v>0.52</v>
       </c>
       <c r="E184" t="n">
-        <v>0.5014999999999999</v>
+        <v>0.505</v>
       </c>
       <c r="F184" t="n">
-        <v>3838706.547</v>
+        <v>2113633.1547</v>
       </c>
       <c r="G184" t="n">
-        <v>0.4926783333333334</v>
+        <v>0.4918383333333335</v>
       </c>
       <c r="H184" t="n">
         <v>0</v>
@@ -7244,22 +6838,22 @@
         <v>183</v>
       </c>
       <c r="B185" t="n">
-        <v>0.502</v>
+        <v>0.5123</v>
       </c>
       <c r="C185" t="n">
-        <v>0.5017</v>
+        <v>0.5014999999999999</v>
       </c>
       <c r="D185" t="n">
-        <v>0.502</v>
+        <v>0.5123</v>
       </c>
       <c r="E185" t="n">
         <v>0.5014999999999999</v>
       </c>
       <c r="F185" t="n">
-        <v>3988530.77</v>
+        <v>3838706.547</v>
       </c>
       <c r="G185" t="n">
-        <v>0.4932450000000001</v>
+        <v>0.4926783333333334</v>
       </c>
       <c r="H185" t="n">
         <v>0</v>
@@ -7279,22 +6873,22 @@
         <v>184</v>
       </c>
       <c r="B186" t="n">
-        <v>0.5017</v>
+        <v>0.502</v>
       </c>
       <c r="C186" t="n">
         <v>0.5017</v>
       </c>
       <c r="D186" t="n">
-        <v>0.5017</v>
+        <v>0.502</v>
       </c>
       <c r="E186" t="n">
-        <v>0.5</v>
+        <v>0.5014999999999999</v>
       </c>
       <c r="F186" t="n">
-        <v>3919206.7372</v>
+        <v>3988530.77</v>
       </c>
       <c r="G186" t="n">
-        <v>0.4938133333333334</v>
+        <v>0.4932450000000001</v>
       </c>
       <c r="H186" t="n">
         <v>0</v>
@@ -7314,22 +6908,22 @@
         <v>185</v>
       </c>
       <c r="B187" t="n">
-        <v>0.5001</v>
+        <v>0.5017</v>
       </c>
       <c r="C187" t="n">
-        <v>0.4989</v>
+        <v>0.5017</v>
       </c>
       <c r="D187" t="n">
-        <v>0.5001</v>
+        <v>0.5017</v>
       </c>
       <c r="E187" t="n">
-        <v>0.4989</v>
+        <v>0.5</v>
       </c>
       <c r="F187" t="n">
-        <v>952242.9405</v>
+        <v>3919206.7372</v>
       </c>
       <c r="G187" t="n">
-        <v>0.4945766666666668</v>
+        <v>0.4938133333333334</v>
       </c>
       <c r="H187" t="n">
         <v>0</v>
@@ -7349,22 +6943,22 @@
         <v>186</v>
       </c>
       <c r="B188" t="n">
-        <v>0.5017</v>
+        <v>0.5001</v>
       </c>
       <c r="C188" t="n">
-        <v>0.499</v>
+        <v>0.4989</v>
       </c>
       <c r="D188" t="n">
-        <v>0.5017</v>
+        <v>0.5001</v>
       </c>
       <c r="E188" t="n">
-        <v>0.499</v>
+        <v>0.4989</v>
       </c>
       <c r="F188" t="n">
-        <v>1150176.6093</v>
+        <v>952242.9405</v>
       </c>
       <c r="G188" t="n">
-        <v>0.4952950000000001</v>
+        <v>0.4945766666666668</v>
       </c>
       <c r="H188" t="n">
         <v>0</v>
@@ -7384,31 +6978,35 @@
         <v>187</v>
       </c>
       <c r="B189" t="n">
+        <v>0.5017</v>
+      </c>
+      <c r="C189" t="n">
         <v>0.499</v>
       </c>
-      <c r="C189" t="n">
+      <c r="D189" t="n">
+        <v>0.5017</v>
+      </c>
+      <c r="E189" t="n">
+        <v>0.499</v>
+      </c>
+      <c r="F189" t="n">
+        <v>1150176.6093</v>
+      </c>
+      <c r="G189" t="n">
+        <v>0.4952950000000001</v>
+      </c>
+      <c r="H189" t="n">
+        <v>1</v>
+      </c>
+      <c r="I189" t="n">
+        <v>0</v>
+      </c>
+      <c r="J189" t="n">
         <v>0.4989</v>
       </c>
-      <c r="D189" t="n">
-        <v>0.499</v>
-      </c>
-      <c r="E189" t="n">
+      <c r="K189" t="n">
         <v>0.4989</v>
       </c>
-      <c r="F189" t="n">
-        <v>2028834.7144</v>
-      </c>
-      <c r="G189" t="n">
-        <v>0.4962266666666667</v>
-      </c>
-      <c r="H189" t="n">
-        <v>0</v>
-      </c>
-      <c r="I189" t="n">
-        <v>0</v>
-      </c>
-      <c r="J189" t="inlineStr"/>
-      <c r="K189" t="inlineStr"/>
       <c r="L189" t="inlineStr"/>
       <c r="M189" t="n">
         <v>1</v>
@@ -7419,32 +7017,40 @@
         <v>188</v>
       </c>
       <c r="B190" t="n">
+        <v>0.499</v>
+      </c>
+      <c r="C190" t="n">
         <v>0.4989</v>
       </c>
-      <c r="C190" t="n">
-        <v>0.492</v>
-      </c>
       <c r="D190" t="n">
+        <v>0.499</v>
+      </c>
+      <c r="E190" t="n">
         <v>0.4989</v>
       </c>
-      <c r="E190" t="n">
-        <v>0.4907</v>
-      </c>
       <c r="F190" t="n">
-        <v>7799544.9802</v>
+        <v>2028834.7144</v>
       </c>
       <c r="G190" t="n">
-        <v>0.4968516666666667</v>
+        <v>0.4962266666666667</v>
       </c>
       <c r="H190" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I190" t="n">
         <v>0</v>
       </c>
-      <c r="J190" t="inlineStr"/>
-      <c r="K190" t="inlineStr"/>
-      <c r="L190" t="inlineStr"/>
+      <c r="J190" t="n">
+        <v>0.499</v>
+      </c>
+      <c r="K190" t="n">
+        <v>0.4989</v>
+      </c>
+      <c r="L190" t="inlineStr">
+        <is>
+          <t>매수 체결</t>
+        </is>
+      </c>
       <c r="M190" t="n">
         <v>1</v>
       </c>
@@ -7454,22 +7060,22 @@
         <v>189</v>
       </c>
       <c r="B191" t="n">
+        <v>0.4989</v>
+      </c>
+      <c r="C191" t="n">
         <v>0.492</v>
       </c>
-      <c r="C191" t="n">
-        <v>0.5009</v>
-      </c>
       <c r="D191" t="n">
-        <v>0.5123</v>
+        <v>0.4989</v>
       </c>
       <c r="E191" t="n">
         <v>0.4907</v>
       </c>
       <c r="F191" t="n">
-        <v>8564674.109999999</v>
+        <v>7799544.9802</v>
       </c>
       <c r="G191" t="n">
-        <v>0.4976250000000001</v>
+        <v>0.4968516666666667</v>
       </c>
       <c r="H191" t="n">
         <v>0</v>
@@ -7478,8 +7084,14 @@
         <v>0</v>
       </c>
       <c r="J191" t="inlineStr"/>
-      <c r="K191" t="inlineStr"/>
-      <c r="L191" t="inlineStr"/>
+      <c r="K191" t="n">
+        <v>0.4989</v>
+      </c>
+      <c r="L191" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M191" t="n">
         <v>1</v>
       </c>
@@ -7489,22 +7101,22 @@
         <v>190</v>
       </c>
       <c r="B192" t="n">
-        <v>0.511</v>
+        <v>0.492</v>
       </c>
       <c r="C192" t="n">
         <v>0.5009</v>
       </c>
       <c r="D192" t="n">
-        <v>0.511</v>
+        <v>0.5123</v>
       </c>
       <c r="E192" t="n">
-        <v>0.5009</v>
+        <v>0.4907</v>
       </c>
       <c r="F192" t="n">
-        <v>662700</v>
+        <v>8564674.109999999</v>
       </c>
       <c r="G192" t="n">
-        <v>0.4982316666666667</v>
+        <v>0.4976250000000001</v>
       </c>
       <c r="H192" t="n">
         <v>0</v>
@@ -7513,8 +7125,14 @@
         <v>0</v>
       </c>
       <c r="J192" t="inlineStr"/>
-      <c r="K192" t="inlineStr"/>
-      <c r="L192" t="inlineStr"/>
+      <c r="K192" t="n">
+        <v>0.4989</v>
+      </c>
+      <c r="L192" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M192" t="n">
         <v>1</v>
       </c>
@@ -7524,32 +7142,40 @@
         <v>191</v>
       </c>
       <c r="B193" t="n">
-        <v>0.5123</v>
+        <v>0.511</v>
       </c>
       <c r="C193" t="n">
         <v>0.5009</v>
       </c>
       <c r="D193" t="n">
-        <v>0.5123</v>
+        <v>0.511</v>
       </c>
       <c r="E193" t="n">
         <v>0.5009</v>
       </c>
       <c r="F193" t="n">
-        <v>69507.3</v>
+        <v>662700</v>
       </c>
       <c r="G193" t="n">
-        <v>0.4988416666666667</v>
+        <v>0.4982316666666667</v>
       </c>
       <c r="H193" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I193" t="n">
         <v>0</v>
       </c>
-      <c r="J193" t="inlineStr"/>
-      <c r="K193" t="inlineStr"/>
-      <c r="L193" t="inlineStr"/>
+      <c r="J193" t="n">
+        <v>0.5009</v>
+      </c>
+      <c r="K193" t="n">
+        <v>0.4989</v>
+      </c>
+      <c r="L193" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M193" t="n">
         <v>1</v>
       </c>
@@ -7559,22 +7185,22 @@
         <v>192</v>
       </c>
       <c r="B194" t="n">
+        <v>0.5123</v>
+      </c>
+      <c r="C194" t="n">
         <v>0.5009</v>
       </c>
-      <c r="C194" t="n">
-        <v>0.495</v>
-      </c>
       <c r="D194" t="n">
+        <v>0.5123</v>
+      </c>
+      <c r="E194" t="n">
         <v>0.5009</v>
       </c>
-      <c r="E194" t="n">
-        <v>0.495</v>
-      </c>
       <c r="F194" t="n">
-        <v>1286114.4368</v>
+        <v>69507.3</v>
       </c>
       <c r="G194" t="n">
-        <v>0.4990916666666668</v>
+        <v>0.4988416666666667</v>
       </c>
       <c r="H194" t="n">
         <v>0</v>
@@ -7583,8 +7209,14 @@
         <v>0</v>
       </c>
       <c r="J194" t="inlineStr"/>
-      <c r="K194" t="inlineStr"/>
-      <c r="L194" t="inlineStr"/>
+      <c r="K194" t="n">
+        <v>0.4989</v>
+      </c>
+      <c r="L194" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M194" t="n">
         <v>1</v>
       </c>
@@ -7594,22 +7226,22 @@
         <v>193</v>
       </c>
       <c r="B195" t="n">
-        <v>0.5016</v>
+        <v>0.5009</v>
       </c>
       <c r="C195" t="n">
-        <v>0.5019</v>
+        <v>0.495</v>
       </c>
       <c r="D195" t="n">
-        <v>0.5019</v>
+        <v>0.5009</v>
       </c>
       <c r="E195" t="n">
         <v>0.495</v>
       </c>
       <c r="F195" t="n">
-        <v>3085630.348</v>
+        <v>1286114.4368</v>
       </c>
       <c r="G195" t="n">
-        <v>0.4997900000000001</v>
+        <v>0.4990916666666668</v>
       </c>
       <c r="H195" t="n">
         <v>0</v>
@@ -7618,8 +7250,14 @@
         <v>0</v>
       </c>
       <c r="J195" t="inlineStr"/>
-      <c r="K195" t="inlineStr"/>
-      <c r="L195" t="inlineStr"/>
+      <c r="K195" t="n">
+        <v>0.4989</v>
+      </c>
+      <c r="L195" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M195" t="n">
         <v>1</v>
       </c>
@@ -7629,22 +7267,22 @@
         <v>194</v>
       </c>
       <c r="B196" t="n">
+        <v>0.5016</v>
+      </c>
+      <c r="C196" t="n">
         <v>0.5019</v>
       </c>
-      <c r="C196" t="n">
-        <v>0.5016</v>
-      </c>
       <c r="D196" t="n">
-        <v>0.502</v>
+        <v>0.5019</v>
       </c>
       <c r="E196" t="n">
-        <v>0.5016</v>
+        <v>0.495</v>
       </c>
       <c r="F196" t="n">
-        <v>2308625.2932</v>
+        <v>3085630.348</v>
       </c>
       <c r="G196" t="n">
-        <v>0.5003166666666667</v>
+        <v>0.4997900000000001</v>
       </c>
       <c r="H196" t="n">
         <v>0</v>
@@ -7653,8 +7291,14 @@
         <v>0</v>
       </c>
       <c r="J196" t="inlineStr"/>
-      <c r="K196" t="inlineStr"/>
-      <c r="L196" t="inlineStr"/>
+      <c r="K196" t="n">
+        <v>0.4989</v>
+      </c>
+      <c r="L196" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M196" t="n">
         <v>1</v>
       </c>
@@ -7664,22 +7308,22 @@
         <v>195</v>
       </c>
       <c r="B197" t="n">
+        <v>0.5019</v>
+      </c>
+      <c r="C197" t="n">
         <v>0.5016</v>
       </c>
-      <c r="C197" t="n">
-        <v>0.5116000000000001</v>
-      </c>
       <c r="D197" t="n">
-        <v>0.5116000000000001</v>
+        <v>0.502</v>
       </c>
       <c r="E197" t="n">
         <v>0.5016</v>
       </c>
       <c r="F197" t="n">
-        <v>2269544.9704</v>
+        <v>2308625.2932</v>
       </c>
       <c r="G197" t="n">
-        <v>0.5011266666666667</v>
+        <v>0.5003166666666667</v>
       </c>
       <c r="H197" t="n">
         <v>0</v>
@@ -7688,8 +7332,14 @@
         <v>0</v>
       </c>
       <c r="J197" t="inlineStr"/>
-      <c r="K197" t="inlineStr"/>
-      <c r="L197" t="inlineStr"/>
+      <c r="K197" t="n">
+        <v>0.4989</v>
+      </c>
+      <c r="L197" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M197" t="n">
         <v>1</v>
       </c>
@@ -7699,22 +7349,22 @@
         <v>196</v>
       </c>
       <c r="B198" t="n">
-        <v>0.5115</v>
+        <v>0.5016</v>
       </c>
       <c r="C198" t="n">
-        <v>0.524</v>
+        <v>0.5116000000000001</v>
       </c>
       <c r="D198" t="n">
-        <v>0.524</v>
+        <v>0.5116000000000001</v>
       </c>
       <c r="E198" t="n">
-        <v>0.5115</v>
+        <v>0.5016</v>
       </c>
       <c r="F198" t="n">
-        <v>4063221.168896183</v>
+        <v>2269544.9704</v>
       </c>
       <c r="G198" t="n">
-        <v>0.5020266666666668</v>
+        <v>0.5011266666666667</v>
       </c>
       <c r="H198" t="n">
         <v>0</v>
@@ -7723,8 +7373,14 @@
         <v>0</v>
       </c>
       <c r="J198" t="inlineStr"/>
-      <c r="K198" t="inlineStr"/>
-      <c r="L198" t="inlineStr"/>
+      <c r="K198" t="n">
+        <v>0.4989</v>
+      </c>
+      <c r="L198" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M198" t="n">
         <v>1</v>
       </c>
@@ -7734,22 +7390,22 @@
         <v>197</v>
       </c>
       <c r="B199" t="n">
+        <v>0.5115</v>
+      </c>
+      <c r="C199" t="n">
         <v>0.524</v>
-      </c>
-      <c r="C199" t="n">
-        <v>0.5229</v>
       </c>
       <c r="D199" t="n">
         <v>0.524</v>
       </c>
       <c r="E199" t="n">
-        <v>0.5016</v>
+        <v>0.5115</v>
       </c>
       <c r="F199" t="n">
-        <v>1001600.1848</v>
+        <v>4063221.168896183</v>
       </c>
       <c r="G199" t="n">
-        <v>0.5030233333333335</v>
+        <v>0.5020266666666668</v>
       </c>
       <c r="H199" t="n">
         <v>0</v>
@@ -7758,8 +7414,14 @@
         <v>0</v>
       </c>
       <c r="J199" t="inlineStr"/>
-      <c r="K199" t="inlineStr"/>
-      <c r="L199" t="inlineStr"/>
+      <c r="K199" t="n">
+        <v>0.4989</v>
+      </c>
+      <c r="L199" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M199" t="n">
         <v>1</v>
       </c>
@@ -7769,22 +7431,22 @@
         <v>198</v>
       </c>
       <c r="B200" t="n">
-        <v>0.5129</v>
+        <v>0.524</v>
       </c>
       <c r="C200" t="n">
-        <v>0.5122</v>
+        <v>0.5229</v>
       </c>
       <c r="D200" t="n">
-        <v>0.5229</v>
+        <v>0.524</v>
       </c>
       <c r="E200" t="n">
-        <v>0.5023</v>
+        <v>0.5016</v>
       </c>
       <c r="F200" t="n">
-        <v>647965.6473159877</v>
+        <v>1001600.1848</v>
       </c>
       <c r="G200" t="n">
-        <v>0.5033950000000001</v>
+        <v>0.5030233333333335</v>
       </c>
       <c r="H200" t="n">
         <v>0</v>
@@ -7793,8 +7455,14 @@
         <v>0</v>
       </c>
       <c r="J200" t="inlineStr"/>
-      <c r="K200" t="inlineStr"/>
-      <c r="L200" t="inlineStr"/>
+      <c r="K200" t="n">
+        <v>0.4989</v>
+      </c>
+      <c r="L200" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M200" t="n">
         <v>1</v>
       </c>
@@ -7804,22 +7472,22 @@
         <v>199</v>
       </c>
       <c r="B201" t="n">
-        <v>0.5127</v>
+        <v>0.5129</v>
       </c>
       <c r="C201" t="n">
-        <v>0.5228</v>
+        <v>0.5122</v>
       </c>
       <c r="D201" t="n">
         <v>0.5229</v>
       </c>
       <c r="E201" t="n">
-        <v>0.5127</v>
+        <v>0.5023</v>
       </c>
       <c r="F201" t="n">
-        <v>4931642.739370893</v>
+        <v>647965.6473159877</v>
       </c>
       <c r="G201" t="n">
-        <v>0.5043733333333335</v>
+        <v>0.5033950000000001</v>
       </c>
       <c r="H201" t="n">
         <v>0</v>
@@ -7828,8 +7496,14 @@
         <v>0</v>
       </c>
       <c r="J201" t="inlineStr"/>
-      <c r="K201" t="inlineStr"/>
-      <c r="L201" t="inlineStr"/>
+      <c r="K201" t="n">
+        <v>0.4989</v>
+      </c>
+      <c r="L201" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M201" t="n">
         <v>1</v>
       </c>
@@ -7839,22 +7513,22 @@
         <v>200</v>
       </c>
       <c r="B202" t="n">
-        <v>0.515</v>
+        <v>0.5127</v>
       </c>
       <c r="C202" t="n">
-        <v>0.504</v>
+        <v>0.5228</v>
       </c>
       <c r="D202" t="n">
-        <v>0.515</v>
+        <v>0.5229</v>
       </c>
       <c r="E202" t="n">
-        <v>0.504</v>
+        <v>0.5127</v>
       </c>
       <c r="F202" t="n">
-        <v>2041186.6508</v>
+        <v>4931642.739370893</v>
       </c>
       <c r="G202" t="n">
-        <v>0.5048400000000002</v>
+        <v>0.5043733333333335</v>
       </c>
       <c r="H202" t="n">
         <v>0</v>
@@ -7863,8 +7537,14 @@
         <v>0</v>
       </c>
       <c r="J202" t="inlineStr"/>
-      <c r="K202" t="inlineStr"/>
-      <c r="L202" t="inlineStr"/>
+      <c r="K202" t="n">
+        <v>0.4989</v>
+      </c>
+      <c r="L202" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M202" t="n">
         <v>1</v>
       </c>
@@ -7874,22 +7554,22 @@
         <v>201</v>
       </c>
       <c r="B203" t="n">
-        <v>0.5041</v>
+        <v>0.515</v>
       </c>
       <c r="C203" t="n">
-        <v>0.5044</v>
+        <v>0.504</v>
       </c>
       <c r="D203" t="n">
-        <v>0.5044</v>
+        <v>0.515</v>
       </c>
       <c r="E203" t="n">
-        <v>0.5041</v>
+        <v>0.504</v>
       </c>
       <c r="F203" t="n">
-        <v>23967.38</v>
+        <v>2041186.6508</v>
       </c>
       <c r="G203" t="n">
-        <v>0.5053133333333336</v>
+        <v>0.5048400000000002</v>
       </c>
       <c r="H203" t="n">
         <v>0</v>
@@ -7898,8 +7578,14 @@
         <v>0</v>
       </c>
       <c r="J203" t="inlineStr"/>
-      <c r="K203" t="inlineStr"/>
-      <c r="L203" t="inlineStr"/>
+      <c r="K203" t="n">
+        <v>0.4989</v>
+      </c>
+      <c r="L203" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M203" t="n">
         <v>1</v>
       </c>
@@ -7909,22 +7595,22 @@
         <v>202</v>
       </c>
       <c r="B204" t="n">
-        <v>0.51</v>
+        <v>0.5041</v>
       </c>
       <c r="C204" t="n">
-        <v>0.5119</v>
+        <v>0.5044</v>
       </c>
       <c r="D204" t="n">
-        <v>0.5119</v>
+        <v>0.5044</v>
       </c>
       <c r="E204" t="n">
-        <v>0.51</v>
+        <v>0.5041</v>
       </c>
       <c r="F204" t="n">
-        <v>1352566.5053</v>
+        <v>23967.38</v>
       </c>
       <c r="G204" t="n">
-        <v>0.5060800000000002</v>
+        <v>0.5053133333333336</v>
       </c>
       <c r="H204" t="n">
         <v>0</v>
@@ -7933,8 +7619,14 @@
         <v>0</v>
       </c>
       <c r="J204" t="inlineStr"/>
-      <c r="K204" t="inlineStr"/>
-      <c r="L204" t="inlineStr"/>
+      <c r="K204" t="n">
+        <v>0.4989</v>
+      </c>
+      <c r="L204" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M204" t="n">
         <v>1</v>
       </c>
@@ -7944,22 +7636,22 @@
         <v>203</v>
       </c>
       <c r="B205" t="n">
+        <v>0.51</v>
+      </c>
+      <c r="C205" t="n">
         <v>0.5119</v>
       </c>
-      <c r="C205" t="n">
-        <v>0.5151</v>
-      </c>
       <c r="D205" t="n">
-        <v>0.5157</v>
+        <v>0.5119</v>
       </c>
       <c r="E205" t="n">
-        <v>0.5119</v>
+        <v>0.51</v>
       </c>
       <c r="F205" t="n">
-        <v>1433606.1524</v>
+        <v>1352566.5053</v>
       </c>
       <c r="G205" t="n">
-        <v>0.5069216666666668</v>
+        <v>0.5060800000000002</v>
       </c>
       <c r="H205" t="n">
         <v>0</v>
@@ -7968,8 +7660,14 @@
         <v>0</v>
       </c>
       <c r="J205" t="inlineStr"/>
-      <c r="K205" t="inlineStr"/>
-      <c r="L205" t="inlineStr"/>
+      <c r="K205" t="n">
+        <v>0.4989</v>
+      </c>
+      <c r="L205" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M205" t="n">
         <v>1</v>
       </c>
@@ -7979,22 +7677,22 @@
         <v>204</v>
       </c>
       <c r="B206" t="n">
+        <v>0.5119</v>
+      </c>
+      <c r="C206" t="n">
         <v>0.5151</v>
       </c>
-      <c r="C206" t="n">
-        <v>0.512</v>
-      </c>
       <c r="D206" t="n">
-        <v>0.5151</v>
+        <v>0.5157</v>
       </c>
       <c r="E206" t="n">
-        <v>0.5044</v>
+        <v>0.5119</v>
       </c>
       <c r="F206" t="n">
-        <v>3168099.4712</v>
+        <v>1433606.1524</v>
       </c>
       <c r="G206" t="n">
-        <v>0.5075450000000002</v>
+        <v>0.5069216666666668</v>
       </c>
       <c r="H206" t="n">
         <v>0</v>
@@ -8003,8 +7701,14 @@
         <v>0</v>
       </c>
       <c r="J206" t="inlineStr"/>
-      <c r="K206" t="inlineStr"/>
-      <c r="L206" t="inlineStr"/>
+      <c r="K206" t="n">
+        <v>0.4989</v>
+      </c>
+      <c r="L206" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M206" t="n">
         <v>1</v>
       </c>
@@ -8014,22 +7718,22 @@
         <v>205</v>
       </c>
       <c r="B207" t="n">
+        <v>0.5151</v>
+      </c>
+      <c r="C207" t="n">
         <v>0.512</v>
       </c>
-      <c r="C207" t="n">
-        <v>0.5152</v>
-      </c>
       <c r="D207" t="n">
-        <v>0.5157</v>
+        <v>0.5151</v>
       </c>
       <c r="E207" t="n">
-        <v>0.512</v>
+        <v>0.5044</v>
       </c>
       <c r="F207" t="n">
-        <v>810261.7222</v>
+        <v>3168099.4712</v>
       </c>
       <c r="G207" t="n">
-        <v>0.5081383333333336</v>
+        <v>0.5075450000000002</v>
       </c>
       <c r="H207" t="n">
         <v>0</v>
@@ -8038,8 +7742,14 @@
         <v>0</v>
       </c>
       <c r="J207" t="inlineStr"/>
-      <c r="K207" t="inlineStr"/>
-      <c r="L207" t="inlineStr"/>
+      <c r="K207" t="n">
+        <v>0.4989</v>
+      </c>
+      <c r="L207" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M207" t="n">
         <v>1</v>
       </c>
@@ -8049,22 +7759,22 @@
         <v>206</v>
       </c>
       <c r="B208" t="n">
+        <v>0.512</v>
+      </c>
+      <c r="C208" t="n">
         <v>0.5152</v>
       </c>
-      <c r="C208" t="n">
-        <v>0.525</v>
-      </c>
       <c r="D208" t="n">
-        <v>0.53</v>
+        <v>0.5157</v>
       </c>
       <c r="E208" t="n">
-        <v>0.5152</v>
+        <v>0.512</v>
       </c>
       <c r="F208" t="n">
-        <v>4319790.4565</v>
+        <v>810261.7222</v>
       </c>
       <c r="G208" t="n">
-        <v>0.5089050000000002</v>
+        <v>0.5081383333333336</v>
       </c>
       <c r="H208" t="n">
         <v>0</v>
@@ -8073,8 +7783,14 @@
         <v>0</v>
       </c>
       <c r="J208" t="inlineStr"/>
-      <c r="K208" t="inlineStr"/>
-      <c r="L208" t="inlineStr"/>
+      <c r="K208" t="n">
+        <v>0.4989</v>
+      </c>
+      <c r="L208" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M208" t="n">
         <v>1</v>
       </c>
@@ -8084,22 +7800,22 @@
         <v>207</v>
       </c>
       <c r="B209" t="n">
+        <v>0.5152</v>
+      </c>
+      <c r="C209" t="n">
         <v>0.525</v>
       </c>
-      <c r="C209" t="n">
+      <c r="D209" t="n">
         <v>0.53</v>
       </c>
-      <c r="D209" t="n">
-        <v>0.537</v>
-      </c>
       <c r="E209" t="n">
-        <v>0.525</v>
+        <v>0.5152</v>
       </c>
       <c r="F209" t="n">
-        <v>3931510.1746</v>
+        <v>4319790.4565</v>
       </c>
       <c r="G209" t="n">
-        <v>0.5097700000000002</v>
+        <v>0.5089050000000002</v>
       </c>
       <c r="H209" t="n">
         <v>0</v>
@@ -8108,8 +7824,14 @@
         <v>0</v>
       </c>
       <c r="J209" t="inlineStr"/>
-      <c r="K209" t="inlineStr"/>
-      <c r="L209" t="inlineStr"/>
+      <c r="K209" t="n">
+        <v>0.4989</v>
+      </c>
+      <c r="L209" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M209" t="n">
         <v>1</v>
       </c>
@@ -8119,22 +7841,22 @@
         <v>208</v>
       </c>
       <c r="B210" t="n">
-        <v>0.5301</v>
+        <v>0.525</v>
       </c>
       <c r="C210" t="n">
-        <v>0.5407999999999999</v>
+        <v>0.53</v>
       </c>
       <c r="D210" t="n">
-        <v>0.542</v>
+        <v>0.537</v>
       </c>
       <c r="E210" t="n">
-        <v>0.5301</v>
+        <v>0.525</v>
       </c>
       <c r="F210" t="n">
-        <v>3237634.1365</v>
+        <v>3931510.1746</v>
       </c>
       <c r="G210" t="n">
-        <v>0.5108166666666668</v>
+        <v>0.5097700000000002</v>
       </c>
       <c r="H210" t="n">
         <v>0</v>
@@ -8143,8 +7865,14 @@
         <v>0</v>
       </c>
       <c r="J210" t="inlineStr"/>
-      <c r="K210" t="inlineStr"/>
-      <c r="L210" t="inlineStr"/>
+      <c r="K210" t="n">
+        <v>0.4989</v>
+      </c>
+      <c r="L210" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M210" t="n">
         <v>1</v>
       </c>
@@ -8154,22 +7882,22 @@
         <v>209</v>
       </c>
       <c r="B211" t="n">
+        <v>0.5301</v>
+      </c>
+      <c r="C211" t="n">
         <v>0.5407999999999999</v>
-      </c>
-      <c r="C211" t="n">
-        <v>0.5311</v>
       </c>
       <c r="D211" t="n">
         <v>0.542</v>
       </c>
       <c r="E211" t="n">
-        <v>0.531</v>
+        <v>0.5301</v>
       </c>
       <c r="F211" t="n">
-        <v>5813403.3784</v>
+        <v>3237634.1365</v>
       </c>
       <c r="G211" t="n">
-        <v>0.5115550000000002</v>
+        <v>0.5108166666666668</v>
       </c>
       <c r="H211" t="n">
         <v>0</v>
@@ -8178,8 +7906,14 @@
         <v>0</v>
       </c>
       <c r="J211" t="inlineStr"/>
-      <c r="K211" t="inlineStr"/>
-      <c r="L211" t="inlineStr"/>
+      <c r="K211" t="n">
+        <v>0.4989</v>
+      </c>
+      <c r="L211" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M211" t="n">
         <v>1</v>
       </c>
@@ -8189,22 +7923,22 @@
         <v>210</v>
       </c>
       <c r="B212" t="n">
-        <v>0.54</v>
+        <v>0.5407999999999999</v>
       </c>
       <c r="C212" t="n">
-        <v>0.5397999999999999</v>
+        <v>0.5311</v>
       </c>
       <c r="D212" t="n">
-        <v>0.54</v>
+        <v>0.542</v>
       </c>
       <c r="E212" t="n">
-        <v>0.5384</v>
+        <v>0.531</v>
       </c>
       <c r="F212" t="n">
-        <v>3026920.8293</v>
+        <v>5813403.3784</v>
       </c>
       <c r="G212" t="n">
-        <v>0.5125550000000002</v>
+        <v>0.5115550000000002</v>
       </c>
       <c r="H212" t="n">
         <v>0</v>
@@ -8213,8 +7947,14 @@
         <v>0</v>
       </c>
       <c r="J212" t="inlineStr"/>
-      <c r="K212" t="inlineStr"/>
-      <c r="L212" t="inlineStr"/>
+      <c r="K212" t="n">
+        <v>0.4989</v>
+      </c>
+      <c r="L212" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M212" t="n">
         <v>1</v>
       </c>
@@ -8224,22 +7964,22 @@
         <v>211</v>
       </c>
       <c r="B213" t="n">
+        <v>0.54</v>
+      </c>
+      <c r="C213" t="n">
         <v>0.5397999999999999</v>
       </c>
-      <c r="C213" t="n">
-        <v>0.541</v>
-      </c>
       <c r="D213" t="n">
-        <v>0.5429</v>
+        <v>0.54</v>
       </c>
       <c r="E213" t="n">
-        <v>0.5322</v>
+        <v>0.5384</v>
       </c>
       <c r="F213" t="n">
-        <v>1482222.2929</v>
+        <v>3026920.8293</v>
       </c>
       <c r="G213" t="n">
-        <v>0.5135550000000001</v>
+        <v>0.5125550000000002</v>
       </c>
       <c r="H213" t="n">
         <v>0</v>
@@ -8248,8 +7988,14 @@
         <v>0</v>
       </c>
       <c r="J213" t="inlineStr"/>
-      <c r="K213" t="inlineStr"/>
-      <c r="L213" t="inlineStr"/>
+      <c r="K213" t="n">
+        <v>0.4989</v>
+      </c>
+      <c r="L213" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M213" t="n">
         <v>1</v>
       </c>
@@ -8259,22 +8005,22 @@
         <v>212</v>
       </c>
       <c r="B214" t="n">
+        <v>0.5397999999999999</v>
+      </c>
+      <c r="C214" t="n">
         <v>0.541</v>
-      </c>
-      <c r="C214" t="n">
-        <v>0.5429</v>
       </c>
       <c r="D214" t="n">
         <v>0.5429</v>
       </c>
       <c r="E214" t="n">
-        <v>0.5321</v>
+        <v>0.5322</v>
       </c>
       <c r="F214" t="n">
-        <v>6485215.2852</v>
+        <v>1482222.2929</v>
       </c>
       <c r="G214" t="n">
-        <v>0.5142700000000001</v>
+        <v>0.5135550000000001</v>
       </c>
       <c r="H214" t="n">
         <v>0</v>
@@ -8283,8 +8029,14 @@
         <v>0</v>
       </c>
       <c r="J214" t="inlineStr"/>
-      <c r="K214" t="inlineStr"/>
-      <c r="L214" t="inlineStr"/>
+      <c r="K214" t="n">
+        <v>0.4989</v>
+      </c>
+      <c r="L214" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M214" t="n">
         <v>1</v>
       </c>
@@ -8294,22 +8046,22 @@
         <v>213</v>
       </c>
       <c r="B215" t="n">
+        <v>0.541</v>
+      </c>
+      <c r="C215" t="n">
+        <v>0.5429</v>
+      </c>
+      <c r="D215" t="n">
+        <v>0.5429</v>
+      </c>
+      <c r="E215" t="n">
         <v>0.5321</v>
       </c>
-      <c r="C215" t="n">
-        <v>0.5158</v>
-      </c>
-      <c r="D215" t="n">
-        <v>0.5321</v>
-      </c>
-      <c r="E215" t="n">
-        <v>0.5153</v>
-      </c>
       <c r="F215" t="n">
-        <v>7203355.4106</v>
+        <v>6485215.2852</v>
       </c>
       <c r="G215" t="n">
-        <v>0.5145316666666668</v>
+        <v>0.5142700000000001</v>
       </c>
       <c r="H215" t="n">
         <v>0</v>
@@ -8318,8 +8070,14 @@
         <v>0</v>
       </c>
       <c r="J215" t="inlineStr"/>
-      <c r="K215" t="inlineStr"/>
-      <c r="L215" t="inlineStr"/>
+      <c r="K215" t="n">
+        <v>0.4989</v>
+      </c>
+      <c r="L215" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M215" t="n">
         <v>1</v>
       </c>
@@ -8329,22 +8087,22 @@
         <v>214</v>
       </c>
       <c r="B216" t="n">
-        <v>0.53</v>
+        <v>0.5321</v>
       </c>
       <c r="C216" t="n">
-        <v>0.52</v>
+        <v>0.5158</v>
       </c>
       <c r="D216" t="n">
-        <v>0.53</v>
+        <v>0.5321</v>
       </c>
       <c r="E216" t="n">
-        <v>0.52</v>
+        <v>0.5153</v>
       </c>
       <c r="F216" t="n">
-        <v>1785335.7498</v>
+        <v>7203355.4106</v>
       </c>
       <c r="G216" t="n">
-        <v>0.5145266666666668</v>
+        <v>0.5145316666666668</v>
       </c>
       <c r="H216" t="n">
         <v>0</v>
@@ -8353,8 +8111,14 @@
         <v>0</v>
       </c>
       <c r="J216" t="inlineStr"/>
-      <c r="K216" t="inlineStr"/>
-      <c r="L216" t="inlineStr"/>
+      <c r="K216" t="n">
+        <v>0.4989</v>
+      </c>
+      <c r="L216" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M216" t="n">
         <v>1</v>
       </c>
@@ -8364,22 +8128,22 @@
         <v>215</v>
       </c>
       <c r="B217" t="n">
+        <v>0.53</v>
+      </c>
+      <c r="C217" t="n">
         <v>0.52</v>
       </c>
-      <c r="C217" t="n">
-        <v>0.5043</v>
-      </c>
       <c r="D217" t="n">
+        <v>0.53</v>
+      </c>
+      <c r="E217" t="n">
         <v>0.52</v>
       </c>
-      <c r="E217" t="n">
-        <v>0.5043</v>
-      </c>
       <c r="F217" t="n">
-        <v>17811023.7963</v>
+        <v>1785335.7498</v>
       </c>
       <c r="G217" t="n">
-        <v>0.5142666666666668</v>
+        <v>0.5145266666666668</v>
       </c>
       <c r="H217" t="n">
         <v>0</v>
@@ -8388,8 +8152,14 @@
         <v>0</v>
       </c>
       <c r="J217" t="inlineStr"/>
-      <c r="K217" t="inlineStr"/>
-      <c r="L217" t="inlineStr"/>
+      <c r="K217" t="n">
+        <v>0.4989</v>
+      </c>
+      <c r="L217" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M217" t="n">
         <v>1</v>
       </c>
@@ -8399,22 +8169,22 @@
         <v>216</v>
       </c>
       <c r="B218" t="n">
-        <v>0.515</v>
+        <v>0.52</v>
       </c>
       <c r="C218" t="n">
-        <v>0.515</v>
+        <v>0.5043</v>
       </c>
       <c r="D218" t="n">
-        <v>0.515</v>
+        <v>0.52</v>
       </c>
       <c r="E218" t="n">
-        <v>0.5041</v>
+        <v>0.5043</v>
       </c>
       <c r="F218" t="n">
-        <v>3202313.1491</v>
+        <v>17811023.7963</v>
       </c>
       <c r="G218" t="n">
-        <v>0.5138983333333335</v>
+        <v>0.5142666666666668</v>
       </c>
       <c r="H218" t="n">
         <v>0</v>
@@ -8423,8 +8193,14 @@
         <v>0</v>
       </c>
       <c r="J218" t="inlineStr"/>
-      <c r="K218" t="inlineStr"/>
-      <c r="L218" t="inlineStr"/>
+      <c r="K218" t="n">
+        <v>0.4989</v>
+      </c>
+      <c r="L218" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M218" t="n">
         <v>1</v>
       </c>
@@ -8437,19 +8213,19 @@
         <v>0.515</v>
       </c>
       <c r="C219" t="n">
-        <v>0.5174</v>
+        <v>0.515</v>
       </c>
       <c r="D219" t="n">
-        <v>0.5325</v>
+        <v>0.515</v>
       </c>
       <c r="E219" t="n">
-        <v>0.5074</v>
+        <v>0.5041</v>
       </c>
       <c r="F219" t="n">
-        <v>343889.3476</v>
+        <v>3202313.1491</v>
       </c>
       <c r="G219" t="n">
-        <v>0.5134033333333334</v>
+        <v>0.5138983333333335</v>
       </c>
       <c r="H219" t="n">
         <v>0</v>
@@ -8458,8 +8234,14 @@
         <v>0</v>
       </c>
       <c r="J219" t="inlineStr"/>
-      <c r="K219" t="inlineStr"/>
-      <c r="L219" t="inlineStr"/>
+      <c r="K219" t="n">
+        <v>0.4989</v>
+      </c>
+      <c r="L219" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M219" t="n">
         <v>1</v>
       </c>
@@ -8469,22 +8251,22 @@
         <v>218</v>
       </c>
       <c r="B220" t="n">
+        <v>0.515</v>
+      </c>
+      <c r="C220" t="n">
         <v>0.5174</v>
       </c>
-      <c r="C220" t="n">
-        <v>0.52</v>
-      </c>
       <c r="D220" t="n">
-        <v>0.5329</v>
+        <v>0.5325</v>
       </c>
       <c r="E220" t="n">
-        <v>0.5075</v>
+        <v>0.5074</v>
       </c>
       <c r="F220" t="n">
-        <v>2523685.414574077</v>
+        <v>343889.3476</v>
       </c>
       <c r="G220" t="n">
-        <v>0.5127433333333334</v>
+        <v>0.5134033333333334</v>
       </c>
       <c r="H220" t="n">
         <v>0</v>
@@ -8493,8 +8275,14 @@
         <v>0</v>
       </c>
       <c r="J220" t="inlineStr"/>
-      <c r="K220" t="inlineStr"/>
-      <c r="L220" t="inlineStr"/>
+      <c r="K220" t="n">
+        <v>0.4989</v>
+      </c>
+      <c r="L220" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M220" t="n">
         <v>1</v>
       </c>
@@ -8504,22 +8292,22 @@
         <v>219</v>
       </c>
       <c r="B221" t="n">
-        <v>0.5101</v>
+        <v>0.5174</v>
       </c>
       <c r="C221" t="n">
-        <v>0.51</v>
+        <v>0.52</v>
       </c>
       <c r="D221" t="n">
-        <v>0.5101</v>
+        <v>0.5329</v>
       </c>
       <c r="E221" t="n">
-        <v>0.5073</v>
+        <v>0.5075</v>
       </c>
       <c r="F221" t="n">
-        <v>10846486.5928</v>
+        <v>2523685.414574077</v>
       </c>
       <c r="G221" t="n">
-        <v>0.5119783333333335</v>
+        <v>0.5127433333333334</v>
       </c>
       <c r="H221" t="n">
         <v>0</v>
@@ -8528,8 +8316,14 @@
         <v>0</v>
       </c>
       <c r="J221" t="inlineStr"/>
-      <c r="K221" t="inlineStr"/>
-      <c r="L221" t="inlineStr"/>
+      <c r="K221" t="n">
+        <v>0.4989</v>
+      </c>
+      <c r="L221" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M221" t="n">
         <v>1</v>
       </c>
@@ -8539,22 +8333,22 @@
         <v>220</v>
       </c>
       <c r="B222" t="n">
-        <v>0.5041</v>
+        <v>0.5101</v>
       </c>
       <c r="C222" t="n">
         <v>0.51</v>
       </c>
       <c r="D222" t="n">
-        <v>0.51</v>
+        <v>0.5101</v>
       </c>
       <c r="E222" t="n">
-        <v>0.503</v>
+        <v>0.5073</v>
       </c>
       <c r="F222" t="n">
-        <v>5144686.8029</v>
+        <v>10846486.5928</v>
       </c>
       <c r="G222" t="n">
-        <v>0.5112150000000002</v>
+        <v>0.5119783333333335</v>
       </c>
       <c r="H222" t="n">
         <v>0</v>
@@ -8563,8 +8357,14 @@
         <v>0</v>
       </c>
       <c r="J222" t="inlineStr"/>
-      <c r="K222" t="inlineStr"/>
-      <c r="L222" t="inlineStr"/>
+      <c r="K222" t="n">
+        <v>0.4989</v>
+      </c>
+      <c r="L222" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M222" t="n">
         <v>1</v>
       </c>
@@ -8574,22 +8374,22 @@
         <v>221</v>
       </c>
       <c r="B223" t="n">
-        <v>0.51</v>
+        <v>0.5041</v>
       </c>
       <c r="C223" t="n">
         <v>0.51</v>
       </c>
       <c r="D223" t="n">
-        <v>0.5199</v>
+        <v>0.51</v>
       </c>
       <c r="E223" t="n">
-        <v>0.5099</v>
+        <v>0.503</v>
       </c>
       <c r="F223" t="n">
-        <v>3892518.564894153</v>
+        <v>5144686.8029</v>
       </c>
       <c r="G223" t="n">
-        <v>0.5109300000000002</v>
+        <v>0.5112150000000002</v>
       </c>
       <c r="H223" t="n">
         <v>0</v>
@@ -8598,8 +8398,14 @@
         <v>0</v>
       </c>
       <c r="J223" t="inlineStr"/>
-      <c r="K223" t="inlineStr"/>
-      <c r="L223" t="inlineStr"/>
+      <c r="K223" t="n">
+        <v>0.4989</v>
+      </c>
+      <c r="L223" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M223" t="n">
         <v>1</v>
       </c>
@@ -8609,22 +8415,22 @@
         <v>222</v>
       </c>
       <c r="B224" t="n">
-        <v>0.5138</v>
+        <v>0.51</v>
       </c>
       <c r="C224" t="n">
         <v>0.51</v>
       </c>
       <c r="D224" t="n">
-        <v>0.5138</v>
+        <v>0.5199</v>
       </c>
       <c r="E224" t="n">
         <v>0.5099</v>
       </c>
       <c r="F224" t="n">
-        <v>3699646.916</v>
+        <v>3892518.564894153</v>
       </c>
       <c r="G224" t="n">
-        <v>0.5105033333333335</v>
+        <v>0.5109300000000002</v>
       </c>
       <c r="H224" t="n">
         <v>0</v>
@@ -8633,8 +8439,14 @@
         <v>0</v>
       </c>
       <c r="J224" t="inlineStr"/>
-      <c r="K224" t="inlineStr"/>
-      <c r="L224" t="inlineStr"/>
+      <c r="K224" t="n">
+        <v>0.4989</v>
+      </c>
+      <c r="L224" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M224" t="n">
         <v>1</v>
       </c>
@@ -8644,22 +8456,22 @@
         <v>223</v>
       </c>
       <c r="B225" t="n">
-        <v>0.512</v>
+        <v>0.5138</v>
       </c>
       <c r="C225" t="n">
-        <v>0.5046</v>
+        <v>0.51</v>
       </c>
       <c r="D225" t="n">
-        <v>0.512</v>
+        <v>0.5138</v>
       </c>
       <c r="E225" t="n">
-        <v>0.5044</v>
+        <v>0.5099</v>
       </c>
       <c r="F225" t="n">
-        <v>1389454.9178</v>
+        <v>3699646.916</v>
       </c>
       <c r="G225" t="n">
-        <v>0.5099916666666668</v>
+        <v>0.5105033333333335</v>
       </c>
       <c r="H225" t="n">
         <v>0</v>
@@ -8668,8 +8480,14 @@
         <v>0</v>
       </c>
       <c r="J225" t="inlineStr"/>
-      <c r="K225" t="inlineStr"/>
-      <c r="L225" t="inlineStr"/>
+      <c r="K225" t="n">
+        <v>0.4989</v>
+      </c>
+      <c r="L225" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M225" t="n">
         <v>1</v>
       </c>
@@ -8679,22 +8497,22 @@
         <v>224</v>
       </c>
       <c r="B226" t="n">
+        <v>0.512</v>
+      </c>
+      <c r="C226" t="n">
         <v>0.5046</v>
       </c>
-      <c r="C226" t="n">
-        <v>0.5041</v>
-      </c>
       <c r="D226" t="n">
-        <v>0.5046</v>
+        <v>0.512</v>
       </c>
       <c r="E226" t="n">
-        <v>0.5041</v>
+        <v>0.5044</v>
       </c>
       <c r="F226" t="n">
-        <v>1218219.3025</v>
+        <v>1389454.9178</v>
       </c>
       <c r="G226" t="n">
-        <v>0.5098883333333336</v>
+        <v>0.5099916666666668</v>
       </c>
       <c r="H226" t="n">
         <v>0</v>
@@ -8703,8 +8521,14 @@
         <v>0</v>
       </c>
       <c r="J226" t="inlineStr"/>
-      <c r="K226" t="inlineStr"/>
-      <c r="L226" t="inlineStr"/>
+      <c r="K226" t="n">
+        <v>0.4989</v>
+      </c>
+      <c r="L226" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M226" t="n">
         <v>1</v>
       </c>
@@ -8714,22 +8538,22 @@
         <v>225</v>
       </c>
       <c r="B227" t="n">
-        <v>0.5042</v>
+        <v>0.5046</v>
       </c>
       <c r="C227" t="n">
-        <v>0.5042</v>
+        <v>0.5041</v>
       </c>
       <c r="D227" t="n">
-        <v>0.5042</v>
+        <v>0.5046</v>
       </c>
       <c r="E227" t="n">
         <v>0.5041</v>
       </c>
       <c r="F227" t="n">
-        <v>5690955.3569</v>
+        <v>1218219.3025</v>
       </c>
       <c r="G227" t="n">
-        <v>0.5099550000000003</v>
+        <v>0.5098883333333336</v>
       </c>
       <c r="H227" t="n">
         <v>0</v>
@@ -8738,8 +8562,14 @@
         <v>0</v>
       </c>
       <c r="J227" t="inlineStr"/>
-      <c r="K227" t="inlineStr"/>
-      <c r="L227" t="inlineStr"/>
+      <c r="K227" t="n">
+        <v>0.4989</v>
+      </c>
+      <c r="L227" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M227" t="n">
         <v>1</v>
       </c>
@@ -8749,22 +8579,22 @@
         <v>226</v>
       </c>
       <c r="B228" t="n">
-        <v>0.5097</v>
+        <v>0.5042</v>
       </c>
       <c r="C228" t="n">
-        <v>0.5097</v>
+        <v>0.5042</v>
       </c>
       <c r="D228" t="n">
-        <v>0.5097</v>
+        <v>0.5042</v>
       </c>
       <c r="E228" t="n">
-        <v>0.5097</v>
+        <v>0.5041</v>
       </c>
       <c r="F228" t="n">
-        <v>372768.2950755346</v>
+        <v>5690955.3569</v>
       </c>
       <c r="G228" t="n">
-        <v>0.5099533333333336</v>
+        <v>0.5099550000000003</v>
       </c>
       <c r="H228" t="n">
         <v>0</v>
@@ -8773,8 +8603,14 @@
         <v>0</v>
       </c>
       <c r="J228" t="inlineStr"/>
-      <c r="K228" t="inlineStr"/>
-      <c r="L228" t="inlineStr"/>
+      <c r="K228" t="n">
+        <v>0.4989</v>
+      </c>
+      <c r="L228" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M228" t="n">
         <v>1</v>
       </c>
@@ -8784,22 +8620,22 @@
         <v>227</v>
       </c>
       <c r="B229" t="n">
-        <v>0.5039</v>
+        <v>0.5097</v>
       </c>
       <c r="C229" t="n">
-        <v>0.5032</v>
+        <v>0.5097</v>
       </c>
       <c r="D229" t="n">
-        <v>0.5039</v>
+        <v>0.5097</v>
       </c>
       <c r="E229" t="n">
-        <v>0.5032</v>
+        <v>0.5097</v>
       </c>
       <c r="F229" t="n">
-        <v>3011834.0862</v>
+        <v>372768.2950755346</v>
       </c>
       <c r="G229" t="n">
-        <v>0.5100033333333336</v>
+        <v>0.5099533333333336</v>
       </c>
       <c r="H229" t="n">
         <v>0</v>
@@ -8808,8 +8644,14 @@
         <v>0</v>
       </c>
       <c r="J229" t="inlineStr"/>
-      <c r="K229" t="inlineStr"/>
-      <c r="L229" t="inlineStr"/>
+      <c r="K229" t="n">
+        <v>0.4989</v>
+      </c>
+      <c r="L229" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M229" t="n">
         <v>1</v>
       </c>
@@ -8819,22 +8661,22 @@
         <v>228</v>
       </c>
       <c r="B230" t="n">
+        <v>0.5039</v>
+      </c>
+      <c r="C230" t="n">
         <v>0.5032</v>
       </c>
-      <c r="C230" t="n">
-        <v>0.5031</v>
-      </c>
       <c r="D230" t="n">
+        <v>0.5039</v>
+      </c>
+      <c r="E230" t="n">
         <v>0.5032</v>
       </c>
-      <c r="E230" t="n">
-        <v>0.503</v>
-      </c>
       <c r="F230" t="n">
-        <v>5328449.6321</v>
+        <v>3011834.0862</v>
       </c>
       <c r="G230" t="n">
-        <v>0.5100533333333336</v>
+        <v>0.5100033333333336</v>
       </c>
       <c r="H230" t="n">
         <v>0</v>
@@ -8843,8 +8685,14 @@
         <v>0</v>
       </c>
       <c r="J230" t="inlineStr"/>
-      <c r="K230" t="inlineStr"/>
-      <c r="L230" t="inlineStr"/>
+      <c r="K230" t="n">
+        <v>0.4989</v>
+      </c>
+      <c r="L230" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M230" t="n">
         <v>1</v>
       </c>
@@ -8854,22 +8702,22 @@
         <v>229</v>
       </c>
       <c r="B231" t="n">
-        <v>0.5093</v>
+        <v>0.5032</v>
       </c>
       <c r="C231" t="n">
-        <v>0.5093</v>
+        <v>0.5031</v>
       </c>
       <c r="D231" t="n">
-        <v>0.5093</v>
+        <v>0.5032</v>
       </c>
       <c r="E231" t="n">
-        <v>0.5093</v>
+        <v>0.503</v>
       </c>
       <c r="F231" t="n">
-        <v>1000</v>
+        <v>5328449.6321</v>
       </c>
       <c r="G231" t="n">
-        <v>0.5101083333333336</v>
+        <v>0.5100533333333336</v>
       </c>
       <c r="H231" t="n">
         <v>0</v>
@@ -8878,8 +8726,14 @@
         <v>0</v>
       </c>
       <c r="J231" t="inlineStr"/>
-      <c r="K231" t="inlineStr"/>
-      <c r="L231" t="inlineStr"/>
+      <c r="K231" t="n">
+        <v>0.4989</v>
+      </c>
+      <c r="L231" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M231" t="n">
         <v>1</v>
       </c>
@@ -8889,22 +8743,22 @@
         <v>230</v>
       </c>
       <c r="B232" t="n">
-        <v>0.5092</v>
+        <v>0.5093</v>
       </c>
       <c r="C232" t="n">
-        <v>0.4908</v>
+        <v>0.5093</v>
       </c>
       <c r="D232" t="n">
-        <v>0.5092</v>
+        <v>0.5093</v>
       </c>
       <c r="E232" t="n">
-        <v>0.4908</v>
+        <v>0.5093</v>
       </c>
       <c r="F232" t="n">
-        <v>735962.2415</v>
+        <v>1000</v>
       </c>
       <c r="G232" t="n">
-        <v>0.5100933333333335</v>
+        <v>0.5101083333333336</v>
       </c>
       <c r="H232" t="n">
         <v>0</v>
@@ -8913,8 +8767,14 @@
         <v>0</v>
       </c>
       <c r="J232" t="inlineStr"/>
-      <c r="K232" t="inlineStr"/>
-      <c r="L232" t="inlineStr"/>
+      <c r="K232" t="n">
+        <v>0.4989</v>
+      </c>
+      <c r="L232" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M232" t="n">
         <v>1</v>
       </c>
@@ -8924,32 +8784,38 @@
         <v>231</v>
       </c>
       <c r="B233" t="n">
-        <v>0.4909</v>
+        <v>0.5092</v>
       </c>
       <c r="C233" t="n">
+        <v>0.4908</v>
+      </c>
+      <c r="D233" t="n">
+        <v>0.5092</v>
+      </c>
+      <c r="E233" t="n">
+        <v>0.4908</v>
+      </c>
+      <c r="F233" t="n">
+        <v>735962.2415</v>
+      </c>
+      <c r="G233" t="n">
+        <v>0.5100933333333335</v>
+      </c>
+      <c r="H233" t="n">
+        <v>0</v>
+      </c>
+      <c r="I233" t="n">
+        <v>0</v>
+      </c>
+      <c r="J233" t="inlineStr"/>
+      <c r="K233" t="n">
         <v>0.4989</v>
       </c>
-      <c r="D233" t="n">
-        <v>0.4989</v>
-      </c>
-      <c r="E233" t="n">
-        <v>0.4909</v>
-      </c>
-      <c r="F233" t="n">
-        <v>1077627.112</v>
-      </c>
-      <c r="G233" t="n">
-        <v>0.5099050000000002</v>
-      </c>
-      <c r="H233" t="n">
-        <v>0</v>
-      </c>
-      <c r="I233" t="n">
-        <v>0</v>
-      </c>
-      <c r="J233" t="inlineStr"/>
-      <c r="K233" t="inlineStr"/>
-      <c r="L233" t="inlineStr"/>
+      <c r="L233" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M233" t="n">
         <v>1</v>
       </c>
@@ -8959,22 +8825,22 @@
         <v>232</v>
       </c>
       <c r="B234" t="n">
-        <v>0.491</v>
+        <v>0.4909</v>
       </c>
       <c r="C234" t="n">
-        <v>0.4973</v>
+        <v>0.4989</v>
       </c>
       <c r="D234" t="n">
-        <v>0.4978</v>
+        <v>0.4989</v>
       </c>
       <c r="E234" t="n">
-        <v>0.491</v>
+        <v>0.4909</v>
       </c>
       <c r="F234" t="n">
-        <v>1721735.6843</v>
+        <v>1077627.112</v>
       </c>
       <c r="G234" t="n">
-        <v>0.5099100000000002</v>
+        <v>0.5099050000000002</v>
       </c>
       <c r="H234" t="n">
         <v>0</v>
@@ -8983,8 +8849,14 @@
         <v>0</v>
       </c>
       <c r="J234" t="inlineStr"/>
-      <c r="K234" t="inlineStr"/>
-      <c r="L234" t="inlineStr"/>
+      <c r="K234" t="n">
+        <v>0.4989</v>
+      </c>
+      <c r="L234" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M234" t="n">
         <v>1</v>
       </c>
@@ -8994,22 +8866,22 @@
         <v>233</v>
       </c>
       <c r="B235" t="n">
+        <v>0.491</v>
+      </c>
+      <c r="C235" t="n">
         <v>0.4973</v>
       </c>
-      <c r="C235" t="n">
-        <v>0.4976</v>
-      </c>
       <c r="D235" t="n">
-        <v>0.4976</v>
+        <v>0.4978</v>
       </c>
       <c r="E235" t="n">
-        <v>0.4973</v>
+        <v>0.491</v>
       </c>
       <c r="F235" t="n">
-        <v>300730.8469</v>
+        <v>1721735.6843</v>
       </c>
       <c r="G235" t="n">
-        <v>0.5099200000000002</v>
+        <v>0.5099100000000002</v>
       </c>
       <c r="H235" t="n">
         <v>0</v>
@@ -9018,8 +8890,14 @@
         <v>0</v>
       </c>
       <c r="J235" t="inlineStr"/>
-      <c r="K235" t="inlineStr"/>
-      <c r="L235" t="inlineStr"/>
+      <c r="K235" t="n">
+        <v>0.4989</v>
+      </c>
+      <c r="L235" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M235" t="n">
         <v>1</v>
       </c>
@@ -9029,22 +8907,22 @@
         <v>234</v>
       </c>
       <c r="B236" t="n">
-        <v>0.4986</v>
+        <v>0.4973</v>
       </c>
       <c r="C236" t="n">
-        <v>0.4985</v>
+        <v>0.4976</v>
       </c>
       <c r="D236" t="n">
-        <v>0.5059</v>
+        <v>0.4976</v>
       </c>
       <c r="E236" t="n">
-        <v>0.4985</v>
+        <v>0.4973</v>
       </c>
       <c r="F236" t="n">
-        <v>70069.6688</v>
+        <v>300730.8469</v>
       </c>
       <c r="G236" t="n">
-        <v>0.5099316666666668</v>
+        <v>0.5099200000000002</v>
       </c>
       <c r="H236" t="n">
         <v>0</v>
@@ -9053,8 +8931,14 @@
         <v>0</v>
       </c>
       <c r="J236" t="inlineStr"/>
-      <c r="K236" t="inlineStr"/>
-      <c r="L236" t="inlineStr"/>
+      <c r="K236" t="n">
+        <v>0.4989</v>
+      </c>
+      <c r="L236" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M236" t="n">
         <v>1</v>
       </c>
@@ -9064,22 +8948,22 @@
         <v>235</v>
       </c>
       <c r="B237" t="n">
-        <v>0.505</v>
+        <v>0.4986</v>
       </c>
       <c r="C237" t="n">
-        <v>0.5048</v>
+        <v>0.4985</v>
       </c>
       <c r="D237" t="n">
-        <v>0.505</v>
+        <v>0.5059</v>
       </c>
       <c r="E237" t="n">
         <v>0.4985</v>
       </c>
       <c r="F237" t="n">
-        <v>132861.2791</v>
+        <v>70069.6688</v>
       </c>
       <c r="G237" t="n">
-        <v>0.5099616666666668</v>
+        <v>0.5099316666666668</v>
       </c>
       <c r="H237" t="n">
         <v>0</v>
@@ -9088,8 +8972,14 @@
         <v>0</v>
       </c>
       <c r="J237" t="inlineStr"/>
-      <c r="K237" t="inlineStr"/>
-      <c r="L237" t="inlineStr"/>
+      <c r="K237" t="n">
+        <v>0.4989</v>
+      </c>
+      <c r="L237" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M237" t="n">
         <v>1</v>
       </c>
@@ -9099,22 +8989,22 @@
         <v>236</v>
       </c>
       <c r="B238" t="n">
+        <v>0.505</v>
+      </c>
+      <c r="C238" t="n">
+        <v>0.5048</v>
+      </c>
+      <c r="D238" t="n">
+        <v>0.505</v>
+      </c>
+      <c r="E238" t="n">
         <v>0.4985</v>
       </c>
-      <c r="C238" t="n">
-        <v>0.4923</v>
-      </c>
-      <c r="D238" t="n">
-        <v>0.4985</v>
-      </c>
-      <c r="E238" t="n">
-        <v>0.4923</v>
-      </c>
       <c r="F238" t="n">
-        <v>553013</v>
+        <v>132861.2791</v>
       </c>
       <c r="G238" t="n">
-        <v>0.5098500000000001</v>
+        <v>0.5099616666666668</v>
       </c>
       <c r="H238" t="n">
         <v>0</v>
@@ -9123,8 +9013,14 @@
         <v>0</v>
       </c>
       <c r="J238" t="inlineStr"/>
-      <c r="K238" t="inlineStr"/>
-      <c r="L238" t="inlineStr"/>
+      <c r="K238" t="n">
+        <v>0.4989</v>
+      </c>
+      <c r="L238" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M238" t="n">
         <v>1</v>
       </c>
@@ -9134,22 +9030,22 @@
         <v>237</v>
       </c>
       <c r="B239" t="n">
+        <v>0.4985</v>
+      </c>
+      <c r="C239" t="n">
         <v>0.4923</v>
       </c>
-      <c r="C239" t="n">
-        <v>0.5024</v>
-      </c>
       <c r="D239" t="n">
-        <v>0.5024</v>
+        <v>0.4985</v>
       </c>
       <c r="E239" t="n">
         <v>0.4923</v>
       </c>
       <c r="F239" t="n">
-        <v>2369.772</v>
+        <v>553013</v>
       </c>
       <c r="G239" t="n">
-        <v>0.5097183333333335</v>
+        <v>0.5098500000000001</v>
       </c>
       <c r="H239" t="n">
         <v>0</v>
@@ -9158,8 +9054,14 @@
         <v>0</v>
       </c>
       <c r="J239" t="inlineStr"/>
-      <c r="K239" t="inlineStr"/>
-      <c r="L239" t="inlineStr"/>
+      <c r="K239" t="n">
+        <v>0.4989</v>
+      </c>
+      <c r="L239" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M239" t="n">
         <v>1</v>
       </c>
@@ -9169,22 +9071,22 @@
         <v>238</v>
       </c>
       <c r="B240" t="n">
-        <v>0.5014999999999999</v>
+        <v>0.4923</v>
       </c>
       <c r="C240" t="n">
-        <v>0.5014999999999999</v>
+        <v>0.5024</v>
       </c>
       <c r="D240" t="n">
-        <v>0.5014999999999999</v>
+        <v>0.5024</v>
       </c>
       <c r="E240" t="n">
-        <v>0.5014999999999999</v>
+        <v>0.4923</v>
       </c>
       <c r="F240" t="n">
-        <v>41207.4177</v>
+        <v>2369.772</v>
       </c>
       <c r="G240" t="n">
-        <v>0.5096766666666668</v>
+        <v>0.5097183333333335</v>
       </c>
       <c r="H240" t="n">
         <v>0</v>
@@ -9193,8 +9095,14 @@
         <v>0</v>
       </c>
       <c r="J240" t="inlineStr"/>
-      <c r="K240" t="inlineStr"/>
-      <c r="L240" t="inlineStr"/>
+      <c r="K240" t="n">
+        <v>0.4989</v>
+      </c>
+      <c r="L240" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M240" t="n">
         <v>1</v>
       </c>
@@ -9204,22 +9112,22 @@
         <v>239</v>
       </c>
       <c r="B241" t="n">
-        <v>0.493</v>
+        <v>0.5014999999999999</v>
       </c>
       <c r="C241" t="n">
-        <v>0.491</v>
+        <v>0.5014999999999999</v>
       </c>
       <c r="D241" t="n">
-        <v>0.493</v>
+        <v>0.5014999999999999</v>
       </c>
       <c r="E241" t="n">
-        <v>0.491</v>
+        <v>0.5014999999999999</v>
       </c>
       <c r="F241" t="n">
-        <v>1168809.3731</v>
+        <v>41207.4177</v>
       </c>
       <c r="G241" t="n">
-        <v>0.5095000000000002</v>
+        <v>0.5096766666666668</v>
       </c>
       <c r="H241" t="n">
         <v>0</v>
@@ -9228,8 +9136,14 @@
         <v>0</v>
       </c>
       <c r="J241" t="inlineStr"/>
-      <c r="K241" t="inlineStr"/>
-      <c r="L241" t="inlineStr"/>
+      <c r="K241" t="n">
+        <v>0.4989</v>
+      </c>
+      <c r="L241" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M241" t="n">
         <v>1</v>
       </c>
@@ -9239,22 +9153,22 @@
         <v>240</v>
       </c>
       <c r="B242" t="n">
-        <v>0.4925</v>
+        <v>0.493</v>
       </c>
       <c r="C242" t="n">
-        <v>0.493</v>
+        <v>0.491</v>
       </c>
       <c r="D242" t="n">
         <v>0.493</v>
       </c>
       <c r="E242" t="n">
-        <v>0.4925</v>
+        <v>0.491</v>
       </c>
       <c r="F242" t="n">
-        <v>1358294.6808</v>
+        <v>1168809.3731</v>
       </c>
       <c r="G242" t="n">
-        <v>0.5092116666666667</v>
+        <v>0.5095000000000002</v>
       </c>
       <c r="H242" t="n">
         <v>0</v>
@@ -9263,8 +9177,14 @@
         <v>0</v>
       </c>
       <c r="J242" t="inlineStr"/>
-      <c r="K242" t="inlineStr"/>
-      <c r="L242" t="inlineStr"/>
+      <c r="K242" t="n">
+        <v>0.4989</v>
+      </c>
+      <c r="L242" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M242" t="n">
         <v>1</v>
       </c>
@@ -9274,7 +9194,7 @@
         <v>241</v>
       </c>
       <c r="B243" t="n">
-        <v>0.493</v>
+        <v>0.4925</v>
       </c>
       <c r="C243" t="n">
         <v>0.493</v>
@@ -9283,13 +9203,13 @@
         <v>0.493</v>
       </c>
       <c r="E243" t="n">
-        <v>0.493</v>
+        <v>0.4925</v>
       </c>
       <c r="F243" t="n">
-        <v>650847.9848</v>
+        <v>1358294.6808</v>
       </c>
       <c r="G243" t="n">
-        <v>0.5088900000000001</v>
+        <v>0.5092116666666667</v>
       </c>
       <c r="H243" t="n">
         <v>0</v>
@@ -9298,8 +9218,14 @@
         <v>0</v>
       </c>
       <c r="J243" t="inlineStr"/>
-      <c r="K243" t="inlineStr"/>
-      <c r="L243" t="inlineStr"/>
+      <c r="K243" t="n">
+        <v>0.4989</v>
+      </c>
+      <c r="L243" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M243" t="n">
         <v>1</v>
       </c>
@@ -9321,10 +9247,10 @@
         <v>0.493</v>
       </c>
       <c r="F244" t="n">
-        <v>65000</v>
+        <v>650847.9848</v>
       </c>
       <c r="G244" t="n">
-        <v>0.5087483333333334</v>
+        <v>0.5088900000000001</v>
       </c>
       <c r="H244" t="n">
         <v>0</v>
@@ -9333,8 +9259,14 @@
         <v>0</v>
       </c>
       <c r="J244" t="inlineStr"/>
-      <c r="K244" t="inlineStr"/>
-      <c r="L244" t="inlineStr"/>
+      <c r="K244" t="n">
+        <v>0.4989</v>
+      </c>
+      <c r="L244" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M244" t="n">
         <v>1</v>
       </c>
@@ -9344,22 +9276,22 @@
         <v>243</v>
       </c>
       <c r="B245" t="n">
-        <v>0.4999</v>
+        <v>0.493</v>
       </c>
       <c r="C245" t="n">
         <v>0.493</v>
       </c>
       <c r="D245" t="n">
-        <v>0.4999</v>
+        <v>0.493</v>
       </c>
       <c r="E245" t="n">
         <v>0.493</v>
       </c>
       <c r="F245" t="n">
-        <v>26030</v>
+        <v>65000</v>
       </c>
       <c r="G245" t="n">
-        <v>0.5086033333333334</v>
+        <v>0.5087483333333334</v>
       </c>
       <c r="H245" t="n">
         <v>0</v>
@@ -9368,8 +9300,14 @@
         <v>0</v>
       </c>
       <c r="J245" t="inlineStr"/>
-      <c r="K245" t="inlineStr"/>
-      <c r="L245" t="inlineStr"/>
+      <c r="K245" t="n">
+        <v>0.4989</v>
+      </c>
+      <c r="L245" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M245" t="n">
         <v>1</v>
       </c>
@@ -9379,22 +9317,22 @@
         <v>244</v>
       </c>
       <c r="B246" t="n">
+        <v>0.4999</v>
+      </c>
+      <c r="C246" t="n">
         <v>0.493</v>
       </c>
-      <c r="C246" t="n">
-        <v>0.49</v>
-      </c>
       <c r="D246" t="n">
+        <v>0.4999</v>
+      </c>
+      <c r="E246" t="n">
         <v>0.493</v>
       </c>
-      <c r="E246" t="n">
-        <v>0.4851</v>
-      </c>
       <c r="F246" t="n">
-        <v>8464195.1809</v>
+        <v>26030</v>
       </c>
       <c r="G246" t="n">
-        <v>0.5084083333333334</v>
+        <v>0.5086033333333334</v>
       </c>
       <c r="H246" t="n">
         <v>0</v>
@@ -9403,8 +9341,14 @@
         <v>0</v>
       </c>
       <c r="J246" t="inlineStr"/>
-      <c r="K246" t="inlineStr"/>
-      <c r="L246" t="inlineStr"/>
+      <c r="K246" t="n">
+        <v>0.4989</v>
+      </c>
+      <c r="L246" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M246" t="n">
         <v>1</v>
       </c>
@@ -9414,22 +9358,22 @@
         <v>245</v>
       </c>
       <c r="B247" t="n">
+        <v>0.493</v>
+      </c>
+      <c r="C247" t="n">
         <v>0.49</v>
       </c>
-      <c r="C247" t="n">
-        <v>0.5125</v>
-      </c>
       <c r="D247" t="n">
-        <v>0.5325</v>
+        <v>0.493</v>
       </c>
       <c r="E247" t="n">
         <v>0.4851</v>
       </c>
       <c r="F247" t="n">
-        <v>626281.3</v>
+        <v>8464195.1809</v>
       </c>
       <c r="G247" t="n">
-        <v>0.5086350000000001</v>
+        <v>0.5084083333333334</v>
       </c>
       <c r="H247" t="n">
         <v>0</v>
@@ -9438,8 +9382,14 @@
         <v>0</v>
       </c>
       <c r="J247" t="inlineStr"/>
-      <c r="K247" t="inlineStr"/>
-      <c r="L247" t="inlineStr"/>
+      <c r="K247" t="n">
+        <v>0.4989</v>
+      </c>
+      <c r="L247" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M247" t="n">
         <v>1</v>
       </c>
@@ -9449,22 +9399,22 @@
         <v>246</v>
       </c>
       <c r="B248" t="n">
-        <v>0.5</v>
+        <v>0.49</v>
       </c>
       <c r="C248" t="n">
-        <v>0.5</v>
+        <v>0.5125</v>
       </c>
       <c r="D248" t="n">
-        <v>0.5</v>
+        <v>0.5325</v>
       </c>
       <c r="E248" t="n">
-        <v>0.5</v>
+        <v>0.4851</v>
       </c>
       <c r="F248" t="n">
-        <v>1810.1444</v>
+        <v>626281.3</v>
       </c>
       <c r="G248" t="n">
-        <v>0.5086516666666667</v>
+        <v>0.5086350000000001</v>
       </c>
       <c r="H248" t="n">
         <v>0</v>
@@ -9473,8 +9423,14 @@
         <v>0</v>
       </c>
       <c r="J248" t="inlineStr"/>
-      <c r="K248" t="inlineStr"/>
-      <c r="L248" t="inlineStr"/>
+      <c r="K248" t="n">
+        <v>0.4989</v>
+      </c>
+      <c r="L248" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M248" t="n">
         <v>1</v>
       </c>
@@ -9484,22 +9440,22 @@
         <v>247</v>
       </c>
       <c r="B249" t="n">
-        <v>0.4899</v>
+        <v>0.5</v>
       </c>
       <c r="C249" t="n">
-        <v>0.4999</v>
+        <v>0.5</v>
       </c>
       <c r="D249" t="n">
-        <v>0.4999</v>
+        <v>0.5</v>
       </c>
       <c r="E249" t="n">
-        <v>0.4899</v>
+        <v>0.5</v>
       </c>
       <c r="F249" t="n">
-        <v>91326</v>
+        <v>1810.1444</v>
       </c>
       <c r="G249" t="n">
-        <v>0.5086683333333334</v>
+        <v>0.5086516666666667</v>
       </c>
       <c r="H249" t="n">
         <v>0</v>
@@ -9508,8 +9464,14 @@
         <v>0</v>
       </c>
       <c r="J249" t="inlineStr"/>
-      <c r="K249" t="inlineStr"/>
-      <c r="L249" t="inlineStr"/>
+      <c r="K249" t="n">
+        <v>0.4989</v>
+      </c>
+      <c r="L249" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M249" t="n">
         <v>1</v>
       </c>
@@ -9519,22 +9481,22 @@
         <v>248</v>
       </c>
       <c r="B250" t="n">
-        <v>0.49</v>
+        <v>0.4899</v>
       </c>
       <c r="C250" t="n">
-        <v>0.49</v>
+        <v>0.4999</v>
       </c>
       <c r="D250" t="n">
-        <v>0.49</v>
+        <v>0.4999</v>
       </c>
       <c r="E250" t="n">
-        <v>0.49</v>
+        <v>0.4899</v>
       </c>
       <c r="F250" t="n">
-        <v>89197.40300000001</v>
+        <v>91326</v>
       </c>
       <c r="G250" t="n">
-        <v>0.5086350000000001</v>
+        <v>0.5086683333333334</v>
       </c>
       <c r="H250" t="n">
         <v>0</v>
@@ -9543,8 +9505,14 @@
         <v>0</v>
       </c>
       <c r="J250" t="inlineStr"/>
-      <c r="K250" t="inlineStr"/>
-      <c r="L250" t="inlineStr"/>
+      <c r="K250" t="n">
+        <v>0.4989</v>
+      </c>
+      <c r="L250" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M250" t="n">
         <v>1</v>
       </c>
@@ -9566,10 +9534,10 @@
         <v>0.49</v>
       </c>
       <c r="F251" t="n">
-        <v>333713.4617</v>
+        <v>89197.40300000001</v>
       </c>
       <c r="G251" t="n">
-        <v>0.5084533333333333</v>
+        <v>0.5086350000000001</v>
       </c>
       <c r="H251" t="n">
         <v>0</v>
@@ -9578,8 +9546,14 @@
         <v>0</v>
       </c>
       <c r="J251" t="inlineStr"/>
-      <c r="K251" t="inlineStr"/>
-      <c r="L251" t="inlineStr"/>
+      <c r="K251" t="n">
+        <v>0.4989</v>
+      </c>
+      <c r="L251" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M251" t="n">
         <v>1</v>
       </c>
@@ -9589,22 +9563,22 @@
         <v>250</v>
       </c>
       <c r="B252" t="n">
-        <v>0.4899</v>
+        <v>0.49</v>
       </c>
       <c r="C252" t="n">
-        <v>0.4899</v>
+        <v>0.49</v>
       </c>
       <c r="D252" t="n">
-        <v>0.4899</v>
+        <v>0.49</v>
       </c>
       <c r="E252" t="n">
-        <v>0.4899</v>
+        <v>0.49</v>
       </c>
       <c r="F252" t="n">
-        <v>441046.1933</v>
+        <v>333713.4617</v>
       </c>
       <c r="G252" t="n">
-        <v>0.5082699999999999</v>
+        <v>0.5084533333333333</v>
       </c>
       <c r="H252" t="n">
         <v>0</v>
@@ -9613,8 +9587,14 @@
         <v>0</v>
       </c>
       <c r="J252" t="inlineStr"/>
-      <c r="K252" t="inlineStr"/>
-      <c r="L252" t="inlineStr"/>
+      <c r="K252" t="n">
+        <v>0.4989</v>
+      </c>
+      <c r="L252" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M252" t="n">
         <v>1</v>
       </c>
@@ -9633,13 +9613,13 @@
         <v>0.4899</v>
       </c>
       <c r="E253" t="n">
-        <v>0.4851</v>
+        <v>0.4899</v>
       </c>
       <c r="F253" t="n">
-        <v>3430</v>
+        <v>441046.1933</v>
       </c>
       <c r="G253" t="n">
-        <v>0.5080866666666666</v>
+        <v>0.5082699999999999</v>
       </c>
       <c r="H253" t="n">
         <v>0</v>
@@ -9648,8 +9628,14 @@
         <v>0</v>
       </c>
       <c r="J253" t="inlineStr"/>
-      <c r="K253" t="inlineStr"/>
-      <c r="L253" t="inlineStr"/>
+      <c r="K253" t="n">
+        <v>0.4989</v>
+      </c>
+      <c r="L253" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M253" t="n">
         <v>1</v>
       </c>
@@ -9659,22 +9645,22 @@
         <v>252</v>
       </c>
       <c r="B254" t="n">
-        <v>0.4851</v>
+        <v>0.4899</v>
       </c>
       <c r="C254" t="n">
-        <v>0.4897</v>
+        <v>0.4899</v>
       </c>
       <c r="D254" t="n">
-        <v>0.4897</v>
+        <v>0.4899</v>
       </c>
       <c r="E254" t="n">
         <v>0.4851</v>
       </c>
       <c r="F254" t="n">
-        <v>8496.3513</v>
+        <v>3430</v>
       </c>
       <c r="G254" t="n">
-        <v>0.5079983333333332</v>
+        <v>0.5080866666666666</v>
       </c>
       <c r="H254" t="n">
         <v>0</v>
@@ -9683,8 +9669,14 @@
         <v>0</v>
       </c>
       <c r="J254" t="inlineStr"/>
-      <c r="K254" t="inlineStr"/>
-      <c r="L254" t="inlineStr"/>
+      <c r="K254" t="n">
+        <v>0.4989</v>
+      </c>
+      <c r="L254" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M254" t="n">
         <v>1</v>
       </c>
@@ -9697,19 +9689,19 @@
         <v>0.4851</v>
       </c>
       <c r="C255" t="n">
-        <v>0.4998</v>
+        <v>0.4897</v>
       </c>
       <c r="D255" t="n">
-        <v>0.4998</v>
+        <v>0.4897</v>
       </c>
       <c r="E255" t="n">
         <v>0.4851</v>
       </c>
       <c r="F255" t="n">
-        <v>1335972.8719</v>
+        <v>8496.3513</v>
       </c>
       <c r="G255" t="n">
-        <v>0.5079633333333332</v>
+        <v>0.5079983333333332</v>
       </c>
       <c r="H255" t="n">
         <v>0</v>
@@ -9718,8 +9710,14 @@
         <v>0</v>
       </c>
       <c r="J255" t="inlineStr"/>
-      <c r="K255" t="inlineStr"/>
-      <c r="L255" t="inlineStr"/>
+      <c r="K255" t="n">
+        <v>0.4989</v>
+      </c>
+      <c r="L255" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M255" t="n">
         <v>1</v>
       </c>
@@ -9729,22 +9727,22 @@
         <v>254</v>
       </c>
       <c r="B256" t="n">
-        <v>0.4898</v>
+        <v>0.4851</v>
       </c>
       <c r="C256" t="n">
-        <v>0.4898</v>
+        <v>0.4998</v>
       </c>
       <c r="D256" t="n">
-        <v>0.4898</v>
+        <v>0.4998</v>
       </c>
       <c r="E256" t="n">
-        <v>0.4898</v>
+        <v>0.4851</v>
       </c>
       <c r="F256" t="n">
-        <v>2060</v>
+        <v>1335972.8719</v>
       </c>
       <c r="G256" t="n">
-        <v>0.5077666666666665</v>
+        <v>0.5079633333333332</v>
       </c>
       <c r="H256" t="n">
         <v>0</v>
@@ -9753,8 +9751,14 @@
         <v>0</v>
       </c>
       <c r="J256" t="inlineStr"/>
-      <c r="K256" t="inlineStr"/>
-      <c r="L256" t="inlineStr"/>
+      <c r="K256" t="n">
+        <v>0.4989</v>
+      </c>
+      <c r="L256" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M256" t="n">
         <v>1</v>
       </c>
@@ -9767,30 +9771,77 @@
         <v>0.4898</v>
       </c>
       <c r="C257" t="n">
+        <v>0.4898</v>
+      </c>
+      <c r="D257" t="n">
+        <v>0.4898</v>
+      </c>
+      <c r="E257" t="n">
+        <v>0.4898</v>
+      </c>
+      <c r="F257" t="n">
+        <v>2060</v>
+      </c>
+      <c r="G257" t="n">
+        <v>0.5077666666666665</v>
+      </c>
+      <c r="H257" t="n">
+        <v>0</v>
+      </c>
+      <c r="I257" t="n">
+        <v>0</v>
+      </c>
+      <c r="J257" t="inlineStr"/>
+      <c r="K257" t="n">
+        <v>0.4989</v>
+      </c>
+      <c r="L257" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M257" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="258">
+      <c r="A258" s="1" t="n">
+        <v>256</v>
+      </c>
+      <c r="B258" t="n">
+        <v>0.4898</v>
+      </c>
+      <c r="C258" t="n">
         <v>0.4999</v>
       </c>
-      <c r="D257" t="n">
+      <c r="D258" t="n">
         <v>0.4999</v>
       </c>
-      <c r="E257" t="n">
+      <c r="E258" t="n">
         <v>0.4836</v>
       </c>
-      <c r="F257" t="n">
+      <c r="F258" t="n">
         <v>2599769.1922</v>
       </c>
-      <c r="G257" t="n">
+      <c r="G258" t="n">
         <v>0.5075716666666665</v>
       </c>
-      <c r="H257" t="n">
-        <v>0</v>
-      </c>
-      <c r="I257" t="n">
-        <v>0</v>
-      </c>
-      <c r="J257" t="inlineStr"/>
-      <c r="K257" t="inlineStr"/>
-      <c r="L257" t="inlineStr"/>
-      <c r="M257" t="n">
+      <c r="H258" t="n">
+        <v>0</v>
+      </c>
+      <c r="I258" t="n">
+        <v>0</v>
+      </c>
+      <c r="J258" t="inlineStr"/>
+      <c r="K258" t="n">
+        <v>0.4989</v>
+      </c>
+      <c r="L258" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M258" t="n">
         <v>1</v>
       </c>
     </row>

--- a/BackTest/2020-01-13 BackTest OCN.xlsx
+++ b/BackTest/2020-01-13 BackTest OCN.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:M258"/>
+  <dimension ref="A1:N268"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -394,35 +394,40 @@
       </c>
       <c r="G1" s="1" t="inlineStr">
         <is>
+          <t>CMO</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>MA60</t>
         </is>
       </c>
-      <c r="H1" s="1" t="inlineStr">
+      <c r="I1" s="1" t="inlineStr">
         <is>
           <t>low_check</t>
         </is>
       </c>
-      <c r="I1" s="1" t="inlineStr">
+      <c r="J1" s="1" t="inlineStr">
         <is>
           <t>high_check</t>
         </is>
       </c>
-      <c r="J1" s="1" t="inlineStr">
+      <c r="K1" s="1" t="inlineStr">
         <is>
           <t>BuyPrice</t>
         </is>
       </c>
-      <c r="K1" s="1" t="inlineStr">
+      <c r="L1" s="1" t="inlineStr">
         <is>
           <t>bprelay</t>
         </is>
       </c>
-      <c r="L1" s="1" t="inlineStr">
+      <c r="M1" s="1" t="inlineStr">
         <is>
           <t>Condition</t>
         </is>
       </c>
-      <c r="M1" s="1" t="inlineStr">
+      <c r="N1" s="1" t="inlineStr">
         <is>
           <t>Profits</t>
         </is>
@@ -448,18 +453,21 @@
         <v>3485604.3229</v>
       </c>
       <c r="G2" t="n">
+        <v>0.4618333333333332</v>
+      </c>
+      <c r="H2" t="n">
         <v>0.4676349999999997</v>
       </c>
-      <c r="H2" t="n">
-        <v>0</v>
-      </c>
       <c r="I2" t="n">
         <v>0</v>
       </c>
-      <c r="J2" t="inlineStr"/>
+      <c r="J2" t="n">
+        <v>0</v>
+      </c>
       <c r="K2" t="inlineStr"/>
       <c r="L2" t="inlineStr"/>
-      <c r="M2" t="n">
+      <c r="M2" t="inlineStr"/>
+      <c r="N2" t="n">
         <v>1</v>
       </c>
     </row>
@@ -483,18 +491,21 @@
         <v>18278.02977131474</v>
       </c>
       <c r="G3" t="n">
+        <v>0.4623533333333332</v>
+      </c>
+      <c r="H3" t="n">
         <v>0.4675849999999997</v>
       </c>
-      <c r="H3" t="n">
-        <v>0</v>
-      </c>
       <c r="I3" t="n">
         <v>0</v>
       </c>
-      <c r="J3" t="inlineStr"/>
+      <c r="J3" t="n">
+        <v>0</v>
+      </c>
       <c r="K3" t="inlineStr"/>
       <c r="L3" t="inlineStr"/>
-      <c r="M3" t="n">
+      <c r="M3" t="inlineStr"/>
+      <c r="N3" t="n">
         <v>1</v>
       </c>
     </row>
@@ -518,18 +529,21 @@
         <v>1210254.489697589</v>
       </c>
       <c r="G4" t="n">
+        <v>0.4628733333333332</v>
+      </c>
+      <c r="H4" t="n">
         <v>0.4675916666666664</v>
       </c>
-      <c r="H4" t="n">
-        <v>0</v>
-      </c>
       <c r="I4" t="n">
         <v>0</v>
       </c>
-      <c r="J4" t="inlineStr"/>
+      <c r="J4" t="n">
+        <v>0</v>
+      </c>
       <c r="K4" t="inlineStr"/>
       <c r="L4" t="inlineStr"/>
-      <c r="M4" t="n">
+      <c r="M4" t="inlineStr"/>
+      <c r="N4" t="n">
         <v>1</v>
       </c>
     </row>
@@ -553,18 +567,21 @@
         <v>3634934.339316649</v>
       </c>
       <c r="G5" t="n">
+        <v>0.4635799999999998</v>
+      </c>
+      <c r="H5" t="n">
         <v>0.4677449999999997</v>
       </c>
-      <c r="H5" t="n">
-        <v>0</v>
-      </c>
       <c r="I5" t="n">
         <v>0</v>
       </c>
-      <c r="J5" t="inlineStr"/>
+      <c r="J5" t="n">
+        <v>0</v>
+      </c>
       <c r="K5" t="inlineStr"/>
       <c r="L5" t="inlineStr"/>
-      <c r="M5" t="n">
+      <c r="M5" t="inlineStr"/>
+      <c r="N5" t="n">
         <v>1</v>
       </c>
     </row>
@@ -588,18 +605,21 @@
         <v>28255.8385</v>
       </c>
       <c r="G6" t="n">
+        <v>0.4640999999999998</v>
+      </c>
+      <c r="H6" t="n">
         <v>0.4676349999999997</v>
       </c>
-      <c r="H6" t="n">
-        <v>0</v>
-      </c>
       <c r="I6" t="n">
         <v>0</v>
       </c>
-      <c r="J6" t="inlineStr"/>
+      <c r="J6" t="n">
+        <v>0</v>
+      </c>
       <c r="K6" t="inlineStr"/>
       <c r="L6" t="inlineStr"/>
-      <c r="M6" t="n">
+      <c r="M6" t="inlineStr"/>
+      <c r="N6" t="n">
         <v>1</v>
       </c>
     </row>
@@ -623,18 +643,21 @@
         <v>1562242.472</v>
       </c>
       <c r="G7" t="n">
+        <v>0.4655999999999998</v>
+      </c>
+      <c r="H7" t="n">
         <v>0.4677899999999997</v>
       </c>
-      <c r="H7" t="n">
-        <v>0</v>
-      </c>
       <c r="I7" t="n">
         <v>0</v>
       </c>
-      <c r="J7" t="inlineStr"/>
+      <c r="J7" t="n">
+        <v>0</v>
+      </c>
       <c r="K7" t="inlineStr"/>
       <c r="L7" t="inlineStr"/>
-      <c r="M7" t="n">
+      <c r="M7" t="inlineStr"/>
+      <c r="N7" t="n">
         <v>1</v>
       </c>
     </row>
@@ -658,18 +681,21 @@
         <v>11842586.09338974</v>
       </c>
       <c r="G8" t="n">
+        <v>0.4664533333333332</v>
+      </c>
+      <c r="H8" t="n">
         <v>0.4677816666666664</v>
       </c>
-      <c r="H8" t="n">
-        <v>0</v>
-      </c>
       <c r="I8" t="n">
         <v>0</v>
       </c>
-      <c r="J8" t="inlineStr"/>
+      <c r="J8" t="n">
+        <v>0</v>
+      </c>
       <c r="K8" t="inlineStr"/>
       <c r="L8" t="inlineStr"/>
-      <c r="M8" t="n">
+      <c r="M8" t="inlineStr"/>
+      <c r="N8" t="n">
         <v>1</v>
       </c>
     </row>
@@ -693,18 +719,21 @@
         <v>1238171.724253747</v>
       </c>
       <c r="G9" t="n">
+        <v>0.4663799999999999</v>
+      </c>
+      <c r="H9" t="n">
         <v>0.4676449999999997</v>
       </c>
-      <c r="H9" t="n">
-        <v>0</v>
-      </c>
       <c r="I9" t="n">
         <v>0</v>
       </c>
-      <c r="J9" t="inlineStr"/>
+      <c r="J9" t="n">
+        <v>0</v>
+      </c>
       <c r="K9" t="inlineStr"/>
       <c r="L9" t="inlineStr"/>
-      <c r="M9" t="n">
+      <c r="M9" t="inlineStr"/>
+      <c r="N9" t="n">
         <v>1</v>
       </c>
     </row>
@@ -728,18 +757,21 @@
         <v>2400</v>
       </c>
       <c r="G10" t="n">
+        <v>0.4663066666666666</v>
+      </c>
+      <c r="H10" t="n">
         <v>0.467298333333333</v>
       </c>
-      <c r="H10" t="n">
-        <v>0</v>
-      </c>
       <c r="I10" t="n">
         <v>0</v>
       </c>
-      <c r="J10" t="inlineStr"/>
+      <c r="J10" t="n">
+        <v>0</v>
+      </c>
       <c r="K10" t="inlineStr"/>
       <c r="L10" t="inlineStr"/>
-      <c r="M10" t="n">
+      <c r="M10" t="inlineStr"/>
+      <c r="N10" t="n">
         <v>1</v>
       </c>
     </row>
@@ -763,18 +795,21 @@
         <v>1209209.7063</v>
       </c>
       <c r="G11" t="n">
+        <v>0.46722</v>
+      </c>
+      <c r="H11" t="n">
         <v>0.467173333333333</v>
       </c>
-      <c r="H11" t="n">
-        <v>0</v>
-      </c>
       <c r="I11" t="n">
         <v>0</v>
       </c>
-      <c r="J11" t="inlineStr"/>
+      <c r="J11" t="n">
+        <v>0</v>
+      </c>
       <c r="K11" t="inlineStr"/>
       <c r="L11" t="inlineStr"/>
-      <c r="M11" t="n">
+      <c r="M11" t="inlineStr"/>
+      <c r="N11" t="n">
         <v>1</v>
       </c>
     </row>
@@ -798,18 +833,21 @@
         <v>1101135.0603</v>
       </c>
       <c r="G12" t="n">
+        <v>0.4683933333333333</v>
+      </c>
+      <c r="H12" t="n">
         <v>0.4669549999999997</v>
       </c>
-      <c r="H12" t="n">
-        <v>0</v>
-      </c>
       <c r="I12" t="n">
         <v>0</v>
       </c>
-      <c r="J12" t="inlineStr"/>
+      <c r="J12" t="n">
+        <v>0</v>
+      </c>
       <c r="K12" t="inlineStr"/>
       <c r="L12" t="inlineStr"/>
-      <c r="M12" t="n">
+      <c r="M12" t="inlineStr"/>
+      <c r="N12" t="n">
         <v>1</v>
       </c>
     </row>
@@ -833,18 +871,21 @@
         <v>499393.1947</v>
       </c>
       <c r="G13" t="n">
+        <v>0.4686333333333332</v>
+      </c>
+      <c r="H13" t="n">
         <v>0.4668866666666664</v>
       </c>
-      <c r="H13" t="n">
-        <v>0</v>
-      </c>
       <c r="I13" t="n">
         <v>0</v>
       </c>
-      <c r="J13" t="inlineStr"/>
+      <c r="J13" t="n">
+        <v>0</v>
+      </c>
       <c r="K13" t="inlineStr"/>
       <c r="L13" t="inlineStr"/>
-      <c r="M13" t="n">
+      <c r="M13" t="inlineStr"/>
+      <c r="N13" t="n">
         <v>1</v>
       </c>
     </row>
@@ -868,18 +909,21 @@
         <v>78070</v>
       </c>
       <c r="G14" t="n">
+        <v>0.4695399999999999</v>
+      </c>
+      <c r="H14" t="n">
         <v>0.466978333333333</v>
       </c>
-      <c r="H14" t="n">
-        <v>0</v>
-      </c>
       <c r="I14" t="n">
         <v>0</v>
       </c>
-      <c r="J14" t="inlineStr"/>
+      <c r="J14" t="n">
+        <v>0</v>
+      </c>
       <c r="K14" t="inlineStr"/>
       <c r="L14" t="inlineStr"/>
-      <c r="M14" t="n">
+      <c r="M14" t="inlineStr"/>
+      <c r="N14" t="n">
         <v>1</v>
       </c>
     </row>
@@ -903,18 +947,21 @@
         <v>652808.8122</v>
       </c>
       <c r="G15" t="n">
+        <v>0.4702466666666665</v>
+      </c>
+      <c r="H15" t="n">
         <v>0.466938333333333</v>
       </c>
-      <c r="H15" t="n">
-        <v>0</v>
-      </c>
       <c r="I15" t="n">
         <v>0</v>
       </c>
-      <c r="J15" t="inlineStr"/>
+      <c r="J15" t="n">
+        <v>0</v>
+      </c>
       <c r="K15" t="inlineStr"/>
       <c r="L15" t="inlineStr"/>
-      <c r="M15" t="n">
+      <c r="M15" t="inlineStr"/>
+      <c r="N15" t="n">
         <v>1</v>
       </c>
     </row>
@@ -938,18 +985,21 @@
         <v>2876646.5391</v>
       </c>
       <c r="G16" t="n">
+        <v>0.4708933333333332</v>
+      </c>
+      <c r="H16" t="n">
         <v>0.4669516666666663</v>
       </c>
-      <c r="H16" t="n">
-        <v>0</v>
-      </c>
       <c r="I16" t="n">
         <v>0</v>
       </c>
-      <c r="J16" t="inlineStr"/>
+      <c r="J16" t="n">
+        <v>0</v>
+      </c>
       <c r="K16" t="inlineStr"/>
       <c r="L16" t="inlineStr"/>
-      <c r="M16" t="n">
+      <c r="M16" t="inlineStr"/>
+      <c r="N16" t="n">
         <v>1</v>
       </c>
     </row>
@@ -973,18 +1023,21 @@
         <v>2775753.5356</v>
       </c>
       <c r="G17" t="n">
+        <v>0.4709799999999999</v>
+      </c>
+      <c r="H17" t="n">
         <v>0.4669599999999996</v>
       </c>
-      <c r="H17" t="n">
-        <v>0</v>
-      </c>
       <c r="I17" t="n">
         <v>0</v>
       </c>
-      <c r="J17" t="inlineStr"/>
+      <c r="J17" t="n">
+        <v>0</v>
+      </c>
       <c r="K17" t="inlineStr"/>
       <c r="L17" t="inlineStr"/>
-      <c r="M17" t="n">
+      <c r="M17" t="inlineStr"/>
+      <c r="N17" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1008,18 +1061,21 @@
         <v>2086.4365</v>
       </c>
       <c r="G18" t="n">
+        <v>0.4714466666666665</v>
+      </c>
+      <c r="H18" t="n">
         <v>0.4669016666666663</v>
       </c>
-      <c r="H18" t="n">
-        <v>0</v>
-      </c>
       <c r="I18" t="n">
         <v>0</v>
       </c>
-      <c r="J18" t="inlineStr"/>
+      <c r="J18" t="n">
+        <v>0</v>
+      </c>
       <c r="K18" t="inlineStr"/>
       <c r="L18" t="inlineStr"/>
-      <c r="M18" t="n">
+      <c r="M18" t="inlineStr"/>
+      <c r="N18" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1043,18 +1099,21 @@
         <v>450744.511</v>
       </c>
       <c r="G19" t="n">
+        <v>0.4719066666666665</v>
+      </c>
+      <c r="H19" t="n">
         <v>0.4668699999999996</v>
       </c>
-      <c r="H19" t="n">
-        <v>0</v>
-      </c>
       <c r="I19" t="n">
         <v>0</v>
       </c>
-      <c r="J19" t="inlineStr"/>
+      <c r="J19" t="n">
+        <v>0</v>
+      </c>
       <c r="K19" t="inlineStr"/>
       <c r="L19" t="inlineStr"/>
-      <c r="M19" t="n">
+      <c r="M19" t="inlineStr"/>
+      <c r="N19" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1078,18 +1137,21 @@
         <v>130640.2151</v>
       </c>
       <c r="G20" t="n">
+        <v>0.4712733333333332</v>
+      </c>
+      <c r="H20" t="n">
         <v>0.4668049999999996</v>
       </c>
-      <c r="H20" t="n">
-        <v>0</v>
-      </c>
       <c r="I20" t="n">
         <v>0</v>
       </c>
-      <c r="J20" t="inlineStr"/>
+      <c r="J20" t="n">
+        <v>0</v>
+      </c>
       <c r="K20" t="inlineStr"/>
       <c r="L20" t="inlineStr"/>
-      <c r="M20" t="n">
+      <c r="M20" t="inlineStr"/>
+      <c r="N20" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1113,18 +1175,21 @@
         <v>1200</v>
       </c>
       <c r="G21" t="n">
+        <v>0.4716733333333332</v>
+      </c>
+      <c r="H21" t="n">
         <v>0.4666216666666663</v>
       </c>
-      <c r="H21" t="n">
-        <v>0</v>
-      </c>
       <c r="I21" t="n">
         <v>0</v>
       </c>
-      <c r="J21" t="inlineStr"/>
+      <c r="J21" t="n">
+        <v>0</v>
+      </c>
       <c r="K21" t="inlineStr"/>
       <c r="L21" t="inlineStr"/>
-      <c r="M21" t="n">
+      <c r="M21" t="inlineStr"/>
+      <c r="N21" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1148,18 +1213,21 @@
         <v>710123.8949</v>
       </c>
       <c r="G22" t="n">
+        <v>0.4710999999999999</v>
+      </c>
+      <c r="H22" t="n">
         <v>0.466588333333333</v>
       </c>
-      <c r="H22" t="n">
-        <v>0</v>
-      </c>
       <c r="I22" t="n">
         <v>0</v>
       </c>
-      <c r="J22" t="inlineStr"/>
+      <c r="J22" t="n">
+        <v>0</v>
+      </c>
       <c r="K22" t="inlineStr"/>
       <c r="L22" t="inlineStr"/>
-      <c r="M22" t="n">
+      <c r="M22" t="inlineStr"/>
+      <c r="N22" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1183,18 +1251,21 @@
         <v>3434647.75209661</v>
       </c>
       <c r="G23" t="n">
+        <v>0.4714999999999999</v>
+      </c>
+      <c r="H23" t="n">
         <v>0.4666299999999997</v>
       </c>
-      <c r="H23" t="n">
-        <v>0</v>
-      </c>
       <c r="I23" t="n">
         <v>0</v>
       </c>
-      <c r="J23" t="inlineStr"/>
+      <c r="J23" t="n">
+        <v>0</v>
+      </c>
       <c r="K23" t="inlineStr"/>
       <c r="L23" t="inlineStr"/>
-      <c r="M23" t="n">
+      <c r="M23" t="inlineStr"/>
+      <c r="N23" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1218,18 +1289,21 @@
         <v>302436.3795103797</v>
       </c>
       <c r="G24" t="n">
+        <v>0.4722333333333332</v>
+      </c>
+      <c r="H24" t="n">
         <v>0.466738333333333</v>
       </c>
-      <c r="H24" t="n">
-        <v>0</v>
-      </c>
       <c r="I24" t="n">
         <v>0</v>
       </c>
-      <c r="J24" t="inlineStr"/>
+      <c r="J24" t="n">
+        <v>0</v>
+      </c>
       <c r="K24" t="inlineStr"/>
       <c r="L24" t="inlineStr"/>
-      <c r="M24" t="n">
+      <c r="M24" t="inlineStr"/>
+      <c r="N24" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1253,18 +1327,21 @@
         <v>1085480.831816722</v>
       </c>
       <c r="G25" t="n">
+        <v>0.4729066666666665</v>
+      </c>
+      <c r="H25" t="n">
         <v>0.466833333333333</v>
       </c>
-      <c r="H25" t="n">
-        <v>0</v>
-      </c>
       <c r="I25" t="n">
         <v>0</v>
       </c>
-      <c r="J25" t="inlineStr"/>
+      <c r="J25" t="n">
+        <v>0</v>
+      </c>
       <c r="K25" t="inlineStr"/>
       <c r="L25" t="inlineStr"/>
-      <c r="M25" t="n">
+      <c r="M25" t="inlineStr"/>
+      <c r="N25" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1288,18 +1365,21 @@
         <v>662048.9974</v>
       </c>
       <c r="G26" t="n">
+        <v>0.4743999999999998</v>
+      </c>
+      <c r="H26" t="n">
         <v>0.4672133333333331</v>
       </c>
-      <c r="H26" t="n">
-        <v>0</v>
-      </c>
       <c r="I26" t="n">
         <v>0</v>
       </c>
-      <c r="J26" t="inlineStr"/>
+      <c r="J26" t="n">
+        <v>0</v>
+      </c>
       <c r="K26" t="inlineStr"/>
       <c r="L26" t="inlineStr"/>
-      <c r="M26" t="n">
+      <c r="M26" t="inlineStr"/>
+      <c r="N26" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1323,18 +1403,21 @@
         <v>929242.4508</v>
       </c>
       <c r="G27" t="n">
+        <v>0.4748266666666665</v>
+      </c>
+      <c r="H27" t="n">
         <v>0.4673066666666664</v>
       </c>
-      <c r="H27" t="n">
-        <v>0</v>
-      </c>
       <c r="I27" t="n">
         <v>0</v>
       </c>
-      <c r="J27" t="inlineStr"/>
+      <c r="J27" t="n">
+        <v>0</v>
+      </c>
       <c r="K27" t="inlineStr"/>
       <c r="L27" t="inlineStr"/>
-      <c r="M27" t="n">
+      <c r="M27" t="inlineStr"/>
+      <c r="N27" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1358,18 +1441,21 @@
         <v>1934783.2069</v>
       </c>
       <c r="G28" t="n">
+        <v>0.4752533333333331</v>
+      </c>
+      <c r="H28" t="n">
         <v>0.4673999999999998</v>
       </c>
-      <c r="H28" t="n">
-        <v>0</v>
-      </c>
       <c r="I28" t="n">
         <v>0</v>
       </c>
-      <c r="J28" t="inlineStr"/>
+      <c r="J28" t="n">
+        <v>0</v>
+      </c>
       <c r="K28" t="inlineStr"/>
       <c r="L28" t="inlineStr"/>
-      <c r="M28" t="n">
+      <c r="M28" t="inlineStr"/>
+      <c r="N28" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1393,18 +1479,21 @@
         <v>182253.75</v>
       </c>
       <c r="G29" t="n">
+        <v>0.4750133333333332</v>
+      </c>
+      <c r="H29" t="n">
         <v>0.4674933333333331</v>
       </c>
-      <c r="H29" t="n">
-        <v>0</v>
-      </c>
       <c r="I29" t="n">
         <v>0</v>
       </c>
-      <c r="J29" t="inlineStr"/>
+      <c r="J29" t="n">
+        <v>0</v>
+      </c>
       <c r="K29" t="inlineStr"/>
       <c r="L29" t="inlineStr"/>
-      <c r="M29" t="n">
+      <c r="M29" t="inlineStr"/>
+      <c r="N29" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1428,18 +1517,21 @@
         <v>18222.71282536696</v>
       </c>
       <c r="G30" t="n">
+        <v>0.4747733333333332</v>
+      </c>
+      <c r="H30" t="n">
         <v>0.4675999999999998</v>
       </c>
-      <c r="H30" t="n">
-        <v>0</v>
-      </c>
       <c r="I30" t="n">
         <v>0</v>
       </c>
-      <c r="J30" t="inlineStr"/>
+      <c r="J30" t="n">
+        <v>0</v>
+      </c>
       <c r="K30" t="inlineStr"/>
       <c r="L30" t="inlineStr"/>
-      <c r="M30" t="n">
+      <c r="M30" t="inlineStr"/>
+      <c r="N30" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1463,18 +1555,21 @@
         <v>3853.5088</v>
       </c>
       <c r="G31" t="n">
+        <v>0.4741133333333332</v>
+      </c>
+      <c r="H31" t="n">
         <v>0.4677049999999998</v>
       </c>
-      <c r="H31" t="n">
-        <v>0</v>
-      </c>
       <c r="I31" t="n">
         <v>0</v>
       </c>
-      <c r="J31" t="inlineStr"/>
+      <c r="J31" t="n">
+        <v>0</v>
+      </c>
       <c r="K31" t="inlineStr"/>
       <c r="L31" t="inlineStr"/>
-      <c r="M31" t="n">
+      <c r="M31" t="inlineStr"/>
+      <c r="N31" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1498,18 +1593,21 @@
         <v>6245077.4984</v>
       </c>
       <c r="G32" t="n">
+        <v>0.4733599999999998</v>
+      </c>
+      <c r="H32" t="n">
         <v>0.4678066666666664</v>
       </c>
-      <c r="H32" t="n">
-        <v>0</v>
-      </c>
       <c r="I32" t="n">
         <v>0</v>
       </c>
-      <c r="J32" t="inlineStr"/>
+      <c r="J32" t="n">
+        <v>0</v>
+      </c>
       <c r="K32" t="inlineStr"/>
       <c r="L32" t="inlineStr"/>
-      <c r="M32" t="n">
+      <c r="M32" t="inlineStr"/>
+      <c r="N32" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1533,18 +1631,21 @@
         <v>135558.2447</v>
       </c>
       <c r="G33" t="n">
+        <v>0.4728733333333331</v>
+      </c>
+      <c r="H33" t="n">
         <v>0.4679749999999998</v>
       </c>
-      <c r="H33" t="n">
-        <v>0</v>
-      </c>
       <c r="I33" t="n">
         <v>0</v>
       </c>
-      <c r="J33" t="inlineStr"/>
+      <c r="J33" t="n">
+        <v>0</v>
+      </c>
       <c r="K33" t="inlineStr"/>
       <c r="L33" t="inlineStr"/>
-      <c r="M33" t="n">
+      <c r="M33" t="inlineStr"/>
+      <c r="N33" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1568,18 +1669,21 @@
         <v>313920.3</v>
       </c>
       <c r="G34" t="n">
+        <v>0.4723933333333331</v>
+      </c>
+      <c r="H34" t="n">
         <v>0.4681433333333331</v>
       </c>
-      <c r="H34" t="n">
-        <v>0</v>
-      </c>
       <c r="I34" t="n">
         <v>0</v>
       </c>
-      <c r="J34" t="inlineStr"/>
+      <c r="J34" t="n">
+        <v>0</v>
+      </c>
       <c r="K34" t="inlineStr"/>
       <c r="L34" t="inlineStr"/>
-      <c r="M34" t="n">
+      <c r="M34" t="inlineStr"/>
+      <c r="N34" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1603,18 +1707,21 @@
         <v>3915.475450590429</v>
       </c>
       <c r="G35" t="n">
+        <v>0.4733666666666665</v>
+      </c>
+      <c r="H35" t="n">
         <v>0.4685599999999999</v>
       </c>
-      <c r="H35" t="n">
-        <v>0</v>
-      </c>
       <c r="I35" t="n">
         <v>0</v>
       </c>
-      <c r="J35" t="inlineStr"/>
+      <c r="J35" t="n">
+        <v>0</v>
+      </c>
       <c r="K35" t="inlineStr"/>
       <c r="L35" t="inlineStr"/>
-      <c r="M35" t="n">
+      <c r="M35" t="inlineStr"/>
+      <c r="N35" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1638,18 +1745,21 @@
         <v>21675.0096</v>
       </c>
       <c r="G36" t="n">
+        <v>0.4729466666666665</v>
+      </c>
+      <c r="H36" t="n">
         <v>0.4686083333333332</v>
       </c>
-      <c r="H36" t="n">
-        <v>0</v>
-      </c>
       <c r="I36" t="n">
         <v>0</v>
       </c>
-      <c r="J36" t="inlineStr"/>
+      <c r="J36" t="n">
+        <v>0</v>
+      </c>
       <c r="K36" t="inlineStr"/>
       <c r="L36" t="inlineStr"/>
-      <c r="M36" t="n">
+      <c r="M36" t="inlineStr"/>
+      <c r="N36" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1673,18 +1783,21 @@
         <v>1569086.9145</v>
       </c>
       <c r="G37" t="n">
+        <v>0.4728666666666665</v>
+      </c>
+      <c r="H37" t="n">
         <v>0.4686183333333332</v>
       </c>
-      <c r="H37" t="n">
-        <v>0</v>
-      </c>
       <c r="I37" t="n">
         <v>0</v>
       </c>
-      <c r="J37" t="inlineStr"/>
+      <c r="J37" t="n">
+        <v>0</v>
+      </c>
       <c r="K37" t="inlineStr"/>
       <c r="L37" t="inlineStr"/>
-      <c r="M37" t="n">
+      <c r="M37" t="inlineStr"/>
+      <c r="N37" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1708,18 +1821,21 @@
         <v>1135091.0977</v>
       </c>
       <c r="G38" t="n">
+        <v>0.4724533333333331</v>
+      </c>
+      <c r="H38" t="n">
         <v>0.4686283333333333</v>
       </c>
-      <c r="H38" t="n">
-        <v>0</v>
-      </c>
       <c r="I38" t="n">
         <v>0</v>
       </c>
-      <c r="J38" t="inlineStr"/>
+      <c r="J38" t="n">
+        <v>0</v>
+      </c>
       <c r="K38" t="inlineStr"/>
       <c r="L38" t="inlineStr"/>
-      <c r="M38" t="n">
+      <c r="M38" t="inlineStr"/>
+      <c r="N38" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1743,18 +1859,21 @@
         <v>4439501.8827</v>
       </c>
       <c r="G39" t="n">
+        <v>0.4708866666666665</v>
+      </c>
+      <c r="H39" t="n">
         <v>0.4683666666666666</v>
       </c>
-      <c r="H39" t="n">
-        <v>0</v>
-      </c>
       <c r="I39" t="n">
         <v>0</v>
       </c>
-      <c r="J39" t="inlineStr"/>
+      <c r="J39" t="n">
+        <v>0</v>
+      </c>
       <c r="K39" t="inlineStr"/>
       <c r="L39" t="inlineStr"/>
-      <c r="M39" t="n">
+      <c r="M39" t="inlineStr"/>
+      <c r="N39" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1778,18 +1897,21 @@
         <v>2260699.4931</v>
       </c>
       <c r="G40" t="n">
+        <v>0.4702733333333332</v>
+      </c>
+      <c r="H40" t="n">
         <v>0.4683283333333333</v>
       </c>
-      <c r="H40" t="n">
-        <v>0</v>
-      </c>
       <c r="I40" t="n">
         <v>0</v>
       </c>
-      <c r="J40" t="inlineStr"/>
+      <c r="J40" t="n">
+        <v>0</v>
+      </c>
       <c r="K40" t="inlineStr"/>
       <c r="L40" t="inlineStr"/>
-      <c r="M40" t="n">
+      <c r="M40" t="inlineStr"/>
+      <c r="N40" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1813,18 +1935,21 @@
         <v>5115236.3094</v>
       </c>
       <c r="G41" t="n">
+        <v>0.4698799999999999</v>
+      </c>
+      <c r="H41" t="n">
         <v>0.468525</v>
       </c>
-      <c r="H41" t="n">
-        <v>0</v>
-      </c>
       <c r="I41" t="n">
         <v>0</v>
       </c>
-      <c r="J41" t="inlineStr"/>
+      <c r="J41" t="n">
+        <v>0</v>
+      </c>
       <c r="K41" t="inlineStr"/>
       <c r="L41" t="inlineStr"/>
-      <c r="M41" t="n">
+      <c r="M41" t="inlineStr"/>
+      <c r="N41" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1848,18 +1973,21 @@
         <v>4255.3194</v>
       </c>
       <c r="G42" t="n">
+        <v>0.4690533333333332</v>
+      </c>
+      <c r="H42" t="n">
         <v>0.468235</v>
       </c>
-      <c r="H42" t="n">
-        <v>0</v>
-      </c>
       <c r="I42" t="n">
         <v>0</v>
       </c>
-      <c r="J42" t="inlineStr"/>
+      <c r="J42" t="n">
+        <v>0</v>
+      </c>
       <c r="K42" t="inlineStr"/>
       <c r="L42" t="inlineStr"/>
-      <c r="M42" t="n">
+      <c r="M42" t="inlineStr"/>
+      <c r="N42" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1883,18 +2011,21 @@
         <v>4529.1457</v>
       </c>
       <c r="G43" t="n">
+        <v>0.4684533333333331</v>
+      </c>
+      <c r="H43" t="n">
         <v>0.468185</v>
       </c>
-      <c r="H43" t="n">
-        <v>0</v>
-      </c>
       <c r="I43" t="n">
         <v>0</v>
       </c>
-      <c r="J43" t="inlineStr"/>
+      <c r="J43" t="n">
+        <v>0</v>
+      </c>
       <c r="K43" t="inlineStr"/>
       <c r="L43" t="inlineStr"/>
-      <c r="M43" t="n">
+      <c r="M43" t="inlineStr"/>
+      <c r="N43" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1918,18 +2049,21 @@
         <v>496703.0381</v>
       </c>
       <c r="G44" t="n">
+        <v>0.4678533333333331</v>
+      </c>
+      <c r="H44" t="n">
         <v>0.4681416666666667</v>
       </c>
-      <c r="H44" t="n">
-        <v>0</v>
-      </c>
       <c r="I44" t="n">
         <v>0</v>
       </c>
-      <c r="J44" t="inlineStr"/>
+      <c r="J44" t="n">
+        <v>0</v>
+      </c>
       <c r="K44" t="inlineStr"/>
       <c r="L44" t="inlineStr"/>
-      <c r="M44" t="n">
+      <c r="M44" t="inlineStr"/>
+      <c r="N44" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1953,18 +2087,21 @@
         <v>63953.9357</v>
       </c>
       <c r="G45" t="n">
+        <v>0.4669866666666664</v>
+      </c>
+      <c r="H45" t="n">
         <v>0.468155</v>
       </c>
-      <c r="H45" t="n">
-        <v>0</v>
-      </c>
       <c r="I45" t="n">
         <v>0</v>
       </c>
-      <c r="J45" t="inlineStr"/>
+      <c r="J45" t="n">
+        <v>0</v>
+      </c>
       <c r="K45" t="inlineStr"/>
       <c r="L45" t="inlineStr"/>
-      <c r="M45" t="n">
+      <c r="M45" t="inlineStr"/>
+      <c r="N45" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1988,18 +2125,21 @@
         <v>55385.4891</v>
       </c>
       <c r="G46" t="n">
+        <v>0.4665333333333332</v>
+      </c>
+      <c r="H46" t="n">
         <v>0.4680549999999999</v>
       </c>
-      <c r="H46" t="n">
-        <v>0</v>
-      </c>
       <c r="I46" t="n">
         <v>0</v>
       </c>
-      <c r="J46" t="inlineStr"/>
+      <c r="J46" t="n">
+        <v>0</v>
+      </c>
       <c r="K46" t="inlineStr"/>
       <c r="L46" t="inlineStr"/>
-      <c r="M46" t="n">
+      <c r="M46" t="inlineStr"/>
+      <c r="N46" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2023,18 +2163,21 @@
         <v>18450.5752</v>
       </c>
       <c r="G47" t="n">
+        <v>0.4660933333333332</v>
+      </c>
+      <c r="H47" t="n">
         <v>0.4680666666666666</v>
       </c>
-      <c r="H47" t="n">
-        <v>0</v>
-      </c>
       <c r="I47" t="n">
         <v>0</v>
       </c>
-      <c r="J47" t="inlineStr"/>
+      <c r="J47" t="n">
+        <v>0</v>
+      </c>
       <c r="K47" t="inlineStr"/>
       <c r="L47" t="inlineStr"/>
-      <c r="M47" t="n">
+      <c r="M47" t="inlineStr"/>
+      <c r="N47" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2058,18 +2201,21 @@
         <v>5000</v>
       </c>
       <c r="G48" t="n">
+        <v>0.4659799999999999</v>
+      </c>
+      <c r="H48" t="n">
         <v>0.4681633333333333</v>
       </c>
-      <c r="H48" t="n">
-        <v>0</v>
-      </c>
       <c r="I48" t="n">
         <v>0</v>
       </c>
-      <c r="J48" t="inlineStr"/>
+      <c r="J48" t="n">
+        <v>0</v>
+      </c>
       <c r="K48" t="inlineStr"/>
       <c r="L48" t="inlineStr"/>
-      <c r="M48" t="n">
+      <c r="M48" t="inlineStr"/>
+      <c r="N48" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2093,18 +2239,21 @@
         <v>68944.5684</v>
       </c>
       <c r="G49" t="n">
+        <v>0.4655333333333332</v>
+      </c>
+      <c r="H49" t="n">
         <v>0.4681766666666666</v>
       </c>
-      <c r="H49" t="n">
-        <v>0</v>
-      </c>
       <c r="I49" t="n">
         <v>0</v>
       </c>
-      <c r="J49" t="inlineStr"/>
+      <c r="J49" t="n">
+        <v>0</v>
+      </c>
       <c r="K49" t="inlineStr"/>
       <c r="L49" t="inlineStr"/>
-      <c r="M49" t="n">
+      <c r="M49" t="inlineStr"/>
+      <c r="N49" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2128,18 +2277,21 @@
         <v>1430</v>
       </c>
       <c r="G50" t="n">
+        <v>0.4640799999999999</v>
+      </c>
+      <c r="H50" t="n">
         <v>0.4680749999999999</v>
       </c>
-      <c r="H50" t="n">
-        <v>0</v>
-      </c>
       <c r="I50" t="n">
         <v>0</v>
       </c>
-      <c r="J50" t="inlineStr"/>
+      <c r="J50" t="n">
+        <v>0</v>
+      </c>
       <c r="K50" t="inlineStr"/>
       <c r="L50" t="inlineStr"/>
-      <c r="M50" t="n">
+      <c r="M50" t="inlineStr"/>
+      <c r="N50" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2163,18 +2315,21 @@
         <v>899879.8374</v>
       </c>
       <c r="G51" t="n">
+        <v>0.4636266666666665</v>
+      </c>
+      <c r="H51" t="n">
         <v>0.4680866666666665</v>
       </c>
-      <c r="H51" t="n">
-        <v>0</v>
-      </c>
       <c r="I51" t="n">
         <v>0</v>
       </c>
-      <c r="J51" t="inlineStr"/>
+      <c r="J51" t="n">
+        <v>0</v>
+      </c>
       <c r="K51" t="inlineStr"/>
       <c r="L51" t="inlineStr"/>
-      <c r="M51" t="n">
+      <c r="M51" t="inlineStr"/>
+      <c r="N51" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2198,18 +2353,21 @@
         <v>70029</v>
       </c>
       <c r="G52" t="n">
+        <v>0.4631666666666666</v>
+      </c>
+      <c r="H52" t="n">
         <v>0.4681833333333332</v>
       </c>
-      <c r="H52" t="n">
-        <v>0</v>
-      </c>
       <c r="I52" t="n">
         <v>0</v>
       </c>
-      <c r="J52" t="inlineStr"/>
+      <c r="J52" t="n">
+        <v>0</v>
+      </c>
       <c r="K52" t="inlineStr"/>
       <c r="L52" t="inlineStr"/>
-      <c r="M52" t="n">
+      <c r="M52" t="inlineStr"/>
+      <c r="N52" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2233,18 +2391,21 @@
         <v>1399375.5518</v>
       </c>
       <c r="G53" t="n">
+        <v>0.4619799999999999</v>
+      </c>
+      <c r="H53" t="n">
         <v>0.4680966666666665</v>
       </c>
-      <c r="H53" t="n">
-        <v>0</v>
-      </c>
       <c r="I53" t="n">
         <v>0</v>
       </c>
-      <c r="J53" t="inlineStr"/>
+      <c r="J53" t="n">
+        <v>0</v>
+      </c>
       <c r="K53" t="inlineStr"/>
       <c r="L53" t="inlineStr"/>
-      <c r="M53" t="n">
+      <c r="M53" t="inlineStr"/>
+      <c r="N53" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2268,18 +2429,21 @@
         <v>4703.1693</v>
       </c>
       <c r="G54" t="n">
+        <v>0.4626066666666666</v>
+      </c>
+      <c r="H54" t="n">
         <v>0.4680266666666665</v>
       </c>
-      <c r="H54" t="n">
-        <v>0</v>
-      </c>
       <c r="I54" t="n">
         <v>0</v>
       </c>
-      <c r="J54" t="inlineStr"/>
+      <c r="J54" t="n">
+        <v>0</v>
+      </c>
       <c r="K54" t="inlineStr"/>
       <c r="L54" t="inlineStr"/>
-      <c r="M54" t="n">
+      <c r="M54" t="inlineStr"/>
+      <c r="N54" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2303,18 +2467,21 @@
         <v>1852399.3605</v>
       </c>
       <c r="G55" t="n">
+        <v>0.4615333333333332</v>
+      </c>
+      <c r="H55" t="n">
         <v>0.4677549999999998</v>
       </c>
-      <c r="H55" t="n">
-        <v>0</v>
-      </c>
       <c r="I55" t="n">
         <v>0</v>
       </c>
-      <c r="J55" t="inlineStr"/>
+      <c r="J55" t="n">
+        <v>0</v>
+      </c>
       <c r="K55" t="inlineStr"/>
       <c r="L55" t="inlineStr"/>
-      <c r="M55" t="n">
+      <c r="M55" t="inlineStr"/>
+      <c r="N55" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2338,18 +2505,21 @@
         <v>40130.9257</v>
       </c>
       <c r="G56" t="n">
+        <v>0.4596666666666665</v>
+      </c>
+      <c r="H56" t="n">
         <v>0.4677916666666665</v>
       </c>
-      <c r="H56" t="n">
-        <v>0</v>
-      </c>
       <c r="I56" t="n">
         <v>0</v>
       </c>
-      <c r="J56" t="inlineStr"/>
+      <c r="J56" t="n">
+        <v>0</v>
+      </c>
       <c r="K56" t="inlineStr"/>
       <c r="L56" t="inlineStr"/>
-      <c r="M56" t="n">
+      <c r="M56" t="inlineStr"/>
+      <c r="N56" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2373,18 +2543,21 @@
         <v>79098.8094</v>
       </c>
       <c r="G57" t="n">
+        <v>0.4590266666666665</v>
+      </c>
+      <c r="H57" t="n">
         <v>0.4678249999999998</v>
       </c>
-      <c r="H57" t="n">
-        <v>0</v>
-      </c>
       <c r="I57" t="n">
         <v>0</v>
       </c>
-      <c r="J57" t="inlineStr"/>
+      <c r="J57" t="n">
+        <v>0</v>
+      </c>
       <c r="K57" t="inlineStr"/>
       <c r="L57" t="inlineStr"/>
-      <c r="M57" t="n">
+      <c r="M57" t="inlineStr"/>
+      <c r="N57" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2408,18 +2581,21 @@
         <v>4703.1693</v>
       </c>
       <c r="G58" t="n">
+        <v>0.4582266666666666</v>
+      </c>
+      <c r="H58" t="n">
         <v>0.4676416666666665</v>
       </c>
-      <c r="H58" t="n">
-        <v>0</v>
-      </c>
       <c r="I58" t="n">
         <v>0</v>
       </c>
-      <c r="J58" t="inlineStr"/>
+      <c r="J58" t="n">
+        <v>0</v>
+      </c>
       <c r="K58" t="inlineStr"/>
       <c r="L58" t="inlineStr"/>
-      <c r="M58" t="n">
+      <c r="M58" t="inlineStr"/>
+      <c r="N58" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2443,18 +2619,21 @@
         <v>1720.8495</v>
       </c>
       <c r="G59" t="n">
+        <v>0.4579999999999999</v>
+      </c>
+      <c r="H59" t="n">
         <v>0.4676016666666666</v>
       </c>
-      <c r="H59" t="n">
-        <v>0</v>
-      </c>
       <c r="I59" t="n">
         <v>0</v>
       </c>
-      <c r="J59" t="inlineStr"/>
+      <c r="J59" t="n">
+        <v>0</v>
+      </c>
       <c r="K59" t="inlineStr"/>
       <c r="L59" t="inlineStr"/>
-      <c r="M59" t="n">
+      <c r="M59" t="inlineStr"/>
+      <c r="N59" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2478,18 +2657,21 @@
         <v>1723.0784</v>
       </c>
       <c r="G60" t="n">
+        <v>0.4579999999999999</v>
+      </c>
+      <c r="H60" t="n">
         <v>0.4675016666666665</v>
       </c>
-      <c r="H60" t="n">
-        <v>0</v>
-      </c>
       <c r="I60" t="n">
         <v>0</v>
       </c>
-      <c r="J60" t="inlineStr"/>
+      <c r="J60" t="n">
+        <v>0</v>
+      </c>
       <c r="K60" t="inlineStr"/>
       <c r="L60" t="inlineStr"/>
-      <c r="M60" t="n">
+      <c r="M60" t="inlineStr"/>
+      <c r="N60" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2513,18 +2695,21 @@
         <v>3463267.8986</v>
       </c>
       <c r="G61" t="n">
+        <v>0.4583999999999999</v>
+      </c>
+      <c r="H61" t="n">
         <v>0.4674849999999999</v>
       </c>
-      <c r="H61" t="n">
-        <v>0</v>
-      </c>
       <c r="I61" t="n">
         <v>0</v>
       </c>
-      <c r="J61" t="inlineStr"/>
+      <c r="J61" t="n">
+        <v>0</v>
+      </c>
       <c r="K61" t="inlineStr"/>
       <c r="L61" t="inlineStr"/>
-      <c r="M61" t="n">
+      <c r="M61" t="inlineStr"/>
+      <c r="N61" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2548,18 +2733,21 @@
         <v>100000</v>
       </c>
       <c r="G62" t="n">
+        <v>0.4595999999999998</v>
+      </c>
+      <c r="H62" t="n">
         <v>0.4675083333333332</v>
       </c>
-      <c r="H62" t="n">
-        <v>0</v>
-      </c>
       <c r="I62" t="n">
         <v>0</v>
       </c>
-      <c r="J62" t="inlineStr"/>
+      <c r="J62" t="n">
+        <v>0</v>
+      </c>
       <c r="K62" t="inlineStr"/>
       <c r="L62" t="inlineStr"/>
-      <c r="M62" t="n">
+      <c r="M62" t="inlineStr"/>
+      <c r="N62" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2583,18 +2771,21 @@
         <v>2400</v>
       </c>
       <c r="G63" t="n">
+        <v>0.4591199999999998</v>
+      </c>
+      <c r="H63" t="n">
         <v>0.4673549999999999</v>
       </c>
-      <c r="H63" t="n">
-        <v>0</v>
-      </c>
       <c r="I63" t="n">
         <v>0</v>
       </c>
-      <c r="J63" t="inlineStr"/>
+      <c r="J63" t="n">
+        <v>0</v>
+      </c>
       <c r="K63" t="inlineStr"/>
       <c r="L63" t="inlineStr"/>
-      <c r="M63" t="n">
+      <c r="M63" t="inlineStr"/>
+      <c r="N63" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2618,18 +2809,21 @@
         <v>1168701.4655</v>
       </c>
       <c r="G64" t="n">
+        <v>0.4589733333333331</v>
+      </c>
+      <c r="H64" t="n">
         <v>0.4672016666666666</v>
       </c>
-      <c r="H64" t="n">
-        <v>0</v>
-      </c>
       <c r="I64" t="n">
         <v>0</v>
       </c>
-      <c r="J64" t="inlineStr"/>
+      <c r="J64" t="n">
+        <v>0</v>
+      </c>
       <c r="K64" t="inlineStr"/>
       <c r="L64" t="inlineStr"/>
-      <c r="M64" t="n">
+      <c r="M64" t="inlineStr"/>
+      <c r="N64" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2653,18 +2847,21 @@
         <v>1607624.73</v>
       </c>
       <c r="G65" t="n">
+        <v>0.4588333333333331</v>
+      </c>
+      <c r="H65" t="n">
         <v>0.4668883333333332</v>
       </c>
-      <c r="H65" t="n">
-        <v>0</v>
-      </c>
       <c r="I65" t="n">
         <v>0</v>
       </c>
-      <c r="J65" t="inlineStr"/>
+      <c r="J65" t="n">
+        <v>0</v>
+      </c>
       <c r="K65" t="inlineStr"/>
       <c r="L65" t="inlineStr"/>
-      <c r="M65" t="n">
+      <c r="M65" t="inlineStr"/>
+      <c r="N65" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2688,18 +2885,21 @@
         <v>3000</v>
       </c>
       <c r="G66" t="n">
+        <v>0.4580333333333332</v>
+      </c>
+      <c r="H66" t="n">
         <v>0.4665699999999999</v>
       </c>
-      <c r="H66" t="n">
-        <v>0</v>
-      </c>
       <c r="I66" t="n">
         <v>0</v>
       </c>
-      <c r="J66" t="inlineStr"/>
+      <c r="J66" t="n">
+        <v>0</v>
+      </c>
       <c r="K66" t="inlineStr"/>
       <c r="L66" t="inlineStr"/>
-      <c r="M66" t="n">
+      <c r="M66" t="inlineStr"/>
+      <c r="N66" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2723,18 +2923,21 @@
         <v>1100</v>
       </c>
       <c r="G67" t="n">
+        <v>0.4579733333333332</v>
+      </c>
+      <c r="H67" t="n">
         <v>0.4662766666666666</v>
       </c>
-      <c r="H67" t="n">
-        <v>0</v>
-      </c>
       <c r="I67" t="n">
         <v>0</v>
       </c>
-      <c r="J67" t="inlineStr"/>
+      <c r="J67" t="n">
+        <v>0</v>
+      </c>
       <c r="K67" t="inlineStr"/>
       <c r="L67" t="inlineStr"/>
-      <c r="M67" t="n">
+      <c r="M67" t="inlineStr"/>
+      <c r="N67" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2758,18 +2961,21 @@
         <v>1100</v>
       </c>
       <c r="G68" t="n">
+        <v>0.4589066666666666</v>
+      </c>
+      <c r="H68" t="n">
         <v>0.4662099999999999</v>
       </c>
-      <c r="H68" t="n">
-        <v>0</v>
-      </c>
       <c r="I68" t="n">
         <v>0</v>
       </c>
-      <c r="J68" t="inlineStr"/>
+      <c r="J68" t="n">
+        <v>0</v>
+      </c>
       <c r="K68" t="inlineStr"/>
       <c r="L68" t="inlineStr"/>
-      <c r="M68" t="n">
+      <c r="M68" t="inlineStr"/>
+      <c r="N68" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2793,18 +2999,21 @@
         <v>1100</v>
       </c>
       <c r="G69" t="n">
+        <v>0.4591133333333333</v>
+      </c>
+      <c r="H69" t="n">
         <v>0.4662099999999999</v>
       </c>
-      <c r="H69" t="n">
-        <v>0</v>
-      </c>
       <c r="I69" t="n">
         <v>0</v>
       </c>
-      <c r="J69" t="inlineStr"/>
+      <c r="J69" t="n">
+        <v>0</v>
+      </c>
       <c r="K69" t="inlineStr"/>
       <c r="L69" t="inlineStr"/>
-      <c r="M69" t="n">
+      <c r="M69" t="inlineStr"/>
+      <c r="N69" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2828,18 +3037,21 @@
         <v>185600</v>
       </c>
       <c r="G70" t="n">
+        <v>0.4601266666666666</v>
+      </c>
+      <c r="H70" t="n">
         <v>0.4662099999999999</v>
       </c>
-      <c r="H70" t="n">
-        <v>0</v>
-      </c>
       <c r="I70" t="n">
         <v>0</v>
       </c>
-      <c r="J70" t="inlineStr"/>
+      <c r="J70" t="n">
+        <v>0</v>
+      </c>
       <c r="K70" t="inlineStr"/>
       <c r="L70" t="inlineStr"/>
-      <c r="M70" t="n">
+      <c r="M70" t="inlineStr"/>
+      <c r="N70" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2863,18 +3075,21 @@
         <v>272350</v>
       </c>
       <c r="G71" t="n">
+        <v>0.4606533333333333</v>
+      </c>
+      <c r="H71" t="n">
         <v>0.4661499999999999</v>
       </c>
-      <c r="H71" t="n">
-        <v>0</v>
-      </c>
       <c r="I71" t="n">
         <v>0</v>
       </c>
-      <c r="J71" t="inlineStr"/>
+      <c r="J71" t="n">
+        <v>0</v>
+      </c>
       <c r="K71" t="inlineStr"/>
       <c r="L71" t="inlineStr"/>
-      <c r="M71" t="n">
+      <c r="M71" t="inlineStr"/>
+      <c r="N71" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2898,18 +3113,21 @@
         <v>2168211.1987</v>
       </c>
       <c r="G72" t="n">
+        <v>0.46138</v>
+      </c>
+      <c r="H72" t="n">
         <v>0.4660716666666666</v>
       </c>
-      <c r="H72" t="n">
-        <v>0</v>
-      </c>
       <c r="I72" t="n">
         <v>0</v>
       </c>
-      <c r="J72" t="inlineStr"/>
+      <c r="J72" t="n">
+        <v>0</v>
+      </c>
       <c r="K72" t="inlineStr"/>
       <c r="L72" t="inlineStr"/>
-      <c r="M72" t="n">
+      <c r="M72" t="inlineStr"/>
+      <c r="N72" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2933,18 +3151,21 @@
         <v>3708200.1831</v>
       </c>
       <c r="G73" t="n">
+        <v>0.4620533333333333</v>
+      </c>
+      <c r="H73" t="n">
         <v>0.4659966666666666</v>
       </c>
-      <c r="H73" t="n">
-        <v>0</v>
-      </c>
       <c r="I73" t="n">
         <v>0</v>
       </c>
-      <c r="J73" t="inlineStr"/>
+      <c r="J73" t="n">
+        <v>0</v>
+      </c>
       <c r="K73" t="inlineStr"/>
       <c r="L73" t="inlineStr"/>
-      <c r="M73" t="n">
+      <c r="M73" t="inlineStr"/>
+      <c r="N73" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2968,18 +3189,21 @@
         <v>342533.5615</v>
       </c>
       <c r="G74" t="n">
+        <v>0.46248</v>
+      </c>
+      <c r="H74" t="n">
         <v>0.4658366666666666</v>
       </c>
-      <c r="H74" t="n">
-        <v>0</v>
-      </c>
       <c r="I74" t="n">
         <v>0</v>
       </c>
-      <c r="J74" t="inlineStr"/>
+      <c r="J74" t="n">
+        <v>0</v>
+      </c>
       <c r="K74" t="inlineStr"/>
       <c r="L74" t="inlineStr"/>
-      <c r="M74" t="n">
+      <c r="M74" t="inlineStr"/>
+      <c r="N74" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3003,18 +3227,21 @@
         <v>115915.2786</v>
       </c>
       <c r="G75" t="n">
+        <v>0.4628133333333333</v>
+      </c>
+      <c r="H75" t="n">
         <v>0.4656433333333333</v>
       </c>
-      <c r="H75" t="n">
-        <v>0</v>
-      </c>
       <c r="I75" t="n">
         <v>0</v>
       </c>
-      <c r="J75" t="inlineStr"/>
+      <c r="J75" t="n">
+        <v>0</v>
+      </c>
       <c r="K75" t="inlineStr"/>
       <c r="L75" t="inlineStr"/>
-      <c r="M75" t="n">
+      <c r="M75" t="inlineStr"/>
+      <c r="N75" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3038,18 +3265,21 @@
         <v>1031968.439902033</v>
       </c>
       <c r="G76" t="n">
+        <v>0.4631533333333334</v>
+      </c>
+      <c r="H76" t="n">
         <v>0.46555</v>
       </c>
-      <c r="H76" t="n">
-        <v>0</v>
-      </c>
       <c r="I76" t="n">
         <v>0</v>
       </c>
-      <c r="J76" t="inlineStr"/>
+      <c r="J76" t="n">
+        <v>0</v>
+      </c>
       <c r="K76" t="inlineStr"/>
       <c r="L76" t="inlineStr"/>
-      <c r="M76" t="n">
+      <c r="M76" t="inlineStr"/>
+      <c r="N76" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3073,18 +3303,21 @@
         <v>2848565.6224</v>
       </c>
       <c r="G77" t="n">
+        <v>0.4621533333333334</v>
+      </c>
+      <c r="H77" t="n">
         <v>0.4653016666666667</v>
       </c>
-      <c r="H77" t="n">
-        <v>0</v>
-      </c>
       <c r="I77" t="n">
         <v>0</v>
       </c>
-      <c r="J77" t="inlineStr"/>
+      <c r="J77" t="n">
+        <v>0</v>
+      </c>
       <c r="K77" t="inlineStr"/>
       <c r="L77" t="inlineStr"/>
-      <c r="M77" t="n">
+      <c r="M77" t="inlineStr"/>
+      <c r="N77" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3108,18 +3341,21 @@
         <v>267046.8731</v>
       </c>
       <c r="G78" t="n">
+        <v>0.46244</v>
+      </c>
+      <c r="H78" t="n">
         <v>0.4651033333333333</v>
       </c>
-      <c r="H78" t="n">
-        <v>0</v>
-      </c>
       <c r="I78" t="n">
         <v>0</v>
       </c>
-      <c r="J78" t="inlineStr"/>
+      <c r="J78" t="n">
+        <v>0</v>
+      </c>
       <c r="K78" t="inlineStr"/>
       <c r="L78" t="inlineStr"/>
-      <c r="M78" t="n">
+      <c r="M78" t="inlineStr"/>
+      <c r="N78" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3143,18 +3379,21 @@
         <v>861773.3903</v>
       </c>
       <c r="G79" t="n">
+        <v>0.4627333333333333</v>
+      </c>
+      <c r="H79" t="n">
         <v>0.4649083333333333</v>
       </c>
-      <c r="H79" t="n">
-        <v>0</v>
-      </c>
       <c r="I79" t="n">
         <v>0</v>
       </c>
-      <c r="J79" t="inlineStr"/>
+      <c r="J79" t="n">
+        <v>0</v>
+      </c>
       <c r="K79" t="inlineStr"/>
       <c r="L79" t="inlineStr"/>
-      <c r="M79" t="n">
+      <c r="M79" t="inlineStr"/>
+      <c r="N79" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3178,18 +3417,21 @@
         <v>175591.8744</v>
       </c>
       <c r="G80" t="n">
+        <v>0.4630266666666666</v>
+      </c>
+      <c r="H80" t="n">
         <v>0.4648266666666666</v>
       </c>
-      <c r="H80" t="n">
-        <v>0</v>
-      </c>
       <c r="I80" t="n">
         <v>0</v>
       </c>
-      <c r="J80" t="inlineStr"/>
+      <c r="J80" t="n">
+        <v>0</v>
+      </c>
       <c r="K80" t="inlineStr"/>
       <c r="L80" t="inlineStr"/>
-      <c r="M80" t="n">
+      <c r="M80" t="inlineStr"/>
+      <c r="N80" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3213,18 +3455,21 @@
         <v>2356039.2927</v>
       </c>
       <c r="G81" t="n">
+        <v>0.4639666666666666</v>
+      </c>
+      <c r="H81" t="n">
         <v>0.4646433333333333</v>
       </c>
-      <c r="H81" t="n">
-        <v>0</v>
-      </c>
       <c r="I81" t="n">
         <v>0</v>
       </c>
-      <c r="J81" t="inlineStr"/>
+      <c r="J81" t="n">
+        <v>0</v>
+      </c>
       <c r="K81" t="inlineStr"/>
       <c r="L81" t="inlineStr"/>
-      <c r="M81" t="n">
+      <c r="M81" t="inlineStr"/>
+      <c r="N81" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3248,18 +3493,21 @@
         <v>514707.8662</v>
       </c>
       <c r="G82" t="n">
+        <v>0.4633133333333333</v>
+      </c>
+      <c r="H82" t="n">
         <v>0.46433</v>
       </c>
-      <c r="H82" t="n">
-        <v>0</v>
-      </c>
       <c r="I82" t="n">
         <v>0</v>
       </c>
-      <c r="J82" t="inlineStr"/>
+      <c r="J82" t="n">
+        <v>0</v>
+      </c>
       <c r="K82" t="inlineStr"/>
       <c r="L82" t="inlineStr"/>
-      <c r="M82" t="n">
+      <c r="M82" t="inlineStr"/>
+      <c r="N82" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3283,18 +3531,21 @@
         <v>3479.9137</v>
       </c>
       <c r="G83" t="n">
+        <v>0.4632466666666666</v>
+      </c>
+      <c r="H83" t="n">
         <v>0.4641466666666666</v>
       </c>
-      <c r="H83" t="n">
-        <v>0</v>
-      </c>
       <c r="I83" t="n">
         <v>0</v>
       </c>
-      <c r="J83" t="inlineStr"/>
+      <c r="J83" t="n">
+        <v>0</v>
+      </c>
       <c r="K83" t="inlineStr"/>
       <c r="L83" t="inlineStr"/>
-      <c r="M83" t="n">
+      <c r="M83" t="inlineStr"/>
+      <c r="N83" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3318,18 +3569,21 @@
         <v>1173.4586</v>
       </c>
       <c r="G84" t="n">
+        <v>0.4635599999999999</v>
+      </c>
+      <c r="H84" t="n">
         <v>0.4640416666666666</v>
       </c>
-      <c r="H84" t="n">
-        <v>0</v>
-      </c>
       <c r="I84" t="n">
         <v>0</v>
       </c>
-      <c r="J84" t="inlineStr"/>
+      <c r="J84" t="n">
+        <v>0</v>
+      </c>
       <c r="K84" t="inlineStr"/>
       <c r="L84" t="inlineStr"/>
-      <c r="M84" t="n">
+      <c r="M84" t="inlineStr"/>
+      <c r="N84" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3353,18 +3607,21 @@
         <v>27000</v>
       </c>
       <c r="G85" t="n">
+        <v>0.4627266666666666</v>
+      </c>
+      <c r="H85" t="n">
         <v>0.4636649999999999</v>
       </c>
-      <c r="H85" t="n">
-        <v>0</v>
-      </c>
       <c r="I85" t="n">
         <v>0</v>
       </c>
-      <c r="J85" t="inlineStr"/>
+      <c r="J85" t="n">
+        <v>0</v>
+      </c>
       <c r="K85" t="inlineStr"/>
       <c r="L85" t="inlineStr"/>
-      <c r="M85" t="n">
+      <c r="M85" t="inlineStr"/>
+      <c r="N85" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3388,18 +3645,21 @@
         <v>1050</v>
       </c>
       <c r="G86" t="n">
+        <v>0.4633733333333332</v>
+      </c>
+      <c r="H86" t="n">
         <v>0.4633933333333332</v>
       </c>
-      <c r="H86" t="n">
-        <v>0</v>
-      </c>
       <c r="I86" t="n">
         <v>0</v>
       </c>
-      <c r="J86" t="inlineStr"/>
+      <c r="J86" t="n">
+        <v>0</v>
+      </c>
       <c r="K86" t="inlineStr"/>
       <c r="L86" t="inlineStr"/>
-      <c r="M86" t="n">
+      <c r="M86" t="inlineStr"/>
+      <c r="N86" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3423,18 +3683,21 @@
         <v>126050</v>
       </c>
       <c r="G87" t="n">
+        <v>0.4630799999999999</v>
+      </c>
+      <c r="H87" t="n">
         <v>0.4631349999999999</v>
       </c>
-      <c r="H87" t="n">
-        <v>0</v>
-      </c>
       <c r="I87" t="n">
         <v>0</v>
       </c>
-      <c r="J87" t="inlineStr"/>
+      <c r="J87" t="n">
+        <v>0</v>
+      </c>
       <c r="K87" t="inlineStr"/>
       <c r="L87" t="inlineStr"/>
-      <c r="M87" t="n">
+      <c r="M87" t="inlineStr"/>
+      <c r="N87" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3458,18 +3721,21 @@
         <v>2476.41408751334</v>
       </c>
       <c r="G88" t="n">
+        <v>0.4634399999999999</v>
+      </c>
+      <c r="H88" t="n">
         <v>0.4630433333333332</v>
       </c>
-      <c r="H88" t="n">
-        <v>0</v>
-      </c>
       <c r="I88" t="n">
         <v>0</v>
       </c>
-      <c r="J88" t="inlineStr"/>
+      <c r="J88" t="n">
+        <v>0</v>
+      </c>
       <c r="K88" t="inlineStr"/>
       <c r="L88" t="inlineStr"/>
-      <c r="M88" t="n">
+      <c r="M88" t="inlineStr"/>
+      <c r="N88" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3493,18 +3759,21 @@
         <v>1922943.6894</v>
       </c>
       <c r="G89" t="n">
+        <v>0.4623399999999999</v>
+      </c>
+      <c r="H89" t="n">
         <v>0.4626683333333332</v>
       </c>
-      <c r="H89" t="n">
-        <v>0</v>
-      </c>
       <c r="I89" t="n">
         <v>0</v>
       </c>
-      <c r="J89" t="inlineStr"/>
+      <c r="J89" t="n">
+        <v>0</v>
+      </c>
       <c r="K89" t="inlineStr"/>
       <c r="L89" t="inlineStr"/>
-      <c r="M89" t="n">
+      <c r="M89" t="inlineStr"/>
+      <c r="N89" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3528,18 +3797,21 @@
         <v>1351489.3889</v>
       </c>
       <c r="G90" t="n">
+        <v>0.4618399999999999</v>
+      </c>
+      <c r="H90" t="n">
         <v>0.4624099999999999</v>
       </c>
-      <c r="H90" t="n">
-        <v>0</v>
-      </c>
       <c r="I90" t="n">
         <v>0</v>
       </c>
-      <c r="J90" t="inlineStr"/>
+      <c r="J90" t="n">
+        <v>0</v>
+      </c>
       <c r="K90" t="inlineStr"/>
       <c r="L90" t="inlineStr"/>
-      <c r="M90" t="n">
+      <c r="M90" t="inlineStr"/>
+      <c r="N90" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3563,18 +3835,21 @@
         <v>125170</v>
       </c>
       <c r="G91" t="n">
+        <v>0.4608066666666665</v>
+      </c>
+      <c r="H91" t="n">
         <v>0.4622233333333332</v>
       </c>
-      <c r="H91" t="n">
-        <v>0</v>
-      </c>
       <c r="I91" t="n">
         <v>0</v>
       </c>
-      <c r="J91" t="inlineStr"/>
+      <c r="J91" t="n">
+        <v>0</v>
+      </c>
       <c r="K91" t="inlineStr"/>
       <c r="L91" t="inlineStr"/>
-      <c r="M91" t="n">
+      <c r="M91" t="inlineStr"/>
+      <c r="N91" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3598,18 +3873,21 @@
         <v>7181054.3503</v>
       </c>
       <c r="G92" t="n">
+        <v>0.4595466666666665</v>
+      </c>
+      <c r="H92" t="n">
         <v>0.4618483333333332</v>
       </c>
-      <c r="H92" t="n">
-        <v>0</v>
-      </c>
       <c r="I92" t="n">
         <v>0</v>
       </c>
-      <c r="J92" t="inlineStr"/>
+      <c r="J92" t="n">
+        <v>0</v>
+      </c>
       <c r="K92" t="inlineStr"/>
       <c r="L92" t="inlineStr"/>
-      <c r="M92" t="n">
+      <c r="M92" t="inlineStr"/>
+      <c r="N92" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3633,18 +3911,21 @@
         <v>1554349.6108</v>
       </c>
       <c r="G93" t="n">
+        <v>0.4591066666666665</v>
+      </c>
+      <c r="H93" t="n">
         <v>0.4616616666666665</v>
       </c>
-      <c r="H93" t="n">
-        <v>0</v>
-      </c>
       <c r="I93" t="n">
         <v>0</v>
       </c>
-      <c r="J93" t="inlineStr"/>
+      <c r="J93" t="n">
+        <v>0</v>
+      </c>
       <c r="K93" t="inlineStr"/>
       <c r="L93" t="inlineStr"/>
-      <c r="M93" t="n">
+      <c r="M93" t="inlineStr"/>
+      <c r="N93" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3668,18 +3949,21 @@
         <v>581050</v>
       </c>
       <c r="G94" t="n">
+        <v>0.4586599999999999</v>
+      </c>
+      <c r="H94" t="n">
         <v>0.4614749999999998</v>
       </c>
-      <c r="H94" t="n">
-        <v>0</v>
-      </c>
       <c r="I94" t="n">
         <v>0</v>
       </c>
-      <c r="J94" t="inlineStr"/>
+      <c r="J94" t="n">
+        <v>0</v>
+      </c>
       <c r="K94" t="inlineStr"/>
       <c r="L94" t="inlineStr"/>
-      <c r="M94" t="n">
+      <c r="M94" t="inlineStr"/>
+      <c r="N94" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3703,18 +3987,21 @@
         <v>658006</v>
       </c>
       <c r="G95" t="n">
+        <v>0.4581933333333332</v>
+      </c>
+      <c r="H95" t="n">
         <v>0.4610333333333331</v>
       </c>
-      <c r="H95" t="n">
-        <v>0</v>
-      </c>
       <c r="I95" t="n">
         <v>0</v>
       </c>
-      <c r="J95" t="inlineStr"/>
+      <c r="J95" t="n">
+        <v>0</v>
+      </c>
       <c r="K95" t="inlineStr"/>
       <c r="L95" t="inlineStr"/>
-      <c r="M95" t="n">
+      <c r="M95" t="inlineStr"/>
+      <c r="N95" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3738,18 +4025,21 @@
         <v>116570</v>
       </c>
       <c r="G96" t="n">
+        <v>0.4577266666666666</v>
+      </c>
+      <c r="H96" t="n">
         <v>0.4608383333333331</v>
       </c>
-      <c r="H96" t="n">
-        <v>0</v>
-      </c>
       <c r="I96" t="n">
         <v>0</v>
       </c>
-      <c r="J96" t="inlineStr"/>
+      <c r="J96" t="n">
+        <v>0</v>
+      </c>
       <c r="K96" t="inlineStr"/>
       <c r="L96" t="inlineStr"/>
-      <c r="M96" t="n">
+      <c r="M96" t="inlineStr"/>
+      <c r="N96" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3773,18 +4063,21 @@
         <v>509696.9216948408</v>
       </c>
       <c r="G97" t="n">
+        <v>0.4580799999999999</v>
+      </c>
+      <c r="H97" t="n">
         <v>0.4606333333333331</v>
       </c>
-      <c r="H97" t="n">
-        <v>0</v>
-      </c>
       <c r="I97" t="n">
         <v>0</v>
       </c>
-      <c r="J97" t="inlineStr"/>
+      <c r="J97" t="n">
+        <v>0</v>
+      </c>
       <c r="K97" t="inlineStr"/>
       <c r="L97" t="inlineStr"/>
-      <c r="M97" t="n">
+      <c r="M97" t="inlineStr"/>
+      <c r="N97" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3808,18 +4101,21 @@
         <v>645661.0977</v>
       </c>
       <c r="G98" t="n">
+        <v>0.4575799999999999</v>
+      </c>
+      <c r="H98" t="n">
         <v>0.4604283333333331</v>
       </c>
-      <c r="H98" t="n">
-        <v>0</v>
-      </c>
       <c r="I98" t="n">
         <v>0</v>
       </c>
-      <c r="J98" t="inlineStr"/>
+      <c r="J98" t="n">
+        <v>0</v>
+      </c>
       <c r="K98" t="inlineStr"/>
       <c r="L98" t="inlineStr"/>
-      <c r="M98" t="n">
+      <c r="M98" t="inlineStr"/>
+      <c r="N98" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3843,18 +4139,27 @@
         <v>70100</v>
       </c>
       <c r="G99" t="n">
+        <v>0.4561066666666666</v>
+      </c>
+      <c r="H99" t="n">
         <v>0.4603466666666664</v>
       </c>
-      <c r="H99" t="n">
-        <v>0</v>
-      </c>
       <c r="I99" t="n">
-        <v>0</v>
-      </c>
-      <c r="J99" t="inlineStr"/>
-      <c r="K99" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="J99" t="n">
+        <v>0</v>
+      </c>
+      <c r="K99" t="n">
+        <v>0.4555</v>
+      </c>
       <c r="L99" t="inlineStr"/>
-      <c r="M99" t="n">
+      <c r="M99" t="inlineStr">
+        <is>
+          <t>매수 체결</t>
+        </is>
+      </c>
+      <c r="N99" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3878,18 +4183,25 @@
         <v>133343.8408</v>
       </c>
       <c r="G100" t="n">
+        <v>0.4557799999999999</v>
+      </c>
+      <c r="H100" t="n">
         <v>0.4600416666666664</v>
       </c>
-      <c r="H100" t="n">
-        <v>0</v>
-      </c>
       <c r="I100" t="n">
         <v>0</v>
       </c>
-      <c r="J100" t="inlineStr"/>
+      <c r="J100" t="n">
+        <v>0</v>
+      </c>
       <c r="K100" t="inlineStr"/>
       <c r="L100" t="inlineStr"/>
-      <c r="M100" t="n">
+      <c r="M100" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N100" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3913,18 +4225,27 @@
         <v>255610</v>
       </c>
       <c r="G101" t="n">
+        <v>0.4543133333333332</v>
+      </c>
+      <c r="H101" t="n">
         <v>0.4595016666666664</v>
       </c>
-      <c r="H101" t="n">
-        <v>0</v>
-      </c>
       <c r="I101" t="n">
-        <v>0</v>
-      </c>
-      <c r="J101" t="inlineStr"/>
-      <c r="K101" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="J101" t="n">
+        <v>0</v>
+      </c>
+      <c r="K101" t="n">
+        <v>0.4466</v>
+      </c>
       <c r="L101" t="inlineStr"/>
-      <c r="M101" t="n">
+      <c r="M101" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N101" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3948,18 +4269,25 @@
         <v>73068</v>
       </c>
       <c r="G102" t="n">
+        <v>0.4535199999999999</v>
+      </c>
+      <c r="H102" t="n">
         <v>0.4592516666666664</v>
       </c>
-      <c r="H102" t="n">
-        <v>0</v>
-      </c>
       <c r="I102" t="n">
         <v>0</v>
       </c>
-      <c r="J102" t="inlineStr"/>
+      <c r="J102" t="n">
+        <v>0</v>
+      </c>
       <c r="K102" t="inlineStr"/>
       <c r="L102" t="inlineStr"/>
-      <c r="M102" t="n">
+      <c r="M102" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N102" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3983,18 +4311,27 @@
         <v>2309458.3084</v>
       </c>
       <c r="G103" t="n">
+        <v>0.4520533333333333</v>
+      </c>
+      <c r="H103" t="n">
         <v>0.4589433333333331</v>
       </c>
-      <c r="H103" t="n">
-        <v>0</v>
-      </c>
       <c r="I103" t="n">
-        <v>0</v>
-      </c>
-      <c r="J103" t="inlineStr"/>
-      <c r="K103" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="J103" t="n">
+        <v>0</v>
+      </c>
+      <c r="K103" t="n">
+        <v>0.4466</v>
+      </c>
       <c r="L103" t="inlineStr"/>
-      <c r="M103" t="n">
+      <c r="M103" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N103" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4018,18 +4355,27 @@
         <v>13690.9904</v>
       </c>
       <c r="G104" t="n">
+        <v>0.45172</v>
+      </c>
+      <c r="H104" t="n">
         <v>0.4586349999999998</v>
       </c>
-      <c r="H104" t="n">
-        <v>0</v>
-      </c>
       <c r="I104" t="n">
-        <v>0</v>
-      </c>
-      <c r="J104" t="inlineStr"/>
-      <c r="K104" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="J104" t="n">
+        <v>0</v>
+      </c>
+      <c r="K104" t="n">
+        <v>0.4465</v>
+      </c>
       <c r="L104" t="inlineStr"/>
-      <c r="M104" t="n">
+      <c r="M104" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N104" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4053,18 +4399,27 @@
         <v>125580</v>
       </c>
       <c r="G105" t="n">
+        <v>0.4515133333333333</v>
+      </c>
+      <c r="H105" t="n">
         <v>0.4585416666666665</v>
       </c>
-      <c r="H105" t="n">
-        <v>0</v>
-      </c>
       <c r="I105" t="n">
-        <v>0</v>
-      </c>
-      <c r="J105" t="inlineStr"/>
-      <c r="K105" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="J105" t="n">
+        <v>0</v>
+      </c>
+      <c r="K105" t="n">
+        <v>0.4465</v>
+      </c>
       <c r="L105" t="inlineStr"/>
-      <c r="M105" t="n">
+      <c r="M105" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N105" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4088,18 +4443,27 @@
         <v>93571.9734</v>
       </c>
       <c r="G106" t="n">
+        <v>0.4507666666666666</v>
+      </c>
+      <c r="H106" t="n">
         <v>0.4582816666666665</v>
       </c>
-      <c r="H106" t="n">
-        <v>0</v>
-      </c>
       <c r="I106" t="n">
-        <v>0</v>
-      </c>
-      <c r="J106" t="inlineStr"/>
-      <c r="K106" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="J106" t="n">
+        <v>0</v>
+      </c>
+      <c r="K106" t="n">
+        <v>0.4554</v>
+      </c>
       <c r="L106" t="inlineStr"/>
-      <c r="M106" t="n">
+      <c r="M106" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N106" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4123,18 +4487,27 @@
         <v>5106293.0856</v>
       </c>
       <c r="G107" t="n">
+        <v>0.4503733333333333</v>
+      </c>
+      <c r="H107" t="n">
         <v>0.4579183333333331</v>
       </c>
-      <c r="H107" t="n">
-        <v>0</v>
-      </c>
       <c r="I107" t="n">
-        <v>0</v>
-      </c>
-      <c r="J107" t="inlineStr"/>
-      <c r="K107" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="J107" t="n">
+        <v>0</v>
+      </c>
+      <c r="K107" t="n">
+        <v>0.4454</v>
+      </c>
       <c r="L107" t="inlineStr"/>
-      <c r="M107" t="n">
+      <c r="M107" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N107" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4158,18 +4531,27 @@
         <v>222407</v>
       </c>
       <c r="G108" t="n">
+        <v>0.4503066666666666</v>
+      </c>
+      <c r="H108" t="n">
         <v>0.4577433333333332</v>
       </c>
-      <c r="H108" t="n">
-        <v>0</v>
-      </c>
       <c r="I108" t="n">
-        <v>0</v>
-      </c>
-      <c r="J108" t="inlineStr"/>
-      <c r="K108" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="J108" t="n">
+        <v>0</v>
+      </c>
+      <c r="K108" t="n">
+        <v>0.4392</v>
+      </c>
       <c r="L108" t="inlineStr"/>
-      <c r="M108" t="n">
+      <c r="M108" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N108" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4193,18 +4575,27 @@
         <v>2294080.9541</v>
       </c>
       <c r="G109" t="n">
+        <v>0.4502466666666666</v>
+      </c>
+      <c r="H109" t="n">
         <v>0.4576533333333332</v>
       </c>
-      <c r="H109" t="n">
-        <v>0</v>
-      </c>
       <c r="I109" t="n">
-        <v>0</v>
-      </c>
-      <c r="J109" t="inlineStr"/>
-      <c r="K109" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="J109" t="n">
+        <v>0</v>
+      </c>
+      <c r="K109" t="n">
+        <v>0.4555</v>
+      </c>
       <c r="L109" t="inlineStr"/>
-      <c r="M109" t="n">
+      <c r="M109" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N109" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4228,18 +4619,27 @@
         <v>122427.8261</v>
       </c>
       <c r="G110" t="n">
+        <v>0.4502066666666666</v>
+      </c>
+      <c r="H110" t="n">
         <v>0.4575649999999999</v>
       </c>
-      <c r="H110" t="n">
-        <v>0</v>
-      </c>
       <c r="I110" t="n">
-        <v>0</v>
-      </c>
-      <c r="J110" t="inlineStr"/>
-      <c r="K110" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="J110" t="n">
+        <v>0</v>
+      </c>
+      <c r="K110" t="n">
+        <v>0.4556</v>
+      </c>
       <c r="L110" t="inlineStr"/>
-      <c r="M110" t="n">
+      <c r="M110" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N110" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4263,18 +4663,27 @@
         <v>500993.6105</v>
       </c>
       <c r="G111" t="n">
+        <v>0.4501799999999999</v>
+      </c>
+      <c r="H111" t="n">
         <v>0.4574766666666666</v>
       </c>
-      <c r="H111" t="n">
-        <v>0</v>
-      </c>
       <c r="I111" t="n">
-        <v>0</v>
-      </c>
-      <c r="J111" t="inlineStr"/>
-      <c r="K111" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="J111" t="n">
+        <v>0</v>
+      </c>
+      <c r="K111" t="n">
+        <v>0.4556</v>
+      </c>
       <c r="L111" t="inlineStr"/>
-      <c r="M111" t="n">
+      <c r="M111" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N111" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4298,18 +4707,27 @@
         <v>1653551.5109</v>
       </c>
       <c r="G112" t="n">
+        <v>0.4508466666666665</v>
+      </c>
+      <c r="H112" t="n">
         <v>0.4575533333333333</v>
       </c>
-      <c r="H112" t="n">
-        <v>0</v>
-      </c>
       <c r="I112" t="n">
-        <v>0</v>
-      </c>
-      <c r="J112" t="inlineStr"/>
-      <c r="K112" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="J112" t="n">
+        <v>0</v>
+      </c>
+      <c r="K112" t="n">
+        <v>0.4556</v>
+      </c>
       <c r="L112" t="inlineStr"/>
-      <c r="M112" t="n">
+      <c r="M112" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N112" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4333,18 +4751,27 @@
         <v>1502160</v>
       </c>
       <c r="G113" t="n">
+        <v>0.4508533333333332</v>
+      </c>
+      <c r="H113" t="n">
         <v>0.4576466666666666</v>
       </c>
-      <c r="H113" t="n">
-        <v>0</v>
-      </c>
       <c r="I113" t="n">
-        <v>0</v>
-      </c>
-      <c r="J113" t="inlineStr"/>
-      <c r="K113" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="J113" t="n">
+        <v>0</v>
+      </c>
+      <c r="K113" t="n">
+        <v>0.4655</v>
+      </c>
       <c r="L113" t="inlineStr"/>
-      <c r="M113" t="n">
+      <c r="M113" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N113" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4368,18 +4795,27 @@
         <v>1645139.0449</v>
       </c>
       <c r="G114" t="n">
+        <v>0.4510399999999998</v>
+      </c>
+      <c r="H114" t="n">
         <v>0.457455</v>
       </c>
-      <c r="H114" t="n">
-        <v>0</v>
-      </c>
       <c r="I114" t="n">
-        <v>0</v>
-      </c>
-      <c r="J114" t="inlineStr"/>
-      <c r="K114" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="J114" t="n">
+        <v>0</v>
+      </c>
+      <c r="K114" t="n">
+        <v>0.4556</v>
+      </c>
       <c r="L114" t="inlineStr"/>
-      <c r="M114" t="n">
+      <c r="M114" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N114" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4403,18 +4839,27 @@
         <v>94272</v>
       </c>
       <c r="G115" t="n">
+        <v>0.4520933333333331</v>
+      </c>
+      <c r="H115" t="n">
         <v>0.4576816666666667</v>
       </c>
-      <c r="H115" t="n">
-        <v>0</v>
-      </c>
       <c r="I115" t="n">
-        <v>0</v>
-      </c>
-      <c r="J115" t="inlineStr"/>
-      <c r="K115" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="J115" t="n">
+        <v>0</v>
+      </c>
+      <c r="K115" t="n">
+        <v>0.4494</v>
+      </c>
       <c r="L115" t="inlineStr"/>
-      <c r="M115" t="n">
+      <c r="M115" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N115" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4438,18 +4883,27 @@
         <v>3452094.3854</v>
       </c>
       <c r="G116" t="n">
+        <v>0.4531466666666664</v>
+      </c>
+      <c r="H116" t="n">
         <v>0.4578716666666666</v>
       </c>
-      <c r="H116" t="n">
-        <v>0</v>
-      </c>
       <c r="I116" t="n">
-        <v>0</v>
-      </c>
-      <c r="J116" t="inlineStr"/>
-      <c r="K116" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="J116" t="n">
+        <v>0</v>
+      </c>
+      <c r="K116" t="n">
+        <v>0.4624</v>
+      </c>
       <c r="L116" t="inlineStr"/>
-      <c r="M116" t="n">
+      <c r="M116" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N116" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4473,18 +4927,27 @@
         <v>1930950.5812</v>
       </c>
       <c r="G117" t="n">
+        <v>0.4544199999999998</v>
+      </c>
+      <c r="H117" t="n">
         <v>0.4580999999999999</v>
       </c>
-      <c r="H117" t="n">
-        <v>0</v>
-      </c>
       <c r="I117" t="n">
-        <v>0</v>
-      </c>
-      <c r="J117" t="inlineStr"/>
-      <c r="K117" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="J117" t="n">
+        <v>0</v>
+      </c>
+      <c r="K117" t="n">
+        <v>0.4624</v>
+      </c>
       <c r="L117" t="inlineStr"/>
-      <c r="M117" t="n">
+      <c r="M117" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N117" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4508,18 +4971,27 @@
         <v>6530</v>
       </c>
       <c r="G118" t="n">
+        <v>0.4553333333333331</v>
+      </c>
+      <c r="H118" t="n">
         <v>0.4582199999999999</v>
       </c>
-      <c r="H118" t="n">
-        <v>0</v>
-      </c>
       <c r="I118" t="n">
-        <v>0</v>
-      </c>
-      <c r="J118" t="inlineStr"/>
-      <c r="K118" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="J118" t="n">
+        <v>0</v>
+      </c>
+      <c r="K118" t="n">
+        <v>0.4657</v>
+      </c>
       <c r="L118" t="inlineStr"/>
-      <c r="M118" t="n">
+      <c r="M118" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N118" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4543,18 +5015,27 @@
         <v>2625</v>
       </c>
       <c r="G119" t="n">
+        <v>0.4562466666666664</v>
+      </c>
+      <c r="H119" t="n">
         <v>0.4581966666666666</v>
       </c>
-      <c r="H119" t="n">
-        <v>0</v>
-      </c>
       <c r="I119" t="n">
-        <v>0</v>
-      </c>
-      <c r="J119" t="inlineStr"/>
-      <c r="K119" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="J119" t="n">
+        <v>0</v>
+      </c>
+      <c r="K119" t="n">
+        <v>0.4602</v>
+      </c>
       <c r="L119" t="inlineStr"/>
-      <c r="M119" t="n">
+      <c r="M119" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N119" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4578,18 +5059,27 @@
         <v>1075</v>
       </c>
       <c r="G120" t="n">
+        <v>0.4569133333333331</v>
+      </c>
+      <c r="H120" t="n">
         <v>0.4582699999999999</v>
       </c>
-      <c r="H120" t="n">
-        <v>0</v>
-      </c>
       <c r="I120" t="n">
-        <v>0</v>
-      </c>
-      <c r="J120" t="inlineStr"/>
-      <c r="K120" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="J120" t="n">
+        <v>0</v>
+      </c>
+      <c r="K120" t="n">
+        <v>0.4602</v>
+      </c>
       <c r="L120" t="inlineStr"/>
-      <c r="M120" t="n">
+      <c r="M120" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N120" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4613,18 +5103,27 @@
         <v>225707.1568</v>
       </c>
       <c r="G121" t="n">
+        <v>0.4582466666666664</v>
+      </c>
+      <c r="H121" t="n">
         <v>0.4582433333333332</v>
       </c>
-      <c r="H121" t="n">
-        <v>0</v>
-      </c>
       <c r="I121" t="n">
-        <v>0</v>
-      </c>
-      <c r="J121" t="inlineStr"/>
-      <c r="K121" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="J121" t="n">
+        <v>0</v>
+      </c>
+      <c r="K121" t="n">
+        <v>0.4654</v>
+      </c>
       <c r="L121" t="inlineStr"/>
-      <c r="M121" t="n">
+      <c r="M121" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N121" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4648,18 +5147,25 @@
         <v>145816.758</v>
       </c>
       <c r="G122" t="n">
+        <v>0.4596799999999998</v>
+      </c>
+      <c r="H122" t="n">
         <v>0.4579383333333332</v>
       </c>
-      <c r="H122" t="n">
-        <v>0</v>
-      </c>
       <c r="I122" t="n">
         <v>0</v>
       </c>
-      <c r="J122" t="inlineStr"/>
+      <c r="J122" t="n">
+        <v>0</v>
+      </c>
       <c r="K122" t="inlineStr"/>
       <c r="L122" t="inlineStr"/>
-      <c r="M122" t="n">
+      <c r="M122" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N122" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4683,18 +5189,27 @@
         <v>1067</v>
       </c>
       <c r="G123" t="n">
+        <v>0.4605799999999998</v>
+      </c>
+      <c r="H123" t="n">
         <v>0.4581083333333333</v>
       </c>
-      <c r="H123" t="n">
-        <v>0</v>
-      </c>
       <c r="I123" t="n">
-        <v>0</v>
-      </c>
-      <c r="J123" t="inlineStr"/>
-      <c r="K123" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="J123" t="n">
+        <v>0</v>
+      </c>
+      <c r="K123" t="n">
+        <v>0.4607</v>
+      </c>
       <c r="L123" t="inlineStr"/>
-      <c r="M123" t="n">
+      <c r="M123" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N123" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4718,18 +5233,27 @@
         <v>3000</v>
       </c>
       <c r="G124" t="n">
+        <v>0.4609333333333331</v>
+      </c>
+      <c r="H124" t="n">
         <v>0.4581433333333332</v>
       </c>
-      <c r="H124" t="n">
-        <v>0</v>
-      </c>
       <c r="I124" t="n">
-        <v>0</v>
-      </c>
-      <c r="J124" t="inlineStr"/>
-      <c r="K124" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="J124" t="n">
+        <v>0</v>
+      </c>
+      <c r="K124" t="n">
+        <v>0.469</v>
+      </c>
       <c r="L124" t="inlineStr"/>
-      <c r="M124" t="n">
+      <c r="M124" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N124" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4753,18 +5277,27 @@
         <v>230494.9342</v>
       </c>
       <c r="G125" t="n">
+        <v>0.4606333333333331</v>
+      </c>
+      <c r="H125" t="n">
         <v>0.4580149999999999</v>
       </c>
-      <c r="H125" t="n">
-        <v>0</v>
-      </c>
       <c r="I125" t="n">
-        <v>0</v>
-      </c>
-      <c r="J125" t="inlineStr"/>
-      <c r="K125" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="J125" t="n">
+        <v>0</v>
+      </c>
+      <c r="K125" t="n">
+        <v>0.4609</v>
+      </c>
       <c r="L125" t="inlineStr"/>
-      <c r="M125" t="n">
+      <c r="M125" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N125" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4788,18 +5321,27 @@
         <v>382977.1735</v>
       </c>
       <c r="G126" t="n">
+        <v>0.4614399999999997</v>
+      </c>
+      <c r="H126" t="n">
         <v>0.4583283333333333</v>
       </c>
-      <c r="H126" t="n">
-        <v>0</v>
-      </c>
       <c r="I126" t="n">
-        <v>0</v>
-      </c>
-      <c r="J126" t="inlineStr"/>
-      <c r="K126" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="J126" t="n">
+        <v>0</v>
+      </c>
+      <c r="K126" t="n">
+        <v>0.4511</v>
+      </c>
       <c r="L126" t="inlineStr"/>
-      <c r="M126" t="n">
+      <c r="M126" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N126" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4823,18 +5365,27 @@
         <v>6533.5805</v>
       </c>
       <c r="G127" t="n">
+        <v>0.4615799999999998</v>
+      </c>
+      <c r="H127" t="n">
         <v>0.4584549999999999</v>
       </c>
-      <c r="H127" t="n">
-        <v>0</v>
-      </c>
       <c r="I127" t="n">
-        <v>0</v>
-      </c>
-      <c r="J127" t="inlineStr"/>
-      <c r="K127" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="J127" t="n">
+        <v>0</v>
+      </c>
+      <c r="K127" t="n">
+        <v>0.4677</v>
+      </c>
       <c r="L127" t="inlineStr"/>
-      <c r="M127" t="n">
+      <c r="M127" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N127" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4858,18 +5409,27 @@
         <v>438322</v>
       </c>
       <c r="G128" t="n">
+        <v>0.4614133333333331</v>
+      </c>
+      <c r="H128" t="n">
         <v>0.4582733333333333</v>
       </c>
-      <c r="H128" t="n">
-        <v>0</v>
-      </c>
       <c r="I128" t="n">
-        <v>0</v>
-      </c>
-      <c r="J128" t="inlineStr"/>
-      <c r="K128" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="J128" t="n">
+        <v>0</v>
+      </c>
+      <c r="K128" t="n">
+        <v>0.4676</v>
+      </c>
       <c r="L128" t="inlineStr"/>
-      <c r="M128" t="n">
+      <c r="M128" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N128" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4893,18 +5453,27 @@
         <v>300000</v>
       </c>
       <c r="G129" t="n">
+        <v>0.4618466666666665</v>
+      </c>
+      <c r="H129" t="n">
         <v>0.4581383333333333</v>
       </c>
-      <c r="H129" t="n">
-        <v>0</v>
-      </c>
       <c r="I129" t="n">
-        <v>0</v>
-      </c>
-      <c r="J129" t="inlineStr"/>
-      <c r="K129" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="J129" t="n">
+        <v>0</v>
+      </c>
+      <c r="K129" t="n">
+        <v>0.4531</v>
+      </c>
       <c r="L129" t="inlineStr"/>
-      <c r="M129" t="n">
+      <c r="M129" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N129" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4928,18 +5497,27 @@
         <v>1282041.1949</v>
       </c>
       <c r="G130" t="n">
+        <v>0.4605533333333331</v>
+      </c>
+      <c r="H130" t="n">
         <v>0.4577883333333334</v>
       </c>
-      <c r="H130" t="n">
-        <v>0</v>
-      </c>
       <c r="I130" t="n">
-        <v>0</v>
-      </c>
-      <c r="J130" t="inlineStr"/>
-      <c r="K130" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="J130" t="n">
+        <v>0</v>
+      </c>
+      <c r="K130" t="n">
+        <v>0.4559</v>
+      </c>
       <c r="L130" t="inlineStr"/>
-      <c r="M130" t="n">
+      <c r="M130" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N130" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4963,18 +5541,27 @@
         <v>59683</v>
       </c>
       <c r="G131" t="n">
+        <v>0.4600266666666665</v>
+      </c>
+      <c r="H131" t="n">
         <v>0.457715</v>
       </c>
-      <c r="H131" t="n">
-        <v>0</v>
-      </c>
       <c r="I131" t="n">
-        <v>0</v>
-      </c>
-      <c r="J131" t="inlineStr"/>
-      <c r="K131" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="J131" t="n">
+        <v>0</v>
+      </c>
+      <c r="K131" t="n">
+        <v>0.443</v>
+      </c>
       <c r="L131" t="inlineStr"/>
-      <c r="M131" t="n">
+      <c r="M131" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N131" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4998,18 +5585,27 @@
         <v>3906</v>
       </c>
       <c r="G132" t="n">
+        <v>0.4592799999999999</v>
+      </c>
+      <c r="H132" t="n">
         <v>0.457575</v>
       </c>
-      <c r="H132" t="n">
-        <v>0</v>
-      </c>
       <c r="I132" t="n">
-        <v>0</v>
-      </c>
-      <c r="J132" t="inlineStr"/>
-      <c r="K132" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="J132" t="n">
+        <v>0</v>
+      </c>
+      <c r="K132" t="n">
+        <v>0.4545</v>
+      </c>
       <c r="L132" t="inlineStr"/>
-      <c r="M132" t="n">
+      <c r="M132" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N132" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5033,18 +5629,27 @@
         <v>718275.4899</v>
       </c>
       <c r="G133" t="n">
+        <v>0.4595666666666665</v>
+      </c>
+      <c r="H133" t="n">
         <v>0.4575983333333333</v>
       </c>
-      <c r="H133" t="n">
-        <v>0</v>
-      </c>
       <c r="I133" t="n">
-        <v>0</v>
-      </c>
-      <c r="J133" t="inlineStr"/>
-      <c r="K133" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="J133" t="n">
+        <v>0</v>
+      </c>
+      <c r="K133" t="n">
+        <v>0.4545</v>
+      </c>
       <c r="L133" t="inlineStr"/>
-      <c r="M133" t="n">
+      <c r="M133" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N133" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5068,18 +5673,27 @@
         <v>3827900.7459</v>
       </c>
       <c r="G134" t="n">
+        <v>0.4598399999999998</v>
+      </c>
+      <c r="H134" t="n">
         <v>0.4575366666666667</v>
       </c>
-      <c r="H134" t="n">
-        <v>0</v>
-      </c>
       <c r="I134" t="n">
-        <v>0</v>
-      </c>
-      <c r="J134" t="inlineStr"/>
-      <c r="K134" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="J134" t="n">
+        <v>0</v>
+      </c>
+      <c r="K134" t="n">
+        <v>0.4645</v>
+      </c>
       <c r="L134" t="inlineStr"/>
-      <c r="M134" t="n">
+      <c r="M134" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N134" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5103,18 +5717,27 @@
         <v>15539344.15807223</v>
       </c>
       <c r="G135" t="n">
+        <v>0.4608133333333332</v>
+      </c>
+      <c r="H135" t="n">
         <v>0.45777</v>
       </c>
-      <c r="H135" t="n">
-        <v>0</v>
-      </c>
       <c r="I135" t="n">
-        <v>0</v>
-      </c>
-      <c r="J135" t="inlineStr"/>
-      <c r="K135" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="J135" t="n">
+        <v>0</v>
+      </c>
+      <c r="K135" t="n">
+        <v>0.4643</v>
+      </c>
       <c r="L135" t="inlineStr"/>
-      <c r="M135" t="n">
+      <c r="M135" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N135" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5138,18 +5761,25 @@
         <v>491401.8882</v>
       </c>
       <c r="G136" t="n">
+        <v>0.4604533333333332</v>
+      </c>
+      <c r="H136" t="n">
         <v>0.4575683333333334</v>
       </c>
-      <c r="H136" t="n">
-        <v>0</v>
-      </c>
       <c r="I136" t="n">
         <v>0</v>
       </c>
-      <c r="J136" t="inlineStr"/>
+      <c r="J136" t="n">
+        <v>0</v>
+      </c>
       <c r="K136" t="inlineStr"/>
       <c r="L136" t="inlineStr"/>
-      <c r="M136" t="n">
+      <c r="M136" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N136" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5173,18 +5803,25 @@
         <v>1111</v>
       </c>
       <c r="G137" t="n">
+        <v>0.4610733333333332</v>
+      </c>
+      <c r="H137" t="n">
         <v>0.4576683333333333</v>
       </c>
-      <c r="H137" t="n">
-        <v>0</v>
-      </c>
       <c r="I137" t="n">
         <v>0</v>
       </c>
-      <c r="J137" t="inlineStr"/>
+      <c r="J137" t="n">
+        <v>0</v>
+      </c>
       <c r="K137" t="inlineStr"/>
       <c r="L137" t="inlineStr"/>
-      <c r="M137" t="n">
+      <c r="M137" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N137" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5208,18 +5845,25 @@
         <v>2584245.9874</v>
       </c>
       <c r="G138" t="n">
+        <v>0.4606733333333332</v>
+      </c>
+      <c r="H138" t="n">
         <v>0.4576666666666667</v>
       </c>
-      <c r="H138" t="n">
-        <v>0</v>
-      </c>
       <c r="I138" t="n">
         <v>0</v>
       </c>
-      <c r="J138" t="inlineStr"/>
+      <c r="J138" t="n">
+        <v>0</v>
+      </c>
       <c r="K138" t="inlineStr"/>
       <c r="L138" t="inlineStr"/>
-      <c r="M138" t="n">
+      <c r="M138" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N138" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5243,18 +5887,25 @@
         <v>729587.175</v>
       </c>
       <c r="G139" t="n">
+        <v>0.4612799999999998</v>
+      </c>
+      <c r="H139" t="n">
         <v>0.45778</v>
       </c>
-      <c r="H139" t="n">
-        <v>0</v>
-      </c>
       <c r="I139" t="n">
         <v>0</v>
       </c>
-      <c r="J139" t="inlineStr"/>
+      <c r="J139" t="n">
+        <v>0</v>
+      </c>
       <c r="K139" t="inlineStr"/>
       <c r="L139" t="inlineStr"/>
-      <c r="M139" t="n">
+      <c r="M139" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N139" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5278,18 +5929,25 @@
         <v>2955328.1786</v>
       </c>
       <c r="G140" t="n">
+        <v>0.4620799999999998</v>
+      </c>
+      <c r="H140" t="n">
         <v>0.4577783333333333</v>
       </c>
-      <c r="H140" t="n">
-        <v>0</v>
-      </c>
       <c r="I140" t="n">
         <v>0</v>
       </c>
-      <c r="J140" t="inlineStr"/>
+      <c r="J140" t="n">
+        <v>0</v>
+      </c>
       <c r="K140" t="inlineStr"/>
       <c r="L140" t="inlineStr"/>
-      <c r="M140" t="n">
+      <c r="M140" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N140" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5313,18 +5971,25 @@
         <v>1559315.8423</v>
       </c>
       <c r="G141" t="n">
+        <v>0.4635599999999999</v>
+      </c>
+      <c r="H141" t="n">
         <v>0.4582266666666666</v>
       </c>
-      <c r="H141" t="n">
-        <v>0</v>
-      </c>
       <c r="I141" t="n">
         <v>0</v>
       </c>
-      <c r="J141" t="inlineStr"/>
+      <c r="J141" t="n">
+        <v>0</v>
+      </c>
       <c r="K141" t="inlineStr"/>
       <c r="L141" t="inlineStr"/>
-      <c r="M141" t="n">
+      <c r="M141" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N141" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5348,18 +6013,25 @@
         <v>750685.9310515271</v>
       </c>
       <c r="G142" t="n">
+        <v>0.4633266666666665</v>
+      </c>
+      <c r="H142" t="n">
         <v>0.4584583333333333</v>
       </c>
-      <c r="H142" t="n">
-        <v>0</v>
-      </c>
       <c r="I142" t="n">
         <v>0</v>
       </c>
-      <c r="J142" t="inlineStr"/>
+      <c r="J142" t="n">
+        <v>0</v>
+      </c>
       <c r="K142" t="inlineStr"/>
       <c r="L142" t="inlineStr"/>
-      <c r="M142" t="n">
+      <c r="M142" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N142" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5383,18 +6055,25 @@
         <v>540022.6403</v>
       </c>
       <c r="G143" t="n">
+        <v>0.4648533333333332</v>
+      </c>
+      <c r="H143" t="n">
         <v>0.4586749999999999</v>
       </c>
-      <c r="H143" t="n">
-        <v>0</v>
-      </c>
       <c r="I143" t="n">
         <v>0</v>
       </c>
-      <c r="J143" t="inlineStr"/>
+      <c r="J143" t="n">
+        <v>0</v>
+      </c>
       <c r="K143" t="inlineStr"/>
       <c r="L143" t="inlineStr"/>
-      <c r="M143" t="n">
+      <c r="M143" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N143" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5418,18 +6097,25 @@
         <v>3670903.5977</v>
       </c>
       <c r="G144" t="n">
+        <v>0.4661933333333332</v>
+      </c>
+      <c r="H144" t="n">
         <v>0.4587966666666666</v>
       </c>
-      <c r="H144" t="n">
-        <v>0</v>
-      </c>
       <c r="I144" t="n">
         <v>0</v>
       </c>
-      <c r="J144" t="inlineStr"/>
+      <c r="J144" t="n">
+        <v>0</v>
+      </c>
       <c r="K144" t="inlineStr"/>
       <c r="L144" t="inlineStr"/>
-      <c r="M144" t="n">
+      <c r="M144" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N144" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5453,18 +6139,25 @@
         <v>2608675.6274</v>
       </c>
       <c r="G145" t="n">
+        <v>0.4677199999999999</v>
+      </c>
+      <c r="H145" t="n">
         <v>0.4590366666666666</v>
       </c>
-      <c r="H145" t="n">
-        <v>0</v>
-      </c>
       <c r="I145" t="n">
         <v>0</v>
       </c>
-      <c r="J145" t="inlineStr"/>
+      <c r="J145" t="n">
+        <v>0</v>
+      </c>
       <c r="K145" t="inlineStr"/>
       <c r="L145" t="inlineStr"/>
-      <c r="M145" t="n">
+      <c r="M145" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N145" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5488,18 +6181,25 @@
         <v>1967643.2238</v>
       </c>
       <c r="G146" t="n">
+        <v>0.4683933333333332</v>
+      </c>
+      <c r="H146" t="n">
         <v>0.45897</v>
       </c>
-      <c r="H146" t="n">
-        <v>0</v>
-      </c>
       <c r="I146" t="n">
         <v>0</v>
       </c>
-      <c r="J146" t="inlineStr"/>
+      <c r="J146" t="n">
+        <v>0</v>
+      </c>
       <c r="K146" t="inlineStr"/>
       <c r="L146" t="inlineStr"/>
-      <c r="M146" t="n">
+      <c r="M146" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N146" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5523,18 +6223,25 @@
         <v>253490</v>
       </c>
       <c r="G147" t="n">
+        <v>0.4697333333333332</v>
+      </c>
+      <c r="H147" t="n">
         <v>0.4592383333333333</v>
       </c>
-      <c r="H147" t="n">
-        <v>0</v>
-      </c>
       <c r="I147" t="n">
         <v>0</v>
       </c>
-      <c r="J147" t="inlineStr"/>
+      <c r="J147" t="n">
+        <v>0</v>
+      </c>
       <c r="K147" t="inlineStr"/>
       <c r="L147" t="inlineStr"/>
-      <c r="M147" t="n">
+      <c r="M147" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N147" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5558,18 +6265,25 @@
         <v>294659.0949</v>
       </c>
       <c r="G148" t="n">
+        <v>0.4707399999999998</v>
+      </c>
+      <c r="H148" t="n">
         <v>0.4594233333333334</v>
       </c>
-      <c r="H148" t="n">
-        <v>0</v>
-      </c>
       <c r="I148" t="n">
         <v>0</v>
       </c>
-      <c r="J148" t="inlineStr"/>
+      <c r="J148" t="n">
+        <v>0</v>
+      </c>
       <c r="K148" t="inlineStr"/>
       <c r="L148" t="inlineStr"/>
-      <c r="M148" t="n">
+      <c r="M148" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N148" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5593,18 +6307,25 @@
         <v>7722483.1636</v>
       </c>
       <c r="G149" t="n">
+        <v>0.4717199999999998</v>
+      </c>
+      <c r="H149" t="n">
         <v>0.4598816666666667</v>
       </c>
-      <c r="H149" t="n">
-        <v>0</v>
-      </c>
       <c r="I149" t="n">
         <v>0</v>
       </c>
-      <c r="J149" t="inlineStr"/>
+      <c r="J149" t="n">
+        <v>0</v>
+      </c>
       <c r="K149" t="inlineStr"/>
       <c r="L149" t="inlineStr"/>
-      <c r="M149" t="n">
+      <c r="M149" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N149" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5628,18 +6349,25 @@
         <v>3990815.6136</v>
       </c>
       <c r="G150" t="n">
+        <v>0.4715933333333332</v>
+      </c>
+      <c r="H150" t="n">
         <v>0.4602083333333333</v>
       </c>
-      <c r="H150" t="n">
-        <v>0</v>
-      </c>
       <c r="I150" t="n">
         <v>0</v>
       </c>
-      <c r="J150" t="inlineStr"/>
+      <c r="J150" t="n">
+        <v>0</v>
+      </c>
       <c r="K150" t="inlineStr"/>
       <c r="L150" t="inlineStr"/>
-      <c r="M150" t="n">
+      <c r="M150" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N150" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5663,18 +6391,25 @@
         <v>9188622.394099999</v>
       </c>
       <c r="G151" t="n">
+        <v>0.4727933333333332</v>
+      </c>
+      <c r="H151" t="n">
         <v>0.460565</v>
       </c>
-      <c r="H151" t="n">
-        <v>0</v>
-      </c>
       <c r="I151" t="n">
         <v>0</v>
       </c>
-      <c r="J151" t="inlineStr"/>
+      <c r="J151" t="n">
+        <v>0</v>
+      </c>
       <c r="K151" t="inlineStr"/>
       <c r="L151" t="inlineStr"/>
-      <c r="M151" t="n">
+      <c r="M151" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N151" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5698,18 +6433,25 @@
         <v>6375765.2301</v>
       </c>
       <c r="G152" t="n">
+        <v>0.4739133333333332</v>
+      </c>
+      <c r="H152" t="n">
         <v>0.46126</v>
       </c>
-      <c r="H152" t="n">
-        <v>0</v>
-      </c>
       <c r="I152" t="n">
         <v>0</v>
       </c>
-      <c r="J152" t="inlineStr"/>
+      <c r="J152" t="n">
+        <v>0</v>
+      </c>
       <c r="K152" t="inlineStr"/>
       <c r="L152" t="inlineStr"/>
-      <c r="M152" t="n">
+      <c r="M152" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N152" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5733,18 +6475,25 @@
         <v>4093505.6828</v>
       </c>
       <c r="G153" t="n">
+        <v>0.4750333333333332</v>
+      </c>
+      <c r="H153" t="n">
         <v>0.4616483333333334</v>
       </c>
-      <c r="H153" t="n">
-        <v>0</v>
-      </c>
       <c r="I153" t="n">
         <v>0</v>
       </c>
-      <c r="J153" t="inlineStr"/>
+      <c r="J153" t="n">
+        <v>0</v>
+      </c>
       <c r="K153" t="inlineStr"/>
       <c r="L153" t="inlineStr"/>
-      <c r="M153" t="n">
+      <c r="M153" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N153" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5768,18 +6517,25 @@
         <v>6587668.486</v>
       </c>
       <c r="G154" t="n">
+        <v>0.4757666666666666</v>
+      </c>
+      <c r="H154" t="n">
         <v>0.4620566666666667</v>
       </c>
-      <c r="H154" t="n">
-        <v>0</v>
-      </c>
       <c r="I154" t="n">
         <v>0</v>
       </c>
-      <c r="J154" t="inlineStr"/>
+      <c r="J154" t="n">
+        <v>0</v>
+      </c>
       <c r="K154" t="inlineStr"/>
       <c r="L154" t="inlineStr"/>
-      <c r="M154" t="n">
+      <c r="M154" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N154" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5803,18 +6559,25 @@
         <v>4048743.231160955</v>
       </c>
       <c r="G155" t="n">
+        <v>0.4782266666666665</v>
+      </c>
+      <c r="H155" t="n">
         <v>0.4627866666666668</v>
       </c>
-      <c r="H155" t="n">
-        <v>0</v>
-      </c>
       <c r="I155" t="n">
         <v>0</v>
       </c>
-      <c r="J155" t="inlineStr"/>
+      <c r="J155" t="n">
+        <v>0</v>
+      </c>
       <c r="K155" t="inlineStr"/>
       <c r="L155" t="inlineStr"/>
-      <c r="M155" t="n">
+      <c r="M155" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N155" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5838,18 +6601,25 @@
         <v>5502017.264715285</v>
       </c>
       <c r="G156" t="n">
+        <v>0.4789066666666665</v>
+      </c>
+      <c r="H156" t="n">
         <v>0.4635216666666668</v>
       </c>
-      <c r="H156" t="n">
-        <v>0</v>
-      </c>
       <c r="I156" t="n">
         <v>0</v>
       </c>
-      <c r="J156" t="inlineStr"/>
+      <c r="J156" t="n">
+        <v>0</v>
+      </c>
       <c r="K156" t="inlineStr"/>
       <c r="L156" t="inlineStr"/>
-      <c r="M156" t="n">
+      <c r="M156" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N156" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5873,18 +6643,25 @@
         <v>11389999.32795005</v>
       </c>
       <c r="G157" t="n">
+        <v>0.4826533333333332</v>
+      </c>
+      <c r="H157" t="n">
         <v>0.4646016666666667</v>
       </c>
-      <c r="H157" t="n">
-        <v>0</v>
-      </c>
       <c r="I157" t="n">
         <v>0</v>
       </c>
-      <c r="J157" t="inlineStr"/>
+      <c r="J157" t="n">
+        <v>0</v>
+      </c>
       <c r="K157" t="inlineStr"/>
       <c r="L157" t="inlineStr"/>
-      <c r="M157" t="n">
+      <c r="M157" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N157" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5908,18 +6685,25 @@
         <v>6786465.042290566</v>
       </c>
       <c r="G158" t="n">
+        <v>0.4855799999999998</v>
+      </c>
+      <c r="H158" t="n">
         <v>0.4656750000000001</v>
       </c>
-      <c r="H158" t="n">
-        <v>0</v>
-      </c>
       <c r="I158" t="n">
         <v>0</v>
       </c>
-      <c r="J158" t="inlineStr"/>
+      <c r="J158" t="n">
+        <v>0</v>
+      </c>
       <c r="K158" t="inlineStr"/>
       <c r="L158" t="inlineStr"/>
-      <c r="M158" t="n">
+      <c r="M158" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N158" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5943,18 +6727,25 @@
         <v>4823332.1931</v>
       </c>
       <c r="G159" t="n">
+        <v>0.4896533333333332</v>
+      </c>
+      <c r="H159" t="n">
         <v>0.4671833333333334</v>
       </c>
-      <c r="H159" t="n">
-        <v>0</v>
-      </c>
       <c r="I159" t="n">
         <v>0</v>
       </c>
-      <c r="J159" t="inlineStr"/>
+      <c r="J159" t="n">
+        <v>0</v>
+      </c>
       <c r="K159" t="inlineStr"/>
       <c r="L159" t="inlineStr"/>
-      <c r="M159" t="n">
+      <c r="M159" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N159" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5978,18 +6769,25 @@
         <v>18324373.16971053</v>
       </c>
       <c r="G160" t="n">
+        <v>0.4950666666666665</v>
+      </c>
+      <c r="H160" t="n">
         <v>0.4688583333333334</v>
       </c>
-      <c r="H160" t="n">
-        <v>0</v>
-      </c>
       <c r="I160" t="n">
         <v>0</v>
       </c>
-      <c r="J160" t="inlineStr"/>
+      <c r="J160" t="n">
+        <v>0</v>
+      </c>
       <c r="K160" t="inlineStr"/>
       <c r="L160" t="inlineStr"/>
-      <c r="M160" t="n">
+      <c r="M160" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N160" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6013,18 +6811,25 @@
         <v>12026812.6302028</v>
       </c>
       <c r="G161" t="n">
+        <v>0.5013999999999998</v>
+      </c>
+      <c r="H161" t="n">
         <v>0.4707416666666667</v>
       </c>
-      <c r="H161" t="n">
-        <v>0</v>
-      </c>
       <c r="I161" t="n">
         <v>0</v>
       </c>
-      <c r="J161" t="inlineStr"/>
+      <c r="J161" t="n">
+        <v>0</v>
+      </c>
       <c r="K161" t="inlineStr"/>
       <c r="L161" t="inlineStr"/>
-      <c r="M161" t="n">
+      <c r="M161" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N161" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6048,20 +6853,25 @@
         <v>5709674.0159</v>
       </c>
       <c r="G162" t="n">
+        <v>0.5068199999999999</v>
+      </c>
+      <c r="H162" t="n">
         <v>0.4725633333333334</v>
       </c>
-      <c r="H162" t="n">
-        <v>0</v>
-      </c>
       <c r="I162" t="n">
         <v>0</v>
       </c>
-      <c r="J162" t="inlineStr"/>
+      <c r="J162" t="n">
+        <v>1</v>
+      </c>
       <c r="K162" t="inlineStr"/>
       <c r="L162" t="inlineStr"/>
-      <c r="M162" t="n">
-        <v>1</v>
-      </c>
+      <c r="M162" t="inlineStr">
+        <is>
+          <t>매도 체결</t>
+        </is>
+      </c>
+      <c r="N162" t="inlineStr"/>
     </row>
     <row r="163">
       <c r="A163" s="1" t="n">
@@ -6083,18 +6893,21 @@
         <v>18974751.9911</v>
       </c>
       <c r="G163" t="n">
+        <v>0.5119</v>
+      </c>
+      <c r="H163" t="n">
         <v>0.4743850000000001</v>
       </c>
-      <c r="H163" t="n">
-        <v>0</v>
-      </c>
       <c r="I163" t="n">
-        <v>1</v>
-      </c>
-      <c r="J163" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="J163" t="n">
+        <v>1</v>
+      </c>
       <c r="K163" t="inlineStr"/>
       <c r="L163" t="inlineStr"/>
-      <c r="M163" t="n">
+      <c r="M163" t="inlineStr"/>
+      <c r="N163" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6118,18 +6931,21 @@
         <v>6519210.8591</v>
       </c>
       <c r="G164" t="n">
+        <v>0.5151066666666667</v>
+      </c>
+      <c r="H164" t="n">
         <v>0.4757283333333334</v>
       </c>
-      <c r="H164" t="n">
-        <v>0</v>
-      </c>
       <c r="I164" t="n">
         <v>0</v>
       </c>
-      <c r="J164" t="inlineStr"/>
+      <c r="J164" t="n">
+        <v>1</v>
+      </c>
       <c r="K164" t="inlineStr"/>
       <c r="L164" t="inlineStr"/>
-      <c r="M164" t="n">
+      <c r="M164" t="inlineStr"/>
+      <c r="N164" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6153,18 +6969,21 @@
         <v>589856.2205000001</v>
       </c>
       <c r="G165" t="n">
+        <v>0.51894</v>
+      </c>
+      <c r="H165" t="n">
         <v>0.477065</v>
       </c>
-      <c r="H165" t="n">
-        <v>0</v>
-      </c>
       <c r="I165" t="n">
         <v>0</v>
       </c>
-      <c r="J165" t="inlineStr"/>
+      <c r="J165" t="n">
+        <v>1</v>
+      </c>
       <c r="K165" t="inlineStr"/>
       <c r="L165" t="inlineStr"/>
-      <c r="M165" t="n">
+      <c r="M165" t="inlineStr"/>
+      <c r="N165" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6188,18 +7007,21 @@
         <v>1255216.783</v>
       </c>
       <c r="G166" t="n">
+        <v>0.52276</v>
+      </c>
+      <c r="H166" t="n">
         <v>0.4785633333333334</v>
       </c>
-      <c r="H166" t="n">
-        <v>0</v>
-      </c>
       <c r="I166" t="n">
         <v>0</v>
       </c>
-      <c r="J166" t="inlineStr"/>
+      <c r="J166" t="n">
+        <v>1</v>
+      </c>
       <c r="K166" t="inlineStr"/>
       <c r="L166" t="inlineStr"/>
-      <c r="M166" t="n">
+      <c r="M166" t="inlineStr"/>
+      <c r="N166" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6223,18 +7045,21 @@
         <v>15849605.6368</v>
       </c>
       <c r="G167" t="n">
+        <v>0.5243266666666667</v>
+      </c>
+      <c r="H167" t="n">
         <v>0.4797483333333334</v>
       </c>
-      <c r="H167" t="n">
-        <v>0</v>
-      </c>
       <c r="I167" t="n">
         <v>0</v>
       </c>
-      <c r="J167" t="inlineStr"/>
+      <c r="J167" t="n">
+        <v>1</v>
+      </c>
       <c r="K167" t="inlineStr"/>
       <c r="L167" t="inlineStr"/>
-      <c r="M167" t="n">
+      <c r="M167" t="inlineStr"/>
+      <c r="N167" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6258,18 +7083,21 @@
         <v>5149055.173</v>
       </c>
       <c r="G168" t="n">
+        <v>0.5256866666666667</v>
+      </c>
+      <c r="H168" t="n">
         <v>0.4804933333333334</v>
       </c>
-      <c r="H168" t="n">
-        <v>0</v>
-      </c>
       <c r="I168" t="n">
         <v>0</v>
       </c>
-      <c r="J168" t="inlineStr"/>
+      <c r="J168" t="n">
+        <v>1</v>
+      </c>
       <c r="K168" t="inlineStr"/>
       <c r="L168" t="inlineStr"/>
-      <c r="M168" t="n">
+      <c r="M168" t="inlineStr"/>
+      <c r="N168" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6293,18 +7121,21 @@
         <v>1000</v>
       </c>
       <c r="G169" t="n">
+        <v>0.5276066666666668</v>
+      </c>
+      <c r="H169" t="n">
         <v>0.4813966666666667</v>
       </c>
-      <c r="H169" t="n">
-        <v>0</v>
-      </c>
       <c r="I169" t="n">
         <v>0</v>
       </c>
-      <c r="J169" t="inlineStr"/>
+      <c r="J169" t="n">
+        <v>1</v>
+      </c>
       <c r="K169" t="inlineStr"/>
       <c r="L169" t="inlineStr"/>
-      <c r="M169" t="n">
+      <c r="M169" t="inlineStr"/>
+      <c r="N169" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6328,18 +7159,21 @@
         <v>4006154.7506</v>
       </c>
       <c r="G170" t="n">
+        <v>0.5276200000000001</v>
+      </c>
+      <c r="H170" t="n">
         <v>0.48214</v>
       </c>
-      <c r="H170" t="n">
-        <v>0</v>
-      </c>
       <c r="I170" t="n">
         <v>0</v>
       </c>
-      <c r="J170" t="inlineStr"/>
+      <c r="J170" t="n">
+        <v>1</v>
+      </c>
       <c r="K170" t="inlineStr"/>
       <c r="L170" t="inlineStr"/>
-      <c r="M170" t="n">
+      <c r="M170" t="inlineStr"/>
+      <c r="N170" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6363,18 +7197,21 @@
         <v>6678572.9607</v>
       </c>
       <c r="G171" t="n">
+        <v>0.5276200000000001</v>
+      </c>
+      <c r="H171" t="n">
         <v>0.4828816666666667</v>
       </c>
-      <c r="H171" t="n">
-        <v>0</v>
-      </c>
       <c r="I171" t="n">
         <v>0</v>
       </c>
-      <c r="J171" t="inlineStr"/>
+      <c r="J171" t="n">
+        <v>1</v>
+      </c>
       <c r="K171" t="inlineStr"/>
       <c r="L171" t="inlineStr"/>
-      <c r="M171" t="n">
+      <c r="M171" t="inlineStr"/>
+      <c r="N171" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6398,18 +7235,21 @@
         <v>2257596.8141</v>
       </c>
       <c r="G172" t="n">
+        <v>0.5266666666666667</v>
+      </c>
+      <c r="H172" t="n">
         <v>0.4835566666666667</v>
       </c>
-      <c r="H172" t="n">
-        <v>0</v>
-      </c>
       <c r="I172" t="n">
         <v>0</v>
       </c>
-      <c r="J172" t="inlineStr"/>
+      <c r="J172" t="n">
+        <v>0</v>
+      </c>
       <c r="K172" t="inlineStr"/>
       <c r="L172" t="inlineStr"/>
-      <c r="M172" t="n">
+      <c r="M172" t="inlineStr"/>
+      <c r="N172" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6433,18 +7273,21 @@
         <v>8076419.9635</v>
       </c>
       <c r="G173" t="n">
+        <v>0.5247866666666668</v>
+      </c>
+      <c r="H173" t="n">
         <v>0.4841583333333334</v>
       </c>
-      <c r="H173" t="n">
-        <v>0</v>
-      </c>
       <c r="I173" t="n">
         <v>0</v>
       </c>
-      <c r="J173" t="inlineStr"/>
+      <c r="J173" t="n">
+        <v>0</v>
+      </c>
       <c r="K173" t="inlineStr"/>
       <c r="L173" t="inlineStr"/>
-      <c r="M173" t="n">
+      <c r="M173" t="inlineStr"/>
+      <c r="N173" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6468,18 +7311,21 @@
         <v>456000</v>
       </c>
       <c r="G174" t="n">
+        <v>0.5229933333333334</v>
+      </c>
+      <c r="H174" t="n">
         <v>0.4851716666666667</v>
       </c>
-      <c r="H174" t="n">
-        <v>0</v>
-      </c>
       <c r="I174" t="n">
         <v>0</v>
       </c>
-      <c r="J174" t="inlineStr"/>
+      <c r="J174" t="n">
+        <v>0</v>
+      </c>
       <c r="K174" t="inlineStr"/>
       <c r="L174" t="inlineStr"/>
-      <c r="M174" t="n">
+      <c r="M174" t="inlineStr"/>
+      <c r="N174" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6503,18 +7349,21 @@
         <v>84415</v>
       </c>
       <c r="G175" t="n">
+        <v>0.5196533333333335</v>
+      </c>
+      <c r="H175" t="n">
         <v>0.4857483333333334</v>
       </c>
-      <c r="H175" t="n">
-        <v>0</v>
-      </c>
       <c r="I175" t="n">
         <v>0</v>
       </c>
-      <c r="J175" t="inlineStr"/>
+      <c r="J175" t="n">
+        <v>0</v>
+      </c>
       <c r="K175" t="inlineStr"/>
       <c r="L175" t="inlineStr"/>
-      <c r="M175" t="n">
+      <c r="M175" t="inlineStr"/>
+      <c r="N175" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6538,18 +7387,21 @@
         <v>4816618.5315</v>
       </c>
       <c r="G176" t="n">
+        <v>0.5154800000000002</v>
+      </c>
+      <c r="H176" t="n">
         <v>0.4863250000000001</v>
       </c>
-      <c r="H176" t="n">
-        <v>0</v>
-      </c>
       <c r="I176" t="n">
         <v>0</v>
       </c>
-      <c r="J176" t="inlineStr"/>
+      <c r="J176" t="n">
+        <v>1</v>
+      </c>
       <c r="K176" t="inlineStr"/>
       <c r="L176" t="inlineStr"/>
-      <c r="M176" t="n">
+      <c r="M176" t="inlineStr"/>
+      <c r="N176" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6573,18 +7425,21 @@
         <v>1802418.6602</v>
       </c>
       <c r="G177" t="n">
+        <v>0.5116066666666668</v>
+      </c>
+      <c r="H177" t="n">
         <v>0.4868600000000001</v>
       </c>
-      <c r="H177" t="n">
-        <v>0</v>
-      </c>
       <c r="I177" t="n">
         <v>0</v>
       </c>
-      <c r="J177" t="inlineStr"/>
+      <c r="J177" t="n">
+        <v>0</v>
+      </c>
       <c r="K177" t="inlineStr"/>
       <c r="L177" t="inlineStr"/>
-      <c r="M177" t="n">
+      <c r="M177" t="inlineStr"/>
+      <c r="N177" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6608,18 +7463,21 @@
         <v>1000</v>
       </c>
       <c r="G178" t="n">
+        <v>0.5080866666666668</v>
+      </c>
+      <c r="H178" t="n">
         <v>0.4875733333333334</v>
       </c>
-      <c r="H178" t="n">
-        <v>0</v>
-      </c>
       <c r="I178" t="n">
         <v>0</v>
       </c>
-      <c r="J178" t="inlineStr"/>
+      <c r="J178" t="n">
+        <v>0</v>
+      </c>
       <c r="K178" t="inlineStr"/>
       <c r="L178" t="inlineStr"/>
-      <c r="M178" t="n">
+      <c r="M178" t="inlineStr"/>
+      <c r="N178" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6643,18 +7501,21 @@
         <v>1218332.2636</v>
       </c>
       <c r="G179" t="n">
+        <v>0.5062133333333335</v>
+      </c>
+      <c r="H179" t="n">
         <v>0.48822</v>
       </c>
-      <c r="H179" t="n">
-        <v>0</v>
-      </c>
       <c r="I179" t="n">
         <v>0</v>
       </c>
-      <c r="J179" t="inlineStr"/>
+      <c r="J179" t="n">
+        <v>0</v>
+      </c>
       <c r="K179" t="inlineStr"/>
       <c r="L179" t="inlineStr"/>
-      <c r="M179" t="n">
+      <c r="M179" t="inlineStr"/>
+      <c r="N179" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6678,18 +7539,21 @@
         <v>2863102.1624</v>
       </c>
       <c r="G180" t="n">
+        <v>0.5045266666666668</v>
+      </c>
+      <c r="H180" t="n">
         <v>0.4889683333333334</v>
       </c>
-      <c r="H180" t="n">
-        <v>0</v>
-      </c>
       <c r="I180" t="n">
         <v>0</v>
       </c>
-      <c r="J180" t="inlineStr"/>
+      <c r="J180" t="n">
+        <v>0</v>
+      </c>
       <c r="K180" t="inlineStr"/>
       <c r="L180" t="inlineStr"/>
-      <c r="M180" t="n">
+      <c r="M180" t="inlineStr"/>
+      <c r="N180" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6713,18 +7577,21 @@
         <v>1111616.4945</v>
       </c>
       <c r="G181" t="n">
+        <v>0.5024400000000002</v>
+      </c>
+      <c r="H181" t="n">
         <v>0.4896116666666668</v>
       </c>
-      <c r="H181" t="n">
-        <v>0</v>
-      </c>
       <c r="I181" t="n">
         <v>0</v>
       </c>
-      <c r="J181" t="inlineStr"/>
+      <c r="J181" t="n">
+        <v>0</v>
+      </c>
       <c r="K181" t="inlineStr"/>
       <c r="L181" t="inlineStr"/>
-      <c r="M181" t="n">
+      <c r="M181" t="inlineStr"/>
+      <c r="N181" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6748,18 +7615,21 @@
         <v>99104.71769999999</v>
       </c>
       <c r="G182" t="n">
+        <v>0.5018600000000002</v>
+      </c>
+      <c r="H182" t="n">
         <v>0.4902933333333335</v>
       </c>
-      <c r="H182" t="n">
-        <v>0</v>
-      </c>
       <c r="I182" t="n">
         <v>0</v>
       </c>
-      <c r="J182" t="inlineStr"/>
+      <c r="J182" t="n">
+        <v>1</v>
+      </c>
       <c r="K182" t="inlineStr"/>
       <c r="L182" t="inlineStr"/>
-      <c r="M182" t="n">
+      <c r="M182" t="inlineStr"/>
+      <c r="N182" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6783,18 +7653,21 @@
         <v>1540115.053</v>
       </c>
       <c r="G183" t="n">
+        <v>0.5025333333333336</v>
+      </c>
+      <c r="H183" t="n">
         <v>0.4909816666666668</v>
       </c>
-      <c r="H183" t="n">
-        <v>0</v>
-      </c>
       <c r="I183" t="n">
         <v>0</v>
       </c>
-      <c r="J183" t="inlineStr"/>
+      <c r="J183" t="n">
+        <v>0</v>
+      </c>
       <c r="K183" t="inlineStr"/>
       <c r="L183" t="inlineStr"/>
-      <c r="M183" t="n">
+      <c r="M183" t="inlineStr"/>
+      <c r="N183" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6818,18 +7691,21 @@
         <v>2113633.1547</v>
       </c>
       <c r="G184" t="n">
+        <v>0.5027000000000003</v>
+      </c>
+      <c r="H184" t="n">
         <v>0.4918383333333335</v>
       </c>
-      <c r="H184" t="n">
-        <v>0</v>
-      </c>
       <c r="I184" t="n">
         <v>0</v>
       </c>
-      <c r="J184" t="inlineStr"/>
+      <c r="J184" t="n">
+        <v>1</v>
+      </c>
       <c r="K184" t="inlineStr"/>
       <c r="L184" t="inlineStr"/>
-      <c r="M184" t="n">
+      <c r="M184" t="inlineStr"/>
+      <c r="N184" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6853,18 +7729,21 @@
         <v>3838706.547</v>
       </c>
       <c r="G185" t="n">
+        <v>0.5027866666666669</v>
+      </c>
+      <c r="H185" t="n">
         <v>0.4926783333333334</v>
       </c>
-      <c r="H185" t="n">
-        <v>0</v>
-      </c>
       <c r="I185" t="n">
         <v>0</v>
       </c>
-      <c r="J185" t="inlineStr"/>
+      <c r="J185" t="n">
+        <v>1</v>
+      </c>
       <c r="K185" t="inlineStr"/>
       <c r="L185" t="inlineStr"/>
-      <c r="M185" t="n">
+      <c r="M185" t="inlineStr"/>
+      <c r="N185" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6888,18 +7767,21 @@
         <v>3988530.77</v>
       </c>
       <c r="G186" t="n">
+        <v>0.5028933333333335</v>
+      </c>
+      <c r="H186" t="n">
         <v>0.4932450000000001</v>
       </c>
-      <c r="H186" t="n">
-        <v>0</v>
-      </c>
       <c r="I186" t="n">
         <v>0</v>
       </c>
-      <c r="J186" t="inlineStr"/>
+      <c r="J186" t="n">
+        <v>1</v>
+      </c>
       <c r="K186" t="inlineStr"/>
       <c r="L186" t="inlineStr"/>
-      <c r="M186" t="n">
+      <c r="M186" t="inlineStr"/>
+      <c r="N186" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6923,18 +7805,21 @@
         <v>3919206.7372</v>
       </c>
       <c r="G187" t="n">
+        <v>0.5026066666666669</v>
+      </c>
+      <c r="H187" t="n">
         <v>0.4938133333333334</v>
       </c>
-      <c r="H187" t="n">
-        <v>0</v>
-      </c>
       <c r="I187" t="n">
         <v>0</v>
       </c>
-      <c r="J187" t="inlineStr"/>
+      <c r="J187" t="n">
+        <v>1</v>
+      </c>
       <c r="K187" t="inlineStr"/>
       <c r="L187" t="inlineStr"/>
-      <c r="M187" t="n">
+      <c r="M187" t="inlineStr"/>
+      <c r="N187" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6958,18 +7843,21 @@
         <v>952242.9405</v>
       </c>
       <c r="G188" t="n">
+        <v>0.5030866666666669</v>
+      </c>
+      <c r="H188" t="n">
         <v>0.4945766666666668</v>
       </c>
-      <c r="H188" t="n">
-        <v>0</v>
-      </c>
       <c r="I188" t="n">
         <v>0</v>
       </c>
-      <c r="J188" t="inlineStr"/>
+      <c r="J188" t="n">
+        <v>1</v>
+      </c>
       <c r="K188" t="inlineStr"/>
       <c r="L188" t="inlineStr"/>
-      <c r="M188" t="n">
+      <c r="M188" t="inlineStr"/>
+      <c r="N188" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6993,22 +7881,21 @@
         <v>1150176.6093</v>
       </c>
       <c r="G189" t="n">
+        <v>0.5023400000000003</v>
+      </c>
+      <c r="H189" t="n">
         <v>0.4952950000000001</v>
       </c>
-      <c r="H189" t="n">
-        <v>1</v>
-      </c>
       <c r="I189" t="n">
         <v>0</v>
       </c>
       <c r="J189" t="n">
-        <v>0.4989</v>
-      </c>
-      <c r="K189" t="n">
-        <v>0.4989</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="K189" t="inlineStr"/>
       <c r="L189" t="inlineStr"/>
-      <c r="M189" t="n">
+      <c r="M189" t="inlineStr"/>
+      <c r="N189" t="n">
         <v>1</v>
       </c>
     </row>
@@ -7032,26 +7919,21 @@
         <v>2028834.7144</v>
       </c>
       <c r="G190" t="n">
+        <v>0.502466666666667</v>
+      </c>
+      <c r="H190" t="n">
         <v>0.4962266666666667</v>
       </c>
-      <c r="H190" t="n">
-        <v>1</v>
-      </c>
       <c r="I190" t="n">
         <v>0</v>
       </c>
       <c r="J190" t="n">
-        <v>0.499</v>
-      </c>
-      <c r="K190" t="n">
-        <v>0.4989</v>
-      </c>
-      <c r="L190" t="inlineStr">
-        <is>
-          <t>매수 체결</t>
-        </is>
-      </c>
-      <c r="M190" t="n">
+        <v>0</v>
+      </c>
+      <c r="K190" t="inlineStr"/>
+      <c r="L190" t="inlineStr"/>
+      <c r="M190" t="inlineStr"/>
+      <c r="N190" t="n">
         <v>1</v>
       </c>
     </row>
@@ -7075,24 +7957,21 @@
         <v>7799544.9802</v>
       </c>
       <c r="G191" t="n">
+        <v>0.5021333333333335</v>
+      </c>
+      <c r="H191" t="n">
         <v>0.4968516666666667</v>
       </c>
-      <c r="H191" t="n">
-        <v>0</v>
-      </c>
       <c r="I191" t="n">
         <v>0</v>
       </c>
-      <c r="J191" t="inlineStr"/>
-      <c r="K191" t="n">
-        <v>0.4989</v>
-      </c>
-      <c r="L191" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M191" t="n">
+      <c r="J191" t="n">
+        <v>0</v>
+      </c>
+      <c r="K191" t="inlineStr"/>
+      <c r="L191" t="inlineStr"/>
+      <c r="M191" t="inlineStr"/>
+      <c r="N191" t="n">
         <v>1</v>
       </c>
     </row>
@@ -7116,24 +7995,21 @@
         <v>8564674.109999999</v>
       </c>
       <c r="G192" t="n">
+        <v>0.5023400000000002</v>
+      </c>
+      <c r="H192" t="n">
         <v>0.4976250000000001</v>
       </c>
-      <c r="H192" t="n">
-        <v>0</v>
-      </c>
       <c r="I192" t="n">
         <v>0</v>
       </c>
-      <c r="J192" t="inlineStr"/>
-      <c r="K192" t="n">
-        <v>0.4989</v>
-      </c>
-      <c r="L192" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M192" t="n">
+      <c r="J192" t="n">
+        <v>0</v>
+      </c>
+      <c r="K192" t="inlineStr"/>
+      <c r="L192" t="inlineStr"/>
+      <c r="M192" t="inlineStr"/>
+      <c r="N192" t="n">
         <v>1</v>
       </c>
     </row>
@@ -7157,26 +8033,21 @@
         <v>662700</v>
       </c>
       <c r="G193" t="n">
+        <v>0.5022000000000002</v>
+      </c>
+      <c r="H193" t="n">
         <v>0.4982316666666667</v>
       </c>
-      <c r="H193" t="n">
-        <v>1</v>
-      </c>
       <c r="I193" t="n">
         <v>0</v>
       </c>
       <c r="J193" t="n">
-        <v>0.5009</v>
-      </c>
-      <c r="K193" t="n">
-        <v>0.4989</v>
-      </c>
-      <c r="L193" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M193" t="n">
+        <v>0</v>
+      </c>
+      <c r="K193" t="inlineStr"/>
+      <c r="L193" t="inlineStr"/>
+      <c r="M193" t="inlineStr"/>
+      <c r="N193" t="n">
         <v>1</v>
       </c>
     </row>
@@ -7200,24 +8071,21 @@
         <v>69507.3</v>
       </c>
       <c r="G194" t="n">
+        <v>0.5023266666666669</v>
+      </c>
+      <c r="H194" t="n">
         <v>0.4988416666666667</v>
       </c>
-      <c r="H194" t="n">
-        <v>0</v>
-      </c>
       <c r="I194" t="n">
         <v>0</v>
       </c>
-      <c r="J194" t="inlineStr"/>
-      <c r="K194" t="n">
-        <v>0.4989</v>
-      </c>
-      <c r="L194" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M194" t="n">
+      <c r="J194" t="n">
+        <v>0</v>
+      </c>
+      <c r="K194" t="inlineStr"/>
+      <c r="L194" t="inlineStr"/>
+      <c r="M194" t="inlineStr"/>
+      <c r="N194" t="n">
         <v>1</v>
       </c>
     </row>
@@ -7241,24 +8109,21 @@
         <v>1286114.4368</v>
       </c>
       <c r="G195" t="n">
+        <v>0.5013066666666669</v>
+      </c>
+      <c r="H195" t="n">
         <v>0.4990916666666668</v>
       </c>
-      <c r="H195" t="n">
-        <v>0</v>
-      </c>
       <c r="I195" t="n">
         <v>0</v>
       </c>
-      <c r="J195" t="inlineStr"/>
-      <c r="K195" t="n">
-        <v>0.4989</v>
-      </c>
-      <c r="L195" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M195" t="n">
+      <c r="J195" t="n">
+        <v>0</v>
+      </c>
+      <c r="K195" t="inlineStr"/>
+      <c r="L195" t="inlineStr"/>
+      <c r="M195" t="inlineStr"/>
+      <c r="N195" t="n">
         <v>1</v>
       </c>
     </row>
@@ -7282,24 +8147,21 @@
         <v>3085630.348</v>
       </c>
       <c r="G196" t="n">
+        <v>0.5011666666666669</v>
+      </c>
+      <c r="H196" t="n">
         <v>0.4997900000000001</v>
       </c>
-      <c r="H196" t="n">
-        <v>0</v>
-      </c>
       <c r="I196" t="n">
         <v>0</v>
       </c>
-      <c r="J196" t="inlineStr"/>
-      <c r="K196" t="n">
-        <v>0.4989</v>
-      </c>
-      <c r="L196" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M196" t="n">
+      <c r="J196" t="n">
+        <v>0</v>
+      </c>
+      <c r="K196" t="inlineStr"/>
+      <c r="L196" t="inlineStr"/>
+      <c r="M196" t="inlineStr"/>
+      <c r="N196" t="n">
         <v>1</v>
       </c>
     </row>
@@ -7323,24 +8185,21 @@
         <v>2308625.2932</v>
       </c>
       <c r="G197" t="n">
+        <v>0.5011666666666669</v>
+      </c>
+      <c r="H197" t="n">
         <v>0.5003166666666667</v>
       </c>
-      <c r="H197" t="n">
-        <v>0</v>
-      </c>
       <c r="I197" t="n">
         <v>0</v>
       </c>
-      <c r="J197" t="inlineStr"/>
-      <c r="K197" t="n">
-        <v>0.4989</v>
-      </c>
-      <c r="L197" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M197" t="n">
+      <c r="J197" t="n">
+        <v>0</v>
+      </c>
+      <c r="K197" t="inlineStr"/>
+      <c r="L197" t="inlineStr"/>
+      <c r="M197" t="inlineStr"/>
+      <c r="N197" t="n">
         <v>1</v>
       </c>
     </row>
@@ -7364,24 +8223,21 @@
         <v>2269544.9704</v>
       </c>
       <c r="G198" t="n">
+        <v>0.5012533333333336</v>
+      </c>
+      <c r="H198" t="n">
         <v>0.5011266666666667</v>
       </c>
-      <c r="H198" t="n">
-        <v>0</v>
-      </c>
       <c r="I198" t="n">
         <v>0</v>
       </c>
-      <c r="J198" t="inlineStr"/>
-      <c r="K198" t="n">
-        <v>0.4989</v>
-      </c>
-      <c r="L198" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M198" t="n">
+      <c r="J198" t="n">
+        <v>0</v>
+      </c>
+      <c r="K198" t="inlineStr"/>
+      <c r="L198" t="inlineStr"/>
+      <c r="M198" t="inlineStr"/>
+      <c r="N198" t="n">
         <v>1</v>
       </c>
     </row>
@@ -7405,24 +8261,21 @@
         <v>4063221.168896183</v>
       </c>
       <c r="G199" t="n">
+        <v>0.5020333333333336</v>
+      </c>
+      <c r="H199" t="n">
         <v>0.5020266666666668</v>
       </c>
-      <c r="H199" t="n">
-        <v>0</v>
-      </c>
       <c r="I199" t="n">
         <v>0</v>
       </c>
-      <c r="J199" t="inlineStr"/>
-      <c r="K199" t="n">
-        <v>0.4989</v>
-      </c>
-      <c r="L199" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M199" t="n">
+      <c r="J199" t="n">
+        <v>0</v>
+      </c>
+      <c r="K199" t="inlineStr"/>
+      <c r="L199" t="inlineStr"/>
+      <c r="M199" t="inlineStr"/>
+      <c r="N199" t="n">
         <v>1</v>
       </c>
     </row>
@@ -7446,24 +8299,21 @@
         <v>1001600.1848</v>
       </c>
       <c r="G200" t="n">
+        <v>0.5034600000000002</v>
+      </c>
+      <c r="H200" t="n">
         <v>0.5030233333333335</v>
       </c>
-      <c r="H200" t="n">
-        <v>0</v>
-      </c>
       <c r="I200" t="n">
         <v>0</v>
       </c>
-      <c r="J200" t="inlineStr"/>
-      <c r="K200" t="n">
-        <v>0.4989</v>
-      </c>
-      <c r="L200" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M200" t="n">
+      <c r="J200" t="n">
+        <v>0</v>
+      </c>
+      <c r="K200" t="inlineStr"/>
+      <c r="L200" t="inlineStr"/>
+      <c r="M200" t="inlineStr"/>
+      <c r="N200" t="n">
         <v>1</v>
       </c>
     </row>
@@ -7487,24 +8337,21 @@
         <v>647965.6473159877</v>
       </c>
       <c r="G201" t="n">
+        <v>0.5041600000000003</v>
+      </c>
+      <c r="H201" t="n">
         <v>0.5033950000000001</v>
       </c>
-      <c r="H201" t="n">
-        <v>0</v>
-      </c>
       <c r="I201" t="n">
         <v>0</v>
       </c>
-      <c r="J201" t="inlineStr"/>
-      <c r="K201" t="n">
-        <v>0.4989</v>
-      </c>
-      <c r="L201" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M201" t="n">
+      <c r="J201" t="n">
+        <v>0</v>
+      </c>
+      <c r="K201" t="inlineStr"/>
+      <c r="L201" t="inlineStr"/>
+      <c r="M201" t="inlineStr"/>
+      <c r="N201" t="n">
         <v>1</v>
       </c>
     </row>
@@ -7528,24 +8375,21 @@
         <v>4931642.739370893</v>
       </c>
       <c r="G202" t="n">
+        <v>0.5055666666666669</v>
+      </c>
+      <c r="H202" t="n">
         <v>0.5043733333333335</v>
       </c>
-      <c r="H202" t="n">
-        <v>0</v>
-      </c>
       <c r="I202" t="n">
         <v>0</v>
       </c>
-      <c r="J202" t="inlineStr"/>
-      <c r="K202" t="n">
-        <v>0.4989</v>
-      </c>
-      <c r="L202" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M202" t="n">
+      <c r="J202" t="n">
+        <v>0</v>
+      </c>
+      <c r="K202" t="inlineStr"/>
+      <c r="L202" t="inlineStr"/>
+      <c r="M202" t="inlineStr"/>
+      <c r="N202" t="n">
         <v>1</v>
       </c>
     </row>
@@ -7569,24 +8413,21 @@
         <v>2041186.6508</v>
       </c>
       <c r="G203" t="n">
+        <v>0.5059066666666669</v>
+      </c>
+      <c r="H203" t="n">
         <v>0.5048400000000002</v>
       </c>
-      <c r="H203" t="n">
-        <v>0</v>
-      </c>
       <c r="I203" t="n">
         <v>0</v>
       </c>
-      <c r="J203" t="inlineStr"/>
-      <c r="K203" t="n">
-        <v>0.4989</v>
-      </c>
-      <c r="L203" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M203" t="n">
+      <c r="J203" t="n">
+        <v>0</v>
+      </c>
+      <c r="K203" t="inlineStr"/>
+      <c r="L203" t="inlineStr"/>
+      <c r="M203" t="inlineStr"/>
+      <c r="N203" t="n">
         <v>1</v>
       </c>
     </row>
@@ -7610,24 +8451,21 @@
         <v>23967.38</v>
       </c>
       <c r="G204" t="n">
+        <v>0.506266666666667</v>
+      </c>
+      <c r="H204" t="n">
         <v>0.5053133333333336</v>
       </c>
-      <c r="H204" t="n">
-        <v>0</v>
-      </c>
       <c r="I204" t="n">
         <v>0</v>
       </c>
-      <c r="J204" t="inlineStr"/>
-      <c r="K204" t="n">
-        <v>0.4989</v>
-      </c>
-      <c r="L204" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M204" t="n">
+      <c r="J204" t="n">
+        <v>0</v>
+      </c>
+      <c r="K204" t="inlineStr"/>
+      <c r="L204" t="inlineStr"/>
+      <c r="M204" t="inlineStr"/>
+      <c r="N204" t="n">
         <v>1</v>
       </c>
     </row>
@@ -7651,24 +8489,21 @@
         <v>1352566.5053</v>
       </c>
       <c r="G205" t="n">
+        <v>0.5071333333333335</v>
+      </c>
+      <c r="H205" t="n">
         <v>0.5060800000000002</v>
       </c>
-      <c r="H205" t="n">
-        <v>0</v>
-      </c>
       <c r="I205" t="n">
         <v>0</v>
       </c>
-      <c r="J205" t="inlineStr"/>
-      <c r="K205" t="n">
-        <v>0.4989</v>
-      </c>
-      <c r="L205" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M205" t="n">
+      <c r="J205" t="n">
+        <v>0</v>
+      </c>
+      <c r="K205" t="inlineStr"/>
+      <c r="L205" t="inlineStr"/>
+      <c r="M205" t="inlineStr"/>
+      <c r="N205" t="n">
         <v>1</v>
       </c>
     </row>
@@ -7692,24 +8527,21 @@
         <v>1433606.1524</v>
       </c>
       <c r="G206" t="n">
+        <v>0.5086733333333335</v>
+      </c>
+      <c r="H206" t="n">
         <v>0.5069216666666668</v>
       </c>
-      <c r="H206" t="n">
-        <v>0</v>
-      </c>
       <c r="I206" t="n">
         <v>0</v>
       </c>
-      <c r="J206" t="inlineStr"/>
-      <c r="K206" t="n">
-        <v>0.4989</v>
-      </c>
-      <c r="L206" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M206" t="n">
+      <c r="J206" t="n">
+        <v>0</v>
+      </c>
+      <c r="K206" t="inlineStr"/>
+      <c r="L206" t="inlineStr"/>
+      <c r="M206" t="inlineStr"/>
+      <c r="N206" t="n">
         <v>1</v>
       </c>
     </row>
@@ -7733,24 +8565,21 @@
         <v>3168099.4712</v>
       </c>
       <c r="G207" t="n">
+        <v>0.5094133333333335</v>
+      </c>
+      <c r="H207" t="n">
         <v>0.5075450000000002</v>
       </c>
-      <c r="H207" t="n">
-        <v>0</v>
-      </c>
       <c r="I207" t="n">
         <v>0</v>
       </c>
-      <c r="J207" t="inlineStr"/>
-      <c r="K207" t="n">
-        <v>0.4989</v>
-      </c>
-      <c r="L207" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M207" t="n">
+      <c r="J207" t="n">
+        <v>0</v>
+      </c>
+      <c r="K207" t="inlineStr"/>
+      <c r="L207" t="inlineStr"/>
+      <c r="M207" t="inlineStr"/>
+      <c r="N207" t="n">
         <v>1</v>
       </c>
     </row>
@@ -7774,24 +8603,21 @@
         <v>810261.7222</v>
       </c>
       <c r="G208" t="n">
+        <v>0.5103666666666669</v>
+      </c>
+      <c r="H208" t="n">
         <v>0.5081383333333336</v>
       </c>
-      <c r="H208" t="n">
-        <v>0</v>
-      </c>
       <c r="I208" t="n">
         <v>0</v>
       </c>
-      <c r="J208" t="inlineStr"/>
-      <c r="K208" t="n">
-        <v>0.4989</v>
-      </c>
-      <c r="L208" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M208" t="n">
+      <c r="J208" t="n">
+        <v>0</v>
+      </c>
+      <c r="K208" t="inlineStr"/>
+      <c r="L208" t="inlineStr"/>
+      <c r="M208" t="inlineStr"/>
+      <c r="N208" t="n">
         <v>1</v>
       </c>
     </row>
@@ -7815,24 +8641,21 @@
         <v>4319790.4565</v>
       </c>
       <c r="G209" t="n">
+        <v>0.5119733333333336</v>
+      </c>
+      <c r="H209" t="n">
         <v>0.5089050000000002</v>
       </c>
-      <c r="H209" t="n">
-        <v>0</v>
-      </c>
       <c r="I209" t="n">
         <v>0</v>
       </c>
-      <c r="J209" t="inlineStr"/>
-      <c r="K209" t="n">
-        <v>0.4989</v>
-      </c>
-      <c r="L209" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M209" t="n">
+      <c r="J209" t="n">
+        <v>0</v>
+      </c>
+      <c r="K209" t="inlineStr"/>
+      <c r="L209" t="inlineStr"/>
+      <c r="M209" t="inlineStr"/>
+      <c r="N209" t="n">
         <v>1</v>
       </c>
     </row>
@@ -7856,24 +8679,21 @@
         <v>3931510.1746</v>
       </c>
       <c r="G210" t="n">
+        <v>0.5143066666666669</v>
+      </c>
+      <c r="H210" t="n">
         <v>0.5097700000000002</v>
       </c>
-      <c r="H210" t="n">
-        <v>0</v>
-      </c>
       <c r="I210" t="n">
         <v>0</v>
       </c>
-      <c r="J210" t="inlineStr"/>
-      <c r="K210" t="n">
-        <v>0.4989</v>
-      </c>
-      <c r="L210" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M210" t="n">
+      <c r="J210" t="n">
+        <v>0</v>
+      </c>
+      <c r="K210" t="inlineStr"/>
+      <c r="L210" t="inlineStr"/>
+      <c r="M210" t="inlineStr"/>
+      <c r="N210" t="n">
         <v>1</v>
       </c>
     </row>
@@ -7897,24 +8717,21 @@
         <v>3237634.1365</v>
       </c>
       <c r="G211" t="n">
+        <v>0.5169000000000002</v>
+      </c>
+      <c r="H211" t="n">
         <v>0.5108166666666668</v>
       </c>
-      <c r="H211" t="n">
-        <v>0</v>
-      </c>
       <c r="I211" t="n">
         <v>0</v>
       </c>
-      <c r="J211" t="inlineStr"/>
-      <c r="K211" t="n">
-        <v>0.4989</v>
-      </c>
-      <c r="L211" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M211" t="n">
+      <c r="J211" t="n">
+        <v>0</v>
+      </c>
+      <c r="K211" t="inlineStr"/>
+      <c r="L211" t="inlineStr"/>
+      <c r="M211" t="inlineStr"/>
+      <c r="N211" t="n">
         <v>1</v>
       </c>
     </row>
@@ -7938,24 +8755,21 @@
         <v>5813403.3784</v>
       </c>
       <c r="G212" t="n">
+        <v>0.5188666666666669</v>
+      </c>
+      <c r="H212" t="n">
         <v>0.5115550000000002</v>
       </c>
-      <c r="H212" t="n">
-        <v>0</v>
-      </c>
       <c r="I212" t="n">
         <v>0</v>
       </c>
-      <c r="J212" t="inlineStr"/>
-      <c r="K212" t="n">
-        <v>0.4989</v>
-      </c>
-      <c r="L212" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M212" t="n">
+      <c r="J212" t="n">
+        <v>1</v>
+      </c>
+      <c r="K212" t="inlineStr"/>
+      <c r="L212" t="inlineStr"/>
+      <c r="M212" t="inlineStr"/>
+      <c r="N212" t="n">
         <v>1</v>
       </c>
     </row>
@@ -7979,24 +8793,21 @@
         <v>3026920.8293</v>
       </c>
       <c r="G213" t="n">
+        <v>0.5207466666666669</v>
+      </c>
+      <c r="H213" t="n">
         <v>0.5125550000000002</v>
       </c>
-      <c r="H213" t="n">
-        <v>0</v>
-      </c>
       <c r="I213" t="n">
         <v>0</v>
       </c>
-      <c r="J213" t="inlineStr"/>
-      <c r="K213" t="n">
-        <v>0.4989</v>
-      </c>
-      <c r="L213" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M213" t="n">
+      <c r="J213" t="n">
+        <v>1</v>
+      </c>
+      <c r="K213" t="inlineStr"/>
+      <c r="L213" t="inlineStr"/>
+      <c r="M213" t="inlineStr"/>
+      <c r="N213" t="n">
         <v>1</v>
       </c>
     </row>
@@ -8020,24 +8831,21 @@
         <v>1482222.2929</v>
       </c>
       <c r="G214" t="n">
+        <v>0.5218800000000002</v>
+      </c>
+      <c r="H214" t="n">
         <v>0.5135550000000001</v>
       </c>
-      <c r="H214" t="n">
-        <v>0</v>
-      </c>
       <c r="I214" t="n">
         <v>0</v>
       </c>
-      <c r="J214" t="inlineStr"/>
-      <c r="K214" t="n">
-        <v>0.4989</v>
-      </c>
-      <c r="L214" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M214" t="n">
+      <c r="J214" t="n">
+        <v>1</v>
+      </c>
+      <c r="K214" t="inlineStr"/>
+      <c r="L214" t="inlineStr"/>
+      <c r="M214" t="inlineStr"/>
+      <c r="N214" t="n">
         <v>1</v>
       </c>
     </row>
@@ -8061,24 +8869,21 @@
         <v>6485215.2852</v>
       </c>
       <c r="G215" t="n">
+        <v>0.5232133333333336</v>
+      </c>
+      <c r="H215" t="n">
         <v>0.5142700000000001</v>
       </c>
-      <c r="H215" t="n">
-        <v>0</v>
-      </c>
       <c r="I215" t="n">
         <v>0</v>
       </c>
-      <c r="J215" t="inlineStr"/>
-      <c r="K215" t="n">
-        <v>0.4989</v>
-      </c>
-      <c r="L215" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M215" t="n">
+      <c r="J215" t="n">
+        <v>1</v>
+      </c>
+      <c r="K215" t="inlineStr"/>
+      <c r="L215" t="inlineStr"/>
+      <c r="M215" t="inlineStr"/>
+      <c r="N215" t="n">
         <v>1</v>
       </c>
     </row>
@@ -8102,24 +8907,21 @@
         <v>7203355.4106</v>
       </c>
       <c r="G216" t="n">
+        <v>0.5234533333333337</v>
+      </c>
+      <c r="H216" t="n">
         <v>0.5145316666666668</v>
       </c>
-      <c r="H216" t="n">
-        <v>0</v>
-      </c>
       <c r="I216" t="n">
         <v>0</v>
       </c>
-      <c r="J216" t="inlineStr"/>
-      <c r="K216" t="n">
-        <v>0.4989</v>
-      </c>
-      <c r="L216" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M216" t="n">
+      <c r="J216" t="n">
+        <v>1</v>
+      </c>
+      <c r="K216" t="inlineStr"/>
+      <c r="L216" t="inlineStr"/>
+      <c r="M216" t="inlineStr"/>
+      <c r="N216" t="n">
         <v>1</v>
       </c>
     </row>
@@ -8143,24 +8945,21 @@
         <v>1785335.7498</v>
       </c>
       <c r="G217" t="n">
+        <v>0.5232666666666669</v>
+      </c>
+      <c r="H217" t="n">
         <v>0.5145266666666668</v>
       </c>
-      <c r="H217" t="n">
-        <v>0</v>
-      </c>
       <c r="I217" t="n">
         <v>0</v>
       </c>
-      <c r="J217" t="inlineStr"/>
-      <c r="K217" t="n">
-        <v>0.4989</v>
-      </c>
-      <c r="L217" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M217" t="n">
+      <c r="J217" t="n">
+        <v>1</v>
+      </c>
+      <c r="K217" t="inlineStr"/>
+      <c r="L217" t="inlineStr"/>
+      <c r="M217" t="inlineStr"/>
+      <c r="N217" t="n">
         <v>1</v>
       </c>
     </row>
@@ -8184,24 +8983,21 @@
         <v>17811023.7963</v>
       </c>
       <c r="G218" t="n">
+        <v>0.523286666666667</v>
+      </c>
+      <c r="H218" t="n">
         <v>0.5142666666666668</v>
       </c>
-      <c r="H218" t="n">
-        <v>0</v>
-      </c>
       <c r="I218" t="n">
         <v>0</v>
       </c>
-      <c r="J218" t="inlineStr"/>
-      <c r="K218" t="n">
-        <v>0.4989</v>
-      </c>
-      <c r="L218" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M218" t="n">
+      <c r="J218" t="n">
+        <v>1</v>
+      </c>
+      <c r="K218" t="inlineStr"/>
+      <c r="L218" t="inlineStr"/>
+      <c r="M218" t="inlineStr"/>
+      <c r="N218" t="n">
         <v>1</v>
       </c>
     </row>
@@ -8225,24 +9021,21 @@
         <v>3202313.1491</v>
       </c>
       <c r="G219" t="n">
+        <v>0.5239933333333336</v>
+      </c>
+      <c r="H219" t="n">
         <v>0.5138983333333335</v>
       </c>
-      <c r="H219" t="n">
-        <v>0</v>
-      </c>
       <c r="I219" t="n">
         <v>0</v>
       </c>
-      <c r="J219" t="inlineStr"/>
-      <c r="K219" t="n">
-        <v>0.4989</v>
-      </c>
-      <c r="L219" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M219" t="n">
+      <c r="J219" t="n">
+        <v>1</v>
+      </c>
+      <c r="K219" t="inlineStr"/>
+      <c r="L219" t="inlineStr"/>
+      <c r="M219" t="inlineStr"/>
+      <c r="N219" t="n">
         <v>1</v>
       </c>
     </row>
@@ -8266,24 +9059,21 @@
         <v>343889.3476</v>
       </c>
       <c r="G220" t="n">
+        <v>0.5243600000000004</v>
+      </c>
+      <c r="H220" t="n">
         <v>0.5134033333333334</v>
       </c>
-      <c r="H220" t="n">
-        <v>0</v>
-      </c>
       <c r="I220" t="n">
         <v>0</v>
       </c>
-      <c r="J220" t="inlineStr"/>
-      <c r="K220" t="n">
-        <v>0.4989</v>
-      </c>
-      <c r="L220" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M220" t="n">
+      <c r="J220" t="n">
+        <v>1</v>
+      </c>
+      <c r="K220" t="inlineStr"/>
+      <c r="L220" t="inlineStr"/>
+      <c r="M220" t="inlineStr"/>
+      <c r="N220" t="n">
         <v>1</v>
       </c>
     </row>
@@ -8307,24 +9097,21 @@
         <v>2523685.414574077</v>
       </c>
       <c r="G221" t="n">
+        <v>0.5246866666666671</v>
+      </c>
+      <c r="H221" t="n">
         <v>0.5127433333333334</v>
       </c>
-      <c r="H221" t="n">
-        <v>0</v>
-      </c>
       <c r="I221" t="n">
         <v>0</v>
       </c>
-      <c r="J221" t="inlineStr"/>
-      <c r="K221" t="n">
-        <v>0.4989</v>
-      </c>
-      <c r="L221" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M221" t="n">
+      <c r="J221" t="n">
+        <v>1</v>
+      </c>
+      <c r="K221" t="inlineStr"/>
+      <c r="L221" t="inlineStr"/>
+      <c r="M221" t="inlineStr"/>
+      <c r="N221" t="n">
         <v>1</v>
       </c>
     </row>
@@ -8348,24 +9135,21 @@
         <v>10846486.5928</v>
       </c>
       <c r="G222" t="n">
+        <v>0.5245533333333336</v>
+      </c>
+      <c r="H222" t="n">
         <v>0.5119783333333335</v>
       </c>
-      <c r="H222" t="n">
-        <v>0</v>
-      </c>
       <c r="I222" t="n">
         <v>0</v>
       </c>
-      <c r="J222" t="inlineStr"/>
-      <c r="K222" t="n">
-        <v>0.4989</v>
-      </c>
-      <c r="L222" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M222" t="n">
+      <c r="J222" t="n">
+        <v>1</v>
+      </c>
+      <c r="K222" t="inlineStr"/>
+      <c r="L222" t="inlineStr"/>
+      <c r="M222" t="inlineStr"/>
+      <c r="N222" t="n">
         <v>1</v>
       </c>
     </row>
@@ -8389,24 +9173,21 @@
         <v>5144686.8029</v>
       </c>
       <c r="G223" t="n">
+        <v>0.5242066666666669</v>
+      </c>
+      <c r="H223" t="n">
         <v>0.5112150000000002</v>
       </c>
-      <c r="H223" t="n">
-        <v>0</v>
-      </c>
       <c r="I223" t="n">
         <v>0</v>
       </c>
-      <c r="J223" t="inlineStr"/>
-      <c r="K223" t="n">
-        <v>0.4989</v>
-      </c>
-      <c r="L223" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M223" t="n">
+      <c r="J223" t="n">
+        <v>1</v>
+      </c>
+      <c r="K223" t="inlineStr"/>
+      <c r="L223" t="inlineStr"/>
+      <c r="M223" t="inlineStr"/>
+      <c r="N223" t="n">
         <v>1</v>
       </c>
     </row>
@@ -8430,24 +9211,21 @@
         <v>3892518.564894153</v>
       </c>
       <c r="G224" t="n">
+        <v>0.5232066666666669</v>
+      </c>
+      <c r="H224" t="n">
         <v>0.5109300000000002</v>
       </c>
-      <c r="H224" t="n">
-        <v>0</v>
-      </c>
       <c r="I224" t="n">
         <v>0</v>
       </c>
-      <c r="J224" t="inlineStr"/>
-      <c r="K224" t="n">
-        <v>0.4989</v>
-      </c>
-      <c r="L224" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M224" t="n">
+      <c r="J224" t="n">
+        <v>1</v>
+      </c>
+      <c r="K224" t="inlineStr"/>
+      <c r="L224" t="inlineStr"/>
+      <c r="M224" t="inlineStr"/>
+      <c r="N224" t="n">
         <v>1</v>
       </c>
     </row>
@@ -8471,24 +9249,21 @@
         <v>3699646.916</v>
       </c>
       <c r="G225" t="n">
+        <v>0.5218733333333335</v>
+      </c>
+      <c r="H225" t="n">
         <v>0.5105033333333335</v>
       </c>
-      <c r="H225" t="n">
-        <v>0</v>
-      </c>
       <c r="I225" t="n">
         <v>0</v>
       </c>
-      <c r="J225" t="inlineStr"/>
-      <c r="K225" t="n">
-        <v>0.4989</v>
-      </c>
-      <c r="L225" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M225" t="n">
+      <c r="J225" t="n">
+        <v>1</v>
+      </c>
+      <c r="K225" t="inlineStr"/>
+      <c r="L225" t="inlineStr"/>
+      <c r="M225" t="inlineStr"/>
+      <c r="N225" t="n">
         <v>1</v>
       </c>
     </row>
@@ -8512,24 +9287,21 @@
         <v>1389454.9178</v>
       </c>
       <c r="G226" t="n">
+        <v>0.5194600000000003</v>
+      </c>
+      <c r="H226" t="n">
         <v>0.5099916666666668</v>
       </c>
-      <c r="H226" t="n">
-        <v>0</v>
-      </c>
       <c r="I226" t="n">
         <v>0</v>
       </c>
-      <c r="J226" t="inlineStr"/>
-      <c r="K226" t="n">
-        <v>0.4989</v>
-      </c>
-      <c r="L226" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M226" t="n">
+      <c r="J226" t="n">
+        <v>1</v>
+      </c>
+      <c r="K226" t="inlineStr"/>
+      <c r="L226" t="inlineStr"/>
+      <c r="M226" t="inlineStr"/>
+      <c r="N226" t="n">
         <v>1</v>
       </c>
     </row>
@@ -8553,24 +9325,21 @@
         <v>1218219.3025</v>
       </c>
       <c r="G227" t="n">
+        <v>0.5176600000000003</v>
+      </c>
+      <c r="H227" t="n">
         <v>0.5098883333333336</v>
       </c>
-      <c r="H227" t="n">
-        <v>0</v>
-      </c>
       <c r="I227" t="n">
         <v>0</v>
       </c>
-      <c r="J227" t="inlineStr"/>
-      <c r="K227" t="n">
-        <v>0.4989</v>
-      </c>
-      <c r="L227" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M227" t="n">
+      <c r="J227" t="n">
+        <v>1</v>
+      </c>
+      <c r="K227" t="inlineStr"/>
+      <c r="L227" t="inlineStr"/>
+      <c r="M227" t="inlineStr"/>
+      <c r="N227" t="n">
         <v>1</v>
       </c>
     </row>
@@ -8594,24 +9363,21 @@
         <v>5690955.3569</v>
       </c>
       <c r="G228" t="n">
+        <v>0.515286666666667</v>
+      </c>
+      <c r="H228" t="n">
         <v>0.5099550000000003</v>
       </c>
-      <c r="H228" t="n">
-        <v>0</v>
-      </c>
       <c r="I228" t="n">
         <v>0</v>
       </c>
-      <c r="J228" t="inlineStr"/>
-      <c r="K228" t="n">
-        <v>0.4989</v>
-      </c>
-      <c r="L228" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M228" t="n">
+      <c r="J228" t="n">
+        <v>1</v>
+      </c>
+      <c r="K228" t="inlineStr"/>
+      <c r="L228" t="inlineStr"/>
+      <c r="M228" t="inlineStr"/>
+      <c r="N228" t="n">
         <v>1</v>
       </c>
     </row>
@@ -8635,24 +9401,21 @@
         <v>372768.2950755346</v>
       </c>
       <c r="G229" t="n">
+        <v>0.5132000000000004</v>
+      </c>
+      <c r="H229" t="n">
         <v>0.5099533333333336</v>
       </c>
-      <c r="H229" t="n">
-        <v>0</v>
-      </c>
       <c r="I229" t="n">
         <v>0</v>
       </c>
-      <c r="J229" t="inlineStr"/>
-      <c r="K229" t="n">
-        <v>0.4989</v>
-      </c>
-      <c r="L229" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M229" t="n">
+      <c r="J229" t="n">
+        <v>0</v>
+      </c>
+      <c r="K229" t="inlineStr"/>
+      <c r="L229" t="inlineStr"/>
+      <c r="M229" t="inlineStr"/>
+      <c r="N229" t="n">
         <v>1</v>
       </c>
     </row>
@@ -8676,24 +9439,21 @@
         <v>3011834.0862</v>
       </c>
       <c r="G230" t="n">
+        <v>0.5105533333333336</v>
+      </c>
+      <c r="H230" t="n">
         <v>0.5100033333333336</v>
       </c>
-      <c r="H230" t="n">
-        <v>0</v>
-      </c>
       <c r="I230" t="n">
         <v>0</v>
       </c>
-      <c r="J230" t="inlineStr"/>
-      <c r="K230" t="n">
-        <v>0.4989</v>
-      </c>
-      <c r="L230" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M230" t="n">
+      <c r="J230" t="n">
+        <v>1</v>
+      </c>
+      <c r="K230" t="inlineStr"/>
+      <c r="L230" t="inlineStr"/>
+      <c r="M230" t="inlineStr"/>
+      <c r="N230" t="n">
         <v>1</v>
       </c>
     </row>
@@ -8717,24 +9477,21 @@
         <v>5328449.6321</v>
       </c>
       <c r="G231" t="n">
+        <v>0.509706666666667</v>
+      </c>
+      <c r="H231" t="n">
         <v>0.5100533333333336</v>
       </c>
-      <c r="H231" t="n">
-        <v>0</v>
-      </c>
       <c r="I231" t="n">
         <v>0</v>
       </c>
-      <c r="J231" t="inlineStr"/>
-      <c r="K231" t="n">
-        <v>0.4989</v>
-      </c>
-      <c r="L231" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M231" t="n">
+      <c r="J231" t="n">
+        <v>0</v>
+      </c>
+      <c r="K231" t="inlineStr"/>
+      <c r="L231" t="inlineStr"/>
+      <c r="M231" t="inlineStr"/>
+      <c r="N231" t="n">
         <v>1</v>
       </c>
     </row>
@@ -8758,24 +9515,21 @@
         <v>1000</v>
       </c>
       <c r="G232" t="n">
+        <v>0.5089933333333337</v>
+      </c>
+      <c r="H232" t="n">
         <v>0.5101083333333336</v>
       </c>
-      <c r="H232" t="n">
-        <v>0</v>
-      </c>
       <c r="I232" t="n">
         <v>0</v>
       </c>
-      <c r="J232" t="inlineStr"/>
-      <c r="K232" t="n">
-        <v>0.4989</v>
-      </c>
-      <c r="L232" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M232" t="n">
+      <c r="J232" t="n">
+        <v>1</v>
+      </c>
+      <c r="K232" t="inlineStr"/>
+      <c r="L232" t="inlineStr"/>
+      <c r="M232" t="inlineStr"/>
+      <c r="N232" t="n">
         <v>1</v>
       </c>
     </row>
@@ -8799,24 +9553,21 @@
         <v>735962.2415</v>
       </c>
       <c r="G233" t="n">
+        <v>0.5080933333333337</v>
+      </c>
+      <c r="H233" t="n">
         <v>0.5100933333333335</v>
       </c>
-      <c r="H233" t="n">
-        <v>0</v>
-      </c>
       <c r="I233" t="n">
         <v>0</v>
       </c>
-      <c r="J233" t="inlineStr"/>
-      <c r="K233" t="n">
-        <v>0.4989</v>
-      </c>
-      <c r="L233" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M233" t="n">
+      <c r="J233" t="n">
+        <v>0</v>
+      </c>
+      <c r="K233" t="inlineStr"/>
+      <c r="L233" t="inlineStr"/>
+      <c r="M233" t="inlineStr"/>
+      <c r="N233" t="n">
         <v>1</v>
       </c>
     </row>
@@ -8840,24 +9591,21 @@
         <v>1077627.112</v>
       </c>
       <c r="G234" t="n">
+        <v>0.5070200000000004</v>
+      </c>
+      <c r="H234" t="n">
         <v>0.5099050000000002</v>
       </c>
-      <c r="H234" t="n">
-        <v>0</v>
-      </c>
       <c r="I234" t="n">
         <v>0</v>
       </c>
-      <c r="J234" t="inlineStr"/>
-      <c r="K234" t="n">
-        <v>0.4989</v>
-      </c>
-      <c r="L234" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M234" t="n">
+      <c r="J234" t="n">
+        <v>1</v>
+      </c>
+      <c r="K234" t="inlineStr"/>
+      <c r="L234" t="inlineStr"/>
+      <c r="M234" t="inlineStr"/>
+      <c r="N234" t="n">
         <v>1</v>
       </c>
     </row>
@@ -8881,24 +9629,21 @@
         <v>1721735.6843</v>
       </c>
       <c r="G235" t="n">
+        <v>0.5056800000000004</v>
+      </c>
+      <c r="H235" t="n">
         <v>0.5099100000000002</v>
       </c>
-      <c r="H235" t="n">
-        <v>0</v>
-      </c>
       <c r="I235" t="n">
         <v>0</v>
       </c>
-      <c r="J235" t="inlineStr"/>
-      <c r="K235" t="n">
-        <v>0.4989</v>
-      </c>
-      <c r="L235" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M235" t="n">
+      <c r="J235" t="n">
+        <v>0</v>
+      </c>
+      <c r="K235" t="inlineStr"/>
+      <c r="L235" t="inlineStr"/>
+      <c r="M235" t="inlineStr"/>
+      <c r="N235" t="n">
         <v>1</v>
       </c>
     </row>
@@ -8922,24 +9667,21 @@
         <v>300730.8469</v>
       </c>
       <c r="G236" t="n">
+        <v>0.5041866666666671</v>
+      </c>
+      <c r="H236" t="n">
         <v>0.5099200000000002</v>
       </c>
-      <c r="H236" t="n">
-        <v>0</v>
-      </c>
       <c r="I236" t="n">
         <v>0</v>
       </c>
-      <c r="J236" t="inlineStr"/>
-      <c r="K236" t="n">
-        <v>0.4989</v>
-      </c>
-      <c r="L236" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M236" t="n">
+      <c r="J236" t="n">
+        <v>0</v>
+      </c>
+      <c r="K236" t="inlineStr"/>
+      <c r="L236" t="inlineStr"/>
+      <c r="M236" t="inlineStr"/>
+      <c r="N236" t="n">
         <v>1</v>
       </c>
     </row>
@@ -8963,24 +9705,21 @@
         <v>70069.6688</v>
       </c>
       <c r="G237" t="n">
+        <v>0.5034200000000004</v>
+      </c>
+      <c r="H237" t="n">
         <v>0.5099316666666668</v>
       </c>
-      <c r="H237" t="n">
-        <v>0</v>
-      </c>
       <c r="I237" t="n">
         <v>0</v>
       </c>
-      <c r="J237" t="inlineStr"/>
-      <c r="K237" t="n">
-        <v>0.4989</v>
-      </c>
-      <c r="L237" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M237" t="n">
+      <c r="J237" t="n">
+        <v>0</v>
+      </c>
+      <c r="K237" t="inlineStr"/>
+      <c r="L237" t="inlineStr"/>
+      <c r="M237" t="inlineStr"/>
+      <c r="N237" t="n">
         <v>1</v>
       </c>
     </row>
@@ -9004,24 +9743,21 @@
         <v>132861.2791</v>
       </c>
       <c r="G238" t="n">
+        <v>0.5030733333333337</v>
+      </c>
+      <c r="H238" t="n">
         <v>0.5099616666666668</v>
       </c>
-      <c r="H238" t="n">
-        <v>0</v>
-      </c>
       <c r="I238" t="n">
         <v>0</v>
       </c>
-      <c r="J238" t="inlineStr"/>
-      <c r="K238" t="n">
-        <v>0.4989</v>
-      </c>
-      <c r="L238" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M238" t="n">
+      <c r="J238" t="n">
+        <v>0</v>
+      </c>
+      <c r="K238" t="inlineStr"/>
+      <c r="L238" t="inlineStr"/>
+      <c r="M238" t="inlineStr"/>
+      <c r="N238" t="n">
         <v>1</v>
       </c>
     </row>
@@ -9045,24 +9781,21 @@
         <v>553013</v>
       </c>
       <c r="G239" t="n">
+        <v>0.5018933333333337</v>
+      </c>
+      <c r="H239" t="n">
         <v>0.5098500000000001</v>
       </c>
-      <c r="H239" t="n">
-        <v>0</v>
-      </c>
       <c r="I239" t="n">
         <v>0</v>
       </c>
-      <c r="J239" t="inlineStr"/>
-      <c r="K239" t="n">
-        <v>0.4989</v>
-      </c>
-      <c r="L239" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M239" t="n">
+      <c r="J239" t="n">
+        <v>0</v>
+      </c>
+      <c r="K239" t="inlineStr"/>
+      <c r="L239" t="inlineStr"/>
+      <c r="M239" t="inlineStr"/>
+      <c r="N239" t="n">
         <v>1</v>
       </c>
     </row>
@@ -9086,24 +9819,21 @@
         <v>2369.772</v>
       </c>
       <c r="G240" t="n">
+        <v>0.5013866666666671</v>
+      </c>
+      <c r="H240" t="n">
         <v>0.5097183333333335</v>
       </c>
-      <c r="H240" t="n">
-        <v>0</v>
-      </c>
       <c r="I240" t="n">
         <v>0</v>
       </c>
-      <c r="J240" t="inlineStr"/>
-      <c r="K240" t="n">
-        <v>0.4989</v>
-      </c>
-      <c r="L240" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M240" t="n">
+      <c r="J240" t="n">
+        <v>0</v>
+      </c>
+      <c r="K240" t="inlineStr"/>
+      <c r="L240" t="inlineStr"/>
+      <c r="M240" t="inlineStr"/>
+      <c r="N240" t="n">
         <v>1</v>
       </c>
     </row>
@@ -9127,24 +9857,21 @@
         <v>41207.4177</v>
       </c>
       <c r="G241" t="n">
+        <v>0.5011800000000004</v>
+      </c>
+      <c r="H241" t="n">
         <v>0.5096766666666668</v>
       </c>
-      <c r="H241" t="n">
-        <v>0</v>
-      </c>
       <c r="I241" t="n">
         <v>0</v>
       </c>
-      <c r="J241" t="inlineStr"/>
-      <c r="K241" t="n">
-        <v>0.4989</v>
-      </c>
-      <c r="L241" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M241" t="n">
+      <c r="J241" t="n">
+        <v>0</v>
+      </c>
+      <c r="K241" t="inlineStr"/>
+      <c r="L241" t="inlineStr"/>
+      <c r="M241" t="inlineStr"/>
+      <c r="N241" t="n">
         <v>1</v>
       </c>
     </row>
@@ -9168,24 +9895,21 @@
         <v>1168809.3731</v>
       </c>
       <c r="G242" t="n">
+        <v>0.5003066666666671</v>
+      </c>
+      <c r="H242" t="n">
         <v>0.5095000000000002</v>
       </c>
-      <c r="H242" t="n">
-        <v>0</v>
-      </c>
       <c r="I242" t="n">
         <v>0</v>
       </c>
-      <c r="J242" t="inlineStr"/>
-      <c r="K242" t="n">
-        <v>0.4989</v>
-      </c>
-      <c r="L242" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M242" t="n">
+      <c r="J242" t="n">
+        <v>0</v>
+      </c>
+      <c r="K242" t="inlineStr"/>
+      <c r="L242" t="inlineStr"/>
+      <c r="M242" t="inlineStr"/>
+      <c r="N242" t="n">
         <v>1</v>
       </c>
     </row>
@@ -9209,24 +9933,21 @@
         <v>1358294.6808</v>
       </c>
       <c r="G243" t="n">
+        <v>0.4995600000000004</v>
+      </c>
+      <c r="H243" t="n">
         <v>0.5092116666666667</v>
       </c>
-      <c r="H243" t="n">
-        <v>0</v>
-      </c>
       <c r="I243" t="n">
         <v>0</v>
       </c>
-      <c r="J243" t="inlineStr"/>
-      <c r="K243" t="n">
-        <v>0.4989</v>
-      </c>
-      <c r="L243" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M243" t="n">
+      <c r="J243" t="n">
+        <v>0</v>
+      </c>
+      <c r="K243" t="inlineStr"/>
+      <c r="L243" t="inlineStr"/>
+      <c r="M243" t="inlineStr"/>
+      <c r="N243" t="n">
         <v>1</v>
       </c>
     </row>
@@ -9250,24 +9971,21 @@
         <v>650847.9848</v>
       </c>
       <c r="G244" t="n">
+        <v>0.4984466666666671</v>
+      </c>
+      <c r="H244" t="n">
         <v>0.5088900000000001</v>
       </c>
-      <c r="H244" t="n">
-        <v>0</v>
-      </c>
       <c r="I244" t="n">
         <v>0</v>
       </c>
-      <c r="J244" t="inlineStr"/>
-      <c r="K244" t="n">
-        <v>0.4989</v>
-      </c>
-      <c r="L244" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M244" t="n">
+      <c r="J244" t="n">
+        <v>0</v>
+      </c>
+      <c r="K244" t="inlineStr"/>
+      <c r="L244" t="inlineStr"/>
+      <c r="M244" t="inlineStr"/>
+      <c r="N244" t="n">
         <v>1</v>
       </c>
     </row>
@@ -9291,24 +10009,21 @@
         <v>65000</v>
       </c>
       <c r="G245" t="n">
+        <v>0.4977666666666671</v>
+      </c>
+      <c r="H245" t="n">
         <v>0.5087483333333334</v>
       </c>
-      <c r="H245" t="n">
-        <v>0</v>
-      </c>
       <c r="I245" t="n">
         <v>0</v>
       </c>
-      <c r="J245" t="inlineStr"/>
-      <c r="K245" t="n">
-        <v>0.4989</v>
-      </c>
-      <c r="L245" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M245" t="n">
+      <c r="J245" t="n">
+        <v>0</v>
+      </c>
+      <c r="K245" t="inlineStr"/>
+      <c r="L245" t="inlineStr"/>
+      <c r="M245" t="inlineStr"/>
+      <c r="N245" t="n">
         <v>1</v>
       </c>
     </row>
@@ -9332,24 +10047,21 @@
         <v>26030</v>
       </c>
       <c r="G246" t="n">
+        <v>0.4970933333333338</v>
+      </c>
+      <c r="H246" t="n">
         <v>0.5086033333333334</v>
       </c>
-      <c r="H246" t="n">
-        <v>0</v>
-      </c>
       <c r="I246" t="n">
         <v>0</v>
       </c>
-      <c r="J246" t="inlineStr"/>
-      <c r="K246" t="n">
-        <v>0.4989</v>
-      </c>
-      <c r="L246" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M246" t="n">
+      <c r="J246" t="n">
+        <v>0</v>
+      </c>
+      <c r="K246" t="inlineStr"/>
+      <c r="L246" t="inlineStr"/>
+      <c r="M246" t="inlineStr"/>
+      <c r="N246" t="n">
         <v>1</v>
       </c>
     </row>
@@ -9373,24 +10085,21 @@
         <v>8464195.1809</v>
       </c>
       <c r="G247" t="n">
+        <v>0.4958066666666672</v>
+      </c>
+      <c r="H247" t="n">
         <v>0.5084083333333334</v>
       </c>
-      <c r="H247" t="n">
-        <v>0</v>
-      </c>
       <c r="I247" t="n">
         <v>0</v>
       </c>
-      <c r="J247" t="inlineStr"/>
-      <c r="K247" t="n">
-        <v>0.4989</v>
-      </c>
-      <c r="L247" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M247" t="n">
+      <c r="J247" t="n">
+        <v>0</v>
+      </c>
+      <c r="K247" t="inlineStr"/>
+      <c r="L247" t="inlineStr"/>
+      <c r="M247" t="inlineStr"/>
+      <c r="N247" t="n">
         <v>1</v>
       </c>
     </row>
@@ -9414,24 +10123,21 @@
         <v>626281.3</v>
       </c>
       <c r="G248" t="n">
+        <v>0.4972533333333339</v>
+      </c>
+      <c r="H248" t="n">
         <v>0.5086350000000001</v>
       </c>
-      <c r="H248" t="n">
-        <v>0</v>
-      </c>
       <c r="I248" t="n">
         <v>0</v>
       </c>
-      <c r="J248" t="inlineStr"/>
-      <c r="K248" t="n">
-        <v>0.4989</v>
-      </c>
-      <c r="L248" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M248" t="n">
+      <c r="J248" t="n">
+        <v>0</v>
+      </c>
+      <c r="K248" t="inlineStr"/>
+      <c r="L248" t="inlineStr"/>
+      <c r="M248" t="inlineStr"/>
+      <c r="N248" t="n">
         <v>1</v>
       </c>
     </row>
@@ -9455,24 +10161,21 @@
         <v>1810.1444</v>
       </c>
       <c r="G249" t="n">
+        <v>0.4973266666666672</v>
+      </c>
+      <c r="H249" t="n">
         <v>0.5086516666666667</v>
       </c>
-      <c r="H249" t="n">
-        <v>0</v>
-      </c>
       <c r="I249" t="n">
         <v>0</v>
       </c>
-      <c r="J249" t="inlineStr"/>
-      <c r="K249" t="n">
-        <v>0.4989</v>
-      </c>
-      <c r="L249" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M249" t="n">
+      <c r="J249" t="n">
+        <v>0</v>
+      </c>
+      <c r="K249" t="inlineStr"/>
+      <c r="L249" t="inlineStr"/>
+      <c r="M249" t="inlineStr"/>
+      <c r="N249" t="n">
         <v>1</v>
       </c>
     </row>
@@ -9496,24 +10199,21 @@
         <v>91326</v>
       </c>
       <c r="G250" t="n">
+        <v>0.4975000000000006</v>
+      </c>
+      <c r="H250" t="n">
         <v>0.5086683333333334</v>
       </c>
-      <c r="H250" t="n">
-        <v>0</v>
-      </c>
       <c r="I250" t="n">
         <v>0</v>
       </c>
-      <c r="J250" t="inlineStr"/>
-      <c r="K250" t="n">
-        <v>0.4989</v>
-      </c>
-      <c r="L250" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M250" t="n">
+      <c r="J250" t="n">
+        <v>0</v>
+      </c>
+      <c r="K250" t="inlineStr"/>
+      <c r="L250" t="inlineStr"/>
+      <c r="M250" t="inlineStr"/>
+      <c r="N250" t="n">
         <v>1</v>
       </c>
     </row>
@@ -9537,24 +10237,21 @@
         <v>89197.40300000001</v>
       </c>
       <c r="G251" t="n">
+        <v>0.4969933333333339</v>
+      </c>
+      <c r="H251" t="n">
         <v>0.5086350000000001</v>
       </c>
-      <c r="H251" t="n">
-        <v>0</v>
-      </c>
       <c r="I251" t="n">
         <v>0</v>
       </c>
-      <c r="J251" t="inlineStr"/>
-      <c r="K251" t="n">
-        <v>0.4989</v>
-      </c>
-      <c r="L251" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M251" t="n">
+      <c r="J251" t="n">
+        <v>0</v>
+      </c>
+      <c r="K251" t="inlineStr"/>
+      <c r="L251" t="inlineStr"/>
+      <c r="M251" t="inlineStr"/>
+      <c r="N251" t="n">
         <v>1</v>
       </c>
     </row>
@@ -9578,24 +10275,21 @@
         <v>333713.4617</v>
       </c>
       <c r="G252" t="n">
+        <v>0.4964266666666672</v>
+      </c>
+      <c r="H252" t="n">
         <v>0.5084533333333333</v>
       </c>
-      <c r="H252" t="n">
-        <v>0</v>
-      </c>
       <c r="I252" t="n">
         <v>0</v>
       </c>
-      <c r="J252" t="inlineStr"/>
-      <c r="K252" t="n">
-        <v>0.4989</v>
-      </c>
-      <c r="L252" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M252" t="n">
+      <c r="J252" t="n">
+        <v>0</v>
+      </c>
+      <c r="K252" t="inlineStr"/>
+      <c r="L252" t="inlineStr"/>
+      <c r="M252" t="inlineStr"/>
+      <c r="N252" t="n">
         <v>1</v>
       </c>
     </row>
@@ -9619,24 +10313,21 @@
         <v>441046.1933</v>
       </c>
       <c r="G253" t="n">
+        <v>0.4954333333333338</v>
+      </c>
+      <c r="H253" t="n">
         <v>0.5082699999999999</v>
       </c>
-      <c r="H253" t="n">
-        <v>0</v>
-      </c>
       <c r="I253" t="n">
         <v>0</v>
       </c>
-      <c r="J253" t="inlineStr"/>
-      <c r="K253" t="n">
-        <v>0.4989</v>
-      </c>
-      <c r="L253" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M253" t="n">
+      <c r="J253" t="n">
+        <v>0</v>
+      </c>
+      <c r="K253" t="inlineStr"/>
+      <c r="L253" t="inlineStr"/>
+      <c r="M253" t="inlineStr"/>
+      <c r="N253" t="n">
         <v>1</v>
       </c>
     </row>
@@ -9660,24 +10351,21 @@
         <v>3430</v>
       </c>
       <c r="G254" t="n">
+        <v>0.4952733333333338</v>
+      </c>
+      <c r="H254" t="n">
         <v>0.5080866666666666</v>
       </c>
-      <c r="H254" t="n">
-        <v>0</v>
-      </c>
       <c r="I254" t="n">
         <v>0</v>
       </c>
-      <c r="J254" t="inlineStr"/>
-      <c r="K254" t="n">
-        <v>0.4989</v>
-      </c>
-      <c r="L254" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M254" t="n">
+      <c r="J254" t="n">
+        <v>0</v>
+      </c>
+      <c r="K254" t="inlineStr"/>
+      <c r="L254" t="inlineStr"/>
+      <c r="M254" t="inlineStr"/>
+      <c r="N254" t="n">
         <v>1</v>
       </c>
     </row>
@@ -9701,24 +10389,21 @@
         <v>8496.3513</v>
       </c>
       <c r="G255" t="n">
+        <v>0.4944266666666672</v>
+      </c>
+      <c r="H255" t="n">
         <v>0.5079983333333332</v>
       </c>
-      <c r="H255" t="n">
-        <v>0</v>
-      </c>
       <c r="I255" t="n">
         <v>0</v>
       </c>
-      <c r="J255" t="inlineStr"/>
-      <c r="K255" t="n">
-        <v>0.4989</v>
-      </c>
-      <c r="L255" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M255" t="n">
+      <c r="J255" t="n">
+        <v>0</v>
+      </c>
+      <c r="K255" t="inlineStr"/>
+      <c r="L255" t="inlineStr"/>
+      <c r="M255" t="inlineStr"/>
+      <c r="N255" t="n">
         <v>1</v>
       </c>
     </row>
@@ -9742,24 +10427,21 @@
         <v>1335972.8719</v>
       </c>
       <c r="G256" t="n">
+        <v>0.4943133333333338</v>
+      </c>
+      <c r="H256" t="n">
         <v>0.5079633333333332</v>
       </c>
-      <c r="H256" t="n">
-        <v>0</v>
-      </c>
       <c r="I256" t="n">
         <v>0</v>
       </c>
-      <c r="J256" t="inlineStr"/>
-      <c r="K256" t="n">
-        <v>0.4989</v>
-      </c>
-      <c r="L256" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M256" t="n">
+      <c r="J256" t="n">
+        <v>0</v>
+      </c>
+      <c r="K256" t="inlineStr"/>
+      <c r="L256" t="inlineStr"/>
+      <c r="M256" t="inlineStr"/>
+      <c r="N256" t="n">
         <v>1</v>
       </c>
     </row>
@@ -9783,24 +10465,21 @@
         <v>2060</v>
       </c>
       <c r="G257" t="n">
+        <v>0.4942333333333338</v>
+      </c>
+      <c r="H257" t="n">
         <v>0.5077666666666665</v>
       </c>
-      <c r="H257" t="n">
-        <v>0</v>
-      </c>
       <c r="I257" t="n">
         <v>0</v>
       </c>
-      <c r="J257" t="inlineStr"/>
-      <c r="K257" t="n">
-        <v>0.4989</v>
-      </c>
-      <c r="L257" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M257" t="n">
+      <c r="J257" t="n">
+        <v>0</v>
+      </c>
+      <c r="K257" t="inlineStr"/>
+      <c r="L257" t="inlineStr"/>
+      <c r="M257" t="inlineStr"/>
+      <c r="N257" t="n">
         <v>1</v>
       </c>
     </row>
@@ -9824,24 +10503,401 @@
         <v>2599769.1922</v>
       </c>
       <c r="G258" t="n">
+        <v>0.4946933333333338</v>
+      </c>
+      <c r="H258" t="n">
         <v>0.5075716666666665</v>
       </c>
-      <c r="H258" t="n">
-        <v>0</v>
-      </c>
       <c r="I258" t="n">
         <v>0</v>
       </c>
-      <c r="J258" t="inlineStr"/>
-      <c r="K258" t="n">
-        <v>0.4989</v>
-      </c>
-      <c r="L258" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M258" t="n">
+      <c r="J258" t="n">
+        <v>0</v>
+      </c>
+      <c r="K258" t="inlineStr"/>
+      <c r="L258" t="inlineStr"/>
+      <c r="M258" t="inlineStr"/>
+      <c r="N258" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="259">
+      <c r="A259" s="1" t="n">
+        <v>257</v>
+      </c>
+      <c r="B259" t="n">
+        <v>0.489</v>
+      </c>
+      <c r="C259" t="n">
+        <v>0.4999</v>
+      </c>
+      <c r="D259" t="n">
+        <v>0.4999</v>
+      </c>
+      <c r="E259" t="n">
+        <v>0.488</v>
+      </c>
+      <c r="F259" t="n">
+        <v>984461.171</v>
+      </c>
+      <c r="G259" t="n">
+        <v>0.4951533333333338</v>
+      </c>
+      <c r="H259" t="n">
+        <v>0.5071699999999998</v>
+      </c>
+      <c r="I259" t="n">
+        <v>0</v>
+      </c>
+      <c r="J259" t="n">
+        <v>0</v>
+      </c>
+      <c r="K259" t="inlineStr"/>
+      <c r="L259" t="inlineStr"/>
+      <c r="M259" t="inlineStr"/>
+      <c r="N259" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="260">
+      <c r="A260" s="1" t="n">
+        <v>258</v>
+      </c>
+      <c r="B260" t="n">
+        <v>0.4999</v>
+      </c>
+      <c r="C260" t="n">
+        <v>0.4937</v>
+      </c>
+      <c r="D260" t="n">
+        <v>0.4999</v>
+      </c>
+      <c r="E260" t="n">
+        <v>0.4937</v>
+      </c>
+      <c r="F260" t="n">
+        <v>180286.77</v>
+      </c>
+      <c r="G260" t="n">
+        <v>0.4952000000000004</v>
+      </c>
+      <c r="H260" t="n">
+        <v>0.5066833333333332</v>
+      </c>
+      <c r="I260" t="n">
+        <v>0</v>
+      </c>
+      <c r="J260" t="n">
+        <v>0</v>
+      </c>
+      <c r="K260" t="inlineStr"/>
+      <c r="L260" t="inlineStr"/>
+      <c r="M260" t="inlineStr"/>
+      <c r="N260" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="261">
+      <c r="A261" s="1" t="n">
+        <v>259</v>
+      </c>
+      <c r="B261" t="n">
+        <v>0.4999</v>
+      </c>
+      <c r="C261" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="D261" t="n">
+        <v>0.5099</v>
+      </c>
+      <c r="E261" t="n">
+        <v>0.4938</v>
+      </c>
+      <c r="F261" t="n">
+        <v>19940.1</v>
+      </c>
+      <c r="G261" t="n">
+        <v>0.495666666666667</v>
+      </c>
+      <c r="H261" t="n">
+        <v>0.5064799999999998</v>
+      </c>
+      <c r="I261" t="n">
+        <v>0</v>
+      </c>
+      <c r="J261" t="n">
+        <v>0</v>
+      </c>
+      <c r="K261" t="inlineStr"/>
+      <c r="L261" t="inlineStr"/>
+      <c r="M261" t="inlineStr"/>
+      <c r="N261" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="262">
+      <c r="A262" s="1" t="n">
+        <v>260</v>
+      </c>
+      <c r="B262" t="n">
+        <v>0.5099</v>
+      </c>
+      <c r="C262" t="n">
+        <v>0.4999</v>
+      </c>
+      <c r="D262" t="n">
+        <v>0.5099</v>
+      </c>
+      <c r="E262" t="n">
+        <v>0.4938</v>
+      </c>
+      <c r="F262" t="n">
+        <v>73963.9906</v>
+      </c>
+      <c r="G262" t="n">
+        <v>0.4963266666666671</v>
+      </c>
+      <c r="H262" t="n">
+        <v>0.5060983333333332</v>
+      </c>
+      <c r="I262" t="n">
+        <v>0</v>
+      </c>
+      <c r="J262" t="n">
+        <v>0</v>
+      </c>
+      <c r="K262" t="inlineStr"/>
+      <c r="L262" t="inlineStr"/>
+      <c r="M262" t="inlineStr"/>
+      <c r="N262" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="263">
+      <c r="A263" s="1" t="n">
+        <v>261</v>
+      </c>
+      <c r="B263" t="n">
+        <v>0.4999</v>
+      </c>
+      <c r="C263" t="n">
+        <v>0.4999</v>
+      </c>
+      <c r="D263" t="n">
+        <v>0.4999</v>
+      </c>
+      <c r="E263" t="n">
+        <v>0.4999</v>
+      </c>
+      <c r="F263" t="n">
+        <v>385671.3456</v>
+      </c>
+      <c r="G263" t="n">
+        <v>0.4954866666666671</v>
+      </c>
+      <c r="H263" t="n">
+        <v>0.5060299999999998</v>
+      </c>
+      <c r="I263" t="n">
+        <v>0</v>
+      </c>
+      <c r="J263" t="n">
+        <v>0</v>
+      </c>
+      <c r="K263" t="inlineStr"/>
+      <c r="L263" t="inlineStr"/>
+      <c r="M263" t="inlineStr"/>
+      <c r="N263" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="264">
+      <c r="A264" s="1" t="n">
+        <v>262</v>
+      </c>
+      <c r="B264" t="n">
+        <v>0.4999</v>
+      </c>
+      <c r="C264" t="n">
+        <v>0.5099</v>
+      </c>
+      <c r="D264" t="n">
+        <v>0.5099</v>
+      </c>
+      <c r="E264" t="n">
+        <v>0.4999</v>
+      </c>
+      <c r="F264" t="n">
+        <v>234197.2474</v>
+      </c>
+      <c r="G264" t="n">
+        <v>0.4961466666666671</v>
+      </c>
+      <c r="H264" t="n">
+        <v>0.5061216666666665</v>
+      </c>
+      <c r="I264" t="n">
+        <v>0</v>
+      </c>
+      <c r="J264" t="n">
+        <v>0</v>
+      </c>
+      <c r="K264" t="inlineStr"/>
+      <c r="L264" t="inlineStr"/>
+      <c r="M264" t="inlineStr"/>
+      <c r="N264" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="265">
+      <c r="A265" s="1" t="n">
+        <v>263</v>
+      </c>
+      <c r="B265" t="n">
+        <v>0.4999</v>
+      </c>
+      <c r="C265" t="n">
+        <v>0.5099</v>
+      </c>
+      <c r="D265" t="n">
+        <v>0.5099</v>
+      </c>
+      <c r="E265" t="n">
+        <v>0.4999</v>
+      </c>
+      <c r="F265" t="n">
+        <v>111219.4248</v>
+      </c>
+      <c r="G265" t="n">
+        <v>0.4968133333333337</v>
+      </c>
+      <c r="H265" t="n">
+        <v>0.5060883333333331</v>
+      </c>
+      <c r="I265" t="n">
+        <v>0</v>
+      </c>
+      <c r="J265" t="n">
+        <v>0</v>
+      </c>
+      <c r="K265" t="inlineStr"/>
+      <c r="L265" t="inlineStr"/>
+      <c r="M265" t="inlineStr"/>
+      <c r="N265" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="266">
+      <c r="A266" s="1" t="n">
+        <v>264</v>
+      </c>
+      <c r="B266" t="n">
+        <v>0.4999</v>
+      </c>
+      <c r="C266" t="n">
+        <v>0.4999</v>
+      </c>
+      <c r="D266" t="n">
+        <v>0.5099</v>
+      </c>
+      <c r="E266" t="n">
+        <v>0.4999</v>
+      </c>
+      <c r="F266" t="n">
+        <v>98827.58839999999</v>
+      </c>
+      <c r="G266" t="n">
+        <v>0.4974733333333337</v>
+      </c>
+      <c r="H266" t="n">
+        <v>0.5058349999999998</v>
+      </c>
+      <c r="I266" t="n">
+        <v>0</v>
+      </c>
+      <c r="J266" t="n">
+        <v>0</v>
+      </c>
+      <c r="K266" t="inlineStr"/>
+      <c r="L266" t="inlineStr"/>
+      <c r="M266" t="inlineStr"/>
+      <c r="N266" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="267">
+      <c r="A267" s="1" t="n">
+        <v>265</v>
+      </c>
+      <c r="B267" t="n">
+        <v>0.5099</v>
+      </c>
+      <c r="C267" t="n">
+        <v>0.4999</v>
+      </c>
+      <c r="D267" t="n">
+        <v>0.5099</v>
+      </c>
+      <c r="E267" t="n">
+        <v>0.4999</v>
+      </c>
+      <c r="F267" t="n">
+        <v>3364.4789</v>
+      </c>
+      <c r="G267" t="n">
+        <v>0.4981333333333337</v>
+      </c>
+      <c r="H267" t="n">
+        <v>0.5056333333333332</v>
+      </c>
+      <c r="I267" t="n">
+        <v>0</v>
+      </c>
+      <c r="J267" t="n">
+        <v>0</v>
+      </c>
+      <c r="K267" t="inlineStr"/>
+      <c r="L267" t="inlineStr"/>
+      <c r="M267" t="inlineStr"/>
+      <c r="N267" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="268">
+      <c r="A268" s="1" t="n">
+        <v>266</v>
+      </c>
+      <c r="B268" t="n">
+        <v>0.494</v>
+      </c>
+      <c r="C268" t="n">
+        <v>0.494</v>
+      </c>
+      <c r="D268" t="n">
+        <v>0.494</v>
+      </c>
+      <c r="E268" t="n">
+        <v>0.494</v>
+      </c>
+      <c r="F268" t="n">
+        <v>51016.7496</v>
+      </c>
+      <c r="G268" t="n">
+        <v>0.4984066666666671</v>
+      </c>
+      <c r="H268" t="n">
+        <v>0.5052799999999997</v>
+      </c>
+      <c r="I268" t="n">
+        <v>0</v>
+      </c>
+      <c r="J268" t="n">
+        <v>0</v>
+      </c>
+      <c r="K268" t="inlineStr"/>
+      <c r="L268" t="inlineStr"/>
+      <c r="M268" t="inlineStr"/>
+      <c r="N268" t="n">
         <v>1</v>
       </c>
     </row>

--- a/BackTest/2020-01-13 BackTest OCN.xlsx
+++ b/BackTest/2020-01-13 BackTest OCN.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
-    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -54,18 +54,18 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="2">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyAlignment="1" borderId="1" fillId="0" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle builtinId="0" hidden="0" name="Normal" xfId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
   </cellStyles>
-  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium9"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
 </styleSheet>
 </file>
 
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:N326"/>
+  <dimension ref="A1:M326"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -399,35 +399,30 @@
       </c>
       <c r="H1" s="1" t="inlineStr">
         <is>
-          <t>low_check</t>
+          <t>trade_state</t>
         </is>
       </c>
       <c r="I1" s="1" t="inlineStr">
         <is>
-          <t>high_check</t>
+          <t>BuyPrice</t>
         </is>
       </c>
       <c r="J1" s="1" t="inlineStr">
         <is>
-          <t>BuyPrice</t>
+          <t>bprelay</t>
         </is>
       </c>
       <c r="K1" s="1" t="inlineStr">
         <is>
-          <t>bprelay</t>
+          <t>Condition</t>
         </is>
       </c>
       <c r="L1" s="1" t="inlineStr">
         <is>
-          <t>Condition</t>
+          <t>Profits</t>
         </is>
       </c>
       <c r="M1" s="1" t="inlineStr">
-        <is>
-          <t>Profits</t>
-        </is>
-      </c>
-      <c r="N1" s="1" t="inlineStr">
         <is>
           <t>Price_point</t>
         </is>
@@ -458,16 +453,13 @@
       <c r="H2" t="n">
         <v>0</v>
       </c>
-      <c r="I2" t="n">
-        <v>0</v>
-      </c>
+      <c r="I2" t="inlineStr"/>
       <c r="J2" t="inlineStr"/>
       <c r="K2" t="inlineStr"/>
-      <c r="L2" t="inlineStr"/>
-      <c r="M2" t="n">
-        <v>1</v>
-      </c>
-      <c r="N2" t="inlineStr"/>
+      <c r="L2" t="n">
+        <v>1</v>
+      </c>
+      <c r="M2" t="inlineStr"/>
     </row>
     <row r="3">
       <c r="A3" s="1" t="n">
@@ -494,16 +486,13 @@
       <c r="H3" t="n">
         <v>0</v>
       </c>
-      <c r="I3" t="n">
-        <v>0</v>
-      </c>
+      <c r="I3" t="inlineStr"/>
       <c r="J3" t="inlineStr"/>
       <c r="K3" t="inlineStr"/>
-      <c r="L3" t="inlineStr"/>
-      <c r="M3" t="n">
-        <v>1</v>
-      </c>
-      <c r="N3" t="inlineStr"/>
+      <c r="L3" t="n">
+        <v>1</v>
+      </c>
+      <c r="M3" t="inlineStr"/>
     </row>
     <row r="4">
       <c r="A4" s="1" t="n">
@@ -530,16 +519,13 @@
       <c r="H4" t="n">
         <v>0</v>
       </c>
-      <c r="I4" t="n">
-        <v>0</v>
-      </c>
+      <c r="I4" t="inlineStr"/>
       <c r="J4" t="inlineStr"/>
       <c r="K4" t="inlineStr"/>
-      <c r="L4" t="inlineStr"/>
-      <c r="M4" t="n">
-        <v>1</v>
-      </c>
-      <c r="N4" t="inlineStr"/>
+      <c r="L4" t="n">
+        <v>1</v>
+      </c>
+      <c r="M4" t="inlineStr"/>
     </row>
     <row r="5">
       <c r="A5" s="1" t="n">
@@ -566,16 +552,13 @@
       <c r="H5" t="n">
         <v>0</v>
       </c>
-      <c r="I5" t="n">
-        <v>0</v>
-      </c>
+      <c r="I5" t="inlineStr"/>
       <c r="J5" t="inlineStr"/>
       <c r="K5" t="inlineStr"/>
-      <c r="L5" t="inlineStr"/>
-      <c r="M5" t="n">
-        <v>1</v>
-      </c>
-      <c r="N5" t="inlineStr"/>
+      <c r="L5" t="n">
+        <v>1</v>
+      </c>
+      <c r="M5" t="inlineStr"/>
     </row>
     <row r="6">
       <c r="A6" s="1" t="n">
@@ -602,16 +585,13 @@
       <c r="H6" t="n">
         <v>0</v>
       </c>
-      <c r="I6" t="n">
-        <v>0</v>
-      </c>
+      <c r="I6" t="inlineStr"/>
       <c r="J6" t="inlineStr"/>
       <c r="K6" t="inlineStr"/>
-      <c r="L6" t="inlineStr"/>
-      <c r="M6" t="n">
-        <v>1</v>
-      </c>
-      <c r="N6" t="inlineStr"/>
+      <c r="L6" t="n">
+        <v>1</v>
+      </c>
+      <c r="M6" t="inlineStr"/>
     </row>
     <row r="7">
       <c r="A7" s="1" t="n">
@@ -638,16 +618,13 @@
       <c r="H7" t="n">
         <v>0</v>
       </c>
-      <c r="I7" t="n">
-        <v>0</v>
-      </c>
+      <c r="I7" t="inlineStr"/>
       <c r="J7" t="inlineStr"/>
       <c r="K7" t="inlineStr"/>
-      <c r="L7" t="inlineStr"/>
-      <c r="M7" t="n">
-        <v>1</v>
-      </c>
-      <c r="N7" t="inlineStr"/>
+      <c r="L7" t="n">
+        <v>1</v>
+      </c>
+      <c r="M7" t="inlineStr"/>
     </row>
     <row r="8">
       <c r="A8" s="1" t="n">
@@ -674,16 +651,13 @@
       <c r="H8" t="n">
         <v>0</v>
       </c>
-      <c r="I8" t="n">
-        <v>0</v>
-      </c>
+      <c r="I8" t="inlineStr"/>
       <c r="J8" t="inlineStr"/>
       <c r="K8" t="inlineStr"/>
-      <c r="L8" t="inlineStr"/>
-      <c r="M8" t="n">
-        <v>1</v>
-      </c>
-      <c r="N8" t="inlineStr"/>
+      <c r="L8" t="n">
+        <v>1</v>
+      </c>
+      <c r="M8" t="inlineStr"/>
     </row>
     <row r="9">
       <c r="A9" s="1" t="n">
@@ -710,16 +684,13 @@
       <c r="H9" t="n">
         <v>0</v>
       </c>
-      <c r="I9" t="n">
-        <v>0</v>
-      </c>
+      <c r="I9" t="inlineStr"/>
       <c r="J9" t="inlineStr"/>
       <c r="K9" t="inlineStr"/>
-      <c r="L9" t="inlineStr"/>
-      <c r="M9" t="n">
-        <v>1</v>
-      </c>
-      <c r="N9" t="inlineStr"/>
+      <c r="L9" t="n">
+        <v>1</v>
+      </c>
+      <c r="M9" t="inlineStr"/>
     </row>
     <row r="10">
       <c r="A10" s="1" t="n">
@@ -746,16 +717,13 @@
       <c r="H10" t="n">
         <v>0</v>
       </c>
-      <c r="I10" t="n">
-        <v>0</v>
-      </c>
+      <c r="I10" t="inlineStr"/>
       <c r="J10" t="inlineStr"/>
       <c r="K10" t="inlineStr"/>
-      <c r="L10" t="inlineStr"/>
-      <c r="M10" t="n">
-        <v>1</v>
-      </c>
-      <c r="N10" t="inlineStr"/>
+      <c r="L10" t="n">
+        <v>1</v>
+      </c>
+      <c r="M10" t="inlineStr"/>
     </row>
     <row r="11">
       <c r="A11" s="1" t="n">
@@ -782,16 +750,13 @@
       <c r="H11" t="n">
         <v>0</v>
       </c>
-      <c r="I11" t="n">
-        <v>0</v>
-      </c>
+      <c r="I11" t="inlineStr"/>
       <c r="J11" t="inlineStr"/>
       <c r="K11" t="inlineStr"/>
-      <c r="L11" t="inlineStr"/>
-      <c r="M11" t="n">
-        <v>1</v>
-      </c>
-      <c r="N11" t="inlineStr"/>
+      <c r="L11" t="n">
+        <v>1</v>
+      </c>
+      <c r="M11" t="inlineStr"/>
     </row>
     <row r="12">
       <c r="A12" s="1" t="n">
@@ -818,16 +783,13 @@
       <c r="H12" t="n">
         <v>0</v>
       </c>
-      <c r="I12" t="n">
-        <v>0</v>
-      </c>
+      <c r="I12" t="inlineStr"/>
       <c r="J12" t="inlineStr"/>
       <c r="K12" t="inlineStr"/>
-      <c r="L12" t="inlineStr"/>
-      <c r="M12" t="n">
-        <v>1</v>
-      </c>
-      <c r="N12" t="inlineStr"/>
+      <c r="L12" t="n">
+        <v>1</v>
+      </c>
+      <c r="M12" t="inlineStr"/>
     </row>
     <row r="13">
       <c r="A13" s="1" t="n">
@@ -854,16 +816,13 @@
       <c r="H13" t="n">
         <v>0</v>
       </c>
-      <c r="I13" t="n">
-        <v>0</v>
-      </c>
+      <c r="I13" t="inlineStr"/>
       <c r="J13" t="inlineStr"/>
       <c r="K13" t="inlineStr"/>
-      <c r="L13" t="inlineStr"/>
-      <c r="M13" t="n">
-        <v>1</v>
-      </c>
-      <c r="N13" t="inlineStr"/>
+      <c r="L13" t="n">
+        <v>1</v>
+      </c>
+      <c r="M13" t="inlineStr"/>
     </row>
     <row r="14">
       <c r="A14" s="1" t="n">
@@ -890,16 +849,13 @@
       <c r="H14" t="n">
         <v>0</v>
       </c>
-      <c r="I14" t="n">
-        <v>0</v>
-      </c>
+      <c r="I14" t="inlineStr"/>
       <c r="J14" t="inlineStr"/>
       <c r="K14" t="inlineStr"/>
-      <c r="L14" t="inlineStr"/>
-      <c r="M14" t="n">
-        <v>1</v>
-      </c>
-      <c r="N14" t="inlineStr"/>
+      <c r="L14" t="n">
+        <v>1</v>
+      </c>
+      <c r="M14" t="inlineStr"/>
     </row>
     <row r="15">
       <c r="A15" s="1" t="n">
@@ -926,16 +882,13 @@
       <c r="H15" t="n">
         <v>0</v>
       </c>
-      <c r="I15" t="n">
-        <v>0</v>
-      </c>
+      <c r="I15" t="inlineStr"/>
       <c r="J15" t="inlineStr"/>
       <c r="K15" t="inlineStr"/>
-      <c r="L15" t="inlineStr"/>
-      <c r="M15" t="n">
-        <v>1</v>
-      </c>
-      <c r="N15" t="inlineStr"/>
+      <c r="L15" t="n">
+        <v>1</v>
+      </c>
+      <c r="M15" t="inlineStr"/>
     </row>
     <row r="16">
       <c r="A16" s="1" t="n">
@@ -962,16 +915,13 @@
       <c r="H16" t="n">
         <v>0</v>
       </c>
-      <c r="I16" t="n">
-        <v>0</v>
-      </c>
+      <c r="I16" t="inlineStr"/>
       <c r="J16" t="inlineStr"/>
       <c r="K16" t="inlineStr"/>
-      <c r="L16" t="inlineStr"/>
-      <c r="M16" t="n">
-        <v>1</v>
-      </c>
-      <c r="N16" t="inlineStr"/>
+      <c r="L16" t="n">
+        <v>1</v>
+      </c>
+      <c r="M16" t="inlineStr"/>
     </row>
     <row r="17">
       <c r="A17" s="1" t="n">
@@ -998,16 +948,13 @@
       <c r="H17" t="n">
         <v>0</v>
       </c>
-      <c r="I17" t="n">
-        <v>0</v>
-      </c>
+      <c r="I17" t="inlineStr"/>
       <c r="J17" t="inlineStr"/>
       <c r="K17" t="inlineStr"/>
-      <c r="L17" t="inlineStr"/>
-      <c r="M17" t="n">
-        <v>1</v>
-      </c>
-      <c r="N17" t="inlineStr"/>
+      <c r="L17" t="n">
+        <v>1</v>
+      </c>
+      <c r="M17" t="inlineStr"/>
     </row>
     <row r="18">
       <c r="A18" s="1" t="n">
@@ -1034,16 +981,13 @@
       <c r="H18" t="n">
         <v>0</v>
       </c>
-      <c r="I18" t="n">
-        <v>0</v>
-      </c>
+      <c r="I18" t="inlineStr"/>
       <c r="J18" t="inlineStr"/>
       <c r="K18" t="inlineStr"/>
-      <c r="L18" t="inlineStr"/>
-      <c r="M18" t="n">
-        <v>1</v>
-      </c>
-      <c r="N18" t="inlineStr"/>
+      <c r="L18" t="n">
+        <v>1</v>
+      </c>
+      <c r="M18" t="inlineStr"/>
     </row>
     <row r="19">
       <c r="A19" s="1" t="n">
@@ -1070,16 +1014,13 @@
       <c r="H19" t="n">
         <v>0</v>
       </c>
-      <c r="I19" t="n">
-        <v>0</v>
-      </c>
+      <c r="I19" t="inlineStr"/>
       <c r="J19" t="inlineStr"/>
       <c r="K19" t="inlineStr"/>
-      <c r="L19" t="inlineStr"/>
-      <c r="M19" t="n">
-        <v>1</v>
-      </c>
-      <c r="N19" t="inlineStr"/>
+      <c r="L19" t="n">
+        <v>1</v>
+      </c>
+      <c r="M19" t="inlineStr"/>
     </row>
     <row r="20">
       <c r="A20" s="1" t="n">
@@ -1106,16 +1047,13 @@
       <c r="H20" t="n">
         <v>0</v>
       </c>
-      <c r="I20" t="n">
-        <v>0</v>
-      </c>
+      <c r="I20" t="inlineStr"/>
       <c r="J20" t="inlineStr"/>
       <c r="K20" t="inlineStr"/>
-      <c r="L20" t="inlineStr"/>
-      <c r="M20" t="n">
-        <v>1</v>
-      </c>
-      <c r="N20" t="inlineStr"/>
+      <c r="L20" t="n">
+        <v>1</v>
+      </c>
+      <c r="M20" t="inlineStr"/>
     </row>
     <row r="21">
       <c r="A21" s="1" t="n">
@@ -1142,16 +1080,13 @@
       <c r="H21" t="n">
         <v>0</v>
       </c>
-      <c r="I21" t="n">
-        <v>0</v>
-      </c>
+      <c r="I21" t="inlineStr"/>
       <c r="J21" t="inlineStr"/>
       <c r="K21" t="inlineStr"/>
-      <c r="L21" t="inlineStr"/>
-      <c r="M21" t="n">
-        <v>1</v>
-      </c>
-      <c r="N21" t="inlineStr"/>
+      <c r="L21" t="n">
+        <v>1</v>
+      </c>
+      <c r="M21" t="inlineStr"/>
     </row>
     <row r="22">
       <c r="A22" s="1" t="n">
@@ -1178,16 +1113,13 @@
       <c r="H22" t="n">
         <v>0</v>
       </c>
-      <c r="I22" t="n">
-        <v>0</v>
-      </c>
+      <c r="I22" t="inlineStr"/>
       <c r="J22" t="inlineStr"/>
       <c r="K22" t="inlineStr"/>
-      <c r="L22" t="inlineStr"/>
-      <c r="M22" t="n">
-        <v>1</v>
-      </c>
-      <c r="N22" t="inlineStr"/>
+      <c r="L22" t="n">
+        <v>1</v>
+      </c>
+      <c r="M22" t="inlineStr"/>
     </row>
     <row r="23">
       <c r="A23" s="1" t="n">
@@ -1214,16 +1146,13 @@
       <c r="H23" t="n">
         <v>0</v>
       </c>
-      <c r="I23" t="n">
-        <v>0</v>
-      </c>
+      <c r="I23" t="inlineStr"/>
       <c r="J23" t="inlineStr"/>
       <c r="K23" t="inlineStr"/>
-      <c r="L23" t="inlineStr"/>
-      <c r="M23" t="n">
-        <v>1</v>
-      </c>
-      <c r="N23" t="inlineStr"/>
+      <c r="L23" t="n">
+        <v>1</v>
+      </c>
+      <c r="M23" t="inlineStr"/>
     </row>
     <row r="24">
       <c r="A24" s="1" t="n">
@@ -1250,16 +1179,13 @@
       <c r="H24" t="n">
         <v>0</v>
       </c>
-      <c r="I24" t="n">
-        <v>0</v>
-      </c>
+      <c r="I24" t="inlineStr"/>
       <c r="J24" t="inlineStr"/>
       <c r="K24" t="inlineStr"/>
-      <c r="L24" t="inlineStr"/>
-      <c r="M24" t="n">
-        <v>1</v>
-      </c>
-      <c r="N24" t="inlineStr"/>
+      <c r="L24" t="n">
+        <v>1</v>
+      </c>
+      <c r="M24" t="inlineStr"/>
     </row>
     <row r="25">
       <c r="A25" s="1" t="n">
@@ -1286,16 +1212,13 @@
       <c r="H25" t="n">
         <v>0</v>
       </c>
-      <c r="I25" t="n">
-        <v>0</v>
-      </c>
+      <c r="I25" t="inlineStr"/>
       <c r="J25" t="inlineStr"/>
       <c r="K25" t="inlineStr"/>
-      <c r="L25" t="inlineStr"/>
-      <c r="M25" t="n">
-        <v>1</v>
-      </c>
-      <c r="N25" t="inlineStr"/>
+      <c r="L25" t="n">
+        <v>1</v>
+      </c>
+      <c r="M25" t="inlineStr"/>
     </row>
     <row r="26">
       <c r="A26" s="1" t="n">
@@ -1322,16 +1245,13 @@
       <c r="H26" t="n">
         <v>0</v>
       </c>
-      <c r="I26" t="n">
-        <v>0</v>
-      </c>
+      <c r="I26" t="inlineStr"/>
       <c r="J26" t="inlineStr"/>
       <c r="K26" t="inlineStr"/>
-      <c r="L26" t="inlineStr"/>
-      <c r="M26" t="n">
-        <v>1</v>
-      </c>
-      <c r="N26" t="inlineStr"/>
+      <c r="L26" t="n">
+        <v>1</v>
+      </c>
+      <c r="M26" t="inlineStr"/>
     </row>
     <row r="27">
       <c r="A27" s="1" t="n">
@@ -1358,16 +1278,13 @@
       <c r="H27" t="n">
         <v>0</v>
       </c>
-      <c r="I27" t="n">
-        <v>0</v>
-      </c>
+      <c r="I27" t="inlineStr"/>
       <c r="J27" t="inlineStr"/>
       <c r="K27" t="inlineStr"/>
-      <c r="L27" t="inlineStr"/>
-      <c r="M27" t="n">
-        <v>1</v>
-      </c>
-      <c r="N27" t="inlineStr"/>
+      <c r="L27" t="n">
+        <v>1</v>
+      </c>
+      <c r="M27" t="inlineStr"/>
     </row>
     <row r="28">
       <c r="A28" s="1" t="n">
@@ -1394,16 +1311,13 @@
       <c r="H28" t="n">
         <v>0</v>
       </c>
-      <c r="I28" t="n">
-        <v>0</v>
-      </c>
+      <c r="I28" t="inlineStr"/>
       <c r="J28" t="inlineStr"/>
       <c r="K28" t="inlineStr"/>
-      <c r="L28" t="inlineStr"/>
-      <c r="M28" t="n">
-        <v>1</v>
-      </c>
-      <c r="N28" t="inlineStr"/>
+      <c r="L28" t="n">
+        <v>1</v>
+      </c>
+      <c r="M28" t="inlineStr"/>
     </row>
     <row r="29">
       <c r="A29" s="1" t="n">
@@ -1430,16 +1344,13 @@
       <c r="H29" t="n">
         <v>0</v>
       </c>
-      <c r="I29" t="n">
-        <v>0</v>
-      </c>
+      <c r="I29" t="inlineStr"/>
       <c r="J29" t="inlineStr"/>
       <c r="K29" t="inlineStr"/>
-      <c r="L29" t="inlineStr"/>
-      <c r="M29" t="n">
-        <v>1</v>
-      </c>
-      <c r="N29" t="inlineStr"/>
+      <c r="L29" t="n">
+        <v>1</v>
+      </c>
+      <c r="M29" t="inlineStr"/>
     </row>
     <row r="30">
       <c r="A30" s="1" t="n">
@@ -1466,16 +1377,13 @@
       <c r="H30" t="n">
         <v>0</v>
       </c>
-      <c r="I30" t="n">
-        <v>0</v>
-      </c>
+      <c r="I30" t="inlineStr"/>
       <c r="J30" t="inlineStr"/>
       <c r="K30" t="inlineStr"/>
-      <c r="L30" t="inlineStr"/>
-      <c r="M30" t="n">
-        <v>1</v>
-      </c>
-      <c r="N30" t="inlineStr"/>
+      <c r="L30" t="n">
+        <v>1</v>
+      </c>
+      <c r="M30" t="inlineStr"/>
     </row>
     <row r="31">
       <c r="A31" s="1" t="n">
@@ -1502,16 +1410,13 @@
       <c r="H31" t="n">
         <v>0</v>
       </c>
-      <c r="I31" t="n">
-        <v>0</v>
-      </c>
+      <c r="I31" t="inlineStr"/>
       <c r="J31" t="inlineStr"/>
       <c r="K31" t="inlineStr"/>
-      <c r="L31" t="inlineStr"/>
-      <c r="M31" t="n">
-        <v>1</v>
-      </c>
-      <c r="N31" t="inlineStr"/>
+      <c r="L31" t="n">
+        <v>1</v>
+      </c>
+      <c r="M31" t="inlineStr"/>
     </row>
     <row r="32">
       <c r="A32" s="1" t="n">
@@ -1538,16 +1443,13 @@
       <c r="H32" t="n">
         <v>0</v>
       </c>
-      <c r="I32" t="n">
-        <v>0</v>
-      </c>
+      <c r="I32" t="inlineStr"/>
       <c r="J32" t="inlineStr"/>
       <c r="K32" t="inlineStr"/>
-      <c r="L32" t="inlineStr"/>
-      <c r="M32" t="n">
-        <v>1</v>
-      </c>
-      <c r="N32" t="inlineStr"/>
+      <c r="L32" t="n">
+        <v>1</v>
+      </c>
+      <c r="M32" t="inlineStr"/>
     </row>
     <row r="33">
       <c r="A33" s="1" t="n">
@@ -1574,16 +1476,13 @@
       <c r="H33" t="n">
         <v>0</v>
       </c>
-      <c r="I33" t="n">
-        <v>0</v>
-      </c>
+      <c r="I33" t="inlineStr"/>
       <c r="J33" t="inlineStr"/>
       <c r="K33" t="inlineStr"/>
-      <c r="L33" t="inlineStr"/>
-      <c r="M33" t="n">
-        <v>1</v>
-      </c>
-      <c r="N33" t="inlineStr"/>
+      <c r="L33" t="n">
+        <v>1</v>
+      </c>
+      <c r="M33" t="inlineStr"/>
     </row>
     <row r="34">
       <c r="A34" s="1" t="n">
@@ -1610,16 +1509,13 @@
       <c r="H34" t="n">
         <v>0</v>
       </c>
-      <c r="I34" t="n">
-        <v>0</v>
-      </c>
+      <c r="I34" t="inlineStr"/>
       <c r="J34" t="inlineStr"/>
       <c r="K34" t="inlineStr"/>
-      <c r="L34" t="inlineStr"/>
-      <c r="M34" t="n">
-        <v>1</v>
-      </c>
-      <c r="N34" t="inlineStr"/>
+      <c r="L34" t="n">
+        <v>1</v>
+      </c>
+      <c r="M34" t="inlineStr"/>
     </row>
     <row r="35">
       <c r="A35" s="1" t="n">
@@ -1646,16 +1542,13 @@
       <c r="H35" t="n">
         <v>0</v>
       </c>
-      <c r="I35" t="n">
-        <v>0</v>
-      </c>
+      <c r="I35" t="inlineStr"/>
       <c r="J35" t="inlineStr"/>
       <c r="K35" t="inlineStr"/>
-      <c r="L35" t="inlineStr"/>
-      <c r="M35" t="n">
-        <v>1</v>
-      </c>
-      <c r="N35" t="inlineStr"/>
+      <c r="L35" t="n">
+        <v>1</v>
+      </c>
+      <c r="M35" t="inlineStr"/>
     </row>
     <row r="36">
       <c r="A36" s="1" t="n">
@@ -1682,16 +1575,13 @@
       <c r="H36" t="n">
         <v>0</v>
       </c>
-      <c r="I36" t="n">
-        <v>0</v>
-      </c>
+      <c r="I36" t="inlineStr"/>
       <c r="J36" t="inlineStr"/>
       <c r="K36" t="inlineStr"/>
-      <c r="L36" t="inlineStr"/>
-      <c r="M36" t="n">
-        <v>1</v>
-      </c>
-      <c r="N36" t="inlineStr"/>
+      <c r="L36" t="n">
+        <v>1</v>
+      </c>
+      <c r="M36" t="inlineStr"/>
     </row>
     <row r="37">
       <c r="A37" s="1" t="n">
@@ -1718,16 +1608,13 @@
       <c r="H37" t="n">
         <v>0</v>
       </c>
-      <c r="I37" t="n">
-        <v>0</v>
-      </c>
+      <c r="I37" t="inlineStr"/>
       <c r="J37" t="inlineStr"/>
       <c r="K37" t="inlineStr"/>
-      <c r="L37" t="inlineStr"/>
-      <c r="M37" t="n">
-        <v>1</v>
-      </c>
-      <c r="N37" t="inlineStr"/>
+      <c r="L37" t="n">
+        <v>1</v>
+      </c>
+      <c r="M37" t="inlineStr"/>
     </row>
     <row r="38">
       <c r="A38" s="1" t="n">
@@ -1754,16 +1641,13 @@
       <c r="H38" t="n">
         <v>0</v>
       </c>
-      <c r="I38" t="n">
-        <v>0</v>
-      </c>
+      <c r="I38" t="inlineStr"/>
       <c r="J38" t="inlineStr"/>
       <c r="K38" t="inlineStr"/>
-      <c r="L38" t="inlineStr"/>
-      <c r="M38" t="n">
-        <v>1</v>
-      </c>
-      <c r="N38" t="inlineStr"/>
+      <c r="L38" t="n">
+        <v>1</v>
+      </c>
+      <c r="M38" t="inlineStr"/>
     </row>
     <row r="39">
       <c r="A39" s="1" t="n">
@@ -1790,16 +1674,13 @@
       <c r="H39" t="n">
         <v>0</v>
       </c>
-      <c r="I39" t="n">
-        <v>0</v>
-      </c>
+      <c r="I39" t="inlineStr"/>
       <c r="J39" t="inlineStr"/>
       <c r="K39" t="inlineStr"/>
-      <c r="L39" t="inlineStr"/>
-      <c r="M39" t="n">
-        <v>1</v>
-      </c>
-      <c r="N39" t="inlineStr"/>
+      <c r="L39" t="n">
+        <v>1</v>
+      </c>
+      <c r="M39" t="inlineStr"/>
     </row>
     <row r="40">
       <c r="A40" s="1" t="n">
@@ -1826,16 +1707,13 @@
       <c r="H40" t="n">
         <v>0</v>
       </c>
-      <c r="I40" t="n">
-        <v>0</v>
-      </c>
+      <c r="I40" t="inlineStr"/>
       <c r="J40" t="inlineStr"/>
       <c r="K40" t="inlineStr"/>
-      <c r="L40" t="inlineStr"/>
-      <c r="M40" t="n">
-        <v>1</v>
-      </c>
-      <c r="N40" t="inlineStr"/>
+      <c r="L40" t="n">
+        <v>1</v>
+      </c>
+      <c r="M40" t="inlineStr"/>
     </row>
     <row r="41">
       <c r="A41" s="1" t="n">
@@ -1862,16 +1740,13 @@
       <c r="H41" t="n">
         <v>0</v>
       </c>
-      <c r="I41" t="n">
-        <v>0</v>
-      </c>
+      <c r="I41" t="inlineStr"/>
       <c r="J41" t="inlineStr"/>
       <c r="K41" t="inlineStr"/>
-      <c r="L41" t="inlineStr"/>
-      <c r="M41" t="n">
-        <v>1</v>
-      </c>
-      <c r="N41" t="inlineStr"/>
+      <c r="L41" t="n">
+        <v>1</v>
+      </c>
+      <c r="M41" t="inlineStr"/>
     </row>
     <row r="42">
       <c r="A42" s="1" t="n">
@@ -1898,16 +1773,13 @@
       <c r="H42" t="n">
         <v>0</v>
       </c>
-      <c r="I42" t="n">
-        <v>0</v>
-      </c>
+      <c r="I42" t="inlineStr"/>
       <c r="J42" t="inlineStr"/>
       <c r="K42" t="inlineStr"/>
-      <c r="L42" t="inlineStr"/>
-      <c r="M42" t="n">
-        <v>1</v>
-      </c>
-      <c r="N42" t="inlineStr"/>
+      <c r="L42" t="n">
+        <v>1</v>
+      </c>
+      <c r="M42" t="inlineStr"/>
     </row>
     <row r="43">
       <c r="A43" s="1" t="n">
@@ -1934,16 +1806,13 @@
       <c r="H43" t="n">
         <v>0</v>
       </c>
-      <c r="I43" t="n">
-        <v>0</v>
-      </c>
+      <c r="I43" t="inlineStr"/>
       <c r="J43" t="inlineStr"/>
       <c r="K43" t="inlineStr"/>
-      <c r="L43" t="inlineStr"/>
-      <c r="M43" t="n">
-        <v>1</v>
-      </c>
-      <c r="N43" t="inlineStr"/>
+      <c r="L43" t="n">
+        <v>1</v>
+      </c>
+      <c r="M43" t="inlineStr"/>
     </row>
     <row r="44">
       <c r="A44" s="1" t="n">
@@ -1970,16 +1839,13 @@
       <c r="H44" t="n">
         <v>0</v>
       </c>
-      <c r="I44" t="n">
-        <v>0</v>
-      </c>
+      <c r="I44" t="inlineStr"/>
       <c r="J44" t="inlineStr"/>
       <c r="K44" t="inlineStr"/>
-      <c r="L44" t="inlineStr"/>
-      <c r="M44" t="n">
-        <v>1</v>
-      </c>
-      <c r="N44" t="inlineStr"/>
+      <c r="L44" t="n">
+        <v>1</v>
+      </c>
+      <c r="M44" t="inlineStr"/>
     </row>
     <row r="45">
       <c r="A45" s="1" t="n">
@@ -2006,16 +1872,13 @@
       <c r="H45" t="n">
         <v>0</v>
       </c>
-      <c r="I45" t="n">
-        <v>0</v>
-      </c>
+      <c r="I45" t="inlineStr"/>
       <c r="J45" t="inlineStr"/>
       <c r="K45" t="inlineStr"/>
-      <c r="L45" t="inlineStr"/>
-      <c r="M45" t="n">
-        <v>1</v>
-      </c>
-      <c r="N45" t="inlineStr"/>
+      <c r="L45" t="n">
+        <v>1</v>
+      </c>
+      <c r="M45" t="inlineStr"/>
     </row>
     <row r="46">
       <c r="A46" s="1" t="n">
@@ -2042,16 +1905,13 @@
       <c r="H46" t="n">
         <v>0</v>
       </c>
-      <c r="I46" t="n">
-        <v>0</v>
-      </c>
+      <c r="I46" t="inlineStr"/>
       <c r="J46" t="inlineStr"/>
       <c r="K46" t="inlineStr"/>
-      <c r="L46" t="inlineStr"/>
-      <c r="M46" t="n">
-        <v>1</v>
-      </c>
-      <c r="N46" t="inlineStr"/>
+      <c r="L46" t="n">
+        <v>1</v>
+      </c>
+      <c r="M46" t="inlineStr"/>
     </row>
     <row r="47">
       <c r="A47" s="1" t="n">
@@ -2078,16 +1938,13 @@
       <c r="H47" t="n">
         <v>0</v>
       </c>
-      <c r="I47" t="n">
-        <v>0</v>
-      </c>
+      <c r="I47" t="inlineStr"/>
       <c r="J47" t="inlineStr"/>
       <c r="K47" t="inlineStr"/>
-      <c r="L47" t="inlineStr"/>
-      <c r="M47" t="n">
-        <v>1</v>
-      </c>
-      <c r="N47" t="inlineStr"/>
+      <c r="L47" t="n">
+        <v>1</v>
+      </c>
+      <c r="M47" t="inlineStr"/>
     </row>
     <row r="48">
       <c r="A48" s="1" t="n">
@@ -2114,16 +1971,13 @@
       <c r="H48" t="n">
         <v>0</v>
       </c>
-      <c r="I48" t="n">
-        <v>0</v>
-      </c>
+      <c r="I48" t="inlineStr"/>
       <c r="J48" t="inlineStr"/>
       <c r="K48" t="inlineStr"/>
-      <c r="L48" t="inlineStr"/>
-      <c r="M48" t="n">
-        <v>1</v>
-      </c>
-      <c r="N48" t="inlineStr"/>
+      <c r="L48" t="n">
+        <v>1</v>
+      </c>
+      <c r="M48" t="inlineStr"/>
     </row>
     <row r="49">
       <c r="A49" s="1" t="n">
@@ -2150,16 +2004,13 @@
       <c r="H49" t="n">
         <v>0</v>
       </c>
-      <c r="I49" t="n">
-        <v>0</v>
-      </c>
+      <c r="I49" t="inlineStr"/>
       <c r="J49" t="inlineStr"/>
       <c r="K49" t="inlineStr"/>
-      <c r="L49" t="inlineStr"/>
-      <c r="M49" t="n">
-        <v>1</v>
-      </c>
-      <c r="N49" t="inlineStr"/>
+      <c r="L49" t="n">
+        <v>1</v>
+      </c>
+      <c r="M49" t="inlineStr"/>
     </row>
     <row r="50">
       <c r="A50" s="1" t="n">
@@ -2186,16 +2037,13 @@
       <c r="H50" t="n">
         <v>0</v>
       </c>
-      <c r="I50" t="n">
-        <v>0</v>
-      </c>
+      <c r="I50" t="inlineStr"/>
       <c r="J50" t="inlineStr"/>
       <c r="K50" t="inlineStr"/>
-      <c r="L50" t="inlineStr"/>
-      <c r="M50" t="n">
-        <v>1</v>
-      </c>
-      <c r="N50" t="inlineStr"/>
+      <c r="L50" t="n">
+        <v>1</v>
+      </c>
+      <c r="M50" t="inlineStr"/>
     </row>
     <row r="51">
       <c r="A51" s="1" t="n">
@@ -2222,16 +2070,13 @@
       <c r="H51" t="n">
         <v>0</v>
       </c>
-      <c r="I51" t="n">
-        <v>0</v>
-      </c>
+      <c r="I51" t="inlineStr"/>
       <c r="J51" t="inlineStr"/>
       <c r="K51" t="inlineStr"/>
-      <c r="L51" t="inlineStr"/>
-      <c r="M51" t="n">
-        <v>1</v>
-      </c>
-      <c r="N51" t="inlineStr"/>
+      <c r="L51" t="n">
+        <v>1</v>
+      </c>
+      <c r="M51" t="inlineStr"/>
     </row>
     <row r="52">
       <c r="A52" s="1" t="n">
@@ -2258,16 +2103,13 @@
       <c r="H52" t="n">
         <v>0</v>
       </c>
-      <c r="I52" t="n">
-        <v>0</v>
-      </c>
+      <c r="I52" t="inlineStr"/>
       <c r="J52" t="inlineStr"/>
       <c r="K52" t="inlineStr"/>
-      <c r="L52" t="inlineStr"/>
-      <c r="M52" t="n">
-        <v>1</v>
-      </c>
-      <c r="N52" t="inlineStr"/>
+      <c r="L52" t="n">
+        <v>1</v>
+      </c>
+      <c r="M52" t="inlineStr"/>
     </row>
     <row r="53">
       <c r="A53" s="1" t="n">
@@ -2294,16 +2136,13 @@
       <c r="H53" t="n">
         <v>0</v>
       </c>
-      <c r="I53" t="n">
-        <v>0</v>
-      </c>
+      <c r="I53" t="inlineStr"/>
       <c r="J53" t="inlineStr"/>
       <c r="K53" t="inlineStr"/>
-      <c r="L53" t="inlineStr"/>
-      <c r="M53" t="n">
-        <v>1</v>
-      </c>
-      <c r="N53" t="inlineStr"/>
+      <c r="L53" t="n">
+        <v>1</v>
+      </c>
+      <c r="M53" t="inlineStr"/>
     </row>
     <row r="54">
       <c r="A54" s="1" t="n">
@@ -2330,16 +2169,13 @@
       <c r="H54" t="n">
         <v>0</v>
       </c>
-      <c r="I54" t="n">
-        <v>0</v>
-      </c>
+      <c r="I54" t="inlineStr"/>
       <c r="J54" t="inlineStr"/>
       <c r="K54" t="inlineStr"/>
-      <c r="L54" t="inlineStr"/>
-      <c r="M54" t="n">
-        <v>1</v>
-      </c>
-      <c r="N54" t="inlineStr"/>
+      <c r="L54" t="n">
+        <v>1</v>
+      </c>
+      <c r="M54" t="inlineStr"/>
     </row>
     <row r="55">
       <c r="A55" s="1" t="n">
@@ -2364,18 +2200,19 @@
         <v>55895151.80868678</v>
       </c>
       <c r="H55" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I55" t="n">
-        <v>0</v>
-      </c>
-      <c r="J55" t="inlineStr"/>
+        <v>0.4488</v>
+      </c>
+      <c r="J55" t="n">
+        <v>0.4488</v>
+      </c>
       <c r="K55" t="inlineStr"/>
-      <c r="L55" t="inlineStr"/>
-      <c r="M55" t="n">
-        <v>1</v>
-      </c>
-      <c r="N55" t="inlineStr"/>
+      <c r="L55" t="n">
+        <v>1</v>
+      </c>
+      <c r="M55" t="inlineStr"/>
     </row>
     <row r="56">
       <c r="A56" s="1" t="n">
@@ -2400,18 +2237,23 @@
         <v>55928551.80868678</v>
       </c>
       <c r="H56" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I56" t="n">
-        <v>0</v>
-      </c>
-      <c r="J56" t="inlineStr"/>
-      <c r="K56" t="inlineStr"/>
-      <c r="L56" t="inlineStr"/>
-      <c r="M56" t="n">
-        <v>1</v>
-      </c>
-      <c r="N56" t="inlineStr"/>
+        <v>0.45</v>
+      </c>
+      <c r="J56" t="n">
+        <v>0.4488</v>
+      </c>
+      <c r="K56" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
+      <c r="L56" t="n">
+        <v>1</v>
+      </c>
+      <c r="M56" t="inlineStr"/>
     </row>
     <row r="57">
       <c r="A57" s="1" t="n">
@@ -2436,18 +2278,23 @@
         <v>55928551.80868678</v>
       </c>
       <c r="H57" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I57" t="n">
-        <v>0</v>
-      </c>
-      <c r="J57" t="inlineStr"/>
-      <c r="K57" t="inlineStr"/>
-      <c r="L57" t="inlineStr"/>
-      <c r="M57" t="n">
-        <v>1</v>
-      </c>
-      <c r="N57" t="inlineStr"/>
+        <v>0.464</v>
+      </c>
+      <c r="J57" t="n">
+        <v>0.4488</v>
+      </c>
+      <c r="K57" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
+      <c r="L57" t="n">
+        <v>1</v>
+      </c>
+      <c r="M57" t="inlineStr"/>
     </row>
     <row r="58">
       <c r="A58" s="1" t="n">
@@ -2472,18 +2319,23 @@
         <v>56829752.42058678</v>
       </c>
       <c r="H58" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I58" t="n">
-        <v>0</v>
-      </c>
-      <c r="J58" t="inlineStr"/>
-      <c r="K58" t="inlineStr"/>
-      <c r="L58" t="inlineStr"/>
-      <c r="M58" t="n">
-        <v>1</v>
-      </c>
-      <c r="N58" t="inlineStr"/>
+        <v>0.464</v>
+      </c>
+      <c r="J58" t="n">
+        <v>0.4488</v>
+      </c>
+      <c r="K58" t="inlineStr">
+        <is>
+          <t>매수 체결</t>
+        </is>
+      </c>
+      <c r="L58" t="n">
+        <v>1</v>
+      </c>
+      <c r="M58" t="inlineStr"/>
     </row>
     <row r="59">
       <c r="A59" s="1" t="n">
@@ -2508,18 +2360,23 @@
         <v>64713999.86968678</v>
       </c>
       <c r="H59" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I59" t="n">
-        <v>0</v>
-      </c>
-      <c r="J59" t="inlineStr"/>
-      <c r="K59" t="inlineStr"/>
-      <c r="L59" t="inlineStr"/>
-      <c r="M59" t="n">
-        <v>1</v>
-      </c>
-      <c r="N59" t="inlineStr"/>
+        <v>0.467</v>
+      </c>
+      <c r="J59" t="n">
+        <v>0.4488</v>
+      </c>
+      <c r="K59" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L59" t="n">
+        <v>1</v>
+      </c>
+      <c r="M59" t="inlineStr"/>
     </row>
     <row r="60">
       <c r="A60" s="1" t="n">
@@ -2546,16 +2403,19 @@
       <c r="H60" t="n">
         <v>0</v>
       </c>
-      <c r="I60" t="n">
-        <v>0</v>
-      </c>
-      <c r="J60" t="inlineStr"/>
-      <c r="K60" t="inlineStr"/>
-      <c r="L60" t="inlineStr"/>
-      <c r="M60" t="n">
-        <v>1</v>
-      </c>
-      <c r="N60" t="inlineStr"/>
+      <c r="I60" t="inlineStr"/>
+      <c r="J60" t="n">
+        <v>0.4488</v>
+      </c>
+      <c r="K60" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L60" t="n">
+        <v>1</v>
+      </c>
+      <c r="M60" t="inlineStr"/>
     </row>
     <row r="61">
       <c r="A61" s="1" t="n">
@@ -2580,18 +2440,23 @@
         <v>68181326.16281547</v>
       </c>
       <c r="H61" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I61" t="n">
-        <v>0</v>
-      </c>
-      <c r="J61" t="inlineStr"/>
-      <c r="K61" t="inlineStr"/>
-      <c r="L61" t="inlineStr"/>
-      <c r="M61" t="n">
-        <v>1</v>
-      </c>
-      <c r="N61" t="inlineStr"/>
+        <v>0.4776</v>
+      </c>
+      <c r="J61" t="n">
+        <v>0.4488</v>
+      </c>
+      <c r="K61" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L61" t="n">
+        <v>1</v>
+      </c>
+      <c r="M61" t="inlineStr"/>
     </row>
     <row r="62">
       <c r="A62" s="1" t="n">
@@ -2618,16 +2483,19 @@
       <c r="H62" t="n">
         <v>0</v>
       </c>
-      <c r="I62" t="n">
-        <v>0</v>
-      </c>
-      <c r="J62" t="inlineStr"/>
-      <c r="K62" t="inlineStr"/>
-      <c r="L62" t="inlineStr"/>
-      <c r="M62" t="n">
-        <v>1</v>
-      </c>
-      <c r="N62" t="inlineStr"/>
+      <c r="I62" t="inlineStr"/>
+      <c r="J62" t="n">
+        <v>0.4488</v>
+      </c>
+      <c r="K62" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L62" t="n">
+        <v>1</v>
+      </c>
+      <c r="M62" t="inlineStr"/>
     </row>
     <row r="63">
       <c r="A63" s="1" t="n">
@@ -2654,16 +2522,19 @@
       <c r="H63" t="n">
         <v>0</v>
       </c>
-      <c r="I63" t="n">
-        <v>0</v>
-      </c>
-      <c r="J63" t="inlineStr"/>
-      <c r="K63" t="inlineStr"/>
-      <c r="L63" t="inlineStr"/>
-      <c r="M63" t="n">
-        <v>1</v>
-      </c>
-      <c r="N63" t="inlineStr"/>
+      <c r="I63" t="inlineStr"/>
+      <c r="J63" t="n">
+        <v>0.4488</v>
+      </c>
+      <c r="K63" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L63" t="n">
+        <v>1</v>
+      </c>
+      <c r="M63" t="inlineStr"/>
     </row>
     <row r="64">
       <c r="A64" s="1" t="n">
@@ -2690,16 +2561,19 @@
       <c r="H64" t="n">
         <v>0</v>
       </c>
-      <c r="I64" t="n">
-        <v>0</v>
-      </c>
-      <c r="J64" t="inlineStr"/>
-      <c r="K64" t="inlineStr"/>
-      <c r="L64" t="inlineStr"/>
-      <c r="M64" t="n">
-        <v>1</v>
-      </c>
-      <c r="N64" t="inlineStr"/>
+      <c r="I64" t="inlineStr"/>
+      <c r="J64" t="n">
+        <v>0.4488</v>
+      </c>
+      <c r="K64" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L64" t="n">
+        <v>1</v>
+      </c>
+      <c r="M64" t="inlineStr"/>
     </row>
     <row r="65">
       <c r="A65" s="1" t="n">
@@ -2726,16 +2600,19 @@
       <c r="H65" t="n">
         <v>0</v>
       </c>
-      <c r="I65" t="n">
-        <v>0</v>
-      </c>
-      <c r="J65" t="inlineStr"/>
-      <c r="K65" t="inlineStr"/>
-      <c r="L65" t="inlineStr"/>
-      <c r="M65" t="n">
-        <v>1</v>
-      </c>
-      <c r="N65" t="inlineStr"/>
+      <c r="I65" t="inlineStr"/>
+      <c r="J65" t="n">
+        <v>0.4488</v>
+      </c>
+      <c r="K65" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L65" t="n">
+        <v>1</v>
+      </c>
+      <c r="M65" t="inlineStr"/>
     </row>
     <row r="66">
       <c r="A66" s="1" t="n">
@@ -2762,16 +2639,19 @@
       <c r="H66" t="n">
         <v>0</v>
       </c>
-      <c r="I66" t="n">
-        <v>0</v>
-      </c>
-      <c r="J66" t="inlineStr"/>
-      <c r="K66" t="inlineStr"/>
-      <c r="L66" t="inlineStr"/>
-      <c r="M66" t="n">
-        <v>1</v>
-      </c>
-      <c r="N66" t="inlineStr"/>
+      <c r="I66" t="inlineStr"/>
+      <c r="J66" t="n">
+        <v>0.4488</v>
+      </c>
+      <c r="K66" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L66" t="n">
+        <v>1</v>
+      </c>
+      <c r="M66" t="inlineStr"/>
     </row>
     <row r="67">
       <c r="A67" s="1" t="n">
@@ -2798,16 +2678,19 @@
       <c r="H67" t="n">
         <v>0</v>
       </c>
-      <c r="I67" t="n">
-        <v>0</v>
-      </c>
-      <c r="J67" t="inlineStr"/>
-      <c r="K67" t="inlineStr"/>
-      <c r="L67" t="inlineStr"/>
-      <c r="M67" t="n">
-        <v>1</v>
-      </c>
-      <c r="N67" t="inlineStr"/>
+      <c r="I67" t="inlineStr"/>
+      <c r="J67" t="n">
+        <v>0.4488</v>
+      </c>
+      <c r="K67" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L67" t="n">
+        <v>1</v>
+      </c>
+      <c r="M67" t="inlineStr"/>
     </row>
     <row r="68">
       <c r="A68" s="1" t="n">
@@ -2834,16 +2717,19 @@
       <c r="H68" t="n">
         <v>0</v>
       </c>
-      <c r="I68" t="n">
-        <v>0</v>
-      </c>
-      <c r="J68" t="inlineStr"/>
-      <c r="K68" t="inlineStr"/>
-      <c r="L68" t="inlineStr"/>
-      <c r="M68" t="n">
-        <v>1</v>
-      </c>
-      <c r="N68" t="inlineStr"/>
+      <c r="I68" t="inlineStr"/>
+      <c r="J68" t="n">
+        <v>0.4488</v>
+      </c>
+      <c r="K68" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L68" t="n">
+        <v>1</v>
+      </c>
+      <c r="M68" t="inlineStr"/>
     </row>
     <row r="69">
       <c r="A69" s="1" t="n">
@@ -2870,16 +2756,19 @@
       <c r="H69" t="n">
         <v>0</v>
       </c>
-      <c r="I69" t="n">
-        <v>0</v>
-      </c>
-      <c r="J69" t="inlineStr"/>
-      <c r="K69" t="inlineStr"/>
-      <c r="L69" t="inlineStr"/>
-      <c r="M69" t="n">
-        <v>1</v>
-      </c>
-      <c r="N69" t="inlineStr"/>
+      <c r="I69" t="inlineStr"/>
+      <c r="J69" t="n">
+        <v>0.4488</v>
+      </c>
+      <c r="K69" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L69" t="n">
+        <v>1</v>
+      </c>
+      <c r="M69" t="inlineStr"/>
     </row>
     <row r="70">
       <c r="A70" s="1" t="n">
@@ -2906,16 +2795,19 @@
       <c r="H70" t="n">
         <v>0</v>
       </c>
-      <c r="I70" t="n">
-        <v>0</v>
-      </c>
-      <c r="J70" t="inlineStr"/>
-      <c r="K70" t="inlineStr"/>
-      <c r="L70" t="inlineStr"/>
-      <c r="M70" t="n">
-        <v>1</v>
-      </c>
-      <c r="N70" t="inlineStr"/>
+      <c r="I70" t="inlineStr"/>
+      <c r="J70" t="n">
+        <v>0.4488</v>
+      </c>
+      <c r="K70" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L70" t="n">
+        <v>1</v>
+      </c>
+      <c r="M70" t="inlineStr"/>
     </row>
     <row r="71">
       <c r="A71" s="1" t="n">
@@ -2942,16 +2834,19 @@
       <c r="H71" t="n">
         <v>0</v>
       </c>
-      <c r="I71" t="n">
-        <v>0</v>
-      </c>
-      <c r="J71" t="inlineStr"/>
-      <c r="K71" t="inlineStr"/>
-      <c r="L71" t="inlineStr"/>
-      <c r="M71" t="n">
-        <v>1</v>
-      </c>
-      <c r="N71" t="inlineStr"/>
+      <c r="I71" t="inlineStr"/>
+      <c r="J71" t="n">
+        <v>0.4488</v>
+      </c>
+      <c r="K71" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L71" t="n">
+        <v>1</v>
+      </c>
+      <c r="M71" t="inlineStr"/>
     </row>
     <row r="72">
       <c r="A72" s="1" t="n">
@@ -2978,16 +2873,19 @@
       <c r="H72" t="n">
         <v>0</v>
       </c>
-      <c r="I72" t="n">
-        <v>0</v>
-      </c>
-      <c r="J72" t="inlineStr"/>
-      <c r="K72" t="inlineStr"/>
-      <c r="L72" t="inlineStr"/>
-      <c r="M72" t="n">
-        <v>1</v>
-      </c>
-      <c r="N72" t="inlineStr"/>
+      <c r="I72" t="inlineStr"/>
+      <c r="J72" t="n">
+        <v>0.4488</v>
+      </c>
+      <c r="K72" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L72" t="n">
+        <v>1</v>
+      </c>
+      <c r="M72" t="inlineStr"/>
     </row>
     <row r="73">
       <c r="A73" s="1" t="n">
@@ -3014,16 +2912,19 @@
       <c r="H73" t="n">
         <v>0</v>
       </c>
-      <c r="I73" t="n">
-        <v>0</v>
-      </c>
-      <c r="J73" t="inlineStr"/>
-      <c r="K73" t="inlineStr"/>
-      <c r="L73" t="inlineStr"/>
-      <c r="M73" t="n">
-        <v>1</v>
-      </c>
-      <c r="N73" t="inlineStr"/>
+      <c r="I73" t="inlineStr"/>
+      <c r="J73" t="n">
+        <v>0.4488</v>
+      </c>
+      <c r="K73" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L73" t="n">
+        <v>1</v>
+      </c>
+      <c r="M73" t="inlineStr"/>
     </row>
     <row r="74">
       <c r="A74" s="1" t="n">
@@ -3050,16 +2951,19 @@
       <c r="H74" t="n">
         <v>0</v>
       </c>
-      <c r="I74" t="n">
-        <v>0</v>
-      </c>
-      <c r="J74" t="inlineStr"/>
-      <c r="K74" t="inlineStr"/>
-      <c r="L74" t="inlineStr"/>
-      <c r="M74" t="n">
-        <v>1</v>
-      </c>
-      <c r="N74" t="inlineStr"/>
+      <c r="I74" t="inlineStr"/>
+      <c r="J74" t="n">
+        <v>0.4488</v>
+      </c>
+      <c r="K74" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L74" t="n">
+        <v>1</v>
+      </c>
+      <c r="M74" t="inlineStr"/>
     </row>
     <row r="75">
       <c r="A75" s="1" t="n">
@@ -3086,16 +2990,19 @@
       <c r="H75" t="n">
         <v>0</v>
       </c>
-      <c r="I75" t="n">
-        <v>0</v>
-      </c>
-      <c r="J75" t="inlineStr"/>
-      <c r="K75" t="inlineStr"/>
-      <c r="L75" t="inlineStr"/>
-      <c r="M75" t="n">
-        <v>1</v>
-      </c>
-      <c r="N75" t="inlineStr"/>
+      <c r="I75" t="inlineStr"/>
+      <c r="J75" t="n">
+        <v>0.4488</v>
+      </c>
+      <c r="K75" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L75" t="n">
+        <v>1</v>
+      </c>
+      <c r="M75" t="inlineStr"/>
     </row>
     <row r="76">
       <c r="A76" s="1" t="n">
@@ -3122,16 +3029,19 @@
       <c r="H76" t="n">
         <v>0</v>
       </c>
-      <c r="I76" t="n">
-        <v>0</v>
-      </c>
-      <c r="J76" t="inlineStr"/>
-      <c r="K76" t="inlineStr"/>
-      <c r="L76" t="inlineStr"/>
-      <c r="M76" t="n">
-        <v>1</v>
-      </c>
-      <c r="N76" t="inlineStr"/>
+      <c r="I76" t="inlineStr"/>
+      <c r="J76" t="n">
+        <v>0.4488</v>
+      </c>
+      <c r="K76" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L76" t="n">
+        <v>1</v>
+      </c>
+      <c r="M76" t="inlineStr"/>
     </row>
     <row r="77">
       <c r="A77" s="1" t="n">
@@ -3156,18 +3066,23 @@
         <v>65439053.79918864</v>
       </c>
       <c r="H77" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I77" t="n">
-        <v>0</v>
-      </c>
-      <c r="J77" t="inlineStr"/>
-      <c r="K77" t="inlineStr"/>
-      <c r="L77" t="inlineStr"/>
-      <c r="M77" t="n">
-        <v>1</v>
-      </c>
-      <c r="N77" t="inlineStr"/>
+        <v>0.475</v>
+      </c>
+      <c r="J77" t="n">
+        <v>0.4488</v>
+      </c>
+      <c r="K77" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L77" t="n">
+        <v>1</v>
+      </c>
+      <c r="M77" t="inlineStr"/>
     </row>
     <row r="78">
       <c r="A78" s="1" t="n">
@@ -3192,18 +3107,23 @@
         <v>65308413.58408865</v>
       </c>
       <c r="H78" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I78" t="n">
-        <v>0</v>
-      </c>
-      <c r="J78" t="inlineStr"/>
-      <c r="K78" t="inlineStr"/>
-      <c r="L78" t="inlineStr"/>
-      <c r="M78" t="n">
-        <v>1</v>
-      </c>
-      <c r="N78" t="inlineStr"/>
+        <v>0.4749</v>
+      </c>
+      <c r="J78" t="n">
+        <v>0.4488</v>
+      </c>
+      <c r="K78" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L78" t="n">
+        <v>1</v>
+      </c>
+      <c r="M78" t="inlineStr"/>
     </row>
     <row r="79">
       <c r="A79" s="1" t="n">
@@ -3228,18 +3148,23 @@
         <v>65309613.58408865</v>
       </c>
       <c r="H79" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I79" t="n">
-        <v>0</v>
-      </c>
-      <c r="J79" t="inlineStr"/>
-      <c r="K79" t="inlineStr"/>
-      <c r="L79" t="inlineStr"/>
-      <c r="M79" t="n">
-        <v>1</v>
-      </c>
-      <c r="N79" t="inlineStr"/>
+        <v>0.4681</v>
+      </c>
+      <c r="J79" t="n">
+        <v>0.4488</v>
+      </c>
+      <c r="K79" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L79" t="n">
+        <v>1</v>
+      </c>
+      <c r="M79" t="inlineStr"/>
     </row>
     <row r="80">
       <c r="A80" s="1" t="n">
@@ -3266,16 +3191,19 @@
       <c r="H80" t="n">
         <v>0</v>
       </c>
-      <c r="I80" t="n">
-        <v>0</v>
-      </c>
-      <c r="J80" t="inlineStr"/>
-      <c r="K80" t="inlineStr"/>
-      <c r="L80" t="inlineStr"/>
-      <c r="M80" t="n">
-        <v>1</v>
-      </c>
-      <c r="N80" t="inlineStr"/>
+      <c r="I80" t="inlineStr"/>
+      <c r="J80" t="n">
+        <v>0.4488</v>
+      </c>
+      <c r="K80" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L80" t="n">
+        <v>1</v>
+      </c>
+      <c r="M80" t="inlineStr"/>
     </row>
     <row r="81">
       <c r="A81" s="1" t="n">
@@ -3300,18 +3228,23 @@
         <v>68034137.44128525</v>
       </c>
       <c r="H81" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I81" t="n">
-        <v>0</v>
-      </c>
-      <c r="J81" t="inlineStr"/>
-      <c r="K81" t="inlineStr"/>
-      <c r="L81" t="inlineStr"/>
-      <c r="M81" t="n">
-        <v>1</v>
-      </c>
-      <c r="N81" t="inlineStr"/>
+        <v>0.469</v>
+      </c>
+      <c r="J81" t="n">
+        <v>0.4488</v>
+      </c>
+      <c r="K81" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L81" t="n">
+        <v>1</v>
+      </c>
+      <c r="M81" t="inlineStr"/>
     </row>
     <row r="82">
       <c r="A82" s="1" t="n">
@@ -3338,16 +3271,19 @@
       <c r="H82" t="n">
         <v>0</v>
       </c>
-      <c r="I82" t="n">
-        <v>0</v>
-      </c>
-      <c r="J82" t="inlineStr"/>
-      <c r="K82" t="inlineStr"/>
-      <c r="L82" t="inlineStr"/>
-      <c r="M82" t="n">
-        <v>1</v>
-      </c>
-      <c r="N82" t="inlineStr"/>
+      <c r="I82" t="inlineStr"/>
+      <c r="J82" t="n">
+        <v>0.4488</v>
+      </c>
+      <c r="K82" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L82" t="n">
+        <v>1</v>
+      </c>
+      <c r="M82" t="inlineStr"/>
     </row>
     <row r="83">
       <c r="A83" s="1" t="n">
@@ -3374,16 +3310,19 @@
       <c r="H83" t="n">
         <v>0</v>
       </c>
-      <c r="I83" t="n">
-        <v>0</v>
-      </c>
-      <c r="J83" t="inlineStr"/>
-      <c r="K83" t="inlineStr"/>
-      <c r="L83" t="inlineStr"/>
-      <c r="M83" t="n">
-        <v>1</v>
-      </c>
-      <c r="N83" t="inlineStr"/>
+      <c r="I83" t="inlineStr"/>
+      <c r="J83" t="n">
+        <v>0.4488</v>
+      </c>
+      <c r="K83" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L83" t="n">
+        <v>1</v>
+      </c>
+      <c r="M83" t="inlineStr"/>
     </row>
     <row r="84">
       <c r="A84" s="1" t="n">
@@ -3410,16 +3349,19 @@
       <c r="H84" t="n">
         <v>0</v>
       </c>
-      <c r="I84" t="n">
-        <v>0</v>
-      </c>
-      <c r="J84" t="inlineStr"/>
-      <c r="K84" t="inlineStr"/>
-      <c r="L84" t="inlineStr"/>
-      <c r="M84" t="n">
-        <v>1</v>
-      </c>
-      <c r="N84" t="inlineStr"/>
+      <c r="I84" t="inlineStr"/>
+      <c r="J84" t="n">
+        <v>0.4488</v>
+      </c>
+      <c r="K84" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L84" t="n">
+        <v>1</v>
+      </c>
+      <c r="M84" t="inlineStr"/>
     </row>
     <row r="85">
       <c r="A85" s="1" t="n">
@@ -3446,16 +3388,19 @@
       <c r="H85" t="n">
         <v>0</v>
       </c>
-      <c r="I85" t="n">
-        <v>0</v>
-      </c>
-      <c r="J85" t="inlineStr"/>
-      <c r="K85" t="inlineStr"/>
-      <c r="L85" t="inlineStr"/>
-      <c r="M85" t="n">
-        <v>1</v>
-      </c>
-      <c r="N85" t="inlineStr"/>
+      <c r="I85" t="inlineStr"/>
+      <c r="J85" t="n">
+        <v>0.4488</v>
+      </c>
+      <c r="K85" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L85" t="n">
+        <v>1</v>
+      </c>
+      <c r="M85" t="inlineStr"/>
     </row>
     <row r="86">
       <c r="A86" s="1" t="n">
@@ -3482,16 +3427,19 @@
       <c r="H86" t="n">
         <v>0</v>
       </c>
-      <c r="I86" t="n">
-        <v>0</v>
-      </c>
-      <c r="J86" t="inlineStr"/>
-      <c r="K86" t="inlineStr"/>
-      <c r="L86" t="inlineStr"/>
-      <c r="M86" t="n">
-        <v>1</v>
-      </c>
-      <c r="N86" t="inlineStr"/>
+      <c r="I86" t="inlineStr"/>
+      <c r="J86" t="n">
+        <v>0.4488</v>
+      </c>
+      <c r="K86" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L86" t="n">
+        <v>1</v>
+      </c>
+      <c r="M86" t="inlineStr"/>
     </row>
     <row r="87">
       <c r="A87" s="1" t="n">
@@ -3518,16 +3466,19 @@
       <c r="H87" t="n">
         <v>0</v>
       </c>
-      <c r="I87" t="n">
-        <v>0</v>
-      </c>
-      <c r="J87" t="inlineStr"/>
-      <c r="K87" t="inlineStr"/>
-      <c r="L87" t="inlineStr"/>
-      <c r="M87" t="n">
-        <v>1</v>
-      </c>
-      <c r="N87" t="inlineStr"/>
+      <c r="I87" t="inlineStr"/>
+      <c r="J87" t="n">
+        <v>0.4488</v>
+      </c>
+      <c r="K87" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L87" t="n">
+        <v>1</v>
+      </c>
+      <c r="M87" t="inlineStr"/>
     </row>
     <row r="88">
       <c r="A88" s="1" t="n">
@@ -3554,16 +3505,19 @@
       <c r="H88" t="n">
         <v>0</v>
       </c>
-      <c r="I88" t="n">
-        <v>0</v>
-      </c>
-      <c r="J88" t="inlineStr"/>
-      <c r="K88" t="inlineStr"/>
-      <c r="L88" t="inlineStr"/>
-      <c r="M88" t="n">
-        <v>1</v>
-      </c>
-      <c r="N88" t="inlineStr"/>
+      <c r="I88" t="inlineStr"/>
+      <c r="J88" t="n">
+        <v>0.4488</v>
+      </c>
+      <c r="K88" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L88" t="n">
+        <v>1</v>
+      </c>
+      <c r="M88" t="inlineStr"/>
     </row>
     <row r="89">
       <c r="A89" s="1" t="n">
@@ -3590,16 +3544,19 @@
       <c r="H89" t="n">
         <v>0</v>
       </c>
-      <c r="I89" t="n">
-        <v>0</v>
-      </c>
-      <c r="J89" t="inlineStr"/>
-      <c r="K89" t="inlineStr"/>
-      <c r="L89" t="inlineStr"/>
-      <c r="M89" t="n">
-        <v>1</v>
-      </c>
-      <c r="N89" t="inlineStr"/>
+      <c r="I89" t="inlineStr"/>
+      <c r="J89" t="n">
+        <v>0.4488</v>
+      </c>
+      <c r="K89" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L89" t="n">
+        <v>1</v>
+      </c>
+      <c r="M89" t="inlineStr"/>
     </row>
     <row r="90">
       <c r="A90" s="1" t="n">
@@ -3626,16 +3583,19 @@
       <c r="H90" t="n">
         <v>0</v>
       </c>
-      <c r="I90" t="n">
-        <v>0</v>
-      </c>
-      <c r="J90" t="inlineStr"/>
-      <c r="K90" t="inlineStr"/>
-      <c r="L90" t="inlineStr"/>
-      <c r="M90" t="n">
-        <v>1</v>
-      </c>
-      <c r="N90" t="inlineStr"/>
+      <c r="I90" t="inlineStr"/>
+      <c r="J90" t="n">
+        <v>0.4488</v>
+      </c>
+      <c r="K90" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L90" t="n">
+        <v>1</v>
+      </c>
+      <c r="M90" t="inlineStr"/>
     </row>
     <row r="91">
       <c r="A91" s="1" t="n">
@@ -3662,16 +3622,19 @@
       <c r="H91" t="n">
         <v>0</v>
       </c>
-      <c r="I91" t="n">
-        <v>0</v>
-      </c>
-      <c r="J91" t="inlineStr"/>
-      <c r="K91" t="inlineStr"/>
-      <c r="L91" t="inlineStr"/>
-      <c r="M91" t="n">
-        <v>1</v>
-      </c>
-      <c r="N91" t="inlineStr"/>
+      <c r="I91" t="inlineStr"/>
+      <c r="J91" t="n">
+        <v>0.4488</v>
+      </c>
+      <c r="K91" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L91" t="n">
+        <v>1</v>
+      </c>
+      <c r="M91" t="inlineStr"/>
     </row>
     <row r="92">
       <c r="A92" s="1" t="n">
@@ -3698,16 +3661,19 @@
       <c r="H92" t="n">
         <v>0</v>
       </c>
-      <c r="I92" t="n">
-        <v>0</v>
-      </c>
-      <c r="J92" t="inlineStr"/>
-      <c r="K92" t="inlineStr"/>
-      <c r="L92" t="inlineStr"/>
-      <c r="M92" t="n">
-        <v>1</v>
-      </c>
-      <c r="N92" t="inlineStr"/>
+      <c r="I92" t="inlineStr"/>
+      <c r="J92" t="n">
+        <v>0.4488</v>
+      </c>
+      <c r="K92" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L92" t="n">
+        <v>1</v>
+      </c>
+      <c r="M92" t="inlineStr"/>
     </row>
     <row r="93">
       <c r="A93" s="1" t="n">
@@ -3734,16 +3700,19 @@
       <c r="H93" t="n">
         <v>0</v>
       </c>
-      <c r="I93" t="n">
-        <v>0</v>
-      </c>
-      <c r="J93" t="inlineStr"/>
-      <c r="K93" t="inlineStr"/>
-      <c r="L93" t="inlineStr"/>
-      <c r="M93" t="n">
-        <v>1</v>
-      </c>
-      <c r="N93" t="inlineStr"/>
+      <c r="I93" t="inlineStr"/>
+      <c r="J93" t="n">
+        <v>0.4488</v>
+      </c>
+      <c r="K93" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L93" t="n">
+        <v>1</v>
+      </c>
+      <c r="M93" t="inlineStr"/>
     </row>
     <row r="94">
       <c r="A94" s="1" t="n">
@@ -3770,16 +3739,19 @@
       <c r="H94" t="n">
         <v>0</v>
       </c>
-      <c r="I94" t="n">
-        <v>0</v>
-      </c>
-      <c r="J94" t="inlineStr"/>
-      <c r="K94" t="inlineStr"/>
-      <c r="L94" t="inlineStr"/>
-      <c r="M94" t="n">
-        <v>1</v>
-      </c>
-      <c r="N94" t="inlineStr"/>
+      <c r="I94" t="inlineStr"/>
+      <c r="J94" t="n">
+        <v>0.4488</v>
+      </c>
+      <c r="K94" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L94" t="n">
+        <v>1</v>
+      </c>
+      <c r="M94" t="inlineStr"/>
     </row>
     <row r="95">
       <c r="A95" s="1" t="n">
@@ -3806,16 +3778,19 @@
       <c r="H95" t="n">
         <v>0</v>
       </c>
-      <c r="I95" t="n">
-        <v>0</v>
-      </c>
-      <c r="J95" t="inlineStr"/>
-      <c r="K95" t="inlineStr"/>
-      <c r="L95" t="inlineStr"/>
-      <c r="M95" t="n">
-        <v>1</v>
-      </c>
-      <c r="N95" t="inlineStr"/>
+      <c r="I95" t="inlineStr"/>
+      <c r="J95" t="n">
+        <v>0.4488</v>
+      </c>
+      <c r="K95" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L95" t="n">
+        <v>1</v>
+      </c>
+      <c r="M95" t="inlineStr"/>
     </row>
     <row r="96">
       <c r="A96" s="1" t="n">
@@ -3842,16 +3817,19 @@
       <c r="H96" t="n">
         <v>0</v>
       </c>
-      <c r="I96" t="n">
-        <v>0</v>
-      </c>
-      <c r="J96" t="inlineStr"/>
-      <c r="K96" t="inlineStr"/>
-      <c r="L96" t="inlineStr"/>
-      <c r="M96" t="n">
-        <v>1</v>
-      </c>
-      <c r="N96" t="inlineStr"/>
+      <c r="I96" t="inlineStr"/>
+      <c r="J96" t="n">
+        <v>0.4488</v>
+      </c>
+      <c r="K96" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L96" t="n">
+        <v>1</v>
+      </c>
+      <c r="M96" t="inlineStr"/>
     </row>
     <row r="97">
       <c r="A97" s="1" t="n">
@@ -3878,16 +3856,19 @@
       <c r="H97" t="n">
         <v>0</v>
       </c>
-      <c r="I97" t="n">
-        <v>0</v>
-      </c>
-      <c r="J97" t="inlineStr"/>
-      <c r="K97" t="inlineStr"/>
-      <c r="L97" t="inlineStr"/>
-      <c r="M97" t="n">
-        <v>1</v>
-      </c>
-      <c r="N97" t="inlineStr"/>
+      <c r="I97" t="inlineStr"/>
+      <c r="J97" t="n">
+        <v>0.4488</v>
+      </c>
+      <c r="K97" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L97" t="n">
+        <v>1</v>
+      </c>
+      <c r="M97" t="inlineStr"/>
     </row>
     <row r="98">
       <c r="A98" s="1" t="n">
@@ -3914,16 +3895,19 @@
       <c r="H98" t="n">
         <v>0</v>
       </c>
-      <c r="I98" t="n">
-        <v>0</v>
-      </c>
-      <c r="J98" t="inlineStr"/>
-      <c r="K98" t="inlineStr"/>
-      <c r="L98" t="inlineStr"/>
-      <c r="M98" t="n">
-        <v>1</v>
-      </c>
-      <c r="N98" t="inlineStr"/>
+      <c r="I98" t="inlineStr"/>
+      <c r="J98" t="n">
+        <v>0.4488</v>
+      </c>
+      <c r="K98" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L98" t="n">
+        <v>1</v>
+      </c>
+      <c r="M98" t="inlineStr"/>
     </row>
     <row r="99">
       <c r="A99" s="1" t="n">
@@ -3948,18 +3932,23 @@
         <v>65358288.0732295</v>
       </c>
       <c r="H99" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I99" t="n">
-        <v>0</v>
-      </c>
-      <c r="J99" t="inlineStr"/>
-      <c r="K99" t="inlineStr"/>
-      <c r="L99" t="inlineStr"/>
-      <c r="M99" t="n">
-        <v>1</v>
-      </c>
-      <c r="N99" t="inlineStr"/>
+        <v>0.4649</v>
+      </c>
+      <c r="J99" t="n">
+        <v>0.4488</v>
+      </c>
+      <c r="K99" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L99" t="n">
+        <v>1</v>
+      </c>
+      <c r="M99" t="inlineStr"/>
     </row>
     <row r="100">
       <c r="A100" s="1" t="n">
@@ -3986,16 +3975,19 @@
       <c r="H100" t="n">
         <v>0</v>
       </c>
-      <c r="I100" t="n">
-        <v>0</v>
-      </c>
-      <c r="J100" t="inlineStr"/>
-      <c r="K100" t="inlineStr"/>
-      <c r="L100" t="inlineStr"/>
-      <c r="M100" t="n">
-        <v>1</v>
-      </c>
-      <c r="N100" t="inlineStr"/>
+      <c r="I100" t="inlineStr"/>
+      <c r="J100" t="n">
+        <v>0.4488</v>
+      </c>
+      <c r="K100" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L100" t="n">
+        <v>1</v>
+      </c>
+      <c r="M100" t="inlineStr"/>
     </row>
     <row r="101">
       <c r="A101" s="1" t="n">
@@ -4022,16 +4014,19 @@
       <c r="H101" t="n">
         <v>0</v>
       </c>
-      <c r="I101" t="n">
-        <v>0</v>
-      </c>
-      <c r="J101" t="inlineStr"/>
-      <c r="K101" t="inlineStr"/>
-      <c r="L101" t="inlineStr"/>
-      <c r="M101" t="n">
-        <v>1</v>
-      </c>
-      <c r="N101" t="inlineStr"/>
+      <c r="I101" t="inlineStr"/>
+      <c r="J101" t="n">
+        <v>0.4488</v>
+      </c>
+      <c r="K101" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L101" t="n">
+        <v>1</v>
+      </c>
+      <c r="M101" t="inlineStr"/>
     </row>
     <row r="102">
       <c r="A102" s="1" t="n">
@@ -4056,18 +4051,23 @@
         <v>65358561.8995295</v>
       </c>
       <c r="H102" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I102" t="n">
-        <v>0</v>
-      </c>
-      <c r="J102" t="inlineStr"/>
-      <c r="K102" t="inlineStr"/>
-      <c r="L102" t="inlineStr"/>
-      <c r="M102" t="n">
-        <v>1</v>
-      </c>
-      <c r="N102" t="inlineStr"/>
+        <v>0.465</v>
+      </c>
+      <c r="J102" t="n">
+        <v>0.4488</v>
+      </c>
+      <c r="K102" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L102" t="n">
+        <v>1</v>
+      </c>
+      <c r="M102" t="inlineStr"/>
     </row>
     <row r="103">
       <c r="A103" s="1" t="n">
@@ -4094,16 +4094,19 @@
       <c r="H103" t="n">
         <v>0</v>
       </c>
-      <c r="I103" t="n">
-        <v>0</v>
-      </c>
-      <c r="J103" t="inlineStr"/>
-      <c r="K103" t="inlineStr"/>
-      <c r="L103" t="inlineStr"/>
-      <c r="M103" t="n">
-        <v>1</v>
-      </c>
-      <c r="N103" t="inlineStr"/>
+      <c r="I103" t="inlineStr"/>
+      <c r="J103" t="n">
+        <v>0.4488</v>
+      </c>
+      <c r="K103" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L103" t="n">
+        <v>1</v>
+      </c>
+      <c r="M103" t="inlineStr"/>
     </row>
     <row r="104">
       <c r="A104" s="1" t="n">
@@ -4130,16 +4133,19 @@
       <c r="H104" t="n">
         <v>0</v>
       </c>
-      <c r="I104" t="n">
-        <v>0</v>
-      </c>
-      <c r="J104" t="inlineStr"/>
-      <c r="K104" t="inlineStr"/>
-      <c r="L104" t="inlineStr"/>
-      <c r="M104" t="n">
-        <v>1</v>
-      </c>
-      <c r="N104" t="inlineStr"/>
+      <c r="I104" t="inlineStr"/>
+      <c r="J104" t="n">
+        <v>0.4488</v>
+      </c>
+      <c r="K104" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L104" t="n">
+        <v>1</v>
+      </c>
+      <c r="M104" t="inlineStr"/>
     </row>
     <row r="105">
       <c r="A105" s="1" t="n">
@@ -4164,18 +4170,23 @@
         <v>65294607.9638295</v>
       </c>
       <c r="H105" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I105" t="n">
-        <v>0</v>
-      </c>
-      <c r="J105" t="inlineStr"/>
-      <c r="K105" t="inlineStr"/>
-      <c r="L105" t="inlineStr"/>
-      <c r="M105" t="n">
-        <v>1</v>
-      </c>
-      <c r="N105" t="inlineStr"/>
+        <v>0.461</v>
+      </c>
+      <c r="J105" t="n">
+        <v>0.4488</v>
+      </c>
+      <c r="K105" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L105" t="n">
+        <v>1</v>
+      </c>
+      <c r="M105" t="inlineStr"/>
     </row>
     <row r="106">
       <c r="A106" s="1" t="n">
@@ -4200,18 +4211,23 @@
         <v>65299607.9638295</v>
       </c>
       <c r="H106" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I106" t="n">
-        <v>0</v>
-      </c>
-      <c r="J106" t="inlineStr"/>
-      <c r="K106" t="inlineStr"/>
-      <c r="L106" t="inlineStr"/>
-      <c r="M106" t="n">
-        <v>1</v>
-      </c>
-      <c r="N106" t="inlineStr"/>
+        <v>0.461</v>
+      </c>
+      <c r="J106" t="n">
+        <v>0.4488</v>
+      </c>
+      <c r="K106" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L106" t="n">
+        <v>1</v>
+      </c>
+      <c r="M106" t="inlineStr"/>
     </row>
     <row r="107">
       <c r="A107" s="1" t="n">
@@ -4236,18 +4252,23 @@
         <v>65230663.3954295</v>
       </c>
       <c r="H107" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I107" t="n">
-        <v>0</v>
-      </c>
-      <c r="J107" t="inlineStr"/>
-      <c r="K107" t="inlineStr"/>
-      <c r="L107" t="inlineStr"/>
-      <c r="M107" t="n">
-        <v>1</v>
-      </c>
-      <c r="N107" t="inlineStr"/>
+        <v>0.466</v>
+      </c>
+      <c r="J107" t="n">
+        <v>0.4488</v>
+      </c>
+      <c r="K107" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L107" t="n">
+        <v>1</v>
+      </c>
+      <c r="M107" t="inlineStr"/>
     </row>
     <row r="108">
       <c r="A108" s="1" t="n">
@@ -4272,18 +4293,23 @@
         <v>65229233.3954295</v>
       </c>
       <c r="H108" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I108" t="n">
-        <v>0</v>
-      </c>
-      <c r="J108" t="inlineStr"/>
-      <c r="K108" t="inlineStr"/>
-      <c r="L108" t="inlineStr"/>
-      <c r="M108" t="n">
-        <v>1</v>
-      </c>
-      <c r="N108" t="inlineStr"/>
+        <v>0.461</v>
+      </c>
+      <c r="J108" t="n">
+        <v>0.4488</v>
+      </c>
+      <c r="K108" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L108" t="n">
+        <v>1</v>
+      </c>
+      <c r="M108" t="inlineStr"/>
     </row>
     <row r="109">
       <c r="A109" s="1" t="n">
@@ -4310,16 +4336,19 @@
       <c r="H109" t="n">
         <v>0</v>
       </c>
-      <c r="I109" t="n">
-        <v>0</v>
-      </c>
-      <c r="J109" t="inlineStr"/>
-      <c r="K109" t="inlineStr"/>
-      <c r="L109" t="inlineStr"/>
-      <c r="M109" t="n">
-        <v>1</v>
-      </c>
-      <c r="N109" t="inlineStr"/>
+      <c r="I109" t="inlineStr"/>
+      <c r="J109" t="n">
+        <v>0.4488</v>
+      </c>
+      <c r="K109" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L109" t="n">
+        <v>1</v>
+      </c>
+      <c r="M109" t="inlineStr"/>
     </row>
     <row r="110">
       <c r="A110" s="1" t="n">
@@ -4346,16 +4375,19 @@
       <c r="H110" t="n">
         <v>0</v>
       </c>
-      <c r="I110" t="n">
-        <v>0</v>
-      </c>
-      <c r="J110" t="inlineStr"/>
-      <c r="K110" t="inlineStr"/>
-      <c r="L110" t="inlineStr"/>
-      <c r="M110" t="n">
-        <v>1</v>
-      </c>
-      <c r="N110" t="inlineStr"/>
+      <c r="I110" t="inlineStr"/>
+      <c r="J110" t="n">
+        <v>0.4488</v>
+      </c>
+      <c r="K110" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L110" t="n">
+        <v>1</v>
+      </c>
+      <c r="M110" t="inlineStr"/>
     </row>
     <row r="111">
       <c r="A111" s="1" t="n">
@@ -4380,18 +4412,23 @@
         <v>63829857.8436295</v>
       </c>
       <c r="H111" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I111" t="n">
-        <v>0</v>
-      </c>
-      <c r="J111" t="inlineStr"/>
-      <c r="K111" t="inlineStr"/>
-      <c r="L111" t="inlineStr"/>
-      <c r="M111" t="n">
-        <v>1</v>
-      </c>
-      <c r="N111" t="inlineStr"/>
+        <v>0.4609</v>
+      </c>
+      <c r="J111" t="n">
+        <v>0.4488</v>
+      </c>
+      <c r="K111" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L111" t="n">
+        <v>1</v>
+      </c>
+      <c r="M111" t="inlineStr"/>
     </row>
     <row r="112">
       <c r="A112" s="1" t="n">
@@ -4416,18 +4453,23 @@
         <v>63834561.0129295</v>
       </c>
       <c r="H112" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I112" t="n">
-        <v>0</v>
-      </c>
-      <c r="J112" t="inlineStr"/>
-      <c r="K112" t="inlineStr"/>
-      <c r="L112" t="inlineStr"/>
-      <c r="M112" t="n">
-        <v>1</v>
-      </c>
-      <c r="N112" t="inlineStr"/>
+        <v>0.45</v>
+      </c>
+      <c r="J112" t="n">
+        <v>0.4488</v>
+      </c>
+      <c r="K112" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L112" t="n">
+        <v>1</v>
+      </c>
+      <c r="M112" t="inlineStr"/>
     </row>
     <row r="113">
       <c r="A113" s="1" t="n">
@@ -4452,18 +4494,23 @@
         <v>61982161.6524295</v>
       </c>
       <c r="H113" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I113" t="n">
-        <v>0</v>
-      </c>
-      <c r="J113" t="inlineStr"/>
-      <c r="K113" t="inlineStr"/>
-      <c r="L113" t="inlineStr"/>
-      <c r="M113" t="n">
-        <v>1</v>
-      </c>
-      <c r="N113" t="inlineStr"/>
+        <v>0.4609</v>
+      </c>
+      <c r="J113" t="n">
+        <v>0.4488</v>
+      </c>
+      <c r="K113" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L113" t="n">
+        <v>1</v>
+      </c>
+      <c r="M113" t="inlineStr"/>
     </row>
     <row r="114">
       <c r="A114" s="1" t="n">
@@ -4488,18 +4535,23 @@
         <v>62022292.5781295</v>
       </c>
       <c r="H114" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I114" t="n">
-        <v>0</v>
-      </c>
-      <c r="J114" t="inlineStr"/>
-      <c r="K114" t="inlineStr"/>
-      <c r="L114" t="inlineStr"/>
-      <c r="M114" t="n">
-        <v>1</v>
-      </c>
-      <c r="N114" t="inlineStr"/>
+        <v>0.4488</v>
+      </c>
+      <c r="J114" t="n">
+        <v>0.4488</v>
+      </c>
+      <c r="K114" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L114" t="n">
+        <v>1</v>
+      </c>
+      <c r="M114" t="inlineStr"/>
     </row>
     <row r="115">
       <c r="A115" s="1" t="n">
@@ -4524,18 +4576,23 @@
         <v>62101391.3875295</v>
       </c>
       <c r="H115" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I115" t="n">
-        <v>0</v>
-      </c>
-      <c r="J115" t="inlineStr"/>
-      <c r="K115" t="inlineStr"/>
-      <c r="L115" t="inlineStr"/>
-      <c r="M115" t="n">
-        <v>1</v>
-      </c>
-      <c r="N115" t="inlineStr"/>
+        <v>0.451</v>
+      </c>
+      <c r="J115" t="n">
+        <v>0.4488</v>
+      </c>
+      <c r="K115" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L115" t="n">
+        <v>1</v>
+      </c>
+      <c r="M115" t="inlineStr"/>
     </row>
     <row r="116">
       <c r="A116" s="1" t="n">
@@ -4560,18 +4617,23 @@
         <v>62106094.5568295</v>
       </c>
       <c r="H116" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I116" t="n">
-        <v>0</v>
-      </c>
-      <c r="J116" t="inlineStr"/>
-      <c r="K116" t="inlineStr"/>
-      <c r="L116" t="inlineStr"/>
-      <c r="M116" t="n">
-        <v>1</v>
-      </c>
-      <c r="N116" t="inlineStr"/>
+        <v>0.452</v>
+      </c>
+      <c r="J116" t="n">
+        <v>0.4488</v>
+      </c>
+      <c r="K116" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L116" t="n">
+        <v>1</v>
+      </c>
+      <c r="M116" t="inlineStr"/>
     </row>
     <row r="117">
       <c r="A117" s="1" t="n">
@@ -4596,18 +4658,23 @@
         <v>62107815.4063295</v>
       </c>
       <c r="H117" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I117" t="n">
-        <v>0</v>
-      </c>
-      <c r="J117" t="inlineStr"/>
-      <c r="K117" t="inlineStr"/>
-      <c r="L117" t="inlineStr"/>
-      <c r="M117" t="n">
-        <v>1</v>
-      </c>
-      <c r="N117" t="inlineStr"/>
+        <v>0.453</v>
+      </c>
+      <c r="J117" t="n">
+        <v>0.4488</v>
+      </c>
+      <c r="K117" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L117" t="n">
+        <v>1</v>
+      </c>
+      <c r="M117" t="inlineStr"/>
     </row>
     <row r="118">
       <c r="A118" s="1" t="n">
@@ -4632,18 +4699,23 @@
         <v>62106092.3279295</v>
       </c>
       <c r="H118" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I118" t="n">
-        <v>0</v>
-      </c>
-      <c r="J118" t="inlineStr"/>
-      <c r="K118" t="inlineStr"/>
-      <c r="L118" t="inlineStr"/>
-      <c r="M118" t="n">
-        <v>1</v>
-      </c>
-      <c r="N118" t="inlineStr"/>
+        <v>0.4616</v>
+      </c>
+      <c r="J118" t="n">
+        <v>0.4488</v>
+      </c>
+      <c r="K118" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L118" t="n">
+        <v>1</v>
+      </c>
+      <c r="M118" t="inlineStr"/>
     </row>
     <row r="119">
       <c r="A119" s="1" t="n">
@@ -4668,18 +4740,23 @@
         <v>65569360.22652949</v>
       </c>
       <c r="H119" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I119" t="n">
-        <v>0</v>
-      </c>
-      <c r="J119" t="inlineStr"/>
-      <c r="K119" t="inlineStr"/>
-      <c r="L119" t="inlineStr"/>
-      <c r="M119" t="n">
-        <v>1</v>
-      </c>
-      <c r="N119" t="inlineStr"/>
+        <v>0.461</v>
+      </c>
+      <c r="J119" t="n">
+        <v>0.4488</v>
+      </c>
+      <c r="K119" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L119" t="n">
+        <v>1</v>
+      </c>
+      <c r="M119" t="inlineStr"/>
     </row>
     <row r="120">
       <c r="A120" s="1" t="n">
@@ -4704,18 +4781,23 @@
         <v>65669360.22652949</v>
       </c>
       <c r="H120" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I120" t="n">
-        <v>0</v>
-      </c>
-      <c r="J120" t="inlineStr"/>
-      <c r="K120" t="inlineStr"/>
-      <c r="L120" t="inlineStr"/>
-      <c r="M120" t="n">
-        <v>1</v>
-      </c>
-      <c r="N120" t="inlineStr"/>
+        <v>0.467</v>
+      </c>
+      <c r="J120" t="n">
+        <v>0.4488</v>
+      </c>
+      <c r="K120" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L120" t="n">
+        <v>1</v>
+      </c>
+      <c r="M120" t="inlineStr"/>
     </row>
     <row r="121">
       <c r="A121" s="1" t="n">
@@ -4740,18 +4822,23 @@
         <v>65666960.22652949</v>
       </c>
       <c r="H121" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I121" t="n">
-        <v>0</v>
-      </c>
-      <c r="J121" t="inlineStr"/>
-      <c r="K121" t="inlineStr"/>
-      <c r="L121" t="inlineStr"/>
-      <c r="M121" t="n">
-        <v>1</v>
-      </c>
-      <c r="N121" t="inlineStr"/>
+        <v>0.479</v>
+      </c>
+      <c r="J121" t="n">
+        <v>0.4488</v>
+      </c>
+      <c r="K121" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L121" t="n">
+        <v>1</v>
+      </c>
+      <c r="M121" t="inlineStr"/>
     </row>
     <row r="122">
       <c r="A122" s="1" t="n">
@@ -4776,18 +4863,23 @@
         <v>65666960.22652949</v>
       </c>
       <c r="H122" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I122" t="n">
-        <v>0</v>
-      </c>
-      <c r="J122" t="inlineStr"/>
-      <c r="K122" t="inlineStr"/>
-      <c r="L122" t="inlineStr"/>
-      <c r="M122" t="n">
-        <v>1</v>
-      </c>
-      <c r="N122" t="inlineStr"/>
+        <v>0.4588</v>
+      </c>
+      <c r="J122" t="n">
+        <v>0.4488</v>
+      </c>
+      <c r="K122" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L122" t="n">
+        <v>1</v>
+      </c>
+      <c r="M122" t="inlineStr"/>
     </row>
     <row r="123">
       <c r="A123" s="1" t="n">
@@ -4812,18 +4904,23 @@
         <v>65666960.22652949</v>
       </c>
       <c r="H123" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I123" t="n">
-        <v>0</v>
-      </c>
-      <c r="J123" t="inlineStr"/>
-      <c r="K123" t="inlineStr"/>
-      <c r="L123" t="inlineStr"/>
-      <c r="M123" t="n">
-        <v>1</v>
-      </c>
-      <c r="N123" t="inlineStr"/>
+        <v>0.4588</v>
+      </c>
+      <c r="J123" t="n">
+        <v>0.4488</v>
+      </c>
+      <c r="K123" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L123" t="n">
+        <v>1</v>
+      </c>
+      <c r="M123" t="inlineStr"/>
     </row>
     <row r="124">
       <c r="A124" s="1" t="n">
@@ -4848,18 +4945,23 @@
         <v>65663960.22652949</v>
       </c>
       <c r="H124" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I124" t="n">
-        <v>0</v>
-      </c>
-      <c r="J124" t="inlineStr"/>
-      <c r="K124" t="inlineStr"/>
-      <c r="L124" t="inlineStr"/>
-      <c r="M124" t="n">
-        <v>1</v>
-      </c>
-      <c r="N124" t="inlineStr"/>
+        <v>0.4588</v>
+      </c>
+      <c r="J124" t="n">
+        <v>0.4488</v>
+      </c>
+      <c r="K124" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L124" t="n">
+        <v>1</v>
+      </c>
+      <c r="M124" t="inlineStr"/>
     </row>
     <row r="125">
       <c r="A125" s="1" t="n">
@@ -4884,18 +4986,23 @@
         <v>65665060.22652949</v>
       </c>
       <c r="H125" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I125" t="n">
-        <v>0</v>
-      </c>
-      <c r="J125" t="inlineStr"/>
-      <c r="K125" t="inlineStr"/>
-      <c r="L125" t="inlineStr"/>
-      <c r="M125" t="n">
-        <v>1</v>
-      </c>
-      <c r="N125" t="inlineStr"/>
+        <v>0.4489</v>
+      </c>
+      <c r="J125" t="n">
+        <v>0.4488</v>
+      </c>
+      <c r="K125" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L125" t="n">
+        <v>1</v>
+      </c>
+      <c r="M125" t="inlineStr"/>
     </row>
     <row r="126">
       <c r="A126" s="1" t="n">
@@ -4920,18 +5027,23 @@
         <v>65666160.22652949</v>
       </c>
       <c r="H126" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I126" t="n">
-        <v>0</v>
-      </c>
-      <c r="J126" t="inlineStr"/>
-      <c r="K126" t="inlineStr"/>
-      <c r="L126" t="inlineStr"/>
-      <c r="M126" t="n">
-        <v>1</v>
-      </c>
-      <c r="N126" t="inlineStr"/>
+        <v>0.46</v>
+      </c>
+      <c r="J126" t="n">
+        <v>0.4488</v>
+      </c>
+      <c r="K126" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L126" t="n">
+        <v>1</v>
+      </c>
+      <c r="M126" t="inlineStr"/>
     </row>
     <row r="127">
       <c r="A127" s="1" t="n">
@@ -4956,18 +5068,23 @@
         <v>65666160.22652949</v>
       </c>
       <c r="H127" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I127" t="n">
-        <v>0</v>
-      </c>
-      <c r="J127" t="inlineStr"/>
-      <c r="K127" t="inlineStr"/>
-      <c r="L127" t="inlineStr"/>
-      <c r="M127" t="n">
-        <v>1</v>
-      </c>
-      <c r="N127" t="inlineStr"/>
+        <v>0.464</v>
+      </c>
+      <c r="J127" t="n">
+        <v>0.4488</v>
+      </c>
+      <c r="K127" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L127" t="n">
+        <v>1</v>
+      </c>
+      <c r="M127" t="inlineStr"/>
     </row>
     <row r="128">
       <c r="A128" s="1" t="n">
@@ -4992,18 +5109,23 @@
         <v>65666160.22652949</v>
       </c>
       <c r="H128" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I128" t="n">
-        <v>0</v>
-      </c>
-      <c r="J128" t="inlineStr"/>
-      <c r="K128" t="inlineStr"/>
-      <c r="L128" t="inlineStr"/>
-      <c r="M128" t="n">
-        <v>1</v>
-      </c>
-      <c r="N128" t="inlineStr"/>
+        <v>0.464</v>
+      </c>
+      <c r="J128" t="n">
+        <v>0.4488</v>
+      </c>
+      <c r="K128" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L128" t="n">
+        <v>1</v>
+      </c>
+      <c r="M128" t="inlineStr"/>
     </row>
     <row r="129">
       <c r="A129" s="1" t="n">
@@ -5028,18 +5150,23 @@
         <v>65393810.22652949</v>
       </c>
       <c r="H129" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I129" t="n">
-        <v>0</v>
-      </c>
-      <c r="J129" t="inlineStr"/>
-      <c r="K129" t="inlineStr"/>
-      <c r="L129" t="inlineStr"/>
-      <c r="M129" t="n">
-        <v>1</v>
-      </c>
-      <c r="N129" t="inlineStr"/>
+        <v>0.464</v>
+      </c>
+      <c r="J129" t="n">
+        <v>0.4488</v>
+      </c>
+      <c r="K129" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L129" t="n">
+        <v>1</v>
+      </c>
+      <c r="M129" t="inlineStr"/>
     </row>
     <row r="130">
       <c r="A130" s="1" t="n">
@@ -5064,18 +5191,23 @@
         <v>67562021.42522949</v>
       </c>
       <c r="H130" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I130" t="n">
-        <v>0</v>
-      </c>
-      <c r="J130" t="inlineStr"/>
-      <c r="K130" t="inlineStr"/>
-      <c r="L130" t="inlineStr"/>
-      <c r="M130" t="n">
-        <v>1</v>
-      </c>
-      <c r="N130" t="inlineStr"/>
+        <v>0.4589</v>
+      </c>
+      <c r="J130" t="n">
+        <v>0.4488</v>
+      </c>
+      <c r="K130" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L130" t="n">
+        <v>1</v>
+      </c>
+      <c r="M130" t="inlineStr"/>
     </row>
     <row r="131">
       <c r="A131" s="1" t="n">
@@ -5100,18 +5232,23 @@
         <v>71270221.60832949</v>
       </c>
       <c r="H131" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I131" t="n">
-        <v>0</v>
-      </c>
-      <c r="J131" t="inlineStr"/>
-      <c r="K131" t="inlineStr"/>
-      <c r="L131" t="inlineStr"/>
-      <c r="M131" t="n">
-        <v>1</v>
-      </c>
-      <c r="N131" t="inlineStr"/>
+        <v>0.4629</v>
+      </c>
+      <c r="J131" t="n">
+        <v>0.4488</v>
+      </c>
+      <c r="K131" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L131" t="n">
+        <v>1</v>
+      </c>
+      <c r="M131" t="inlineStr"/>
     </row>
     <row r="132">
       <c r="A132" s="1" t="n">
@@ -5136,18 +5273,23 @@
         <v>71612755.16982949</v>
       </c>
       <c r="H132" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I132" t="n">
-        <v>0</v>
-      </c>
-      <c r="J132" t="inlineStr"/>
-      <c r="K132" t="inlineStr"/>
-      <c r="L132" t="inlineStr"/>
-      <c r="M132" t="n">
-        <v>1</v>
-      </c>
-      <c r="N132" t="inlineStr"/>
+        <v>0.4631</v>
+      </c>
+      <c r="J132" t="n">
+        <v>0.4488</v>
+      </c>
+      <c r="K132" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L132" t="n">
+        <v>1</v>
+      </c>
+      <c r="M132" t="inlineStr"/>
     </row>
     <row r="133">
       <c r="A133" s="1" t="n">
@@ -5172,18 +5314,23 @@
         <v>71496839.89122948</v>
       </c>
       <c r="H133" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I133" t="n">
-        <v>0</v>
-      </c>
-      <c r="J133" t="inlineStr"/>
-      <c r="K133" t="inlineStr"/>
-      <c r="L133" t="inlineStr"/>
-      <c r="M133" t="n">
-        <v>1</v>
-      </c>
-      <c r="N133" t="inlineStr"/>
+        <v>0.468</v>
+      </c>
+      <c r="J133" t="n">
+        <v>0.4488</v>
+      </c>
+      <c r="K133" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L133" t="n">
+        <v>1</v>
+      </c>
+      <c r="M133" t="inlineStr"/>
     </row>
     <row r="134">
       <c r="A134" s="1" t="n">
@@ -5208,18 +5355,23 @@
         <v>72528808.33113152</v>
       </c>
       <c r="H134" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I134" t="n">
-        <v>0</v>
-      </c>
-      <c r="J134" t="inlineStr"/>
-      <c r="K134" t="inlineStr"/>
-      <c r="L134" t="inlineStr"/>
-      <c r="M134" t="n">
-        <v>1</v>
-      </c>
-      <c r="N134" t="inlineStr"/>
+        <v>0.466</v>
+      </c>
+      <c r="J134" t="n">
+        <v>0.4488</v>
+      </c>
+      <c r="K134" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L134" t="n">
+        <v>1</v>
+      </c>
+      <c r="M134" t="inlineStr"/>
     </row>
     <row r="135">
       <c r="A135" s="1" t="n">
@@ -5244,18 +5396,23 @@
         <v>69680242.70873152</v>
       </c>
       <c r="H135" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I135" t="n">
-        <v>0</v>
-      </c>
-      <c r="J135" t="inlineStr"/>
-      <c r="K135" t="inlineStr"/>
-      <c r="L135" t="inlineStr"/>
-      <c r="M135" t="n">
-        <v>1</v>
-      </c>
-      <c r="N135" t="inlineStr"/>
+        <v>0.4721</v>
+      </c>
+      <c r="J135" t="n">
+        <v>0.4488</v>
+      </c>
+      <c r="K135" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L135" t="n">
+        <v>1</v>
+      </c>
+      <c r="M135" t="inlineStr"/>
     </row>
     <row r="136">
       <c r="A136" s="1" t="n">
@@ -5280,18 +5437,23 @@
         <v>69413195.83563152</v>
       </c>
       <c r="H136" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I136" t="n">
-        <v>0</v>
-      </c>
-      <c r="J136" t="inlineStr"/>
-      <c r="K136" t="inlineStr"/>
-      <c r="L136" t="inlineStr"/>
-      <c r="M136" t="n">
-        <v>1</v>
-      </c>
-      <c r="N136" t="inlineStr"/>
+        <v>0.464</v>
+      </c>
+      <c r="J136" t="n">
+        <v>0.4488</v>
+      </c>
+      <c r="K136" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L136" t="n">
+        <v>1</v>
+      </c>
+      <c r="M136" t="inlineStr"/>
     </row>
     <row r="137">
       <c r="A137" s="1" t="n">
@@ -5318,16 +5480,19 @@
       <c r="H137" t="n">
         <v>0</v>
       </c>
-      <c r="I137" t="n">
-        <v>0</v>
-      </c>
-      <c r="J137" t="inlineStr"/>
-      <c r="K137" t="inlineStr"/>
-      <c r="L137" t="inlineStr"/>
-      <c r="M137" t="n">
-        <v>1</v>
-      </c>
-      <c r="N137" t="inlineStr"/>
+      <c r="I137" t="inlineStr"/>
+      <c r="J137" t="n">
+        <v>0.4488</v>
+      </c>
+      <c r="K137" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L137" t="n">
+        <v>1</v>
+      </c>
+      <c r="M137" t="inlineStr"/>
     </row>
     <row r="138">
       <c r="A138" s="1" t="n">
@@ -5354,16 +5519,19 @@
       <c r="H138" t="n">
         <v>0</v>
       </c>
-      <c r="I138" t="n">
-        <v>0</v>
-      </c>
-      <c r="J138" t="inlineStr"/>
-      <c r="K138" t="inlineStr"/>
-      <c r="L138" t="inlineStr"/>
-      <c r="M138" t="n">
-        <v>1</v>
-      </c>
-      <c r="N138" t="inlineStr"/>
+      <c r="I138" t="inlineStr"/>
+      <c r="J138" t="n">
+        <v>0.4488</v>
+      </c>
+      <c r="K138" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L138" t="n">
+        <v>1</v>
+      </c>
+      <c r="M138" t="inlineStr"/>
     </row>
     <row r="139">
       <c r="A139" s="1" t="n">
@@ -5390,16 +5558,19 @@
       <c r="H139" t="n">
         <v>0</v>
       </c>
-      <c r="I139" t="n">
-        <v>0</v>
-      </c>
-      <c r="J139" t="inlineStr"/>
-      <c r="K139" t="inlineStr"/>
-      <c r="L139" t="inlineStr"/>
-      <c r="M139" t="n">
-        <v>1</v>
-      </c>
-      <c r="N139" t="inlineStr"/>
+      <c r="I139" t="inlineStr"/>
+      <c r="J139" t="n">
+        <v>0.4488</v>
+      </c>
+      <c r="K139" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L139" t="n">
+        <v>1</v>
+      </c>
+      <c r="M139" t="inlineStr"/>
     </row>
     <row r="140">
       <c r="A140" s="1" t="n">
@@ -5424,18 +5595,23 @@
         <v>67404222.06703153</v>
       </c>
       <c r="H140" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I140" t="n">
-        <v>0</v>
-      </c>
-      <c r="J140" t="inlineStr"/>
-      <c r="K140" t="inlineStr"/>
-      <c r="L140" t="inlineStr"/>
-      <c r="M140" t="n">
-        <v>1</v>
-      </c>
-      <c r="N140" t="inlineStr"/>
+        <v>0.463</v>
+      </c>
+      <c r="J140" t="n">
+        <v>0.4488</v>
+      </c>
+      <c r="K140" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L140" t="n">
+        <v>1</v>
+      </c>
+      <c r="M140" t="inlineStr"/>
     </row>
     <row r="141">
       <c r="A141" s="1" t="n">
@@ -5462,16 +5638,19 @@
       <c r="H141" t="n">
         <v>0</v>
       </c>
-      <c r="I141" t="n">
-        <v>0</v>
-      </c>
-      <c r="J141" t="inlineStr"/>
-      <c r="K141" t="inlineStr"/>
-      <c r="L141" t="inlineStr"/>
-      <c r="M141" t="n">
-        <v>1</v>
-      </c>
-      <c r="N141" t="inlineStr"/>
+      <c r="I141" t="inlineStr"/>
+      <c r="J141" t="n">
+        <v>0.4488</v>
+      </c>
+      <c r="K141" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L141" t="n">
+        <v>1</v>
+      </c>
+      <c r="M141" t="inlineStr"/>
     </row>
     <row r="142">
       <c r="A142" s="1" t="n">
@@ -5496,18 +5675,23 @@
         <v>67408875.43933153</v>
       </c>
       <c r="H142" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I142" t="n">
-        <v>0</v>
-      </c>
-      <c r="J142" t="inlineStr"/>
-      <c r="K142" t="inlineStr"/>
-      <c r="L142" t="inlineStr"/>
-      <c r="M142" t="n">
-        <v>1</v>
-      </c>
-      <c r="N142" t="inlineStr"/>
+        <v>0.463</v>
+      </c>
+      <c r="J142" t="n">
+        <v>0.4488</v>
+      </c>
+      <c r="K142" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L142" t="n">
+        <v>1</v>
+      </c>
+      <c r="M142" t="inlineStr"/>
     </row>
     <row r="143">
       <c r="A143" s="1" t="n">
@@ -5534,16 +5718,19 @@
       <c r="H143" t="n">
         <v>0</v>
       </c>
-      <c r="I143" t="n">
-        <v>0</v>
-      </c>
-      <c r="J143" t="inlineStr"/>
-      <c r="K143" t="inlineStr"/>
-      <c r="L143" t="inlineStr"/>
-      <c r="M143" t="n">
-        <v>1</v>
-      </c>
-      <c r="N143" t="inlineStr"/>
+      <c r="I143" t="inlineStr"/>
+      <c r="J143" t="n">
+        <v>0.4488</v>
+      </c>
+      <c r="K143" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L143" t="n">
+        <v>1</v>
+      </c>
+      <c r="M143" t="inlineStr"/>
     </row>
     <row r="144">
       <c r="A144" s="1" t="n">
@@ -5570,16 +5757,19 @@
       <c r="H144" t="n">
         <v>0</v>
       </c>
-      <c r="I144" t="n">
-        <v>0</v>
-      </c>
-      <c r="J144" t="inlineStr"/>
-      <c r="K144" t="inlineStr"/>
-      <c r="L144" t="inlineStr"/>
-      <c r="M144" t="n">
-        <v>1</v>
-      </c>
-      <c r="N144" t="inlineStr"/>
+      <c r="I144" t="inlineStr"/>
+      <c r="J144" t="n">
+        <v>0.4488</v>
+      </c>
+      <c r="K144" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L144" t="n">
+        <v>1</v>
+      </c>
+      <c r="M144" t="inlineStr"/>
     </row>
     <row r="145">
       <c r="A145" s="1" t="n">
@@ -5604,18 +5794,23 @@
         <v>67256875.43933153</v>
       </c>
       <c r="H145" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I145" t="n">
-        <v>0</v>
-      </c>
-      <c r="J145" t="inlineStr"/>
-      <c r="K145" t="inlineStr"/>
-      <c r="L145" t="inlineStr"/>
-      <c r="M145" t="n">
-        <v>1</v>
-      </c>
-      <c r="N145" t="inlineStr"/>
+        <v>0.4686</v>
+      </c>
+      <c r="J145" t="n">
+        <v>0.4488</v>
+      </c>
+      <c r="K145" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L145" t="n">
+        <v>1</v>
+      </c>
+      <c r="M145" t="inlineStr"/>
     </row>
     <row r="146">
       <c r="A146" s="1" t="n">
@@ -5642,16 +5837,19 @@
       <c r="H146" t="n">
         <v>0</v>
       </c>
-      <c r="I146" t="n">
-        <v>0</v>
-      </c>
-      <c r="J146" t="inlineStr"/>
-      <c r="K146" t="inlineStr"/>
-      <c r="L146" t="inlineStr"/>
-      <c r="M146" t="n">
-        <v>1</v>
-      </c>
-      <c r="N146" t="inlineStr"/>
+      <c r="I146" t="inlineStr"/>
+      <c r="J146" t="n">
+        <v>0.4488</v>
+      </c>
+      <c r="K146" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L146" t="n">
+        <v>1</v>
+      </c>
+      <c r="M146" t="inlineStr"/>
     </row>
     <row r="147">
       <c r="A147" s="1" t="n">
@@ -5678,16 +5876,19 @@
       <c r="H147" t="n">
         <v>0</v>
       </c>
-      <c r="I147" t="n">
-        <v>0</v>
-      </c>
-      <c r="J147" t="inlineStr"/>
-      <c r="K147" t="inlineStr"/>
-      <c r="L147" t="inlineStr"/>
-      <c r="M147" t="n">
-        <v>1</v>
-      </c>
-      <c r="N147" t="inlineStr"/>
+      <c r="I147" t="inlineStr"/>
+      <c r="J147" t="n">
+        <v>0.4488</v>
+      </c>
+      <c r="K147" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L147" t="n">
+        <v>1</v>
+      </c>
+      <c r="M147" t="inlineStr"/>
     </row>
     <row r="148">
       <c r="A148" s="1" t="n">
@@ -5712,18 +5913,23 @@
         <v>66687897.55291905</v>
       </c>
       <c r="H148" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I148" t="n">
-        <v>0</v>
-      </c>
-      <c r="J148" t="inlineStr"/>
-      <c r="K148" t="inlineStr"/>
-      <c r="L148" t="inlineStr"/>
-      <c r="M148" t="n">
-        <v>1</v>
-      </c>
-      <c r="N148" t="inlineStr"/>
+        <v>0.4515</v>
+      </c>
+      <c r="J148" t="n">
+        <v>0.4488</v>
+      </c>
+      <c r="K148" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L148" t="n">
+        <v>1</v>
+      </c>
+      <c r="M148" t="inlineStr"/>
     </row>
     <row r="149">
       <c r="A149" s="1" t="n">
@@ -5750,16 +5956,19 @@
       <c r="H149" t="n">
         <v>0</v>
       </c>
-      <c r="I149" t="n">
-        <v>0</v>
-      </c>
-      <c r="J149" t="inlineStr"/>
-      <c r="K149" t="inlineStr"/>
-      <c r="L149" t="inlineStr"/>
-      <c r="M149" t="n">
-        <v>1</v>
-      </c>
-      <c r="N149" t="inlineStr"/>
+      <c r="I149" t="inlineStr"/>
+      <c r="J149" t="n">
+        <v>0.4488</v>
+      </c>
+      <c r="K149" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L149" t="n">
+        <v>1</v>
+      </c>
+      <c r="M149" t="inlineStr"/>
     </row>
     <row r="150">
       <c r="A150" s="1" t="n">
@@ -5784,18 +5993,23 @@
         <v>59381673.20261905</v>
       </c>
       <c r="H150" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I150" t="n">
-        <v>0</v>
-      </c>
-      <c r="J150" t="inlineStr"/>
-      <c r="K150" t="inlineStr"/>
-      <c r="L150" t="inlineStr"/>
-      <c r="M150" t="n">
-        <v>1</v>
-      </c>
-      <c r="N150" t="inlineStr"/>
+        <v>0.4566</v>
+      </c>
+      <c r="J150" t="n">
+        <v>0.4488</v>
+      </c>
+      <c r="K150" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L150" t="n">
+        <v>1</v>
+      </c>
+      <c r="M150" t="inlineStr"/>
     </row>
     <row r="151">
       <c r="A151" s="1" t="n">
@@ -5820,24 +6034,23 @@
         <v>60936022.81341904</v>
       </c>
       <c r="H151" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I151" t="n">
-        <v>0</v>
+        <v>0.4451</v>
       </c>
       <c r="J151" t="n">
-        <v>0.4451</v>
-      </c>
-      <c r="K151" t="inlineStr"/>
-      <c r="L151" t="inlineStr">
-        <is>
-          <t>매수 체결</t>
-        </is>
-      </c>
-      <c r="M151" t="n">
-        <v>1</v>
-      </c>
-      <c r="N151" t="inlineStr"/>
+        <v>0.4488</v>
+      </c>
+      <c r="K151" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L151" t="n">
+        <v>1</v>
+      </c>
+      <c r="M151" t="inlineStr"/>
     </row>
     <row r="152">
       <c r="A152" s="1" t="n">
@@ -5862,24 +6075,23 @@
         <v>60936022.81341904</v>
       </c>
       <c r="H152" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I152" t="n">
-        <v>0</v>
+        <v>0.4565</v>
       </c>
       <c r="J152" t="n">
-        <v>0.4565</v>
-      </c>
-      <c r="K152" t="inlineStr"/>
-      <c r="L152" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M152" t="n">
-        <v>1</v>
-      </c>
-      <c r="N152" t="inlineStr"/>
+        <v>0.4488</v>
+      </c>
+      <c r="K152" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L152" t="n">
+        <v>1</v>
+      </c>
+      <c r="M152" t="inlineStr"/>
     </row>
     <row r="153">
       <c r="A153" s="1" t="n">
@@ -5904,24 +6116,23 @@
         <v>60278016.81341904</v>
       </c>
       <c r="H153" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I153" t="n">
-        <v>0</v>
+        <v>0.4565</v>
       </c>
       <c r="J153" t="n">
-        <v>0.4565</v>
-      </c>
-      <c r="K153" t="inlineStr"/>
-      <c r="L153" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M153" t="n">
-        <v>1</v>
-      </c>
-      <c r="N153" t="inlineStr"/>
+        <v>0.4488</v>
+      </c>
+      <c r="K153" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L153" t="n">
+        <v>1</v>
+      </c>
+      <c r="M153" t="inlineStr"/>
     </row>
     <row r="154">
       <c r="A154" s="1" t="n">
@@ -5946,24 +6157,23 @@
         <v>60161446.81341904</v>
       </c>
       <c r="H154" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I154" t="n">
-        <v>0</v>
+        <v>0.4562</v>
       </c>
       <c r="J154" t="n">
-        <v>0.4562</v>
-      </c>
-      <c r="K154" t="inlineStr"/>
-      <c r="L154" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M154" t="n">
-        <v>1</v>
-      </c>
-      <c r="N154" t="inlineStr"/>
+        <v>0.4488</v>
+      </c>
+      <c r="K154" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L154" t="n">
+        <v>1</v>
+      </c>
+      <c r="M154" t="inlineStr"/>
     </row>
     <row r="155">
       <c r="A155" s="1" t="n">
@@ -5988,24 +6198,23 @@
         <v>59651749.89172421</v>
       </c>
       <c r="H155" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I155" t="n">
-        <v>0</v>
+        <v>0.456</v>
       </c>
       <c r="J155" t="n">
-        <v>0.456</v>
-      </c>
-      <c r="K155" t="inlineStr"/>
-      <c r="L155" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M155" t="n">
-        <v>1</v>
-      </c>
-      <c r="N155" t="inlineStr"/>
+        <v>0.4488</v>
+      </c>
+      <c r="K155" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L155" t="n">
+        <v>1</v>
+      </c>
+      <c r="M155" t="inlineStr"/>
     </row>
     <row r="156">
       <c r="A156" s="1" t="n">
@@ -6030,24 +6239,23 @@
         <v>59651749.89172421</v>
       </c>
       <c r="H156" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I156" t="n">
-        <v>0</v>
+        <v>0.4555</v>
       </c>
       <c r="J156" t="n">
-        <v>0.4555</v>
-      </c>
-      <c r="K156" t="inlineStr"/>
-      <c r="L156" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M156" t="n">
-        <v>1</v>
-      </c>
-      <c r="N156" t="inlineStr"/>
+        <v>0.4488</v>
+      </c>
+      <c r="K156" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L156" t="n">
+        <v>1</v>
+      </c>
+      <c r="M156" t="inlineStr"/>
     </row>
     <row r="157">
       <c r="A157" s="1" t="n">
@@ -6072,24 +6280,23 @@
         <v>59581649.89172421</v>
       </c>
       <c r="H157" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I157" t="n">
-        <v>0</v>
+        <v>0.4555</v>
       </c>
       <c r="J157" t="n">
-        <v>0.4555</v>
-      </c>
-      <c r="K157" t="inlineStr"/>
-      <c r="L157" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M157" t="n">
-        <v>1</v>
-      </c>
-      <c r="N157" t="inlineStr"/>
+        <v>0.4488</v>
+      </c>
+      <c r="K157" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L157" t="n">
+        <v>1</v>
+      </c>
+      <c r="M157" t="inlineStr"/>
     </row>
     <row r="158">
       <c r="A158" s="1" t="n">
@@ -6114,24 +6321,23 @@
         <v>59581649.89172421</v>
       </c>
       <c r="H158" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I158" t="n">
-        <v>0</v>
+        <v>0.4466</v>
       </c>
       <c r="J158" t="n">
-        <v>0.4466</v>
-      </c>
-      <c r="K158" t="inlineStr"/>
-      <c r="L158" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M158" t="n">
-        <v>1</v>
-      </c>
-      <c r="N158" t="inlineStr"/>
+        <v>0.4488</v>
+      </c>
+      <c r="K158" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L158" t="n">
+        <v>1</v>
+      </c>
+      <c r="M158" t="inlineStr"/>
     </row>
     <row r="159">
       <c r="A159" s="1" t="n">
@@ -6156,24 +6362,23 @@
         <v>59581649.89172421</v>
       </c>
       <c r="H159" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I159" t="n">
-        <v>0</v>
+        <v>0.4466</v>
       </c>
       <c r="J159" t="n">
-        <v>0.4466</v>
-      </c>
-      <c r="K159" t="inlineStr"/>
-      <c r="L159" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M159" t="n">
-        <v>1</v>
-      </c>
-      <c r="N159" t="inlineStr"/>
+        <v>0.4488</v>
+      </c>
+      <c r="K159" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L159" t="n">
+        <v>1</v>
+      </c>
+      <c r="M159" t="inlineStr"/>
     </row>
     <row r="160">
       <c r="A160" s="1" t="n">
@@ -6198,24 +6403,23 @@
         <v>59581649.89172421</v>
       </c>
       <c r="H160" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I160" t="n">
-        <v>0</v>
+        <v>0.4466</v>
       </c>
       <c r="J160" t="n">
-        <v>0.4466</v>
-      </c>
-      <c r="K160" t="inlineStr"/>
-      <c r="L160" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M160" t="n">
-        <v>1</v>
-      </c>
-      <c r="N160" t="inlineStr"/>
+        <v>0.4488</v>
+      </c>
+      <c r="K160" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L160" t="n">
+        <v>1</v>
+      </c>
+      <c r="M160" t="inlineStr"/>
     </row>
     <row r="161">
       <c r="A161" s="1" t="n">
@@ -6240,24 +6444,23 @@
         <v>57272191.58332421</v>
       </c>
       <c r="H161" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I161" t="n">
-        <v>0</v>
+        <v>0.4466</v>
       </c>
       <c r="J161" t="n">
-        <v>0.4466</v>
-      </c>
-      <c r="K161" t="inlineStr"/>
-      <c r="L161" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M161" t="n">
-        <v>1</v>
-      </c>
-      <c r="N161" t="inlineStr"/>
+        <v>0.4488</v>
+      </c>
+      <c r="K161" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L161" t="n">
+        <v>1</v>
+      </c>
+      <c r="M161" t="inlineStr"/>
     </row>
     <row r="162">
       <c r="A162" s="1" t="n">
@@ -6282,24 +6485,23 @@
         <v>57272191.58332421</v>
       </c>
       <c r="H162" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I162" t="n">
-        <v>0</v>
+        <v>0.4465</v>
       </c>
       <c r="J162" t="n">
-        <v>0.4465</v>
-      </c>
-      <c r="K162" t="inlineStr"/>
-      <c r="L162" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M162" t="n">
-        <v>1</v>
-      </c>
-      <c r="N162" t="inlineStr"/>
+        <v>0.4488</v>
+      </c>
+      <c r="K162" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L162" t="n">
+        <v>1</v>
+      </c>
+      <c r="M162" t="inlineStr"/>
     </row>
     <row r="163">
       <c r="A163" s="1" t="n">
@@ -6324,24 +6526,23 @@
         <v>57397771.58332421</v>
       </c>
       <c r="H163" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I163" t="n">
-        <v>0</v>
+        <v>0.4465</v>
       </c>
       <c r="J163" t="n">
-        <v>0.4465</v>
-      </c>
-      <c r="K163" t="inlineStr"/>
-      <c r="L163" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M163" t="n">
-        <v>1</v>
-      </c>
-      <c r="N163" t="inlineStr"/>
+        <v>0.4488</v>
+      </c>
+      <c r="K163" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L163" t="n">
+        <v>1</v>
+      </c>
+      <c r="M163" t="inlineStr"/>
     </row>
     <row r="164">
       <c r="A164" s="1" t="n">
@@ -6366,24 +6567,23 @@
         <v>57304199.60992421</v>
       </c>
       <c r="H164" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I164" t="n">
-        <v>0</v>
+        <v>0.4554</v>
       </c>
       <c r="J164" t="n">
-        <v>0.4554</v>
-      </c>
-      <c r="K164" t="inlineStr"/>
-      <c r="L164" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M164" t="n">
-        <v>1</v>
-      </c>
-      <c r="N164" t="inlineStr"/>
+        <v>0.4488</v>
+      </c>
+      <c r="K164" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L164" t="n">
+        <v>1</v>
+      </c>
+      <c r="M164" t="inlineStr"/>
     </row>
     <row r="165">
       <c r="A165" s="1" t="n">
@@ -6408,24 +6608,23 @@
         <v>52197906.52432421</v>
       </c>
       <c r="H165" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I165" t="n">
-        <v>0</v>
+        <v>0.4454</v>
       </c>
       <c r="J165" t="n">
-        <v>0.4454</v>
-      </c>
-      <c r="K165" t="inlineStr"/>
-      <c r="L165" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M165" t="n">
-        <v>1</v>
-      </c>
-      <c r="N165" t="inlineStr"/>
+        <v>0.4488</v>
+      </c>
+      <c r="K165" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L165" t="n">
+        <v>1</v>
+      </c>
+      <c r="M165" t="inlineStr"/>
     </row>
     <row r="166">
       <c r="A166" s="1" t="n">
@@ -6450,24 +6649,23 @@
         <v>52420313.52432421</v>
       </c>
       <c r="H166" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I166" t="n">
-        <v>0</v>
+        <v>0.4392</v>
       </c>
       <c r="J166" t="n">
-        <v>0.4392</v>
-      </c>
-      <c r="K166" t="inlineStr"/>
-      <c r="L166" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M166" t="n">
-        <v>1</v>
-      </c>
-      <c r="N166" t="inlineStr"/>
+        <v>0.4488</v>
+      </c>
+      <c r="K166" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L166" t="n">
+        <v>1</v>
+      </c>
+      <c r="M166" t="inlineStr"/>
     </row>
     <row r="167">
       <c r="A167" s="1" t="n">
@@ -6492,24 +6690,23 @@
         <v>54714394.47842421</v>
       </c>
       <c r="H167" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I167" t="n">
-        <v>0</v>
+        <v>0.4555</v>
       </c>
       <c r="J167" t="n">
-        <v>0.4555</v>
-      </c>
-      <c r="K167" t="inlineStr"/>
-      <c r="L167" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M167" t="n">
-        <v>1</v>
-      </c>
-      <c r="N167" t="inlineStr"/>
+        <v>0.4488</v>
+      </c>
+      <c r="K167" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L167" t="n">
+        <v>1</v>
+      </c>
+      <c r="M167" t="inlineStr"/>
     </row>
     <row r="168">
       <c r="A168" s="1" t="n">
@@ -6534,24 +6731,23 @@
         <v>54714394.47842421</v>
       </c>
       <c r="H168" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I168" t="n">
-        <v>0</v>
+        <v>0.4556</v>
       </c>
       <c r="J168" t="n">
-        <v>0.4556</v>
-      </c>
-      <c r="K168" t="inlineStr"/>
-      <c r="L168" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M168" t="n">
-        <v>1</v>
-      </c>
-      <c r="N168" t="inlineStr"/>
+        <v>0.4488</v>
+      </c>
+      <c r="K168" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L168" t="n">
+        <v>1</v>
+      </c>
+      <c r="M168" t="inlineStr"/>
     </row>
     <row r="169">
       <c r="A169" s="1" t="n">
@@ -6576,24 +6772,23 @@
         <v>54714394.47842421</v>
       </c>
       <c r="H169" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I169" t="n">
-        <v>0</v>
+        <v>0.4556</v>
       </c>
       <c r="J169" t="n">
-        <v>0.4556</v>
-      </c>
-      <c r="K169" t="inlineStr"/>
-      <c r="L169" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M169" t="n">
-        <v>1</v>
-      </c>
-      <c r="N169" t="inlineStr"/>
+        <v>0.4488</v>
+      </c>
+      <c r="K169" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L169" t="n">
+        <v>1</v>
+      </c>
+      <c r="M169" t="inlineStr"/>
     </row>
     <row r="170">
       <c r="A170" s="1" t="n">
@@ -6618,24 +6813,23 @@
         <v>56367945.9893242</v>
       </c>
       <c r="H170" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I170" t="n">
-        <v>0</v>
+        <v>0.4556</v>
       </c>
       <c r="J170" t="n">
-        <v>0.4556</v>
-      </c>
-      <c r="K170" t="inlineStr"/>
-      <c r="L170" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M170" t="n">
-        <v>1</v>
-      </c>
-      <c r="N170" t="inlineStr"/>
+        <v>0.4488</v>
+      </c>
+      <c r="K170" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L170" t="n">
+        <v>1</v>
+      </c>
+      <c r="M170" t="inlineStr"/>
     </row>
     <row r="171">
       <c r="A171" s="1" t="n">
@@ -6660,24 +6854,23 @@
         <v>54865785.9893242</v>
       </c>
       <c r="H171" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I171" t="n">
-        <v>0</v>
+        <v>0.4655</v>
       </c>
       <c r="J171" t="n">
-        <v>0.4655</v>
-      </c>
-      <c r="K171" t="inlineStr"/>
-      <c r="L171" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M171" t="n">
-        <v>1</v>
-      </c>
-      <c r="N171" t="inlineStr"/>
+        <v>0.4488</v>
+      </c>
+      <c r="K171" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L171" t="n">
+        <v>1</v>
+      </c>
+      <c r="M171" t="inlineStr"/>
     </row>
     <row r="172">
       <c r="A172" s="1" t="n">
@@ -6702,24 +6895,23 @@
         <v>53220646.9444242</v>
       </c>
       <c r="H172" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I172" t="n">
-        <v>0</v>
+        <v>0.4556</v>
       </c>
       <c r="J172" t="n">
-        <v>0.4556</v>
-      </c>
-      <c r="K172" t="inlineStr"/>
-      <c r="L172" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M172" t="n">
-        <v>1</v>
-      </c>
-      <c r="N172" t="inlineStr"/>
+        <v>0.4488</v>
+      </c>
+      <c r="K172" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L172" t="n">
+        <v>1</v>
+      </c>
+      <c r="M172" t="inlineStr"/>
     </row>
     <row r="173">
       <c r="A173" s="1" t="n">
@@ -6744,24 +6936,23 @@
         <v>53314918.9444242</v>
       </c>
       <c r="H173" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I173" t="n">
-        <v>0</v>
+        <v>0.4494</v>
       </c>
       <c r="J173" t="n">
-        <v>0.4494</v>
-      </c>
-      <c r="K173" t="inlineStr"/>
-      <c r="L173" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M173" t="n">
-        <v>1</v>
-      </c>
-      <c r="N173" t="inlineStr"/>
+        <v>0.4488</v>
+      </c>
+      <c r="K173" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L173" t="n">
+        <v>1</v>
+      </c>
+      <c r="M173" t="inlineStr"/>
     </row>
     <row r="174">
       <c r="A174" s="1" t="n">
@@ -6786,24 +6977,23 @@
         <v>53314918.9444242</v>
       </c>
       <c r="H174" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I174" t="n">
-        <v>0</v>
+        <v>0.4624</v>
       </c>
       <c r="J174" t="n">
-        <v>0.4624</v>
-      </c>
-      <c r="K174" t="inlineStr"/>
-      <c r="L174" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M174" t="n">
-        <v>1</v>
-      </c>
-      <c r="N174" t="inlineStr"/>
+        <v>0.4488</v>
+      </c>
+      <c r="K174" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L174" t="n">
+        <v>1</v>
+      </c>
+      <c r="M174" t="inlineStr"/>
     </row>
     <row r="175">
       <c r="A175" s="1" t="n">
@@ -6828,22 +7018,23 @@
         <v>55245869.5256242</v>
       </c>
       <c r="H175" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I175" t="n">
-        <v>0</v>
-      </c>
-      <c r="J175" t="inlineStr"/>
-      <c r="K175" t="inlineStr"/>
-      <c r="L175" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M175" t="n">
-        <v>1</v>
-      </c>
-      <c r="N175" t="inlineStr"/>
+        <v>0.4624</v>
+      </c>
+      <c r="J175" t="n">
+        <v>0.4488</v>
+      </c>
+      <c r="K175" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L175" t="n">
+        <v>1</v>
+      </c>
+      <c r="M175" t="inlineStr"/>
     </row>
     <row r="176">
       <c r="A176" s="1" t="n">
@@ -6868,22 +7059,23 @@
         <v>55239339.5256242</v>
       </c>
       <c r="H176" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I176" t="n">
-        <v>0</v>
-      </c>
-      <c r="J176" t="inlineStr"/>
-      <c r="K176" t="inlineStr"/>
-      <c r="L176" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M176" t="n">
-        <v>1</v>
-      </c>
-      <c r="N176" t="inlineStr"/>
+        <v>0.4657</v>
+      </c>
+      <c r="J176" t="n">
+        <v>0.4488</v>
+      </c>
+      <c r="K176" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L176" t="n">
+        <v>1</v>
+      </c>
+      <c r="M176" t="inlineStr"/>
     </row>
     <row r="177">
       <c r="A177" s="1" t="n">
@@ -6908,22 +7100,23 @@
         <v>55239339.5256242</v>
       </c>
       <c r="H177" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I177" t="n">
-        <v>0</v>
-      </c>
-      <c r="J177" t="inlineStr"/>
-      <c r="K177" t="inlineStr"/>
-      <c r="L177" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M177" t="n">
-        <v>1</v>
-      </c>
-      <c r="N177" t="inlineStr"/>
+        <v>0.4602</v>
+      </c>
+      <c r="J177" t="n">
+        <v>0.4488</v>
+      </c>
+      <c r="K177" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L177" t="n">
+        <v>1</v>
+      </c>
+      <c r="M177" t="inlineStr"/>
     </row>
     <row r="178">
       <c r="A178" s="1" t="n">
@@ -6948,22 +7141,23 @@
         <v>55240414.5256242</v>
       </c>
       <c r="H178" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I178" t="n">
-        <v>0</v>
-      </c>
-      <c r="J178" t="inlineStr"/>
-      <c r="K178" t="inlineStr"/>
-      <c r="L178" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M178" t="n">
-        <v>1</v>
-      </c>
-      <c r="N178" t="inlineStr"/>
+        <v>0.4602</v>
+      </c>
+      <c r="J178" t="n">
+        <v>0.4488</v>
+      </c>
+      <c r="K178" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L178" t="n">
+        <v>1</v>
+      </c>
+      <c r="M178" t="inlineStr"/>
     </row>
     <row r="179">
       <c r="A179" s="1" t="n">
@@ -6988,22 +7182,23 @@
         <v>55240414.5256242</v>
       </c>
       <c r="H179" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I179" t="n">
-        <v>0</v>
-      </c>
-      <c r="J179" t="inlineStr"/>
-      <c r="K179" t="inlineStr"/>
-      <c r="L179" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M179" t="n">
-        <v>1</v>
-      </c>
-      <c r="N179" t="inlineStr"/>
+        <v>0.4654</v>
+      </c>
+      <c r="J179" t="n">
+        <v>0.4488</v>
+      </c>
+      <c r="K179" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L179" t="n">
+        <v>1</v>
+      </c>
+      <c r="M179" t="inlineStr"/>
     </row>
     <row r="180">
       <c r="A180" s="1" t="n">
@@ -7028,22 +7223,23 @@
         <v>55094597.7676242</v>
       </c>
       <c r="H180" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I180" t="n">
-        <v>0</v>
-      </c>
-      <c r="J180" t="inlineStr"/>
-      <c r="K180" t="inlineStr"/>
-      <c r="L180" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M180" t="n">
-        <v>1</v>
-      </c>
-      <c r="N180" t="inlineStr"/>
+        <v>0.4654</v>
+      </c>
+      <c r="J180" t="n">
+        <v>0.4488</v>
+      </c>
+      <c r="K180" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L180" t="n">
+        <v>1</v>
+      </c>
+      <c r="M180" t="inlineStr"/>
     </row>
     <row r="181">
       <c r="A181" s="1" t="n">
@@ -7068,22 +7264,23 @@
         <v>55095664.7676242</v>
       </c>
       <c r="H181" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I181" t="n">
-        <v>0</v>
-      </c>
-      <c r="J181" t="inlineStr"/>
-      <c r="K181" t="inlineStr"/>
-      <c r="L181" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M181" t="n">
-        <v>1</v>
-      </c>
-      <c r="N181" t="inlineStr"/>
+        <v>0.4607</v>
+      </c>
+      <c r="J181" t="n">
+        <v>0.4488</v>
+      </c>
+      <c r="K181" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L181" t="n">
+        <v>1</v>
+      </c>
+      <c r="M181" t="inlineStr"/>
     </row>
     <row r="182">
       <c r="A182" s="1" t="n">
@@ -7108,22 +7305,23 @@
         <v>55092664.7676242</v>
       </c>
       <c r="H182" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I182" t="n">
-        <v>0</v>
-      </c>
-      <c r="J182" t="inlineStr"/>
-      <c r="K182" t="inlineStr"/>
-      <c r="L182" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M182" t="n">
-        <v>1</v>
-      </c>
-      <c r="N182" t="inlineStr"/>
+        <v>0.469</v>
+      </c>
+      <c r="J182" t="n">
+        <v>0.4488</v>
+      </c>
+      <c r="K182" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L182" t="n">
+        <v>1</v>
+      </c>
+      <c r="M182" t="inlineStr"/>
     </row>
     <row r="183">
       <c r="A183" s="1" t="n">
@@ -7148,22 +7346,23 @@
         <v>54862169.8334242</v>
       </c>
       <c r="H183" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I183" t="n">
-        <v>0</v>
-      </c>
-      <c r="J183" t="inlineStr"/>
-      <c r="K183" t="inlineStr"/>
-      <c r="L183" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M183" t="n">
-        <v>1</v>
-      </c>
-      <c r="N183" t="inlineStr"/>
+        <v>0.4609</v>
+      </c>
+      <c r="J183" t="n">
+        <v>0.4488</v>
+      </c>
+      <c r="K183" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L183" t="n">
+        <v>1</v>
+      </c>
+      <c r="M183" t="inlineStr"/>
     </row>
     <row r="184">
       <c r="A184" s="1" t="n">
@@ -7188,22 +7387,23 @@
         <v>55245147.0069242</v>
       </c>
       <c r="H184" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I184" t="n">
-        <v>0</v>
-      </c>
-      <c r="J184" t="inlineStr"/>
-      <c r="K184" t="inlineStr"/>
-      <c r="L184" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M184" t="n">
-        <v>1</v>
-      </c>
-      <c r="N184" t="inlineStr"/>
+        <v>0.4511</v>
+      </c>
+      <c r="J184" t="n">
+        <v>0.4488</v>
+      </c>
+      <c r="K184" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L184" t="n">
+        <v>1</v>
+      </c>
+      <c r="M184" t="inlineStr"/>
     </row>
     <row r="185">
       <c r="A185" s="1" t="n">
@@ -7228,22 +7428,23 @@
         <v>55238613.42642421</v>
       </c>
       <c r="H185" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I185" t="n">
-        <v>0</v>
-      </c>
-      <c r="J185" t="inlineStr"/>
-      <c r="K185" t="inlineStr"/>
-      <c r="L185" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M185" t="n">
-        <v>1</v>
-      </c>
-      <c r="N185" t="inlineStr"/>
+        <v>0.4677</v>
+      </c>
+      <c r="J185" t="n">
+        <v>0.4488</v>
+      </c>
+      <c r="K185" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L185" t="n">
+        <v>1</v>
+      </c>
+      <c r="M185" t="inlineStr"/>
     </row>
     <row r="186">
       <c r="A186" s="1" t="n">
@@ -7268,22 +7469,23 @@
         <v>54800291.42642421</v>
       </c>
       <c r="H186" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I186" t="n">
-        <v>0</v>
-      </c>
-      <c r="J186" t="inlineStr"/>
-      <c r="K186" t="inlineStr"/>
-      <c r="L186" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M186" t="n">
-        <v>1</v>
-      </c>
-      <c r="N186" t="inlineStr"/>
+        <v>0.4676</v>
+      </c>
+      <c r="J186" t="n">
+        <v>0.4488</v>
+      </c>
+      <c r="K186" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L186" t="n">
+        <v>1</v>
+      </c>
+      <c r="M186" t="inlineStr"/>
     </row>
     <row r="187">
       <c r="A187" s="1" t="n">
@@ -7308,22 +7510,23 @@
         <v>55100291.42642421</v>
       </c>
       <c r="H187" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I187" t="n">
-        <v>0</v>
-      </c>
-      <c r="J187" t="inlineStr"/>
-      <c r="K187" t="inlineStr"/>
-      <c r="L187" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M187" t="n">
-        <v>1</v>
-      </c>
-      <c r="N187" t="inlineStr"/>
+        <v>0.4531</v>
+      </c>
+      <c r="J187" t="n">
+        <v>0.4488</v>
+      </c>
+      <c r="K187" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L187" t="n">
+        <v>1</v>
+      </c>
+      <c r="M187" t="inlineStr"/>
     </row>
     <row r="188">
       <c r="A188" s="1" t="n">
@@ -7348,22 +7551,23 @@
         <v>53818250.23152421</v>
       </c>
       <c r="H188" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I188" t="n">
-        <v>0</v>
-      </c>
-      <c r="J188" t="inlineStr"/>
-      <c r="K188" t="inlineStr"/>
-      <c r="L188" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M188" t="n">
-        <v>1</v>
-      </c>
-      <c r="N188" t="inlineStr"/>
+        <v>0.4559</v>
+      </c>
+      <c r="J188" t="n">
+        <v>0.4488</v>
+      </c>
+      <c r="K188" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L188" t="n">
+        <v>1</v>
+      </c>
+      <c r="M188" t="inlineStr"/>
     </row>
     <row r="189">
       <c r="A189" s="1" t="n">
@@ -7388,22 +7592,23 @@
         <v>53877933.23152421</v>
       </c>
       <c r="H189" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I189" t="n">
-        <v>0</v>
-      </c>
-      <c r="J189" t="inlineStr"/>
-      <c r="K189" t="inlineStr"/>
-      <c r="L189" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M189" t="n">
-        <v>1</v>
-      </c>
-      <c r="N189" t="inlineStr"/>
+        <v>0.443</v>
+      </c>
+      <c r="J189" t="n">
+        <v>0.4488</v>
+      </c>
+      <c r="K189" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L189" t="n">
+        <v>1</v>
+      </c>
+      <c r="M189" t="inlineStr"/>
     </row>
     <row r="190">
       <c r="A190" s="1" t="n">
@@ -7430,20 +7635,19 @@
       <c r="H190" t="n">
         <v>0</v>
       </c>
-      <c r="I190" t="n">
-        <v>0</v>
-      </c>
-      <c r="J190" t="inlineStr"/>
-      <c r="K190" t="inlineStr"/>
-      <c r="L190" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M190" t="n">
-        <v>1</v>
-      </c>
-      <c r="N190" t="inlineStr"/>
+      <c r="I190" t="inlineStr"/>
+      <c r="J190" t="n">
+        <v>0.4488</v>
+      </c>
+      <c r="K190" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L190" t="n">
+        <v>1</v>
+      </c>
+      <c r="M190" t="inlineStr"/>
     </row>
     <row r="191">
       <c r="A191" s="1" t="n">
@@ -7468,24 +7672,21 @@
         <v>54596208.72142421</v>
       </c>
       <c r="H191" t="n">
-        <v>1</v>
-      </c>
-      <c r="I191" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I191" t="inlineStr"/>
       <c r="J191" t="n">
-        <v>0.4545</v>
-      </c>
-      <c r="K191" t="inlineStr"/>
-      <c r="L191" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M191" t="n">
-        <v>1</v>
-      </c>
-      <c r="N191" t="inlineStr"/>
+        <v>0.4488</v>
+      </c>
+      <c r="K191" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L191" t="n">
+        <v>1</v>
+      </c>
+      <c r="M191" t="inlineStr"/>
     </row>
     <row r="192">
       <c r="A192" s="1" t="n">
@@ -7510,24 +7711,21 @@
         <v>50768307.97552421</v>
       </c>
       <c r="H192" t="n">
-        <v>1</v>
-      </c>
-      <c r="I192" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I192" t="inlineStr"/>
       <c r="J192" t="n">
-        <v>0.4645</v>
-      </c>
-      <c r="K192" t="inlineStr"/>
-      <c r="L192" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M192" t="n">
-        <v>1</v>
-      </c>
-      <c r="N192" t="inlineStr"/>
+        <v>0.4488</v>
+      </c>
+      <c r="K192" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L192" t="n">
+        <v>1</v>
+      </c>
+      <c r="M192" t="inlineStr"/>
     </row>
     <row r="193">
       <c r="A193" s="1" t="n">
@@ -7552,24 +7750,23 @@
         <v>66307652.13359644</v>
       </c>
       <c r="H193" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I193" t="n">
-        <v>0</v>
+        <v>0.4643</v>
       </c>
       <c r="J193" t="n">
-        <v>0.4643</v>
-      </c>
-      <c r="K193" t="inlineStr"/>
-      <c r="L193" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M193" t="n">
-        <v>1</v>
-      </c>
-      <c r="N193" t="inlineStr"/>
+        <v>0.4488</v>
+      </c>
+      <c r="K193" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L193" t="n">
+        <v>1</v>
+      </c>
+      <c r="M193" t="inlineStr"/>
     </row>
     <row r="194">
       <c r="A194" s="1" t="n">
@@ -7596,20 +7793,19 @@
       <c r="H194" t="n">
         <v>0</v>
       </c>
-      <c r="I194" t="n">
-        <v>0</v>
-      </c>
-      <c r="J194" t="inlineStr"/>
-      <c r="K194" t="inlineStr"/>
-      <c r="L194" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M194" t="n">
-        <v>1</v>
-      </c>
-      <c r="N194" t="inlineStr"/>
+      <c r="I194" t="inlineStr"/>
+      <c r="J194" t="n">
+        <v>0.4488</v>
+      </c>
+      <c r="K194" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L194" t="n">
+        <v>1</v>
+      </c>
+      <c r="M194" t="inlineStr"/>
     </row>
     <row r="195">
       <c r="A195" s="1" t="n">
@@ -7636,20 +7832,19 @@
       <c r="H195" t="n">
         <v>0</v>
       </c>
-      <c r="I195" t="n">
-        <v>0</v>
-      </c>
-      <c r="J195" t="inlineStr"/>
-      <c r="K195" t="inlineStr"/>
-      <c r="L195" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M195" t="n">
-        <v>1</v>
-      </c>
-      <c r="N195" t="inlineStr"/>
+      <c r="I195" t="inlineStr"/>
+      <c r="J195" t="n">
+        <v>0.4488</v>
+      </c>
+      <c r="K195" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L195" t="n">
+        <v>1</v>
+      </c>
+      <c r="M195" t="inlineStr"/>
     </row>
     <row r="196">
       <c r="A196" s="1" t="n">
@@ -7674,22 +7869,23 @@
         <v>63233115.25799643</v>
       </c>
       <c r="H196" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I196" t="n">
-        <v>0</v>
-      </c>
-      <c r="J196" t="inlineStr"/>
-      <c r="K196" t="inlineStr"/>
-      <c r="L196" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M196" t="n">
-        <v>1</v>
-      </c>
-      <c r="N196" t="inlineStr"/>
+        <v>0.47</v>
+      </c>
+      <c r="J196" t="n">
+        <v>0.4488</v>
+      </c>
+      <c r="K196" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L196" t="n">
+        <v>1</v>
+      </c>
+      <c r="M196" t="inlineStr"/>
     </row>
     <row r="197">
       <c r="A197" s="1" t="n">
@@ -7716,20 +7912,19 @@
       <c r="H197" t="n">
         <v>0</v>
       </c>
-      <c r="I197" t="n">
-        <v>0</v>
-      </c>
-      <c r="J197" t="inlineStr"/>
-      <c r="K197" t="inlineStr"/>
-      <c r="L197" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M197" t="n">
-        <v>1</v>
-      </c>
-      <c r="N197" t="inlineStr"/>
+      <c r="I197" t="inlineStr"/>
+      <c r="J197" t="n">
+        <v>0.4488</v>
+      </c>
+      <c r="K197" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L197" t="n">
+        <v>1</v>
+      </c>
+      <c r="M197" t="inlineStr"/>
     </row>
     <row r="198">
       <c r="A198" s="1" t="n">
@@ -7756,20 +7951,19 @@
       <c r="H198" t="n">
         <v>0</v>
       </c>
-      <c r="I198" t="n">
-        <v>0</v>
-      </c>
-      <c r="J198" t="inlineStr"/>
-      <c r="K198" t="inlineStr"/>
-      <c r="L198" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M198" t="n">
-        <v>1</v>
-      </c>
-      <c r="N198" t="inlineStr"/>
+      <c r="I198" t="inlineStr"/>
+      <c r="J198" t="n">
+        <v>0.4488</v>
+      </c>
+      <c r="K198" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L198" t="n">
+        <v>1</v>
+      </c>
+      <c r="M198" t="inlineStr"/>
     </row>
     <row r="199">
       <c r="A199" s="1" t="n">
@@ -7794,22 +7988,23 @@
         <v>62566690.09669643</v>
       </c>
       <c r="H199" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I199" t="n">
-        <v>0</v>
-      </c>
-      <c r="J199" t="inlineStr"/>
-      <c r="K199" t="inlineStr"/>
-      <c r="L199" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M199" t="n">
-        <v>1</v>
-      </c>
-      <c r="N199" t="inlineStr"/>
+        <v>0.4631</v>
+      </c>
+      <c r="J199" t="n">
+        <v>0.4488</v>
+      </c>
+      <c r="K199" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L199" t="n">
+        <v>1</v>
+      </c>
+      <c r="M199" t="inlineStr"/>
     </row>
     <row r="200">
       <c r="A200" s="1" t="n">
@@ -7836,20 +8031,19 @@
       <c r="H200" t="n">
         <v>0</v>
       </c>
-      <c r="I200" t="n">
-        <v>0</v>
-      </c>
-      <c r="J200" t="inlineStr"/>
-      <c r="K200" t="inlineStr"/>
-      <c r="L200" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M200" t="n">
-        <v>1</v>
-      </c>
-      <c r="N200" t="inlineStr"/>
+      <c r="I200" t="inlineStr"/>
+      <c r="J200" t="n">
+        <v>0.4488</v>
+      </c>
+      <c r="K200" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L200" t="n">
+        <v>1</v>
+      </c>
+      <c r="M200" t="inlineStr"/>
     </row>
     <row r="201">
       <c r="A201" s="1" t="n">
@@ -7876,20 +8070,19 @@
       <c r="H201" t="n">
         <v>0</v>
       </c>
-      <c r="I201" t="n">
-        <v>0</v>
-      </c>
-      <c r="J201" t="inlineStr"/>
-      <c r="K201" t="inlineStr"/>
-      <c r="L201" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M201" t="n">
-        <v>1</v>
-      </c>
-      <c r="N201" t="inlineStr"/>
+      <c r="I201" t="inlineStr"/>
+      <c r="J201" t="n">
+        <v>0.4488</v>
+      </c>
+      <c r="K201" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L201" t="n">
+        <v>1</v>
+      </c>
+      <c r="M201" t="inlineStr"/>
     </row>
     <row r="202">
       <c r="A202" s="1" t="n">
@@ -7916,20 +8109,19 @@
       <c r="H202" t="n">
         <v>0</v>
       </c>
-      <c r="I202" t="n">
-        <v>0</v>
-      </c>
-      <c r="J202" t="inlineStr"/>
-      <c r="K202" t="inlineStr"/>
-      <c r="L202" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M202" t="n">
-        <v>1</v>
-      </c>
-      <c r="N202" t="inlineStr"/>
+      <c r="I202" t="inlineStr"/>
+      <c r="J202" t="n">
+        <v>0.4488</v>
+      </c>
+      <c r="K202" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L202" t="n">
+        <v>1</v>
+      </c>
+      <c r="M202" t="inlineStr"/>
     </row>
     <row r="203">
       <c r="A203" s="1" t="n">
@@ -7956,20 +8148,19 @@
       <c r="H203" t="n">
         <v>0</v>
       </c>
-      <c r="I203" t="n">
-        <v>0</v>
-      </c>
-      <c r="J203" t="inlineStr"/>
-      <c r="K203" t="inlineStr"/>
-      <c r="L203" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M203" t="n">
-        <v>1</v>
-      </c>
-      <c r="N203" t="inlineStr"/>
+      <c r="I203" t="inlineStr"/>
+      <c r="J203" t="n">
+        <v>0.4488</v>
+      </c>
+      <c r="K203" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L203" t="n">
+        <v>1</v>
+      </c>
+      <c r="M203" t="inlineStr"/>
     </row>
     <row r="204">
       <c r="A204" s="1" t="n">
@@ -7994,22 +8185,23 @@
         <v>57779707.95474489</v>
       </c>
       <c r="H204" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I204" t="n">
-        <v>0</v>
-      </c>
-      <c r="J204" t="inlineStr"/>
-      <c r="K204" t="inlineStr"/>
-      <c r="L204" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M204" t="n">
-        <v>1</v>
-      </c>
-      <c r="N204" t="inlineStr"/>
+        <v>0.4659</v>
+      </c>
+      <c r="J204" t="n">
+        <v>0.4488</v>
+      </c>
+      <c r="K204" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L204" t="n">
+        <v>1</v>
+      </c>
+      <c r="M204" t="inlineStr"/>
     </row>
     <row r="205">
       <c r="A205" s="1" t="n">
@@ -8034,22 +8226,23 @@
         <v>58033197.95474489</v>
       </c>
       <c r="H205" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I205" t="n">
-        <v>0</v>
-      </c>
-      <c r="J205" t="inlineStr"/>
-      <c r="K205" t="inlineStr"/>
-      <c r="L205" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M205" t="n">
-        <v>1</v>
-      </c>
-      <c r="N205" t="inlineStr"/>
+        <v>0.4646</v>
+      </c>
+      <c r="J205" t="n">
+        <v>0.4488</v>
+      </c>
+      <c r="K205" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L205" t="n">
+        <v>1</v>
+      </c>
+      <c r="M205" t="inlineStr"/>
     </row>
     <row r="206">
       <c r="A206" s="1" t="n">
@@ -8074,22 +8267,23 @@
         <v>58327857.04964489</v>
       </c>
       <c r="H206" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I206" t="n">
-        <v>0</v>
-      </c>
-      <c r="J206" t="inlineStr"/>
-      <c r="K206" t="inlineStr"/>
-      <c r="L206" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M206" t="n">
-        <v>1</v>
-      </c>
-      <c r="N206" t="inlineStr"/>
+        <v>0.4746</v>
+      </c>
+      <c r="J206" t="n">
+        <v>0.4488</v>
+      </c>
+      <c r="K206" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L206" t="n">
+        <v>1</v>
+      </c>
+      <c r="M206" t="inlineStr"/>
     </row>
     <row r="207">
       <c r="A207" s="1" t="n">
@@ -8114,22 +8308,23 @@
         <v>50605373.88604489</v>
       </c>
       <c r="H207" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I207" t="n">
-        <v>0</v>
-      </c>
-      <c r="J207" t="inlineStr"/>
-      <c r="K207" t="inlineStr"/>
-      <c r="L207" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M207" t="n">
-        <v>1</v>
-      </c>
-      <c r="N207" t="inlineStr"/>
+        <v>0.4796</v>
+      </c>
+      <c r="J207" t="n">
+        <v>0.4488</v>
+      </c>
+      <c r="K207" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L207" t="n">
+        <v>1</v>
+      </c>
+      <c r="M207" t="inlineStr"/>
     </row>
     <row r="208">
       <c r="A208" s="1" t="n">
@@ -8154,22 +8349,23 @@
         <v>46614558.27244489</v>
       </c>
       <c r="H208" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I208" t="n">
-        <v>0</v>
-      </c>
-      <c r="J208" t="inlineStr"/>
-      <c r="K208" t="inlineStr"/>
-      <c r="L208" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M208" t="n">
-        <v>1</v>
-      </c>
-      <c r="N208" t="inlineStr"/>
+        <v>0.479</v>
+      </c>
+      <c r="J208" t="n">
+        <v>0.4488</v>
+      </c>
+      <c r="K208" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L208" t="n">
+        <v>1</v>
+      </c>
+      <c r="M208" t="inlineStr"/>
     </row>
     <row r="209">
       <c r="A209" s="1" t="n">
@@ -8196,20 +8392,19 @@
       <c r="H209" t="n">
         <v>0</v>
       </c>
-      <c r="I209" t="n">
-        <v>0</v>
-      </c>
-      <c r="J209" t="inlineStr"/>
-      <c r="K209" t="inlineStr"/>
-      <c r="L209" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M209" t="n">
-        <v>1</v>
-      </c>
-      <c r="N209" t="inlineStr"/>
+      <c r="I209" t="inlineStr"/>
+      <c r="J209" t="n">
+        <v>0.4488</v>
+      </c>
+      <c r="K209" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L209" t="n">
+        <v>1</v>
+      </c>
+      <c r="M209" t="inlineStr"/>
     </row>
     <row r="210">
       <c r="A210" s="1" t="n">
@@ -8234,22 +8429,23 @@
         <v>43801701.10844489</v>
       </c>
       <c r="H210" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I210" t="n">
-        <v>0</v>
-      </c>
-      <c r="J210" t="inlineStr"/>
-      <c r="K210" t="inlineStr"/>
-      <c r="L210" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M210" t="n">
-        <v>1</v>
-      </c>
-      <c r="N210" t="inlineStr"/>
+        <v>0.478</v>
+      </c>
+      <c r="J210" t="n">
+        <v>0.4488</v>
+      </c>
+      <c r="K210" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L210" t="n">
+        <v>1</v>
+      </c>
+      <c r="M210" t="inlineStr"/>
     </row>
     <row r="211">
       <c r="A211" s="1" t="n">
@@ -8274,22 +8470,23 @@
         <v>39708195.42564489</v>
       </c>
       <c r="H211" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I211" t="n">
-        <v>0</v>
-      </c>
-      <c r="J211" t="inlineStr"/>
-      <c r="K211" t="inlineStr"/>
-      <c r="L211" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M211" t="n">
-        <v>1</v>
-      </c>
-      <c r="N211" t="inlineStr"/>
+        <v>0.4868</v>
+      </c>
+      <c r="J211" t="n">
+        <v>0.4488</v>
+      </c>
+      <c r="K211" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L211" t="n">
+        <v>1</v>
+      </c>
+      <c r="M211" t="inlineStr"/>
     </row>
     <row r="212">
       <c r="A212" s="1" t="n">
@@ -8314,22 +8511,23 @@
         <v>46295863.91164489</v>
       </c>
       <c r="H212" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I212" t="n">
-        <v>0</v>
-      </c>
-      <c r="J212" t="inlineStr"/>
-      <c r="K212" t="inlineStr"/>
-      <c r="L212" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M212" t="n">
-        <v>1</v>
-      </c>
-      <c r="N212" t="inlineStr"/>
+        <v>0.4798</v>
+      </c>
+      <c r="J212" t="n">
+        <v>0.4488</v>
+      </c>
+      <c r="K212" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L212" t="n">
+        <v>1</v>
+      </c>
+      <c r="M212" t="inlineStr"/>
     </row>
     <row r="213">
       <c r="A213" s="1" t="n">
@@ -8354,22 +8552,23 @@
         <v>50344607.14280584</v>
       </c>
       <c r="H213" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I213" t="n">
-        <v>0</v>
-      </c>
-      <c r="J213" t="inlineStr"/>
-      <c r="K213" t="inlineStr"/>
-      <c r="L213" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M213" t="n">
-        <v>1</v>
-      </c>
-      <c r="N213" t="inlineStr"/>
+        <v>0.481</v>
+      </c>
+      <c r="J213" t="n">
+        <v>0.4488</v>
+      </c>
+      <c r="K213" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L213" t="n">
+        <v>1</v>
+      </c>
+      <c r="M213" t="inlineStr"/>
     </row>
     <row r="214">
       <c r="A214" s="1" t="n">
@@ -8396,20 +8595,19 @@
       <c r="H214" t="n">
         <v>0</v>
       </c>
-      <c r="I214" t="n">
-        <v>0</v>
-      </c>
-      <c r="J214" t="inlineStr"/>
-      <c r="K214" t="inlineStr"/>
-      <c r="L214" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M214" t="n">
-        <v>1</v>
-      </c>
-      <c r="N214" t="inlineStr"/>
+      <c r="I214" t="inlineStr"/>
+      <c r="J214" t="n">
+        <v>0.4488</v>
+      </c>
+      <c r="K214" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L214" t="n">
+        <v>1</v>
+      </c>
+      <c r="M214" t="inlineStr"/>
     </row>
     <row r="215">
       <c r="A215" s="1" t="n">
@@ -8436,20 +8634,19 @@
       <c r="H215" t="n">
         <v>0</v>
       </c>
-      <c r="I215" t="n">
-        <v>0</v>
-      </c>
-      <c r="J215" t="inlineStr"/>
-      <c r="K215" t="inlineStr"/>
-      <c r="L215" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M215" t="n">
-        <v>1</v>
-      </c>
-      <c r="N215" t="inlineStr"/>
+      <c r="I215" t="inlineStr"/>
+      <c r="J215" t="n">
+        <v>0.4488</v>
+      </c>
+      <c r="K215" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L215" t="n">
+        <v>1</v>
+      </c>
+      <c r="M215" t="inlineStr"/>
     </row>
     <row r="216">
       <c r="A216" s="1" t="n">
@@ -8476,20 +8673,19 @@
       <c r="H216" t="n">
         <v>0</v>
       </c>
-      <c r="I216" t="n">
-        <v>0</v>
-      </c>
-      <c r="J216" t="inlineStr"/>
-      <c r="K216" t="inlineStr"/>
-      <c r="L216" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M216" t="n">
-        <v>1</v>
-      </c>
-      <c r="N216" t="inlineStr"/>
+      <c r="I216" t="inlineStr"/>
+      <c r="J216" t="n">
+        <v>0.4488</v>
+      </c>
+      <c r="K216" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L216" t="n">
+        <v>1</v>
+      </c>
+      <c r="M216" t="inlineStr"/>
     </row>
     <row r="217">
       <c r="A217" s="1" t="n">
@@ -8516,20 +8712,19 @@
       <c r="H217" t="n">
         <v>0</v>
       </c>
-      <c r="I217" t="n">
-        <v>0</v>
-      </c>
-      <c r="J217" t="inlineStr"/>
-      <c r="K217" t="inlineStr"/>
-      <c r="L217" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M217" t="n">
-        <v>1</v>
-      </c>
-      <c r="N217" t="inlineStr"/>
+      <c r="I217" t="inlineStr"/>
+      <c r="J217" t="n">
+        <v>0.4488</v>
+      </c>
+      <c r="K217" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L217" t="n">
+        <v>1</v>
+      </c>
+      <c r="M217" t="inlineStr"/>
     </row>
     <row r="218">
       <c r="A218" s="1" t="n">
@@ -8556,20 +8751,19 @@
       <c r="H218" t="n">
         <v>0</v>
       </c>
-      <c r="I218" t="n">
-        <v>0</v>
-      </c>
-      <c r="J218" t="inlineStr"/>
-      <c r="K218" t="inlineStr"/>
-      <c r="L218" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M218" t="n">
-        <v>1</v>
-      </c>
-      <c r="N218" t="inlineStr"/>
+      <c r="I218" t="inlineStr"/>
+      <c r="J218" t="n">
+        <v>0.4488</v>
+      </c>
+      <c r="K218" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L218" t="n">
+        <v>1</v>
+      </c>
+      <c r="M218" t="inlineStr"/>
     </row>
     <row r="219">
       <c r="A219" s="1" t="n">
@@ -8596,20 +8790,19 @@
       <c r="H219" t="n">
         <v>0</v>
       </c>
-      <c r="I219" t="n">
-        <v>0</v>
-      </c>
-      <c r="J219" t="inlineStr"/>
-      <c r="K219" t="inlineStr"/>
-      <c r="L219" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M219" t="n">
-        <v>1</v>
-      </c>
-      <c r="N219" t="inlineStr"/>
+      <c r="I219" t="inlineStr"/>
+      <c r="J219" t="n">
+        <v>0.4488</v>
+      </c>
+      <c r="K219" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L219" t="n">
+        <v>1</v>
+      </c>
+      <c r="M219" t="inlineStr"/>
     </row>
     <row r="220">
       <c r="A220" s="1" t="n">
@@ -8634,20 +8827,21 @@
         <v>89915002.67029394</v>
       </c>
       <c r="H220" t="n">
-        <v>0</v>
-      </c>
-      <c r="I220" t="n">
-        <v>1</v>
-      </c>
-      <c r="J220" t="inlineStr"/>
-      <c r="K220" t="inlineStr"/>
-      <c r="L220" t="inlineStr">
-        <is>
-          <t>매도 체결</t>
-        </is>
+        <v>1</v>
+      </c>
+      <c r="I220" t="inlineStr"/>
+      <c r="J220" t="n">
+        <v>0.4488</v>
+      </c>
+      <c r="K220" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L220" t="n">
+        <v>1</v>
       </c>
       <c r="M220" t="inlineStr"/>
-      <c r="N220" t="inlineStr"/>
     </row>
     <row r="221">
       <c r="A221" s="1" t="n">
@@ -8672,18 +8866,21 @@
         <v>70940250.67919394</v>
       </c>
       <c r="H221" t="n">
-        <v>0</v>
-      </c>
-      <c r="I221" t="n">
-        <v>1</v>
-      </c>
-      <c r="J221" t="inlineStr"/>
-      <c r="K221" t="inlineStr"/>
-      <c r="L221" t="inlineStr"/>
-      <c r="M221" t="n">
-        <v>1</v>
-      </c>
-      <c r="N221" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I221" t="inlineStr"/>
+      <c r="J221" t="n">
+        <v>0.4488</v>
+      </c>
+      <c r="K221" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L221" t="n">
+        <v>1</v>
+      </c>
+      <c r="M221" t="inlineStr"/>
     </row>
     <row r="222">
       <c r="A222" s="1" t="n">
@@ -8708,18 +8905,21 @@
         <v>64421039.82009394</v>
       </c>
       <c r="H222" t="n">
-        <v>0</v>
-      </c>
-      <c r="I222" t="n">
-        <v>1</v>
-      </c>
-      <c r="J222" t="inlineStr"/>
-      <c r="K222" t="inlineStr"/>
-      <c r="L222" t="inlineStr"/>
-      <c r="M222" t="n">
-        <v>1</v>
-      </c>
-      <c r="N222" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I222" t="inlineStr"/>
+      <c r="J222" t="n">
+        <v>0.4488</v>
+      </c>
+      <c r="K222" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L222" t="n">
+        <v>1</v>
+      </c>
+      <c r="M222" t="inlineStr"/>
     </row>
     <row r="223">
       <c r="A223" s="1" t="n">
@@ -8744,18 +8944,21 @@
         <v>65010896.04059394</v>
       </c>
       <c r="H223" t="n">
-        <v>0</v>
-      </c>
-      <c r="I223" t="n">
-        <v>1</v>
-      </c>
-      <c r="J223" t="inlineStr"/>
-      <c r="K223" t="inlineStr"/>
-      <c r="L223" t="inlineStr"/>
-      <c r="M223" t="n">
-        <v>1</v>
-      </c>
-      <c r="N223" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I223" t="inlineStr"/>
+      <c r="J223" t="n">
+        <v>0.4488</v>
+      </c>
+      <c r="K223" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L223" t="n">
+        <v>1</v>
+      </c>
+      <c r="M223" t="inlineStr"/>
     </row>
     <row r="224">
       <c r="A224" s="1" t="n">
@@ -8780,18 +8983,21 @@
         <v>63755679.25759394</v>
       </c>
       <c r="H224" t="n">
-        <v>0</v>
-      </c>
-      <c r="I224" t="n">
-        <v>1</v>
-      </c>
-      <c r="J224" t="inlineStr"/>
-      <c r="K224" t="inlineStr"/>
-      <c r="L224" t="inlineStr"/>
-      <c r="M224" t="n">
-        <v>1</v>
-      </c>
-      <c r="N224" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I224" t="inlineStr"/>
+      <c r="J224" t="n">
+        <v>0.4488</v>
+      </c>
+      <c r="K224" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L224" t="n">
+        <v>1</v>
+      </c>
+      <c r="M224" t="inlineStr"/>
     </row>
     <row r="225">
       <c r="A225" s="1" t="n">
@@ -8818,16 +9024,19 @@
       <c r="H225" t="n">
         <v>0</v>
       </c>
-      <c r="I225" t="n">
-        <v>1</v>
-      </c>
-      <c r="J225" t="inlineStr"/>
-      <c r="K225" t="inlineStr"/>
-      <c r="L225" t="inlineStr"/>
-      <c r="M225" t="n">
-        <v>1</v>
-      </c>
-      <c r="N225" t="inlineStr"/>
+      <c r="I225" t="inlineStr"/>
+      <c r="J225" t="n">
+        <v>0.4488</v>
+      </c>
+      <c r="K225" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L225" t="n">
+        <v>1</v>
+      </c>
+      <c r="M225" t="inlineStr"/>
     </row>
     <row r="226">
       <c r="A226" s="1" t="n">
@@ -8852,18 +9061,21 @@
         <v>42757018.44779395</v>
       </c>
       <c r="H226" t="n">
-        <v>0</v>
-      </c>
-      <c r="I226" t="n">
-        <v>1</v>
-      </c>
-      <c r="J226" t="inlineStr"/>
-      <c r="K226" t="inlineStr"/>
-      <c r="L226" t="inlineStr"/>
-      <c r="M226" t="n">
-        <v>1</v>
-      </c>
-      <c r="N226" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I226" t="inlineStr"/>
+      <c r="J226" t="n">
+        <v>0.4488</v>
+      </c>
+      <c r="K226" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L226" t="n">
+        <v>1</v>
+      </c>
+      <c r="M226" t="inlineStr"/>
     </row>
     <row r="227">
       <c r="A227" s="1" t="n">
@@ -8890,16 +9102,19 @@
       <c r="H227" t="n">
         <v>0</v>
       </c>
-      <c r="I227" t="n">
-        <v>0</v>
-      </c>
-      <c r="J227" t="inlineStr"/>
-      <c r="K227" t="inlineStr"/>
-      <c r="L227" t="inlineStr"/>
-      <c r="M227" t="n">
-        <v>1</v>
-      </c>
-      <c r="N227" t="inlineStr"/>
+      <c r="I227" t="inlineStr"/>
+      <c r="J227" t="n">
+        <v>0.4488</v>
+      </c>
+      <c r="K227" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L227" t="n">
+        <v>1</v>
+      </c>
+      <c r="M227" t="inlineStr"/>
     </row>
     <row r="228">
       <c r="A228" s="1" t="n">
@@ -8926,16 +9141,19 @@
       <c r="H228" t="n">
         <v>0</v>
       </c>
-      <c r="I228" t="n">
-        <v>0</v>
-      </c>
-      <c r="J228" t="inlineStr"/>
-      <c r="K228" t="inlineStr"/>
-      <c r="L228" t="inlineStr"/>
-      <c r="M228" t="n">
-        <v>1</v>
-      </c>
-      <c r="N228" t="inlineStr"/>
+      <c r="I228" t="inlineStr"/>
+      <c r="J228" t="n">
+        <v>0.4488</v>
+      </c>
+      <c r="K228" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L228" t="n">
+        <v>1</v>
+      </c>
+      <c r="M228" t="inlineStr"/>
     </row>
     <row r="229">
       <c r="A229" s="1" t="n">
@@ -8962,16 +9180,19 @@
       <c r="H229" t="n">
         <v>0</v>
       </c>
-      <c r="I229" t="n">
-        <v>0</v>
-      </c>
-      <c r="J229" t="inlineStr"/>
-      <c r="K229" t="inlineStr"/>
-      <c r="L229" t="inlineStr"/>
-      <c r="M229" t="n">
-        <v>1</v>
-      </c>
-      <c r="N229" t="inlineStr"/>
+      <c r="I229" t="inlineStr"/>
+      <c r="J229" t="n">
+        <v>0.4488</v>
+      </c>
+      <c r="K229" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L229" t="n">
+        <v>1</v>
+      </c>
+      <c r="M229" t="inlineStr"/>
     </row>
     <row r="230">
       <c r="A230" s="1" t="n">
@@ -8998,16 +9219,19 @@
       <c r="H230" t="n">
         <v>0</v>
       </c>
-      <c r="I230" t="n">
-        <v>0</v>
-      </c>
-      <c r="J230" t="inlineStr"/>
-      <c r="K230" t="inlineStr"/>
-      <c r="L230" t="inlineStr"/>
-      <c r="M230" t="n">
-        <v>1</v>
-      </c>
-      <c r="N230" t="inlineStr"/>
+      <c r="I230" t="inlineStr"/>
+      <c r="J230" t="n">
+        <v>0.4488</v>
+      </c>
+      <c r="K230" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L230" t="n">
+        <v>1</v>
+      </c>
+      <c r="M230" t="inlineStr"/>
     </row>
     <row r="231">
       <c r="A231" s="1" t="n">
@@ -9034,16 +9258,19 @@
       <c r="H231" t="n">
         <v>0</v>
       </c>
-      <c r="I231" t="n">
-        <v>0</v>
-      </c>
-      <c r="J231" t="inlineStr"/>
-      <c r="K231" t="inlineStr"/>
-      <c r="L231" t="inlineStr"/>
-      <c r="M231" t="n">
-        <v>1</v>
-      </c>
-      <c r="N231" t="inlineStr"/>
+      <c r="I231" t="inlineStr"/>
+      <c r="J231" t="n">
+        <v>0.4488</v>
+      </c>
+      <c r="K231" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L231" t="n">
+        <v>1</v>
+      </c>
+      <c r="M231" t="inlineStr"/>
     </row>
     <row r="232">
       <c r="A232" s="1" t="n">
@@ -9070,16 +9297,19 @@
       <c r="H232" t="n">
         <v>0</v>
       </c>
-      <c r="I232" t="n">
-        <v>0</v>
-      </c>
-      <c r="J232" t="inlineStr"/>
-      <c r="K232" t="inlineStr"/>
-      <c r="L232" t="inlineStr"/>
-      <c r="M232" t="n">
-        <v>1</v>
-      </c>
-      <c r="N232" t="inlineStr"/>
+      <c r="I232" t="inlineStr"/>
+      <c r="J232" t="n">
+        <v>0.4488</v>
+      </c>
+      <c r="K232" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L232" t="n">
+        <v>1</v>
+      </c>
+      <c r="M232" t="inlineStr"/>
     </row>
     <row r="233">
       <c r="A233" s="1" t="n">
@@ -9106,16 +9336,19 @@
       <c r="H233" t="n">
         <v>0</v>
       </c>
-      <c r="I233" t="n">
-        <v>0</v>
-      </c>
-      <c r="J233" t="inlineStr"/>
-      <c r="K233" t="inlineStr"/>
-      <c r="L233" t="inlineStr"/>
-      <c r="M233" t="n">
-        <v>1</v>
-      </c>
-      <c r="N233" t="inlineStr"/>
+      <c r="I233" t="inlineStr"/>
+      <c r="J233" t="n">
+        <v>0.4488</v>
+      </c>
+      <c r="K233" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L233" t="n">
+        <v>1</v>
+      </c>
+      <c r="M233" t="inlineStr"/>
     </row>
     <row r="234">
       <c r="A234" s="1" t="n">
@@ -9142,16 +9375,19 @@
       <c r="H234" t="n">
         <v>0</v>
       </c>
-      <c r="I234" t="n">
-        <v>0</v>
-      </c>
-      <c r="J234" t="inlineStr"/>
-      <c r="K234" t="inlineStr"/>
-      <c r="L234" t="inlineStr"/>
-      <c r="M234" t="n">
-        <v>1</v>
-      </c>
-      <c r="N234" t="inlineStr"/>
+      <c r="I234" t="inlineStr"/>
+      <c r="J234" t="n">
+        <v>0.4488</v>
+      </c>
+      <c r="K234" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L234" t="n">
+        <v>1</v>
+      </c>
+      <c r="M234" t="inlineStr"/>
     </row>
     <row r="235">
       <c r="A235" s="1" t="n">
@@ -9178,16 +9414,19 @@
       <c r="H235" t="n">
         <v>0</v>
       </c>
-      <c r="I235" t="n">
-        <v>0</v>
-      </c>
-      <c r="J235" t="inlineStr"/>
-      <c r="K235" t="inlineStr"/>
-      <c r="L235" t="inlineStr"/>
-      <c r="M235" t="n">
-        <v>1</v>
-      </c>
-      <c r="N235" t="inlineStr"/>
+      <c r="I235" t="inlineStr"/>
+      <c r="J235" t="n">
+        <v>0.4488</v>
+      </c>
+      <c r="K235" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L235" t="n">
+        <v>1</v>
+      </c>
+      <c r="M235" t="inlineStr"/>
     </row>
     <row r="236">
       <c r="A236" s="1" t="n">
@@ -9214,16 +9453,19 @@
       <c r="H236" t="n">
         <v>0</v>
       </c>
-      <c r="I236" t="n">
-        <v>0</v>
-      </c>
-      <c r="J236" t="inlineStr"/>
-      <c r="K236" t="inlineStr"/>
-      <c r="L236" t="inlineStr"/>
-      <c r="M236" t="n">
-        <v>1</v>
-      </c>
-      <c r="N236" t="inlineStr"/>
+      <c r="I236" t="inlineStr"/>
+      <c r="J236" t="n">
+        <v>0.4488</v>
+      </c>
+      <c r="K236" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L236" t="n">
+        <v>1</v>
+      </c>
+      <c r="M236" t="inlineStr"/>
     </row>
     <row r="237">
       <c r="A237" s="1" t="n">
@@ -9250,16 +9492,19 @@
       <c r="H237" t="n">
         <v>0</v>
       </c>
-      <c r="I237" t="n">
-        <v>0</v>
-      </c>
-      <c r="J237" t="inlineStr"/>
-      <c r="K237" t="inlineStr"/>
-      <c r="L237" t="inlineStr"/>
-      <c r="M237" t="n">
-        <v>1</v>
-      </c>
-      <c r="N237" t="inlineStr"/>
+      <c r="I237" t="inlineStr"/>
+      <c r="J237" t="n">
+        <v>0.4488</v>
+      </c>
+      <c r="K237" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L237" t="n">
+        <v>1</v>
+      </c>
+      <c r="M237" t="inlineStr"/>
     </row>
     <row r="238">
       <c r="A238" s="1" t="n">
@@ -9286,16 +9531,19 @@
       <c r="H238" t="n">
         <v>0</v>
       </c>
-      <c r="I238" t="n">
-        <v>0</v>
-      </c>
-      <c r="J238" t="inlineStr"/>
-      <c r="K238" t="inlineStr"/>
-      <c r="L238" t="inlineStr"/>
-      <c r="M238" t="n">
-        <v>1</v>
-      </c>
-      <c r="N238" t="inlineStr"/>
+      <c r="I238" t="inlineStr"/>
+      <c r="J238" t="n">
+        <v>0.4488</v>
+      </c>
+      <c r="K238" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L238" t="n">
+        <v>1</v>
+      </c>
+      <c r="M238" t="inlineStr"/>
     </row>
     <row r="239">
       <c r="A239" s="1" t="n">
@@ -9322,16 +9570,19 @@
       <c r="H239" t="n">
         <v>0</v>
       </c>
-      <c r="I239" t="n">
-        <v>0</v>
-      </c>
-      <c r="J239" t="inlineStr"/>
-      <c r="K239" t="inlineStr"/>
-      <c r="L239" t="inlineStr"/>
-      <c r="M239" t="n">
-        <v>1</v>
-      </c>
-      <c r="N239" t="inlineStr"/>
+      <c r="I239" t="inlineStr"/>
+      <c r="J239" t="n">
+        <v>0.4488</v>
+      </c>
+      <c r="K239" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L239" t="n">
+        <v>1</v>
+      </c>
+      <c r="M239" t="inlineStr"/>
     </row>
     <row r="240">
       <c r="A240" s="1" t="n">
@@ -9358,16 +9609,19 @@
       <c r="H240" t="n">
         <v>0</v>
       </c>
-      <c r="I240" t="n">
-        <v>0</v>
-      </c>
-      <c r="J240" t="inlineStr"/>
-      <c r="K240" t="inlineStr"/>
-      <c r="L240" t="inlineStr"/>
-      <c r="M240" t="n">
-        <v>1</v>
-      </c>
-      <c r="N240" t="inlineStr"/>
+      <c r="I240" t="inlineStr"/>
+      <c r="J240" t="n">
+        <v>0.4488</v>
+      </c>
+      <c r="K240" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L240" t="n">
+        <v>1</v>
+      </c>
+      <c r="M240" t="inlineStr"/>
     </row>
     <row r="241">
       <c r="A241" s="1" t="n">
@@ -9392,18 +9646,21 @@
         <v>30403634.98689394</v>
       </c>
       <c r="H241" t="n">
-        <v>0</v>
-      </c>
-      <c r="I241" t="n">
-        <v>0</v>
-      </c>
-      <c r="J241" t="inlineStr"/>
-      <c r="K241" t="inlineStr"/>
-      <c r="L241" t="inlineStr"/>
-      <c r="M241" t="n">
-        <v>1</v>
-      </c>
-      <c r="N241" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I241" t="inlineStr"/>
+      <c r="J241" t="n">
+        <v>0.4488</v>
+      </c>
+      <c r="K241" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L241" t="n">
+        <v>1</v>
+      </c>
+      <c r="M241" t="inlineStr"/>
     </row>
     <row r="242">
       <c r="A242" s="1" t="n">
@@ -9430,16 +9687,19 @@
       <c r="H242" t="n">
         <v>0</v>
       </c>
-      <c r="I242" t="n">
-        <v>0</v>
-      </c>
-      <c r="J242" t="inlineStr"/>
-      <c r="K242" t="inlineStr"/>
-      <c r="L242" t="inlineStr"/>
-      <c r="M242" t="n">
-        <v>1</v>
-      </c>
-      <c r="N242" t="inlineStr"/>
+      <c r="I242" t="inlineStr"/>
+      <c r="J242" t="n">
+        <v>0.4488</v>
+      </c>
+      <c r="K242" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L242" t="n">
+        <v>1</v>
+      </c>
+      <c r="M242" t="inlineStr"/>
     </row>
     <row r="243">
       <c r="A243" s="1" t="n">
@@ -9466,16 +9726,19 @@
       <c r="H243" t="n">
         <v>0</v>
       </c>
-      <c r="I243" t="n">
-        <v>0</v>
-      </c>
-      <c r="J243" t="inlineStr"/>
-      <c r="K243" t="inlineStr"/>
-      <c r="L243" t="inlineStr"/>
-      <c r="M243" t="n">
-        <v>1</v>
-      </c>
-      <c r="N243" t="inlineStr"/>
+      <c r="I243" t="inlineStr"/>
+      <c r="J243" t="n">
+        <v>0.4488</v>
+      </c>
+      <c r="K243" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L243" t="n">
+        <v>1</v>
+      </c>
+      <c r="M243" t="inlineStr"/>
     </row>
     <row r="244">
       <c r="A244" s="1" t="n">
@@ -9502,16 +9765,19 @@
       <c r="H244" t="n">
         <v>0</v>
       </c>
-      <c r="I244" t="n">
-        <v>0</v>
-      </c>
-      <c r="J244" t="inlineStr"/>
-      <c r="K244" t="inlineStr"/>
-      <c r="L244" t="inlineStr"/>
-      <c r="M244" t="n">
-        <v>1</v>
-      </c>
-      <c r="N244" t="inlineStr"/>
+      <c r="I244" t="inlineStr"/>
+      <c r="J244" t="n">
+        <v>0.4488</v>
+      </c>
+      <c r="K244" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L244" t="n">
+        <v>1</v>
+      </c>
+      <c r="M244" t="inlineStr"/>
     </row>
     <row r="245">
       <c r="A245" s="1" t="n">
@@ -9538,16 +9804,19 @@
       <c r="H245" t="n">
         <v>0</v>
       </c>
-      <c r="I245" t="n">
-        <v>0</v>
-      </c>
-      <c r="J245" t="inlineStr"/>
-      <c r="K245" t="inlineStr"/>
-      <c r="L245" t="inlineStr"/>
-      <c r="M245" t="n">
-        <v>1</v>
-      </c>
-      <c r="N245" t="inlineStr"/>
+      <c r="I245" t="inlineStr"/>
+      <c r="J245" t="n">
+        <v>0.4488</v>
+      </c>
+      <c r="K245" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L245" t="n">
+        <v>1</v>
+      </c>
+      <c r="M245" t="inlineStr"/>
     </row>
     <row r="246">
       <c r="A246" s="1" t="n">
@@ -9574,16 +9843,19 @@
       <c r="H246" t="n">
         <v>0</v>
       </c>
-      <c r="I246" t="n">
-        <v>0</v>
-      </c>
-      <c r="J246" t="inlineStr"/>
-      <c r="K246" t="inlineStr"/>
-      <c r="L246" t="inlineStr"/>
-      <c r="M246" t="n">
-        <v>1</v>
-      </c>
-      <c r="N246" t="inlineStr"/>
+      <c r="I246" t="inlineStr"/>
+      <c r="J246" t="n">
+        <v>0.4488</v>
+      </c>
+      <c r="K246" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L246" t="n">
+        <v>1</v>
+      </c>
+      <c r="M246" t="inlineStr"/>
     </row>
     <row r="247">
       <c r="A247" s="1" t="n">
@@ -9610,16 +9882,19 @@
       <c r="H247" t="n">
         <v>0</v>
       </c>
-      <c r="I247" t="n">
-        <v>0</v>
-      </c>
-      <c r="J247" t="inlineStr"/>
-      <c r="K247" t="inlineStr"/>
-      <c r="L247" t="inlineStr"/>
-      <c r="M247" t="n">
-        <v>1</v>
-      </c>
-      <c r="N247" t="inlineStr"/>
+      <c r="I247" t="inlineStr"/>
+      <c r="J247" t="n">
+        <v>0.4488</v>
+      </c>
+      <c r="K247" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L247" t="n">
+        <v>1</v>
+      </c>
+      <c r="M247" t="inlineStr"/>
     </row>
     <row r="248">
       <c r="A248" s="1" t="n">
@@ -9644,18 +9919,21 @@
         <v>30836191.31899394</v>
       </c>
       <c r="H248" t="n">
-        <v>0</v>
-      </c>
-      <c r="I248" t="n">
-        <v>0</v>
-      </c>
-      <c r="J248" t="inlineStr"/>
-      <c r="K248" t="inlineStr"/>
-      <c r="L248" t="inlineStr"/>
-      <c r="M248" t="n">
-        <v>1</v>
-      </c>
-      <c r="N248" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I248" t="inlineStr"/>
+      <c r="J248" t="n">
+        <v>0.4488</v>
+      </c>
+      <c r="K248" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L248" t="n">
+        <v>1</v>
+      </c>
+      <c r="M248" t="inlineStr"/>
     </row>
     <row r="249">
       <c r="A249" s="1" t="n">
@@ -9680,18 +9958,21 @@
         <v>23036646.33879394</v>
       </c>
       <c r="H249" t="n">
-        <v>0</v>
-      </c>
-      <c r="I249" t="n">
-        <v>0</v>
-      </c>
-      <c r="J249" t="inlineStr"/>
-      <c r="K249" t="inlineStr"/>
-      <c r="L249" t="inlineStr"/>
-      <c r="M249" t="n">
-        <v>1</v>
-      </c>
-      <c r="N249" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I249" t="inlineStr"/>
+      <c r="J249" t="n">
+        <v>0.4488</v>
+      </c>
+      <c r="K249" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L249" t="n">
+        <v>1</v>
+      </c>
+      <c r="M249" t="inlineStr"/>
     </row>
     <row r="250">
       <c r="A250" s="1" t="n">
@@ -9716,18 +9997,21 @@
         <v>31601320.44879394</v>
       </c>
       <c r="H250" t="n">
-        <v>0</v>
-      </c>
-      <c r="I250" t="n">
-        <v>0</v>
-      </c>
-      <c r="J250" t="inlineStr"/>
-      <c r="K250" t="inlineStr"/>
-      <c r="L250" t="inlineStr"/>
-      <c r="M250" t="n">
-        <v>1</v>
-      </c>
-      <c r="N250" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I250" t="inlineStr"/>
+      <c r="J250" t="n">
+        <v>0.4488</v>
+      </c>
+      <c r="K250" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L250" t="n">
+        <v>1</v>
+      </c>
+      <c r="M250" t="inlineStr"/>
     </row>
     <row r="251">
       <c r="A251" s="1" t="n">
@@ -9752,18 +10036,21 @@
         <v>31601320.44879394</v>
       </c>
       <c r="H251" t="n">
-        <v>0</v>
-      </c>
-      <c r="I251" t="n">
-        <v>0</v>
-      </c>
-      <c r="J251" t="inlineStr"/>
-      <c r="K251" t="inlineStr"/>
-      <c r="L251" t="inlineStr"/>
-      <c r="M251" t="n">
-        <v>1</v>
-      </c>
-      <c r="N251" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I251" t="inlineStr"/>
+      <c r="J251" t="n">
+        <v>0.4488</v>
+      </c>
+      <c r="K251" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L251" t="n">
+        <v>1</v>
+      </c>
+      <c r="M251" t="inlineStr"/>
     </row>
     <row r="252">
       <c r="A252" s="1" t="n">
@@ -9790,16 +10077,19 @@
       <c r="H252" t="n">
         <v>0</v>
       </c>
-      <c r="I252" t="n">
-        <v>0</v>
-      </c>
-      <c r="J252" t="inlineStr"/>
-      <c r="K252" t="inlineStr"/>
-      <c r="L252" t="inlineStr"/>
-      <c r="M252" t="n">
-        <v>1</v>
-      </c>
-      <c r="N252" t="inlineStr"/>
+      <c r="I252" t="inlineStr"/>
+      <c r="J252" t="n">
+        <v>0.4488</v>
+      </c>
+      <c r="K252" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L252" t="n">
+        <v>1</v>
+      </c>
+      <c r="M252" t="inlineStr"/>
     </row>
     <row r="253">
       <c r="A253" s="1" t="n">
@@ -9826,16 +10116,19 @@
       <c r="H253" t="n">
         <v>0</v>
       </c>
-      <c r="I253" t="n">
-        <v>0</v>
-      </c>
-      <c r="J253" t="inlineStr"/>
-      <c r="K253" t="inlineStr"/>
-      <c r="L253" t="inlineStr"/>
-      <c r="M253" t="n">
-        <v>1</v>
-      </c>
-      <c r="N253" t="inlineStr"/>
+      <c r="I253" t="inlineStr"/>
+      <c r="J253" t="n">
+        <v>0.4488</v>
+      </c>
+      <c r="K253" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L253" t="n">
+        <v>1</v>
+      </c>
+      <c r="M253" t="inlineStr"/>
     </row>
     <row r="254">
       <c r="A254" s="1" t="n">
@@ -9862,16 +10155,19 @@
       <c r="H254" t="n">
         <v>0</v>
       </c>
-      <c r="I254" t="n">
-        <v>0</v>
-      </c>
-      <c r="J254" t="inlineStr"/>
-      <c r="K254" t="inlineStr"/>
-      <c r="L254" t="inlineStr"/>
-      <c r="M254" t="n">
-        <v>1</v>
-      </c>
-      <c r="N254" t="inlineStr"/>
+      <c r="I254" t="inlineStr"/>
+      <c r="J254" t="n">
+        <v>0.4488</v>
+      </c>
+      <c r="K254" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L254" t="n">
+        <v>1</v>
+      </c>
+      <c r="M254" t="inlineStr"/>
     </row>
     <row r="255">
       <c r="A255" s="1" t="n">
@@ -9898,16 +10194,19 @@
       <c r="H255" t="n">
         <v>0</v>
       </c>
-      <c r="I255" t="n">
-        <v>0</v>
-      </c>
-      <c r="J255" t="inlineStr"/>
-      <c r="K255" t="inlineStr"/>
-      <c r="L255" t="inlineStr"/>
-      <c r="M255" t="n">
-        <v>1</v>
-      </c>
-      <c r="N255" t="inlineStr"/>
+      <c r="I255" t="inlineStr"/>
+      <c r="J255" t="n">
+        <v>0.4488</v>
+      </c>
+      <c r="K255" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L255" t="n">
+        <v>1</v>
+      </c>
+      <c r="M255" t="inlineStr"/>
     </row>
     <row r="256">
       <c r="A256" s="1" t="n">
@@ -9934,16 +10233,19 @@
       <c r="H256" t="n">
         <v>0</v>
       </c>
-      <c r="I256" t="n">
-        <v>0</v>
-      </c>
-      <c r="J256" t="inlineStr"/>
-      <c r="K256" t="inlineStr"/>
-      <c r="L256" t="inlineStr"/>
-      <c r="M256" t="n">
-        <v>1</v>
-      </c>
-      <c r="N256" t="inlineStr"/>
+      <c r="I256" t="inlineStr"/>
+      <c r="J256" t="n">
+        <v>0.4488</v>
+      </c>
+      <c r="K256" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L256" t="n">
+        <v>1</v>
+      </c>
+      <c r="M256" t="inlineStr"/>
     </row>
     <row r="257">
       <c r="A257" s="1" t="n">
@@ -9970,16 +10272,19 @@
       <c r="H257" t="n">
         <v>0</v>
       </c>
-      <c r="I257" t="n">
-        <v>0</v>
-      </c>
-      <c r="J257" t="inlineStr"/>
-      <c r="K257" t="inlineStr"/>
-      <c r="L257" t="inlineStr"/>
-      <c r="M257" t="n">
-        <v>1</v>
-      </c>
-      <c r="N257" t="inlineStr"/>
+      <c r="I257" t="inlineStr"/>
+      <c r="J257" t="n">
+        <v>0.4488</v>
+      </c>
+      <c r="K257" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L257" t="n">
+        <v>1</v>
+      </c>
+      <c r="M257" t="inlineStr"/>
     </row>
     <row r="258">
       <c r="A258" s="1" t="n">
@@ -10006,16 +10311,19 @@
       <c r="H258" t="n">
         <v>0</v>
       </c>
-      <c r="I258" t="n">
-        <v>0</v>
-      </c>
-      <c r="J258" t="inlineStr"/>
-      <c r="K258" t="inlineStr"/>
-      <c r="L258" t="inlineStr"/>
-      <c r="M258" t="n">
-        <v>1</v>
-      </c>
-      <c r="N258" t="inlineStr"/>
+      <c r="I258" t="inlineStr"/>
+      <c r="J258" t="n">
+        <v>0.4488</v>
+      </c>
+      <c r="K258" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L258" t="n">
+        <v>1</v>
+      </c>
+      <c r="M258" t="inlineStr"/>
     </row>
     <row r="259">
       <c r="A259" s="1" t="n">
@@ -10042,16 +10350,19 @@
       <c r="H259" t="n">
         <v>0</v>
       </c>
-      <c r="I259" t="n">
-        <v>0</v>
-      </c>
-      <c r="J259" t="inlineStr"/>
-      <c r="K259" t="inlineStr"/>
-      <c r="L259" t="inlineStr"/>
-      <c r="M259" t="n">
-        <v>1</v>
-      </c>
-      <c r="N259" t="inlineStr"/>
+      <c r="I259" t="inlineStr"/>
+      <c r="J259" t="n">
+        <v>0.4488</v>
+      </c>
+      <c r="K259" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L259" t="n">
+        <v>1</v>
+      </c>
+      <c r="M259" t="inlineStr"/>
     </row>
     <row r="260">
       <c r="A260" s="1" t="n">
@@ -10076,18 +10387,21 @@
         <v>40707054.11334503</v>
       </c>
       <c r="H260" t="n">
-        <v>0</v>
-      </c>
-      <c r="I260" t="n">
-        <v>0</v>
-      </c>
-      <c r="J260" t="inlineStr"/>
-      <c r="K260" t="inlineStr"/>
-      <c r="L260" t="inlineStr"/>
-      <c r="M260" t="n">
-        <v>1</v>
-      </c>
-      <c r="N260" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I260" t="inlineStr"/>
+      <c r="J260" t="n">
+        <v>0.4488</v>
+      </c>
+      <c r="K260" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L260" t="n">
+        <v>1</v>
+      </c>
+      <c r="M260" t="inlineStr"/>
     </row>
     <row r="261">
       <c r="A261" s="1" t="n">
@@ -10112,18 +10426,21 @@
         <v>38665867.46254503</v>
       </c>
       <c r="H261" t="n">
-        <v>0</v>
-      </c>
-      <c r="I261" t="n">
-        <v>0</v>
-      </c>
-      <c r="J261" t="inlineStr"/>
-      <c r="K261" t="inlineStr"/>
-      <c r="L261" t="inlineStr"/>
-      <c r="M261" t="n">
-        <v>1</v>
-      </c>
-      <c r="N261" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I261" t="inlineStr"/>
+      <c r="J261" t="n">
+        <v>0.4488</v>
+      </c>
+      <c r="K261" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L261" t="n">
+        <v>1</v>
+      </c>
+      <c r="M261" t="inlineStr"/>
     </row>
     <row r="262">
       <c r="A262" s="1" t="n">
@@ -10148,18 +10465,21 @@
         <v>38689834.84254503</v>
       </c>
       <c r="H262" t="n">
-        <v>0</v>
-      </c>
-      <c r="I262" t="n">
-        <v>0</v>
-      </c>
-      <c r="J262" t="inlineStr"/>
-      <c r="K262" t="inlineStr"/>
-      <c r="L262" t="inlineStr"/>
-      <c r="M262" t="n">
-        <v>1</v>
-      </c>
-      <c r="N262" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I262" t="inlineStr"/>
+      <c r="J262" t="n">
+        <v>0.4488</v>
+      </c>
+      <c r="K262" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L262" t="n">
+        <v>1</v>
+      </c>
+      <c r="M262" t="inlineStr"/>
     </row>
     <row r="263">
       <c r="A263" s="1" t="n">
@@ -10184,18 +10504,21 @@
         <v>40042401.34784503</v>
       </c>
       <c r="H263" t="n">
-        <v>0</v>
-      </c>
-      <c r="I263" t="n">
-        <v>0</v>
-      </c>
-      <c r="J263" t="inlineStr"/>
-      <c r="K263" t="inlineStr"/>
-      <c r="L263" t="inlineStr"/>
-      <c r="M263" t="n">
-        <v>1</v>
-      </c>
-      <c r="N263" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I263" t="inlineStr"/>
+      <c r="J263" t="n">
+        <v>0.4488</v>
+      </c>
+      <c r="K263" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L263" t="n">
+        <v>1</v>
+      </c>
+      <c r="M263" t="inlineStr"/>
     </row>
     <row r="264">
       <c r="A264" s="1" t="n">
@@ -10220,18 +10543,21 @@
         <v>41476007.50024503</v>
       </c>
       <c r="H264" t="n">
-        <v>0</v>
-      </c>
-      <c r="I264" t="n">
-        <v>0</v>
-      </c>
-      <c r="J264" t="inlineStr"/>
-      <c r="K264" t="inlineStr"/>
-      <c r="L264" t="inlineStr"/>
-      <c r="M264" t="n">
-        <v>1</v>
-      </c>
-      <c r="N264" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I264" t="inlineStr"/>
+      <c r="J264" t="n">
+        <v>0.4488</v>
+      </c>
+      <c r="K264" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L264" t="n">
+        <v>1</v>
+      </c>
+      <c r="M264" t="inlineStr"/>
     </row>
     <row r="265">
       <c r="A265" s="1" t="n">
@@ -10256,18 +10582,21 @@
         <v>38307908.02904504</v>
       </c>
       <c r="H265" t="n">
-        <v>0</v>
-      </c>
-      <c r="I265" t="n">
-        <v>0</v>
-      </c>
-      <c r="J265" t="inlineStr"/>
-      <c r="K265" t="inlineStr"/>
-      <c r="L265" t="inlineStr"/>
-      <c r="M265" t="n">
-        <v>1</v>
-      </c>
-      <c r="N265" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I265" t="inlineStr"/>
+      <c r="J265" t="n">
+        <v>0.4488</v>
+      </c>
+      <c r="K265" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L265" t="n">
+        <v>1</v>
+      </c>
+      <c r="M265" t="inlineStr"/>
     </row>
     <row r="266">
       <c r="A266" s="1" t="n">
@@ -10294,16 +10623,19 @@
       <c r="H266" t="n">
         <v>0</v>
       </c>
-      <c r="I266" t="n">
-        <v>0</v>
-      </c>
-      <c r="J266" t="inlineStr"/>
-      <c r="K266" t="inlineStr"/>
-      <c r="L266" t="inlineStr"/>
-      <c r="M266" t="n">
-        <v>1</v>
-      </c>
-      <c r="N266" t="inlineStr"/>
+      <c r="I266" t="inlineStr"/>
+      <c r="J266" t="n">
+        <v>0.4488</v>
+      </c>
+      <c r="K266" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L266" t="n">
+        <v>1</v>
+      </c>
+      <c r="M266" t="inlineStr"/>
     </row>
     <row r="267">
       <c r="A267" s="1" t="n">
@@ -10330,16 +10662,19 @@
       <c r="H267" t="n">
         <v>0</v>
       </c>
-      <c r="I267" t="n">
-        <v>0</v>
-      </c>
-      <c r="J267" t="inlineStr"/>
-      <c r="K267" t="inlineStr"/>
-      <c r="L267" t="inlineStr"/>
-      <c r="M267" t="n">
-        <v>1</v>
-      </c>
-      <c r="N267" t="inlineStr"/>
+      <c r="I267" t="inlineStr"/>
+      <c r="J267" t="n">
+        <v>0.4488</v>
+      </c>
+      <c r="K267" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L267" t="n">
+        <v>1</v>
+      </c>
+      <c r="M267" t="inlineStr"/>
     </row>
     <row r="268">
       <c r="A268" s="1" t="n">
@@ -10366,16 +10701,19 @@
       <c r="H268" t="n">
         <v>0</v>
       </c>
-      <c r="I268" t="n">
-        <v>0</v>
-      </c>
-      <c r="J268" t="inlineStr"/>
-      <c r="K268" t="inlineStr"/>
-      <c r="L268" t="inlineStr"/>
-      <c r="M268" t="n">
-        <v>1</v>
-      </c>
-      <c r="N268" t="inlineStr"/>
+      <c r="I268" t="inlineStr"/>
+      <c r="J268" t="n">
+        <v>0.4488</v>
+      </c>
+      <c r="K268" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L268" t="n">
+        <v>1</v>
+      </c>
+      <c r="M268" t="inlineStr"/>
     </row>
     <row r="269">
       <c r="A269" s="1" t="n">
@@ -10400,18 +10738,23 @@
         <v>50607104.51884504</v>
       </c>
       <c r="H269" t="n">
-        <v>0</v>
-      </c>
-      <c r="I269" t="n">
-        <v>0</v>
-      </c>
-      <c r="J269" t="inlineStr"/>
-      <c r="K269" t="inlineStr"/>
-      <c r="L269" t="inlineStr"/>
+        <v>3</v>
+      </c>
+      <c r="I269" t="inlineStr"/>
+      <c r="J269" t="n">
+        <v>0.4488</v>
+      </c>
+      <c r="K269" t="inlineStr">
+        <is>
+          <t>매도 체결</t>
+        </is>
+      </c>
+      <c r="L269" t="n">
+        <v>1.199991087344028</v>
+      </c>
       <c r="M269" t="n">
-        <v>1</v>
-      </c>
-      <c r="N269" t="inlineStr"/>
+        <v>1.114081996434938</v>
+      </c>
     </row>
     <row r="270">
       <c r="A270" s="1" t="n">
@@ -10436,18 +10779,15 @@
         <v>44793701.14044504</v>
       </c>
       <c r="H270" t="n">
-        <v>0</v>
-      </c>
-      <c r="I270" t="n">
-        <v>0</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I270" t="inlineStr"/>
       <c r="J270" t="inlineStr"/>
       <c r="K270" t="inlineStr"/>
-      <c r="L270" t="inlineStr"/>
-      <c r="M270" t="n">
-        <v>1</v>
-      </c>
-      <c r="N270" t="inlineStr"/>
+      <c r="L270" t="n">
+        <v>1</v>
+      </c>
+      <c r="M270" t="inlineStr"/>
     </row>
     <row r="271">
       <c r="A271" s="1" t="n">
@@ -10472,18 +10812,15 @@
         <v>47820621.96974504</v>
       </c>
       <c r="H271" t="n">
-        <v>0</v>
-      </c>
-      <c r="I271" t="n">
-        <v>0</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I271" t="inlineStr"/>
       <c r="J271" t="inlineStr"/>
       <c r="K271" t="inlineStr"/>
-      <c r="L271" t="inlineStr"/>
-      <c r="M271" t="n">
-        <v>1</v>
-      </c>
-      <c r="N271" t="inlineStr"/>
+      <c r="L271" t="n">
+        <v>1</v>
+      </c>
+      <c r="M271" t="inlineStr"/>
     </row>
     <row r="272">
       <c r="A272" s="1" t="n">
@@ -10508,18 +10845,15 @@
         <v>49302844.26264504</v>
       </c>
       <c r="H272" t="n">
-        <v>0</v>
-      </c>
-      <c r="I272" t="n">
-        <v>0</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I272" t="inlineStr"/>
       <c r="J272" t="inlineStr"/>
       <c r="K272" t="inlineStr"/>
-      <c r="L272" t="inlineStr"/>
-      <c r="M272" t="n">
-        <v>1</v>
-      </c>
-      <c r="N272" t="inlineStr"/>
+      <c r="L272" t="n">
+        <v>1</v>
+      </c>
+      <c r="M272" t="inlineStr"/>
     </row>
     <row r="273">
       <c r="A273" s="1" t="n">
@@ -10544,18 +10878,15 @@
         <v>55788059.54784504</v>
       </c>
       <c r="H273" t="n">
-        <v>0</v>
-      </c>
-      <c r="I273" t="n">
-        <v>0</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I273" t="inlineStr"/>
       <c r="J273" t="inlineStr"/>
       <c r="K273" t="inlineStr"/>
-      <c r="L273" t="inlineStr"/>
-      <c r="M273" t="n">
-        <v>1</v>
-      </c>
-      <c r="N273" t="inlineStr"/>
+      <c r="L273" t="n">
+        <v>1</v>
+      </c>
+      <c r="M273" t="inlineStr"/>
     </row>
     <row r="274">
       <c r="A274" s="1" t="n">
@@ -10580,18 +10911,15 @@
         <v>48584704.13724504</v>
       </c>
       <c r="H274" t="n">
-        <v>0</v>
-      </c>
-      <c r="I274" t="n">
-        <v>1</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I274" t="inlineStr"/>
       <c r="J274" t="inlineStr"/>
       <c r="K274" t="inlineStr"/>
-      <c r="L274" t="inlineStr"/>
-      <c r="M274" t="n">
-        <v>1</v>
-      </c>
-      <c r="N274" t="inlineStr"/>
+      <c r="L274" t="n">
+        <v>1</v>
+      </c>
+      <c r="M274" t="inlineStr"/>
     </row>
     <row r="275">
       <c r="A275" s="1" t="n">
@@ -10616,18 +10944,15 @@
         <v>50370039.88704504</v>
       </c>
       <c r="H275" t="n">
-        <v>0</v>
-      </c>
-      <c r="I275" t="n">
-        <v>1</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I275" t="inlineStr"/>
       <c r="J275" t="inlineStr"/>
       <c r="K275" t="inlineStr"/>
-      <c r="L275" t="inlineStr"/>
-      <c r="M275" t="n">
-        <v>1</v>
-      </c>
-      <c r="N275" t="inlineStr"/>
+      <c r="L275" t="n">
+        <v>1</v>
+      </c>
+      <c r="M275" t="inlineStr"/>
     </row>
     <row r="276">
       <c r="A276" s="1" t="n">
@@ -10652,18 +10977,15 @@
         <v>32559016.09074504</v>
       </c>
       <c r="H276" t="n">
-        <v>0</v>
-      </c>
-      <c r="I276" t="n">
-        <v>0</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I276" t="inlineStr"/>
       <c r="J276" t="inlineStr"/>
       <c r="K276" t="inlineStr"/>
-      <c r="L276" t="inlineStr"/>
-      <c r="M276" t="n">
-        <v>1</v>
-      </c>
-      <c r="N276" t="inlineStr"/>
+      <c r="L276" t="n">
+        <v>1</v>
+      </c>
+      <c r="M276" t="inlineStr"/>
     </row>
     <row r="277">
       <c r="A277" s="1" t="n">
@@ -10690,16 +11012,13 @@
       <c r="H277" t="n">
         <v>0</v>
       </c>
-      <c r="I277" t="n">
-        <v>0</v>
-      </c>
+      <c r="I277" t="inlineStr"/>
       <c r="J277" t="inlineStr"/>
       <c r="K277" t="inlineStr"/>
-      <c r="L277" t="inlineStr"/>
-      <c r="M277" t="n">
-        <v>1</v>
-      </c>
-      <c r="N277" t="inlineStr"/>
+      <c r="L277" t="n">
+        <v>1</v>
+      </c>
+      <c r="M277" t="inlineStr"/>
     </row>
     <row r="278">
       <c r="A278" s="1" t="n">
@@ -10726,16 +11045,13 @@
       <c r="H278" t="n">
         <v>0</v>
       </c>
-      <c r="I278" t="n">
-        <v>0</v>
-      </c>
+      <c r="I278" t="inlineStr"/>
       <c r="J278" t="inlineStr"/>
       <c r="K278" t="inlineStr"/>
-      <c r="L278" t="inlineStr"/>
-      <c r="M278" t="n">
-        <v>1</v>
-      </c>
-      <c r="N278" t="inlineStr"/>
+      <c r="L278" t="n">
+        <v>1</v>
+      </c>
+      <c r="M278" t="inlineStr"/>
     </row>
     <row r="279">
       <c r="A279" s="1" t="n">
@@ -10762,16 +11078,13 @@
       <c r="H279" t="n">
         <v>0</v>
       </c>
-      <c r="I279" t="n">
-        <v>0</v>
-      </c>
+      <c r="I279" t="inlineStr"/>
       <c r="J279" t="inlineStr"/>
       <c r="K279" t="inlineStr"/>
-      <c r="L279" t="inlineStr"/>
-      <c r="M279" t="n">
-        <v>1</v>
-      </c>
-      <c r="N279" t="inlineStr"/>
+      <c r="L279" t="n">
+        <v>1</v>
+      </c>
+      <c r="M279" t="inlineStr"/>
     </row>
     <row r="280">
       <c r="A280" s="1" t="n">
@@ -10798,16 +11111,13 @@
       <c r="H280" t="n">
         <v>0</v>
       </c>
-      <c r="I280" t="n">
-        <v>0</v>
-      </c>
+      <c r="I280" t="inlineStr"/>
       <c r="J280" t="inlineStr"/>
       <c r="K280" t="inlineStr"/>
-      <c r="L280" t="inlineStr"/>
-      <c r="M280" t="n">
-        <v>1</v>
-      </c>
-      <c r="N280" t="inlineStr"/>
+      <c r="L280" t="n">
+        <v>1</v>
+      </c>
+      <c r="M280" t="inlineStr"/>
     </row>
     <row r="281">
       <c r="A281" s="1" t="n">
@@ -10834,16 +11144,13 @@
       <c r="H281" t="n">
         <v>0</v>
       </c>
-      <c r="I281" t="n">
-        <v>0</v>
-      </c>
+      <c r="I281" t="inlineStr"/>
       <c r="J281" t="inlineStr"/>
       <c r="K281" t="inlineStr"/>
-      <c r="L281" t="inlineStr"/>
-      <c r="M281" t="n">
-        <v>1</v>
-      </c>
-      <c r="N281" t="inlineStr"/>
+      <c r="L281" t="n">
+        <v>1</v>
+      </c>
+      <c r="M281" t="inlineStr"/>
     </row>
     <row r="282">
       <c r="A282" s="1" t="n">
@@ -10870,16 +11177,13 @@
       <c r="H282" t="n">
         <v>0</v>
       </c>
-      <c r="I282" t="n">
-        <v>0</v>
-      </c>
+      <c r="I282" t="inlineStr"/>
       <c r="J282" t="inlineStr"/>
       <c r="K282" t="inlineStr"/>
-      <c r="L282" t="inlineStr"/>
-      <c r="M282" t="n">
-        <v>1</v>
-      </c>
-      <c r="N282" t="inlineStr"/>
+      <c r="L282" t="n">
+        <v>1</v>
+      </c>
+      <c r="M282" t="inlineStr"/>
     </row>
     <row r="283">
       <c r="A283" s="1" t="n">
@@ -10906,16 +11210,13 @@
       <c r="H283" t="n">
         <v>0</v>
       </c>
-      <c r="I283" t="n">
-        <v>0</v>
-      </c>
+      <c r="I283" t="inlineStr"/>
       <c r="J283" t="inlineStr"/>
       <c r="K283" t="inlineStr"/>
-      <c r="L283" t="inlineStr"/>
-      <c r="M283" t="n">
-        <v>1</v>
-      </c>
-      <c r="N283" t="inlineStr"/>
+      <c r="L283" t="n">
+        <v>1</v>
+      </c>
+      <c r="M283" t="inlineStr"/>
     </row>
     <row r="284">
       <c r="A284" s="1" t="n">
@@ -10942,16 +11243,13 @@
       <c r="H284" t="n">
         <v>0</v>
       </c>
-      <c r="I284" t="n">
-        <v>0</v>
-      </c>
+      <c r="I284" t="inlineStr"/>
       <c r="J284" t="inlineStr"/>
       <c r="K284" t="inlineStr"/>
-      <c r="L284" t="inlineStr"/>
-      <c r="M284" t="n">
-        <v>1</v>
-      </c>
-      <c r="N284" t="inlineStr"/>
+      <c r="L284" t="n">
+        <v>1</v>
+      </c>
+      <c r="M284" t="inlineStr"/>
     </row>
     <row r="285">
       <c r="A285" s="1" t="n">
@@ -10978,16 +11276,13 @@
       <c r="H285" t="n">
         <v>0</v>
       </c>
-      <c r="I285" t="n">
-        <v>0</v>
-      </c>
+      <c r="I285" t="inlineStr"/>
       <c r="J285" t="inlineStr"/>
       <c r="K285" t="inlineStr"/>
-      <c r="L285" t="inlineStr"/>
-      <c r="M285" t="n">
-        <v>1</v>
-      </c>
-      <c r="N285" t="inlineStr"/>
+      <c r="L285" t="n">
+        <v>1</v>
+      </c>
+      <c r="M285" t="inlineStr"/>
     </row>
     <row r="286">
       <c r="A286" s="1" t="n">
@@ -11014,16 +11309,13 @@
       <c r="H286" t="n">
         <v>0</v>
       </c>
-      <c r="I286" t="n">
-        <v>0</v>
-      </c>
+      <c r="I286" t="inlineStr"/>
       <c r="J286" t="inlineStr"/>
       <c r="K286" t="inlineStr"/>
-      <c r="L286" t="inlineStr"/>
-      <c r="M286" t="n">
-        <v>1</v>
-      </c>
-      <c r="N286" t="inlineStr"/>
+      <c r="L286" t="n">
+        <v>1</v>
+      </c>
+      <c r="M286" t="inlineStr"/>
     </row>
     <row r="287">
       <c r="A287" s="1" t="n">
@@ -11050,16 +11342,13 @@
       <c r="H287" t="n">
         <v>0</v>
       </c>
-      <c r="I287" t="n">
-        <v>0</v>
-      </c>
+      <c r="I287" t="inlineStr"/>
       <c r="J287" t="inlineStr"/>
       <c r="K287" t="inlineStr"/>
-      <c r="L287" t="inlineStr"/>
-      <c r="M287" t="n">
-        <v>1</v>
-      </c>
-      <c r="N287" t="inlineStr"/>
+      <c r="L287" t="n">
+        <v>1</v>
+      </c>
+      <c r="M287" t="inlineStr"/>
     </row>
     <row r="288">
       <c r="A288" s="1" t="n">
@@ -11086,16 +11375,13 @@
       <c r="H288" t="n">
         <v>0</v>
       </c>
-      <c r="I288" t="n">
-        <v>0</v>
-      </c>
+      <c r="I288" t="inlineStr"/>
       <c r="J288" t="inlineStr"/>
       <c r="K288" t="inlineStr"/>
-      <c r="L288" t="inlineStr"/>
-      <c r="M288" t="n">
-        <v>1</v>
-      </c>
-      <c r="N288" t="inlineStr"/>
+      <c r="L288" t="n">
+        <v>1</v>
+      </c>
+      <c r="M288" t="inlineStr"/>
     </row>
     <row r="289">
       <c r="A289" s="1" t="n">
@@ -11122,16 +11408,13 @@
       <c r="H289" t="n">
         <v>0</v>
       </c>
-      <c r="I289" t="n">
-        <v>0</v>
-      </c>
+      <c r="I289" t="inlineStr"/>
       <c r="J289" t="inlineStr"/>
       <c r="K289" t="inlineStr"/>
-      <c r="L289" t="inlineStr"/>
-      <c r="M289" t="n">
-        <v>1</v>
-      </c>
-      <c r="N289" t="inlineStr"/>
+      <c r="L289" t="n">
+        <v>1</v>
+      </c>
+      <c r="M289" t="inlineStr"/>
     </row>
     <row r="290">
       <c r="A290" s="1" t="n">
@@ -11158,16 +11441,13 @@
       <c r="H290" t="n">
         <v>0</v>
       </c>
-      <c r="I290" t="n">
-        <v>0</v>
-      </c>
+      <c r="I290" t="inlineStr"/>
       <c r="J290" t="inlineStr"/>
       <c r="K290" t="inlineStr"/>
-      <c r="L290" t="inlineStr"/>
-      <c r="M290" t="n">
-        <v>1</v>
-      </c>
-      <c r="N290" t="inlineStr"/>
+      <c r="L290" t="n">
+        <v>1</v>
+      </c>
+      <c r="M290" t="inlineStr"/>
     </row>
     <row r="291">
       <c r="A291" s="1" t="n">
@@ -11194,16 +11474,13 @@
       <c r="H291" t="n">
         <v>0</v>
       </c>
-      <c r="I291" t="n">
-        <v>0</v>
-      </c>
+      <c r="I291" t="inlineStr"/>
       <c r="J291" t="inlineStr"/>
       <c r="K291" t="inlineStr"/>
-      <c r="L291" t="inlineStr"/>
-      <c r="M291" t="n">
-        <v>1</v>
-      </c>
-      <c r="N291" t="inlineStr"/>
+      <c r="L291" t="n">
+        <v>1</v>
+      </c>
+      <c r="M291" t="inlineStr"/>
     </row>
     <row r="292">
       <c r="A292" s="1" t="n">
@@ -11230,16 +11507,13 @@
       <c r="H292" t="n">
         <v>0</v>
       </c>
-      <c r="I292" t="n">
-        <v>0</v>
-      </c>
+      <c r="I292" t="inlineStr"/>
       <c r="J292" t="inlineStr"/>
       <c r="K292" t="inlineStr"/>
-      <c r="L292" t="inlineStr"/>
-      <c r="M292" t="n">
-        <v>1</v>
-      </c>
-      <c r="N292" t="inlineStr"/>
+      <c r="L292" t="n">
+        <v>1</v>
+      </c>
+      <c r="M292" t="inlineStr"/>
     </row>
     <row r="293">
       <c r="A293" s="1" t="n">
@@ -11266,16 +11540,13 @@
       <c r="H293" t="n">
         <v>0</v>
       </c>
-      <c r="I293" t="n">
-        <v>0</v>
-      </c>
+      <c r="I293" t="inlineStr"/>
       <c r="J293" t="inlineStr"/>
       <c r="K293" t="inlineStr"/>
-      <c r="L293" t="inlineStr"/>
-      <c r="M293" t="n">
-        <v>1</v>
-      </c>
-      <c r="N293" t="inlineStr"/>
+      <c r="L293" t="n">
+        <v>1</v>
+      </c>
+      <c r="M293" t="inlineStr"/>
     </row>
     <row r="294">
       <c r="A294" s="1" t="n">
@@ -11302,16 +11573,13 @@
       <c r="H294" t="n">
         <v>0</v>
       </c>
-      <c r="I294" t="n">
-        <v>0</v>
-      </c>
+      <c r="I294" t="inlineStr"/>
       <c r="J294" t="inlineStr"/>
       <c r="K294" t="inlineStr"/>
-      <c r="L294" t="inlineStr"/>
-      <c r="M294" t="n">
-        <v>1</v>
-      </c>
-      <c r="N294" t="inlineStr"/>
+      <c r="L294" t="n">
+        <v>1</v>
+      </c>
+      <c r="M294" t="inlineStr"/>
     </row>
     <row r="295">
       <c r="A295" s="1" t="n">
@@ -11338,16 +11606,13 @@
       <c r="H295" t="n">
         <v>0</v>
       </c>
-      <c r="I295" t="n">
-        <v>0</v>
-      </c>
+      <c r="I295" t="inlineStr"/>
       <c r="J295" t="inlineStr"/>
       <c r="K295" t="inlineStr"/>
-      <c r="L295" t="inlineStr"/>
-      <c r="M295" t="n">
-        <v>1</v>
-      </c>
-      <c r="N295" t="inlineStr"/>
+      <c r="L295" t="n">
+        <v>1</v>
+      </c>
+      <c r="M295" t="inlineStr"/>
     </row>
     <row r="296">
       <c r="A296" s="1" t="n">
@@ -11372,18 +11637,21 @@
         <v>22022774.10359465</v>
       </c>
       <c r="H296" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I296" t="n">
-        <v>0</v>
+        <v>0.4985</v>
       </c>
       <c r="J296" t="inlineStr"/>
-      <c r="K296" t="inlineStr"/>
-      <c r="L296" t="inlineStr"/>
-      <c r="M296" t="n">
-        <v>1</v>
-      </c>
-      <c r="N296" t="inlineStr"/>
+      <c r="K296" t="inlineStr">
+        <is>
+          <t>매수 체결</t>
+        </is>
+      </c>
+      <c r="L296" t="n">
+        <v>1</v>
+      </c>
+      <c r="M296" t="inlineStr"/>
     </row>
     <row r="297">
       <c r="A297" s="1" t="n">
@@ -11408,18 +11676,21 @@
         <v>21469761.10359465</v>
       </c>
       <c r="H297" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I297" t="n">
-        <v>0</v>
+        <v>0.5048</v>
       </c>
       <c r="J297" t="inlineStr"/>
-      <c r="K297" t="inlineStr"/>
-      <c r="L297" t="inlineStr"/>
-      <c r="M297" t="n">
-        <v>1</v>
-      </c>
-      <c r="N297" t="inlineStr"/>
+      <c r="K297" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L297" t="n">
+        <v>1</v>
+      </c>
+      <c r="M297" t="inlineStr"/>
     </row>
     <row r="298">
       <c r="A298" s="1" t="n">
@@ -11446,16 +11717,17 @@
       <c r="H298" t="n">
         <v>0</v>
       </c>
-      <c r="I298" t="n">
-        <v>0</v>
-      </c>
+      <c r="I298" t="inlineStr"/>
       <c r="J298" t="inlineStr"/>
-      <c r="K298" t="inlineStr"/>
-      <c r="L298" t="inlineStr"/>
-      <c r="M298" t="n">
-        <v>1</v>
-      </c>
-      <c r="N298" t="inlineStr"/>
+      <c r="K298" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L298" t="n">
+        <v>1</v>
+      </c>
+      <c r="M298" t="inlineStr"/>
     </row>
     <row r="299">
       <c r="A299" s="1" t="n">
@@ -11482,16 +11754,17 @@
       <c r="H299" t="n">
         <v>0</v>
       </c>
-      <c r="I299" t="n">
-        <v>0</v>
-      </c>
+      <c r="I299" t="inlineStr"/>
       <c r="J299" t="inlineStr"/>
-      <c r="K299" t="inlineStr"/>
-      <c r="L299" t="inlineStr"/>
-      <c r="M299" t="n">
-        <v>1</v>
-      </c>
-      <c r="N299" t="inlineStr"/>
+      <c r="K299" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L299" t="n">
+        <v>1</v>
+      </c>
+      <c r="M299" t="inlineStr"/>
     </row>
     <row r="300">
       <c r="A300" s="1" t="n">
@@ -11518,16 +11791,17 @@
       <c r="H300" t="n">
         <v>0</v>
       </c>
-      <c r="I300" t="n">
-        <v>0</v>
-      </c>
+      <c r="I300" t="inlineStr"/>
       <c r="J300" t="inlineStr"/>
-      <c r="K300" t="inlineStr"/>
-      <c r="L300" t="inlineStr"/>
-      <c r="M300" t="n">
-        <v>1</v>
-      </c>
-      <c r="N300" t="inlineStr"/>
+      <c r="K300" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L300" t="n">
+        <v>1</v>
+      </c>
+      <c r="M300" t="inlineStr"/>
     </row>
     <row r="301">
       <c r="A301" s="1" t="n">
@@ -11554,16 +11828,17 @@
       <c r="H301" t="n">
         <v>0</v>
       </c>
-      <c r="I301" t="n">
-        <v>0</v>
-      </c>
+      <c r="I301" t="inlineStr"/>
       <c r="J301" t="inlineStr"/>
-      <c r="K301" t="inlineStr"/>
-      <c r="L301" t="inlineStr"/>
-      <c r="M301" t="n">
-        <v>1</v>
-      </c>
-      <c r="N301" t="inlineStr"/>
+      <c r="K301" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L301" t="n">
+        <v>1</v>
+      </c>
+      <c r="M301" t="inlineStr"/>
     </row>
     <row r="302">
       <c r="A302" s="1" t="n">
@@ -11590,16 +11865,17 @@
       <c r="H302" t="n">
         <v>0</v>
       </c>
-      <c r="I302" t="n">
-        <v>0</v>
-      </c>
+      <c r="I302" t="inlineStr"/>
       <c r="J302" t="inlineStr"/>
-      <c r="K302" t="inlineStr"/>
-      <c r="L302" t="inlineStr"/>
-      <c r="M302" t="n">
-        <v>1</v>
-      </c>
-      <c r="N302" t="inlineStr"/>
+      <c r="K302" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L302" t="n">
+        <v>1</v>
+      </c>
+      <c r="M302" t="inlineStr"/>
     </row>
     <row r="303">
       <c r="A303" s="1" t="n">
@@ -11626,16 +11902,17 @@
       <c r="H303" t="n">
         <v>0</v>
       </c>
-      <c r="I303" t="n">
-        <v>0</v>
-      </c>
+      <c r="I303" t="inlineStr"/>
       <c r="J303" t="inlineStr"/>
-      <c r="K303" t="inlineStr"/>
-      <c r="L303" t="inlineStr"/>
-      <c r="M303" t="n">
-        <v>1</v>
-      </c>
-      <c r="N303" t="inlineStr"/>
+      <c r="K303" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L303" t="n">
+        <v>1</v>
+      </c>
+      <c r="M303" t="inlineStr"/>
     </row>
     <row r="304">
       <c r="A304" s="1" t="n">
@@ -11662,16 +11939,17 @@
       <c r="H304" t="n">
         <v>0</v>
       </c>
-      <c r="I304" t="n">
-        <v>0</v>
-      </c>
+      <c r="I304" t="inlineStr"/>
       <c r="J304" t="inlineStr"/>
-      <c r="K304" t="inlineStr"/>
-      <c r="L304" t="inlineStr"/>
-      <c r="M304" t="n">
-        <v>1</v>
-      </c>
-      <c r="N304" t="inlineStr"/>
+      <c r="K304" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L304" t="n">
+        <v>1</v>
+      </c>
+      <c r="M304" t="inlineStr"/>
     </row>
     <row r="305">
       <c r="A305" s="1" t="n">
@@ -11698,16 +11976,17 @@
       <c r="H305" t="n">
         <v>0</v>
       </c>
-      <c r="I305" t="n">
-        <v>0</v>
-      </c>
+      <c r="I305" t="inlineStr"/>
       <c r="J305" t="inlineStr"/>
-      <c r="K305" t="inlineStr"/>
-      <c r="L305" t="inlineStr"/>
-      <c r="M305" t="n">
-        <v>1</v>
-      </c>
-      <c r="N305" t="inlineStr"/>
+      <c r="K305" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L305" t="n">
+        <v>1</v>
+      </c>
+      <c r="M305" t="inlineStr"/>
     </row>
     <row r="306">
       <c r="A306" s="1" t="n">
@@ -11734,16 +12013,17 @@
       <c r="H306" t="n">
         <v>0</v>
       </c>
-      <c r="I306" t="n">
-        <v>0</v>
-      </c>
+      <c r="I306" t="inlineStr"/>
       <c r="J306" t="inlineStr"/>
-      <c r="K306" t="inlineStr"/>
-      <c r="L306" t="inlineStr"/>
-      <c r="M306" t="n">
-        <v>1</v>
-      </c>
-      <c r="N306" t="inlineStr"/>
+      <c r="K306" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L306" t="n">
+        <v>1</v>
+      </c>
+      <c r="M306" t="inlineStr"/>
     </row>
     <row r="307">
       <c r="A307" s="1" t="n">
@@ -11770,16 +12050,17 @@
       <c r="H307" t="n">
         <v>0</v>
       </c>
-      <c r="I307" t="n">
-        <v>0</v>
-      </c>
+      <c r="I307" t="inlineStr"/>
       <c r="J307" t="inlineStr"/>
-      <c r="K307" t="inlineStr"/>
-      <c r="L307" t="inlineStr"/>
-      <c r="M307" t="n">
-        <v>1</v>
-      </c>
-      <c r="N307" t="inlineStr"/>
+      <c r="K307" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L307" t="n">
+        <v>1</v>
+      </c>
+      <c r="M307" t="inlineStr"/>
     </row>
     <row r="308">
       <c r="A308" s="1" t="n">
@@ -11806,16 +12087,17 @@
       <c r="H308" t="n">
         <v>0</v>
       </c>
-      <c r="I308" t="n">
-        <v>0</v>
-      </c>
+      <c r="I308" t="inlineStr"/>
       <c r="J308" t="inlineStr"/>
-      <c r="K308" t="inlineStr"/>
-      <c r="L308" t="inlineStr"/>
-      <c r="M308" t="n">
-        <v>1</v>
-      </c>
-      <c r="N308" t="inlineStr"/>
+      <c r="K308" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L308" t="n">
+        <v>1</v>
+      </c>
+      <c r="M308" t="inlineStr"/>
     </row>
     <row r="309">
       <c r="A309" s="1" t="n">
@@ -11842,16 +12124,17 @@
       <c r="H309" t="n">
         <v>0</v>
       </c>
-      <c r="I309" t="n">
-        <v>0</v>
-      </c>
+      <c r="I309" t="inlineStr"/>
       <c r="J309" t="inlineStr"/>
-      <c r="K309" t="inlineStr"/>
-      <c r="L309" t="inlineStr"/>
-      <c r="M309" t="n">
-        <v>1</v>
-      </c>
-      <c r="N309" t="inlineStr"/>
+      <c r="K309" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L309" t="n">
+        <v>1</v>
+      </c>
+      <c r="M309" t="inlineStr"/>
     </row>
     <row r="310">
       <c r="A310" s="1" t="n">
@@ -11878,16 +12161,17 @@
       <c r="H310" t="n">
         <v>0</v>
       </c>
-      <c r="I310" t="n">
-        <v>0</v>
-      </c>
+      <c r="I310" t="inlineStr"/>
       <c r="J310" t="inlineStr"/>
-      <c r="K310" t="inlineStr"/>
-      <c r="L310" t="inlineStr"/>
-      <c r="M310" t="n">
-        <v>1</v>
-      </c>
-      <c r="N310" t="inlineStr"/>
+      <c r="K310" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L310" t="n">
+        <v>1</v>
+      </c>
+      <c r="M310" t="inlineStr"/>
     </row>
     <row r="311">
       <c r="A311" s="1" t="n">
@@ -11914,16 +12198,17 @@
       <c r="H311" t="n">
         <v>0</v>
       </c>
-      <c r="I311" t="n">
-        <v>0</v>
-      </c>
+      <c r="I311" t="inlineStr"/>
       <c r="J311" t="inlineStr"/>
-      <c r="K311" t="inlineStr"/>
-      <c r="L311" t="inlineStr"/>
-      <c r="M311" t="n">
-        <v>1</v>
-      </c>
-      <c r="N311" t="inlineStr"/>
+      <c r="K311" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L311" t="n">
+        <v>1</v>
+      </c>
+      <c r="M311" t="inlineStr"/>
     </row>
     <row r="312">
       <c r="A312" s="1" t="n">
@@ -11950,16 +12235,17 @@
       <c r="H312" t="n">
         <v>0</v>
       </c>
-      <c r="I312" t="n">
-        <v>0</v>
-      </c>
+      <c r="I312" t="inlineStr"/>
       <c r="J312" t="inlineStr"/>
-      <c r="K312" t="inlineStr"/>
-      <c r="L312" t="inlineStr"/>
-      <c r="M312" t="n">
-        <v>1</v>
-      </c>
-      <c r="N312" t="inlineStr"/>
+      <c r="K312" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L312" t="n">
+        <v>1</v>
+      </c>
+      <c r="M312" t="inlineStr"/>
     </row>
     <row r="313">
       <c r="A313" s="1" t="n">
@@ -11986,16 +12272,17 @@
       <c r="H313" t="n">
         <v>0</v>
       </c>
-      <c r="I313" t="n">
-        <v>0</v>
-      </c>
+      <c r="I313" t="inlineStr"/>
       <c r="J313" t="inlineStr"/>
-      <c r="K313" t="inlineStr"/>
-      <c r="L313" t="inlineStr"/>
-      <c r="M313" t="n">
-        <v>1</v>
-      </c>
-      <c r="N313" t="inlineStr"/>
+      <c r="K313" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L313" t="n">
+        <v>1</v>
+      </c>
+      <c r="M313" t="inlineStr"/>
     </row>
     <row r="314">
       <c r="A314" s="1" t="n">
@@ -12022,16 +12309,17 @@
       <c r="H314" t="n">
         <v>0</v>
       </c>
-      <c r="I314" t="n">
-        <v>0</v>
-      </c>
+      <c r="I314" t="inlineStr"/>
       <c r="J314" t="inlineStr"/>
-      <c r="K314" t="inlineStr"/>
-      <c r="L314" t="inlineStr"/>
-      <c r="M314" t="n">
-        <v>1</v>
-      </c>
-      <c r="N314" t="inlineStr"/>
+      <c r="K314" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L314" t="n">
+        <v>1</v>
+      </c>
+      <c r="M314" t="inlineStr"/>
     </row>
     <row r="315">
       <c r="A315" s="1" t="n">
@@ -12058,16 +12346,17 @@
       <c r="H315" t="n">
         <v>0</v>
       </c>
-      <c r="I315" t="n">
-        <v>0</v>
-      </c>
+      <c r="I315" t="inlineStr"/>
       <c r="J315" t="inlineStr"/>
-      <c r="K315" t="inlineStr"/>
-      <c r="L315" t="inlineStr"/>
-      <c r="M315" t="n">
-        <v>1</v>
-      </c>
-      <c r="N315" t="inlineStr"/>
+      <c r="K315" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L315" t="n">
+        <v>1</v>
+      </c>
+      <c r="M315" t="inlineStr"/>
     </row>
     <row r="316">
       <c r="A316" s="1" t="n">
@@ -12094,16 +12383,17 @@
       <c r="H316" t="n">
         <v>0</v>
       </c>
-      <c r="I316" t="n">
-        <v>0</v>
-      </c>
+      <c r="I316" t="inlineStr"/>
       <c r="J316" t="inlineStr"/>
-      <c r="K316" t="inlineStr"/>
-      <c r="L316" t="inlineStr"/>
-      <c r="M316" t="n">
-        <v>1</v>
-      </c>
-      <c r="N316" t="inlineStr"/>
+      <c r="K316" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L316" t="n">
+        <v>1</v>
+      </c>
+      <c r="M316" t="inlineStr"/>
     </row>
     <row r="317">
       <c r="A317" s="1" t="n">
@@ -12130,16 +12420,17 @@
       <c r="H317" t="n">
         <v>0</v>
       </c>
-      <c r="I317" t="n">
-        <v>0</v>
-      </c>
+      <c r="I317" t="inlineStr"/>
       <c r="J317" t="inlineStr"/>
-      <c r="K317" t="inlineStr"/>
-      <c r="L317" t="inlineStr"/>
-      <c r="M317" t="n">
-        <v>1</v>
-      </c>
-      <c r="N317" t="inlineStr"/>
+      <c r="K317" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L317" t="n">
+        <v>1</v>
+      </c>
+      <c r="M317" t="inlineStr"/>
     </row>
     <row r="318">
       <c r="A318" s="1" t="n">
@@ -12166,16 +12457,17 @@
       <c r="H318" t="n">
         <v>0</v>
       </c>
-      <c r="I318" t="n">
-        <v>0</v>
-      </c>
+      <c r="I318" t="inlineStr"/>
       <c r="J318" t="inlineStr"/>
-      <c r="K318" t="inlineStr"/>
-      <c r="L318" t="inlineStr"/>
-      <c r="M318" t="n">
-        <v>1</v>
-      </c>
-      <c r="N318" t="inlineStr"/>
+      <c r="K318" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L318" t="n">
+        <v>1</v>
+      </c>
+      <c r="M318" t="inlineStr"/>
     </row>
     <row r="319">
       <c r="A319" s="1" t="n">
@@ -12202,16 +12494,17 @@
       <c r="H319" t="n">
         <v>0</v>
       </c>
-      <c r="I319" t="n">
-        <v>0</v>
-      </c>
+      <c r="I319" t="inlineStr"/>
       <c r="J319" t="inlineStr"/>
-      <c r="K319" t="inlineStr"/>
-      <c r="L319" t="inlineStr"/>
-      <c r="M319" t="n">
-        <v>1</v>
-      </c>
-      <c r="N319" t="inlineStr"/>
+      <c r="K319" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L319" t="n">
+        <v>1</v>
+      </c>
+      <c r="M319" t="inlineStr"/>
     </row>
     <row r="320">
       <c r="A320" s="1" t="n">
@@ -12238,16 +12531,17 @@
       <c r="H320" t="n">
         <v>0</v>
       </c>
-      <c r="I320" t="n">
-        <v>0</v>
-      </c>
+      <c r="I320" t="inlineStr"/>
       <c r="J320" t="inlineStr"/>
-      <c r="K320" t="inlineStr"/>
-      <c r="L320" t="inlineStr"/>
-      <c r="M320" t="n">
-        <v>1</v>
-      </c>
-      <c r="N320" t="inlineStr"/>
+      <c r="K320" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L320" t="n">
+        <v>1</v>
+      </c>
+      <c r="M320" t="inlineStr"/>
     </row>
     <row r="321">
       <c r="A321" s="1" t="n">
@@ -12274,16 +12568,17 @@
       <c r="H321" t="n">
         <v>0</v>
       </c>
-      <c r="I321" t="n">
-        <v>0</v>
-      </c>
+      <c r="I321" t="inlineStr"/>
       <c r="J321" t="inlineStr"/>
-      <c r="K321" t="inlineStr"/>
-      <c r="L321" t="inlineStr"/>
-      <c r="M321" t="n">
-        <v>1</v>
-      </c>
-      <c r="N321" t="inlineStr"/>
+      <c r="K321" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L321" t="n">
+        <v>1</v>
+      </c>
+      <c r="M321" t="inlineStr"/>
     </row>
     <row r="322">
       <c r="A322" s="1" t="n">
@@ -12310,16 +12605,17 @@
       <c r="H322" t="n">
         <v>0</v>
       </c>
-      <c r="I322" t="n">
-        <v>0</v>
-      </c>
+      <c r="I322" t="inlineStr"/>
       <c r="J322" t="inlineStr"/>
-      <c r="K322" t="inlineStr"/>
-      <c r="L322" t="inlineStr"/>
-      <c r="M322" t="n">
-        <v>1</v>
-      </c>
-      <c r="N322" t="inlineStr"/>
+      <c r="K322" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L322" t="n">
+        <v>1</v>
+      </c>
+      <c r="M322" t="inlineStr"/>
     </row>
     <row r="323">
       <c r="A323" s="1" t="n">
@@ -12346,16 +12642,17 @@
       <c r="H323" t="n">
         <v>0</v>
       </c>
-      <c r="I323" t="n">
-        <v>0</v>
-      </c>
+      <c r="I323" t="inlineStr"/>
       <c r="J323" t="inlineStr"/>
-      <c r="K323" t="inlineStr"/>
-      <c r="L323" t="inlineStr"/>
-      <c r="M323" t="n">
-        <v>1</v>
-      </c>
-      <c r="N323" t="inlineStr"/>
+      <c r="K323" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L323" t="n">
+        <v>1</v>
+      </c>
+      <c r="M323" t="inlineStr"/>
     </row>
     <row r="324">
       <c r="A324" s="1" t="n">
@@ -12382,16 +12679,17 @@
       <c r="H324" t="n">
         <v>0</v>
       </c>
-      <c r="I324" t="n">
-        <v>0</v>
-      </c>
+      <c r="I324" t="inlineStr"/>
       <c r="J324" t="inlineStr"/>
-      <c r="K324" t="inlineStr"/>
-      <c r="L324" t="inlineStr"/>
-      <c r="M324" t="n">
-        <v>1</v>
-      </c>
-      <c r="N324" t="inlineStr"/>
+      <c r="K324" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L324" t="n">
+        <v>1</v>
+      </c>
+      <c r="M324" t="inlineStr"/>
     </row>
     <row r="325">
       <c r="A325" s="1" t="n">
@@ -12418,16 +12716,17 @@
       <c r="H325" t="n">
         <v>0</v>
       </c>
-      <c r="I325" t="n">
-        <v>0</v>
-      </c>
+      <c r="I325" t="inlineStr"/>
       <c r="J325" t="inlineStr"/>
-      <c r="K325" t="inlineStr"/>
-      <c r="L325" t="inlineStr"/>
-      <c r="M325" t="n">
-        <v>1</v>
-      </c>
-      <c r="N325" t="inlineStr"/>
+      <c r="K325" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L325" t="n">
+        <v>1</v>
+      </c>
+      <c r="M325" t="inlineStr"/>
     </row>
     <row r="326">
       <c r="A326" s="1" t="n">
@@ -12454,18 +12753,19 @@
       <c r="H326" t="n">
         <v>0</v>
       </c>
-      <c r="I326" t="n">
-        <v>0</v>
-      </c>
+      <c r="I326" t="inlineStr"/>
       <c r="J326" t="inlineStr"/>
-      <c r="K326" t="inlineStr"/>
-      <c r="L326" t="inlineStr"/>
-      <c r="M326" t="n">
-        <v>1</v>
-      </c>
-      <c r="N326" t="inlineStr"/>
+      <c r="K326" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L326" t="n">
+        <v>1</v>
+      </c>
+      <c r="M326" t="inlineStr"/>
     </row>
   </sheetData>
-  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>
--- a/BackTest/2020-01-13 BackTest OCN.xlsx
+++ b/BackTest/2020-01-13 BackTest OCN.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
-    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
+    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -54,18 +54,18 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
   </cellStyleXfs>
   <cellXfs count="2">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf applyAlignment="1" borderId="1" fillId="0" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
+    <cellStyle builtinId="0" hidden="0" name="Normal" xfId="0"/>
   </cellStyles>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium9"/>
 </styleSheet>
 </file>
 
@@ -394,7 +394,7 @@
       </c>
       <c r="G1" s="1" t="inlineStr">
         <is>
-          <t>OBV</t>
+          <t>CMO</t>
         </is>
       </c>
       <c r="H1" s="1" t="inlineStr">
@@ -451,7 +451,7 @@
         <v>20836869.4118969</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I2" t="inlineStr"/>
       <c r="J2" t="inlineStr"/>
@@ -484,10 +484,14 @@
         <v>43476244.0517969</v>
       </c>
       <c r="H3" t="n">
-        <v>0</v>
-      </c>
-      <c r="I3" t="inlineStr"/>
-      <c r="J3" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I3" t="n">
+        <v>0.4676</v>
+      </c>
+      <c r="J3" t="n">
+        <v>0.4676</v>
+      </c>
       <c r="K3" t="inlineStr"/>
       <c r="L3" t="n">
         <v>1</v>
@@ -517,11 +521,19 @@
         <v>44811059.8137969</v>
       </c>
       <c r="H4" t="n">
-        <v>0</v>
-      </c>
-      <c r="I4" t="inlineStr"/>
-      <c r="J4" t="inlineStr"/>
-      <c r="K4" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I4" t="n">
+        <v>0.4684</v>
+      </c>
+      <c r="J4" t="n">
+        <v>0.4676</v>
+      </c>
+      <c r="K4" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
       <c r="L4" t="n">
         <v>1</v>
       </c>
@@ -553,8 +565,14 @@
         <v>0</v>
       </c>
       <c r="I5" t="inlineStr"/>
-      <c r="J5" t="inlineStr"/>
-      <c r="K5" t="inlineStr"/>
+      <c r="J5" t="n">
+        <v>0.4676</v>
+      </c>
+      <c r="K5" t="inlineStr">
+        <is>
+          <t>매수 체결</t>
+        </is>
+      </c>
       <c r="L5" t="n">
         <v>1</v>
       </c>
@@ -586,8 +604,14 @@
         <v>0</v>
       </c>
       <c r="I6" t="inlineStr"/>
-      <c r="J6" t="inlineStr"/>
-      <c r="K6" t="inlineStr"/>
+      <c r="J6" t="n">
+        <v>0.4676</v>
+      </c>
+      <c r="K6" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L6" t="n">
         <v>1</v>
       </c>
@@ -619,8 +643,14 @@
         <v>0</v>
       </c>
       <c r="I7" t="inlineStr"/>
-      <c r="J7" t="inlineStr"/>
-      <c r="K7" t="inlineStr"/>
+      <c r="J7" t="n">
+        <v>0.4676</v>
+      </c>
+      <c r="K7" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L7" t="n">
         <v>1</v>
       </c>
@@ -652,8 +682,14 @@
         <v>0</v>
       </c>
       <c r="I8" t="inlineStr"/>
-      <c r="J8" t="inlineStr"/>
-      <c r="K8" t="inlineStr"/>
+      <c r="J8" t="n">
+        <v>0.4676</v>
+      </c>
+      <c r="K8" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L8" t="n">
         <v>1</v>
       </c>
@@ -685,8 +721,14 @@
         <v>0</v>
       </c>
       <c r="I9" t="inlineStr"/>
-      <c r="J9" t="inlineStr"/>
-      <c r="K9" t="inlineStr"/>
+      <c r="J9" t="n">
+        <v>0.4676</v>
+      </c>
+      <c r="K9" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L9" t="n">
         <v>1</v>
       </c>
@@ -718,8 +760,14 @@
         <v>0</v>
       </c>
       <c r="I10" t="inlineStr"/>
-      <c r="J10" t="inlineStr"/>
-      <c r="K10" t="inlineStr"/>
+      <c r="J10" t="n">
+        <v>0.4676</v>
+      </c>
+      <c r="K10" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L10" t="n">
         <v>1</v>
       </c>
@@ -751,8 +799,14 @@
         <v>0</v>
       </c>
       <c r="I11" t="inlineStr"/>
-      <c r="J11" t="inlineStr"/>
-      <c r="K11" t="inlineStr"/>
+      <c r="J11" t="n">
+        <v>0.4676</v>
+      </c>
+      <c r="K11" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L11" t="n">
         <v>1</v>
       </c>
@@ -784,8 +838,14 @@
         <v>0</v>
       </c>
       <c r="I12" t="inlineStr"/>
-      <c r="J12" t="inlineStr"/>
-      <c r="K12" t="inlineStr"/>
+      <c r="J12" t="n">
+        <v>0.4676</v>
+      </c>
+      <c r="K12" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L12" t="n">
         <v>1</v>
       </c>
@@ -817,8 +877,14 @@
         <v>0</v>
       </c>
       <c r="I13" t="inlineStr"/>
-      <c r="J13" t="inlineStr"/>
-      <c r="K13" t="inlineStr"/>
+      <c r="J13" t="n">
+        <v>0.4676</v>
+      </c>
+      <c r="K13" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L13" t="n">
         <v>1</v>
       </c>
@@ -850,8 +916,14 @@
         <v>0</v>
       </c>
       <c r="I14" t="inlineStr"/>
-      <c r="J14" t="inlineStr"/>
-      <c r="K14" t="inlineStr"/>
+      <c r="J14" t="n">
+        <v>0.4676</v>
+      </c>
+      <c r="K14" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L14" t="n">
         <v>1</v>
       </c>
@@ -883,8 +955,14 @@
         <v>0</v>
       </c>
       <c r="I15" t="inlineStr"/>
-      <c r="J15" t="inlineStr"/>
-      <c r="K15" t="inlineStr"/>
+      <c r="J15" t="n">
+        <v>0.4676</v>
+      </c>
+      <c r="K15" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L15" t="n">
         <v>1</v>
       </c>
@@ -916,8 +994,14 @@
         <v>0</v>
       </c>
       <c r="I16" t="inlineStr"/>
-      <c r="J16" t="inlineStr"/>
-      <c r="K16" t="inlineStr"/>
+      <c r="J16" t="n">
+        <v>0.4676</v>
+      </c>
+      <c r="K16" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L16" t="n">
         <v>1</v>
       </c>
@@ -949,8 +1033,14 @@
         <v>0</v>
       </c>
       <c r="I17" t="inlineStr"/>
-      <c r="J17" t="inlineStr"/>
-      <c r="K17" t="inlineStr"/>
+      <c r="J17" t="n">
+        <v>0.4676</v>
+      </c>
+      <c r="K17" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L17" t="n">
         <v>1</v>
       </c>
@@ -982,8 +1072,14 @@
         <v>0</v>
       </c>
       <c r="I18" t="inlineStr"/>
-      <c r="J18" t="inlineStr"/>
-      <c r="K18" t="inlineStr"/>
+      <c r="J18" t="n">
+        <v>0.4676</v>
+      </c>
+      <c r="K18" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L18" t="n">
         <v>1</v>
       </c>
@@ -1015,8 +1111,14 @@
         <v>0</v>
       </c>
       <c r="I19" t="inlineStr"/>
-      <c r="J19" t="inlineStr"/>
-      <c r="K19" t="inlineStr"/>
+      <c r="J19" t="n">
+        <v>0.4676</v>
+      </c>
+      <c r="K19" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L19" t="n">
         <v>1</v>
       </c>
@@ -1048,8 +1150,14 @@
         <v>0</v>
       </c>
       <c r="I20" t="inlineStr"/>
-      <c r="J20" t="inlineStr"/>
-      <c r="K20" t="inlineStr"/>
+      <c r="J20" t="n">
+        <v>0.4676</v>
+      </c>
+      <c r="K20" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L20" t="n">
         <v>1</v>
       </c>
@@ -1081,8 +1189,14 @@
         <v>0</v>
       </c>
       <c r="I21" t="inlineStr"/>
-      <c r="J21" t="inlineStr"/>
-      <c r="K21" t="inlineStr"/>
+      <c r="J21" t="n">
+        <v>0.4676</v>
+      </c>
+      <c r="K21" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L21" t="n">
         <v>1</v>
       </c>
@@ -1114,8 +1228,14 @@
         <v>0</v>
       </c>
       <c r="I22" t="inlineStr"/>
-      <c r="J22" t="inlineStr"/>
-      <c r="K22" t="inlineStr"/>
+      <c r="J22" t="n">
+        <v>0.4676</v>
+      </c>
+      <c r="K22" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L22" t="n">
         <v>1</v>
       </c>
@@ -1147,8 +1267,14 @@
         <v>0</v>
       </c>
       <c r="I23" t="inlineStr"/>
-      <c r="J23" t="inlineStr"/>
-      <c r="K23" t="inlineStr"/>
+      <c r="J23" t="n">
+        <v>0.4676</v>
+      </c>
+      <c r="K23" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L23" t="n">
         <v>1</v>
       </c>
@@ -1180,8 +1306,14 @@
         <v>0</v>
       </c>
       <c r="I24" t="inlineStr"/>
-      <c r="J24" t="inlineStr"/>
-      <c r="K24" t="inlineStr"/>
+      <c r="J24" t="n">
+        <v>0.4676</v>
+      </c>
+      <c r="K24" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L24" t="n">
         <v>1</v>
       </c>
@@ -1213,8 +1345,14 @@
         <v>0</v>
       </c>
       <c r="I25" t="inlineStr"/>
-      <c r="J25" t="inlineStr"/>
-      <c r="K25" t="inlineStr"/>
+      <c r="J25" t="n">
+        <v>0.4676</v>
+      </c>
+      <c r="K25" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L25" t="n">
         <v>1</v>
       </c>
@@ -1246,8 +1384,14 @@
         <v>0</v>
       </c>
       <c r="I26" t="inlineStr"/>
-      <c r="J26" t="inlineStr"/>
-      <c r="K26" t="inlineStr"/>
+      <c r="J26" t="n">
+        <v>0.4676</v>
+      </c>
+      <c r="K26" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L26" t="n">
         <v>1</v>
       </c>
@@ -1279,8 +1423,14 @@
         <v>0</v>
       </c>
       <c r="I27" t="inlineStr"/>
-      <c r="J27" t="inlineStr"/>
-      <c r="K27" t="inlineStr"/>
+      <c r="J27" t="n">
+        <v>0.4676</v>
+      </c>
+      <c r="K27" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L27" t="n">
         <v>1</v>
       </c>
@@ -1312,8 +1462,14 @@
         <v>0</v>
       </c>
       <c r="I28" t="inlineStr"/>
-      <c r="J28" t="inlineStr"/>
-      <c r="K28" t="inlineStr"/>
+      <c r="J28" t="n">
+        <v>0.4676</v>
+      </c>
+      <c r="K28" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L28" t="n">
         <v>1</v>
       </c>
@@ -1345,8 +1501,14 @@
         <v>0</v>
       </c>
       <c r="I29" t="inlineStr"/>
-      <c r="J29" t="inlineStr"/>
-      <c r="K29" t="inlineStr"/>
+      <c r="J29" t="n">
+        <v>0.4676</v>
+      </c>
+      <c r="K29" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L29" t="n">
         <v>1</v>
       </c>
@@ -1378,8 +1540,14 @@
         <v>0</v>
       </c>
       <c r="I30" t="inlineStr"/>
-      <c r="J30" t="inlineStr"/>
-      <c r="K30" t="inlineStr"/>
+      <c r="J30" t="n">
+        <v>0.4676</v>
+      </c>
+      <c r="K30" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L30" t="n">
         <v>1</v>
       </c>
@@ -1411,8 +1579,14 @@
         <v>0</v>
       </c>
       <c r="I31" t="inlineStr"/>
-      <c r="J31" t="inlineStr"/>
-      <c r="K31" t="inlineStr"/>
+      <c r="J31" t="n">
+        <v>0.4676</v>
+      </c>
+      <c r="K31" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L31" t="n">
         <v>1</v>
       </c>
@@ -1444,8 +1618,14 @@
         <v>0</v>
       </c>
       <c r="I32" t="inlineStr"/>
-      <c r="J32" t="inlineStr"/>
-      <c r="K32" t="inlineStr"/>
+      <c r="J32" t="n">
+        <v>0.4676</v>
+      </c>
+      <c r="K32" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L32" t="n">
         <v>1</v>
       </c>
@@ -1477,8 +1657,14 @@
         <v>0</v>
       </c>
       <c r="I33" t="inlineStr"/>
-      <c r="J33" t="inlineStr"/>
-      <c r="K33" t="inlineStr"/>
+      <c r="J33" t="n">
+        <v>0.4676</v>
+      </c>
+      <c r="K33" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L33" t="n">
         <v>1</v>
       </c>
@@ -1510,8 +1696,14 @@
         <v>0</v>
       </c>
       <c r="I34" t="inlineStr"/>
-      <c r="J34" t="inlineStr"/>
-      <c r="K34" t="inlineStr"/>
+      <c r="J34" t="n">
+        <v>0.4676</v>
+      </c>
+      <c r="K34" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L34" t="n">
         <v>1</v>
       </c>
@@ -1543,8 +1735,14 @@
         <v>0</v>
       </c>
       <c r="I35" t="inlineStr"/>
-      <c r="J35" t="inlineStr"/>
-      <c r="K35" t="inlineStr"/>
+      <c r="J35" t="n">
+        <v>0.4676</v>
+      </c>
+      <c r="K35" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L35" t="n">
         <v>1</v>
       </c>
@@ -1576,8 +1774,14 @@
         <v>0</v>
       </c>
       <c r="I36" t="inlineStr"/>
-      <c r="J36" t="inlineStr"/>
-      <c r="K36" t="inlineStr"/>
+      <c r="J36" t="n">
+        <v>0.4676</v>
+      </c>
+      <c r="K36" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L36" t="n">
         <v>1</v>
       </c>
@@ -1609,8 +1813,14 @@
         <v>0</v>
       </c>
       <c r="I37" t="inlineStr"/>
-      <c r="J37" t="inlineStr"/>
-      <c r="K37" t="inlineStr"/>
+      <c r="J37" t="n">
+        <v>0.4676</v>
+      </c>
+      <c r="K37" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L37" t="n">
         <v>1</v>
       </c>
@@ -1642,8 +1852,14 @@
         <v>0</v>
       </c>
       <c r="I38" t="inlineStr"/>
-      <c r="J38" t="inlineStr"/>
-      <c r="K38" t="inlineStr"/>
+      <c r="J38" t="n">
+        <v>0.4676</v>
+      </c>
+      <c r="K38" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L38" t="n">
         <v>1</v>
       </c>
@@ -1675,8 +1891,14 @@
         <v>0</v>
       </c>
       <c r="I39" t="inlineStr"/>
-      <c r="J39" t="inlineStr"/>
-      <c r="K39" t="inlineStr"/>
+      <c r="J39" t="n">
+        <v>0.4676</v>
+      </c>
+      <c r="K39" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L39" t="n">
         <v>1</v>
       </c>
@@ -1708,8 +1930,14 @@
         <v>0</v>
       </c>
       <c r="I40" t="inlineStr"/>
-      <c r="J40" t="inlineStr"/>
-      <c r="K40" t="inlineStr"/>
+      <c r="J40" t="n">
+        <v>0.4676</v>
+      </c>
+      <c r="K40" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L40" t="n">
         <v>1</v>
       </c>
@@ -1741,8 +1969,14 @@
         <v>0</v>
       </c>
       <c r="I41" t="inlineStr"/>
-      <c r="J41" t="inlineStr"/>
-      <c r="K41" t="inlineStr"/>
+      <c r="J41" t="n">
+        <v>0.4676</v>
+      </c>
+      <c r="K41" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L41" t="n">
         <v>1</v>
       </c>
@@ -1774,8 +2008,14 @@
         <v>0</v>
       </c>
       <c r="I42" t="inlineStr"/>
-      <c r="J42" t="inlineStr"/>
-      <c r="K42" t="inlineStr"/>
+      <c r="J42" t="n">
+        <v>0.4676</v>
+      </c>
+      <c r="K42" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L42" t="n">
         <v>1</v>
       </c>
@@ -1807,8 +2047,14 @@
         <v>0</v>
       </c>
       <c r="I43" t="inlineStr"/>
-      <c r="J43" t="inlineStr"/>
-      <c r="K43" t="inlineStr"/>
+      <c r="J43" t="n">
+        <v>0.4676</v>
+      </c>
+      <c r="K43" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L43" t="n">
         <v>1</v>
       </c>
@@ -1840,8 +2086,14 @@
         <v>0</v>
       </c>
       <c r="I44" t="inlineStr"/>
-      <c r="J44" t="inlineStr"/>
-      <c r="K44" t="inlineStr"/>
+      <c r="J44" t="n">
+        <v>0.4676</v>
+      </c>
+      <c r="K44" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L44" t="n">
         <v>1</v>
       </c>
@@ -1873,8 +2125,14 @@
         <v>0</v>
       </c>
       <c r="I45" t="inlineStr"/>
-      <c r="J45" t="inlineStr"/>
-      <c r="K45" t="inlineStr"/>
+      <c r="J45" t="n">
+        <v>0.4676</v>
+      </c>
+      <c r="K45" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L45" t="n">
         <v>1</v>
       </c>
@@ -1906,8 +2164,14 @@
         <v>0</v>
       </c>
       <c r="I46" t="inlineStr"/>
-      <c r="J46" t="inlineStr"/>
-      <c r="K46" t="inlineStr"/>
+      <c r="J46" t="n">
+        <v>0.4676</v>
+      </c>
+      <c r="K46" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L46" t="n">
         <v>1</v>
       </c>
@@ -1939,8 +2203,14 @@
         <v>0</v>
       </c>
       <c r="I47" t="inlineStr"/>
-      <c r="J47" t="inlineStr"/>
-      <c r="K47" t="inlineStr"/>
+      <c r="J47" t="n">
+        <v>0.4676</v>
+      </c>
+      <c r="K47" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L47" t="n">
         <v>1</v>
       </c>
@@ -1972,8 +2242,14 @@
         <v>0</v>
       </c>
       <c r="I48" t="inlineStr"/>
-      <c r="J48" t="inlineStr"/>
-      <c r="K48" t="inlineStr"/>
+      <c r="J48" t="n">
+        <v>0.4676</v>
+      </c>
+      <c r="K48" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L48" t="n">
         <v>1</v>
       </c>
@@ -2005,8 +2281,14 @@
         <v>0</v>
       </c>
       <c r="I49" t="inlineStr"/>
-      <c r="J49" t="inlineStr"/>
-      <c r="K49" t="inlineStr"/>
+      <c r="J49" t="n">
+        <v>0.4676</v>
+      </c>
+      <c r="K49" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L49" t="n">
         <v>1</v>
       </c>
@@ -2038,8 +2320,14 @@
         <v>0</v>
       </c>
       <c r="I50" t="inlineStr"/>
-      <c r="J50" t="inlineStr"/>
-      <c r="K50" t="inlineStr"/>
+      <c r="J50" t="n">
+        <v>0.4676</v>
+      </c>
+      <c r="K50" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L50" t="n">
         <v>1</v>
       </c>
@@ -2071,8 +2359,14 @@
         <v>0</v>
       </c>
       <c r="I51" t="inlineStr"/>
-      <c r="J51" t="inlineStr"/>
-      <c r="K51" t="inlineStr"/>
+      <c r="J51" t="n">
+        <v>0.4676</v>
+      </c>
+      <c r="K51" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L51" t="n">
         <v>1</v>
       </c>
@@ -2104,8 +2398,14 @@
         <v>0</v>
       </c>
       <c r="I52" t="inlineStr"/>
-      <c r="J52" t="inlineStr"/>
-      <c r="K52" t="inlineStr"/>
+      <c r="J52" t="n">
+        <v>0.4676</v>
+      </c>
+      <c r="K52" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L52" t="n">
         <v>1</v>
       </c>
@@ -2137,8 +2437,14 @@
         <v>0</v>
       </c>
       <c r="I53" t="inlineStr"/>
-      <c r="J53" t="inlineStr"/>
-      <c r="K53" t="inlineStr"/>
+      <c r="J53" t="n">
+        <v>0.4676</v>
+      </c>
+      <c r="K53" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L53" t="n">
         <v>1</v>
       </c>
@@ -2170,8 +2476,14 @@
         <v>0</v>
       </c>
       <c r="I54" t="inlineStr"/>
-      <c r="J54" t="inlineStr"/>
-      <c r="K54" t="inlineStr"/>
+      <c r="J54" t="n">
+        <v>0.4676</v>
+      </c>
+      <c r="K54" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L54" t="n">
         <v>1</v>
       </c>
@@ -2200,15 +2512,17 @@
         <v>55895151.80868678</v>
       </c>
       <c r="H55" t="n">
-        <v>2</v>
-      </c>
-      <c r="I55" t="n">
-        <v>0.4488</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I55" t="inlineStr"/>
       <c r="J55" t="n">
-        <v>0.4488</v>
-      </c>
-      <c r="K55" t="inlineStr"/>
+        <v>0.4676</v>
+      </c>
+      <c r="K55" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L55" t="n">
         <v>1</v>
       </c>
@@ -2237,17 +2551,15 @@
         <v>55928551.80868678</v>
       </c>
       <c r="H56" t="n">
-        <v>2</v>
-      </c>
-      <c r="I56" t="n">
-        <v>0.45</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I56" t="inlineStr"/>
       <c r="J56" t="n">
-        <v>0.4488</v>
+        <v>0.4676</v>
       </c>
       <c r="K56" t="inlineStr">
         <is>
-          <t>매수 대기</t>
+          <t>매도 대기</t>
         </is>
       </c>
       <c r="L56" t="n">
@@ -2278,17 +2590,15 @@
         <v>55928551.80868678</v>
       </c>
       <c r="H57" t="n">
-        <v>2</v>
-      </c>
-      <c r="I57" t="n">
-        <v>0.464</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I57" t="inlineStr"/>
       <c r="J57" t="n">
-        <v>0.4488</v>
+        <v>0.4676</v>
       </c>
       <c r="K57" t="inlineStr">
         <is>
-          <t>매수 대기</t>
+          <t>매도 대기</t>
         </is>
       </c>
       <c r="L57" t="n">
@@ -2319,17 +2629,15 @@
         <v>56829752.42058678</v>
       </c>
       <c r="H58" t="n">
-        <v>2</v>
-      </c>
-      <c r="I58" t="n">
-        <v>0.464</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I58" t="inlineStr"/>
       <c r="J58" t="n">
-        <v>0.4488</v>
+        <v>0.4676</v>
       </c>
       <c r="K58" t="inlineStr">
         <is>
-          <t>매수 체결</t>
+          <t>매도 대기</t>
         </is>
       </c>
       <c r="L58" t="n">
@@ -2360,13 +2668,11 @@
         <v>64713999.86968678</v>
       </c>
       <c r="H59" t="n">
-        <v>2</v>
-      </c>
-      <c r="I59" t="n">
-        <v>0.467</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I59" t="inlineStr"/>
       <c r="J59" t="n">
-        <v>0.4488</v>
+        <v>0.4676</v>
       </c>
       <c r="K59" t="inlineStr">
         <is>
@@ -2405,7 +2711,7 @@
       </c>
       <c r="I60" t="inlineStr"/>
       <c r="J60" t="n">
-        <v>0.4488</v>
+        <v>0.4676</v>
       </c>
       <c r="K60" t="inlineStr">
         <is>
@@ -2440,13 +2746,11 @@
         <v>68181326.16281547</v>
       </c>
       <c r="H61" t="n">
-        <v>2</v>
-      </c>
-      <c r="I61" t="n">
-        <v>0.4776</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I61" t="inlineStr"/>
       <c r="J61" t="n">
-        <v>0.4488</v>
+        <v>0.4676</v>
       </c>
       <c r="K61" t="inlineStr">
         <is>
@@ -2485,7 +2789,7 @@
       </c>
       <c r="I62" t="inlineStr"/>
       <c r="J62" t="n">
-        <v>0.4488</v>
+        <v>0.4676</v>
       </c>
       <c r="K62" t="inlineStr">
         <is>
@@ -2524,7 +2828,7 @@
       </c>
       <c r="I63" t="inlineStr"/>
       <c r="J63" t="n">
-        <v>0.4488</v>
+        <v>0.4676</v>
       </c>
       <c r="K63" t="inlineStr">
         <is>
@@ -2563,7 +2867,7 @@
       </c>
       <c r="I64" t="inlineStr"/>
       <c r="J64" t="n">
-        <v>0.4488</v>
+        <v>0.4676</v>
       </c>
       <c r="K64" t="inlineStr">
         <is>
@@ -2602,7 +2906,7 @@
       </c>
       <c r="I65" t="inlineStr"/>
       <c r="J65" t="n">
-        <v>0.4488</v>
+        <v>0.4676</v>
       </c>
       <c r="K65" t="inlineStr">
         <is>
@@ -2641,7 +2945,7 @@
       </c>
       <c r="I66" t="inlineStr"/>
       <c r="J66" t="n">
-        <v>0.4488</v>
+        <v>0.4676</v>
       </c>
       <c r="K66" t="inlineStr">
         <is>
@@ -2680,7 +2984,7 @@
       </c>
       <c r="I67" t="inlineStr"/>
       <c r="J67" t="n">
-        <v>0.4488</v>
+        <v>0.4676</v>
       </c>
       <c r="K67" t="inlineStr">
         <is>
@@ -2719,7 +3023,7 @@
       </c>
       <c r="I68" t="inlineStr"/>
       <c r="J68" t="n">
-        <v>0.4488</v>
+        <v>0.4676</v>
       </c>
       <c r="K68" t="inlineStr">
         <is>
@@ -2758,7 +3062,7 @@
       </c>
       <c r="I69" t="inlineStr"/>
       <c r="J69" t="n">
-        <v>0.4488</v>
+        <v>0.4676</v>
       </c>
       <c r="K69" t="inlineStr">
         <is>
@@ -2797,7 +3101,7 @@
       </c>
       <c r="I70" t="inlineStr"/>
       <c r="J70" t="n">
-        <v>0.4488</v>
+        <v>0.4676</v>
       </c>
       <c r="K70" t="inlineStr">
         <is>
@@ -2836,7 +3140,7 @@
       </c>
       <c r="I71" t="inlineStr"/>
       <c r="J71" t="n">
-        <v>0.4488</v>
+        <v>0.4676</v>
       </c>
       <c r="K71" t="inlineStr">
         <is>
@@ -2875,7 +3179,7 @@
       </c>
       <c r="I72" t="inlineStr"/>
       <c r="J72" t="n">
-        <v>0.4488</v>
+        <v>0.4676</v>
       </c>
       <c r="K72" t="inlineStr">
         <is>
@@ -2914,7 +3218,7 @@
       </c>
       <c r="I73" t="inlineStr"/>
       <c r="J73" t="n">
-        <v>0.4488</v>
+        <v>0.4676</v>
       </c>
       <c r="K73" t="inlineStr">
         <is>
@@ -2953,7 +3257,7 @@
       </c>
       <c r="I74" t="inlineStr"/>
       <c r="J74" t="n">
-        <v>0.4488</v>
+        <v>0.4676</v>
       </c>
       <c r="K74" t="inlineStr">
         <is>
@@ -2992,7 +3296,7 @@
       </c>
       <c r="I75" t="inlineStr"/>
       <c r="J75" t="n">
-        <v>0.4488</v>
+        <v>0.4676</v>
       </c>
       <c r="K75" t="inlineStr">
         <is>
@@ -3031,7 +3335,7 @@
       </c>
       <c r="I76" t="inlineStr"/>
       <c r="J76" t="n">
-        <v>0.4488</v>
+        <v>0.4676</v>
       </c>
       <c r="K76" t="inlineStr">
         <is>
@@ -3066,13 +3370,11 @@
         <v>65439053.79918864</v>
       </c>
       <c r="H77" t="n">
-        <v>2</v>
-      </c>
-      <c r="I77" t="n">
-        <v>0.475</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I77" t="inlineStr"/>
       <c r="J77" t="n">
-        <v>0.4488</v>
+        <v>0.4676</v>
       </c>
       <c r="K77" t="inlineStr">
         <is>
@@ -3107,13 +3409,11 @@
         <v>65308413.58408865</v>
       </c>
       <c r="H78" t="n">
-        <v>2</v>
-      </c>
-      <c r="I78" t="n">
-        <v>0.4749</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I78" t="inlineStr"/>
       <c r="J78" t="n">
-        <v>0.4488</v>
+        <v>0.4676</v>
       </c>
       <c r="K78" t="inlineStr">
         <is>
@@ -3148,13 +3448,11 @@
         <v>65309613.58408865</v>
       </c>
       <c r="H79" t="n">
-        <v>2</v>
-      </c>
-      <c r="I79" t="n">
-        <v>0.4681</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I79" t="inlineStr"/>
       <c r="J79" t="n">
-        <v>0.4488</v>
+        <v>0.4676</v>
       </c>
       <c r="K79" t="inlineStr">
         <is>
@@ -3193,7 +3491,7 @@
       </c>
       <c r="I80" t="inlineStr"/>
       <c r="J80" t="n">
-        <v>0.4488</v>
+        <v>0.4676</v>
       </c>
       <c r="K80" t="inlineStr">
         <is>
@@ -3228,13 +3526,11 @@
         <v>68034137.44128525</v>
       </c>
       <c r="H81" t="n">
-        <v>2</v>
-      </c>
-      <c r="I81" t="n">
-        <v>0.469</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I81" t="inlineStr"/>
       <c r="J81" t="n">
-        <v>0.4488</v>
+        <v>0.4676</v>
       </c>
       <c r="K81" t="inlineStr">
         <is>
@@ -3273,7 +3569,7 @@
       </c>
       <c r="I82" t="inlineStr"/>
       <c r="J82" t="n">
-        <v>0.4488</v>
+        <v>0.4676</v>
       </c>
       <c r="K82" t="inlineStr">
         <is>
@@ -3312,7 +3608,7 @@
       </c>
       <c r="I83" t="inlineStr"/>
       <c r="J83" t="n">
-        <v>0.4488</v>
+        <v>0.4676</v>
       </c>
       <c r="K83" t="inlineStr">
         <is>
@@ -3351,7 +3647,7 @@
       </c>
       <c r="I84" t="inlineStr"/>
       <c r="J84" t="n">
-        <v>0.4488</v>
+        <v>0.4676</v>
       </c>
       <c r="K84" t="inlineStr">
         <is>
@@ -3390,7 +3686,7 @@
       </c>
       <c r="I85" t="inlineStr"/>
       <c r="J85" t="n">
-        <v>0.4488</v>
+        <v>0.4676</v>
       </c>
       <c r="K85" t="inlineStr">
         <is>
@@ -3429,7 +3725,7 @@
       </c>
       <c r="I86" t="inlineStr"/>
       <c r="J86" t="n">
-        <v>0.4488</v>
+        <v>0.4676</v>
       </c>
       <c r="K86" t="inlineStr">
         <is>
@@ -3468,7 +3764,7 @@
       </c>
       <c r="I87" t="inlineStr"/>
       <c r="J87" t="n">
-        <v>0.4488</v>
+        <v>0.4676</v>
       </c>
       <c r="K87" t="inlineStr">
         <is>
@@ -3507,7 +3803,7 @@
       </c>
       <c r="I88" t="inlineStr"/>
       <c r="J88" t="n">
-        <v>0.4488</v>
+        <v>0.4676</v>
       </c>
       <c r="K88" t="inlineStr">
         <is>
@@ -3546,7 +3842,7 @@
       </c>
       <c r="I89" t="inlineStr"/>
       <c r="J89" t="n">
-        <v>0.4488</v>
+        <v>0.4676</v>
       </c>
       <c r="K89" t="inlineStr">
         <is>
@@ -3585,7 +3881,7 @@
       </c>
       <c r="I90" t="inlineStr"/>
       <c r="J90" t="n">
-        <v>0.4488</v>
+        <v>0.4676</v>
       </c>
       <c r="K90" t="inlineStr">
         <is>
@@ -3624,7 +3920,7 @@
       </c>
       <c r="I91" t="inlineStr"/>
       <c r="J91" t="n">
-        <v>0.4488</v>
+        <v>0.4676</v>
       </c>
       <c r="K91" t="inlineStr">
         <is>
@@ -3663,7 +3959,7 @@
       </c>
       <c r="I92" t="inlineStr"/>
       <c r="J92" t="n">
-        <v>0.4488</v>
+        <v>0.4676</v>
       </c>
       <c r="K92" t="inlineStr">
         <is>
@@ -3702,7 +3998,7 @@
       </c>
       <c r="I93" t="inlineStr"/>
       <c r="J93" t="n">
-        <v>0.4488</v>
+        <v>0.4676</v>
       </c>
       <c r="K93" t="inlineStr">
         <is>
@@ -3741,7 +4037,7 @@
       </c>
       <c r="I94" t="inlineStr"/>
       <c r="J94" t="n">
-        <v>0.4488</v>
+        <v>0.4676</v>
       </c>
       <c r="K94" t="inlineStr">
         <is>
@@ -3780,7 +4076,7 @@
       </c>
       <c r="I95" t="inlineStr"/>
       <c r="J95" t="n">
-        <v>0.4488</v>
+        <v>0.4676</v>
       </c>
       <c r="K95" t="inlineStr">
         <is>
@@ -3819,7 +4115,7 @@
       </c>
       <c r="I96" t="inlineStr"/>
       <c r="J96" t="n">
-        <v>0.4488</v>
+        <v>0.4676</v>
       </c>
       <c r="K96" t="inlineStr">
         <is>
@@ -3858,7 +4154,7 @@
       </c>
       <c r="I97" t="inlineStr"/>
       <c r="J97" t="n">
-        <v>0.4488</v>
+        <v>0.4676</v>
       </c>
       <c r="K97" t="inlineStr">
         <is>
@@ -3897,7 +4193,7 @@
       </c>
       <c r="I98" t="inlineStr"/>
       <c r="J98" t="n">
-        <v>0.4488</v>
+        <v>0.4676</v>
       </c>
       <c r="K98" t="inlineStr">
         <is>
@@ -3932,13 +4228,11 @@
         <v>65358288.0732295</v>
       </c>
       <c r="H99" t="n">
-        <v>2</v>
-      </c>
-      <c r="I99" t="n">
-        <v>0.4649</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I99" t="inlineStr"/>
       <c r="J99" t="n">
-        <v>0.4488</v>
+        <v>0.4676</v>
       </c>
       <c r="K99" t="inlineStr">
         <is>
@@ -3977,7 +4271,7 @@
       </c>
       <c r="I100" t="inlineStr"/>
       <c r="J100" t="n">
-        <v>0.4488</v>
+        <v>0.4676</v>
       </c>
       <c r="K100" t="inlineStr">
         <is>
@@ -4016,7 +4310,7 @@
       </c>
       <c r="I101" t="inlineStr"/>
       <c r="J101" t="n">
-        <v>0.4488</v>
+        <v>0.4676</v>
       </c>
       <c r="K101" t="inlineStr">
         <is>
@@ -4051,13 +4345,11 @@
         <v>65358561.8995295</v>
       </c>
       <c r="H102" t="n">
-        <v>2</v>
-      </c>
-      <c r="I102" t="n">
-        <v>0.465</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I102" t="inlineStr"/>
       <c r="J102" t="n">
-        <v>0.4488</v>
+        <v>0.4676</v>
       </c>
       <c r="K102" t="inlineStr">
         <is>
@@ -4096,7 +4388,7 @@
       </c>
       <c r="I103" t="inlineStr"/>
       <c r="J103" t="n">
-        <v>0.4488</v>
+        <v>0.4676</v>
       </c>
       <c r="K103" t="inlineStr">
         <is>
@@ -4135,7 +4427,7 @@
       </c>
       <c r="I104" t="inlineStr"/>
       <c r="J104" t="n">
-        <v>0.4488</v>
+        <v>0.4676</v>
       </c>
       <c r="K104" t="inlineStr">
         <is>
@@ -4170,13 +4462,11 @@
         <v>65294607.9638295</v>
       </c>
       <c r="H105" t="n">
-        <v>2</v>
-      </c>
-      <c r="I105" t="n">
-        <v>0.461</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I105" t="inlineStr"/>
       <c r="J105" t="n">
-        <v>0.4488</v>
+        <v>0.4676</v>
       </c>
       <c r="K105" t="inlineStr">
         <is>
@@ -4211,13 +4501,11 @@
         <v>65299607.9638295</v>
       </c>
       <c r="H106" t="n">
-        <v>2</v>
-      </c>
-      <c r="I106" t="n">
-        <v>0.461</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I106" t="inlineStr"/>
       <c r="J106" t="n">
-        <v>0.4488</v>
+        <v>0.4676</v>
       </c>
       <c r="K106" t="inlineStr">
         <is>
@@ -4252,13 +4540,11 @@
         <v>65230663.3954295</v>
       </c>
       <c r="H107" t="n">
-        <v>2</v>
-      </c>
-      <c r="I107" t="n">
-        <v>0.466</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I107" t="inlineStr"/>
       <c r="J107" t="n">
-        <v>0.4488</v>
+        <v>0.4676</v>
       </c>
       <c r="K107" t="inlineStr">
         <is>
@@ -4293,13 +4579,11 @@
         <v>65229233.3954295</v>
       </c>
       <c r="H108" t="n">
-        <v>2</v>
-      </c>
-      <c r="I108" t="n">
-        <v>0.461</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I108" t="inlineStr"/>
       <c r="J108" t="n">
-        <v>0.4488</v>
+        <v>0.4676</v>
       </c>
       <c r="K108" t="inlineStr">
         <is>
@@ -4338,7 +4622,7 @@
       </c>
       <c r="I109" t="inlineStr"/>
       <c r="J109" t="n">
-        <v>0.4488</v>
+        <v>0.4676</v>
       </c>
       <c r="K109" t="inlineStr">
         <is>
@@ -4377,7 +4661,7 @@
       </c>
       <c r="I110" t="inlineStr"/>
       <c r="J110" t="n">
-        <v>0.4488</v>
+        <v>0.4676</v>
       </c>
       <c r="K110" t="inlineStr">
         <is>
@@ -4412,13 +4696,11 @@
         <v>63829857.8436295</v>
       </c>
       <c r="H111" t="n">
-        <v>2</v>
-      </c>
-      <c r="I111" t="n">
-        <v>0.4609</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I111" t="inlineStr"/>
       <c r="J111" t="n">
-        <v>0.4488</v>
+        <v>0.4676</v>
       </c>
       <c r="K111" t="inlineStr">
         <is>
@@ -4453,13 +4735,11 @@
         <v>63834561.0129295</v>
       </c>
       <c r="H112" t="n">
-        <v>2</v>
-      </c>
-      <c r="I112" t="n">
-        <v>0.45</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I112" t="inlineStr"/>
       <c r="J112" t="n">
-        <v>0.4488</v>
+        <v>0.4676</v>
       </c>
       <c r="K112" t="inlineStr">
         <is>
@@ -4494,13 +4774,11 @@
         <v>61982161.6524295</v>
       </c>
       <c r="H113" t="n">
-        <v>2</v>
-      </c>
-      <c r="I113" t="n">
-        <v>0.4609</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I113" t="inlineStr"/>
       <c r="J113" t="n">
-        <v>0.4488</v>
+        <v>0.4676</v>
       </c>
       <c r="K113" t="inlineStr">
         <is>
@@ -4535,13 +4813,11 @@
         <v>62022292.5781295</v>
       </c>
       <c r="H114" t="n">
-        <v>2</v>
-      </c>
-      <c r="I114" t="n">
-        <v>0.4488</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I114" t="inlineStr"/>
       <c r="J114" t="n">
-        <v>0.4488</v>
+        <v>0.4676</v>
       </c>
       <c r="K114" t="inlineStr">
         <is>
@@ -4576,13 +4852,11 @@
         <v>62101391.3875295</v>
       </c>
       <c r="H115" t="n">
-        <v>2</v>
-      </c>
-      <c r="I115" t="n">
-        <v>0.451</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I115" t="inlineStr"/>
       <c r="J115" t="n">
-        <v>0.4488</v>
+        <v>0.4676</v>
       </c>
       <c r="K115" t="inlineStr">
         <is>
@@ -4617,13 +4891,11 @@
         <v>62106094.5568295</v>
       </c>
       <c r="H116" t="n">
-        <v>2</v>
-      </c>
-      <c r="I116" t="n">
-        <v>0.452</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I116" t="inlineStr"/>
       <c r="J116" t="n">
-        <v>0.4488</v>
+        <v>0.4676</v>
       </c>
       <c r="K116" t="inlineStr">
         <is>
@@ -4658,13 +4930,11 @@
         <v>62107815.4063295</v>
       </c>
       <c r="H117" t="n">
-        <v>2</v>
-      </c>
-      <c r="I117" t="n">
-        <v>0.453</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I117" t="inlineStr"/>
       <c r="J117" t="n">
-        <v>0.4488</v>
+        <v>0.4676</v>
       </c>
       <c r="K117" t="inlineStr">
         <is>
@@ -4699,13 +4969,11 @@
         <v>62106092.3279295</v>
       </c>
       <c r="H118" t="n">
-        <v>2</v>
-      </c>
-      <c r="I118" t="n">
-        <v>0.4616</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I118" t="inlineStr"/>
       <c r="J118" t="n">
-        <v>0.4488</v>
+        <v>0.4676</v>
       </c>
       <c r="K118" t="inlineStr">
         <is>
@@ -4740,13 +5008,11 @@
         <v>65569360.22652949</v>
       </c>
       <c r="H119" t="n">
-        <v>2</v>
-      </c>
-      <c r="I119" t="n">
-        <v>0.461</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I119" t="inlineStr"/>
       <c r="J119" t="n">
-        <v>0.4488</v>
+        <v>0.4676</v>
       </c>
       <c r="K119" t="inlineStr">
         <is>
@@ -4781,13 +5047,11 @@
         <v>65669360.22652949</v>
       </c>
       <c r="H120" t="n">
-        <v>2</v>
-      </c>
-      <c r="I120" t="n">
-        <v>0.467</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I120" t="inlineStr"/>
       <c r="J120" t="n">
-        <v>0.4488</v>
+        <v>0.4676</v>
       </c>
       <c r="K120" t="inlineStr">
         <is>
@@ -4822,13 +5086,11 @@
         <v>65666960.22652949</v>
       </c>
       <c r="H121" t="n">
-        <v>2</v>
-      </c>
-      <c r="I121" t="n">
-        <v>0.479</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I121" t="inlineStr"/>
       <c r="J121" t="n">
-        <v>0.4488</v>
+        <v>0.4676</v>
       </c>
       <c r="K121" t="inlineStr">
         <is>
@@ -4863,13 +5125,11 @@
         <v>65666960.22652949</v>
       </c>
       <c r="H122" t="n">
-        <v>2</v>
-      </c>
-      <c r="I122" t="n">
-        <v>0.4588</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I122" t="inlineStr"/>
       <c r="J122" t="n">
-        <v>0.4488</v>
+        <v>0.4676</v>
       </c>
       <c r="K122" t="inlineStr">
         <is>
@@ -4904,13 +5164,11 @@
         <v>65666960.22652949</v>
       </c>
       <c r="H123" t="n">
-        <v>2</v>
-      </c>
-      <c r="I123" t="n">
-        <v>0.4588</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I123" t="inlineStr"/>
       <c r="J123" t="n">
-        <v>0.4488</v>
+        <v>0.4676</v>
       </c>
       <c r="K123" t="inlineStr">
         <is>
@@ -4945,13 +5203,11 @@
         <v>65663960.22652949</v>
       </c>
       <c r="H124" t="n">
-        <v>2</v>
-      </c>
-      <c r="I124" t="n">
-        <v>0.4588</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I124" t="inlineStr"/>
       <c r="J124" t="n">
-        <v>0.4488</v>
+        <v>0.4676</v>
       </c>
       <c r="K124" t="inlineStr">
         <is>
@@ -4986,13 +5242,11 @@
         <v>65665060.22652949</v>
       </c>
       <c r="H125" t="n">
-        <v>2</v>
-      </c>
-      <c r="I125" t="n">
-        <v>0.4489</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I125" t="inlineStr"/>
       <c r="J125" t="n">
-        <v>0.4488</v>
+        <v>0.4676</v>
       </c>
       <c r="K125" t="inlineStr">
         <is>
@@ -5027,13 +5281,11 @@
         <v>65666160.22652949</v>
       </c>
       <c r="H126" t="n">
-        <v>2</v>
-      </c>
-      <c r="I126" t="n">
-        <v>0.46</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I126" t="inlineStr"/>
       <c r="J126" t="n">
-        <v>0.4488</v>
+        <v>0.4676</v>
       </c>
       <c r="K126" t="inlineStr">
         <is>
@@ -5068,13 +5320,11 @@
         <v>65666160.22652949</v>
       </c>
       <c r="H127" t="n">
-        <v>2</v>
-      </c>
-      <c r="I127" t="n">
-        <v>0.464</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I127" t="inlineStr"/>
       <c r="J127" t="n">
-        <v>0.4488</v>
+        <v>0.4676</v>
       </c>
       <c r="K127" t="inlineStr">
         <is>
@@ -5109,13 +5359,11 @@
         <v>65666160.22652949</v>
       </c>
       <c r="H128" t="n">
-        <v>2</v>
-      </c>
-      <c r="I128" t="n">
-        <v>0.464</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I128" t="inlineStr"/>
       <c r="J128" t="n">
-        <v>0.4488</v>
+        <v>0.4676</v>
       </c>
       <c r="K128" t="inlineStr">
         <is>
@@ -5150,13 +5398,11 @@
         <v>65393810.22652949</v>
       </c>
       <c r="H129" t="n">
-        <v>2</v>
-      </c>
-      <c r="I129" t="n">
-        <v>0.464</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I129" t="inlineStr"/>
       <c r="J129" t="n">
-        <v>0.4488</v>
+        <v>0.4676</v>
       </c>
       <c r="K129" t="inlineStr">
         <is>
@@ -5191,13 +5437,11 @@
         <v>67562021.42522949</v>
       </c>
       <c r="H130" t="n">
-        <v>2</v>
-      </c>
-      <c r="I130" t="n">
-        <v>0.4589</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I130" t="inlineStr"/>
       <c r="J130" t="n">
-        <v>0.4488</v>
+        <v>0.4676</v>
       </c>
       <c r="K130" t="inlineStr">
         <is>
@@ -5232,13 +5476,11 @@
         <v>71270221.60832949</v>
       </c>
       <c r="H131" t="n">
-        <v>2</v>
-      </c>
-      <c r="I131" t="n">
-        <v>0.4629</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I131" t="inlineStr"/>
       <c r="J131" t="n">
-        <v>0.4488</v>
+        <v>0.4676</v>
       </c>
       <c r="K131" t="inlineStr">
         <is>
@@ -5273,13 +5515,11 @@
         <v>71612755.16982949</v>
       </c>
       <c r="H132" t="n">
-        <v>2</v>
-      </c>
-      <c r="I132" t="n">
-        <v>0.4631</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I132" t="inlineStr"/>
       <c r="J132" t="n">
-        <v>0.4488</v>
+        <v>0.4676</v>
       </c>
       <c r="K132" t="inlineStr">
         <is>
@@ -5314,13 +5554,11 @@
         <v>71496839.89122948</v>
       </c>
       <c r="H133" t="n">
-        <v>2</v>
-      </c>
-      <c r="I133" t="n">
-        <v>0.468</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I133" t="inlineStr"/>
       <c r="J133" t="n">
-        <v>0.4488</v>
+        <v>0.4676</v>
       </c>
       <c r="K133" t="inlineStr">
         <is>
@@ -5355,13 +5593,11 @@
         <v>72528808.33113152</v>
       </c>
       <c r="H134" t="n">
-        <v>2</v>
-      </c>
-      <c r="I134" t="n">
-        <v>0.466</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I134" t="inlineStr"/>
       <c r="J134" t="n">
-        <v>0.4488</v>
+        <v>0.4676</v>
       </c>
       <c r="K134" t="inlineStr">
         <is>
@@ -5396,13 +5632,11 @@
         <v>69680242.70873152</v>
       </c>
       <c r="H135" t="n">
-        <v>2</v>
-      </c>
-      <c r="I135" t="n">
-        <v>0.4721</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I135" t="inlineStr"/>
       <c r="J135" t="n">
-        <v>0.4488</v>
+        <v>0.4676</v>
       </c>
       <c r="K135" t="inlineStr">
         <is>
@@ -5437,13 +5671,11 @@
         <v>69413195.83563152</v>
       </c>
       <c r="H136" t="n">
-        <v>2</v>
-      </c>
-      <c r="I136" t="n">
-        <v>0.464</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I136" t="inlineStr"/>
       <c r="J136" t="n">
-        <v>0.4488</v>
+        <v>0.4676</v>
       </c>
       <c r="K136" t="inlineStr">
         <is>
@@ -5482,7 +5714,7 @@
       </c>
       <c r="I137" t="inlineStr"/>
       <c r="J137" t="n">
-        <v>0.4488</v>
+        <v>0.4676</v>
       </c>
       <c r="K137" t="inlineStr">
         <is>
@@ -5521,7 +5753,7 @@
       </c>
       <c r="I138" t="inlineStr"/>
       <c r="J138" t="n">
-        <v>0.4488</v>
+        <v>0.4676</v>
       </c>
       <c r="K138" t="inlineStr">
         <is>
@@ -5560,7 +5792,7 @@
       </c>
       <c r="I139" t="inlineStr"/>
       <c r="J139" t="n">
-        <v>0.4488</v>
+        <v>0.4676</v>
       </c>
       <c r="K139" t="inlineStr">
         <is>
@@ -5595,13 +5827,11 @@
         <v>67404222.06703153</v>
       </c>
       <c r="H140" t="n">
-        <v>2</v>
-      </c>
-      <c r="I140" t="n">
-        <v>0.463</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I140" t="inlineStr"/>
       <c r="J140" t="n">
-        <v>0.4488</v>
+        <v>0.4676</v>
       </c>
       <c r="K140" t="inlineStr">
         <is>
@@ -5640,7 +5870,7 @@
       </c>
       <c r="I141" t="inlineStr"/>
       <c r="J141" t="n">
-        <v>0.4488</v>
+        <v>0.4676</v>
       </c>
       <c r="K141" t="inlineStr">
         <is>
@@ -5675,13 +5905,11 @@
         <v>67408875.43933153</v>
       </c>
       <c r="H142" t="n">
-        <v>2</v>
-      </c>
-      <c r="I142" t="n">
-        <v>0.463</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I142" t="inlineStr"/>
       <c r="J142" t="n">
-        <v>0.4488</v>
+        <v>0.4676</v>
       </c>
       <c r="K142" t="inlineStr">
         <is>
@@ -5720,7 +5948,7 @@
       </c>
       <c r="I143" t="inlineStr"/>
       <c r="J143" t="n">
-        <v>0.4488</v>
+        <v>0.4676</v>
       </c>
       <c r="K143" t="inlineStr">
         <is>
@@ -5759,7 +5987,7 @@
       </c>
       <c r="I144" t="inlineStr"/>
       <c r="J144" t="n">
-        <v>0.4488</v>
+        <v>0.4676</v>
       </c>
       <c r="K144" t="inlineStr">
         <is>
@@ -5794,13 +6022,11 @@
         <v>67256875.43933153</v>
       </c>
       <c r="H145" t="n">
-        <v>2</v>
-      </c>
-      <c r="I145" t="n">
-        <v>0.4686</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I145" t="inlineStr"/>
       <c r="J145" t="n">
-        <v>0.4488</v>
+        <v>0.4676</v>
       </c>
       <c r="K145" t="inlineStr">
         <is>
@@ -5839,7 +6065,7 @@
       </c>
       <c r="I146" t="inlineStr"/>
       <c r="J146" t="n">
-        <v>0.4488</v>
+        <v>0.4676</v>
       </c>
       <c r="K146" t="inlineStr">
         <is>
@@ -5878,7 +6104,7 @@
       </c>
       <c r="I147" t="inlineStr"/>
       <c r="J147" t="n">
-        <v>0.4488</v>
+        <v>0.4676</v>
       </c>
       <c r="K147" t="inlineStr">
         <is>
@@ -5913,13 +6139,11 @@
         <v>66687897.55291905</v>
       </c>
       <c r="H148" t="n">
-        <v>2</v>
-      </c>
-      <c r="I148" t="n">
-        <v>0.4515</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I148" t="inlineStr"/>
       <c r="J148" t="n">
-        <v>0.4488</v>
+        <v>0.4676</v>
       </c>
       <c r="K148" t="inlineStr">
         <is>
@@ -5958,7 +6182,7 @@
       </c>
       <c r="I149" t="inlineStr"/>
       <c r="J149" t="n">
-        <v>0.4488</v>
+        <v>0.4676</v>
       </c>
       <c r="K149" t="inlineStr">
         <is>
@@ -5993,13 +6217,11 @@
         <v>59381673.20261905</v>
       </c>
       <c r="H150" t="n">
-        <v>2</v>
-      </c>
-      <c r="I150" t="n">
-        <v>0.4566</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I150" t="inlineStr"/>
       <c r="J150" t="n">
-        <v>0.4488</v>
+        <v>0.4676</v>
       </c>
       <c r="K150" t="inlineStr">
         <is>
@@ -6034,13 +6256,11 @@
         <v>60936022.81341904</v>
       </c>
       <c r="H151" t="n">
-        <v>2</v>
-      </c>
-      <c r="I151" t="n">
-        <v>0.4451</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I151" t="inlineStr"/>
       <c r="J151" t="n">
-        <v>0.4488</v>
+        <v>0.4676</v>
       </c>
       <c r="K151" t="inlineStr">
         <is>
@@ -6075,13 +6295,11 @@
         <v>60936022.81341904</v>
       </c>
       <c r="H152" t="n">
-        <v>2</v>
-      </c>
-      <c r="I152" t="n">
-        <v>0.4565</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I152" t="inlineStr"/>
       <c r="J152" t="n">
-        <v>0.4488</v>
+        <v>0.4676</v>
       </c>
       <c r="K152" t="inlineStr">
         <is>
@@ -6116,13 +6334,11 @@
         <v>60278016.81341904</v>
       </c>
       <c r="H153" t="n">
-        <v>2</v>
-      </c>
-      <c r="I153" t="n">
-        <v>0.4565</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I153" t="inlineStr"/>
       <c r="J153" t="n">
-        <v>0.4488</v>
+        <v>0.4676</v>
       </c>
       <c r="K153" t="inlineStr">
         <is>
@@ -6157,13 +6373,11 @@
         <v>60161446.81341904</v>
       </c>
       <c r="H154" t="n">
-        <v>2</v>
-      </c>
-      <c r="I154" t="n">
-        <v>0.4562</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I154" t="inlineStr"/>
       <c r="J154" t="n">
-        <v>0.4488</v>
+        <v>0.4676</v>
       </c>
       <c r="K154" t="inlineStr">
         <is>
@@ -6198,13 +6412,11 @@
         <v>59651749.89172421</v>
       </c>
       <c r="H155" t="n">
-        <v>2</v>
-      </c>
-      <c r="I155" t="n">
-        <v>0.456</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I155" t="inlineStr"/>
       <c r="J155" t="n">
-        <v>0.4488</v>
+        <v>0.4676</v>
       </c>
       <c r="K155" t="inlineStr">
         <is>
@@ -6239,13 +6451,11 @@
         <v>59651749.89172421</v>
       </c>
       <c r="H156" t="n">
-        <v>2</v>
-      </c>
-      <c r="I156" t="n">
-        <v>0.4555</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I156" t="inlineStr"/>
       <c r="J156" t="n">
-        <v>0.4488</v>
+        <v>0.4676</v>
       </c>
       <c r="K156" t="inlineStr">
         <is>
@@ -6280,13 +6490,11 @@
         <v>59581649.89172421</v>
       </c>
       <c r="H157" t="n">
-        <v>2</v>
-      </c>
-      <c r="I157" t="n">
-        <v>0.4555</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I157" t="inlineStr"/>
       <c r="J157" t="n">
-        <v>0.4488</v>
+        <v>0.4676</v>
       </c>
       <c r="K157" t="inlineStr">
         <is>
@@ -6321,13 +6529,11 @@
         <v>59581649.89172421</v>
       </c>
       <c r="H158" t="n">
-        <v>2</v>
-      </c>
-      <c r="I158" t="n">
-        <v>0.4466</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I158" t="inlineStr"/>
       <c r="J158" t="n">
-        <v>0.4488</v>
+        <v>0.4676</v>
       </c>
       <c r="K158" t="inlineStr">
         <is>
@@ -6362,13 +6568,11 @@
         <v>59581649.89172421</v>
       </c>
       <c r="H159" t="n">
-        <v>2</v>
-      </c>
-      <c r="I159" t="n">
-        <v>0.4466</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I159" t="inlineStr"/>
       <c r="J159" t="n">
-        <v>0.4488</v>
+        <v>0.4676</v>
       </c>
       <c r="K159" t="inlineStr">
         <is>
@@ -6403,13 +6607,11 @@
         <v>59581649.89172421</v>
       </c>
       <c r="H160" t="n">
-        <v>2</v>
-      </c>
-      <c r="I160" t="n">
-        <v>0.4466</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I160" t="inlineStr"/>
       <c r="J160" t="n">
-        <v>0.4488</v>
+        <v>0.4676</v>
       </c>
       <c r="K160" t="inlineStr">
         <is>
@@ -6444,13 +6646,11 @@
         <v>57272191.58332421</v>
       </c>
       <c r="H161" t="n">
-        <v>2</v>
-      </c>
-      <c r="I161" t="n">
-        <v>0.4466</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I161" t="inlineStr"/>
       <c r="J161" t="n">
-        <v>0.4488</v>
+        <v>0.4676</v>
       </c>
       <c r="K161" t="inlineStr">
         <is>
@@ -6485,13 +6685,11 @@
         <v>57272191.58332421</v>
       </c>
       <c r="H162" t="n">
-        <v>2</v>
-      </c>
-      <c r="I162" t="n">
-        <v>0.4465</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I162" t="inlineStr"/>
       <c r="J162" t="n">
-        <v>0.4488</v>
+        <v>0.4676</v>
       </c>
       <c r="K162" t="inlineStr">
         <is>
@@ -6526,13 +6724,11 @@
         <v>57397771.58332421</v>
       </c>
       <c r="H163" t="n">
-        <v>2</v>
-      </c>
-      <c r="I163" t="n">
-        <v>0.4465</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I163" t="inlineStr"/>
       <c r="J163" t="n">
-        <v>0.4488</v>
+        <v>0.4676</v>
       </c>
       <c r="K163" t="inlineStr">
         <is>
@@ -6567,13 +6763,13 @@
         <v>57304199.60992421</v>
       </c>
       <c r="H164" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I164" t="n">
         <v>0.4554</v>
       </c>
       <c r="J164" t="n">
-        <v>0.4488</v>
+        <v>0.4676</v>
       </c>
       <c r="K164" t="inlineStr">
         <is>
@@ -6608,13 +6804,13 @@
         <v>52197906.52432421</v>
       </c>
       <c r="H165" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I165" t="n">
         <v>0.4454</v>
       </c>
       <c r="J165" t="n">
-        <v>0.4488</v>
+        <v>0.4676</v>
       </c>
       <c r="K165" t="inlineStr">
         <is>
@@ -6649,13 +6845,13 @@
         <v>52420313.52432421</v>
       </c>
       <c r="H166" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I166" t="n">
         <v>0.4392</v>
       </c>
       <c r="J166" t="n">
-        <v>0.4488</v>
+        <v>0.4676</v>
       </c>
       <c r="K166" t="inlineStr">
         <is>
@@ -6690,13 +6886,13 @@
         <v>54714394.47842421</v>
       </c>
       <c r="H167" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I167" t="n">
         <v>0.4555</v>
       </c>
       <c r="J167" t="n">
-        <v>0.4488</v>
+        <v>0.4676</v>
       </c>
       <c r="K167" t="inlineStr">
         <is>
@@ -6731,13 +6927,11 @@
         <v>54714394.47842421</v>
       </c>
       <c r="H168" t="n">
-        <v>2</v>
-      </c>
-      <c r="I168" t="n">
-        <v>0.4556</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I168" t="inlineStr"/>
       <c r="J168" t="n">
-        <v>0.4488</v>
+        <v>0.4676</v>
       </c>
       <c r="K168" t="inlineStr">
         <is>
@@ -6772,13 +6966,11 @@
         <v>54714394.47842421</v>
       </c>
       <c r="H169" t="n">
-        <v>2</v>
-      </c>
-      <c r="I169" t="n">
-        <v>0.4556</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I169" t="inlineStr"/>
       <c r="J169" t="n">
-        <v>0.4488</v>
+        <v>0.4676</v>
       </c>
       <c r="K169" t="inlineStr">
         <is>
@@ -6813,13 +7005,11 @@
         <v>56367945.9893242</v>
       </c>
       <c r="H170" t="n">
-        <v>2</v>
-      </c>
-      <c r="I170" t="n">
-        <v>0.4556</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I170" t="inlineStr"/>
       <c r="J170" t="n">
-        <v>0.4488</v>
+        <v>0.4676</v>
       </c>
       <c r="K170" t="inlineStr">
         <is>
@@ -6854,13 +7044,11 @@
         <v>54865785.9893242</v>
       </c>
       <c r="H171" t="n">
-        <v>2</v>
-      </c>
-      <c r="I171" t="n">
-        <v>0.4655</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I171" t="inlineStr"/>
       <c r="J171" t="n">
-        <v>0.4488</v>
+        <v>0.4676</v>
       </c>
       <c r="K171" t="inlineStr">
         <is>
@@ -6895,13 +7083,11 @@
         <v>53220646.9444242</v>
       </c>
       <c r="H172" t="n">
-        <v>2</v>
-      </c>
-      <c r="I172" t="n">
-        <v>0.4556</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I172" t="inlineStr"/>
       <c r="J172" t="n">
-        <v>0.4488</v>
+        <v>0.4676</v>
       </c>
       <c r="K172" t="inlineStr">
         <is>
@@ -6936,13 +7122,11 @@
         <v>53314918.9444242</v>
       </c>
       <c r="H173" t="n">
-        <v>2</v>
-      </c>
-      <c r="I173" t="n">
-        <v>0.4494</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I173" t="inlineStr"/>
       <c r="J173" t="n">
-        <v>0.4488</v>
+        <v>0.4676</v>
       </c>
       <c r="K173" t="inlineStr">
         <is>
@@ -6977,13 +7161,11 @@
         <v>53314918.9444242</v>
       </c>
       <c r="H174" t="n">
-        <v>2</v>
-      </c>
-      <c r="I174" t="n">
-        <v>0.4624</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I174" t="inlineStr"/>
       <c r="J174" t="n">
-        <v>0.4488</v>
+        <v>0.4676</v>
       </c>
       <c r="K174" t="inlineStr">
         <is>
@@ -7018,13 +7200,11 @@
         <v>55245869.5256242</v>
       </c>
       <c r="H175" t="n">
-        <v>2</v>
-      </c>
-      <c r="I175" t="n">
-        <v>0.4624</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I175" t="inlineStr"/>
       <c r="J175" t="n">
-        <v>0.4488</v>
+        <v>0.4676</v>
       </c>
       <c r="K175" t="inlineStr">
         <is>
@@ -7059,13 +7239,11 @@
         <v>55239339.5256242</v>
       </c>
       <c r="H176" t="n">
-        <v>2</v>
-      </c>
-      <c r="I176" t="n">
-        <v>0.4657</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I176" t="inlineStr"/>
       <c r="J176" t="n">
-        <v>0.4488</v>
+        <v>0.4676</v>
       </c>
       <c r="K176" t="inlineStr">
         <is>
@@ -7100,13 +7278,11 @@
         <v>55239339.5256242</v>
       </c>
       <c r="H177" t="n">
-        <v>2</v>
-      </c>
-      <c r="I177" t="n">
-        <v>0.4602</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I177" t="inlineStr"/>
       <c r="J177" t="n">
-        <v>0.4488</v>
+        <v>0.4676</v>
       </c>
       <c r="K177" t="inlineStr">
         <is>
@@ -7141,13 +7317,11 @@
         <v>55240414.5256242</v>
       </c>
       <c r="H178" t="n">
-        <v>2</v>
-      </c>
-      <c r="I178" t="n">
-        <v>0.4602</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I178" t="inlineStr"/>
       <c r="J178" t="n">
-        <v>0.4488</v>
+        <v>0.4676</v>
       </c>
       <c r="K178" t="inlineStr">
         <is>
@@ -7182,13 +7356,11 @@
         <v>55240414.5256242</v>
       </c>
       <c r="H179" t="n">
-        <v>2</v>
-      </c>
-      <c r="I179" t="n">
-        <v>0.4654</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I179" t="inlineStr"/>
       <c r="J179" t="n">
-        <v>0.4488</v>
+        <v>0.4676</v>
       </c>
       <c r="K179" t="inlineStr">
         <is>
@@ -7223,13 +7395,11 @@
         <v>55094597.7676242</v>
       </c>
       <c r="H180" t="n">
-        <v>2</v>
-      </c>
-      <c r="I180" t="n">
-        <v>0.4654</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I180" t="inlineStr"/>
       <c r="J180" t="n">
-        <v>0.4488</v>
+        <v>0.4676</v>
       </c>
       <c r="K180" t="inlineStr">
         <is>
@@ -7264,13 +7434,11 @@
         <v>55095664.7676242</v>
       </c>
       <c r="H181" t="n">
-        <v>2</v>
-      </c>
-      <c r="I181" t="n">
-        <v>0.4607</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I181" t="inlineStr"/>
       <c r="J181" t="n">
-        <v>0.4488</v>
+        <v>0.4676</v>
       </c>
       <c r="K181" t="inlineStr">
         <is>
@@ -7305,13 +7473,11 @@
         <v>55092664.7676242</v>
       </c>
       <c r="H182" t="n">
-        <v>2</v>
-      </c>
-      <c r="I182" t="n">
-        <v>0.469</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I182" t="inlineStr"/>
       <c r="J182" t="n">
-        <v>0.4488</v>
+        <v>0.4676</v>
       </c>
       <c r="K182" t="inlineStr">
         <is>
@@ -7346,13 +7512,11 @@
         <v>54862169.8334242</v>
       </c>
       <c r="H183" t="n">
-        <v>2</v>
-      </c>
-      <c r="I183" t="n">
-        <v>0.4609</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I183" t="inlineStr"/>
       <c r="J183" t="n">
-        <v>0.4488</v>
+        <v>0.4676</v>
       </c>
       <c r="K183" t="inlineStr">
         <is>
@@ -7387,13 +7551,11 @@
         <v>55245147.0069242</v>
       </c>
       <c r="H184" t="n">
-        <v>2</v>
-      </c>
-      <c r="I184" t="n">
-        <v>0.4511</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I184" t="inlineStr"/>
       <c r="J184" t="n">
-        <v>0.4488</v>
+        <v>0.4676</v>
       </c>
       <c r="K184" t="inlineStr">
         <is>
@@ -7428,13 +7590,11 @@
         <v>55238613.42642421</v>
       </c>
       <c r="H185" t="n">
-        <v>2</v>
-      </c>
-      <c r="I185" t="n">
-        <v>0.4677</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I185" t="inlineStr"/>
       <c r="J185" t="n">
-        <v>0.4488</v>
+        <v>0.4676</v>
       </c>
       <c r="K185" t="inlineStr">
         <is>
@@ -7469,13 +7629,11 @@
         <v>54800291.42642421</v>
       </c>
       <c r="H186" t="n">
-        <v>2</v>
-      </c>
-      <c r="I186" t="n">
-        <v>0.4676</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I186" t="inlineStr"/>
       <c r="J186" t="n">
-        <v>0.4488</v>
+        <v>0.4676</v>
       </c>
       <c r="K186" t="inlineStr">
         <is>
@@ -7510,13 +7668,11 @@
         <v>55100291.42642421</v>
       </c>
       <c r="H187" t="n">
-        <v>2</v>
-      </c>
-      <c r="I187" t="n">
-        <v>0.4531</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I187" t="inlineStr"/>
       <c r="J187" t="n">
-        <v>0.4488</v>
+        <v>0.4676</v>
       </c>
       <c r="K187" t="inlineStr">
         <is>
@@ -7551,13 +7707,11 @@
         <v>53818250.23152421</v>
       </c>
       <c r="H188" t="n">
-        <v>2</v>
-      </c>
-      <c r="I188" t="n">
-        <v>0.4559</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I188" t="inlineStr"/>
       <c r="J188" t="n">
-        <v>0.4488</v>
+        <v>0.4676</v>
       </c>
       <c r="K188" t="inlineStr">
         <is>
@@ -7592,13 +7746,11 @@
         <v>53877933.23152421</v>
       </c>
       <c r="H189" t="n">
-        <v>2</v>
-      </c>
-      <c r="I189" t="n">
-        <v>0.443</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I189" t="inlineStr"/>
       <c r="J189" t="n">
-        <v>0.4488</v>
+        <v>0.4676</v>
       </c>
       <c r="K189" t="inlineStr">
         <is>
@@ -7637,7 +7789,7 @@
       </c>
       <c r="I190" t="inlineStr"/>
       <c r="J190" t="n">
-        <v>0.4488</v>
+        <v>0.4676</v>
       </c>
       <c r="K190" t="inlineStr">
         <is>
@@ -7676,7 +7828,7 @@
       </c>
       <c r="I191" t="inlineStr"/>
       <c r="J191" t="n">
-        <v>0.4488</v>
+        <v>0.4676</v>
       </c>
       <c r="K191" t="inlineStr">
         <is>
@@ -7715,7 +7867,7 @@
       </c>
       <c r="I192" t="inlineStr"/>
       <c r="J192" t="n">
-        <v>0.4488</v>
+        <v>0.4676</v>
       </c>
       <c r="K192" t="inlineStr">
         <is>
@@ -7750,13 +7902,11 @@
         <v>66307652.13359644</v>
       </c>
       <c r="H193" t="n">
-        <v>2</v>
-      </c>
-      <c r="I193" t="n">
-        <v>0.4643</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I193" t="inlineStr"/>
       <c r="J193" t="n">
-        <v>0.4488</v>
+        <v>0.4676</v>
       </c>
       <c r="K193" t="inlineStr">
         <is>
@@ -7795,7 +7945,7 @@
       </c>
       <c r="I194" t="inlineStr"/>
       <c r="J194" t="n">
-        <v>0.4488</v>
+        <v>0.4676</v>
       </c>
       <c r="K194" t="inlineStr">
         <is>
@@ -7834,7 +7984,7 @@
       </c>
       <c r="I195" t="inlineStr"/>
       <c r="J195" t="n">
-        <v>0.4488</v>
+        <v>0.4676</v>
       </c>
       <c r="K195" t="inlineStr">
         <is>
@@ -7869,13 +8019,11 @@
         <v>63233115.25799643</v>
       </c>
       <c r="H196" t="n">
-        <v>2</v>
-      </c>
-      <c r="I196" t="n">
-        <v>0.47</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I196" t="inlineStr"/>
       <c r="J196" t="n">
-        <v>0.4488</v>
+        <v>0.4676</v>
       </c>
       <c r="K196" t="inlineStr">
         <is>
@@ -7914,7 +8062,7 @@
       </c>
       <c r="I197" t="inlineStr"/>
       <c r="J197" t="n">
-        <v>0.4488</v>
+        <v>0.4676</v>
       </c>
       <c r="K197" t="inlineStr">
         <is>
@@ -7953,7 +8101,7 @@
       </c>
       <c r="I198" t="inlineStr"/>
       <c r="J198" t="n">
-        <v>0.4488</v>
+        <v>0.4676</v>
       </c>
       <c r="K198" t="inlineStr">
         <is>
@@ -7988,13 +8136,11 @@
         <v>62566690.09669643</v>
       </c>
       <c r="H199" t="n">
-        <v>2</v>
-      </c>
-      <c r="I199" t="n">
-        <v>0.4631</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I199" t="inlineStr"/>
       <c r="J199" t="n">
-        <v>0.4488</v>
+        <v>0.4676</v>
       </c>
       <c r="K199" t="inlineStr">
         <is>
@@ -8033,7 +8179,7 @@
       </c>
       <c r="I200" t="inlineStr"/>
       <c r="J200" t="n">
-        <v>0.4488</v>
+        <v>0.4676</v>
       </c>
       <c r="K200" t="inlineStr">
         <is>
@@ -8072,7 +8218,7 @@
       </c>
       <c r="I201" t="inlineStr"/>
       <c r="J201" t="n">
-        <v>0.4488</v>
+        <v>0.4676</v>
       </c>
       <c r="K201" t="inlineStr">
         <is>
@@ -8111,7 +8257,7 @@
       </c>
       <c r="I202" t="inlineStr"/>
       <c r="J202" t="n">
-        <v>0.4488</v>
+        <v>0.4676</v>
       </c>
       <c r="K202" t="inlineStr">
         <is>
@@ -8150,7 +8296,7 @@
       </c>
       <c r="I203" t="inlineStr"/>
       <c r="J203" t="n">
-        <v>0.4488</v>
+        <v>0.4676</v>
       </c>
       <c r="K203" t="inlineStr">
         <is>
@@ -8185,13 +8331,11 @@
         <v>57779707.95474489</v>
       </c>
       <c r="H204" t="n">
-        <v>2</v>
-      </c>
-      <c r="I204" t="n">
-        <v>0.4659</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I204" t="inlineStr"/>
       <c r="J204" t="n">
-        <v>0.4488</v>
+        <v>0.4676</v>
       </c>
       <c r="K204" t="inlineStr">
         <is>
@@ -8226,13 +8370,11 @@
         <v>58033197.95474489</v>
       </c>
       <c r="H205" t="n">
-        <v>2</v>
-      </c>
-      <c r="I205" t="n">
-        <v>0.4646</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I205" t="inlineStr"/>
       <c r="J205" t="n">
-        <v>0.4488</v>
+        <v>0.4676</v>
       </c>
       <c r="K205" t="inlineStr">
         <is>
@@ -8267,13 +8409,11 @@
         <v>58327857.04964489</v>
       </c>
       <c r="H206" t="n">
-        <v>2</v>
-      </c>
-      <c r="I206" t="n">
-        <v>0.4746</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I206" t="inlineStr"/>
       <c r="J206" t="n">
-        <v>0.4488</v>
+        <v>0.4676</v>
       </c>
       <c r="K206" t="inlineStr">
         <is>
@@ -8308,13 +8448,11 @@
         <v>50605373.88604489</v>
       </c>
       <c r="H207" t="n">
-        <v>2</v>
-      </c>
-      <c r="I207" t="n">
-        <v>0.4796</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I207" t="inlineStr"/>
       <c r="J207" t="n">
-        <v>0.4488</v>
+        <v>0.4676</v>
       </c>
       <c r="K207" t="inlineStr">
         <is>
@@ -8349,13 +8487,11 @@
         <v>46614558.27244489</v>
       </c>
       <c r="H208" t="n">
-        <v>2</v>
-      </c>
-      <c r="I208" t="n">
-        <v>0.479</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I208" t="inlineStr"/>
       <c r="J208" t="n">
-        <v>0.4488</v>
+        <v>0.4676</v>
       </c>
       <c r="K208" t="inlineStr">
         <is>
@@ -8394,7 +8530,7 @@
       </c>
       <c r="I209" t="inlineStr"/>
       <c r="J209" t="n">
-        <v>0.4488</v>
+        <v>0.4676</v>
       </c>
       <c r="K209" t="inlineStr">
         <is>
@@ -8429,13 +8565,11 @@
         <v>43801701.10844489</v>
       </c>
       <c r="H210" t="n">
-        <v>2</v>
-      </c>
-      <c r="I210" t="n">
-        <v>0.478</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I210" t="inlineStr"/>
       <c r="J210" t="n">
-        <v>0.4488</v>
+        <v>0.4676</v>
       </c>
       <c r="K210" t="inlineStr">
         <is>
@@ -8470,13 +8604,11 @@
         <v>39708195.42564489</v>
       </c>
       <c r="H211" t="n">
-        <v>2</v>
-      </c>
-      <c r="I211" t="n">
-        <v>0.4868</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I211" t="inlineStr"/>
       <c r="J211" t="n">
-        <v>0.4488</v>
+        <v>0.4676</v>
       </c>
       <c r="K211" t="inlineStr">
         <is>
@@ -8511,13 +8643,11 @@
         <v>46295863.91164489</v>
       </c>
       <c r="H212" t="n">
-        <v>2</v>
-      </c>
-      <c r="I212" t="n">
-        <v>0.4798</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I212" t="inlineStr"/>
       <c r="J212" t="n">
-        <v>0.4488</v>
+        <v>0.4676</v>
       </c>
       <c r="K212" t="inlineStr">
         <is>
@@ -8552,13 +8682,11 @@
         <v>50344607.14280584</v>
       </c>
       <c r="H213" t="n">
-        <v>2</v>
-      </c>
-      <c r="I213" t="n">
-        <v>0.481</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I213" t="inlineStr"/>
       <c r="J213" t="n">
-        <v>0.4488</v>
+        <v>0.4676</v>
       </c>
       <c r="K213" t="inlineStr">
         <is>
@@ -8597,7 +8725,7 @@
       </c>
       <c r="I214" t="inlineStr"/>
       <c r="J214" t="n">
-        <v>0.4488</v>
+        <v>0.4676</v>
       </c>
       <c r="K214" t="inlineStr">
         <is>
@@ -8636,7 +8764,7 @@
       </c>
       <c r="I215" t="inlineStr"/>
       <c r="J215" t="n">
-        <v>0.4488</v>
+        <v>0.4676</v>
       </c>
       <c r="K215" t="inlineStr">
         <is>
@@ -8675,7 +8803,7 @@
       </c>
       <c r="I216" t="inlineStr"/>
       <c r="J216" t="n">
-        <v>0.4488</v>
+        <v>0.4676</v>
       </c>
       <c r="K216" t="inlineStr">
         <is>
@@ -8714,7 +8842,7 @@
       </c>
       <c r="I217" t="inlineStr"/>
       <c r="J217" t="n">
-        <v>0.4488</v>
+        <v>0.4676</v>
       </c>
       <c r="K217" t="inlineStr">
         <is>
@@ -8753,7 +8881,7 @@
       </c>
       <c r="I218" t="inlineStr"/>
       <c r="J218" t="n">
-        <v>0.4488</v>
+        <v>0.4676</v>
       </c>
       <c r="K218" t="inlineStr">
         <is>
@@ -8792,7 +8920,7 @@
       </c>
       <c r="I219" t="inlineStr"/>
       <c r="J219" t="n">
-        <v>0.4488</v>
+        <v>0.4676</v>
       </c>
       <c r="K219" t="inlineStr">
         <is>
@@ -8827,21 +8955,23 @@
         <v>89915002.67029394</v>
       </c>
       <c r="H220" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I220" t="inlineStr"/>
       <c r="J220" t="n">
-        <v>0.4488</v>
+        <v>0.4676</v>
       </c>
       <c r="K220" t="inlineStr">
         <is>
-          <t>매도 대기</t>
+          <t>매도 체결</t>
         </is>
       </c>
       <c r="L220" t="n">
-        <v>1</v>
-      </c>
-      <c r="M220" t="inlineStr"/>
+        <v>1.183836612489307</v>
+      </c>
+      <c r="M220" t="n">
+        <v>1.027940220922677</v>
+      </c>
     </row>
     <row r="221">
       <c r="A221" s="1" t="n">
@@ -8866,17 +8996,11 @@
         <v>70940250.67919394</v>
       </c>
       <c r="H221" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I221" t="inlineStr"/>
-      <c r="J221" t="n">
-        <v>0.4488</v>
-      </c>
-      <c r="K221" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J221" t="inlineStr"/>
+      <c r="K221" t="inlineStr"/>
       <c r="L221" t="n">
         <v>1</v>
       </c>
@@ -8905,17 +9029,11 @@
         <v>64421039.82009394</v>
       </c>
       <c r="H222" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I222" t="inlineStr"/>
-      <c r="J222" t="n">
-        <v>0.4488</v>
-      </c>
-      <c r="K222" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J222" t="inlineStr"/>
+      <c r="K222" t="inlineStr"/>
       <c r="L222" t="n">
         <v>1</v>
       </c>
@@ -8944,17 +9062,11 @@
         <v>65010896.04059394</v>
       </c>
       <c r="H223" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I223" t="inlineStr"/>
-      <c r="J223" t="n">
-        <v>0.4488</v>
-      </c>
-      <c r="K223" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J223" t="inlineStr"/>
+      <c r="K223" t="inlineStr"/>
       <c r="L223" t="n">
         <v>1</v>
       </c>
@@ -8983,17 +9095,11 @@
         <v>63755679.25759394</v>
       </c>
       <c r="H224" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I224" t="inlineStr"/>
-      <c r="J224" t="n">
-        <v>0.4488</v>
-      </c>
-      <c r="K224" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J224" t="inlineStr"/>
+      <c r="K224" t="inlineStr"/>
       <c r="L224" t="n">
         <v>1</v>
       </c>
@@ -9022,17 +9128,11 @@
         <v>47906073.62079395</v>
       </c>
       <c r="H225" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I225" t="inlineStr"/>
-      <c r="J225" t="n">
-        <v>0.4488</v>
-      </c>
-      <c r="K225" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J225" t="inlineStr"/>
+      <c r="K225" t="inlineStr"/>
       <c r="L225" t="n">
         <v>1</v>
       </c>
@@ -9061,17 +9161,11 @@
         <v>42757018.44779395</v>
       </c>
       <c r="H226" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I226" t="inlineStr"/>
-      <c r="J226" t="n">
-        <v>0.4488</v>
-      </c>
-      <c r="K226" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J226" t="inlineStr"/>
+      <c r="K226" t="inlineStr"/>
       <c r="L226" t="n">
         <v>1</v>
       </c>
@@ -9100,17 +9194,11 @@
         <v>42758018.44779395</v>
       </c>
       <c r="H227" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I227" t="inlineStr"/>
-      <c r="J227" t="n">
-        <v>0.4488</v>
-      </c>
-      <c r="K227" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J227" t="inlineStr"/>
+      <c r="K227" t="inlineStr"/>
       <c r="L227" t="n">
         <v>1</v>
       </c>
@@ -9139,17 +9227,11 @@
         <v>38751863.69719394</v>
       </c>
       <c r="H228" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I228" t="inlineStr"/>
-      <c r="J228" t="n">
-        <v>0.4488</v>
-      </c>
-      <c r="K228" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J228" t="inlineStr"/>
+      <c r="K228" t="inlineStr"/>
       <c r="L228" t="n">
         <v>1</v>
       </c>
@@ -9178,17 +9260,11 @@
         <v>32073290.73649395</v>
       </c>
       <c r="H229" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I229" t="inlineStr"/>
-      <c r="J229" t="n">
-        <v>0.4488</v>
-      </c>
-      <c r="K229" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J229" t="inlineStr"/>
+      <c r="K229" t="inlineStr"/>
       <c r="L229" t="n">
         <v>1</v>
       </c>
@@ -9217,17 +9293,11 @@
         <v>34330887.55059394</v>
       </c>
       <c r="H230" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I230" t="inlineStr"/>
-      <c r="J230" t="n">
-        <v>0.4488</v>
-      </c>
-      <c r="K230" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J230" t="inlineStr"/>
+      <c r="K230" t="inlineStr"/>
       <c r="L230" t="n">
         <v>1</v>
       </c>
@@ -9256,17 +9326,11 @@
         <v>26254467.58709394</v>
       </c>
       <c r="H231" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I231" t="inlineStr"/>
-      <c r="J231" t="n">
-        <v>0.4488</v>
-      </c>
-      <c r="K231" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J231" t="inlineStr"/>
+      <c r="K231" t="inlineStr"/>
       <c r="L231" t="n">
         <v>1</v>
       </c>
@@ -9295,17 +9359,11 @@
         <v>26710467.58709394</v>
       </c>
       <c r="H232" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I232" t="inlineStr"/>
-      <c r="J232" t="n">
-        <v>0.4488</v>
-      </c>
-      <c r="K232" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J232" t="inlineStr"/>
+      <c r="K232" t="inlineStr"/>
       <c r="L232" t="n">
         <v>1</v>
       </c>
@@ -9334,17 +9392,11 @@
         <v>26626052.58709394</v>
       </c>
       <c r="H233" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I233" t="inlineStr"/>
-      <c r="J233" t="n">
-        <v>0.4488</v>
-      </c>
-      <c r="K233" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J233" t="inlineStr"/>
+      <c r="K233" t="inlineStr"/>
       <c r="L233" t="n">
         <v>1</v>
       </c>
@@ -9376,14 +9428,8 @@
         <v>0</v>
       </c>
       <c r="I234" t="inlineStr"/>
-      <c r="J234" t="n">
-        <v>0.4488</v>
-      </c>
-      <c r="K234" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J234" t="inlineStr"/>
+      <c r="K234" t="inlineStr"/>
       <c r="L234" t="n">
         <v>1</v>
       </c>
@@ -9412,17 +9458,11 @@
         <v>28428471.24729394</v>
       </c>
       <c r="H235" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I235" t="inlineStr"/>
-      <c r="J235" t="n">
-        <v>0.4488</v>
-      </c>
-      <c r="K235" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J235" t="inlineStr"/>
+      <c r="K235" t="inlineStr"/>
       <c r="L235" t="n">
         <v>1</v>
       </c>
@@ -9451,17 +9491,11 @@
         <v>28429471.24729394</v>
       </c>
       <c r="H236" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I236" t="inlineStr"/>
-      <c r="J236" t="n">
-        <v>0.4488</v>
-      </c>
-      <c r="K236" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J236" t="inlineStr"/>
+      <c r="K236" t="inlineStr"/>
       <c r="L236" t="n">
         <v>1</v>
       </c>
@@ -9493,14 +9527,8 @@
         <v>0</v>
       </c>
       <c r="I237" t="inlineStr"/>
-      <c r="J237" t="n">
-        <v>0.4488</v>
-      </c>
-      <c r="K237" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J237" t="inlineStr"/>
+      <c r="K237" t="inlineStr"/>
       <c r="L237" t="n">
         <v>1</v>
       </c>
@@ -9532,14 +9560,8 @@
         <v>0</v>
       </c>
       <c r="I238" t="inlineStr"/>
-      <c r="J238" t="n">
-        <v>0.4488</v>
-      </c>
-      <c r="K238" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J238" t="inlineStr"/>
+      <c r="K238" t="inlineStr"/>
       <c r="L238" t="n">
         <v>1</v>
       </c>
@@ -9571,14 +9593,8 @@
         <v>0</v>
       </c>
       <c r="I239" t="inlineStr"/>
-      <c r="J239" t="n">
-        <v>0.4488</v>
-      </c>
-      <c r="K239" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J239" t="inlineStr"/>
+      <c r="K239" t="inlineStr"/>
       <c r="L239" t="n">
         <v>1</v>
       </c>
@@ -9610,14 +9626,8 @@
         <v>0</v>
       </c>
       <c r="I240" t="inlineStr"/>
-      <c r="J240" t="n">
-        <v>0.4488</v>
-      </c>
-      <c r="K240" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J240" t="inlineStr"/>
+      <c r="K240" t="inlineStr"/>
       <c r="L240" t="n">
         <v>1</v>
       </c>
@@ -9646,17 +9656,11 @@
         <v>30403634.98689394</v>
       </c>
       <c r="H241" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I241" t="inlineStr"/>
-      <c r="J241" t="n">
-        <v>0.4488</v>
-      </c>
-      <c r="K241" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J241" t="inlineStr"/>
+      <c r="K241" t="inlineStr"/>
       <c r="L241" t="n">
         <v>1</v>
       </c>
@@ -9688,14 +9692,8 @@
         <v>0</v>
       </c>
       <c r="I242" t="inlineStr"/>
-      <c r="J242" t="n">
-        <v>0.4488</v>
-      </c>
-      <c r="K242" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J242" t="inlineStr"/>
+      <c r="K242" t="inlineStr"/>
       <c r="L242" t="n">
         <v>1</v>
       </c>
@@ -9727,14 +9725,8 @@
         <v>0</v>
       </c>
       <c r="I243" t="inlineStr"/>
-      <c r="J243" t="n">
-        <v>0.4488</v>
-      </c>
-      <c r="K243" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J243" t="inlineStr"/>
+      <c r="K243" t="inlineStr"/>
       <c r="L243" t="n">
         <v>1</v>
       </c>
@@ -9766,14 +9758,8 @@
         <v>0</v>
       </c>
       <c r="I244" t="inlineStr"/>
-      <c r="J244" t="n">
-        <v>0.4488</v>
-      </c>
-      <c r="K244" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J244" t="inlineStr"/>
+      <c r="K244" t="inlineStr"/>
       <c r="L244" t="n">
         <v>1</v>
       </c>
@@ -9805,14 +9791,8 @@
         <v>0</v>
       </c>
       <c r="I245" t="inlineStr"/>
-      <c r="J245" t="n">
-        <v>0.4488</v>
-      </c>
-      <c r="K245" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J245" t="inlineStr"/>
+      <c r="K245" t="inlineStr"/>
       <c r="L245" t="n">
         <v>1</v>
       </c>
@@ -9844,14 +9824,8 @@
         <v>0</v>
       </c>
       <c r="I246" t="inlineStr"/>
-      <c r="J246" t="n">
-        <v>0.4488</v>
-      </c>
-      <c r="K246" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J246" t="inlineStr"/>
+      <c r="K246" t="inlineStr"/>
       <c r="L246" t="n">
         <v>1</v>
       </c>
@@ -9883,14 +9857,8 @@
         <v>0</v>
       </c>
       <c r="I247" t="inlineStr"/>
-      <c r="J247" t="n">
-        <v>0.4488</v>
-      </c>
-      <c r="K247" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J247" t="inlineStr"/>
+      <c r="K247" t="inlineStr"/>
       <c r="L247" t="n">
         <v>1</v>
       </c>
@@ -9919,17 +9887,11 @@
         <v>30836191.31899394</v>
       </c>
       <c r="H248" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I248" t="inlineStr"/>
-      <c r="J248" t="n">
-        <v>0.4488</v>
-      </c>
-      <c r="K248" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J248" t="inlineStr"/>
+      <c r="K248" t="inlineStr"/>
       <c r="L248" t="n">
         <v>1</v>
       </c>
@@ -9958,17 +9920,11 @@
         <v>23036646.33879394</v>
       </c>
       <c r="H249" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I249" t="inlineStr"/>
-      <c r="J249" t="n">
-        <v>0.4488</v>
-      </c>
-      <c r="K249" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J249" t="inlineStr"/>
+      <c r="K249" t="inlineStr"/>
       <c r="L249" t="n">
         <v>1</v>
       </c>
@@ -9997,17 +9953,11 @@
         <v>31601320.44879394</v>
       </c>
       <c r="H250" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I250" t="inlineStr"/>
-      <c r="J250" t="n">
-        <v>0.4488</v>
-      </c>
-      <c r="K250" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J250" t="inlineStr"/>
+      <c r="K250" t="inlineStr"/>
       <c r="L250" t="n">
         <v>1</v>
       </c>
@@ -10036,17 +9986,11 @@
         <v>31601320.44879394</v>
       </c>
       <c r="H251" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I251" t="inlineStr"/>
-      <c r="J251" t="n">
-        <v>0.4488</v>
-      </c>
-      <c r="K251" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J251" t="inlineStr"/>
+      <c r="K251" t="inlineStr"/>
       <c r="L251" t="n">
         <v>1</v>
       </c>
@@ -10078,14 +10022,8 @@
         <v>0</v>
       </c>
       <c r="I252" t="inlineStr"/>
-      <c r="J252" t="n">
-        <v>0.4488</v>
-      </c>
-      <c r="K252" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J252" t="inlineStr"/>
+      <c r="K252" t="inlineStr"/>
       <c r="L252" t="n">
         <v>1</v>
       </c>
@@ -10117,14 +10055,8 @@
         <v>0</v>
       </c>
       <c r="I253" t="inlineStr"/>
-      <c r="J253" t="n">
-        <v>0.4488</v>
-      </c>
-      <c r="K253" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J253" t="inlineStr"/>
+      <c r="K253" t="inlineStr"/>
       <c r="L253" t="n">
         <v>1</v>
       </c>
@@ -10156,14 +10088,8 @@
         <v>0</v>
       </c>
       <c r="I254" t="inlineStr"/>
-      <c r="J254" t="n">
-        <v>0.4488</v>
-      </c>
-      <c r="K254" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J254" t="inlineStr"/>
+      <c r="K254" t="inlineStr"/>
       <c r="L254" t="n">
         <v>1</v>
       </c>
@@ -10195,14 +10121,8 @@
         <v>0</v>
       </c>
       <c r="I255" t="inlineStr"/>
-      <c r="J255" t="n">
-        <v>0.4488</v>
-      </c>
-      <c r="K255" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J255" t="inlineStr"/>
+      <c r="K255" t="inlineStr"/>
       <c r="L255" t="n">
         <v>1</v>
       </c>
@@ -10234,14 +10154,8 @@
         <v>0</v>
       </c>
       <c r="I256" t="inlineStr"/>
-      <c r="J256" t="n">
-        <v>0.4488</v>
-      </c>
-      <c r="K256" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J256" t="inlineStr"/>
+      <c r="K256" t="inlineStr"/>
       <c r="L256" t="n">
         <v>1</v>
       </c>
@@ -10273,14 +10187,8 @@
         <v>0</v>
       </c>
       <c r="I257" t="inlineStr"/>
-      <c r="J257" t="n">
-        <v>0.4488</v>
-      </c>
-      <c r="K257" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J257" t="inlineStr"/>
+      <c r="K257" t="inlineStr"/>
       <c r="L257" t="n">
         <v>1</v>
       </c>
@@ -10312,14 +10220,8 @@
         <v>0</v>
       </c>
       <c r="I258" t="inlineStr"/>
-      <c r="J258" t="n">
-        <v>0.4488</v>
-      </c>
-      <c r="K258" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J258" t="inlineStr"/>
+      <c r="K258" t="inlineStr"/>
       <c r="L258" t="n">
         <v>1</v>
       </c>
@@ -10351,14 +10253,8 @@
         <v>0</v>
       </c>
       <c r="I259" t="inlineStr"/>
-      <c r="J259" t="n">
-        <v>0.4488</v>
-      </c>
-      <c r="K259" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J259" t="inlineStr"/>
+      <c r="K259" t="inlineStr"/>
       <c r="L259" t="n">
         <v>1</v>
       </c>
@@ -10387,17 +10283,11 @@
         <v>40707054.11334503</v>
       </c>
       <c r="H260" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I260" t="inlineStr"/>
-      <c r="J260" t="n">
-        <v>0.4488</v>
-      </c>
-      <c r="K260" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J260" t="inlineStr"/>
+      <c r="K260" t="inlineStr"/>
       <c r="L260" t="n">
         <v>1</v>
       </c>
@@ -10426,17 +10316,11 @@
         <v>38665867.46254503</v>
       </c>
       <c r="H261" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I261" t="inlineStr"/>
-      <c r="J261" t="n">
-        <v>0.4488</v>
-      </c>
-      <c r="K261" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J261" t="inlineStr"/>
+      <c r="K261" t="inlineStr"/>
       <c r="L261" t="n">
         <v>1</v>
       </c>
@@ -10465,17 +10349,11 @@
         <v>38689834.84254503</v>
       </c>
       <c r="H262" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I262" t="inlineStr"/>
-      <c r="J262" t="n">
-        <v>0.4488</v>
-      </c>
-      <c r="K262" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J262" t="inlineStr"/>
+      <c r="K262" t="inlineStr"/>
       <c r="L262" t="n">
         <v>1</v>
       </c>
@@ -10504,17 +10382,11 @@
         <v>40042401.34784503</v>
       </c>
       <c r="H263" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I263" t="inlineStr"/>
-      <c r="J263" t="n">
-        <v>0.4488</v>
-      </c>
-      <c r="K263" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J263" t="inlineStr"/>
+      <c r="K263" t="inlineStr"/>
       <c r="L263" t="n">
         <v>1</v>
       </c>
@@ -10543,17 +10415,11 @@
         <v>41476007.50024503</v>
       </c>
       <c r="H264" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I264" t="inlineStr"/>
-      <c r="J264" t="n">
-        <v>0.4488</v>
-      </c>
-      <c r="K264" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J264" t="inlineStr"/>
+      <c r="K264" t="inlineStr"/>
       <c r="L264" t="n">
         <v>1</v>
       </c>
@@ -10582,17 +10448,11 @@
         <v>38307908.02904504</v>
       </c>
       <c r="H265" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I265" t="inlineStr"/>
-      <c r="J265" t="n">
-        <v>0.4488</v>
-      </c>
-      <c r="K265" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J265" t="inlineStr"/>
+      <c r="K265" t="inlineStr"/>
       <c r="L265" t="n">
         <v>1</v>
       </c>
@@ -10624,14 +10484,8 @@
         <v>0</v>
       </c>
       <c r="I266" t="inlineStr"/>
-      <c r="J266" t="n">
-        <v>0.4488</v>
-      </c>
-      <c r="K266" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J266" t="inlineStr"/>
+      <c r="K266" t="inlineStr"/>
       <c r="L266" t="n">
         <v>1</v>
       </c>
@@ -10663,14 +10517,8 @@
         <v>0</v>
       </c>
       <c r="I267" t="inlineStr"/>
-      <c r="J267" t="n">
-        <v>0.4488</v>
-      </c>
-      <c r="K267" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J267" t="inlineStr"/>
+      <c r="K267" t="inlineStr"/>
       <c r="L267" t="n">
         <v>1</v>
       </c>
@@ -10702,14 +10550,8 @@
         <v>0</v>
       </c>
       <c r="I268" t="inlineStr"/>
-      <c r="J268" t="n">
-        <v>0.4488</v>
-      </c>
-      <c r="K268" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J268" t="inlineStr"/>
+      <c r="K268" t="inlineStr"/>
       <c r="L268" t="n">
         <v>1</v>
       </c>
@@ -10738,23 +10580,15 @@
         <v>50607104.51884504</v>
       </c>
       <c r="H269" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I269" t="inlineStr"/>
-      <c r="J269" t="n">
-        <v>0.4488</v>
-      </c>
-      <c r="K269" t="inlineStr">
-        <is>
-          <t>매도 체결</t>
-        </is>
-      </c>
+      <c r="J269" t="inlineStr"/>
+      <c r="K269" t="inlineStr"/>
       <c r="L269" t="n">
-        <v>1.199991087344028</v>
-      </c>
-      <c r="M269" t="n">
-        <v>1.114081996434938</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="M269" t="inlineStr"/>
     </row>
     <row r="270">
       <c r="A270" s="1" t="n">
@@ -10779,7 +10613,7 @@
         <v>44793701.14044504</v>
       </c>
       <c r="H270" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I270" t="inlineStr"/>
       <c r="J270" t="inlineStr"/>
@@ -10812,7 +10646,7 @@
         <v>47820621.96974504</v>
       </c>
       <c r="H271" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I271" t="inlineStr"/>
       <c r="J271" t="inlineStr"/>
@@ -10845,7 +10679,7 @@
         <v>49302844.26264504</v>
       </c>
       <c r="H272" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I272" t="inlineStr"/>
       <c r="J272" t="inlineStr"/>
@@ -10878,7 +10712,7 @@
         <v>55788059.54784504</v>
       </c>
       <c r="H273" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I273" t="inlineStr"/>
       <c r="J273" t="inlineStr"/>
@@ -10911,7 +10745,7 @@
         <v>48584704.13724504</v>
       </c>
       <c r="H274" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I274" t="inlineStr"/>
       <c r="J274" t="inlineStr"/>
@@ -10944,7 +10778,7 @@
         <v>50370039.88704504</v>
       </c>
       <c r="H275" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I275" t="inlineStr"/>
       <c r="J275" t="inlineStr"/>
@@ -10977,7 +10811,7 @@
         <v>32559016.09074504</v>
       </c>
       <c r="H276" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I276" t="inlineStr"/>
       <c r="J276" t="inlineStr"/>
@@ -11637,17 +11471,11 @@
         <v>22022774.10359465</v>
       </c>
       <c r="H296" t="n">
-        <v>2</v>
-      </c>
-      <c r="I296" t="n">
-        <v>0.4985</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I296" t="inlineStr"/>
       <c r="J296" t="inlineStr"/>
-      <c r="K296" t="inlineStr">
-        <is>
-          <t>매수 체결</t>
-        </is>
-      </c>
+      <c r="K296" t="inlineStr"/>
       <c r="L296" t="n">
         <v>1</v>
       </c>
@@ -11676,17 +11504,11 @@
         <v>21469761.10359465</v>
       </c>
       <c r="H297" t="n">
-        <v>2</v>
-      </c>
-      <c r="I297" t="n">
-        <v>0.5048</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I297" t="inlineStr"/>
       <c r="J297" t="inlineStr"/>
-      <c r="K297" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K297" t="inlineStr"/>
       <c r="L297" t="n">
         <v>1</v>
       </c>
@@ -11719,11 +11541,7 @@
       </c>
       <c r="I298" t="inlineStr"/>
       <c r="J298" t="inlineStr"/>
-      <c r="K298" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K298" t="inlineStr"/>
       <c r="L298" t="n">
         <v>1</v>
       </c>
@@ -11756,11 +11574,7 @@
       </c>
       <c r="I299" t="inlineStr"/>
       <c r="J299" t="inlineStr"/>
-      <c r="K299" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K299" t="inlineStr"/>
       <c r="L299" t="n">
         <v>1</v>
       </c>
@@ -11793,11 +11607,7 @@
       </c>
       <c r="I300" t="inlineStr"/>
       <c r="J300" t="inlineStr"/>
-      <c r="K300" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K300" t="inlineStr"/>
       <c r="L300" t="n">
         <v>1</v>
       </c>
@@ -11830,11 +11640,7 @@
       </c>
       <c r="I301" t="inlineStr"/>
       <c r="J301" t="inlineStr"/>
-      <c r="K301" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K301" t="inlineStr"/>
       <c r="L301" t="n">
         <v>1</v>
       </c>
@@ -11867,11 +11673,7 @@
       </c>
       <c r="I302" t="inlineStr"/>
       <c r="J302" t="inlineStr"/>
-      <c r="K302" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K302" t="inlineStr"/>
       <c r="L302" t="n">
         <v>1</v>
       </c>
@@ -11904,11 +11706,7 @@
       </c>
       <c r="I303" t="inlineStr"/>
       <c r="J303" t="inlineStr"/>
-      <c r="K303" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K303" t="inlineStr"/>
       <c r="L303" t="n">
         <v>1</v>
       </c>
@@ -11941,11 +11739,7 @@
       </c>
       <c r="I304" t="inlineStr"/>
       <c r="J304" t="inlineStr"/>
-      <c r="K304" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K304" t="inlineStr"/>
       <c r="L304" t="n">
         <v>1</v>
       </c>
@@ -11978,11 +11772,7 @@
       </c>
       <c r="I305" t="inlineStr"/>
       <c r="J305" t="inlineStr"/>
-      <c r="K305" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K305" t="inlineStr"/>
       <c r="L305" t="n">
         <v>1</v>
       </c>
@@ -12015,11 +11805,7 @@
       </c>
       <c r="I306" t="inlineStr"/>
       <c r="J306" t="inlineStr"/>
-      <c r="K306" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K306" t="inlineStr"/>
       <c r="L306" t="n">
         <v>1</v>
       </c>
@@ -12052,11 +11838,7 @@
       </c>
       <c r="I307" t="inlineStr"/>
       <c r="J307" t="inlineStr"/>
-      <c r="K307" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K307" t="inlineStr"/>
       <c r="L307" t="n">
         <v>1</v>
       </c>
@@ -12089,11 +11871,7 @@
       </c>
       <c r="I308" t="inlineStr"/>
       <c r="J308" t="inlineStr"/>
-      <c r="K308" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K308" t="inlineStr"/>
       <c r="L308" t="n">
         <v>1</v>
       </c>
@@ -12126,11 +11904,7 @@
       </c>
       <c r="I309" t="inlineStr"/>
       <c r="J309" t="inlineStr"/>
-      <c r="K309" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K309" t="inlineStr"/>
       <c r="L309" t="n">
         <v>1</v>
       </c>
@@ -12163,11 +11937,7 @@
       </c>
       <c r="I310" t="inlineStr"/>
       <c r="J310" t="inlineStr"/>
-      <c r="K310" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K310" t="inlineStr"/>
       <c r="L310" t="n">
         <v>1</v>
       </c>
@@ -12200,11 +11970,7 @@
       </c>
       <c r="I311" t="inlineStr"/>
       <c r="J311" t="inlineStr"/>
-      <c r="K311" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K311" t="inlineStr"/>
       <c r="L311" t="n">
         <v>1</v>
       </c>
@@ -12237,11 +12003,7 @@
       </c>
       <c r="I312" t="inlineStr"/>
       <c r="J312" t="inlineStr"/>
-      <c r="K312" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K312" t="inlineStr"/>
       <c r="L312" t="n">
         <v>1</v>
       </c>
@@ -12274,11 +12036,7 @@
       </c>
       <c r="I313" t="inlineStr"/>
       <c r="J313" t="inlineStr"/>
-      <c r="K313" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K313" t="inlineStr"/>
       <c r="L313" t="n">
         <v>1</v>
       </c>
@@ -12311,11 +12069,7 @@
       </c>
       <c r="I314" t="inlineStr"/>
       <c r="J314" t="inlineStr"/>
-      <c r="K314" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K314" t="inlineStr"/>
       <c r="L314" t="n">
         <v>1</v>
       </c>
@@ -12348,11 +12102,7 @@
       </c>
       <c r="I315" t="inlineStr"/>
       <c r="J315" t="inlineStr"/>
-      <c r="K315" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K315" t="inlineStr"/>
       <c r="L315" t="n">
         <v>1</v>
       </c>
@@ -12385,11 +12135,7 @@
       </c>
       <c r="I316" t="inlineStr"/>
       <c r="J316" t="inlineStr"/>
-      <c r="K316" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K316" t="inlineStr"/>
       <c r="L316" t="n">
         <v>1</v>
       </c>
@@ -12422,11 +12168,7 @@
       </c>
       <c r="I317" t="inlineStr"/>
       <c r="J317" t="inlineStr"/>
-      <c r="K317" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K317" t="inlineStr"/>
       <c r="L317" t="n">
         <v>1</v>
       </c>
@@ -12459,11 +12201,7 @@
       </c>
       <c r="I318" t="inlineStr"/>
       <c r="J318" t="inlineStr"/>
-      <c r="K318" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K318" t="inlineStr"/>
       <c r="L318" t="n">
         <v>1</v>
       </c>
@@ -12496,11 +12234,7 @@
       </c>
       <c r="I319" t="inlineStr"/>
       <c r="J319" t="inlineStr"/>
-      <c r="K319" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K319" t="inlineStr"/>
       <c r="L319" t="n">
         <v>1</v>
       </c>
@@ -12533,11 +12267,7 @@
       </c>
       <c r="I320" t="inlineStr"/>
       <c r="J320" t="inlineStr"/>
-      <c r="K320" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K320" t="inlineStr"/>
       <c r="L320" t="n">
         <v>1</v>
       </c>
@@ -12570,11 +12300,7 @@
       </c>
       <c r="I321" t="inlineStr"/>
       <c r="J321" t="inlineStr"/>
-      <c r="K321" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K321" t="inlineStr"/>
       <c r="L321" t="n">
         <v>1</v>
       </c>
@@ -12607,11 +12333,7 @@
       </c>
       <c r="I322" t="inlineStr"/>
       <c r="J322" t="inlineStr"/>
-      <c r="K322" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K322" t="inlineStr"/>
       <c r="L322" t="n">
         <v>1</v>
       </c>
@@ -12644,11 +12366,7 @@
       </c>
       <c r="I323" t="inlineStr"/>
       <c r="J323" t="inlineStr"/>
-      <c r="K323" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K323" t="inlineStr"/>
       <c r="L323" t="n">
         <v>1</v>
       </c>
@@ -12681,11 +12399,7 @@
       </c>
       <c r="I324" t="inlineStr"/>
       <c r="J324" t="inlineStr"/>
-      <c r="K324" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K324" t="inlineStr"/>
       <c r="L324" t="n">
         <v>1</v>
       </c>
@@ -12718,11 +12432,7 @@
       </c>
       <c r="I325" t="inlineStr"/>
       <c r="J325" t="inlineStr"/>
-      <c r="K325" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K325" t="inlineStr"/>
       <c r="L325" t="n">
         <v>1</v>
       </c>
@@ -12755,17 +12465,13 @@
       </c>
       <c r="I326" t="inlineStr"/>
       <c r="J326" t="inlineStr"/>
-      <c r="K326" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K326" t="inlineStr"/>
       <c r="L326" t="n">
         <v>1</v>
       </c>
       <c r="M326" t="inlineStr"/>
     </row>
   </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
 </worksheet>
 </file>
--- a/BackTest/2020-01-13 BackTest OCN.xlsx
+++ b/BackTest/2020-01-13 BackTest OCN.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
-    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -54,18 +54,18 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="2">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyAlignment="1" borderId="1" fillId="0" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle builtinId="0" hidden="0" name="Normal" xfId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
   </cellStyles>
-  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium9"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
 </styleSheet>
 </file>
 
@@ -394,7 +394,7 @@
       </c>
       <c r="G1" s="1" t="inlineStr">
         <is>
-          <t>CMO</t>
+          <t>OBV</t>
         </is>
       </c>
       <c r="H1" s="1" t="inlineStr">
@@ -451,7 +451,7 @@
         <v>20836869.4118969</v>
       </c>
       <c r="H2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I2" t="inlineStr"/>
       <c r="J2" t="inlineStr"/>
@@ -484,14 +484,10 @@
         <v>43476244.0517969</v>
       </c>
       <c r="H3" t="n">
-        <v>1</v>
-      </c>
-      <c r="I3" t="n">
-        <v>0.4676</v>
-      </c>
-      <c r="J3" t="n">
-        <v>0.4676</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I3" t="inlineStr"/>
+      <c r="J3" t="inlineStr"/>
       <c r="K3" t="inlineStr"/>
       <c r="L3" t="n">
         <v>1</v>
@@ -521,19 +517,11 @@
         <v>44811059.8137969</v>
       </c>
       <c r="H4" t="n">
-        <v>1</v>
-      </c>
-      <c r="I4" t="n">
-        <v>0.4684</v>
-      </c>
-      <c r="J4" t="n">
-        <v>0.4676</v>
-      </c>
-      <c r="K4" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I4" t="inlineStr"/>
+      <c r="J4" t="inlineStr"/>
+      <c r="K4" t="inlineStr"/>
       <c r="L4" t="n">
         <v>1</v>
       </c>
@@ -562,17 +550,11 @@
         <v>40220052.5068969</v>
       </c>
       <c r="H5" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I5" t="inlineStr"/>
-      <c r="J5" t="n">
-        <v>0.4676</v>
-      </c>
-      <c r="K5" t="inlineStr">
-        <is>
-          <t>매수 체결</t>
-        </is>
-      </c>
+      <c r="J5" t="inlineStr"/>
+      <c r="K5" t="inlineStr"/>
       <c r="L5" t="n">
         <v>1</v>
       </c>
@@ -601,17 +583,11 @@
         <v>41661064.0753969</v>
       </c>
       <c r="H6" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I6" t="inlineStr"/>
-      <c r="J6" t="n">
-        <v>0.4676</v>
-      </c>
-      <c r="K6" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J6" t="inlineStr"/>
+      <c r="K6" t="inlineStr"/>
       <c r="L6" t="n">
         <v>1</v>
       </c>
@@ -640,17 +616,11 @@
         <v>41801858.00139689</v>
       </c>
       <c r="H7" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I7" t="inlineStr"/>
-      <c r="J7" t="n">
-        <v>0.4676</v>
-      </c>
-      <c r="K7" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J7" t="inlineStr"/>
+      <c r="K7" t="inlineStr"/>
       <c r="L7" t="n">
         <v>1</v>
       </c>
@@ -679,17 +649,11 @@
         <v>47496188.3108969</v>
       </c>
       <c r="H8" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I8" t="inlineStr"/>
-      <c r="J8" t="n">
-        <v>0.4676</v>
-      </c>
-      <c r="K8" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J8" t="inlineStr"/>
+      <c r="K8" t="inlineStr"/>
       <c r="L8" t="n">
         <v>1</v>
       </c>
@@ -718,17 +682,11 @@
         <v>42498231.0305969</v>
       </c>
       <c r="H9" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I9" t="inlineStr"/>
-      <c r="J9" t="n">
-        <v>0.4676</v>
-      </c>
-      <c r="K9" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J9" t="inlineStr"/>
+      <c r="K9" t="inlineStr"/>
       <c r="L9" t="n">
         <v>1</v>
       </c>
@@ -757,17 +715,11 @@
         <v>46301627.5093969</v>
       </c>
       <c r="H10" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I10" t="inlineStr"/>
-      <c r="J10" t="n">
-        <v>0.4676</v>
-      </c>
-      <c r="K10" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J10" t="inlineStr"/>
+      <c r="K10" t="inlineStr"/>
       <c r="L10" t="n">
         <v>1</v>
       </c>
@@ -796,17 +748,11 @@
         <v>45344254.11049689</v>
       </c>
       <c r="H11" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I11" t="inlineStr"/>
-      <c r="J11" t="n">
-        <v>0.4676</v>
-      </c>
-      <c r="K11" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J11" t="inlineStr"/>
+      <c r="K11" t="inlineStr"/>
       <c r="L11" t="n">
         <v>1</v>
       </c>
@@ -835,17 +781,11 @@
         <v>46818407.9987969</v>
       </c>
       <c r="H12" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I12" t="inlineStr"/>
-      <c r="J12" t="n">
-        <v>0.4676</v>
-      </c>
-      <c r="K12" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J12" t="inlineStr"/>
+      <c r="K12" t="inlineStr"/>
       <c r="L12" t="n">
         <v>1</v>
       </c>
@@ -874,17 +814,11 @@
         <v>60393085.8214969</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I13" t="inlineStr"/>
-      <c r="J13" t="n">
-        <v>0.4676</v>
-      </c>
-      <c r="K13" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J13" t="inlineStr"/>
+      <c r="K13" t="inlineStr"/>
       <c r="L13" t="n">
         <v>1</v>
       </c>
@@ -913,17 +847,11 @@
         <v>58457539.90849689</v>
       </c>
       <c r="H14" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I14" t="inlineStr"/>
-      <c r="J14" t="n">
-        <v>0.4676</v>
-      </c>
-      <c r="K14" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J14" t="inlineStr"/>
+      <c r="K14" t="inlineStr"/>
       <c r="L14" t="n">
         <v>1</v>
       </c>
@@ -952,17 +880,11 @@
         <v>59442868.22789689</v>
       </c>
       <c r="H15" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I15" t="inlineStr"/>
-      <c r="J15" t="n">
-        <v>0.4676</v>
-      </c>
-      <c r="K15" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J15" t="inlineStr"/>
+      <c r="K15" t="inlineStr"/>
       <c r="L15" t="n">
         <v>1</v>
       </c>
@@ -994,14 +916,8 @@
         <v>0</v>
       </c>
       <c r="I16" t="inlineStr"/>
-      <c r="J16" t="n">
-        <v>0.4676</v>
-      </c>
-      <c r="K16" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J16" t="inlineStr"/>
+      <c r="K16" t="inlineStr"/>
       <c r="L16" t="n">
         <v>1</v>
       </c>
@@ -1030,17 +946,11 @@
         <v>60990773.7364969</v>
       </c>
       <c r="H17" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I17" t="inlineStr"/>
-      <c r="J17" t="n">
-        <v>0.4676</v>
-      </c>
-      <c r="K17" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J17" t="inlineStr"/>
+      <c r="K17" t="inlineStr"/>
       <c r="L17" t="n">
         <v>1</v>
       </c>
@@ -1069,17 +979,11 @@
         <v>60638032.99119689</v>
       </c>
       <c r="H18" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I18" t="inlineStr"/>
-      <c r="J18" t="n">
-        <v>0.4676</v>
-      </c>
-      <c r="K18" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J18" t="inlineStr"/>
+      <c r="K18" t="inlineStr"/>
       <c r="L18" t="n">
         <v>1</v>
       </c>
@@ -1111,14 +1015,8 @@
         <v>0</v>
       </c>
       <c r="I19" t="inlineStr"/>
-      <c r="J19" t="n">
-        <v>0.4676</v>
-      </c>
-      <c r="K19" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J19" t="inlineStr"/>
+      <c r="K19" t="inlineStr"/>
       <c r="L19" t="n">
         <v>1</v>
       </c>
@@ -1150,14 +1048,8 @@
         <v>0</v>
       </c>
       <c r="I20" t="inlineStr"/>
-      <c r="J20" t="n">
-        <v>0.4676</v>
-      </c>
-      <c r="K20" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J20" t="inlineStr"/>
+      <c r="K20" t="inlineStr"/>
       <c r="L20" t="n">
         <v>1</v>
       </c>
@@ -1189,14 +1081,8 @@
         <v>0</v>
       </c>
       <c r="I21" t="inlineStr"/>
-      <c r="J21" t="n">
-        <v>0.4676</v>
-      </c>
-      <c r="K21" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J21" t="inlineStr"/>
+      <c r="K21" t="inlineStr"/>
       <c r="L21" t="n">
         <v>1</v>
       </c>
@@ -1228,14 +1114,8 @@
         <v>0</v>
       </c>
       <c r="I22" t="inlineStr"/>
-      <c r="J22" t="n">
-        <v>0.4676</v>
-      </c>
-      <c r="K22" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J22" t="inlineStr"/>
+      <c r="K22" t="inlineStr"/>
       <c r="L22" t="n">
         <v>1</v>
       </c>
@@ -1267,14 +1147,8 @@
         <v>0</v>
       </c>
       <c r="I23" t="inlineStr"/>
-      <c r="J23" t="n">
-        <v>0.4676</v>
-      </c>
-      <c r="K23" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J23" t="inlineStr"/>
+      <c r="K23" t="inlineStr"/>
       <c r="L23" t="n">
         <v>1</v>
       </c>
@@ -1306,14 +1180,8 @@
         <v>0</v>
       </c>
       <c r="I24" t="inlineStr"/>
-      <c r="J24" t="n">
-        <v>0.4676</v>
-      </c>
-      <c r="K24" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J24" t="inlineStr"/>
+      <c r="K24" t="inlineStr"/>
       <c r="L24" t="n">
         <v>1</v>
       </c>
@@ -1345,14 +1213,8 @@
         <v>0</v>
       </c>
       <c r="I25" t="inlineStr"/>
-      <c r="J25" t="n">
-        <v>0.4676</v>
-      </c>
-      <c r="K25" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J25" t="inlineStr"/>
+      <c r="K25" t="inlineStr"/>
       <c r="L25" t="n">
         <v>1</v>
       </c>
@@ -1384,14 +1246,8 @@
         <v>0</v>
       </c>
       <c r="I26" t="inlineStr"/>
-      <c r="J26" t="n">
-        <v>0.4676</v>
-      </c>
-      <c r="K26" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J26" t="inlineStr"/>
+      <c r="K26" t="inlineStr"/>
       <c r="L26" t="n">
         <v>1</v>
       </c>
@@ -1423,14 +1279,8 @@
         <v>0</v>
       </c>
       <c r="I27" t="inlineStr"/>
-      <c r="J27" t="n">
-        <v>0.4676</v>
-      </c>
-      <c r="K27" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J27" t="inlineStr"/>
+      <c r="K27" t="inlineStr"/>
       <c r="L27" t="n">
         <v>1</v>
       </c>
@@ -1462,14 +1312,8 @@
         <v>0</v>
       </c>
       <c r="I28" t="inlineStr"/>
-      <c r="J28" t="n">
-        <v>0.4676</v>
-      </c>
-      <c r="K28" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J28" t="inlineStr"/>
+      <c r="K28" t="inlineStr"/>
       <c r="L28" t="n">
         <v>1</v>
       </c>
@@ -1501,14 +1345,8 @@
         <v>0</v>
       </c>
       <c r="I29" t="inlineStr"/>
-      <c r="J29" t="n">
-        <v>0.4676</v>
-      </c>
-      <c r="K29" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J29" t="inlineStr"/>
+      <c r="K29" t="inlineStr"/>
       <c r="L29" t="n">
         <v>1</v>
       </c>
@@ -1540,14 +1378,8 @@
         <v>0</v>
       </c>
       <c r="I30" t="inlineStr"/>
-      <c r="J30" t="n">
-        <v>0.4676</v>
-      </c>
-      <c r="K30" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J30" t="inlineStr"/>
+      <c r="K30" t="inlineStr"/>
       <c r="L30" t="n">
         <v>1</v>
       </c>
@@ -1579,14 +1411,8 @@
         <v>0</v>
       </c>
       <c r="I31" t="inlineStr"/>
-      <c r="J31" t="n">
-        <v>0.4676</v>
-      </c>
-      <c r="K31" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J31" t="inlineStr"/>
+      <c r="K31" t="inlineStr"/>
       <c r="L31" t="n">
         <v>1</v>
       </c>
@@ -1618,14 +1444,8 @@
         <v>0</v>
       </c>
       <c r="I32" t="inlineStr"/>
-      <c r="J32" t="n">
-        <v>0.4676</v>
-      </c>
-      <c r="K32" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J32" t="inlineStr"/>
+      <c r="K32" t="inlineStr"/>
       <c r="L32" t="n">
         <v>1</v>
       </c>
@@ -1657,14 +1477,8 @@
         <v>0</v>
       </c>
       <c r="I33" t="inlineStr"/>
-      <c r="J33" t="n">
-        <v>0.4676</v>
-      </c>
-      <c r="K33" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J33" t="inlineStr"/>
+      <c r="K33" t="inlineStr"/>
       <c r="L33" t="n">
         <v>1</v>
       </c>
@@ -1696,14 +1510,8 @@
         <v>0</v>
       </c>
       <c r="I34" t="inlineStr"/>
-      <c r="J34" t="n">
-        <v>0.4676</v>
-      </c>
-      <c r="K34" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J34" t="inlineStr"/>
+      <c r="K34" t="inlineStr"/>
       <c r="L34" t="n">
         <v>1</v>
       </c>
@@ -1735,14 +1543,8 @@
         <v>0</v>
       </c>
       <c r="I35" t="inlineStr"/>
-      <c r="J35" t="n">
-        <v>0.4676</v>
-      </c>
-      <c r="K35" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J35" t="inlineStr"/>
+      <c r="K35" t="inlineStr"/>
       <c r="L35" t="n">
         <v>1</v>
       </c>
@@ -1774,14 +1576,8 @@
         <v>0</v>
       </c>
       <c r="I36" t="inlineStr"/>
-      <c r="J36" t="n">
-        <v>0.4676</v>
-      </c>
-      <c r="K36" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J36" t="inlineStr"/>
+      <c r="K36" t="inlineStr"/>
       <c r="L36" t="n">
         <v>1</v>
       </c>
@@ -1813,14 +1609,8 @@
         <v>0</v>
       </c>
       <c r="I37" t="inlineStr"/>
-      <c r="J37" t="n">
-        <v>0.4676</v>
-      </c>
-      <c r="K37" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J37" t="inlineStr"/>
+      <c r="K37" t="inlineStr"/>
       <c r="L37" t="n">
         <v>1</v>
       </c>
@@ -1852,14 +1642,8 @@
         <v>0</v>
       </c>
       <c r="I38" t="inlineStr"/>
-      <c r="J38" t="n">
-        <v>0.4676</v>
-      </c>
-      <c r="K38" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J38" t="inlineStr"/>
+      <c r="K38" t="inlineStr"/>
       <c r="L38" t="n">
         <v>1</v>
       </c>
@@ -1891,14 +1675,8 @@
         <v>0</v>
       </c>
       <c r="I39" t="inlineStr"/>
-      <c r="J39" t="n">
-        <v>0.4676</v>
-      </c>
-      <c r="K39" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J39" t="inlineStr"/>
+      <c r="K39" t="inlineStr"/>
       <c r="L39" t="n">
         <v>1</v>
       </c>
@@ -1930,14 +1708,8 @@
         <v>0</v>
       </c>
       <c r="I40" t="inlineStr"/>
-      <c r="J40" t="n">
-        <v>0.4676</v>
-      </c>
-      <c r="K40" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J40" t="inlineStr"/>
+      <c r="K40" t="inlineStr"/>
       <c r="L40" t="n">
         <v>1</v>
       </c>
@@ -1969,14 +1741,8 @@
         <v>0</v>
       </c>
       <c r="I41" t="inlineStr"/>
-      <c r="J41" t="n">
-        <v>0.4676</v>
-      </c>
-      <c r="K41" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J41" t="inlineStr"/>
+      <c r="K41" t="inlineStr"/>
       <c r="L41" t="n">
         <v>1</v>
       </c>
@@ -2008,14 +1774,8 @@
         <v>0</v>
       </c>
       <c r="I42" t="inlineStr"/>
-      <c r="J42" t="n">
-        <v>0.4676</v>
-      </c>
-      <c r="K42" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J42" t="inlineStr"/>
+      <c r="K42" t="inlineStr"/>
       <c r="L42" t="n">
         <v>1</v>
       </c>
@@ -2047,14 +1807,8 @@
         <v>0</v>
       </c>
       <c r="I43" t="inlineStr"/>
-      <c r="J43" t="n">
-        <v>0.4676</v>
-      </c>
-      <c r="K43" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J43" t="inlineStr"/>
+      <c r="K43" t="inlineStr"/>
       <c r="L43" t="n">
         <v>1</v>
       </c>
@@ -2086,14 +1840,8 @@
         <v>0</v>
       </c>
       <c r="I44" t="inlineStr"/>
-      <c r="J44" t="n">
-        <v>0.4676</v>
-      </c>
-      <c r="K44" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J44" t="inlineStr"/>
+      <c r="K44" t="inlineStr"/>
       <c r="L44" t="n">
         <v>1</v>
       </c>
@@ -2125,14 +1873,8 @@
         <v>0</v>
       </c>
       <c r="I45" t="inlineStr"/>
-      <c r="J45" t="n">
-        <v>0.4676</v>
-      </c>
-      <c r="K45" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J45" t="inlineStr"/>
+      <c r="K45" t="inlineStr"/>
       <c r="L45" t="n">
         <v>1</v>
       </c>
@@ -2164,14 +1906,8 @@
         <v>0</v>
       </c>
       <c r="I46" t="inlineStr"/>
-      <c r="J46" t="n">
-        <v>0.4676</v>
-      </c>
-      <c r="K46" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J46" t="inlineStr"/>
+      <c r="K46" t="inlineStr"/>
       <c r="L46" t="n">
         <v>1</v>
       </c>
@@ -2203,14 +1939,8 @@
         <v>0</v>
       </c>
       <c r="I47" t="inlineStr"/>
-      <c r="J47" t="n">
-        <v>0.4676</v>
-      </c>
-      <c r="K47" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J47" t="inlineStr"/>
+      <c r="K47" t="inlineStr"/>
       <c r="L47" t="n">
         <v>1</v>
       </c>
@@ -2242,14 +1972,8 @@
         <v>0</v>
       </c>
       <c r="I48" t="inlineStr"/>
-      <c r="J48" t="n">
-        <v>0.4676</v>
-      </c>
-      <c r="K48" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J48" t="inlineStr"/>
+      <c r="K48" t="inlineStr"/>
       <c r="L48" t="n">
         <v>1</v>
       </c>
@@ -2281,14 +2005,8 @@
         <v>0</v>
       </c>
       <c r="I49" t="inlineStr"/>
-      <c r="J49" t="n">
-        <v>0.4676</v>
-      </c>
-      <c r="K49" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J49" t="inlineStr"/>
+      <c r="K49" t="inlineStr"/>
       <c r="L49" t="n">
         <v>1</v>
       </c>
@@ -2320,14 +2038,8 @@
         <v>0</v>
       </c>
       <c r="I50" t="inlineStr"/>
-      <c r="J50" t="n">
-        <v>0.4676</v>
-      </c>
-      <c r="K50" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J50" t="inlineStr"/>
+      <c r="K50" t="inlineStr"/>
       <c r="L50" t="n">
         <v>1</v>
       </c>
@@ -2359,14 +2071,8 @@
         <v>0</v>
       </c>
       <c r="I51" t="inlineStr"/>
-      <c r="J51" t="n">
-        <v>0.4676</v>
-      </c>
-      <c r="K51" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J51" t="inlineStr"/>
+      <c r="K51" t="inlineStr"/>
       <c r="L51" t="n">
         <v>1</v>
       </c>
@@ -2395,15 +2101,15 @@
         <v>55776111.46348678</v>
       </c>
       <c r="H52" t="n">
-        <v>0</v>
-      </c>
-      <c r="I52" t="inlineStr"/>
-      <c r="J52" t="n">
-        <v>0.4676</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I52" t="n">
+        <v>0.4552</v>
+      </c>
+      <c r="J52" t="inlineStr"/>
       <c r="K52" t="inlineStr">
         <is>
-          <t>매도 대기</t>
+          <t>매수 체결</t>
         </is>
       </c>
       <c r="L52" t="n">
@@ -2434,12 +2140,12 @@
         <v>55776111.46348678</v>
       </c>
       <c r="H53" t="n">
-        <v>0</v>
-      </c>
-      <c r="I53" t="inlineStr"/>
-      <c r="J53" t="n">
-        <v>0.4676</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I53" t="n">
+        <v>0.4651</v>
+      </c>
+      <c r="J53" t="inlineStr"/>
       <c r="K53" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2473,12 +2179,12 @@
         <v>55684650.67398678</v>
       </c>
       <c r="H54" t="n">
-        <v>0</v>
-      </c>
-      <c r="I54" t="inlineStr"/>
-      <c r="J54" t="n">
-        <v>0.4676</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I54" t="n">
+        <v>0.4651</v>
+      </c>
+      <c r="J54" t="inlineStr"/>
       <c r="K54" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2512,12 +2218,12 @@
         <v>55895151.80868678</v>
       </c>
       <c r="H55" t="n">
-        <v>0</v>
-      </c>
-      <c r="I55" t="inlineStr"/>
-      <c r="J55" t="n">
-        <v>0.4676</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I55" t="n">
+        <v>0.4488</v>
+      </c>
+      <c r="J55" t="inlineStr"/>
       <c r="K55" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2551,12 +2257,12 @@
         <v>55928551.80868678</v>
       </c>
       <c r="H56" t="n">
-        <v>0</v>
-      </c>
-      <c r="I56" t="inlineStr"/>
-      <c r="J56" t="n">
-        <v>0.4676</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I56" t="n">
+        <v>0.45</v>
+      </c>
+      <c r="J56" t="inlineStr"/>
       <c r="K56" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2590,12 +2296,12 @@
         <v>55928551.80868678</v>
       </c>
       <c r="H57" t="n">
-        <v>0</v>
-      </c>
-      <c r="I57" t="inlineStr"/>
-      <c r="J57" t="n">
-        <v>0.4676</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I57" t="n">
+        <v>0.464</v>
+      </c>
+      <c r="J57" t="inlineStr"/>
       <c r="K57" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2629,12 +2335,12 @@
         <v>56829752.42058678</v>
       </c>
       <c r="H58" t="n">
-        <v>0</v>
-      </c>
-      <c r="I58" t="inlineStr"/>
-      <c r="J58" t="n">
-        <v>0.4676</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I58" t="n">
+        <v>0.464</v>
+      </c>
+      <c r="J58" t="inlineStr"/>
       <c r="K58" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2668,12 +2374,12 @@
         <v>64713999.86968678</v>
       </c>
       <c r="H59" t="n">
-        <v>0</v>
-      </c>
-      <c r="I59" t="inlineStr"/>
-      <c r="J59" t="n">
-        <v>0.4676</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I59" t="n">
+        <v>0.467</v>
+      </c>
+      <c r="J59" t="inlineStr"/>
       <c r="K59" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2707,12 +2413,12 @@
         <v>68199604.19258678</v>
       </c>
       <c r="H60" t="n">
-        <v>0</v>
-      </c>
-      <c r="I60" t="inlineStr"/>
-      <c r="J60" t="n">
-        <v>0.4676</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I60" t="n">
+        <v>0.468</v>
+      </c>
+      <c r="J60" t="inlineStr"/>
       <c r="K60" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2746,12 +2452,12 @@
         <v>68181326.16281547</v>
       </c>
       <c r="H61" t="n">
-        <v>0</v>
-      </c>
-      <c r="I61" t="inlineStr"/>
-      <c r="J61" t="n">
-        <v>0.4676</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I61" t="n">
+        <v>0.4776</v>
+      </c>
+      <c r="J61" t="inlineStr"/>
       <c r="K61" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2785,12 +2491,12 @@
         <v>68181326.16281547</v>
       </c>
       <c r="H62" t="n">
-        <v>0</v>
-      </c>
-      <c r="I62" t="inlineStr"/>
-      <c r="J62" t="n">
-        <v>0.4676</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I62" t="n">
+        <v>0.468</v>
+      </c>
+      <c r="J62" t="inlineStr"/>
       <c r="K62" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2827,9 +2533,7 @@
         <v>0</v>
       </c>
       <c r="I63" t="inlineStr"/>
-      <c r="J63" t="n">
-        <v>0.4676</v>
-      </c>
+      <c r="J63" t="inlineStr"/>
       <c r="K63" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2866,9 +2570,7 @@
         <v>0</v>
       </c>
       <c r="I64" t="inlineStr"/>
-      <c r="J64" t="n">
-        <v>0.4676</v>
-      </c>
+      <c r="J64" t="inlineStr"/>
       <c r="K64" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2905,9 +2607,7 @@
         <v>0</v>
       </c>
       <c r="I65" t="inlineStr"/>
-      <c r="J65" t="n">
-        <v>0.4676</v>
-      </c>
+      <c r="J65" t="inlineStr"/>
       <c r="K65" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2944,9 +2644,7 @@
         <v>0</v>
       </c>
       <c r="I66" t="inlineStr"/>
-      <c r="J66" t="n">
-        <v>0.4676</v>
-      </c>
+      <c r="J66" t="inlineStr"/>
       <c r="K66" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2983,9 +2681,7 @@
         <v>0</v>
       </c>
       <c r="I67" t="inlineStr"/>
-      <c r="J67" t="n">
-        <v>0.4676</v>
-      </c>
+      <c r="J67" t="inlineStr"/>
       <c r="K67" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3022,9 +2718,7 @@
         <v>0</v>
       </c>
       <c r="I68" t="inlineStr"/>
-      <c r="J68" t="n">
-        <v>0.4676</v>
-      </c>
+      <c r="J68" t="inlineStr"/>
       <c r="K68" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3058,12 +2752,12 @@
         <v>59060279.61168864</v>
       </c>
       <c r="H69" t="n">
-        <v>0</v>
-      </c>
-      <c r="I69" t="inlineStr"/>
-      <c r="J69" t="n">
-        <v>0.4676</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I69" t="n">
+        <v>0.464</v>
+      </c>
+      <c r="J69" t="inlineStr"/>
       <c r="K69" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3100,9 +2794,7 @@
         <v>0</v>
       </c>
       <c r="I70" t="inlineStr"/>
-      <c r="J70" t="n">
-        <v>0.4676</v>
-      </c>
+      <c r="J70" t="inlineStr"/>
       <c r="K70" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3139,9 +2831,7 @@
         <v>0</v>
       </c>
       <c r="I71" t="inlineStr"/>
-      <c r="J71" t="n">
-        <v>0.4676</v>
-      </c>
+      <c r="J71" t="inlineStr"/>
       <c r="K71" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3178,9 +2868,7 @@
         <v>0</v>
       </c>
       <c r="I72" t="inlineStr"/>
-      <c r="J72" t="n">
-        <v>0.4676</v>
-      </c>
+      <c r="J72" t="inlineStr"/>
       <c r="K72" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3217,9 +2905,7 @@
         <v>0</v>
       </c>
       <c r="I73" t="inlineStr"/>
-      <c r="J73" t="n">
-        <v>0.4676</v>
-      </c>
+      <c r="J73" t="inlineStr"/>
       <c r="K73" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3256,9 +2942,7 @@
         <v>0</v>
       </c>
       <c r="I74" t="inlineStr"/>
-      <c r="J74" t="n">
-        <v>0.4676</v>
-      </c>
+      <c r="J74" t="inlineStr"/>
       <c r="K74" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3295,9 +2979,7 @@
         <v>0</v>
       </c>
       <c r="I75" t="inlineStr"/>
-      <c r="J75" t="n">
-        <v>0.4676</v>
-      </c>
+      <c r="J75" t="inlineStr"/>
       <c r="K75" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3334,9 +3016,7 @@
         <v>0</v>
       </c>
       <c r="I76" t="inlineStr"/>
-      <c r="J76" t="n">
-        <v>0.4676</v>
-      </c>
+      <c r="J76" t="inlineStr"/>
       <c r="K76" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3373,9 +3053,7 @@
         <v>0</v>
       </c>
       <c r="I77" t="inlineStr"/>
-      <c r="J77" t="n">
-        <v>0.4676</v>
-      </c>
+      <c r="J77" t="inlineStr"/>
       <c r="K77" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3412,9 +3090,7 @@
         <v>0</v>
       </c>
       <c r="I78" t="inlineStr"/>
-      <c r="J78" t="n">
-        <v>0.4676</v>
-      </c>
+      <c r="J78" t="inlineStr"/>
       <c r="K78" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3451,9 +3127,7 @@
         <v>0</v>
       </c>
       <c r="I79" t="inlineStr"/>
-      <c r="J79" t="n">
-        <v>0.4676</v>
-      </c>
+      <c r="J79" t="inlineStr"/>
       <c r="K79" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3490,9 +3164,7 @@
         <v>0</v>
       </c>
       <c r="I80" t="inlineStr"/>
-      <c r="J80" t="n">
-        <v>0.4676</v>
-      </c>
+      <c r="J80" t="inlineStr"/>
       <c r="K80" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3529,9 +3201,7 @@
         <v>0</v>
       </c>
       <c r="I81" t="inlineStr"/>
-      <c r="J81" t="n">
-        <v>0.4676</v>
-      </c>
+      <c r="J81" t="inlineStr"/>
       <c r="K81" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3568,9 +3238,7 @@
         <v>0</v>
       </c>
       <c r="I82" t="inlineStr"/>
-      <c r="J82" t="n">
-        <v>0.4676</v>
-      </c>
+      <c r="J82" t="inlineStr"/>
       <c r="K82" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3607,9 +3275,7 @@
         <v>0</v>
       </c>
       <c r="I83" t="inlineStr"/>
-      <c r="J83" t="n">
-        <v>0.4676</v>
-      </c>
+      <c r="J83" t="inlineStr"/>
       <c r="K83" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3646,9 +3312,7 @@
         <v>0</v>
       </c>
       <c r="I84" t="inlineStr"/>
-      <c r="J84" t="n">
-        <v>0.4676</v>
-      </c>
+      <c r="J84" t="inlineStr"/>
       <c r="K84" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3685,9 +3349,7 @@
         <v>0</v>
       </c>
       <c r="I85" t="inlineStr"/>
-      <c r="J85" t="n">
-        <v>0.4676</v>
-      </c>
+      <c r="J85" t="inlineStr"/>
       <c r="K85" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3724,9 +3386,7 @@
         <v>0</v>
       </c>
       <c r="I86" t="inlineStr"/>
-      <c r="J86" t="n">
-        <v>0.4676</v>
-      </c>
+      <c r="J86" t="inlineStr"/>
       <c r="K86" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3763,9 +3423,7 @@
         <v>0</v>
       </c>
       <c r="I87" t="inlineStr"/>
-      <c r="J87" t="n">
-        <v>0.4676</v>
-      </c>
+      <c r="J87" t="inlineStr"/>
       <c r="K87" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3802,9 +3460,7 @@
         <v>0</v>
       </c>
       <c r="I88" t="inlineStr"/>
-      <c r="J88" t="n">
-        <v>0.4676</v>
-      </c>
+      <c r="J88" t="inlineStr"/>
       <c r="K88" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3841,9 +3497,7 @@
         <v>0</v>
       </c>
       <c r="I89" t="inlineStr"/>
-      <c r="J89" t="n">
-        <v>0.4676</v>
-      </c>
+      <c r="J89" t="inlineStr"/>
       <c r="K89" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3880,9 +3534,7 @@
         <v>0</v>
       </c>
       <c r="I90" t="inlineStr"/>
-      <c r="J90" t="n">
-        <v>0.4676</v>
-      </c>
+      <c r="J90" t="inlineStr"/>
       <c r="K90" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3919,9 +3571,7 @@
         <v>0</v>
       </c>
       <c r="I91" t="inlineStr"/>
-      <c r="J91" t="n">
-        <v>0.4676</v>
-      </c>
+      <c r="J91" t="inlineStr"/>
       <c r="K91" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3958,9 +3608,7 @@
         <v>0</v>
       </c>
       <c r="I92" t="inlineStr"/>
-      <c r="J92" t="n">
-        <v>0.4676</v>
-      </c>
+      <c r="J92" t="inlineStr"/>
       <c r="K92" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3997,9 +3645,7 @@
         <v>0</v>
       </c>
       <c r="I93" t="inlineStr"/>
-      <c r="J93" t="n">
-        <v>0.4676</v>
-      </c>
+      <c r="J93" t="inlineStr"/>
       <c r="K93" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4036,9 +3682,7 @@
         <v>0</v>
       </c>
       <c r="I94" t="inlineStr"/>
-      <c r="J94" t="n">
-        <v>0.4676</v>
-      </c>
+      <c r="J94" t="inlineStr"/>
       <c r="K94" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4075,9 +3719,7 @@
         <v>0</v>
       </c>
       <c r="I95" t="inlineStr"/>
-      <c r="J95" t="n">
-        <v>0.4676</v>
-      </c>
+      <c r="J95" t="inlineStr"/>
       <c r="K95" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4114,9 +3756,7 @@
         <v>0</v>
       </c>
       <c r="I96" t="inlineStr"/>
-      <c r="J96" t="n">
-        <v>0.4676</v>
-      </c>
+      <c r="J96" t="inlineStr"/>
       <c r="K96" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4153,9 +3793,7 @@
         <v>0</v>
       </c>
       <c r="I97" t="inlineStr"/>
-      <c r="J97" t="n">
-        <v>0.4676</v>
-      </c>
+      <c r="J97" t="inlineStr"/>
       <c r="K97" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4192,9 +3830,7 @@
         <v>0</v>
       </c>
       <c r="I98" t="inlineStr"/>
-      <c r="J98" t="n">
-        <v>0.4676</v>
-      </c>
+      <c r="J98" t="inlineStr"/>
       <c r="K98" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4231,9 +3867,7 @@
         <v>0</v>
       </c>
       <c r="I99" t="inlineStr"/>
-      <c r="J99" t="n">
-        <v>0.4676</v>
-      </c>
+      <c r="J99" t="inlineStr"/>
       <c r="K99" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4270,9 +3904,7 @@
         <v>0</v>
       </c>
       <c r="I100" t="inlineStr"/>
-      <c r="J100" t="n">
-        <v>0.4676</v>
-      </c>
+      <c r="J100" t="inlineStr"/>
       <c r="K100" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4309,9 +3941,7 @@
         <v>0</v>
       </c>
       <c r="I101" t="inlineStr"/>
-      <c r="J101" t="n">
-        <v>0.4676</v>
-      </c>
+      <c r="J101" t="inlineStr"/>
       <c r="K101" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4348,9 +3978,7 @@
         <v>0</v>
       </c>
       <c r="I102" t="inlineStr"/>
-      <c r="J102" t="n">
-        <v>0.4676</v>
-      </c>
+      <c r="J102" t="inlineStr"/>
       <c r="K102" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4387,9 +4015,7 @@
         <v>0</v>
       </c>
       <c r="I103" t="inlineStr"/>
-      <c r="J103" t="n">
-        <v>0.4676</v>
-      </c>
+      <c r="J103" t="inlineStr"/>
       <c r="K103" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4426,9 +4052,7 @@
         <v>0</v>
       </c>
       <c r="I104" t="inlineStr"/>
-      <c r="J104" t="n">
-        <v>0.4676</v>
-      </c>
+      <c r="J104" t="inlineStr"/>
       <c r="K104" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4465,9 +4089,7 @@
         <v>0</v>
       </c>
       <c r="I105" t="inlineStr"/>
-      <c r="J105" t="n">
-        <v>0.4676</v>
-      </c>
+      <c r="J105" t="inlineStr"/>
       <c r="K105" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4504,9 +4126,7 @@
         <v>0</v>
       </c>
       <c r="I106" t="inlineStr"/>
-      <c r="J106" t="n">
-        <v>0.4676</v>
-      </c>
+      <c r="J106" t="inlineStr"/>
       <c r="K106" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4543,9 +4163,7 @@
         <v>0</v>
       </c>
       <c r="I107" t="inlineStr"/>
-      <c r="J107" t="n">
-        <v>0.4676</v>
-      </c>
+      <c r="J107" t="inlineStr"/>
       <c r="K107" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4582,9 +4200,7 @@
         <v>0</v>
       </c>
       <c r="I108" t="inlineStr"/>
-      <c r="J108" t="n">
-        <v>0.4676</v>
-      </c>
+      <c r="J108" t="inlineStr"/>
       <c r="K108" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4621,9 +4237,7 @@
         <v>0</v>
       </c>
       <c r="I109" t="inlineStr"/>
-      <c r="J109" t="n">
-        <v>0.4676</v>
-      </c>
+      <c r="J109" t="inlineStr"/>
       <c r="K109" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4660,9 +4274,7 @@
         <v>0</v>
       </c>
       <c r="I110" t="inlineStr"/>
-      <c r="J110" t="n">
-        <v>0.4676</v>
-      </c>
+      <c r="J110" t="inlineStr"/>
       <c r="K110" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4699,9 +4311,7 @@
         <v>0</v>
       </c>
       <c r="I111" t="inlineStr"/>
-      <c r="J111" t="n">
-        <v>0.4676</v>
-      </c>
+      <c r="J111" t="inlineStr"/>
       <c r="K111" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4738,9 +4348,7 @@
         <v>0</v>
       </c>
       <c r="I112" t="inlineStr"/>
-      <c r="J112" t="n">
-        <v>0.4676</v>
-      </c>
+      <c r="J112" t="inlineStr"/>
       <c r="K112" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4777,9 +4385,7 @@
         <v>0</v>
       </c>
       <c r="I113" t="inlineStr"/>
-      <c r="J113" t="n">
-        <v>0.4676</v>
-      </c>
+      <c r="J113" t="inlineStr"/>
       <c r="K113" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4813,12 +4419,12 @@
         <v>62022292.5781295</v>
       </c>
       <c r="H114" t="n">
-        <v>0</v>
-      </c>
-      <c r="I114" t="inlineStr"/>
-      <c r="J114" t="n">
-        <v>0.4676</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I114" t="n">
+        <v>0.4488</v>
+      </c>
+      <c r="J114" t="inlineStr"/>
       <c r="K114" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4852,12 +4458,12 @@
         <v>62101391.3875295</v>
       </c>
       <c r="H115" t="n">
-        <v>0</v>
-      </c>
-      <c r="I115" t="inlineStr"/>
-      <c r="J115" t="n">
-        <v>0.4676</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I115" t="n">
+        <v>0.451</v>
+      </c>
+      <c r="J115" t="inlineStr"/>
       <c r="K115" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4891,12 +4497,12 @@
         <v>62106094.5568295</v>
       </c>
       <c r="H116" t="n">
-        <v>0</v>
-      </c>
-      <c r="I116" t="inlineStr"/>
-      <c r="J116" t="n">
-        <v>0.4676</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I116" t="n">
+        <v>0.452</v>
+      </c>
+      <c r="J116" t="inlineStr"/>
       <c r="K116" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4930,12 +4536,12 @@
         <v>62107815.4063295</v>
       </c>
       <c r="H117" t="n">
-        <v>0</v>
-      </c>
-      <c r="I117" t="inlineStr"/>
-      <c r="J117" t="n">
-        <v>0.4676</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I117" t="n">
+        <v>0.453</v>
+      </c>
+      <c r="J117" t="inlineStr"/>
       <c r="K117" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4969,12 +4575,12 @@
         <v>62106092.3279295</v>
       </c>
       <c r="H118" t="n">
-        <v>0</v>
-      </c>
-      <c r="I118" t="inlineStr"/>
-      <c r="J118" t="n">
-        <v>0.4676</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I118" t="n">
+        <v>0.4616</v>
+      </c>
+      <c r="J118" t="inlineStr"/>
       <c r="K118" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5011,9 +4617,7 @@
         <v>0</v>
       </c>
       <c r="I119" t="inlineStr"/>
-      <c r="J119" t="n">
-        <v>0.4676</v>
-      </c>
+      <c r="J119" t="inlineStr"/>
       <c r="K119" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5050,9 +4654,7 @@
         <v>0</v>
       </c>
       <c r="I120" t="inlineStr"/>
-      <c r="J120" t="n">
-        <v>0.4676</v>
-      </c>
+      <c r="J120" t="inlineStr"/>
       <c r="K120" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5089,9 +4691,7 @@
         <v>0</v>
       </c>
       <c r="I121" t="inlineStr"/>
-      <c r="J121" t="n">
-        <v>0.4676</v>
-      </c>
+      <c r="J121" t="inlineStr"/>
       <c r="K121" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5128,9 +4728,7 @@
         <v>0</v>
       </c>
       <c r="I122" t="inlineStr"/>
-      <c r="J122" t="n">
-        <v>0.4676</v>
-      </c>
+      <c r="J122" t="inlineStr"/>
       <c r="K122" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5167,9 +4765,7 @@
         <v>0</v>
       </c>
       <c r="I123" t="inlineStr"/>
-      <c r="J123" t="n">
-        <v>0.4676</v>
-      </c>
+      <c r="J123" t="inlineStr"/>
       <c r="K123" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5206,9 +4802,7 @@
         <v>0</v>
       </c>
       <c r="I124" t="inlineStr"/>
-      <c r="J124" t="n">
-        <v>0.4676</v>
-      </c>
+      <c r="J124" t="inlineStr"/>
       <c r="K124" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5242,12 +4836,12 @@
         <v>65665060.22652949</v>
       </c>
       <c r="H125" t="n">
-        <v>0</v>
-      </c>
-      <c r="I125" t="inlineStr"/>
-      <c r="J125" t="n">
-        <v>0.4676</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I125" t="n">
+        <v>0.4489</v>
+      </c>
+      <c r="J125" t="inlineStr"/>
       <c r="K125" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5281,12 +4875,12 @@
         <v>65666160.22652949</v>
       </c>
       <c r="H126" t="n">
-        <v>0</v>
-      </c>
-      <c r="I126" t="inlineStr"/>
-      <c r="J126" t="n">
-        <v>0.4676</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I126" t="n">
+        <v>0.46</v>
+      </c>
+      <c r="J126" t="inlineStr"/>
       <c r="K126" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5323,9 +4917,7 @@
         <v>0</v>
       </c>
       <c r="I127" t="inlineStr"/>
-      <c r="J127" t="n">
-        <v>0.4676</v>
-      </c>
+      <c r="J127" t="inlineStr"/>
       <c r="K127" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5362,9 +4954,7 @@
         <v>0</v>
       </c>
       <c r="I128" t="inlineStr"/>
-      <c r="J128" t="n">
-        <v>0.4676</v>
-      </c>
+      <c r="J128" t="inlineStr"/>
       <c r="K128" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5401,9 +4991,7 @@
         <v>0</v>
       </c>
       <c r="I129" t="inlineStr"/>
-      <c r="J129" t="n">
-        <v>0.4676</v>
-      </c>
+      <c r="J129" t="inlineStr"/>
       <c r="K129" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5440,9 +5028,7 @@
         <v>0</v>
       </c>
       <c r="I130" t="inlineStr"/>
-      <c r="J130" t="n">
-        <v>0.4676</v>
-      </c>
+      <c r="J130" t="inlineStr"/>
       <c r="K130" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5479,9 +5065,7 @@
         <v>0</v>
       </c>
       <c r="I131" t="inlineStr"/>
-      <c r="J131" t="n">
-        <v>0.4676</v>
-      </c>
+      <c r="J131" t="inlineStr"/>
       <c r="K131" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5518,9 +5102,7 @@
         <v>0</v>
       </c>
       <c r="I132" t="inlineStr"/>
-      <c r="J132" t="n">
-        <v>0.4676</v>
-      </c>
+      <c r="J132" t="inlineStr"/>
       <c r="K132" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5557,9 +5139,7 @@
         <v>0</v>
       </c>
       <c r="I133" t="inlineStr"/>
-      <c r="J133" t="n">
-        <v>0.4676</v>
-      </c>
+      <c r="J133" t="inlineStr"/>
       <c r="K133" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5596,9 +5176,7 @@
         <v>0</v>
       </c>
       <c r="I134" t="inlineStr"/>
-      <c r="J134" t="n">
-        <v>0.4676</v>
-      </c>
+      <c r="J134" t="inlineStr"/>
       <c r="K134" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5635,9 +5213,7 @@
         <v>0</v>
       </c>
       <c r="I135" t="inlineStr"/>
-      <c r="J135" t="n">
-        <v>0.4676</v>
-      </c>
+      <c r="J135" t="inlineStr"/>
       <c r="K135" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5674,9 +5250,7 @@
         <v>0</v>
       </c>
       <c r="I136" t="inlineStr"/>
-      <c r="J136" t="n">
-        <v>0.4676</v>
-      </c>
+      <c r="J136" t="inlineStr"/>
       <c r="K136" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5713,9 +5287,7 @@
         <v>0</v>
       </c>
       <c r="I137" t="inlineStr"/>
-      <c r="J137" t="n">
-        <v>0.4676</v>
-      </c>
+      <c r="J137" t="inlineStr"/>
       <c r="K137" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5752,9 +5324,7 @@
         <v>0</v>
       </c>
       <c r="I138" t="inlineStr"/>
-      <c r="J138" t="n">
-        <v>0.4676</v>
-      </c>
+      <c r="J138" t="inlineStr"/>
       <c r="K138" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5791,9 +5361,7 @@
         <v>0</v>
       </c>
       <c r="I139" t="inlineStr"/>
-      <c r="J139" t="n">
-        <v>0.4676</v>
-      </c>
+      <c r="J139" t="inlineStr"/>
       <c r="K139" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5830,9 +5398,7 @@
         <v>0</v>
       </c>
       <c r="I140" t="inlineStr"/>
-      <c r="J140" t="n">
-        <v>0.4676</v>
-      </c>
+      <c r="J140" t="inlineStr"/>
       <c r="K140" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5869,9 +5435,7 @@
         <v>0</v>
       </c>
       <c r="I141" t="inlineStr"/>
-      <c r="J141" t="n">
-        <v>0.4676</v>
-      </c>
+      <c r="J141" t="inlineStr"/>
       <c r="K141" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5908,9 +5472,7 @@
         <v>0</v>
       </c>
       <c r="I142" t="inlineStr"/>
-      <c r="J142" t="n">
-        <v>0.4676</v>
-      </c>
+      <c r="J142" t="inlineStr"/>
       <c r="K142" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5947,9 +5509,7 @@
         <v>0</v>
       </c>
       <c r="I143" t="inlineStr"/>
-      <c r="J143" t="n">
-        <v>0.4676</v>
-      </c>
+      <c r="J143" t="inlineStr"/>
       <c r="K143" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5986,9 +5546,7 @@
         <v>0</v>
       </c>
       <c r="I144" t="inlineStr"/>
-      <c r="J144" t="n">
-        <v>0.4676</v>
-      </c>
+      <c r="J144" t="inlineStr"/>
       <c r="K144" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6025,9 +5583,7 @@
         <v>0</v>
       </c>
       <c r="I145" t="inlineStr"/>
-      <c r="J145" t="n">
-        <v>0.4676</v>
-      </c>
+      <c r="J145" t="inlineStr"/>
       <c r="K145" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6064,9 +5620,7 @@
         <v>0</v>
       </c>
       <c r="I146" t="inlineStr"/>
-      <c r="J146" t="n">
-        <v>0.4676</v>
-      </c>
+      <c r="J146" t="inlineStr"/>
       <c r="K146" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6103,9 +5657,7 @@
         <v>0</v>
       </c>
       <c r="I147" t="inlineStr"/>
-      <c r="J147" t="n">
-        <v>0.4676</v>
-      </c>
+      <c r="J147" t="inlineStr"/>
       <c r="K147" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6142,9 +5694,7 @@
         <v>0</v>
       </c>
       <c r="I148" t="inlineStr"/>
-      <c r="J148" t="n">
-        <v>0.4676</v>
-      </c>
+      <c r="J148" t="inlineStr"/>
       <c r="K148" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6181,9 +5731,7 @@
         <v>0</v>
       </c>
       <c r="I149" t="inlineStr"/>
-      <c r="J149" t="n">
-        <v>0.4676</v>
-      </c>
+      <c r="J149" t="inlineStr"/>
       <c r="K149" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6220,9 +5768,7 @@
         <v>0</v>
       </c>
       <c r="I150" t="inlineStr"/>
-      <c r="J150" t="n">
-        <v>0.4676</v>
-      </c>
+      <c r="J150" t="inlineStr"/>
       <c r="K150" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6256,12 +5802,12 @@
         <v>60936022.81341904</v>
       </c>
       <c r="H151" t="n">
-        <v>0</v>
-      </c>
-      <c r="I151" t="inlineStr"/>
-      <c r="J151" t="n">
-        <v>0.4676</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I151" t="n">
+        <v>0.4451</v>
+      </c>
+      <c r="J151" t="inlineStr"/>
       <c r="K151" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6295,12 +5841,12 @@
         <v>60936022.81341904</v>
       </c>
       <c r="H152" t="n">
-        <v>0</v>
-      </c>
-      <c r="I152" t="inlineStr"/>
-      <c r="J152" t="n">
-        <v>0.4676</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I152" t="n">
+        <v>0.4565</v>
+      </c>
+      <c r="J152" t="inlineStr"/>
       <c r="K152" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6334,12 +5880,12 @@
         <v>60278016.81341904</v>
       </c>
       <c r="H153" t="n">
-        <v>0</v>
-      </c>
-      <c r="I153" t="inlineStr"/>
-      <c r="J153" t="n">
-        <v>0.4676</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I153" t="n">
+        <v>0.4565</v>
+      </c>
+      <c r="J153" t="inlineStr"/>
       <c r="K153" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6373,12 +5919,12 @@
         <v>60161446.81341904</v>
       </c>
       <c r="H154" t="n">
-        <v>0</v>
-      </c>
-      <c r="I154" t="inlineStr"/>
-      <c r="J154" t="n">
-        <v>0.4676</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I154" t="n">
+        <v>0.4562</v>
+      </c>
+      <c r="J154" t="inlineStr"/>
       <c r="K154" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6412,12 +5958,12 @@
         <v>59651749.89172421</v>
       </c>
       <c r="H155" t="n">
-        <v>0</v>
-      </c>
-      <c r="I155" t="inlineStr"/>
-      <c r="J155" t="n">
-        <v>0.4676</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I155" t="n">
+        <v>0.456</v>
+      </c>
+      <c r="J155" t="inlineStr"/>
       <c r="K155" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6454,9 +6000,7 @@
         <v>0</v>
       </c>
       <c r="I156" t="inlineStr"/>
-      <c r="J156" t="n">
-        <v>0.4676</v>
-      </c>
+      <c r="J156" t="inlineStr"/>
       <c r="K156" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6490,12 +6034,12 @@
         <v>59581649.89172421</v>
       </c>
       <c r="H157" t="n">
-        <v>0</v>
-      </c>
-      <c r="I157" t="inlineStr"/>
-      <c r="J157" t="n">
-        <v>0.4676</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I157" t="n">
+        <v>0.4555</v>
+      </c>
+      <c r="J157" t="inlineStr"/>
       <c r="K157" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6529,12 +6073,12 @@
         <v>59581649.89172421</v>
       </c>
       <c r="H158" t="n">
-        <v>0</v>
-      </c>
-      <c r="I158" t="inlineStr"/>
-      <c r="J158" t="n">
-        <v>0.4676</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I158" t="n">
+        <v>0.4466</v>
+      </c>
+      <c r="J158" t="inlineStr"/>
       <c r="K158" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6568,12 +6112,12 @@
         <v>59581649.89172421</v>
       </c>
       <c r="H159" t="n">
-        <v>0</v>
-      </c>
-      <c r="I159" t="inlineStr"/>
-      <c r="J159" t="n">
-        <v>0.4676</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I159" t="n">
+        <v>0.4466</v>
+      </c>
+      <c r="J159" t="inlineStr"/>
       <c r="K159" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6607,12 +6151,12 @@
         <v>59581649.89172421</v>
       </c>
       <c r="H160" t="n">
-        <v>0</v>
-      </c>
-      <c r="I160" t="inlineStr"/>
-      <c r="J160" t="n">
-        <v>0.4676</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I160" t="n">
+        <v>0.4466</v>
+      </c>
+      <c r="J160" t="inlineStr"/>
       <c r="K160" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6646,12 +6190,12 @@
         <v>57272191.58332421</v>
       </c>
       <c r="H161" t="n">
-        <v>0</v>
-      </c>
-      <c r="I161" t="inlineStr"/>
-      <c r="J161" t="n">
-        <v>0.4676</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I161" t="n">
+        <v>0.4466</v>
+      </c>
+      <c r="J161" t="inlineStr"/>
       <c r="K161" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6685,12 +6229,12 @@
         <v>57272191.58332421</v>
       </c>
       <c r="H162" t="n">
-        <v>0</v>
-      </c>
-      <c r="I162" t="inlineStr"/>
-      <c r="J162" t="n">
-        <v>0.4676</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I162" t="n">
+        <v>0.4465</v>
+      </c>
+      <c r="J162" t="inlineStr"/>
       <c r="K162" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6724,12 +6268,12 @@
         <v>57397771.58332421</v>
       </c>
       <c r="H163" t="n">
-        <v>0</v>
-      </c>
-      <c r="I163" t="inlineStr"/>
-      <c r="J163" t="n">
-        <v>0.4676</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I163" t="n">
+        <v>0.4465</v>
+      </c>
+      <c r="J163" t="inlineStr"/>
       <c r="K163" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6768,9 +6312,7 @@
       <c r="I164" t="n">
         <v>0.4554</v>
       </c>
-      <c r="J164" t="n">
-        <v>0.4676</v>
-      </c>
+      <c r="J164" t="inlineStr"/>
       <c r="K164" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6809,9 +6351,7 @@
       <c r="I165" t="n">
         <v>0.4454</v>
       </c>
-      <c r="J165" t="n">
-        <v>0.4676</v>
-      </c>
+      <c r="J165" t="inlineStr"/>
       <c r="K165" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6850,9 +6390,7 @@
       <c r="I166" t="n">
         <v>0.4392</v>
       </c>
-      <c r="J166" t="n">
-        <v>0.4676</v>
-      </c>
+      <c r="J166" t="inlineStr"/>
       <c r="K166" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6891,9 +6429,7 @@
       <c r="I167" t="n">
         <v>0.4555</v>
       </c>
-      <c r="J167" t="n">
-        <v>0.4676</v>
-      </c>
+      <c r="J167" t="inlineStr"/>
       <c r="K167" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6927,12 +6463,12 @@
         <v>54714394.47842421</v>
       </c>
       <c r="H168" t="n">
-        <v>0</v>
-      </c>
-      <c r="I168" t="inlineStr"/>
-      <c r="J168" t="n">
-        <v>0.4676</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I168" t="n">
+        <v>0.4556</v>
+      </c>
+      <c r="J168" t="inlineStr"/>
       <c r="K168" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6966,12 +6502,12 @@
         <v>54714394.47842421</v>
       </c>
       <c r="H169" t="n">
-        <v>0</v>
-      </c>
-      <c r="I169" t="inlineStr"/>
-      <c r="J169" t="n">
-        <v>0.4676</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I169" t="n">
+        <v>0.4556</v>
+      </c>
+      <c r="J169" t="inlineStr"/>
       <c r="K169" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -7005,12 +6541,12 @@
         <v>56367945.9893242</v>
       </c>
       <c r="H170" t="n">
-        <v>0</v>
-      </c>
-      <c r="I170" t="inlineStr"/>
-      <c r="J170" t="n">
-        <v>0.4676</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I170" t="n">
+        <v>0.4556</v>
+      </c>
+      <c r="J170" t="inlineStr"/>
       <c r="K170" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -7044,12 +6580,12 @@
         <v>54865785.9893242</v>
       </c>
       <c r="H171" t="n">
-        <v>0</v>
-      </c>
-      <c r="I171" t="inlineStr"/>
-      <c r="J171" t="n">
-        <v>0.4676</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I171" t="n">
+        <v>0.4655</v>
+      </c>
+      <c r="J171" t="inlineStr"/>
       <c r="K171" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -7083,12 +6619,12 @@
         <v>53220646.9444242</v>
       </c>
       <c r="H172" t="n">
-        <v>0</v>
-      </c>
-      <c r="I172" t="inlineStr"/>
-      <c r="J172" t="n">
-        <v>0.4676</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I172" t="n">
+        <v>0.4556</v>
+      </c>
+      <c r="J172" t="inlineStr"/>
       <c r="K172" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -7122,12 +6658,12 @@
         <v>53314918.9444242</v>
       </c>
       <c r="H173" t="n">
-        <v>0</v>
-      </c>
-      <c r="I173" t="inlineStr"/>
-      <c r="J173" t="n">
-        <v>0.4676</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I173" t="n">
+        <v>0.4494</v>
+      </c>
+      <c r="J173" t="inlineStr"/>
       <c r="K173" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -7161,12 +6697,12 @@
         <v>53314918.9444242</v>
       </c>
       <c r="H174" t="n">
-        <v>0</v>
-      </c>
-      <c r="I174" t="inlineStr"/>
-      <c r="J174" t="n">
-        <v>0.4676</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I174" t="n">
+        <v>0.4624</v>
+      </c>
+      <c r="J174" t="inlineStr"/>
       <c r="K174" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -7200,12 +6736,12 @@
         <v>55245869.5256242</v>
       </c>
       <c r="H175" t="n">
-        <v>0</v>
-      </c>
-      <c r="I175" t="inlineStr"/>
-      <c r="J175" t="n">
-        <v>0.4676</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I175" t="n">
+        <v>0.4624</v>
+      </c>
+      <c r="J175" t="inlineStr"/>
       <c r="K175" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -7239,12 +6775,12 @@
         <v>55239339.5256242</v>
       </c>
       <c r="H176" t="n">
-        <v>0</v>
-      </c>
-      <c r="I176" t="inlineStr"/>
-      <c r="J176" t="n">
-        <v>0.4676</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I176" t="n">
+        <v>0.4657</v>
+      </c>
+      <c r="J176" t="inlineStr"/>
       <c r="K176" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -7278,12 +6814,12 @@
         <v>55239339.5256242</v>
       </c>
       <c r="H177" t="n">
-        <v>0</v>
-      </c>
-      <c r="I177" t="inlineStr"/>
-      <c r="J177" t="n">
-        <v>0.4676</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I177" t="n">
+        <v>0.4602</v>
+      </c>
+      <c r="J177" t="inlineStr"/>
       <c r="K177" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -7317,12 +6853,12 @@
         <v>55240414.5256242</v>
       </c>
       <c r="H178" t="n">
-        <v>0</v>
-      </c>
-      <c r="I178" t="inlineStr"/>
-      <c r="J178" t="n">
-        <v>0.4676</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I178" t="n">
+        <v>0.4602</v>
+      </c>
+      <c r="J178" t="inlineStr"/>
       <c r="K178" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -7356,12 +6892,12 @@
         <v>55240414.5256242</v>
       </c>
       <c r="H179" t="n">
-        <v>0</v>
-      </c>
-      <c r="I179" t="inlineStr"/>
-      <c r="J179" t="n">
-        <v>0.4676</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I179" t="n">
+        <v>0.4654</v>
+      </c>
+      <c r="J179" t="inlineStr"/>
       <c r="K179" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -7398,9 +6934,7 @@
         <v>0</v>
       </c>
       <c r="I180" t="inlineStr"/>
-      <c r="J180" t="n">
-        <v>0.4676</v>
-      </c>
+      <c r="J180" t="inlineStr"/>
       <c r="K180" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -7434,12 +6968,12 @@
         <v>55095664.7676242</v>
       </c>
       <c r="H181" t="n">
-        <v>0</v>
-      </c>
-      <c r="I181" t="inlineStr"/>
-      <c r="J181" t="n">
-        <v>0.4676</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I181" t="n">
+        <v>0.4607</v>
+      </c>
+      <c r="J181" t="inlineStr"/>
       <c r="K181" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -7473,12 +7007,12 @@
         <v>55092664.7676242</v>
       </c>
       <c r="H182" t="n">
-        <v>0</v>
-      </c>
-      <c r="I182" t="inlineStr"/>
-      <c r="J182" t="n">
-        <v>0.4676</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I182" t="n">
+        <v>0.469</v>
+      </c>
+      <c r="J182" t="inlineStr"/>
       <c r="K182" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -7512,12 +7046,12 @@
         <v>54862169.8334242</v>
       </c>
       <c r="H183" t="n">
-        <v>0</v>
-      </c>
-      <c r="I183" t="inlineStr"/>
-      <c r="J183" t="n">
-        <v>0.4676</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I183" t="n">
+        <v>0.4609</v>
+      </c>
+      <c r="J183" t="inlineStr"/>
       <c r="K183" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -7551,12 +7085,12 @@
         <v>55245147.0069242</v>
       </c>
       <c r="H184" t="n">
-        <v>0</v>
-      </c>
-      <c r="I184" t="inlineStr"/>
-      <c r="J184" t="n">
-        <v>0.4676</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I184" t="n">
+        <v>0.4511</v>
+      </c>
+      <c r="J184" t="inlineStr"/>
       <c r="K184" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -7590,12 +7124,12 @@
         <v>55238613.42642421</v>
       </c>
       <c r="H185" t="n">
-        <v>0</v>
-      </c>
-      <c r="I185" t="inlineStr"/>
-      <c r="J185" t="n">
-        <v>0.4676</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I185" t="n">
+        <v>0.4677</v>
+      </c>
+      <c r="J185" t="inlineStr"/>
       <c r="K185" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -7629,12 +7163,12 @@
         <v>54800291.42642421</v>
       </c>
       <c r="H186" t="n">
-        <v>0</v>
-      </c>
-      <c r="I186" t="inlineStr"/>
-      <c r="J186" t="n">
+        <v>1</v>
+      </c>
+      <c r="I186" t="n">
         <v>0.4676</v>
       </c>
+      <c r="J186" t="inlineStr"/>
       <c r="K186" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -7668,12 +7202,12 @@
         <v>55100291.42642421</v>
       </c>
       <c r="H187" t="n">
-        <v>0</v>
-      </c>
-      <c r="I187" t="inlineStr"/>
-      <c r="J187" t="n">
-        <v>0.4676</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I187" t="n">
+        <v>0.4531</v>
+      </c>
+      <c r="J187" t="inlineStr"/>
       <c r="K187" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -7707,12 +7241,12 @@
         <v>53818250.23152421</v>
       </c>
       <c r="H188" t="n">
-        <v>0</v>
-      </c>
-      <c r="I188" t="inlineStr"/>
-      <c r="J188" t="n">
-        <v>0.4676</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I188" t="n">
+        <v>0.4559</v>
+      </c>
+      <c r="J188" t="inlineStr"/>
       <c r="K188" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -7746,12 +7280,12 @@
         <v>53877933.23152421</v>
       </c>
       <c r="H189" t="n">
-        <v>0</v>
-      </c>
-      <c r="I189" t="inlineStr"/>
-      <c r="J189" t="n">
-        <v>0.4676</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I189" t="n">
+        <v>0.443</v>
+      </c>
+      <c r="J189" t="inlineStr"/>
       <c r="K189" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -7785,12 +7319,12 @@
         <v>53877933.23152421</v>
       </c>
       <c r="H190" t="n">
-        <v>0</v>
-      </c>
-      <c r="I190" t="inlineStr"/>
-      <c r="J190" t="n">
-        <v>0.4676</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I190" t="n">
+        <v>0.4545</v>
+      </c>
+      <c r="J190" t="inlineStr"/>
       <c r="K190" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -7824,12 +7358,12 @@
         <v>54596208.72142421</v>
       </c>
       <c r="H191" t="n">
-        <v>0</v>
-      </c>
-      <c r="I191" t="inlineStr"/>
-      <c r="J191" t="n">
-        <v>0.4676</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I191" t="n">
+        <v>0.4545</v>
+      </c>
+      <c r="J191" t="inlineStr"/>
       <c r="K191" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -7863,12 +7397,12 @@
         <v>50768307.97552421</v>
       </c>
       <c r="H192" t="n">
-        <v>0</v>
-      </c>
-      <c r="I192" t="inlineStr"/>
-      <c r="J192" t="n">
-        <v>0.4676</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I192" t="n">
+        <v>0.4645</v>
+      </c>
+      <c r="J192" t="inlineStr"/>
       <c r="K192" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -7902,12 +7436,12 @@
         <v>66307652.13359644</v>
       </c>
       <c r="H193" t="n">
-        <v>0</v>
-      </c>
-      <c r="I193" t="inlineStr"/>
-      <c r="J193" t="n">
-        <v>0.4676</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I193" t="n">
+        <v>0.4643</v>
+      </c>
+      <c r="J193" t="inlineStr"/>
       <c r="K193" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -7944,9 +7478,7 @@
         <v>0</v>
       </c>
       <c r="I194" t="inlineStr"/>
-      <c r="J194" t="n">
-        <v>0.4676</v>
-      </c>
+      <c r="J194" t="inlineStr"/>
       <c r="K194" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -7980,12 +7512,12 @@
         <v>65817361.24539644</v>
       </c>
       <c r="H195" t="n">
-        <v>0</v>
-      </c>
-      <c r="I195" t="inlineStr"/>
-      <c r="J195" t="n">
-        <v>0.4676</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I195" t="n">
+        <v>0.46</v>
+      </c>
+      <c r="J195" t="inlineStr"/>
       <c r="K195" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -8022,9 +7554,7 @@
         <v>0</v>
       </c>
       <c r="I196" t="inlineStr"/>
-      <c r="J196" t="n">
-        <v>0.4676</v>
-      </c>
+      <c r="J196" t="inlineStr"/>
       <c r="K196" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -8061,9 +7591,7 @@
         <v>0</v>
       </c>
       <c r="I197" t="inlineStr"/>
-      <c r="J197" t="n">
-        <v>0.4676</v>
-      </c>
+      <c r="J197" t="inlineStr"/>
       <c r="K197" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -8100,9 +7628,7 @@
         <v>0</v>
       </c>
       <c r="I198" t="inlineStr"/>
-      <c r="J198" t="n">
-        <v>0.4676</v>
-      </c>
+      <c r="J198" t="inlineStr"/>
       <c r="K198" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -8139,9 +7665,7 @@
         <v>0</v>
       </c>
       <c r="I199" t="inlineStr"/>
-      <c r="J199" t="n">
-        <v>0.4676</v>
-      </c>
+      <c r="J199" t="inlineStr"/>
       <c r="K199" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -8178,9 +7702,7 @@
         <v>0</v>
       </c>
       <c r="I200" t="inlineStr"/>
-      <c r="J200" t="n">
-        <v>0.4676</v>
-      </c>
+      <c r="J200" t="inlineStr"/>
       <c r="K200" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -8217,9 +7739,7 @@
         <v>0</v>
       </c>
       <c r="I201" t="inlineStr"/>
-      <c r="J201" t="n">
-        <v>0.4676</v>
-      </c>
+      <c r="J201" t="inlineStr"/>
       <c r="K201" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -8256,9 +7776,7 @@
         <v>0</v>
       </c>
       <c r="I202" t="inlineStr"/>
-      <c r="J202" t="n">
-        <v>0.4676</v>
-      </c>
+      <c r="J202" t="inlineStr"/>
       <c r="K202" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -8295,9 +7813,7 @@
         <v>0</v>
       </c>
       <c r="I203" t="inlineStr"/>
-      <c r="J203" t="n">
-        <v>0.4676</v>
-      </c>
+      <c r="J203" t="inlineStr"/>
       <c r="K203" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -8334,9 +7850,7 @@
         <v>0</v>
       </c>
       <c r="I204" t="inlineStr"/>
-      <c r="J204" t="n">
-        <v>0.4676</v>
-      </c>
+      <c r="J204" t="inlineStr"/>
       <c r="K204" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -8373,9 +7887,7 @@
         <v>0</v>
       </c>
       <c r="I205" t="inlineStr"/>
-      <c r="J205" t="n">
-        <v>0.4676</v>
-      </c>
+      <c r="J205" t="inlineStr"/>
       <c r="K205" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -8412,9 +7924,7 @@
         <v>0</v>
       </c>
       <c r="I206" t="inlineStr"/>
-      <c r="J206" t="n">
-        <v>0.4676</v>
-      </c>
+      <c r="J206" t="inlineStr"/>
       <c r="K206" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -8451,9 +7961,7 @@
         <v>0</v>
       </c>
       <c r="I207" t="inlineStr"/>
-      <c r="J207" t="n">
-        <v>0.4676</v>
-      </c>
+      <c r="J207" t="inlineStr"/>
       <c r="K207" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -8490,9 +7998,7 @@
         <v>0</v>
       </c>
       <c r="I208" t="inlineStr"/>
-      <c r="J208" t="n">
-        <v>0.4676</v>
-      </c>
+      <c r="J208" t="inlineStr"/>
       <c r="K208" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -8529,9 +8035,7 @@
         <v>0</v>
       </c>
       <c r="I209" t="inlineStr"/>
-      <c r="J209" t="n">
-        <v>0.4676</v>
-      </c>
+      <c r="J209" t="inlineStr"/>
       <c r="K209" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -8568,9 +8072,7 @@
         <v>0</v>
       </c>
       <c r="I210" t="inlineStr"/>
-      <c r="J210" t="n">
-        <v>0.4676</v>
-      </c>
+      <c r="J210" t="inlineStr"/>
       <c r="K210" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -8607,9 +8109,7 @@
         <v>0</v>
       </c>
       <c r="I211" t="inlineStr"/>
-      <c r="J211" t="n">
-        <v>0.4676</v>
-      </c>
+      <c r="J211" t="inlineStr"/>
       <c r="K211" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -8646,9 +8146,7 @@
         <v>0</v>
       </c>
       <c r="I212" t="inlineStr"/>
-      <c r="J212" t="n">
-        <v>0.4676</v>
-      </c>
+      <c r="J212" t="inlineStr"/>
       <c r="K212" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -8685,9 +8183,7 @@
         <v>0</v>
       </c>
       <c r="I213" t="inlineStr"/>
-      <c r="J213" t="n">
-        <v>0.4676</v>
-      </c>
+      <c r="J213" t="inlineStr"/>
       <c r="K213" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -8724,9 +8220,7 @@
         <v>0</v>
       </c>
       <c r="I214" t="inlineStr"/>
-      <c r="J214" t="n">
-        <v>0.4676</v>
-      </c>
+      <c r="J214" t="inlineStr"/>
       <c r="K214" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -8763,9 +8257,7 @@
         <v>0</v>
       </c>
       <c r="I215" t="inlineStr"/>
-      <c r="J215" t="n">
-        <v>0.4676</v>
-      </c>
+      <c r="J215" t="inlineStr"/>
       <c r="K215" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -8802,9 +8294,7 @@
         <v>0</v>
       </c>
       <c r="I216" t="inlineStr"/>
-      <c r="J216" t="n">
-        <v>0.4676</v>
-      </c>
+      <c r="J216" t="inlineStr"/>
       <c r="K216" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -8841,9 +8331,7 @@
         <v>0</v>
       </c>
       <c r="I217" t="inlineStr"/>
-      <c r="J217" t="n">
-        <v>0.4676</v>
-      </c>
+      <c r="J217" t="inlineStr"/>
       <c r="K217" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -8880,9 +8368,7 @@
         <v>0</v>
       </c>
       <c r="I218" t="inlineStr"/>
-      <c r="J218" t="n">
-        <v>0.4676</v>
-      </c>
+      <c r="J218" t="inlineStr"/>
       <c r="K218" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -8916,20 +8402,16 @@
         <v>95624676.68619394</v>
       </c>
       <c r="H219" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I219" t="inlineStr"/>
-      <c r="J219" t="n">
-        <v>0.4676</v>
-      </c>
+      <c r="J219" t="inlineStr"/>
       <c r="K219" t="inlineStr">
         <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L219" t="n">
-        <v>1</v>
-      </c>
+          <t>매도 체결</t>
+        </is>
+      </c>
+      <c r="L219" t="inlineStr"/>
       <c r="M219" t="inlineStr"/>
     </row>
     <row r="220">
@@ -8958,20 +8440,12 @@
         <v>2</v>
       </c>
       <c r="I220" t="inlineStr"/>
-      <c r="J220" t="n">
-        <v>0.4676</v>
-      </c>
-      <c r="K220" t="inlineStr">
-        <is>
-          <t>매도 체결</t>
-        </is>
-      </c>
+      <c r="J220" t="inlineStr"/>
+      <c r="K220" t="inlineStr"/>
       <c r="L220" t="n">
-        <v>1.183836612489307</v>
-      </c>
-      <c r="M220" t="n">
-        <v>1.027940220922677</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="M220" t="inlineStr"/>
     </row>
     <row r="221">
       <c r="A221" s="1" t="n">
@@ -9161,7 +8635,7 @@
         <v>42757018.44779395</v>
       </c>
       <c r="H226" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I226" t="inlineStr"/>
       <c r="J226" t="inlineStr"/>
@@ -9194,7 +8668,7 @@
         <v>42758018.44779395</v>
       </c>
       <c r="H227" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I227" t="inlineStr"/>
       <c r="J227" t="inlineStr"/>
@@ -9227,7 +8701,7 @@
         <v>38751863.69719394</v>
       </c>
       <c r="H228" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I228" t="inlineStr"/>
       <c r="J228" t="inlineStr"/>
@@ -9260,7 +8734,7 @@
         <v>32073290.73649395</v>
       </c>
       <c r="H229" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I229" t="inlineStr"/>
       <c r="J229" t="inlineStr"/>
@@ -9293,7 +8767,7 @@
         <v>34330887.55059394</v>
       </c>
       <c r="H230" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I230" t="inlineStr"/>
       <c r="J230" t="inlineStr"/>
@@ -9326,7 +8800,7 @@
         <v>26254467.58709394</v>
       </c>
       <c r="H231" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I231" t="inlineStr"/>
       <c r="J231" t="inlineStr"/>
@@ -9359,7 +8833,7 @@
         <v>26710467.58709394</v>
       </c>
       <c r="H232" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I232" t="inlineStr"/>
       <c r="J232" t="inlineStr"/>
@@ -9392,7 +8866,7 @@
         <v>26626052.58709394</v>
       </c>
       <c r="H233" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I233" t="inlineStr"/>
       <c r="J233" t="inlineStr"/>
@@ -9458,7 +8932,7 @@
         <v>28428471.24729394</v>
       </c>
       <c r="H235" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I235" t="inlineStr"/>
       <c r="J235" t="inlineStr"/>
@@ -9491,7 +8965,7 @@
         <v>28429471.24729394</v>
       </c>
       <c r="H236" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I236" t="inlineStr"/>
       <c r="J236" t="inlineStr"/>
@@ -10316,7 +9790,7 @@
         <v>38665867.46254503</v>
       </c>
       <c r="H261" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I261" t="inlineStr"/>
       <c r="J261" t="inlineStr"/>
@@ -10349,7 +9823,7 @@
         <v>38689834.84254503</v>
       </c>
       <c r="H262" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I262" t="inlineStr"/>
       <c r="J262" t="inlineStr"/>
@@ -10382,7 +9856,7 @@
         <v>40042401.34784503</v>
       </c>
       <c r="H263" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I263" t="inlineStr"/>
       <c r="J263" t="inlineStr"/>
@@ -10415,7 +9889,7 @@
         <v>41476007.50024503</v>
       </c>
       <c r="H264" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I264" t="inlineStr"/>
       <c r="J264" t="inlineStr"/>
@@ -10448,7 +9922,7 @@
         <v>38307908.02904504</v>
       </c>
       <c r="H265" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I265" t="inlineStr"/>
       <c r="J265" t="inlineStr"/>
@@ -10580,7 +10054,7 @@
         <v>50607104.51884504</v>
       </c>
       <c r="H269" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I269" t="inlineStr"/>
       <c r="J269" t="inlineStr"/>
@@ -10613,7 +10087,7 @@
         <v>44793701.14044504</v>
       </c>
       <c r="H270" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I270" t="inlineStr"/>
       <c r="J270" t="inlineStr"/>
@@ -10646,7 +10120,7 @@
         <v>47820621.96974504</v>
       </c>
       <c r="H271" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I271" t="inlineStr"/>
       <c r="J271" t="inlineStr"/>
@@ -10679,7 +10153,7 @@
         <v>49302844.26264504</v>
       </c>
       <c r="H272" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I272" t="inlineStr"/>
       <c r="J272" t="inlineStr"/>
@@ -10712,7 +10186,7 @@
         <v>55788059.54784504</v>
       </c>
       <c r="H273" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I273" t="inlineStr"/>
       <c r="J273" t="inlineStr"/>
@@ -10745,7 +10219,7 @@
         <v>48584704.13724504</v>
       </c>
       <c r="H274" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I274" t="inlineStr"/>
       <c r="J274" t="inlineStr"/>
@@ -11834,10 +11308,14 @@
         <v>13780684.74029465</v>
       </c>
       <c r="H307" t="n">
-        <v>0</v>
-      </c>
-      <c r="I307" t="inlineStr"/>
-      <c r="J307" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I307" t="n">
+        <v>0.5125</v>
+      </c>
+      <c r="J307" t="n">
+        <v>0.5125</v>
+      </c>
       <c r="K307" t="inlineStr"/>
       <c r="L307" t="n">
         <v>1</v>
@@ -11867,11 +11345,19 @@
         <v>13689358.74029465</v>
       </c>
       <c r="H308" t="n">
-        <v>0</v>
-      </c>
-      <c r="I308" t="inlineStr"/>
-      <c r="J308" t="inlineStr"/>
-      <c r="K308" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I308" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="J308" t="n">
+        <v>0.5125</v>
+      </c>
+      <c r="K308" t="inlineStr">
+        <is>
+          <t>매수 체결</t>
+        </is>
+      </c>
       <c r="L308" t="n">
         <v>1</v>
       </c>
@@ -11900,11 +11386,19 @@
         <v>13600161.33729465</v>
       </c>
       <c r="H309" t="n">
-        <v>0</v>
-      </c>
-      <c r="I309" t="inlineStr"/>
-      <c r="J309" t="inlineStr"/>
-      <c r="K309" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I309" t="n">
+        <v>0.4999</v>
+      </c>
+      <c r="J309" t="n">
+        <v>0.5125</v>
+      </c>
+      <c r="K309" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L309" t="n">
         <v>1</v>
       </c>
@@ -11933,11 +11427,19 @@
         <v>13600161.33729465</v>
       </c>
       <c r="H310" t="n">
-        <v>0</v>
-      </c>
-      <c r="I310" t="inlineStr"/>
-      <c r="J310" t="inlineStr"/>
-      <c r="K310" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I310" t="n">
+        <v>0.49</v>
+      </c>
+      <c r="J310" t="n">
+        <v>0.5125</v>
+      </c>
+      <c r="K310" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L310" t="n">
         <v>1</v>
       </c>
@@ -11966,11 +11468,19 @@
         <v>13159115.14399465</v>
       </c>
       <c r="H311" t="n">
-        <v>0</v>
-      </c>
-      <c r="I311" t="inlineStr"/>
-      <c r="J311" t="inlineStr"/>
-      <c r="K311" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I311" t="n">
+        <v>0.49</v>
+      </c>
+      <c r="J311" t="n">
+        <v>0.5125</v>
+      </c>
+      <c r="K311" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L311" t="n">
         <v>1</v>
       </c>
@@ -11999,11 +11509,19 @@
         <v>13159115.14399465</v>
       </c>
       <c r="H312" t="n">
-        <v>0</v>
-      </c>
-      <c r="I312" t="inlineStr"/>
-      <c r="J312" t="inlineStr"/>
-      <c r="K312" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I312" t="n">
+        <v>0.4899</v>
+      </c>
+      <c r="J312" t="n">
+        <v>0.5125</v>
+      </c>
+      <c r="K312" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L312" t="n">
         <v>1</v>
       </c>
@@ -12032,11 +11550,19 @@
         <v>13150618.79269465</v>
       </c>
       <c r="H313" t="n">
-        <v>0</v>
-      </c>
-      <c r="I313" t="inlineStr"/>
-      <c r="J313" t="inlineStr"/>
-      <c r="K313" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I313" t="n">
+        <v>0.4899</v>
+      </c>
+      <c r="J313" t="n">
+        <v>0.5125</v>
+      </c>
+      <c r="K313" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L313" t="n">
         <v>1</v>
       </c>
@@ -12065,11 +11591,19 @@
         <v>14486591.66459465</v>
       </c>
       <c r="H314" t="n">
-        <v>0</v>
-      </c>
-      <c r="I314" t="inlineStr"/>
-      <c r="J314" t="inlineStr"/>
-      <c r="K314" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I314" t="n">
+        <v>0.4897</v>
+      </c>
+      <c r="J314" t="n">
+        <v>0.5125</v>
+      </c>
+      <c r="K314" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L314" t="n">
         <v>1</v>
       </c>
@@ -12098,11 +11632,19 @@
         <v>14484531.66459465</v>
       </c>
       <c r="H315" t="n">
-        <v>0</v>
-      </c>
-      <c r="I315" t="inlineStr"/>
-      <c r="J315" t="inlineStr"/>
-      <c r="K315" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I315" t="n">
+        <v>0.4998</v>
+      </c>
+      <c r="J315" t="n">
+        <v>0.5125</v>
+      </c>
+      <c r="K315" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L315" t="n">
         <v>1</v>
       </c>
@@ -12131,11 +11673,19 @@
         <v>17084300.85679465</v>
       </c>
       <c r="H316" t="n">
-        <v>0</v>
-      </c>
-      <c r="I316" t="inlineStr"/>
-      <c r="J316" t="inlineStr"/>
-      <c r="K316" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I316" t="n">
+        <v>0.4898</v>
+      </c>
+      <c r="J316" t="n">
+        <v>0.5125</v>
+      </c>
+      <c r="K316" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L316" t="n">
         <v>1</v>
       </c>
@@ -12164,11 +11714,19 @@
         <v>17084300.85679465</v>
       </c>
       <c r="H317" t="n">
-        <v>0</v>
-      </c>
-      <c r="I317" t="inlineStr"/>
-      <c r="J317" t="inlineStr"/>
-      <c r="K317" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I317" t="n">
+        <v>0.4999</v>
+      </c>
+      <c r="J317" t="n">
+        <v>0.5125</v>
+      </c>
+      <c r="K317" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L317" t="n">
         <v>1</v>
       </c>
@@ -12197,11 +11755,19 @@
         <v>16904014.08679465</v>
       </c>
       <c r="H318" t="n">
-        <v>0</v>
-      </c>
-      <c r="I318" t="inlineStr"/>
-      <c r="J318" t="inlineStr"/>
-      <c r="K318" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I318" t="n">
+        <v>0.4999</v>
+      </c>
+      <c r="J318" t="n">
+        <v>0.5125</v>
+      </c>
+      <c r="K318" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L318" t="n">
         <v>1</v>
       </c>
@@ -12230,11 +11796,19 @@
         <v>16923954.18679465</v>
       </c>
       <c r="H319" t="n">
-        <v>0</v>
-      </c>
-      <c r="I319" t="inlineStr"/>
-      <c r="J319" t="inlineStr"/>
-      <c r="K319" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I319" t="n">
+        <v>0.4937</v>
+      </c>
+      <c r="J319" t="n">
+        <v>0.5125</v>
+      </c>
+      <c r="K319" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L319" t="n">
         <v>1</v>
       </c>
@@ -12263,11 +11837,19 @@
         <v>16849990.19619465</v>
       </c>
       <c r="H320" t="n">
-        <v>0</v>
-      </c>
-      <c r="I320" t="inlineStr"/>
-      <c r="J320" t="inlineStr"/>
-      <c r="K320" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I320" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="J320" t="n">
+        <v>0.5125</v>
+      </c>
+      <c r="K320" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L320" t="n">
         <v>1</v>
       </c>
@@ -12296,11 +11878,19 @@
         <v>16849990.19619465</v>
       </c>
       <c r="H321" t="n">
-        <v>0</v>
-      </c>
-      <c r="I321" t="inlineStr"/>
-      <c r="J321" t="inlineStr"/>
-      <c r="K321" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I321" t="n">
+        <v>0.4999</v>
+      </c>
+      <c r="J321" t="n">
+        <v>0.5125</v>
+      </c>
+      <c r="K321" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L321" t="n">
         <v>1</v>
       </c>
@@ -12329,11 +11919,19 @@
         <v>17084187.44359465</v>
       </c>
       <c r="H322" t="n">
-        <v>0</v>
-      </c>
-      <c r="I322" t="inlineStr"/>
-      <c r="J322" t="inlineStr"/>
-      <c r="K322" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I322" t="n">
+        <v>0.4999</v>
+      </c>
+      <c r="J322" t="n">
+        <v>0.5125</v>
+      </c>
+      <c r="K322" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L322" t="n">
         <v>1</v>
       </c>
@@ -12362,11 +11960,19 @@
         <v>17084187.44359465</v>
       </c>
       <c r="H323" t="n">
-        <v>0</v>
-      </c>
-      <c r="I323" t="inlineStr"/>
-      <c r="J323" t="inlineStr"/>
-      <c r="K323" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I323" t="n">
+        <v>0.5099</v>
+      </c>
+      <c r="J323" t="n">
+        <v>0.5125</v>
+      </c>
+      <c r="K323" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L323" t="n">
         <v>1</v>
       </c>
@@ -12395,11 +12001,19 @@
         <v>16985359.85519465</v>
       </c>
       <c r="H324" t="n">
-        <v>0</v>
-      </c>
-      <c r="I324" t="inlineStr"/>
-      <c r="J324" t="inlineStr"/>
-      <c r="K324" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I324" t="n">
+        <v>0.5099</v>
+      </c>
+      <c r="J324" t="n">
+        <v>0.5125</v>
+      </c>
+      <c r="K324" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L324" t="n">
         <v>1</v>
       </c>
@@ -12428,11 +12042,19 @@
         <v>16985359.85519465</v>
       </c>
       <c r="H325" t="n">
-        <v>0</v>
-      </c>
-      <c r="I325" t="inlineStr"/>
-      <c r="J325" t="inlineStr"/>
-      <c r="K325" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I325" t="n">
+        <v>0.4999</v>
+      </c>
+      <c r="J325" t="n">
+        <v>0.5125</v>
+      </c>
+      <c r="K325" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L325" t="n">
         <v>1</v>
       </c>
@@ -12461,17 +12083,25 @@
         <v>16934343.10559465</v>
       </c>
       <c r="H326" t="n">
-        <v>0</v>
-      </c>
-      <c r="I326" t="inlineStr"/>
-      <c r="J326" t="inlineStr"/>
-      <c r="K326" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I326" t="n">
+        <v>0.4999</v>
+      </c>
+      <c r="J326" t="n">
+        <v>0.5125</v>
+      </c>
+      <c r="K326" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L326" t="n">
         <v>1</v>
       </c>
       <c r="M326" t="inlineStr"/>
     </row>
   </sheetData>
-  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>
--- a/BackTest/2020-01-13 BackTest OCN.xlsx
+++ b/BackTest/2020-01-13 BackTest OCN.xlsx
@@ -451,7 +451,7 @@
         <v>20836869.4118969</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I2" t="inlineStr"/>
       <c r="J2" t="inlineStr"/>
@@ -484,10 +484,14 @@
         <v>43476244.0517969</v>
       </c>
       <c r="H3" t="n">
-        <v>0</v>
-      </c>
-      <c r="I3" t="inlineStr"/>
-      <c r="J3" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I3" t="n">
+        <v>0.4676</v>
+      </c>
+      <c r="J3" t="n">
+        <v>0.4676</v>
+      </c>
       <c r="K3" t="inlineStr"/>
       <c r="L3" t="n">
         <v>1</v>
@@ -517,11 +521,19 @@
         <v>44811059.8137969</v>
       </c>
       <c r="H4" t="n">
-        <v>0</v>
-      </c>
-      <c r="I4" t="inlineStr"/>
-      <c r="J4" t="inlineStr"/>
-      <c r="K4" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I4" t="n">
+        <v>0.4684</v>
+      </c>
+      <c r="J4" t="n">
+        <v>0.4676</v>
+      </c>
+      <c r="K4" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
       <c r="L4" t="n">
         <v>1</v>
       </c>
@@ -550,11 +562,19 @@
         <v>40220052.5068969</v>
       </c>
       <c r="H5" t="n">
-        <v>2</v>
-      </c>
-      <c r="I5" t="inlineStr"/>
-      <c r="J5" t="inlineStr"/>
-      <c r="K5" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I5" t="n">
+        <v>0.4746</v>
+      </c>
+      <c r="J5" t="n">
+        <v>0.4676</v>
+      </c>
+      <c r="K5" t="inlineStr">
+        <is>
+          <t>매수 체결</t>
+        </is>
+      </c>
       <c r="L5" t="n">
         <v>1</v>
       </c>
@@ -583,11 +603,17 @@
         <v>41661064.0753969</v>
       </c>
       <c r="H6" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I6" t="inlineStr"/>
-      <c r="J6" t="inlineStr"/>
-      <c r="K6" t="inlineStr"/>
+      <c r="J6" t="n">
+        <v>0.4676</v>
+      </c>
+      <c r="K6" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L6" t="n">
         <v>1</v>
       </c>
@@ -616,11 +642,17 @@
         <v>41801858.00139689</v>
       </c>
       <c r="H7" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I7" t="inlineStr"/>
-      <c r="J7" t="inlineStr"/>
-      <c r="K7" t="inlineStr"/>
+      <c r="J7" t="n">
+        <v>0.4676</v>
+      </c>
+      <c r="K7" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L7" t="n">
         <v>1</v>
       </c>
@@ -649,11 +681,17 @@
         <v>47496188.3108969</v>
       </c>
       <c r="H8" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I8" t="inlineStr"/>
-      <c r="J8" t="inlineStr"/>
-      <c r="K8" t="inlineStr"/>
+      <c r="J8" t="n">
+        <v>0.4676</v>
+      </c>
+      <c r="K8" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L8" t="n">
         <v>1</v>
       </c>
@@ -682,11 +720,17 @@
         <v>42498231.0305969</v>
       </c>
       <c r="H9" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I9" t="inlineStr"/>
-      <c r="J9" t="inlineStr"/>
-      <c r="K9" t="inlineStr"/>
+      <c r="J9" t="n">
+        <v>0.4676</v>
+      </c>
+      <c r="K9" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L9" t="n">
         <v>1</v>
       </c>
@@ -715,11 +759,17 @@
         <v>46301627.5093969</v>
       </c>
       <c r="H10" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I10" t="inlineStr"/>
-      <c r="J10" t="inlineStr"/>
-      <c r="K10" t="inlineStr"/>
+      <c r="J10" t="n">
+        <v>0.4676</v>
+      </c>
+      <c r="K10" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L10" t="n">
         <v>1</v>
       </c>
@@ -748,11 +798,17 @@
         <v>45344254.11049689</v>
       </c>
       <c r="H11" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I11" t="inlineStr"/>
-      <c r="J11" t="inlineStr"/>
-      <c r="K11" t="inlineStr"/>
+      <c r="J11" t="n">
+        <v>0.4676</v>
+      </c>
+      <c r="K11" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L11" t="n">
         <v>1</v>
       </c>
@@ -781,11 +837,17 @@
         <v>46818407.9987969</v>
       </c>
       <c r="H12" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I12" t="inlineStr"/>
-      <c r="J12" t="inlineStr"/>
-      <c r="K12" t="inlineStr"/>
+      <c r="J12" t="n">
+        <v>0.4676</v>
+      </c>
+      <c r="K12" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L12" t="n">
         <v>1</v>
       </c>
@@ -814,11 +876,17 @@
         <v>60393085.8214969</v>
       </c>
       <c r="H13" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I13" t="inlineStr"/>
-      <c r="J13" t="inlineStr"/>
-      <c r="K13" t="inlineStr"/>
+      <c r="J13" t="n">
+        <v>0.4676</v>
+      </c>
+      <c r="K13" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L13" t="n">
         <v>1</v>
       </c>
@@ -847,11 +915,17 @@
         <v>58457539.90849689</v>
       </c>
       <c r="H14" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I14" t="inlineStr"/>
-      <c r="J14" t="inlineStr"/>
-      <c r="K14" t="inlineStr"/>
+      <c r="J14" t="n">
+        <v>0.4676</v>
+      </c>
+      <c r="K14" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L14" t="n">
         <v>1</v>
       </c>
@@ -880,11 +954,17 @@
         <v>59442868.22789689</v>
       </c>
       <c r="H15" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I15" t="inlineStr"/>
-      <c r="J15" t="inlineStr"/>
-      <c r="K15" t="inlineStr"/>
+      <c r="J15" t="n">
+        <v>0.4676</v>
+      </c>
+      <c r="K15" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L15" t="n">
         <v>1</v>
       </c>
@@ -916,8 +996,14 @@
         <v>0</v>
       </c>
       <c r="I16" t="inlineStr"/>
-      <c r="J16" t="inlineStr"/>
-      <c r="K16" t="inlineStr"/>
+      <c r="J16" t="n">
+        <v>0.4676</v>
+      </c>
+      <c r="K16" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L16" t="n">
         <v>1</v>
       </c>
@@ -946,11 +1032,17 @@
         <v>60990773.7364969</v>
       </c>
       <c r="H17" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I17" t="inlineStr"/>
-      <c r="J17" t="inlineStr"/>
-      <c r="K17" t="inlineStr"/>
+      <c r="J17" t="n">
+        <v>0.4676</v>
+      </c>
+      <c r="K17" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L17" t="n">
         <v>1</v>
       </c>
@@ -979,11 +1071,17 @@
         <v>60638032.99119689</v>
       </c>
       <c r="H18" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I18" t="inlineStr"/>
-      <c r="J18" t="inlineStr"/>
-      <c r="K18" t="inlineStr"/>
+      <c r="J18" t="n">
+        <v>0.4676</v>
+      </c>
+      <c r="K18" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L18" t="n">
         <v>1</v>
       </c>
@@ -1015,8 +1113,14 @@
         <v>0</v>
       </c>
       <c r="I19" t="inlineStr"/>
-      <c r="J19" t="inlineStr"/>
-      <c r="K19" t="inlineStr"/>
+      <c r="J19" t="n">
+        <v>0.4676</v>
+      </c>
+      <c r="K19" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L19" t="n">
         <v>1</v>
       </c>
@@ -1048,8 +1152,14 @@
         <v>0</v>
       </c>
       <c r="I20" t="inlineStr"/>
-      <c r="J20" t="inlineStr"/>
-      <c r="K20" t="inlineStr"/>
+      <c r="J20" t="n">
+        <v>0.4676</v>
+      </c>
+      <c r="K20" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L20" t="n">
         <v>1</v>
       </c>
@@ -1081,8 +1191,14 @@
         <v>0</v>
       </c>
       <c r="I21" t="inlineStr"/>
-      <c r="J21" t="inlineStr"/>
-      <c r="K21" t="inlineStr"/>
+      <c r="J21" t="n">
+        <v>0.4676</v>
+      </c>
+      <c r="K21" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L21" t="n">
         <v>1</v>
       </c>
@@ -1114,8 +1230,14 @@
         <v>0</v>
       </c>
       <c r="I22" t="inlineStr"/>
-      <c r="J22" t="inlineStr"/>
-      <c r="K22" t="inlineStr"/>
+      <c r="J22" t="n">
+        <v>0.4676</v>
+      </c>
+      <c r="K22" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L22" t="n">
         <v>1</v>
       </c>
@@ -1147,8 +1269,14 @@
         <v>0</v>
       </c>
       <c r="I23" t="inlineStr"/>
-      <c r="J23" t="inlineStr"/>
-      <c r="K23" t="inlineStr"/>
+      <c r="J23" t="n">
+        <v>0.4676</v>
+      </c>
+      <c r="K23" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L23" t="n">
         <v>1</v>
       </c>
@@ -1180,8 +1308,14 @@
         <v>0</v>
       </c>
       <c r="I24" t="inlineStr"/>
-      <c r="J24" t="inlineStr"/>
-      <c r="K24" t="inlineStr"/>
+      <c r="J24" t="n">
+        <v>0.4676</v>
+      </c>
+      <c r="K24" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L24" t="n">
         <v>1</v>
       </c>
@@ -1213,8 +1347,14 @@
         <v>0</v>
       </c>
       <c r="I25" t="inlineStr"/>
-      <c r="J25" t="inlineStr"/>
-      <c r="K25" t="inlineStr"/>
+      <c r="J25" t="n">
+        <v>0.4676</v>
+      </c>
+      <c r="K25" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L25" t="n">
         <v>1</v>
       </c>
@@ -1246,8 +1386,14 @@
         <v>0</v>
       </c>
       <c r="I26" t="inlineStr"/>
-      <c r="J26" t="inlineStr"/>
-      <c r="K26" t="inlineStr"/>
+      <c r="J26" t="n">
+        <v>0.4676</v>
+      </c>
+      <c r="K26" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L26" t="n">
         <v>1</v>
       </c>
@@ -1279,8 +1425,14 @@
         <v>0</v>
       </c>
       <c r="I27" t="inlineStr"/>
-      <c r="J27" t="inlineStr"/>
-      <c r="K27" t="inlineStr"/>
+      <c r="J27" t="n">
+        <v>0.4676</v>
+      </c>
+      <c r="K27" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L27" t="n">
         <v>1</v>
       </c>
@@ -1312,8 +1464,14 @@
         <v>0</v>
       </c>
       <c r="I28" t="inlineStr"/>
-      <c r="J28" t="inlineStr"/>
-      <c r="K28" t="inlineStr"/>
+      <c r="J28" t="n">
+        <v>0.4676</v>
+      </c>
+      <c r="K28" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L28" t="n">
         <v>1</v>
       </c>
@@ -1345,8 +1503,14 @@
         <v>0</v>
       </c>
       <c r="I29" t="inlineStr"/>
-      <c r="J29" t="inlineStr"/>
-      <c r="K29" t="inlineStr"/>
+      <c r="J29" t="n">
+        <v>0.4676</v>
+      </c>
+      <c r="K29" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L29" t="n">
         <v>1</v>
       </c>
@@ -1378,8 +1542,14 @@
         <v>0</v>
       </c>
       <c r="I30" t="inlineStr"/>
-      <c r="J30" t="inlineStr"/>
-      <c r="K30" t="inlineStr"/>
+      <c r="J30" t="n">
+        <v>0.4676</v>
+      </c>
+      <c r="K30" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L30" t="n">
         <v>1</v>
       </c>
@@ -1411,8 +1581,14 @@
         <v>0</v>
       </c>
       <c r="I31" t="inlineStr"/>
-      <c r="J31" t="inlineStr"/>
-      <c r="K31" t="inlineStr"/>
+      <c r="J31" t="n">
+        <v>0.4676</v>
+      </c>
+      <c r="K31" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L31" t="n">
         <v>1</v>
       </c>
@@ -1444,8 +1620,14 @@
         <v>0</v>
       </c>
       <c r="I32" t="inlineStr"/>
-      <c r="J32" t="inlineStr"/>
-      <c r="K32" t="inlineStr"/>
+      <c r="J32" t="n">
+        <v>0.4676</v>
+      </c>
+      <c r="K32" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L32" t="n">
         <v>1</v>
       </c>
@@ -1477,8 +1659,14 @@
         <v>0</v>
       </c>
       <c r="I33" t="inlineStr"/>
-      <c r="J33" t="inlineStr"/>
-      <c r="K33" t="inlineStr"/>
+      <c r="J33" t="n">
+        <v>0.4676</v>
+      </c>
+      <c r="K33" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L33" t="n">
         <v>1</v>
       </c>
@@ -1510,8 +1698,14 @@
         <v>0</v>
       </c>
       <c r="I34" t="inlineStr"/>
-      <c r="J34" t="inlineStr"/>
-      <c r="K34" t="inlineStr"/>
+      <c r="J34" t="n">
+        <v>0.4676</v>
+      </c>
+      <c r="K34" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L34" t="n">
         <v>1</v>
       </c>
@@ -1543,8 +1737,14 @@
         <v>0</v>
       </c>
       <c r="I35" t="inlineStr"/>
-      <c r="J35" t="inlineStr"/>
-      <c r="K35" t="inlineStr"/>
+      <c r="J35" t="n">
+        <v>0.4676</v>
+      </c>
+      <c r="K35" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L35" t="n">
         <v>1</v>
       </c>
@@ -1576,8 +1776,14 @@
         <v>0</v>
       </c>
       <c r="I36" t="inlineStr"/>
-      <c r="J36" t="inlineStr"/>
-      <c r="K36" t="inlineStr"/>
+      <c r="J36" t="n">
+        <v>0.4676</v>
+      </c>
+      <c r="K36" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L36" t="n">
         <v>1</v>
       </c>
@@ -1609,8 +1815,14 @@
         <v>0</v>
       </c>
       <c r="I37" t="inlineStr"/>
-      <c r="J37" t="inlineStr"/>
-      <c r="K37" t="inlineStr"/>
+      <c r="J37" t="n">
+        <v>0.4676</v>
+      </c>
+      <c r="K37" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L37" t="n">
         <v>1</v>
       </c>
@@ -1642,8 +1854,14 @@
         <v>0</v>
       </c>
       <c r="I38" t="inlineStr"/>
-      <c r="J38" t="inlineStr"/>
-      <c r="K38" t="inlineStr"/>
+      <c r="J38" t="n">
+        <v>0.4676</v>
+      </c>
+      <c r="K38" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L38" t="n">
         <v>1</v>
       </c>
@@ -1675,8 +1893,14 @@
         <v>0</v>
       </c>
       <c r="I39" t="inlineStr"/>
-      <c r="J39" t="inlineStr"/>
-      <c r="K39" t="inlineStr"/>
+      <c r="J39" t="n">
+        <v>0.4676</v>
+      </c>
+      <c r="K39" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L39" t="n">
         <v>1</v>
       </c>
@@ -1708,8 +1932,14 @@
         <v>0</v>
       </c>
       <c r="I40" t="inlineStr"/>
-      <c r="J40" t="inlineStr"/>
-      <c r="K40" t="inlineStr"/>
+      <c r="J40" t="n">
+        <v>0.4676</v>
+      </c>
+      <c r="K40" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L40" t="n">
         <v>1</v>
       </c>
@@ -1741,8 +1971,14 @@
         <v>0</v>
       </c>
       <c r="I41" t="inlineStr"/>
-      <c r="J41" t="inlineStr"/>
-      <c r="K41" t="inlineStr"/>
+      <c r="J41" t="n">
+        <v>0.4676</v>
+      </c>
+      <c r="K41" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L41" t="n">
         <v>1</v>
       </c>
@@ -1774,8 +2010,14 @@
         <v>0</v>
       </c>
       <c r="I42" t="inlineStr"/>
-      <c r="J42" t="inlineStr"/>
-      <c r="K42" t="inlineStr"/>
+      <c r="J42" t="n">
+        <v>0.4676</v>
+      </c>
+      <c r="K42" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L42" t="n">
         <v>1</v>
       </c>
@@ -1807,8 +2049,14 @@
         <v>0</v>
       </c>
       <c r="I43" t="inlineStr"/>
-      <c r="J43" t="inlineStr"/>
-      <c r="K43" t="inlineStr"/>
+      <c r="J43" t="n">
+        <v>0.4676</v>
+      </c>
+      <c r="K43" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L43" t="n">
         <v>1</v>
       </c>
@@ -1840,8 +2088,14 @@
         <v>0</v>
       </c>
       <c r="I44" t="inlineStr"/>
-      <c r="J44" t="inlineStr"/>
-      <c r="K44" t="inlineStr"/>
+      <c r="J44" t="n">
+        <v>0.4676</v>
+      </c>
+      <c r="K44" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L44" t="n">
         <v>1</v>
       </c>
@@ -1873,8 +2127,14 @@
         <v>0</v>
       </c>
       <c r="I45" t="inlineStr"/>
-      <c r="J45" t="inlineStr"/>
-      <c r="K45" t="inlineStr"/>
+      <c r="J45" t="n">
+        <v>0.4676</v>
+      </c>
+      <c r="K45" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L45" t="n">
         <v>1</v>
       </c>
@@ -1906,8 +2166,14 @@
         <v>0</v>
       </c>
       <c r="I46" t="inlineStr"/>
-      <c r="J46" t="inlineStr"/>
-      <c r="K46" t="inlineStr"/>
+      <c r="J46" t="n">
+        <v>0.4676</v>
+      </c>
+      <c r="K46" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L46" t="n">
         <v>1</v>
       </c>
@@ -1939,8 +2205,14 @@
         <v>0</v>
       </c>
       <c r="I47" t="inlineStr"/>
-      <c r="J47" t="inlineStr"/>
-      <c r="K47" t="inlineStr"/>
+      <c r="J47" t="n">
+        <v>0.4676</v>
+      </c>
+      <c r="K47" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L47" t="n">
         <v>1</v>
       </c>
@@ -1972,8 +2244,14 @@
         <v>0</v>
       </c>
       <c r="I48" t="inlineStr"/>
-      <c r="J48" t="inlineStr"/>
-      <c r="K48" t="inlineStr"/>
+      <c r="J48" t="n">
+        <v>0.4676</v>
+      </c>
+      <c r="K48" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L48" t="n">
         <v>1</v>
       </c>
@@ -2005,8 +2283,14 @@
         <v>0</v>
       </c>
       <c r="I49" t="inlineStr"/>
-      <c r="J49" t="inlineStr"/>
-      <c r="K49" t="inlineStr"/>
+      <c r="J49" t="n">
+        <v>0.4676</v>
+      </c>
+      <c r="K49" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L49" t="n">
         <v>1</v>
       </c>
@@ -2038,8 +2322,14 @@
         <v>0</v>
       </c>
       <c r="I50" t="inlineStr"/>
-      <c r="J50" t="inlineStr"/>
-      <c r="K50" t="inlineStr"/>
+      <c r="J50" t="n">
+        <v>0.4676</v>
+      </c>
+      <c r="K50" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L50" t="n">
         <v>1</v>
       </c>
@@ -2071,8 +2361,14 @@
         <v>0</v>
       </c>
       <c r="I51" t="inlineStr"/>
-      <c r="J51" t="inlineStr"/>
-      <c r="K51" t="inlineStr"/>
+      <c r="J51" t="n">
+        <v>0.4676</v>
+      </c>
+      <c r="K51" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L51" t="n">
         <v>1</v>
       </c>
@@ -2101,15 +2397,15 @@
         <v>55776111.46348678</v>
       </c>
       <c r="H52" t="n">
-        <v>1</v>
-      </c>
-      <c r="I52" t="n">
-        <v>0.4552</v>
-      </c>
-      <c r="J52" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I52" t="inlineStr"/>
+      <c r="J52" t="n">
+        <v>0.4676</v>
+      </c>
       <c r="K52" t="inlineStr">
         <is>
-          <t>매수 체결</t>
+          <t>매도 대기</t>
         </is>
       </c>
       <c r="L52" t="n">
@@ -2140,12 +2436,12 @@
         <v>55776111.46348678</v>
       </c>
       <c r="H53" t="n">
-        <v>1</v>
-      </c>
-      <c r="I53" t="n">
-        <v>0.4651</v>
-      </c>
-      <c r="J53" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I53" t="inlineStr"/>
+      <c r="J53" t="n">
+        <v>0.4676</v>
+      </c>
       <c r="K53" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2179,12 +2475,12 @@
         <v>55684650.67398678</v>
       </c>
       <c r="H54" t="n">
-        <v>1</v>
-      </c>
-      <c r="I54" t="n">
-        <v>0.4651</v>
-      </c>
-      <c r="J54" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I54" t="inlineStr"/>
+      <c r="J54" t="n">
+        <v>0.4676</v>
+      </c>
       <c r="K54" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2218,12 +2514,12 @@
         <v>55895151.80868678</v>
       </c>
       <c r="H55" t="n">
-        <v>1</v>
-      </c>
-      <c r="I55" t="n">
-        <v>0.4488</v>
-      </c>
-      <c r="J55" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I55" t="inlineStr"/>
+      <c r="J55" t="n">
+        <v>0.4676</v>
+      </c>
       <c r="K55" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2257,12 +2553,12 @@
         <v>55928551.80868678</v>
       </c>
       <c r="H56" t="n">
-        <v>1</v>
-      </c>
-      <c r="I56" t="n">
-        <v>0.45</v>
-      </c>
-      <c r="J56" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I56" t="inlineStr"/>
+      <c r="J56" t="n">
+        <v>0.4676</v>
+      </c>
       <c r="K56" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2296,12 +2592,12 @@
         <v>55928551.80868678</v>
       </c>
       <c r="H57" t="n">
-        <v>1</v>
-      </c>
-      <c r="I57" t="n">
-        <v>0.464</v>
-      </c>
-      <c r="J57" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I57" t="inlineStr"/>
+      <c r="J57" t="n">
+        <v>0.4676</v>
+      </c>
       <c r="K57" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2335,12 +2631,12 @@
         <v>56829752.42058678</v>
       </c>
       <c r="H58" t="n">
-        <v>1</v>
-      </c>
-      <c r="I58" t="n">
-        <v>0.464</v>
-      </c>
-      <c r="J58" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I58" t="inlineStr"/>
+      <c r="J58" t="n">
+        <v>0.4676</v>
+      </c>
       <c r="K58" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2374,12 +2670,12 @@
         <v>64713999.86968678</v>
       </c>
       <c r="H59" t="n">
-        <v>1</v>
-      </c>
-      <c r="I59" t="n">
-        <v>0.467</v>
-      </c>
-      <c r="J59" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I59" t="inlineStr"/>
+      <c r="J59" t="n">
+        <v>0.4676</v>
+      </c>
       <c r="K59" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2413,12 +2709,12 @@
         <v>68199604.19258678</v>
       </c>
       <c r="H60" t="n">
-        <v>1</v>
-      </c>
-      <c r="I60" t="n">
-        <v>0.468</v>
-      </c>
-      <c r="J60" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I60" t="inlineStr"/>
+      <c r="J60" t="n">
+        <v>0.4676</v>
+      </c>
       <c r="K60" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2452,12 +2748,12 @@
         <v>68181326.16281547</v>
       </c>
       <c r="H61" t="n">
-        <v>1</v>
-      </c>
-      <c r="I61" t="n">
-        <v>0.4776</v>
-      </c>
-      <c r="J61" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I61" t="inlineStr"/>
+      <c r="J61" t="n">
+        <v>0.4676</v>
+      </c>
       <c r="K61" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2491,12 +2787,12 @@
         <v>68181326.16281547</v>
       </c>
       <c r="H62" t="n">
-        <v>1</v>
-      </c>
-      <c r="I62" t="n">
-        <v>0.468</v>
-      </c>
-      <c r="J62" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I62" t="inlineStr"/>
+      <c r="J62" t="n">
+        <v>0.4676</v>
+      </c>
       <c r="K62" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2533,7 +2829,9 @@
         <v>0</v>
       </c>
       <c r="I63" t="inlineStr"/>
-      <c r="J63" t="inlineStr"/>
+      <c r="J63" t="n">
+        <v>0.4676</v>
+      </c>
       <c r="K63" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2570,7 +2868,9 @@
         <v>0</v>
       </c>
       <c r="I64" t="inlineStr"/>
-      <c r="J64" t="inlineStr"/>
+      <c r="J64" t="n">
+        <v>0.4676</v>
+      </c>
       <c r="K64" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2607,7 +2907,9 @@
         <v>0</v>
       </c>
       <c r="I65" t="inlineStr"/>
-      <c r="J65" t="inlineStr"/>
+      <c r="J65" t="n">
+        <v>0.4676</v>
+      </c>
       <c r="K65" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2644,7 +2946,9 @@
         <v>0</v>
       </c>
       <c r="I66" t="inlineStr"/>
-      <c r="J66" t="inlineStr"/>
+      <c r="J66" t="n">
+        <v>0.4676</v>
+      </c>
       <c r="K66" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2681,7 +2985,9 @@
         <v>0</v>
       </c>
       <c r="I67" t="inlineStr"/>
-      <c r="J67" t="inlineStr"/>
+      <c r="J67" t="n">
+        <v>0.4676</v>
+      </c>
       <c r="K67" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2718,7 +3024,9 @@
         <v>0</v>
       </c>
       <c r="I68" t="inlineStr"/>
-      <c r="J68" t="inlineStr"/>
+      <c r="J68" t="n">
+        <v>0.4676</v>
+      </c>
       <c r="K68" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2752,12 +3060,12 @@
         <v>59060279.61168864</v>
       </c>
       <c r="H69" t="n">
-        <v>1</v>
-      </c>
-      <c r="I69" t="n">
-        <v>0.464</v>
-      </c>
-      <c r="J69" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I69" t="inlineStr"/>
+      <c r="J69" t="n">
+        <v>0.4676</v>
+      </c>
       <c r="K69" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2794,7 +3102,9 @@
         <v>0</v>
       </c>
       <c r="I70" t="inlineStr"/>
-      <c r="J70" t="inlineStr"/>
+      <c r="J70" t="n">
+        <v>0.4676</v>
+      </c>
       <c r="K70" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2831,7 +3141,9 @@
         <v>0</v>
       </c>
       <c r="I71" t="inlineStr"/>
-      <c r="J71" t="inlineStr"/>
+      <c r="J71" t="n">
+        <v>0.4676</v>
+      </c>
       <c r="K71" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2868,7 +3180,9 @@
         <v>0</v>
       </c>
       <c r="I72" t="inlineStr"/>
-      <c r="J72" t="inlineStr"/>
+      <c r="J72" t="n">
+        <v>0.4676</v>
+      </c>
       <c r="K72" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2905,7 +3219,9 @@
         <v>0</v>
       </c>
       <c r="I73" t="inlineStr"/>
-      <c r="J73" t="inlineStr"/>
+      <c r="J73" t="n">
+        <v>0.4676</v>
+      </c>
       <c r="K73" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2942,7 +3258,9 @@
         <v>0</v>
       </c>
       <c r="I74" t="inlineStr"/>
-      <c r="J74" t="inlineStr"/>
+      <c r="J74" t="n">
+        <v>0.4676</v>
+      </c>
       <c r="K74" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2979,7 +3297,9 @@
         <v>0</v>
       </c>
       <c r="I75" t="inlineStr"/>
-      <c r="J75" t="inlineStr"/>
+      <c r="J75" t="n">
+        <v>0.4676</v>
+      </c>
       <c r="K75" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3016,7 +3336,9 @@
         <v>0</v>
       </c>
       <c r="I76" t="inlineStr"/>
-      <c r="J76" t="inlineStr"/>
+      <c r="J76" t="n">
+        <v>0.4676</v>
+      </c>
       <c r="K76" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3053,7 +3375,9 @@
         <v>0</v>
       </c>
       <c r="I77" t="inlineStr"/>
-      <c r="J77" t="inlineStr"/>
+      <c r="J77" t="n">
+        <v>0.4676</v>
+      </c>
       <c r="K77" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3090,7 +3414,9 @@
         <v>0</v>
       </c>
       <c r="I78" t="inlineStr"/>
-      <c r="J78" t="inlineStr"/>
+      <c r="J78" t="n">
+        <v>0.4676</v>
+      </c>
       <c r="K78" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3127,7 +3453,9 @@
         <v>0</v>
       </c>
       <c r="I79" t="inlineStr"/>
-      <c r="J79" t="inlineStr"/>
+      <c r="J79" t="n">
+        <v>0.4676</v>
+      </c>
       <c r="K79" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3164,7 +3492,9 @@
         <v>0</v>
       </c>
       <c r="I80" t="inlineStr"/>
-      <c r="J80" t="inlineStr"/>
+      <c r="J80" t="n">
+        <v>0.4676</v>
+      </c>
       <c r="K80" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3201,7 +3531,9 @@
         <v>0</v>
       </c>
       <c r="I81" t="inlineStr"/>
-      <c r="J81" t="inlineStr"/>
+      <c r="J81" t="n">
+        <v>0.4676</v>
+      </c>
       <c r="K81" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3238,7 +3570,9 @@
         <v>0</v>
       </c>
       <c r="I82" t="inlineStr"/>
-      <c r="J82" t="inlineStr"/>
+      <c r="J82" t="n">
+        <v>0.4676</v>
+      </c>
       <c r="K82" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3275,7 +3609,9 @@
         <v>0</v>
       </c>
       <c r="I83" t="inlineStr"/>
-      <c r="J83" t="inlineStr"/>
+      <c r="J83" t="n">
+        <v>0.4676</v>
+      </c>
       <c r="K83" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3312,7 +3648,9 @@
         <v>0</v>
       </c>
       <c r="I84" t="inlineStr"/>
-      <c r="J84" t="inlineStr"/>
+      <c r="J84" t="n">
+        <v>0.4676</v>
+      </c>
       <c r="K84" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3349,7 +3687,9 @@
         <v>0</v>
       </c>
       <c r="I85" t="inlineStr"/>
-      <c r="J85" t="inlineStr"/>
+      <c r="J85" t="n">
+        <v>0.4676</v>
+      </c>
       <c r="K85" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3386,7 +3726,9 @@
         <v>0</v>
       </c>
       <c r="I86" t="inlineStr"/>
-      <c r="J86" t="inlineStr"/>
+      <c r="J86" t="n">
+        <v>0.4676</v>
+      </c>
       <c r="K86" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3423,7 +3765,9 @@
         <v>0</v>
       </c>
       <c r="I87" t="inlineStr"/>
-      <c r="J87" t="inlineStr"/>
+      <c r="J87" t="n">
+        <v>0.4676</v>
+      </c>
       <c r="K87" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3460,7 +3804,9 @@
         <v>0</v>
       </c>
       <c r="I88" t="inlineStr"/>
-      <c r="J88" t="inlineStr"/>
+      <c r="J88" t="n">
+        <v>0.4676</v>
+      </c>
       <c r="K88" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3497,7 +3843,9 @@
         <v>0</v>
       </c>
       <c r="I89" t="inlineStr"/>
-      <c r="J89" t="inlineStr"/>
+      <c r="J89" t="n">
+        <v>0.4676</v>
+      </c>
       <c r="K89" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3534,7 +3882,9 @@
         <v>0</v>
       </c>
       <c r="I90" t="inlineStr"/>
-      <c r="J90" t="inlineStr"/>
+      <c r="J90" t="n">
+        <v>0.4676</v>
+      </c>
       <c r="K90" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3571,7 +3921,9 @@
         <v>0</v>
       </c>
       <c r="I91" t="inlineStr"/>
-      <c r="J91" t="inlineStr"/>
+      <c r="J91" t="n">
+        <v>0.4676</v>
+      </c>
       <c r="K91" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3608,7 +3960,9 @@
         <v>0</v>
       </c>
       <c r="I92" t="inlineStr"/>
-      <c r="J92" t="inlineStr"/>
+      <c r="J92" t="n">
+        <v>0.4676</v>
+      </c>
       <c r="K92" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3645,7 +3999,9 @@
         <v>0</v>
       </c>
       <c r="I93" t="inlineStr"/>
-      <c r="J93" t="inlineStr"/>
+      <c r="J93" t="n">
+        <v>0.4676</v>
+      </c>
       <c r="K93" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3682,7 +4038,9 @@
         <v>0</v>
       </c>
       <c r="I94" t="inlineStr"/>
-      <c r="J94" t="inlineStr"/>
+      <c r="J94" t="n">
+        <v>0.4676</v>
+      </c>
       <c r="K94" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3719,7 +4077,9 @@
         <v>0</v>
       </c>
       <c r="I95" t="inlineStr"/>
-      <c r="J95" t="inlineStr"/>
+      <c r="J95" t="n">
+        <v>0.4676</v>
+      </c>
       <c r="K95" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3756,7 +4116,9 @@
         <v>0</v>
       </c>
       <c r="I96" t="inlineStr"/>
-      <c r="J96" t="inlineStr"/>
+      <c r="J96" t="n">
+        <v>0.4676</v>
+      </c>
       <c r="K96" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3793,7 +4155,9 @@
         <v>0</v>
       </c>
       <c r="I97" t="inlineStr"/>
-      <c r="J97" t="inlineStr"/>
+      <c r="J97" t="n">
+        <v>0.4676</v>
+      </c>
       <c r="K97" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3830,7 +4194,9 @@
         <v>0</v>
       </c>
       <c r="I98" t="inlineStr"/>
-      <c r="J98" t="inlineStr"/>
+      <c r="J98" t="n">
+        <v>0.4676</v>
+      </c>
       <c r="K98" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3867,7 +4233,9 @@
         <v>0</v>
       </c>
       <c r="I99" t="inlineStr"/>
-      <c r="J99" t="inlineStr"/>
+      <c r="J99" t="n">
+        <v>0.4676</v>
+      </c>
       <c r="K99" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3904,7 +4272,9 @@
         <v>0</v>
       </c>
       <c r="I100" t="inlineStr"/>
-      <c r="J100" t="inlineStr"/>
+      <c r="J100" t="n">
+        <v>0.4676</v>
+      </c>
       <c r="K100" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3941,7 +4311,9 @@
         <v>0</v>
       </c>
       <c r="I101" t="inlineStr"/>
-      <c r="J101" t="inlineStr"/>
+      <c r="J101" t="n">
+        <v>0.4676</v>
+      </c>
       <c r="K101" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3978,7 +4350,9 @@
         <v>0</v>
       </c>
       <c r="I102" t="inlineStr"/>
-      <c r="J102" t="inlineStr"/>
+      <c r="J102" t="n">
+        <v>0.4676</v>
+      </c>
       <c r="K102" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4015,7 +4389,9 @@
         <v>0</v>
       </c>
       <c r="I103" t="inlineStr"/>
-      <c r="J103" t="inlineStr"/>
+      <c r="J103" t="n">
+        <v>0.4676</v>
+      </c>
       <c r="K103" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4052,7 +4428,9 @@
         <v>0</v>
       </c>
       <c r="I104" t="inlineStr"/>
-      <c r="J104" t="inlineStr"/>
+      <c r="J104" t="n">
+        <v>0.4676</v>
+      </c>
       <c r="K104" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4089,7 +4467,9 @@
         <v>0</v>
       </c>
       <c r="I105" t="inlineStr"/>
-      <c r="J105" t="inlineStr"/>
+      <c r="J105" t="n">
+        <v>0.4676</v>
+      </c>
       <c r="K105" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4126,7 +4506,9 @@
         <v>0</v>
       </c>
       <c r="I106" t="inlineStr"/>
-      <c r="J106" t="inlineStr"/>
+      <c r="J106" t="n">
+        <v>0.4676</v>
+      </c>
       <c r="K106" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4163,7 +4545,9 @@
         <v>0</v>
       </c>
       <c r="I107" t="inlineStr"/>
-      <c r="J107" t="inlineStr"/>
+      <c r="J107" t="n">
+        <v>0.4676</v>
+      </c>
       <c r="K107" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4200,7 +4584,9 @@
         <v>0</v>
       </c>
       <c r="I108" t="inlineStr"/>
-      <c r="J108" t="inlineStr"/>
+      <c r="J108" t="n">
+        <v>0.4676</v>
+      </c>
       <c r="K108" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4237,7 +4623,9 @@
         <v>0</v>
       </c>
       <c r="I109" t="inlineStr"/>
-      <c r="J109" t="inlineStr"/>
+      <c r="J109" t="n">
+        <v>0.4676</v>
+      </c>
       <c r="K109" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4274,7 +4662,9 @@
         <v>0</v>
       </c>
       <c r="I110" t="inlineStr"/>
-      <c r="J110" t="inlineStr"/>
+      <c r="J110" t="n">
+        <v>0.4676</v>
+      </c>
       <c r="K110" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4311,7 +4701,9 @@
         <v>0</v>
       </c>
       <c r="I111" t="inlineStr"/>
-      <c r="J111" t="inlineStr"/>
+      <c r="J111" t="n">
+        <v>0.4676</v>
+      </c>
       <c r="K111" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4348,7 +4740,9 @@
         <v>0</v>
       </c>
       <c r="I112" t="inlineStr"/>
-      <c r="J112" t="inlineStr"/>
+      <c r="J112" t="n">
+        <v>0.4676</v>
+      </c>
       <c r="K112" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4385,7 +4779,9 @@
         <v>0</v>
       </c>
       <c r="I113" t="inlineStr"/>
-      <c r="J113" t="inlineStr"/>
+      <c r="J113" t="n">
+        <v>0.4676</v>
+      </c>
       <c r="K113" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4419,12 +4815,12 @@
         <v>62022292.5781295</v>
       </c>
       <c r="H114" t="n">
-        <v>1</v>
-      </c>
-      <c r="I114" t="n">
-        <v>0.4488</v>
-      </c>
-      <c r="J114" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I114" t="inlineStr"/>
+      <c r="J114" t="n">
+        <v>0.4676</v>
+      </c>
       <c r="K114" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4458,12 +4854,12 @@
         <v>62101391.3875295</v>
       </c>
       <c r="H115" t="n">
-        <v>1</v>
-      </c>
-      <c r="I115" t="n">
-        <v>0.451</v>
-      </c>
-      <c r="J115" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I115" t="inlineStr"/>
+      <c r="J115" t="n">
+        <v>0.4676</v>
+      </c>
       <c r="K115" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4497,12 +4893,12 @@
         <v>62106094.5568295</v>
       </c>
       <c r="H116" t="n">
-        <v>1</v>
-      </c>
-      <c r="I116" t="n">
-        <v>0.452</v>
-      </c>
-      <c r="J116" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I116" t="inlineStr"/>
+      <c r="J116" t="n">
+        <v>0.4676</v>
+      </c>
       <c r="K116" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4536,12 +4932,12 @@
         <v>62107815.4063295</v>
       </c>
       <c r="H117" t="n">
-        <v>1</v>
-      </c>
-      <c r="I117" t="n">
-        <v>0.453</v>
-      </c>
-      <c r="J117" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I117" t="inlineStr"/>
+      <c r="J117" t="n">
+        <v>0.4676</v>
+      </c>
       <c r="K117" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4575,12 +4971,12 @@
         <v>62106092.3279295</v>
       </c>
       <c r="H118" t="n">
-        <v>1</v>
-      </c>
-      <c r="I118" t="n">
-        <v>0.4616</v>
-      </c>
-      <c r="J118" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I118" t="inlineStr"/>
+      <c r="J118" t="n">
+        <v>0.4676</v>
+      </c>
       <c r="K118" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4617,7 +5013,9 @@
         <v>0</v>
       </c>
       <c r="I119" t="inlineStr"/>
-      <c r="J119" t="inlineStr"/>
+      <c r="J119" t="n">
+        <v>0.4676</v>
+      </c>
       <c r="K119" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4654,7 +5052,9 @@
         <v>0</v>
       </c>
       <c r="I120" t="inlineStr"/>
-      <c r="J120" t="inlineStr"/>
+      <c r="J120" t="n">
+        <v>0.4676</v>
+      </c>
       <c r="K120" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4691,7 +5091,9 @@
         <v>0</v>
       </c>
       <c r="I121" t="inlineStr"/>
-      <c r="J121" t="inlineStr"/>
+      <c r="J121" t="n">
+        <v>0.4676</v>
+      </c>
       <c r="K121" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4728,7 +5130,9 @@
         <v>0</v>
       </c>
       <c r="I122" t="inlineStr"/>
-      <c r="J122" t="inlineStr"/>
+      <c r="J122" t="n">
+        <v>0.4676</v>
+      </c>
       <c r="K122" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4765,7 +5169,9 @@
         <v>0</v>
       </c>
       <c r="I123" t="inlineStr"/>
-      <c r="J123" t="inlineStr"/>
+      <c r="J123" t="n">
+        <v>0.4676</v>
+      </c>
       <c r="K123" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4802,7 +5208,9 @@
         <v>0</v>
       </c>
       <c r="I124" t="inlineStr"/>
-      <c r="J124" t="inlineStr"/>
+      <c r="J124" t="n">
+        <v>0.4676</v>
+      </c>
       <c r="K124" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4836,12 +5244,12 @@
         <v>65665060.22652949</v>
       </c>
       <c r="H125" t="n">
-        <v>1</v>
-      </c>
-      <c r="I125" t="n">
-        <v>0.4489</v>
-      </c>
-      <c r="J125" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I125" t="inlineStr"/>
+      <c r="J125" t="n">
+        <v>0.4676</v>
+      </c>
       <c r="K125" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4875,12 +5283,12 @@
         <v>65666160.22652949</v>
       </c>
       <c r="H126" t="n">
-        <v>1</v>
-      </c>
-      <c r="I126" t="n">
-        <v>0.46</v>
-      </c>
-      <c r="J126" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I126" t="inlineStr"/>
+      <c r="J126" t="n">
+        <v>0.4676</v>
+      </c>
       <c r="K126" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4917,7 +5325,9 @@
         <v>0</v>
       </c>
       <c r="I127" t="inlineStr"/>
-      <c r="J127" t="inlineStr"/>
+      <c r="J127" t="n">
+        <v>0.4676</v>
+      </c>
       <c r="K127" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4954,7 +5364,9 @@
         <v>0</v>
       </c>
       <c r="I128" t="inlineStr"/>
-      <c r="J128" t="inlineStr"/>
+      <c r="J128" t="n">
+        <v>0.4676</v>
+      </c>
       <c r="K128" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4991,7 +5403,9 @@
         <v>0</v>
       </c>
       <c r="I129" t="inlineStr"/>
-      <c r="J129" t="inlineStr"/>
+      <c r="J129" t="n">
+        <v>0.4676</v>
+      </c>
       <c r="K129" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5028,7 +5442,9 @@
         <v>0</v>
       </c>
       <c r="I130" t="inlineStr"/>
-      <c r="J130" t="inlineStr"/>
+      <c r="J130" t="n">
+        <v>0.4676</v>
+      </c>
       <c r="K130" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5065,7 +5481,9 @@
         <v>0</v>
       </c>
       <c r="I131" t="inlineStr"/>
-      <c r="J131" t="inlineStr"/>
+      <c r="J131" t="n">
+        <v>0.4676</v>
+      </c>
       <c r="K131" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5102,7 +5520,9 @@
         <v>0</v>
       </c>
       <c r="I132" t="inlineStr"/>
-      <c r="J132" t="inlineStr"/>
+      <c r="J132" t="n">
+        <v>0.4676</v>
+      </c>
       <c r="K132" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5139,7 +5559,9 @@
         <v>0</v>
       </c>
       <c r="I133" t="inlineStr"/>
-      <c r="J133" t="inlineStr"/>
+      <c r="J133" t="n">
+        <v>0.4676</v>
+      </c>
       <c r="K133" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5176,7 +5598,9 @@
         <v>0</v>
       </c>
       <c r="I134" t="inlineStr"/>
-      <c r="J134" t="inlineStr"/>
+      <c r="J134" t="n">
+        <v>0.4676</v>
+      </c>
       <c r="K134" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5213,7 +5637,9 @@
         <v>0</v>
       </c>
       <c r="I135" t="inlineStr"/>
-      <c r="J135" t="inlineStr"/>
+      <c r="J135" t="n">
+        <v>0.4676</v>
+      </c>
       <c r="K135" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5250,7 +5676,9 @@
         <v>0</v>
       </c>
       <c r="I136" t="inlineStr"/>
-      <c r="J136" t="inlineStr"/>
+      <c r="J136" t="n">
+        <v>0.4676</v>
+      </c>
       <c r="K136" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5287,7 +5715,9 @@
         <v>0</v>
       </c>
       <c r="I137" t="inlineStr"/>
-      <c r="J137" t="inlineStr"/>
+      <c r="J137" t="n">
+        <v>0.4676</v>
+      </c>
       <c r="K137" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5324,7 +5754,9 @@
         <v>0</v>
       </c>
       <c r="I138" t="inlineStr"/>
-      <c r="J138" t="inlineStr"/>
+      <c r="J138" t="n">
+        <v>0.4676</v>
+      </c>
       <c r="K138" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5361,7 +5793,9 @@
         <v>0</v>
       </c>
       <c r="I139" t="inlineStr"/>
-      <c r="J139" t="inlineStr"/>
+      <c r="J139" t="n">
+        <v>0.4676</v>
+      </c>
       <c r="K139" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5398,7 +5832,9 @@
         <v>0</v>
       </c>
       <c r="I140" t="inlineStr"/>
-      <c r="J140" t="inlineStr"/>
+      <c r="J140" t="n">
+        <v>0.4676</v>
+      </c>
       <c r="K140" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5435,7 +5871,9 @@
         <v>0</v>
       </c>
       <c r="I141" t="inlineStr"/>
-      <c r="J141" t="inlineStr"/>
+      <c r="J141" t="n">
+        <v>0.4676</v>
+      </c>
       <c r="K141" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5472,7 +5910,9 @@
         <v>0</v>
       </c>
       <c r="I142" t="inlineStr"/>
-      <c r="J142" t="inlineStr"/>
+      <c r="J142" t="n">
+        <v>0.4676</v>
+      </c>
       <c r="K142" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5509,7 +5949,9 @@
         <v>0</v>
       </c>
       <c r="I143" t="inlineStr"/>
-      <c r="J143" t="inlineStr"/>
+      <c r="J143" t="n">
+        <v>0.4676</v>
+      </c>
       <c r="K143" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5546,7 +5988,9 @@
         <v>0</v>
       </c>
       <c r="I144" t="inlineStr"/>
-      <c r="J144" t="inlineStr"/>
+      <c r="J144" t="n">
+        <v>0.4676</v>
+      </c>
       <c r="K144" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5583,7 +6027,9 @@
         <v>0</v>
       </c>
       <c r="I145" t="inlineStr"/>
-      <c r="J145" t="inlineStr"/>
+      <c r="J145" t="n">
+        <v>0.4676</v>
+      </c>
       <c r="K145" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5620,7 +6066,9 @@
         <v>0</v>
       </c>
       <c r="I146" t="inlineStr"/>
-      <c r="J146" t="inlineStr"/>
+      <c r="J146" t="n">
+        <v>0.4676</v>
+      </c>
       <c r="K146" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5657,7 +6105,9 @@
         <v>0</v>
       </c>
       <c r="I147" t="inlineStr"/>
-      <c r="J147" t="inlineStr"/>
+      <c r="J147" t="n">
+        <v>0.4676</v>
+      </c>
       <c r="K147" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5694,7 +6144,9 @@
         <v>0</v>
       </c>
       <c r="I148" t="inlineStr"/>
-      <c r="J148" t="inlineStr"/>
+      <c r="J148" t="n">
+        <v>0.4676</v>
+      </c>
       <c r="K148" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5731,7 +6183,9 @@
         <v>0</v>
       </c>
       <c r="I149" t="inlineStr"/>
-      <c r="J149" t="inlineStr"/>
+      <c r="J149" t="n">
+        <v>0.4676</v>
+      </c>
       <c r="K149" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5768,7 +6222,9 @@
         <v>0</v>
       </c>
       <c r="I150" t="inlineStr"/>
-      <c r="J150" t="inlineStr"/>
+      <c r="J150" t="n">
+        <v>0.4676</v>
+      </c>
       <c r="K150" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5802,12 +6258,12 @@
         <v>60936022.81341904</v>
       </c>
       <c r="H151" t="n">
-        <v>1</v>
-      </c>
-      <c r="I151" t="n">
-        <v>0.4451</v>
-      </c>
-      <c r="J151" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I151" t="inlineStr"/>
+      <c r="J151" t="n">
+        <v>0.4676</v>
+      </c>
       <c r="K151" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5841,12 +6297,12 @@
         <v>60936022.81341904</v>
       </c>
       <c r="H152" t="n">
-        <v>1</v>
-      </c>
-      <c r="I152" t="n">
-        <v>0.4565</v>
-      </c>
-      <c r="J152" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I152" t="inlineStr"/>
+      <c r="J152" t="n">
+        <v>0.4676</v>
+      </c>
       <c r="K152" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5880,12 +6336,12 @@
         <v>60278016.81341904</v>
       </c>
       <c r="H153" t="n">
-        <v>1</v>
-      </c>
-      <c r="I153" t="n">
-        <v>0.4565</v>
-      </c>
-      <c r="J153" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I153" t="inlineStr"/>
+      <c r="J153" t="n">
+        <v>0.4676</v>
+      </c>
       <c r="K153" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5919,12 +6375,12 @@
         <v>60161446.81341904</v>
       </c>
       <c r="H154" t="n">
-        <v>1</v>
-      </c>
-      <c r="I154" t="n">
-        <v>0.4562</v>
-      </c>
-      <c r="J154" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I154" t="inlineStr"/>
+      <c r="J154" t="n">
+        <v>0.4676</v>
+      </c>
       <c r="K154" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5958,12 +6414,12 @@
         <v>59651749.89172421</v>
       </c>
       <c r="H155" t="n">
-        <v>1</v>
-      </c>
-      <c r="I155" t="n">
-        <v>0.456</v>
-      </c>
-      <c r="J155" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I155" t="inlineStr"/>
+      <c r="J155" t="n">
+        <v>0.4676</v>
+      </c>
       <c r="K155" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6000,7 +6456,9 @@
         <v>0</v>
       </c>
       <c r="I156" t="inlineStr"/>
-      <c r="J156" t="inlineStr"/>
+      <c r="J156" t="n">
+        <v>0.4676</v>
+      </c>
       <c r="K156" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6034,12 +6492,12 @@
         <v>59581649.89172421</v>
       </c>
       <c r="H157" t="n">
-        <v>1</v>
-      </c>
-      <c r="I157" t="n">
-        <v>0.4555</v>
-      </c>
-      <c r="J157" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I157" t="inlineStr"/>
+      <c r="J157" t="n">
+        <v>0.4676</v>
+      </c>
       <c r="K157" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6073,12 +6531,12 @@
         <v>59581649.89172421</v>
       </c>
       <c r="H158" t="n">
-        <v>1</v>
-      </c>
-      <c r="I158" t="n">
-        <v>0.4466</v>
-      </c>
-      <c r="J158" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I158" t="inlineStr"/>
+      <c r="J158" t="n">
+        <v>0.4676</v>
+      </c>
       <c r="K158" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6112,12 +6570,12 @@
         <v>59581649.89172421</v>
       </c>
       <c r="H159" t="n">
-        <v>1</v>
-      </c>
-      <c r="I159" t="n">
-        <v>0.4466</v>
-      </c>
-      <c r="J159" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I159" t="inlineStr"/>
+      <c r="J159" t="n">
+        <v>0.4676</v>
+      </c>
       <c r="K159" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6151,12 +6609,12 @@
         <v>59581649.89172421</v>
       </c>
       <c r="H160" t="n">
-        <v>1</v>
-      </c>
-      <c r="I160" t="n">
-        <v>0.4466</v>
-      </c>
-      <c r="J160" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I160" t="inlineStr"/>
+      <c r="J160" t="n">
+        <v>0.4676</v>
+      </c>
       <c r="K160" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6190,12 +6648,12 @@
         <v>57272191.58332421</v>
       </c>
       <c r="H161" t="n">
-        <v>1</v>
-      </c>
-      <c r="I161" t="n">
-        <v>0.4466</v>
-      </c>
-      <c r="J161" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I161" t="inlineStr"/>
+      <c r="J161" t="n">
+        <v>0.4676</v>
+      </c>
       <c r="K161" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6229,12 +6687,12 @@
         <v>57272191.58332421</v>
       </c>
       <c r="H162" t="n">
-        <v>1</v>
-      </c>
-      <c r="I162" t="n">
-        <v>0.4465</v>
-      </c>
-      <c r="J162" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I162" t="inlineStr"/>
+      <c r="J162" t="n">
+        <v>0.4676</v>
+      </c>
       <c r="K162" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6268,12 +6726,12 @@
         <v>57397771.58332421</v>
       </c>
       <c r="H163" t="n">
-        <v>1</v>
-      </c>
-      <c r="I163" t="n">
-        <v>0.4465</v>
-      </c>
-      <c r="J163" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I163" t="inlineStr"/>
+      <c r="J163" t="n">
+        <v>0.4676</v>
+      </c>
       <c r="K163" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6307,12 +6765,12 @@
         <v>57304199.60992421</v>
       </c>
       <c r="H164" t="n">
-        <v>1</v>
-      </c>
-      <c r="I164" t="n">
-        <v>0.4554</v>
-      </c>
-      <c r="J164" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I164" t="inlineStr"/>
+      <c r="J164" t="n">
+        <v>0.4676</v>
+      </c>
       <c r="K164" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6346,12 +6804,12 @@
         <v>52197906.52432421</v>
       </c>
       <c r="H165" t="n">
-        <v>1</v>
-      </c>
-      <c r="I165" t="n">
-        <v>0.4454</v>
-      </c>
-      <c r="J165" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I165" t="inlineStr"/>
+      <c r="J165" t="n">
+        <v>0.4676</v>
+      </c>
       <c r="K165" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6385,12 +6843,12 @@
         <v>52420313.52432421</v>
       </c>
       <c r="H166" t="n">
-        <v>1</v>
-      </c>
-      <c r="I166" t="n">
-        <v>0.4392</v>
-      </c>
-      <c r="J166" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I166" t="inlineStr"/>
+      <c r="J166" t="n">
+        <v>0.4676</v>
+      </c>
       <c r="K166" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6424,12 +6882,12 @@
         <v>54714394.47842421</v>
       </c>
       <c r="H167" t="n">
-        <v>1</v>
-      </c>
-      <c r="I167" t="n">
-        <v>0.4555</v>
-      </c>
-      <c r="J167" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I167" t="inlineStr"/>
+      <c r="J167" t="n">
+        <v>0.4676</v>
+      </c>
       <c r="K167" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6463,12 +6921,12 @@
         <v>54714394.47842421</v>
       </c>
       <c r="H168" t="n">
-        <v>1</v>
-      </c>
-      <c r="I168" t="n">
-        <v>0.4556</v>
-      </c>
-      <c r="J168" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I168" t="inlineStr"/>
+      <c r="J168" t="n">
+        <v>0.4676</v>
+      </c>
       <c r="K168" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6502,12 +6960,12 @@
         <v>54714394.47842421</v>
       </c>
       <c r="H169" t="n">
-        <v>1</v>
-      </c>
-      <c r="I169" t="n">
-        <v>0.4556</v>
-      </c>
-      <c r="J169" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I169" t="inlineStr"/>
+      <c r="J169" t="n">
+        <v>0.4676</v>
+      </c>
       <c r="K169" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6541,12 +6999,12 @@
         <v>56367945.9893242</v>
       </c>
       <c r="H170" t="n">
-        <v>1</v>
-      </c>
-      <c r="I170" t="n">
-        <v>0.4556</v>
-      </c>
-      <c r="J170" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I170" t="inlineStr"/>
+      <c r="J170" t="n">
+        <v>0.4676</v>
+      </c>
       <c r="K170" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6580,12 +7038,12 @@
         <v>54865785.9893242</v>
       </c>
       <c r="H171" t="n">
-        <v>1</v>
-      </c>
-      <c r="I171" t="n">
-        <v>0.4655</v>
-      </c>
-      <c r="J171" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I171" t="inlineStr"/>
+      <c r="J171" t="n">
+        <v>0.4676</v>
+      </c>
       <c r="K171" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6619,12 +7077,12 @@
         <v>53220646.9444242</v>
       </c>
       <c r="H172" t="n">
-        <v>1</v>
-      </c>
-      <c r="I172" t="n">
-        <v>0.4556</v>
-      </c>
-      <c r="J172" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I172" t="inlineStr"/>
+      <c r="J172" t="n">
+        <v>0.4676</v>
+      </c>
       <c r="K172" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6658,12 +7116,12 @@
         <v>53314918.9444242</v>
       </c>
       <c r="H173" t="n">
-        <v>1</v>
-      </c>
-      <c r="I173" t="n">
-        <v>0.4494</v>
-      </c>
-      <c r="J173" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I173" t="inlineStr"/>
+      <c r="J173" t="n">
+        <v>0.4676</v>
+      </c>
       <c r="K173" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6697,12 +7155,12 @@
         <v>53314918.9444242</v>
       </c>
       <c r="H174" t="n">
-        <v>1</v>
-      </c>
-      <c r="I174" t="n">
-        <v>0.4624</v>
-      </c>
-      <c r="J174" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I174" t="inlineStr"/>
+      <c r="J174" t="n">
+        <v>0.4676</v>
+      </c>
       <c r="K174" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6736,12 +7194,12 @@
         <v>55245869.5256242</v>
       </c>
       <c r="H175" t="n">
-        <v>1</v>
-      </c>
-      <c r="I175" t="n">
-        <v>0.4624</v>
-      </c>
-      <c r="J175" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I175" t="inlineStr"/>
+      <c r="J175" t="n">
+        <v>0.4676</v>
+      </c>
       <c r="K175" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6775,12 +7233,12 @@
         <v>55239339.5256242</v>
       </c>
       <c r="H176" t="n">
-        <v>1</v>
-      </c>
-      <c r="I176" t="n">
-        <v>0.4657</v>
-      </c>
-      <c r="J176" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I176" t="inlineStr"/>
+      <c r="J176" t="n">
+        <v>0.4676</v>
+      </c>
       <c r="K176" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6814,12 +7272,12 @@
         <v>55239339.5256242</v>
       </c>
       <c r="H177" t="n">
-        <v>1</v>
-      </c>
-      <c r="I177" t="n">
-        <v>0.4602</v>
-      </c>
-      <c r="J177" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I177" t="inlineStr"/>
+      <c r="J177" t="n">
+        <v>0.4676</v>
+      </c>
       <c r="K177" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6853,12 +7311,12 @@
         <v>55240414.5256242</v>
       </c>
       <c r="H178" t="n">
-        <v>1</v>
-      </c>
-      <c r="I178" t="n">
-        <v>0.4602</v>
-      </c>
-      <c r="J178" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I178" t="inlineStr"/>
+      <c r="J178" t="n">
+        <v>0.4676</v>
+      </c>
       <c r="K178" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6892,12 +7350,12 @@
         <v>55240414.5256242</v>
       </c>
       <c r="H179" t="n">
-        <v>1</v>
-      </c>
-      <c r="I179" t="n">
-        <v>0.4654</v>
-      </c>
-      <c r="J179" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I179" t="inlineStr"/>
+      <c r="J179" t="n">
+        <v>0.4676</v>
+      </c>
       <c r="K179" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6934,7 +7392,9 @@
         <v>0</v>
       </c>
       <c r="I180" t="inlineStr"/>
-      <c r="J180" t="inlineStr"/>
+      <c r="J180" t="n">
+        <v>0.4676</v>
+      </c>
       <c r="K180" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6968,12 +7428,12 @@
         <v>55095664.7676242</v>
       </c>
       <c r="H181" t="n">
-        <v>1</v>
-      </c>
-      <c r="I181" t="n">
-        <v>0.4607</v>
-      </c>
-      <c r="J181" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I181" t="inlineStr"/>
+      <c r="J181" t="n">
+        <v>0.4676</v>
+      </c>
       <c r="K181" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -7007,12 +7467,12 @@
         <v>55092664.7676242</v>
       </c>
       <c r="H182" t="n">
-        <v>1</v>
-      </c>
-      <c r="I182" t="n">
-        <v>0.469</v>
-      </c>
-      <c r="J182" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I182" t="inlineStr"/>
+      <c r="J182" t="n">
+        <v>0.4676</v>
+      </c>
       <c r="K182" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -7046,12 +7506,12 @@
         <v>54862169.8334242</v>
       </c>
       <c r="H183" t="n">
-        <v>1</v>
-      </c>
-      <c r="I183" t="n">
-        <v>0.4609</v>
-      </c>
-      <c r="J183" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I183" t="inlineStr"/>
+      <c r="J183" t="n">
+        <v>0.4676</v>
+      </c>
       <c r="K183" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -7085,12 +7545,12 @@
         <v>55245147.0069242</v>
       </c>
       <c r="H184" t="n">
-        <v>1</v>
-      </c>
-      <c r="I184" t="n">
-        <v>0.4511</v>
-      </c>
-      <c r="J184" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I184" t="inlineStr"/>
+      <c r="J184" t="n">
+        <v>0.4676</v>
+      </c>
       <c r="K184" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -7124,12 +7584,12 @@
         <v>55238613.42642421</v>
       </c>
       <c r="H185" t="n">
-        <v>1</v>
-      </c>
-      <c r="I185" t="n">
-        <v>0.4677</v>
-      </c>
-      <c r="J185" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I185" t="inlineStr"/>
+      <c r="J185" t="n">
+        <v>0.4676</v>
+      </c>
       <c r="K185" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -7163,12 +7623,12 @@
         <v>54800291.42642421</v>
       </c>
       <c r="H186" t="n">
-        <v>1</v>
-      </c>
-      <c r="I186" t="n">
-        <v>0.4676</v>
-      </c>
-      <c r="J186" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I186" t="inlineStr"/>
+      <c r="J186" t="n">
+        <v>0.4676</v>
+      </c>
       <c r="K186" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -7202,12 +7662,12 @@
         <v>55100291.42642421</v>
       </c>
       <c r="H187" t="n">
-        <v>1</v>
-      </c>
-      <c r="I187" t="n">
-        <v>0.4531</v>
-      </c>
-      <c r="J187" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I187" t="inlineStr"/>
+      <c r="J187" t="n">
+        <v>0.4676</v>
+      </c>
       <c r="K187" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -7241,12 +7701,12 @@
         <v>53818250.23152421</v>
       </c>
       <c r="H188" t="n">
-        <v>1</v>
-      </c>
-      <c r="I188" t="n">
-        <v>0.4559</v>
-      </c>
-      <c r="J188" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I188" t="inlineStr"/>
+      <c r="J188" t="n">
+        <v>0.4676</v>
+      </c>
       <c r="K188" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -7280,12 +7740,12 @@
         <v>53877933.23152421</v>
       </c>
       <c r="H189" t="n">
-        <v>1</v>
-      </c>
-      <c r="I189" t="n">
-        <v>0.443</v>
-      </c>
-      <c r="J189" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I189" t="inlineStr"/>
+      <c r="J189" t="n">
+        <v>0.4676</v>
+      </c>
       <c r="K189" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -7319,12 +7779,12 @@
         <v>53877933.23152421</v>
       </c>
       <c r="H190" t="n">
-        <v>1</v>
-      </c>
-      <c r="I190" t="n">
-        <v>0.4545</v>
-      </c>
-      <c r="J190" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I190" t="inlineStr"/>
+      <c r="J190" t="n">
+        <v>0.4676</v>
+      </c>
       <c r="K190" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -7358,12 +7818,12 @@
         <v>54596208.72142421</v>
       </c>
       <c r="H191" t="n">
-        <v>1</v>
-      </c>
-      <c r="I191" t="n">
-        <v>0.4545</v>
-      </c>
-      <c r="J191" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I191" t="inlineStr"/>
+      <c r="J191" t="n">
+        <v>0.4676</v>
+      </c>
       <c r="K191" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -7397,12 +7857,12 @@
         <v>50768307.97552421</v>
       </c>
       <c r="H192" t="n">
-        <v>1</v>
-      </c>
-      <c r="I192" t="n">
-        <v>0.4645</v>
-      </c>
-      <c r="J192" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I192" t="inlineStr"/>
+      <c r="J192" t="n">
+        <v>0.4676</v>
+      </c>
       <c r="K192" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -7436,12 +7896,12 @@
         <v>66307652.13359644</v>
       </c>
       <c r="H193" t="n">
-        <v>1</v>
-      </c>
-      <c r="I193" t="n">
-        <v>0.4643</v>
-      </c>
-      <c r="J193" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I193" t="inlineStr"/>
+      <c r="J193" t="n">
+        <v>0.4676</v>
+      </c>
       <c r="K193" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -7478,7 +7938,9 @@
         <v>0</v>
       </c>
       <c r="I194" t="inlineStr"/>
-      <c r="J194" t="inlineStr"/>
+      <c r="J194" t="n">
+        <v>0.4676</v>
+      </c>
       <c r="K194" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -7512,12 +7974,12 @@
         <v>65817361.24539644</v>
       </c>
       <c r="H195" t="n">
-        <v>1</v>
-      </c>
-      <c r="I195" t="n">
-        <v>0.46</v>
-      </c>
-      <c r="J195" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I195" t="inlineStr"/>
+      <c r="J195" t="n">
+        <v>0.4676</v>
+      </c>
       <c r="K195" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -7554,7 +8016,9 @@
         <v>0</v>
       </c>
       <c r="I196" t="inlineStr"/>
-      <c r="J196" t="inlineStr"/>
+      <c r="J196" t="n">
+        <v>0.4676</v>
+      </c>
       <c r="K196" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -7591,7 +8055,9 @@
         <v>0</v>
       </c>
       <c r="I197" t="inlineStr"/>
-      <c r="J197" t="inlineStr"/>
+      <c r="J197" t="n">
+        <v>0.4676</v>
+      </c>
       <c r="K197" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -7628,7 +8094,9 @@
         <v>0</v>
       </c>
       <c r="I198" t="inlineStr"/>
-      <c r="J198" t="inlineStr"/>
+      <c r="J198" t="n">
+        <v>0.4676</v>
+      </c>
       <c r="K198" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -7665,7 +8133,9 @@
         <v>0</v>
       </c>
       <c r="I199" t="inlineStr"/>
-      <c r="J199" t="inlineStr"/>
+      <c r="J199" t="n">
+        <v>0.4676</v>
+      </c>
       <c r="K199" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -7702,7 +8172,9 @@
         <v>0</v>
       </c>
       <c r="I200" t="inlineStr"/>
-      <c r="J200" t="inlineStr"/>
+      <c r="J200" t="n">
+        <v>0.4676</v>
+      </c>
       <c r="K200" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -7739,7 +8211,9 @@
         <v>0</v>
       </c>
       <c r="I201" t="inlineStr"/>
-      <c r="J201" t="inlineStr"/>
+      <c r="J201" t="n">
+        <v>0.4676</v>
+      </c>
       <c r="K201" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -7776,7 +8250,9 @@
         <v>0</v>
       </c>
       <c r="I202" t="inlineStr"/>
-      <c r="J202" t="inlineStr"/>
+      <c r="J202" t="n">
+        <v>0.4676</v>
+      </c>
       <c r="K202" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -7813,7 +8289,9 @@
         <v>0</v>
       </c>
       <c r="I203" t="inlineStr"/>
-      <c r="J203" t="inlineStr"/>
+      <c r="J203" t="n">
+        <v>0.4676</v>
+      </c>
       <c r="K203" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -7850,7 +8328,9 @@
         <v>0</v>
       </c>
       <c r="I204" t="inlineStr"/>
-      <c r="J204" t="inlineStr"/>
+      <c r="J204" t="n">
+        <v>0.4676</v>
+      </c>
       <c r="K204" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -7887,7 +8367,9 @@
         <v>0</v>
       </c>
       <c r="I205" t="inlineStr"/>
-      <c r="J205" t="inlineStr"/>
+      <c r="J205" t="n">
+        <v>0.4676</v>
+      </c>
       <c r="K205" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -7924,7 +8406,9 @@
         <v>0</v>
       </c>
       <c r="I206" t="inlineStr"/>
-      <c r="J206" t="inlineStr"/>
+      <c r="J206" t="n">
+        <v>0.4676</v>
+      </c>
       <c r="K206" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -7961,7 +8445,9 @@
         <v>0</v>
       </c>
       <c r="I207" t="inlineStr"/>
-      <c r="J207" t="inlineStr"/>
+      <c r="J207" t="n">
+        <v>0.4676</v>
+      </c>
       <c r="K207" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -7998,7 +8484,9 @@
         <v>0</v>
       </c>
       <c r="I208" t="inlineStr"/>
-      <c r="J208" t="inlineStr"/>
+      <c r="J208" t="n">
+        <v>0.4676</v>
+      </c>
       <c r="K208" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -8035,7 +8523,9 @@
         <v>0</v>
       </c>
       <c r="I209" t="inlineStr"/>
-      <c r="J209" t="inlineStr"/>
+      <c r="J209" t="n">
+        <v>0.4676</v>
+      </c>
       <c r="K209" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -8072,7 +8562,9 @@
         <v>0</v>
       </c>
       <c r="I210" t="inlineStr"/>
-      <c r="J210" t="inlineStr"/>
+      <c r="J210" t="n">
+        <v>0.4676</v>
+      </c>
       <c r="K210" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -8109,7 +8601,9 @@
         <v>0</v>
       </c>
       <c r="I211" t="inlineStr"/>
-      <c r="J211" t="inlineStr"/>
+      <c r="J211" t="n">
+        <v>0.4676</v>
+      </c>
       <c r="K211" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -8146,7 +8640,9 @@
         <v>0</v>
       </c>
       <c r="I212" t="inlineStr"/>
-      <c r="J212" t="inlineStr"/>
+      <c r="J212" t="n">
+        <v>0.4676</v>
+      </c>
       <c r="K212" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -8183,7 +8679,9 @@
         <v>0</v>
       </c>
       <c r="I213" t="inlineStr"/>
-      <c r="J213" t="inlineStr"/>
+      <c r="J213" t="n">
+        <v>0.4676</v>
+      </c>
       <c r="K213" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -8220,7 +8718,9 @@
         <v>0</v>
       </c>
       <c r="I214" t="inlineStr"/>
-      <c r="J214" t="inlineStr"/>
+      <c r="J214" t="n">
+        <v>0.4676</v>
+      </c>
       <c r="K214" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -8257,7 +8757,9 @@
         <v>0</v>
       </c>
       <c r="I215" t="inlineStr"/>
-      <c r="J215" t="inlineStr"/>
+      <c r="J215" t="n">
+        <v>0.4676</v>
+      </c>
       <c r="K215" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -8294,7 +8796,9 @@
         <v>0</v>
       </c>
       <c r="I216" t="inlineStr"/>
-      <c r="J216" t="inlineStr"/>
+      <c r="J216" t="n">
+        <v>0.4676</v>
+      </c>
       <c r="K216" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -8331,7 +8835,9 @@
         <v>0</v>
       </c>
       <c r="I217" t="inlineStr"/>
-      <c r="J217" t="inlineStr"/>
+      <c r="J217" t="n">
+        <v>0.4676</v>
+      </c>
       <c r="K217" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -8368,7 +8874,9 @@
         <v>0</v>
       </c>
       <c r="I218" t="inlineStr"/>
-      <c r="J218" t="inlineStr"/>
+      <c r="J218" t="n">
+        <v>0.4676</v>
+      </c>
       <c r="K218" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -8402,16 +8910,20 @@
         <v>95624676.68619394</v>
       </c>
       <c r="H219" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I219" t="inlineStr"/>
-      <c r="J219" t="inlineStr"/>
+      <c r="J219" t="n">
+        <v>0.4676</v>
+      </c>
       <c r="K219" t="inlineStr">
         <is>
-          <t>매도 체결</t>
-        </is>
-      </c>
-      <c r="L219" t="inlineStr"/>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L219" t="n">
+        <v>1</v>
+      </c>
       <c r="M219" t="inlineStr"/>
     </row>
     <row r="220">
@@ -8437,11 +8949,17 @@
         <v>89915002.67029394</v>
       </c>
       <c r="H220" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I220" t="inlineStr"/>
-      <c r="J220" t="inlineStr"/>
-      <c r="K220" t="inlineStr"/>
+      <c r="J220" t="n">
+        <v>0.4676</v>
+      </c>
+      <c r="K220" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L220" t="n">
         <v>1</v>
       </c>
@@ -8470,11 +8988,17 @@
         <v>70940250.67919394</v>
       </c>
       <c r="H221" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I221" t="inlineStr"/>
-      <c r="J221" t="inlineStr"/>
-      <c r="K221" t="inlineStr"/>
+      <c r="J221" t="n">
+        <v>0.4676</v>
+      </c>
+      <c r="K221" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L221" t="n">
         <v>1</v>
       </c>
@@ -8503,11 +9027,17 @@
         <v>64421039.82009394</v>
       </c>
       <c r="H222" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I222" t="inlineStr"/>
-      <c r="J222" t="inlineStr"/>
-      <c r="K222" t="inlineStr"/>
+      <c r="J222" t="n">
+        <v>0.4676</v>
+      </c>
+      <c r="K222" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L222" t="n">
         <v>1</v>
       </c>
@@ -8536,11 +9066,17 @@
         <v>65010896.04059394</v>
       </c>
       <c r="H223" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I223" t="inlineStr"/>
-      <c r="J223" t="inlineStr"/>
-      <c r="K223" t="inlineStr"/>
+      <c r="J223" t="n">
+        <v>0.4676</v>
+      </c>
+      <c r="K223" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L223" t="n">
         <v>1</v>
       </c>
@@ -8569,11 +9105,17 @@
         <v>63755679.25759394</v>
       </c>
       <c r="H224" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I224" t="inlineStr"/>
-      <c r="J224" t="inlineStr"/>
-      <c r="K224" t="inlineStr"/>
+      <c r="J224" t="n">
+        <v>0.4676</v>
+      </c>
+      <c r="K224" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L224" t="n">
         <v>1</v>
       </c>
@@ -8602,11 +9144,17 @@
         <v>47906073.62079395</v>
       </c>
       <c r="H225" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I225" t="inlineStr"/>
-      <c r="J225" t="inlineStr"/>
-      <c r="K225" t="inlineStr"/>
+      <c r="J225" t="n">
+        <v>0.4676</v>
+      </c>
+      <c r="K225" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L225" t="n">
         <v>1</v>
       </c>
@@ -8638,8 +9186,14 @@
         <v>0</v>
       </c>
       <c r="I226" t="inlineStr"/>
-      <c r="J226" t="inlineStr"/>
-      <c r="K226" t="inlineStr"/>
+      <c r="J226" t="n">
+        <v>0.4676</v>
+      </c>
+      <c r="K226" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L226" t="n">
         <v>1</v>
       </c>
@@ -8671,8 +9225,14 @@
         <v>0</v>
       </c>
       <c r="I227" t="inlineStr"/>
-      <c r="J227" t="inlineStr"/>
-      <c r="K227" t="inlineStr"/>
+      <c r="J227" t="n">
+        <v>0.4676</v>
+      </c>
+      <c r="K227" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L227" t="n">
         <v>1</v>
       </c>
@@ -8704,8 +9264,14 @@
         <v>0</v>
       </c>
       <c r="I228" t="inlineStr"/>
-      <c r="J228" t="inlineStr"/>
-      <c r="K228" t="inlineStr"/>
+      <c r="J228" t="n">
+        <v>0.4676</v>
+      </c>
+      <c r="K228" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L228" t="n">
         <v>1</v>
       </c>
@@ -8737,8 +9303,14 @@
         <v>0</v>
       </c>
       <c r="I229" t="inlineStr"/>
-      <c r="J229" t="inlineStr"/>
-      <c r="K229" t="inlineStr"/>
+      <c r="J229" t="n">
+        <v>0.4676</v>
+      </c>
+      <c r="K229" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L229" t="n">
         <v>1</v>
       </c>
@@ -8770,8 +9342,14 @@
         <v>0</v>
       </c>
       <c r="I230" t="inlineStr"/>
-      <c r="J230" t="inlineStr"/>
-      <c r="K230" t="inlineStr"/>
+      <c r="J230" t="n">
+        <v>0.4676</v>
+      </c>
+      <c r="K230" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L230" t="n">
         <v>1</v>
       </c>
@@ -8803,8 +9381,14 @@
         <v>0</v>
       </c>
       <c r="I231" t="inlineStr"/>
-      <c r="J231" t="inlineStr"/>
-      <c r="K231" t="inlineStr"/>
+      <c r="J231" t="n">
+        <v>0.4676</v>
+      </c>
+      <c r="K231" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L231" t="n">
         <v>1</v>
       </c>
@@ -8836,8 +9420,14 @@
         <v>0</v>
       </c>
       <c r="I232" t="inlineStr"/>
-      <c r="J232" t="inlineStr"/>
-      <c r="K232" t="inlineStr"/>
+      <c r="J232" t="n">
+        <v>0.4676</v>
+      </c>
+      <c r="K232" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L232" t="n">
         <v>1</v>
       </c>
@@ -8869,8 +9459,14 @@
         <v>0</v>
       </c>
       <c r="I233" t="inlineStr"/>
-      <c r="J233" t="inlineStr"/>
-      <c r="K233" t="inlineStr"/>
+      <c r="J233" t="n">
+        <v>0.4676</v>
+      </c>
+      <c r="K233" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L233" t="n">
         <v>1</v>
       </c>
@@ -8902,8 +9498,14 @@
         <v>0</v>
       </c>
       <c r="I234" t="inlineStr"/>
-      <c r="J234" t="inlineStr"/>
-      <c r="K234" t="inlineStr"/>
+      <c r="J234" t="n">
+        <v>0.4676</v>
+      </c>
+      <c r="K234" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L234" t="n">
         <v>1</v>
       </c>
@@ -8935,8 +9537,14 @@
         <v>0</v>
       </c>
       <c r="I235" t="inlineStr"/>
-      <c r="J235" t="inlineStr"/>
-      <c r="K235" t="inlineStr"/>
+      <c r="J235" t="n">
+        <v>0.4676</v>
+      </c>
+      <c r="K235" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L235" t="n">
         <v>1</v>
       </c>
@@ -8968,8 +9576,14 @@
         <v>0</v>
       </c>
       <c r="I236" t="inlineStr"/>
-      <c r="J236" t="inlineStr"/>
-      <c r="K236" t="inlineStr"/>
+      <c r="J236" t="n">
+        <v>0.4676</v>
+      </c>
+      <c r="K236" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L236" t="n">
         <v>1</v>
       </c>
@@ -9001,8 +9615,14 @@
         <v>0</v>
       </c>
       <c r="I237" t="inlineStr"/>
-      <c r="J237" t="inlineStr"/>
-      <c r="K237" t="inlineStr"/>
+      <c r="J237" t="n">
+        <v>0.4676</v>
+      </c>
+      <c r="K237" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L237" t="n">
         <v>1</v>
       </c>
@@ -9034,8 +9654,14 @@
         <v>0</v>
       </c>
       <c r="I238" t="inlineStr"/>
-      <c r="J238" t="inlineStr"/>
-      <c r="K238" t="inlineStr"/>
+      <c r="J238" t="n">
+        <v>0.4676</v>
+      </c>
+      <c r="K238" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L238" t="n">
         <v>1</v>
       </c>
@@ -9067,8 +9693,14 @@
         <v>0</v>
       </c>
       <c r="I239" t="inlineStr"/>
-      <c r="J239" t="inlineStr"/>
-      <c r="K239" t="inlineStr"/>
+      <c r="J239" t="n">
+        <v>0.4676</v>
+      </c>
+      <c r="K239" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L239" t="n">
         <v>1</v>
       </c>
@@ -9100,8 +9732,14 @@
         <v>0</v>
       </c>
       <c r="I240" t="inlineStr"/>
-      <c r="J240" t="inlineStr"/>
-      <c r="K240" t="inlineStr"/>
+      <c r="J240" t="n">
+        <v>0.4676</v>
+      </c>
+      <c r="K240" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L240" t="n">
         <v>1</v>
       </c>
@@ -9133,8 +9771,14 @@
         <v>0</v>
       </c>
       <c r="I241" t="inlineStr"/>
-      <c r="J241" t="inlineStr"/>
-      <c r="K241" t="inlineStr"/>
+      <c r="J241" t="n">
+        <v>0.4676</v>
+      </c>
+      <c r="K241" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L241" t="n">
         <v>1</v>
       </c>
@@ -9166,8 +9810,14 @@
         <v>0</v>
       </c>
       <c r="I242" t="inlineStr"/>
-      <c r="J242" t="inlineStr"/>
-      <c r="K242" t="inlineStr"/>
+      <c r="J242" t="n">
+        <v>0.4676</v>
+      </c>
+      <c r="K242" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L242" t="n">
         <v>1</v>
       </c>
@@ -9199,8 +9849,14 @@
         <v>0</v>
       </c>
       <c r="I243" t="inlineStr"/>
-      <c r="J243" t="inlineStr"/>
-      <c r="K243" t="inlineStr"/>
+      <c r="J243" t="n">
+        <v>0.4676</v>
+      </c>
+      <c r="K243" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L243" t="n">
         <v>1</v>
       </c>
@@ -9232,8 +9888,14 @@
         <v>0</v>
       </c>
       <c r="I244" t="inlineStr"/>
-      <c r="J244" t="inlineStr"/>
-      <c r="K244" t="inlineStr"/>
+      <c r="J244" t="n">
+        <v>0.4676</v>
+      </c>
+      <c r="K244" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L244" t="n">
         <v>1</v>
       </c>
@@ -9265,8 +9927,14 @@
         <v>0</v>
       </c>
       <c r="I245" t="inlineStr"/>
-      <c r="J245" t="inlineStr"/>
-      <c r="K245" t="inlineStr"/>
+      <c r="J245" t="n">
+        <v>0.4676</v>
+      </c>
+      <c r="K245" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L245" t="n">
         <v>1</v>
       </c>
@@ -9298,8 +9966,14 @@
         <v>0</v>
       </c>
       <c r="I246" t="inlineStr"/>
-      <c r="J246" t="inlineStr"/>
-      <c r="K246" t="inlineStr"/>
+      <c r="J246" t="n">
+        <v>0.4676</v>
+      </c>
+      <c r="K246" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L246" t="n">
         <v>1</v>
       </c>
@@ -9331,8 +10005,14 @@
         <v>0</v>
       </c>
       <c r="I247" t="inlineStr"/>
-      <c r="J247" t="inlineStr"/>
-      <c r="K247" t="inlineStr"/>
+      <c r="J247" t="n">
+        <v>0.4676</v>
+      </c>
+      <c r="K247" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L247" t="n">
         <v>1</v>
       </c>
@@ -9364,8 +10044,14 @@
         <v>0</v>
       </c>
       <c r="I248" t="inlineStr"/>
-      <c r="J248" t="inlineStr"/>
-      <c r="K248" t="inlineStr"/>
+      <c r="J248" t="n">
+        <v>0.4676</v>
+      </c>
+      <c r="K248" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L248" t="n">
         <v>1</v>
       </c>
@@ -9397,8 +10083,14 @@
         <v>0</v>
       </c>
       <c r="I249" t="inlineStr"/>
-      <c r="J249" t="inlineStr"/>
-      <c r="K249" t="inlineStr"/>
+      <c r="J249" t="n">
+        <v>0.4676</v>
+      </c>
+      <c r="K249" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L249" t="n">
         <v>1</v>
       </c>
@@ -9430,8 +10122,14 @@
         <v>0</v>
       </c>
       <c r="I250" t="inlineStr"/>
-      <c r="J250" t="inlineStr"/>
-      <c r="K250" t="inlineStr"/>
+      <c r="J250" t="n">
+        <v>0.4676</v>
+      </c>
+      <c r="K250" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L250" t="n">
         <v>1</v>
       </c>
@@ -9463,8 +10161,14 @@
         <v>0</v>
       </c>
       <c r="I251" t="inlineStr"/>
-      <c r="J251" t="inlineStr"/>
-      <c r="K251" t="inlineStr"/>
+      <c r="J251" t="n">
+        <v>0.4676</v>
+      </c>
+      <c r="K251" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L251" t="n">
         <v>1</v>
       </c>
@@ -9496,8 +10200,14 @@
         <v>0</v>
       </c>
       <c r="I252" t="inlineStr"/>
-      <c r="J252" t="inlineStr"/>
-      <c r="K252" t="inlineStr"/>
+      <c r="J252" t="n">
+        <v>0.4676</v>
+      </c>
+      <c r="K252" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L252" t="n">
         <v>1</v>
       </c>
@@ -9529,8 +10239,14 @@
         <v>0</v>
       </c>
       <c r="I253" t="inlineStr"/>
-      <c r="J253" t="inlineStr"/>
-      <c r="K253" t="inlineStr"/>
+      <c r="J253" t="n">
+        <v>0.4676</v>
+      </c>
+      <c r="K253" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L253" t="n">
         <v>1</v>
       </c>
@@ -9562,8 +10278,14 @@
         <v>0</v>
       </c>
       <c r="I254" t="inlineStr"/>
-      <c r="J254" t="inlineStr"/>
-      <c r="K254" t="inlineStr"/>
+      <c r="J254" t="n">
+        <v>0.4676</v>
+      </c>
+      <c r="K254" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L254" t="n">
         <v>1</v>
       </c>
@@ -9595,8 +10317,14 @@
         <v>0</v>
       </c>
       <c r="I255" t="inlineStr"/>
-      <c r="J255" t="inlineStr"/>
-      <c r="K255" t="inlineStr"/>
+      <c r="J255" t="n">
+        <v>0.4676</v>
+      </c>
+      <c r="K255" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L255" t="n">
         <v>1</v>
       </c>
@@ -9628,8 +10356,14 @@
         <v>0</v>
       </c>
       <c r="I256" t="inlineStr"/>
-      <c r="J256" t="inlineStr"/>
-      <c r="K256" t="inlineStr"/>
+      <c r="J256" t="n">
+        <v>0.4676</v>
+      </c>
+      <c r="K256" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L256" t="n">
         <v>1</v>
       </c>
@@ -9661,8 +10395,14 @@
         <v>0</v>
       </c>
       <c r="I257" t="inlineStr"/>
-      <c r="J257" t="inlineStr"/>
-      <c r="K257" t="inlineStr"/>
+      <c r="J257" t="n">
+        <v>0.4676</v>
+      </c>
+      <c r="K257" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L257" t="n">
         <v>1</v>
       </c>
@@ -9694,8 +10434,14 @@
         <v>0</v>
       </c>
       <c r="I258" t="inlineStr"/>
-      <c r="J258" t="inlineStr"/>
-      <c r="K258" t="inlineStr"/>
+      <c r="J258" t="n">
+        <v>0.4676</v>
+      </c>
+      <c r="K258" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L258" t="n">
         <v>1</v>
       </c>
@@ -9727,8 +10473,14 @@
         <v>0</v>
       </c>
       <c r="I259" t="inlineStr"/>
-      <c r="J259" t="inlineStr"/>
-      <c r="K259" t="inlineStr"/>
+      <c r="J259" t="n">
+        <v>0.4676</v>
+      </c>
+      <c r="K259" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L259" t="n">
         <v>1</v>
       </c>
@@ -9760,8 +10512,14 @@
         <v>0</v>
       </c>
       <c r="I260" t="inlineStr"/>
-      <c r="J260" t="inlineStr"/>
-      <c r="K260" t="inlineStr"/>
+      <c r="J260" t="n">
+        <v>0.4676</v>
+      </c>
+      <c r="K260" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L260" t="n">
         <v>1</v>
       </c>
@@ -9793,8 +10551,14 @@
         <v>0</v>
       </c>
       <c r="I261" t="inlineStr"/>
-      <c r="J261" t="inlineStr"/>
-      <c r="K261" t="inlineStr"/>
+      <c r="J261" t="n">
+        <v>0.4676</v>
+      </c>
+      <c r="K261" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L261" t="n">
         <v>1</v>
       </c>
@@ -9826,8 +10590,14 @@
         <v>0</v>
       </c>
       <c r="I262" t="inlineStr"/>
-      <c r="J262" t="inlineStr"/>
-      <c r="K262" t="inlineStr"/>
+      <c r="J262" t="n">
+        <v>0.4676</v>
+      </c>
+      <c r="K262" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L262" t="n">
         <v>1</v>
       </c>
@@ -9859,8 +10629,14 @@
         <v>0</v>
       </c>
       <c r="I263" t="inlineStr"/>
-      <c r="J263" t="inlineStr"/>
-      <c r="K263" t="inlineStr"/>
+      <c r="J263" t="n">
+        <v>0.4676</v>
+      </c>
+      <c r="K263" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L263" t="n">
         <v>1</v>
       </c>
@@ -9892,8 +10668,14 @@
         <v>0</v>
       </c>
       <c r="I264" t="inlineStr"/>
-      <c r="J264" t="inlineStr"/>
-      <c r="K264" t="inlineStr"/>
+      <c r="J264" t="n">
+        <v>0.4676</v>
+      </c>
+      <c r="K264" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L264" t="n">
         <v>1</v>
       </c>
@@ -9925,8 +10707,14 @@
         <v>0</v>
       </c>
       <c r="I265" t="inlineStr"/>
-      <c r="J265" t="inlineStr"/>
-      <c r="K265" t="inlineStr"/>
+      <c r="J265" t="n">
+        <v>0.4676</v>
+      </c>
+      <c r="K265" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L265" t="n">
         <v>1</v>
       </c>
@@ -9958,8 +10746,14 @@
         <v>0</v>
       </c>
       <c r="I266" t="inlineStr"/>
-      <c r="J266" t="inlineStr"/>
-      <c r="K266" t="inlineStr"/>
+      <c r="J266" t="n">
+        <v>0.4676</v>
+      </c>
+      <c r="K266" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L266" t="n">
         <v>1</v>
       </c>
@@ -9991,8 +10785,14 @@
         <v>0</v>
       </c>
       <c r="I267" t="inlineStr"/>
-      <c r="J267" t="inlineStr"/>
-      <c r="K267" t="inlineStr"/>
+      <c r="J267" t="n">
+        <v>0.4676</v>
+      </c>
+      <c r="K267" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L267" t="n">
         <v>1</v>
       </c>
@@ -10021,15 +10821,23 @@
         <v>47369470.38234504</v>
       </c>
       <c r="H268" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I268" t="inlineStr"/>
-      <c r="J268" t="inlineStr"/>
-      <c r="K268" t="inlineStr"/>
+      <c r="J268" t="n">
+        <v>0.4676</v>
+      </c>
+      <c r="K268" t="inlineStr">
+        <is>
+          <t>매도 체결</t>
+        </is>
+      </c>
       <c r="L268" t="n">
-        <v>1</v>
-      </c>
-      <c r="M268" t="inlineStr"/>
+        <v>1.128447390932421</v>
+      </c>
+      <c r="M268" t="n">
+        <v>1.027940220922677</v>
+      </c>
     </row>
     <row r="269">
       <c r="A269" s="1" t="n">
@@ -10054,7 +10862,7 @@
         <v>50607104.51884504</v>
       </c>
       <c r="H269" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I269" t="inlineStr"/>
       <c r="J269" t="inlineStr"/>
@@ -10087,7 +10895,7 @@
         <v>44793701.14044504</v>
       </c>
       <c r="H270" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I270" t="inlineStr"/>
       <c r="J270" t="inlineStr"/>
@@ -10120,7 +10928,7 @@
         <v>47820621.96974504</v>
       </c>
       <c r="H271" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I271" t="inlineStr"/>
       <c r="J271" t="inlineStr"/>
@@ -10153,7 +10961,7 @@
         <v>49302844.26264504</v>
       </c>
       <c r="H272" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I272" t="inlineStr"/>
       <c r="J272" t="inlineStr"/>
@@ -10186,7 +10994,7 @@
         <v>55788059.54784504</v>
       </c>
       <c r="H273" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I273" t="inlineStr"/>
       <c r="J273" t="inlineStr"/>
@@ -10219,7 +11027,7 @@
         <v>48584704.13724504</v>
       </c>
       <c r="H274" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I274" t="inlineStr"/>
       <c r="J274" t="inlineStr"/>
@@ -10252,7 +11060,7 @@
         <v>50370039.88704504</v>
       </c>
       <c r="H275" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I275" t="inlineStr"/>
       <c r="J275" t="inlineStr"/>
@@ -10285,7 +11093,7 @@
         <v>32559016.09074504</v>
       </c>
       <c r="H276" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I276" t="inlineStr"/>
       <c r="J276" t="inlineStr"/>
@@ -10318,7 +11126,7 @@
         <v>35761329.23984504</v>
       </c>
       <c r="H277" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I277" t="inlineStr"/>
       <c r="J277" t="inlineStr"/>
@@ -10351,7 +11159,7 @@
         <v>36105218.58744504</v>
       </c>
       <c r="H278" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I278" t="inlineStr"/>
       <c r="J278" t="inlineStr"/>
@@ -10384,7 +11192,7 @@
         <v>38628904.00201911</v>
       </c>
       <c r="H279" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I279" t="inlineStr"/>
       <c r="J279" t="inlineStr"/>
@@ -10417,7 +11225,7 @@
         <v>27782417.40921912</v>
       </c>
       <c r="H280" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I280" t="inlineStr"/>
       <c r="J280" t="inlineStr"/>
@@ -10450,7 +11258,7 @@
         <v>27782417.40921912</v>
       </c>
       <c r="H281" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I281" t="inlineStr"/>
       <c r="J281" t="inlineStr"/>
@@ -10714,11 +11522,17 @@
         <v>22898183.12259465</v>
       </c>
       <c r="H289" t="n">
-        <v>0</v>
-      </c>
-      <c r="I289" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I289" t="n">
+        <v>0.5032</v>
+      </c>
       <c r="J289" t="inlineStr"/>
-      <c r="K289" t="inlineStr"/>
+      <c r="K289" t="inlineStr">
+        <is>
+          <t>매수 체결</t>
+        </is>
+      </c>
       <c r="L289" t="n">
         <v>1</v>
       </c>
@@ -10751,7 +11565,11 @@
       </c>
       <c r="I290" t="inlineStr"/>
       <c r="J290" t="inlineStr"/>
-      <c r="K290" t="inlineStr"/>
+      <c r="K290" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L290" t="n">
         <v>1</v>
       </c>
@@ -10784,7 +11602,11 @@
       </c>
       <c r="I291" t="inlineStr"/>
       <c r="J291" t="inlineStr"/>
-      <c r="K291" t="inlineStr"/>
+      <c r="K291" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L291" t="n">
         <v>1</v>
       </c>
@@ -10817,7 +11639,11 @@
       </c>
       <c r="I292" t="inlineStr"/>
       <c r="J292" t="inlineStr"/>
-      <c r="K292" t="inlineStr"/>
+      <c r="K292" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L292" t="n">
         <v>1</v>
       </c>
@@ -10850,7 +11676,11 @@
       </c>
       <c r="I293" t="inlineStr"/>
       <c r="J293" t="inlineStr"/>
-      <c r="K293" t="inlineStr"/>
+      <c r="K293" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L293" t="n">
         <v>1</v>
       </c>
@@ -10883,7 +11713,11 @@
       </c>
       <c r="I294" t="inlineStr"/>
       <c r="J294" t="inlineStr"/>
-      <c r="K294" t="inlineStr"/>
+      <c r="K294" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L294" t="n">
         <v>1</v>
       </c>
@@ -10916,7 +11750,11 @@
       </c>
       <c r="I295" t="inlineStr"/>
       <c r="J295" t="inlineStr"/>
-      <c r="K295" t="inlineStr"/>
+      <c r="K295" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L295" t="n">
         <v>1</v>
       </c>
@@ -10949,7 +11787,11 @@
       </c>
       <c r="I296" t="inlineStr"/>
       <c r="J296" t="inlineStr"/>
-      <c r="K296" t="inlineStr"/>
+      <c r="K296" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L296" t="n">
         <v>1</v>
       </c>
@@ -10982,7 +11824,11 @@
       </c>
       <c r="I297" t="inlineStr"/>
       <c r="J297" t="inlineStr"/>
-      <c r="K297" t="inlineStr"/>
+      <c r="K297" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L297" t="n">
         <v>1</v>
       </c>
@@ -11015,7 +11861,11 @@
       </c>
       <c r="I298" t="inlineStr"/>
       <c r="J298" t="inlineStr"/>
-      <c r="K298" t="inlineStr"/>
+      <c r="K298" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L298" t="n">
         <v>1</v>
       </c>
@@ -11048,7 +11898,11 @@
       </c>
       <c r="I299" t="inlineStr"/>
       <c r="J299" t="inlineStr"/>
-      <c r="K299" t="inlineStr"/>
+      <c r="K299" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L299" t="n">
         <v>1</v>
       </c>
@@ -11081,7 +11935,11 @@
       </c>
       <c r="I300" t="inlineStr"/>
       <c r="J300" t="inlineStr"/>
-      <c r="K300" t="inlineStr"/>
+      <c r="K300" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L300" t="n">
         <v>1</v>
       </c>
@@ -11114,7 +11972,11 @@
       </c>
       <c r="I301" t="inlineStr"/>
       <c r="J301" t="inlineStr"/>
-      <c r="K301" t="inlineStr"/>
+      <c r="K301" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L301" t="n">
         <v>1</v>
       </c>
@@ -11147,7 +12009,11 @@
       </c>
       <c r="I302" t="inlineStr"/>
       <c r="J302" t="inlineStr"/>
-      <c r="K302" t="inlineStr"/>
+      <c r="K302" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L302" t="n">
         <v>1</v>
       </c>
@@ -11176,11 +12042,17 @@
         <v>21620408.76559465</v>
       </c>
       <c r="H303" t="n">
-        <v>0</v>
-      </c>
-      <c r="I303" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I303" t="n">
+        <v>0.493</v>
+      </c>
       <c r="J303" t="inlineStr"/>
-      <c r="K303" t="inlineStr"/>
+      <c r="K303" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L303" t="n">
         <v>1</v>
       </c>
@@ -11213,7 +12085,11 @@
       </c>
       <c r="I304" t="inlineStr"/>
       <c r="J304" t="inlineStr"/>
-      <c r="K304" t="inlineStr"/>
+      <c r="K304" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L304" t="n">
         <v>1</v>
       </c>
@@ -11242,11 +12118,17 @@
         <v>13156213.58469465</v>
       </c>
       <c r="H305" t="n">
-        <v>0</v>
-      </c>
-      <c r="I305" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I305" t="n">
+        <v>0.493</v>
+      </c>
       <c r="J305" t="inlineStr"/>
-      <c r="K305" t="inlineStr"/>
+      <c r="K305" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L305" t="n">
         <v>1</v>
       </c>
@@ -11275,11 +12157,17 @@
         <v>13782494.88469465</v>
       </c>
       <c r="H306" t="n">
-        <v>0</v>
-      </c>
-      <c r="I306" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I306" t="n">
+        <v>0.49</v>
+      </c>
       <c r="J306" t="inlineStr"/>
-      <c r="K306" t="inlineStr"/>
+      <c r="K306" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L306" t="n">
         <v>1</v>
       </c>
@@ -11313,10 +12201,12 @@
       <c r="I307" t="n">
         <v>0.5125</v>
       </c>
-      <c r="J307" t="n">
-        <v>0.5125</v>
-      </c>
-      <c r="K307" t="inlineStr"/>
+      <c r="J307" t="inlineStr"/>
+      <c r="K307" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L307" t="n">
         <v>1</v>
       </c>
@@ -11350,12 +12240,10 @@
       <c r="I308" t="n">
         <v>0.5</v>
       </c>
-      <c r="J308" t="n">
-        <v>0.5125</v>
-      </c>
+      <c r="J308" t="inlineStr"/>
       <c r="K308" t="inlineStr">
         <is>
-          <t>매수 체결</t>
+          <t>매도 대기</t>
         </is>
       </c>
       <c r="L308" t="n">
@@ -11391,9 +12279,7 @@
       <c r="I309" t="n">
         <v>0.4999</v>
       </c>
-      <c r="J309" t="n">
-        <v>0.5125</v>
-      </c>
+      <c r="J309" t="inlineStr"/>
       <c r="K309" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -11432,9 +12318,7 @@
       <c r="I310" t="n">
         <v>0.49</v>
       </c>
-      <c r="J310" t="n">
-        <v>0.5125</v>
-      </c>
+      <c r="J310" t="inlineStr"/>
       <c r="K310" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -11473,9 +12357,7 @@
       <c r="I311" t="n">
         <v>0.49</v>
       </c>
-      <c r="J311" t="n">
-        <v>0.5125</v>
-      </c>
+      <c r="J311" t="inlineStr"/>
       <c r="K311" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -11514,9 +12396,7 @@
       <c r="I312" t="n">
         <v>0.4899</v>
       </c>
-      <c r="J312" t="n">
-        <v>0.5125</v>
-      </c>
+      <c r="J312" t="inlineStr"/>
       <c r="K312" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -11555,9 +12435,7 @@
       <c r="I313" t="n">
         <v>0.4899</v>
       </c>
-      <c r="J313" t="n">
-        <v>0.5125</v>
-      </c>
+      <c r="J313" t="inlineStr"/>
       <c r="K313" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -11596,9 +12474,7 @@
       <c r="I314" t="n">
         <v>0.4897</v>
       </c>
-      <c r="J314" t="n">
-        <v>0.5125</v>
-      </c>
+      <c r="J314" t="inlineStr"/>
       <c r="K314" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -11637,9 +12513,7 @@
       <c r="I315" t="n">
         <v>0.4998</v>
       </c>
-      <c r="J315" t="n">
-        <v>0.5125</v>
-      </c>
+      <c r="J315" t="inlineStr"/>
       <c r="K315" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -11678,9 +12552,7 @@
       <c r="I316" t="n">
         <v>0.4898</v>
       </c>
-      <c r="J316" t="n">
-        <v>0.5125</v>
-      </c>
+      <c r="J316" t="inlineStr"/>
       <c r="K316" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -11719,9 +12591,7 @@
       <c r="I317" t="n">
         <v>0.4999</v>
       </c>
-      <c r="J317" t="n">
-        <v>0.5125</v>
-      </c>
+      <c r="J317" t="inlineStr"/>
       <c r="K317" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -11760,9 +12630,7 @@
       <c r="I318" t="n">
         <v>0.4999</v>
       </c>
-      <c r="J318" t="n">
-        <v>0.5125</v>
-      </c>
+      <c r="J318" t="inlineStr"/>
       <c r="K318" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -11801,9 +12669,7 @@
       <c r="I319" t="n">
         <v>0.4937</v>
       </c>
-      <c r="J319" t="n">
-        <v>0.5125</v>
-      </c>
+      <c r="J319" t="inlineStr"/>
       <c r="K319" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -11842,9 +12708,7 @@
       <c r="I320" t="n">
         <v>0.5</v>
       </c>
-      <c r="J320" t="n">
-        <v>0.5125</v>
-      </c>
+      <c r="J320" t="inlineStr"/>
       <c r="K320" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -11883,9 +12747,7 @@
       <c r="I321" t="n">
         <v>0.4999</v>
       </c>
-      <c r="J321" t="n">
-        <v>0.5125</v>
-      </c>
+      <c r="J321" t="inlineStr"/>
       <c r="K321" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -11924,9 +12786,7 @@
       <c r="I322" t="n">
         <v>0.4999</v>
       </c>
-      <c r="J322" t="n">
-        <v>0.5125</v>
-      </c>
+      <c r="J322" t="inlineStr"/>
       <c r="K322" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -11965,9 +12825,7 @@
       <c r="I323" t="n">
         <v>0.5099</v>
       </c>
-      <c r="J323" t="n">
-        <v>0.5125</v>
-      </c>
+      <c r="J323" t="inlineStr"/>
       <c r="K323" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -12006,9 +12864,7 @@
       <c r="I324" t="n">
         <v>0.5099</v>
       </c>
-      <c r="J324" t="n">
-        <v>0.5125</v>
-      </c>
+      <c r="J324" t="inlineStr"/>
       <c r="K324" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -12047,9 +12903,7 @@
       <c r="I325" t="n">
         <v>0.4999</v>
       </c>
-      <c r="J325" t="n">
-        <v>0.5125</v>
-      </c>
+      <c r="J325" t="inlineStr"/>
       <c r="K325" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -12088,9 +12942,7 @@
       <c r="I326" t="n">
         <v>0.4999</v>
       </c>
-      <c r="J326" t="n">
-        <v>0.5125</v>
-      </c>
+      <c r="J326" t="inlineStr"/>
       <c r="K326" t="inlineStr">
         <is>
           <t>매도 대기</t>
